--- a/Scrum/BACKLOG.xlsx
+++ b/Scrum/BACKLOG.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
   <si>
     <t>Task Nummer</t>
   </si>
@@ -47,7 +47,19 @@
     <t>schuin move</t>
   </si>
   <si>
+    <t>JL</t>
+  </si>
+  <si>
     <t>pawn kil</t>
+  </si>
+  <si>
+    <t>print color pawns</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>print input error</t>
   </si>
   <si>
     <t>Practicum 1</t>
@@ -94,6 +106,12 @@
   <si>
     <t>1, 2</t>
   </si>
+  <si>
+    <t>7, 8</t>
+  </si>
+  <si>
+    <t>5, 6</t>
+  </si>
 </sst>
 </file>
 
@@ -103,7 +121,7 @@
     <numFmt numFmtId="164" formatCode="dd/mm"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -116,26 +134,19 @@
     <font/>
     <font>
       <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <color rgb="FF434343"/>
-    </font>
-    <font>
-      <color rgb="FFD9D9D9"/>
+      <name val="Arial"/>
     </font>
     <font>
       <color rgb="FFD9D9D9"/>
       <name val="Arial"/>
     </font>
     <font>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <color rgb="FF000000"/>
     </font>
   </fonts>
   <fills count="4">
@@ -225,24 +236,24 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="4" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="10" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="4" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="9" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
@@ -258,7 +269,7 @@
     <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
@@ -274,7 +285,7 @@
     <xf borderId="2" fillId="2" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -282,11 +293,8 @@
     </xf>
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -295,26 +303,26 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="4" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="5" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="7" fillId="2" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="8" fillId="2" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -395,8 +403,8 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1118432376"/>
-        <c:axId val="118884409"/>
+        <c:axId val="373111274"/>
+        <c:axId val="2026380158"/>
       </c:barChart>
       <c:lineChart>
         <c:ser>
@@ -435,11 +443,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1118432376"/>
-        <c:axId val="118884409"/>
+        <c:axId val="373111274"/>
+        <c:axId val="2026380158"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1118432376"/>
+        <c:axId val="373111274"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -481,10 +489,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="118884409"/>
+        <c:crossAx val="2026380158"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="118884409"/>
+        <c:axId val="2026380158"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -553,7 +561,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1118432376"/>
+        <c:crossAx val="373111274"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -808,40 +816,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I2" s="8"/>
       <c r="J2" s="7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
@@ -853,11 +861,11 @@
       </c>
       <c r="C3" s="12">
         <f>((1-(B3/4))*COUNT(Tasks!$A$2:$A$40))</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D3" s="12">
         <f>COUNT(Tasks!$A$2:$A$40)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E3" s="11">
         <v>0.0</v>
@@ -879,27 +887,27 @@
       <c r="A4" s="15">
         <v>43888.0</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>1.0</v>
       </c>
       <c r="C4" s="16">
         <f>((1-(B4/4))*COUNT(Tasks!$A$2:$A$40))</f>
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="D4" s="16">
         <f t="shared" ref="D4:D7" si="1">D3-F4-H4</f>
-        <v>3.3</v>
-      </c>
-      <c r="E4" s="2">
+        <v>5.3</v>
+      </c>
+      <c r="E4" s="1">
         <v>6.5</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>1.35</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <v>6.5</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="1">
         <v>1.35</v>
       </c>
       <c r="J4" s="17">
@@ -915,40 +923,52 @@
       <c r="A5" s="15">
         <v>43889.0</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>2.0</v>
       </c>
       <c r="C5" s="16">
         <f>((1-(B5/4))*COUNT(Tasks!$A$2:$A$40))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" s="16">
         <f t="shared" si="1"/>
-        <v>3.3</v>
+        <v>1.05</v>
+      </c>
+      <c r="E5" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="F5" s="4">
+        <v>2.15</v>
+      </c>
+      <c r="G5" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>2.1</v>
       </c>
       <c r="J5" s="17">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="K5" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="15">
         <v>43890.0</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>3.0</v>
       </c>
       <c r="C6" s="16">
         <f>((1-(B6/4))*COUNT(Tasks!$A$2:$A$40))</f>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="D6" s="16">
         <f t="shared" si="1"/>
-        <v>3.3</v>
+        <v>1.05</v>
       </c>
       <c r="J6" s="17">
         <f t="shared" si="2"/>
@@ -972,7 +992,7 @@
       </c>
       <c r="D7" s="21">
         <f t="shared" si="1"/>
-        <v>3.3</v>
+        <v>1.05</v>
       </c>
       <c r="E7" s="22"/>
       <c r="F7" s="22"/>
@@ -990,85 +1010,90 @@
     </row>
     <row r="8">
       <c r="A8" s="24"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
     </row>
     <row r="10">
-      <c r="A10" s="26"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
     </row>
     <row r="11">
-      <c r="A11" s="28"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
     </row>
     <row r="12">
       <c r="A12" s="24"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="G12" s="26"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="G12" s="25"/>
     </row>
     <row r="13">
       <c r="A13" s="24"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="H13" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="J13" s="32"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="H13" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" s="31"/>
     </row>
     <row r="14">
       <c r="A14" s="24"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="J14" s="35" t="s">
-        <v>25</v>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="J14" s="34" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="24"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="H15" s="33">
+      <c r="B15" s="1"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="H15" s="32">
         <v>43888.0</v>
       </c>
-      <c r="I15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J15" s="36" t="s">
-        <v>26</v>
+      <c r="I15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" s="35" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="16">
-      <c r="H16" s="33">
+      <c r="H16" s="32">
         <v>43889.0</v>
       </c>
-      <c r="J16" s="18"/>
+      <c r="I16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J16" s="35" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="17">
-      <c r="H17" s="33">
+      <c r="H17" s="32">
         <v>43890.0</v>
       </c>
       <c r="J17" s="18"/>
     </row>
     <row r="18">
-      <c r="H18" s="37">
+      <c r="H18" s="36">
         <v>43891.0</v>
       </c>
       <c r="I18" s="22"/>
@@ -1099,16 +1124,16 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1119,10 +1144,10 @@
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>2.0</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>1.0</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -1133,13 +1158,13 @@
       <c r="A3" s="1">
         <v>2.0</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>4.0</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>1.0</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -1153,11 +1178,11 @@
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>10.0</v>
       </c>
-      <c r="D4" s="4">
-        <v>0.7</v>
+      <c r="D4" s="3">
+        <v>0.95</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>6</v>
@@ -1170,10 +1195,10 @@
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>5.0</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>0.0</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -1187,14 +1212,14 @@
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>2.0</v>
       </c>
-      <c r="D6" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>6</v>
+      <c r="D6" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7">
@@ -1202,25 +1227,51 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="3">
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="2">
         <v>2.0</v>
       </c>
-      <c r="D7" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
+      <c r="D8" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="9">
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
+      <c r="A9" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="10">
       <c r="C10" s="5"/>

--- a/Scrum/BACKLOG.xlsx
+++ b/Scrum/BACKLOG.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
   <si>
     <t>Task Nummer</t>
   </si>
@@ -44,10 +44,10 @@
     <t>AI</t>
   </si>
   <si>
-    <t>schuin move</t>
+    <t>JL</t>
   </si>
   <si>
-    <t>JL</t>
+    <t>schuin move</t>
   </si>
   <si>
     <t>pawn kil</t>
@@ -60,6 +60,18 @@
   </si>
   <si>
     <t>print input error</t>
+  </si>
+  <si>
+    <t>pawn wins when on other side</t>
+  </si>
+  <si>
+    <t>fix bug ~Board destructor</t>
+  </si>
+  <si>
+    <t>update UML</t>
+  </si>
+  <si>
+    <t>update Board class+ add moveStr</t>
   </si>
   <si>
     <t>Practicum 1</t>
@@ -104,13 +116,19 @@
     <t>Jochem</t>
   </si>
   <si>
-    <t>1, 2</t>
+    <t>1, 2, 3</t>
   </si>
   <si>
-    <t>7, 8</t>
+    <t>7, 8, 9, 3</t>
   </si>
   <si>
-    <t>5, 6</t>
+    <t>5, 6, 3, 10</t>
+  </si>
+  <si>
+    <t>11, 12</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
 </sst>
 </file>
@@ -121,7 +139,7 @@
     <numFmt numFmtId="164" formatCode="dd/mm"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="11">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -145,11 +163,25 @@
       <name val="Arial"/>
     </font>
     <font>
+      <color rgb="FF073763"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color rgb="FF980000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color rgb="FF783F04"/>
+    </font>
+    <font>
+      <color rgb="FF274E13"/>
+    </font>
+    <font>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -166,6 +198,30 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD9D9D9"/>
         <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC9DAF8"/>
+        <bgColor rgb="FFC9DAF8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4CCCC"/>
+        <bgColor rgb="FFF4CCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD9EAD3"/>
       </patternFill>
     </fill>
   </fills>
@@ -236,7 +292,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="50">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -246,14 +302,20 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="4" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="9" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="9" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
@@ -277,8 +339,17 @@
     <xf borderId="0" fillId="2" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="4" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="7" numFmtId="165" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -288,13 +359,21 @@
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="2" fillId="4" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
+    <xf borderId="2" fillId="5" fontId="7" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="6" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="7" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -316,18 +395,26 @@
     <xf borderId="7" fillId="2" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="8" fillId="2" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="49" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="3" fillId="0" fontId="2" numFmtId="49" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -403,8 +490,8 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="373111274"/>
-        <c:axId val="2026380158"/>
+        <c:axId val="1252748298"/>
+        <c:axId val="2014153377"/>
       </c:barChart>
       <c:lineChart>
         <c:ser>
@@ -443,11 +530,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="373111274"/>
-        <c:axId val="2026380158"/>
+        <c:axId val="1252748298"/>
+        <c:axId val="2014153377"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="373111274"/>
+        <c:axId val="1252748298"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -489,10 +576,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2026380158"/>
+        <c:crossAx val="2014153377"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2026380158"/>
+        <c:axId val="2014153377"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -561,7 +648,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="373111274"/>
+        <c:crossAx val="1252748298"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -815,289 +902,306 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="7" t="s">
-        <v>16</v>
+      <c r="A1" s="9" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="7" t="s">
+      <c r="A2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="B2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="C2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="D2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="7" t="s">
+      <c r="E2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>26</v>
       </c>
+      <c r="G2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="10"/>
+      <c r="J2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="10">
+      <c r="A3" s="12">
         <v>43887.0</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="13">
         <v>0.0</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="14">
         <f>((1-(B3/4))*COUNT(Tasks!$A$2:$A$40))</f>
-        <v>8</v>
-      </c>
-      <c r="D3" s="12">
+        <v>12</v>
+      </c>
+      <c r="D3" s="14">
         <f>COUNT(Tasks!$A$2:$A$40)</f>
-        <v>8</v>
-      </c>
-      <c r="E3" s="11">
+        <v>12</v>
+      </c>
+      <c r="E3" s="13">
         <v>0.0</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="13">
         <v>0.0</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="13">
         <v>0.0</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="13">
         <v>0.0</v>
       </c>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="14"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="16"/>
     </row>
     <row r="4">
-      <c r="A4" s="15">
+      <c r="A4" s="17">
         <v>43888.0</v>
       </c>
       <c r="B4" s="1">
         <v>1.0</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="18">
         <f>((1-(B4/4))*COUNT(Tasks!$A$2:$A$40))</f>
-        <v>6</v>
-      </c>
-      <c r="D4" s="16">
+        <v>9</v>
+      </c>
+      <c r="D4" s="19">
         <f t="shared" ref="D4:D7" si="1">D3-F4-H4</f>
-        <v>5.3</v>
-      </c>
-      <c r="E4" s="1">
+        <v>9.3</v>
+      </c>
+      <c r="E4" s="20">
         <v>6.5</v>
       </c>
       <c r="F4" s="1">
         <v>1.35</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="21">
         <v>6.5</v>
       </c>
       <c r="H4" s="1">
         <v>1.35</v>
       </c>
-      <c r="J4" s="17">
+      <c r="J4" s="22">
         <f t="shared" ref="J4:J7" si="2">H4+F4</f>
         <v>2.7</v>
       </c>
-      <c r="K4" s="18">
+      <c r="K4" s="23">
         <f t="shared" ref="K4:K7" si="3">G4+E4</f>
         <v>13</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="15">
+      <c r="A5" s="17">
         <v>43889.0</v>
       </c>
       <c r="B5" s="1">
         <v>2.0</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="18">
         <f>((1-(B5/4))*COUNT(Tasks!$A$2:$A$40))</f>
-        <v>4</v>
-      </c>
-      <c r="D5" s="16">
+        <v>6</v>
+      </c>
+      <c r="D5" s="19">
         <f t="shared" si="1"/>
-        <v>1.05</v>
-      </c>
-      <c r="E5" s="4">
+        <v>3.05</v>
+      </c>
+      <c r="E5" s="20">
         <v>3.5</v>
       </c>
-      <c r="F5" s="4">
-        <v>2.15</v>
-      </c>
-      <c r="G5" s="1">
+      <c r="F5" s="5">
+        <v>3.65</v>
+      </c>
+      <c r="G5" s="21">
         <v>3.0</v>
       </c>
-      <c r="H5" s="4">
-        <v>2.1</v>
-      </c>
-      <c r="J5" s="17">
+      <c r="H5" s="5">
+        <v>2.6</v>
+      </c>
+      <c r="J5" s="22">
         <f t="shared" si="2"/>
-        <v>4.25</v>
-      </c>
-      <c r="K5" s="18">
+        <v>6.25</v>
+      </c>
+      <c r="K5" s="23">
         <f t="shared" si="3"/>
         <v>6.5</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="15">
+      <c r="A6" s="17">
         <v>43890.0</v>
       </c>
       <c r="B6" s="1">
         <v>3.0</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="18">
         <f>((1-(B6/4))*COUNT(Tasks!$A$2:$A$40))</f>
-        <v>2</v>
-      </c>
-      <c r="D6" s="16">
+        <v>3</v>
+      </c>
+      <c r="D6" s="19">
         <f t="shared" si="1"/>
-        <v>1.05</v>
-      </c>
-      <c r="J6" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="E6" s="20">
+        <v>2.0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="G6" s="21">
+        <v>2.0</v>
+      </c>
+      <c r="H6" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="J6" s="22">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="K6" s="23">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="24">
+        <v>43891.0</v>
+      </c>
+      <c r="B7" s="25">
+        <v>4.0</v>
+      </c>
+      <c r="C7" s="26">
+        <f>((1-(B7/4))*COUNT(Tasks!$A$2:$A$40))</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="27">
+        <f t="shared" si="1"/>
+        <v>0.05</v>
+      </c>
+      <c r="E7" s="28"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K6" s="18">
+      <c r="K7" s="31">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="19">
+    <row r="8">
+      <c r="A8" s="32"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="34"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="36"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="32"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="G12" s="34"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="32"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="H13" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="J13" s="40"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="32"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="J14" s="43" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="32"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="H15" s="41">
+        <v>43888.0</v>
+      </c>
+      <c r="I15" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="J15" s="45" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="H16" s="41">
+        <v>43889.0</v>
+      </c>
+      <c r="I16" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="J16" s="45" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="H17" s="41">
+        <v>43890.0</v>
+      </c>
+      <c r="I17" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="J17" s="46" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="H18" s="47">
         <v>43891.0</v>
       </c>
-      <c r="B7" s="20">
-        <v>4.0</v>
-      </c>
-      <c r="C7" s="21">
-        <f>((1-(B7/4))*COUNT(Tasks!$A$2:$A$40))</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="21">
-        <f t="shared" si="1"/>
-        <v>1.05</v>
-      </c>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K7" s="23">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="24"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="27"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="24"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="G12" s="25"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="24"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="H13" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="J13" s="31"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="24"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="J14" s="34" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="24"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="H15" s="32">
-        <v>43888.0</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J15" s="35" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="H16" s="32">
-        <v>43889.0</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J16" s="35" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="H17" s="32">
-        <v>43890.0</v>
-      </c>
-      <c r="J17" s="18"/>
-    </row>
-    <row r="18">
-      <c r="H18" s="36">
-        <v>43891.0</v>
-      </c>
-      <c r="I18" s="22"/>
-      <c r="J18" s="23"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1117,7 +1221,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="24.43"/>
+    <col customWidth="1" min="2" max="2" width="29.14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1147,7 +1251,7 @@
       <c r="C2" s="2">
         <v>2.0</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="4">
         <v>1.0</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -1164,7 +1268,7 @@
       <c r="C3" s="2">
         <v>4.0</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="4">
         <v>1.0</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -1181,8 +1285,8 @@
       <c r="C4" s="2">
         <v>10.0</v>
       </c>
-      <c r="D4" s="3">
-        <v>0.95</v>
+      <c r="D4" s="4">
+        <v>1.0</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>6</v>
@@ -1198,11 +1302,11 @@
       <c r="C5" s="2">
         <v>5.0</v>
       </c>
-      <c r="D5" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>6</v>
+      <c r="D5" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1210,16 +1314,16 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" s="2">
         <v>2.0</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="4">
         <v>1.0</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>11</v>
+      <c r="E6" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -1232,11 +1336,11 @@
       <c r="C7" s="2">
         <v>2.0</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="4">
         <v>1.0</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>11</v>
+      <c r="E7" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1249,7 +1353,7 @@
       <c r="C8" s="2">
         <v>2.0</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="4">
         <v>1.0</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -1266,7 +1370,7 @@
       <c r="C9" s="2">
         <v>0.5</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="4">
         <v>1.0</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -1274,3970 +1378,4034 @@
       </c>
     </row>
     <row r="10">
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
+      <c r="A10" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="11">
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
+      <c r="A11" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="12">
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
+      <c r="A12" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="13">
-      <c r="C13" s="5"/>
-      <c r="D13" s="6"/>
+      <c r="A13" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="14">
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="8"/>
     </row>
     <row r="15">
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="8"/>
     </row>
     <row r="16">
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="8"/>
     </row>
     <row r="17">
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="8"/>
     </row>
     <row r="18">
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="8"/>
     </row>
     <row r="19">
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="8"/>
     </row>
     <row r="20">
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="8"/>
     </row>
     <row r="21">
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="8"/>
     </row>
     <row r="22">
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="8"/>
     </row>
     <row r="23">
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="8"/>
     </row>
     <row r="24">
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="8"/>
     </row>
     <row r="25">
-      <c r="C25" s="5"/>
-      <c r="D25" s="6"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="8"/>
     </row>
     <row r="26">
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="8"/>
     </row>
     <row r="27">
-      <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="8"/>
     </row>
     <row r="28">
-      <c r="C28" s="5"/>
-      <c r="D28" s="6"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="8"/>
     </row>
     <row r="29">
-      <c r="C29" s="5"/>
-      <c r="D29" s="6"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="8"/>
     </row>
     <row r="30">
-      <c r="C30" s="5"/>
-      <c r="D30" s="6"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="8"/>
     </row>
     <row r="31">
-      <c r="C31" s="5"/>
-      <c r="D31" s="6"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="8"/>
     </row>
     <row r="32">
-      <c r="C32" s="5"/>
-      <c r="D32" s="6"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="8"/>
     </row>
     <row r="33">
-      <c r="C33" s="5"/>
-      <c r="D33" s="6"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="8"/>
     </row>
     <row r="34">
-      <c r="C34" s="5"/>
-      <c r="D34" s="6"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="8"/>
     </row>
     <row r="35">
-      <c r="C35" s="5"/>
-      <c r="D35" s="6"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="8"/>
     </row>
     <row r="36">
-      <c r="C36" s="5"/>
-      <c r="D36" s="6"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="8"/>
     </row>
     <row r="37">
-      <c r="C37" s="5"/>
-      <c r="D37" s="6"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="8"/>
     </row>
     <row r="38">
-      <c r="C38" s="5"/>
-      <c r="D38" s="6"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="8"/>
     </row>
     <row r="39">
-      <c r="C39" s="5"/>
-      <c r="D39" s="6"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="8"/>
     </row>
     <row r="40">
-      <c r="C40" s="5"/>
-      <c r="D40" s="6"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="8"/>
     </row>
     <row r="41">
-      <c r="C41" s="5"/>
-      <c r="D41" s="6"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="8"/>
     </row>
     <row r="42">
-      <c r="C42" s="5"/>
-      <c r="D42" s="6"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="8"/>
     </row>
     <row r="43">
-      <c r="C43" s="5"/>
-      <c r="D43" s="6"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="8"/>
     </row>
     <row r="44">
-      <c r="C44" s="5"/>
-      <c r="D44" s="6"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="8"/>
     </row>
     <row r="45">
-      <c r="C45" s="5"/>
-      <c r="D45" s="6"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="8"/>
     </row>
     <row r="46">
-      <c r="C46" s="5"/>
-      <c r="D46" s="6"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="8"/>
     </row>
     <row r="47">
-      <c r="C47" s="5"/>
-      <c r="D47" s="6"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="8"/>
     </row>
     <row r="48">
-      <c r="C48" s="5"/>
-      <c r="D48" s="6"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="8"/>
     </row>
     <row r="49">
-      <c r="C49" s="5"/>
-      <c r="D49" s="6"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="8"/>
     </row>
     <row r="50">
-      <c r="C50" s="5"/>
-      <c r="D50" s="6"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="8"/>
     </row>
     <row r="51">
-      <c r="C51" s="5"/>
-      <c r="D51" s="6"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="8"/>
     </row>
     <row r="52">
-      <c r="C52" s="5"/>
-      <c r="D52" s="6"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="8"/>
     </row>
     <row r="53">
-      <c r="C53" s="5"/>
-      <c r="D53" s="6"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="8"/>
     </row>
     <row r="54">
-      <c r="C54" s="5"/>
-      <c r="D54" s="6"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="8"/>
     </row>
     <row r="55">
-      <c r="C55" s="5"/>
-      <c r="D55" s="6"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="8"/>
     </row>
     <row r="56">
-      <c r="C56" s="5"/>
-      <c r="D56" s="6"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="8"/>
     </row>
     <row r="57">
-      <c r="C57" s="5"/>
-      <c r="D57" s="6"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="8"/>
     </row>
     <row r="58">
-      <c r="C58" s="5"/>
-      <c r="D58" s="6"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="8"/>
     </row>
     <row r="59">
-      <c r="C59" s="5"/>
-      <c r="D59" s="6"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="8"/>
     </row>
     <row r="60">
-      <c r="C60" s="5"/>
-      <c r="D60" s="6"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="8"/>
     </row>
     <row r="61">
-      <c r="C61" s="5"/>
-      <c r="D61" s="6"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="8"/>
     </row>
     <row r="62">
-      <c r="C62" s="5"/>
-      <c r="D62" s="6"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="8"/>
     </row>
     <row r="63">
-      <c r="C63" s="5"/>
-      <c r="D63" s="6"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="8"/>
     </row>
     <row r="64">
-      <c r="C64" s="5"/>
-      <c r="D64" s="6"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="8"/>
     </row>
     <row r="65">
-      <c r="C65" s="5"/>
-      <c r="D65" s="6"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="8"/>
     </row>
     <row r="66">
-      <c r="C66" s="5"/>
-      <c r="D66" s="6"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="8"/>
     </row>
     <row r="67">
-      <c r="C67" s="5"/>
-      <c r="D67" s="6"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="8"/>
     </row>
     <row r="68">
-      <c r="C68" s="5"/>
-      <c r="D68" s="6"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="8"/>
     </row>
     <row r="69">
-      <c r="C69" s="5"/>
-      <c r="D69" s="6"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="8"/>
     </row>
     <row r="70">
-      <c r="C70" s="5"/>
-      <c r="D70" s="6"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="8"/>
     </row>
     <row r="71">
-      <c r="C71" s="5"/>
-      <c r="D71" s="6"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="8"/>
     </row>
     <row r="72">
-      <c r="C72" s="5"/>
-      <c r="D72" s="6"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="8"/>
     </row>
     <row r="73">
-      <c r="C73" s="5"/>
-      <c r="D73" s="6"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="8"/>
     </row>
     <row r="74">
-      <c r="C74" s="5"/>
-      <c r="D74" s="6"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="8"/>
     </row>
     <row r="75">
-      <c r="C75" s="5"/>
-      <c r="D75" s="6"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="8"/>
     </row>
     <row r="76">
-      <c r="C76" s="5"/>
-      <c r="D76" s="6"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="8"/>
     </row>
     <row r="77">
-      <c r="C77" s="5"/>
-      <c r="D77" s="6"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="8"/>
     </row>
     <row r="78">
-      <c r="C78" s="5"/>
-      <c r="D78" s="6"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="8"/>
     </row>
     <row r="79">
-      <c r="C79" s="5"/>
-      <c r="D79" s="6"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="8"/>
     </row>
     <row r="80">
-      <c r="C80" s="5"/>
-      <c r="D80" s="6"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="8"/>
     </row>
     <row r="81">
-      <c r="C81" s="5"/>
-      <c r="D81" s="6"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="8"/>
     </row>
     <row r="82">
-      <c r="C82" s="5"/>
-      <c r="D82" s="6"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="8"/>
     </row>
     <row r="83">
-      <c r="C83" s="5"/>
-      <c r="D83" s="6"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="8"/>
     </row>
     <row r="84">
-      <c r="C84" s="5"/>
-      <c r="D84" s="6"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="8"/>
     </row>
     <row r="85">
-      <c r="C85" s="5"/>
-      <c r="D85" s="6"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="8"/>
     </row>
     <row r="86">
-      <c r="C86" s="5"/>
-      <c r="D86" s="6"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="8"/>
     </row>
     <row r="87">
-      <c r="C87" s="5"/>
-      <c r="D87" s="6"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="8"/>
     </row>
     <row r="88">
-      <c r="C88" s="5"/>
-      <c r="D88" s="6"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="8"/>
     </row>
     <row r="89">
-      <c r="C89" s="5"/>
-      <c r="D89" s="6"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="8"/>
     </row>
     <row r="90">
-      <c r="C90" s="5"/>
-      <c r="D90" s="6"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="8"/>
     </row>
     <row r="91">
-      <c r="C91" s="5"/>
-      <c r="D91" s="6"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="8"/>
     </row>
     <row r="92">
-      <c r="C92" s="5"/>
-      <c r="D92" s="6"/>
+      <c r="C92" s="7"/>
+      <c r="D92" s="8"/>
     </row>
     <row r="93">
-      <c r="C93" s="5"/>
-      <c r="D93" s="6"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="8"/>
     </row>
     <row r="94">
-      <c r="C94" s="5"/>
-      <c r="D94" s="6"/>
+      <c r="C94" s="7"/>
+      <c r="D94" s="8"/>
     </row>
     <row r="95">
-      <c r="C95" s="5"/>
-      <c r="D95" s="6"/>
+      <c r="C95" s="7"/>
+      <c r="D95" s="8"/>
     </row>
     <row r="96">
-      <c r="C96" s="5"/>
-      <c r="D96" s="6"/>
+      <c r="C96" s="7"/>
+      <c r="D96" s="8"/>
     </row>
     <row r="97">
-      <c r="C97" s="5"/>
-      <c r="D97" s="6"/>
+      <c r="C97" s="7"/>
+      <c r="D97" s="8"/>
     </row>
     <row r="98">
-      <c r="C98" s="5"/>
-      <c r="D98" s="6"/>
+      <c r="C98" s="7"/>
+      <c r="D98" s="8"/>
     </row>
     <row r="99">
-      <c r="C99" s="5"/>
-      <c r="D99" s="6"/>
+      <c r="C99" s="7"/>
+      <c r="D99" s="8"/>
     </row>
     <row r="100">
-      <c r="C100" s="5"/>
-      <c r="D100" s="6"/>
+      <c r="C100" s="7"/>
+      <c r="D100" s="8"/>
     </row>
     <row r="101">
-      <c r="C101" s="5"/>
-      <c r="D101" s="6"/>
+      <c r="C101" s="7"/>
+      <c r="D101" s="8"/>
     </row>
     <row r="102">
-      <c r="C102" s="5"/>
-      <c r="D102" s="6"/>
+      <c r="C102" s="7"/>
+      <c r="D102" s="8"/>
     </row>
     <row r="103">
-      <c r="C103" s="5"/>
-      <c r="D103" s="6"/>
+      <c r="C103" s="7"/>
+      <c r="D103" s="8"/>
     </row>
     <row r="104">
-      <c r="C104" s="5"/>
-      <c r="D104" s="6"/>
+      <c r="C104" s="7"/>
+      <c r="D104" s="8"/>
     </row>
     <row r="105">
-      <c r="C105" s="5"/>
-      <c r="D105" s="6"/>
+      <c r="C105" s="7"/>
+      <c r="D105" s="8"/>
     </row>
     <row r="106">
-      <c r="C106" s="5"/>
-      <c r="D106" s="6"/>
+      <c r="C106" s="7"/>
+      <c r="D106" s="8"/>
     </row>
     <row r="107">
-      <c r="C107" s="5"/>
-      <c r="D107" s="6"/>
+      <c r="C107" s="7"/>
+      <c r="D107" s="8"/>
     </row>
     <row r="108">
-      <c r="C108" s="5"/>
-      <c r="D108" s="6"/>
+      <c r="C108" s="7"/>
+      <c r="D108" s="8"/>
     </row>
     <row r="109">
-      <c r="C109" s="5"/>
-      <c r="D109" s="6"/>
+      <c r="C109" s="7"/>
+      <c r="D109" s="8"/>
     </row>
     <row r="110">
-      <c r="C110" s="5"/>
-      <c r="D110" s="6"/>
+      <c r="C110" s="7"/>
+      <c r="D110" s="8"/>
     </row>
     <row r="111">
-      <c r="C111" s="5"/>
-      <c r="D111" s="6"/>
+      <c r="C111" s="7"/>
+      <c r="D111" s="8"/>
     </row>
     <row r="112">
-      <c r="C112" s="5"/>
-      <c r="D112" s="6"/>
+      <c r="C112" s="7"/>
+      <c r="D112" s="8"/>
     </row>
     <row r="113">
-      <c r="C113" s="5"/>
-      <c r="D113" s="6"/>
+      <c r="C113" s="7"/>
+      <c r="D113" s="8"/>
     </row>
     <row r="114">
-      <c r="C114" s="5"/>
-      <c r="D114" s="6"/>
+      <c r="C114" s="7"/>
+      <c r="D114" s="8"/>
     </row>
     <row r="115">
-      <c r="C115" s="5"/>
-      <c r="D115" s="6"/>
+      <c r="C115" s="7"/>
+      <c r="D115" s="8"/>
     </row>
     <row r="116">
-      <c r="C116" s="5"/>
-      <c r="D116" s="6"/>
+      <c r="C116" s="7"/>
+      <c r="D116" s="8"/>
     </row>
     <row r="117">
-      <c r="C117" s="5"/>
-      <c r="D117" s="6"/>
+      <c r="C117" s="7"/>
+      <c r="D117" s="8"/>
     </row>
     <row r="118">
-      <c r="C118" s="5"/>
-      <c r="D118" s="6"/>
+      <c r="C118" s="7"/>
+      <c r="D118" s="8"/>
     </row>
     <row r="119">
-      <c r="C119" s="5"/>
-      <c r="D119" s="6"/>
+      <c r="C119" s="7"/>
+      <c r="D119" s="8"/>
     </row>
     <row r="120">
-      <c r="C120" s="5"/>
-      <c r="D120" s="6"/>
+      <c r="C120" s="7"/>
+      <c r="D120" s="8"/>
     </row>
     <row r="121">
-      <c r="C121" s="5"/>
-      <c r="D121" s="6"/>
+      <c r="C121" s="7"/>
+      <c r="D121" s="8"/>
     </row>
     <row r="122">
-      <c r="C122" s="5"/>
-      <c r="D122" s="6"/>
+      <c r="C122" s="7"/>
+      <c r="D122" s="8"/>
     </row>
     <row r="123">
-      <c r="C123" s="5"/>
-      <c r="D123" s="6"/>
+      <c r="C123" s="7"/>
+      <c r="D123" s="8"/>
     </row>
     <row r="124">
-      <c r="C124" s="5"/>
-      <c r="D124" s="6"/>
+      <c r="C124" s="7"/>
+      <c r="D124" s="8"/>
     </row>
     <row r="125">
-      <c r="C125" s="5"/>
-      <c r="D125" s="6"/>
+      <c r="C125" s="7"/>
+      <c r="D125" s="8"/>
     </row>
     <row r="126">
-      <c r="C126" s="5"/>
-      <c r="D126" s="6"/>
+      <c r="C126" s="7"/>
+      <c r="D126" s="8"/>
     </row>
     <row r="127">
-      <c r="C127" s="5"/>
-      <c r="D127" s="6"/>
+      <c r="C127" s="7"/>
+      <c r="D127" s="8"/>
     </row>
     <row r="128">
-      <c r="C128" s="5"/>
-      <c r="D128" s="6"/>
+      <c r="C128" s="7"/>
+      <c r="D128" s="8"/>
     </row>
     <row r="129">
-      <c r="C129" s="5"/>
-      <c r="D129" s="6"/>
+      <c r="C129" s="7"/>
+      <c r="D129" s="8"/>
     </row>
     <row r="130">
-      <c r="C130" s="5"/>
-      <c r="D130" s="6"/>
+      <c r="C130" s="7"/>
+      <c r="D130" s="8"/>
     </row>
     <row r="131">
-      <c r="C131" s="5"/>
-      <c r="D131" s="6"/>
+      <c r="C131" s="7"/>
+      <c r="D131" s="8"/>
     </row>
     <row r="132">
-      <c r="C132" s="5"/>
-      <c r="D132" s="6"/>
+      <c r="C132" s="7"/>
+      <c r="D132" s="8"/>
     </row>
     <row r="133">
-      <c r="C133" s="5"/>
-      <c r="D133" s="6"/>
+      <c r="C133" s="7"/>
+      <c r="D133" s="8"/>
     </row>
     <row r="134">
-      <c r="C134" s="5"/>
-      <c r="D134" s="6"/>
+      <c r="C134" s="7"/>
+      <c r="D134" s="8"/>
     </row>
     <row r="135">
-      <c r="C135" s="5"/>
-      <c r="D135" s="6"/>
+      <c r="C135" s="7"/>
+      <c r="D135" s="8"/>
     </row>
     <row r="136">
-      <c r="C136" s="5"/>
-      <c r="D136" s="6"/>
+      <c r="C136" s="7"/>
+      <c r="D136" s="8"/>
     </row>
     <row r="137">
-      <c r="C137" s="5"/>
-      <c r="D137" s="6"/>
+      <c r="C137" s="7"/>
+      <c r="D137" s="8"/>
     </row>
     <row r="138">
-      <c r="C138" s="5"/>
-      <c r="D138" s="6"/>
+      <c r="C138" s="7"/>
+      <c r="D138" s="8"/>
     </row>
     <row r="139">
-      <c r="C139" s="5"/>
-      <c r="D139" s="6"/>
+      <c r="C139" s="7"/>
+      <c r="D139" s="8"/>
     </row>
     <row r="140">
-      <c r="C140" s="5"/>
-      <c r="D140" s="6"/>
+      <c r="C140" s="7"/>
+      <c r="D140" s="8"/>
     </row>
     <row r="141">
-      <c r="C141" s="5"/>
-      <c r="D141" s="6"/>
+      <c r="C141" s="7"/>
+      <c r="D141" s="8"/>
     </row>
     <row r="142">
-      <c r="C142" s="5"/>
-      <c r="D142" s="6"/>
+      <c r="C142" s="7"/>
+      <c r="D142" s="8"/>
     </row>
     <row r="143">
-      <c r="C143" s="5"/>
-      <c r="D143" s="6"/>
+      <c r="C143" s="7"/>
+      <c r="D143" s="8"/>
     </row>
     <row r="144">
-      <c r="C144" s="5"/>
-      <c r="D144" s="6"/>
+      <c r="C144" s="7"/>
+      <c r="D144" s="8"/>
     </row>
     <row r="145">
-      <c r="C145" s="5"/>
-      <c r="D145" s="6"/>
+      <c r="C145" s="7"/>
+      <c r="D145" s="8"/>
     </row>
     <row r="146">
-      <c r="C146" s="5"/>
-      <c r="D146" s="6"/>
+      <c r="C146" s="7"/>
+      <c r="D146" s="8"/>
     </row>
     <row r="147">
-      <c r="C147" s="5"/>
-      <c r="D147" s="6"/>
+      <c r="C147" s="7"/>
+      <c r="D147" s="8"/>
     </row>
     <row r="148">
-      <c r="C148" s="5"/>
-      <c r="D148" s="6"/>
+      <c r="C148" s="7"/>
+      <c r="D148" s="8"/>
     </row>
     <row r="149">
-      <c r="C149" s="5"/>
-      <c r="D149" s="6"/>
+      <c r="C149" s="7"/>
+      <c r="D149" s="8"/>
     </row>
     <row r="150">
-      <c r="C150" s="5"/>
-      <c r="D150" s="6"/>
+      <c r="C150" s="7"/>
+      <c r="D150" s="8"/>
     </row>
     <row r="151">
-      <c r="C151" s="5"/>
-      <c r="D151" s="6"/>
+      <c r="C151" s="7"/>
+      <c r="D151" s="8"/>
     </row>
     <row r="152">
-      <c r="C152" s="5"/>
-      <c r="D152" s="6"/>
+      <c r="C152" s="7"/>
+      <c r="D152" s="8"/>
     </row>
     <row r="153">
-      <c r="C153" s="5"/>
-      <c r="D153" s="6"/>
+      <c r="C153" s="7"/>
+      <c r="D153" s="8"/>
     </row>
     <row r="154">
-      <c r="C154" s="5"/>
-      <c r="D154" s="6"/>
+      <c r="C154" s="7"/>
+      <c r="D154" s="8"/>
     </row>
     <row r="155">
-      <c r="C155" s="5"/>
-      <c r="D155" s="6"/>
+      <c r="C155" s="7"/>
+      <c r="D155" s="8"/>
     </row>
     <row r="156">
-      <c r="C156" s="5"/>
-      <c r="D156" s="6"/>
+      <c r="C156" s="7"/>
+      <c r="D156" s="8"/>
     </row>
     <row r="157">
-      <c r="C157" s="5"/>
-      <c r="D157" s="6"/>
+      <c r="C157" s="7"/>
+      <c r="D157" s="8"/>
     </row>
     <row r="158">
-      <c r="C158" s="5"/>
-      <c r="D158" s="6"/>
+      <c r="C158" s="7"/>
+      <c r="D158" s="8"/>
     </row>
     <row r="159">
-      <c r="C159" s="5"/>
-      <c r="D159" s="6"/>
+      <c r="C159" s="7"/>
+      <c r="D159" s="8"/>
     </row>
     <row r="160">
-      <c r="C160" s="5"/>
-      <c r="D160" s="6"/>
+      <c r="C160" s="7"/>
+      <c r="D160" s="8"/>
     </row>
     <row r="161">
-      <c r="C161" s="5"/>
-      <c r="D161" s="6"/>
+      <c r="C161" s="7"/>
+      <c r="D161" s="8"/>
     </row>
     <row r="162">
-      <c r="C162" s="5"/>
-      <c r="D162" s="6"/>
+      <c r="C162" s="7"/>
+      <c r="D162" s="8"/>
     </row>
     <row r="163">
-      <c r="C163" s="5"/>
-      <c r="D163" s="6"/>
+      <c r="C163" s="7"/>
+      <c r="D163" s="8"/>
     </row>
     <row r="164">
-      <c r="C164" s="5"/>
-      <c r="D164" s="6"/>
+      <c r="C164" s="7"/>
+      <c r="D164" s="8"/>
     </row>
     <row r="165">
-      <c r="C165" s="5"/>
-      <c r="D165" s="6"/>
+      <c r="C165" s="7"/>
+      <c r="D165" s="8"/>
     </row>
     <row r="166">
-      <c r="C166" s="5"/>
-      <c r="D166" s="6"/>
+      <c r="C166" s="7"/>
+      <c r="D166" s="8"/>
     </row>
     <row r="167">
-      <c r="C167" s="5"/>
-      <c r="D167" s="6"/>
+      <c r="C167" s="7"/>
+      <c r="D167" s="8"/>
     </row>
     <row r="168">
-      <c r="C168" s="5"/>
-      <c r="D168" s="6"/>
+      <c r="C168" s="7"/>
+      <c r="D168" s="8"/>
     </row>
     <row r="169">
-      <c r="C169" s="5"/>
-      <c r="D169" s="6"/>
+      <c r="C169" s="7"/>
+      <c r="D169" s="8"/>
     </row>
     <row r="170">
-      <c r="C170" s="5"/>
-      <c r="D170" s="6"/>
+      <c r="C170" s="7"/>
+      <c r="D170" s="8"/>
     </row>
     <row r="171">
-      <c r="C171" s="5"/>
-      <c r="D171" s="6"/>
+      <c r="C171" s="7"/>
+      <c r="D171" s="8"/>
     </row>
     <row r="172">
-      <c r="C172" s="5"/>
-      <c r="D172" s="6"/>
+      <c r="C172" s="7"/>
+      <c r="D172" s="8"/>
     </row>
     <row r="173">
-      <c r="C173" s="5"/>
-      <c r="D173" s="6"/>
+      <c r="C173" s="7"/>
+      <c r="D173" s="8"/>
     </row>
     <row r="174">
-      <c r="C174" s="5"/>
-      <c r="D174" s="6"/>
+      <c r="C174" s="7"/>
+      <c r="D174" s="8"/>
     </row>
     <row r="175">
-      <c r="C175" s="5"/>
-      <c r="D175" s="6"/>
+      <c r="C175" s="7"/>
+      <c r="D175" s="8"/>
     </row>
     <row r="176">
-      <c r="C176" s="5"/>
-      <c r="D176" s="6"/>
+      <c r="C176" s="7"/>
+      <c r="D176" s="8"/>
     </row>
     <row r="177">
-      <c r="C177" s="5"/>
-      <c r="D177" s="6"/>
+      <c r="C177" s="7"/>
+      <c r="D177" s="8"/>
     </row>
     <row r="178">
-      <c r="C178" s="5"/>
-      <c r="D178" s="6"/>
+      <c r="C178" s="7"/>
+      <c r="D178" s="8"/>
     </row>
     <row r="179">
-      <c r="C179" s="5"/>
-      <c r="D179" s="6"/>
+      <c r="C179" s="7"/>
+      <c r="D179" s="8"/>
     </row>
     <row r="180">
-      <c r="C180" s="5"/>
-      <c r="D180" s="6"/>
+      <c r="C180" s="7"/>
+      <c r="D180" s="8"/>
     </row>
     <row r="181">
-      <c r="C181" s="5"/>
-      <c r="D181" s="6"/>
+      <c r="C181" s="7"/>
+      <c r="D181" s="8"/>
     </row>
     <row r="182">
-      <c r="C182" s="5"/>
-      <c r="D182" s="6"/>
+      <c r="C182" s="7"/>
+      <c r="D182" s="8"/>
     </row>
     <row r="183">
-      <c r="C183" s="5"/>
-      <c r="D183" s="6"/>
+      <c r="C183" s="7"/>
+      <c r="D183" s="8"/>
     </row>
     <row r="184">
-      <c r="C184" s="5"/>
-      <c r="D184" s="6"/>
+      <c r="C184" s="7"/>
+      <c r="D184" s="8"/>
     </row>
     <row r="185">
-      <c r="C185" s="5"/>
-      <c r="D185" s="6"/>
+      <c r="C185" s="7"/>
+      <c r="D185" s="8"/>
     </row>
     <row r="186">
-      <c r="C186" s="5"/>
-      <c r="D186" s="6"/>
+      <c r="C186" s="7"/>
+      <c r="D186" s="8"/>
     </row>
     <row r="187">
-      <c r="C187" s="5"/>
-      <c r="D187" s="6"/>
+      <c r="C187" s="7"/>
+      <c r="D187" s="8"/>
     </row>
     <row r="188">
-      <c r="C188" s="5"/>
-      <c r="D188" s="6"/>
+      <c r="C188" s="7"/>
+      <c r="D188" s="8"/>
     </row>
     <row r="189">
-      <c r="C189" s="5"/>
-      <c r="D189" s="6"/>
+      <c r="C189" s="7"/>
+      <c r="D189" s="8"/>
     </row>
     <row r="190">
-      <c r="C190" s="5"/>
-      <c r="D190" s="6"/>
+      <c r="C190" s="7"/>
+      <c r="D190" s="8"/>
     </row>
     <row r="191">
-      <c r="C191" s="5"/>
-      <c r="D191" s="6"/>
+      <c r="C191" s="7"/>
+      <c r="D191" s="8"/>
     </row>
     <row r="192">
-      <c r="C192" s="5"/>
-      <c r="D192" s="6"/>
+      <c r="C192" s="7"/>
+      <c r="D192" s="8"/>
     </row>
     <row r="193">
-      <c r="C193" s="5"/>
-      <c r="D193" s="6"/>
+      <c r="C193" s="7"/>
+      <c r="D193" s="8"/>
     </row>
     <row r="194">
-      <c r="C194" s="5"/>
-      <c r="D194" s="6"/>
+      <c r="C194" s="7"/>
+      <c r="D194" s="8"/>
     </row>
     <row r="195">
-      <c r="C195" s="5"/>
-      <c r="D195" s="6"/>
+      <c r="C195" s="7"/>
+      <c r="D195" s="8"/>
     </row>
     <row r="196">
-      <c r="C196" s="5"/>
-      <c r="D196" s="6"/>
+      <c r="C196" s="7"/>
+      <c r="D196" s="8"/>
     </row>
     <row r="197">
-      <c r="C197" s="5"/>
-      <c r="D197" s="6"/>
+      <c r="C197" s="7"/>
+      <c r="D197" s="8"/>
     </row>
     <row r="198">
-      <c r="C198" s="5"/>
-      <c r="D198" s="6"/>
+      <c r="C198" s="7"/>
+      <c r="D198" s="8"/>
     </row>
     <row r="199">
-      <c r="C199" s="5"/>
-      <c r="D199" s="6"/>
+      <c r="C199" s="7"/>
+      <c r="D199" s="8"/>
     </row>
     <row r="200">
-      <c r="C200" s="5"/>
-      <c r="D200" s="6"/>
+      <c r="C200" s="7"/>
+      <c r="D200" s="8"/>
     </row>
     <row r="201">
-      <c r="C201" s="5"/>
-      <c r="D201" s="6"/>
+      <c r="C201" s="7"/>
+      <c r="D201" s="8"/>
     </row>
     <row r="202">
-      <c r="C202" s="5"/>
-      <c r="D202" s="6"/>
+      <c r="C202" s="7"/>
+      <c r="D202" s="8"/>
     </row>
     <row r="203">
-      <c r="C203" s="5"/>
-      <c r="D203" s="6"/>
+      <c r="C203" s="7"/>
+      <c r="D203" s="8"/>
     </row>
     <row r="204">
-      <c r="C204" s="5"/>
-      <c r="D204" s="6"/>
+      <c r="C204" s="7"/>
+      <c r="D204" s="8"/>
     </row>
     <row r="205">
-      <c r="C205" s="5"/>
-      <c r="D205" s="6"/>
+      <c r="C205" s="7"/>
+      <c r="D205" s="8"/>
     </row>
     <row r="206">
-      <c r="C206" s="5"/>
-      <c r="D206" s="6"/>
+      <c r="C206" s="7"/>
+      <c r="D206" s="8"/>
     </row>
     <row r="207">
-      <c r="C207" s="5"/>
-      <c r="D207" s="6"/>
+      <c r="C207" s="7"/>
+      <c r="D207" s="8"/>
     </row>
     <row r="208">
-      <c r="C208" s="5"/>
-      <c r="D208" s="6"/>
+      <c r="C208" s="7"/>
+      <c r="D208" s="8"/>
     </row>
     <row r="209">
-      <c r="C209" s="5"/>
-      <c r="D209" s="6"/>
+      <c r="C209" s="7"/>
+      <c r="D209" s="8"/>
     </row>
     <row r="210">
-      <c r="C210" s="5"/>
-      <c r="D210" s="6"/>
+      <c r="C210" s="7"/>
+      <c r="D210" s="8"/>
     </row>
     <row r="211">
-      <c r="C211" s="5"/>
-      <c r="D211" s="6"/>
+      <c r="C211" s="7"/>
+      <c r="D211" s="8"/>
     </row>
     <row r="212">
-      <c r="C212" s="5"/>
-      <c r="D212" s="6"/>
+      <c r="C212" s="7"/>
+      <c r="D212" s="8"/>
     </row>
     <row r="213">
-      <c r="C213" s="5"/>
-      <c r="D213" s="6"/>
+      <c r="C213" s="7"/>
+      <c r="D213" s="8"/>
     </row>
     <row r="214">
-      <c r="C214" s="5"/>
-      <c r="D214" s="6"/>
+      <c r="C214" s="7"/>
+      <c r="D214" s="8"/>
     </row>
     <row r="215">
-      <c r="C215" s="5"/>
-      <c r="D215" s="6"/>
+      <c r="C215" s="7"/>
+      <c r="D215" s="8"/>
     </row>
     <row r="216">
-      <c r="C216" s="5"/>
-      <c r="D216" s="6"/>
+      <c r="C216" s="7"/>
+      <c r="D216" s="8"/>
     </row>
     <row r="217">
-      <c r="C217" s="5"/>
-      <c r="D217" s="6"/>
+      <c r="C217" s="7"/>
+      <c r="D217" s="8"/>
     </row>
     <row r="218">
-      <c r="C218" s="5"/>
-      <c r="D218" s="6"/>
+      <c r="C218" s="7"/>
+      <c r="D218" s="8"/>
     </row>
     <row r="219">
-      <c r="C219" s="5"/>
-      <c r="D219" s="6"/>
+      <c r="C219" s="7"/>
+      <c r="D219" s="8"/>
     </row>
     <row r="220">
-      <c r="C220" s="5"/>
-      <c r="D220" s="6"/>
+      <c r="C220" s="7"/>
+      <c r="D220" s="8"/>
     </row>
     <row r="221">
-      <c r="C221" s="5"/>
-      <c r="D221" s="6"/>
+      <c r="C221" s="7"/>
+      <c r="D221" s="8"/>
     </row>
     <row r="222">
-      <c r="C222" s="5"/>
-      <c r="D222" s="6"/>
+      <c r="C222" s="7"/>
+      <c r="D222" s="8"/>
     </row>
     <row r="223">
-      <c r="C223" s="5"/>
-      <c r="D223" s="6"/>
+      <c r="C223" s="7"/>
+      <c r="D223" s="8"/>
     </row>
     <row r="224">
-      <c r="C224" s="5"/>
-      <c r="D224" s="6"/>
+      <c r="C224" s="7"/>
+      <c r="D224" s="8"/>
     </row>
     <row r="225">
-      <c r="C225" s="5"/>
-      <c r="D225" s="6"/>
+      <c r="C225" s="7"/>
+      <c r="D225" s="8"/>
     </row>
     <row r="226">
-      <c r="C226" s="5"/>
-      <c r="D226" s="6"/>
+      <c r="C226" s="7"/>
+      <c r="D226" s="8"/>
     </row>
     <row r="227">
-      <c r="C227" s="5"/>
-      <c r="D227" s="6"/>
+      <c r="C227" s="7"/>
+      <c r="D227" s="8"/>
     </row>
     <row r="228">
-      <c r="C228" s="5"/>
-      <c r="D228" s="6"/>
+      <c r="C228" s="7"/>
+      <c r="D228" s="8"/>
     </row>
     <row r="229">
-      <c r="C229" s="5"/>
-      <c r="D229" s="6"/>
+      <c r="C229" s="7"/>
+      <c r="D229" s="8"/>
     </row>
     <row r="230">
-      <c r="C230" s="5"/>
-      <c r="D230" s="6"/>
+      <c r="C230" s="7"/>
+      <c r="D230" s="8"/>
     </row>
     <row r="231">
-      <c r="C231" s="5"/>
-      <c r="D231" s="6"/>
+      <c r="C231" s="7"/>
+      <c r="D231" s="8"/>
     </row>
     <row r="232">
-      <c r="C232" s="5"/>
-      <c r="D232" s="6"/>
+      <c r="C232" s="7"/>
+      <c r="D232" s="8"/>
     </row>
     <row r="233">
-      <c r="C233" s="5"/>
-      <c r="D233" s="6"/>
+      <c r="C233" s="7"/>
+      <c r="D233" s="8"/>
     </row>
     <row r="234">
-      <c r="C234" s="5"/>
-      <c r="D234" s="6"/>
+      <c r="C234" s="7"/>
+      <c r="D234" s="8"/>
     </row>
     <row r="235">
-      <c r="C235" s="5"/>
-      <c r="D235" s="6"/>
+      <c r="C235" s="7"/>
+      <c r="D235" s="8"/>
     </row>
     <row r="236">
-      <c r="C236" s="5"/>
-      <c r="D236" s="6"/>
+      <c r="C236" s="7"/>
+      <c r="D236" s="8"/>
     </row>
     <row r="237">
-      <c r="C237" s="5"/>
-      <c r="D237" s="6"/>
+      <c r="C237" s="7"/>
+      <c r="D237" s="8"/>
     </row>
     <row r="238">
-      <c r="C238" s="5"/>
-      <c r="D238" s="6"/>
+      <c r="C238" s="7"/>
+      <c r="D238" s="8"/>
     </row>
     <row r="239">
-      <c r="C239" s="5"/>
-      <c r="D239" s="6"/>
+      <c r="C239" s="7"/>
+      <c r="D239" s="8"/>
     </row>
     <row r="240">
-      <c r="C240" s="5"/>
-      <c r="D240" s="6"/>
+      <c r="C240" s="7"/>
+      <c r="D240" s="8"/>
     </row>
     <row r="241">
-      <c r="C241" s="5"/>
-      <c r="D241" s="6"/>
+      <c r="C241" s="7"/>
+      <c r="D241" s="8"/>
     </row>
     <row r="242">
-      <c r="C242" s="5"/>
-      <c r="D242" s="6"/>
+      <c r="C242" s="7"/>
+      <c r="D242" s="8"/>
     </row>
     <row r="243">
-      <c r="C243" s="5"/>
-      <c r="D243" s="6"/>
+      <c r="C243" s="7"/>
+      <c r="D243" s="8"/>
     </row>
     <row r="244">
-      <c r="C244" s="5"/>
-      <c r="D244" s="6"/>
+      <c r="C244" s="7"/>
+      <c r="D244" s="8"/>
     </row>
     <row r="245">
-      <c r="C245" s="5"/>
-      <c r="D245" s="6"/>
+      <c r="C245" s="7"/>
+      <c r="D245" s="8"/>
     </row>
     <row r="246">
-      <c r="C246" s="5"/>
-      <c r="D246" s="6"/>
+      <c r="C246" s="7"/>
+      <c r="D246" s="8"/>
     </row>
     <row r="247">
-      <c r="C247" s="5"/>
-      <c r="D247" s="6"/>
+      <c r="C247" s="7"/>
+      <c r="D247" s="8"/>
     </row>
     <row r="248">
-      <c r="C248" s="5"/>
-      <c r="D248" s="6"/>
+      <c r="C248" s="7"/>
+      <c r="D248" s="8"/>
     </row>
     <row r="249">
-      <c r="C249" s="5"/>
-      <c r="D249" s="6"/>
+      <c r="C249" s="7"/>
+      <c r="D249" s="8"/>
     </row>
     <row r="250">
-      <c r="C250" s="5"/>
-      <c r="D250" s="6"/>
+      <c r="C250" s="7"/>
+      <c r="D250" s="8"/>
     </row>
     <row r="251">
-      <c r="C251" s="5"/>
-      <c r="D251" s="6"/>
+      <c r="C251" s="7"/>
+      <c r="D251" s="8"/>
     </row>
     <row r="252">
-      <c r="C252" s="5"/>
-      <c r="D252" s="6"/>
+      <c r="C252" s="7"/>
+      <c r="D252" s="8"/>
     </row>
     <row r="253">
-      <c r="C253" s="5"/>
-      <c r="D253" s="6"/>
+      <c r="C253" s="7"/>
+      <c r="D253" s="8"/>
     </row>
     <row r="254">
-      <c r="C254" s="5"/>
-      <c r="D254" s="6"/>
+      <c r="C254" s="7"/>
+      <c r="D254" s="8"/>
     </row>
     <row r="255">
-      <c r="C255" s="5"/>
-      <c r="D255" s="6"/>
+      <c r="C255" s="7"/>
+      <c r="D255" s="8"/>
     </row>
     <row r="256">
-      <c r="C256" s="5"/>
-      <c r="D256" s="6"/>
+      <c r="C256" s="7"/>
+      <c r="D256" s="8"/>
     </row>
     <row r="257">
-      <c r="C257" s="5"/>
-      <c r="D257" s="6"/>
+      <c r="C257" s="7"/>
+      <c r="D257" s="8"/>
     </row>
     <row r="258">
-      <c r="C258" s="5"/>
-      <c r="D258" s="6"/>
+      <c r="C258" s="7"/>
+      <c r="D258" s="8"/>
     </row>
     <row r="259">
-      <c r="C259" s="5"/>
-      <c r="D259" s="6"/>
+      <c r="C259" s="7"/>
+      <c r="D259" s="8"/>
     </row>
     <row r="260">
-      <c r="C260" s="5"/>
-      <c r="D260" s="6"/>
+      <c r="C260" s="7"/>
+      <c r="D260" s="8"/>
     </row>
     <row r="261">
-      <c r="C261" s="5"/>
-      <c r="D261" s="6"/>
+      <c r="C261" s="7"/>
+      <c r="D261" s="8"/>
     </row>
     <row r="262">
-      <c r="C262" s="5"/>
-      <c r="D262" s="6"/>
+      <c r="C262" s="7"/>
+      <c r="D262" s="8"/>
     </row>
     <row r="263">
-      <c r="C263" s="5"/>
-      <c r="D263" s="6"/>
+      <c r="C263" s="7"/>
+      <c r="D263" s="8"/>
     </row>
     <row r="264">
-      <c r="C264" s="5"/>
-      <c r="D264" s="6"/>
+      <c r="C264" s="7"/>
+      <c r="D264" s="8"/>
     </row>
     <row r="265">
-      <c r="C265" s="5"/>
-      <c r="D265" s="6"/>
+      <c r="C265" s="7"/>
+      <c r="D265" s="8"/>
     </row>
     <row r="266">
-      <c r="C266" s="5"/>
-      <c r="D266" s="6"/>
+      <c r="C266" s="7"/>
+      <c r="D266" s="8"/>
     </row>
     <row r="267">
-      <c r="C267" s="5"/>
-      <c r="D267" s="6"/>
+      <c r="C267" s="7"/>
+      <c r="D267" s="8"/>
     </row>
     <row r="268">
-      <c r="C268" s="5"/>
-      <c r="D268" s="6"/>
+      <c r="C268" s="7"/>
+      <c r="D268" s="8"/>
     </row>
     <row r="269">
-      <c r="C269" s="5"/>
-      <c r="D269" s="6"/>
+      <c r="C269" s="7"/>
+      <c r="D269" s="8"/>
     </row>
     <row r="270">
-      <c r="C270" s="5"/>
-      <c r="D270" s="6"/>
+      <c r="C270" s="7"/>
+      <c r="D270" s="8"/>
     </row>
     <row r="271">
-      <c r="C271" s="5"/>
-      <c r="D271" s="6"/>
+      <c r="C271" s="7"/>
+      <c r="D271" s="8"/>
     </row>
     <row r="272">
-      <c r="C272" s="5"/>
-      <c r="D272" s="6"/>
+      <c r="C272" s="7"/>
+      <c r="D272" s="8"/>
     </row>
     <row r="273">
-      <c r="C273" s="5"/>
-      <c r="D273" s="6"/>
+      <c r="C273" s="7"/>
+      <c r="D273" s="8"/>
     </row>
     <row r="274">
-      <c r="C274" s="5"/>
-      <c r="D274" s="6"/>
+      <c r="C274" s="7"/>
+      <c r="D274" s="8"/>
     </row>
     <row r="275">
-      <c r="C275" s="5"/>
-      <c r="D275" s="6"/>
+      <c r="C275" s="7"/>
+      <c r="D275" s="8"/>
     </row>
     <row r="276">
-      <c r="C276" s="5"/>
-      <c r="D276" s="6"/>
+      <c r="C276" s="7"/>
+      <c r="D276" s="8"/>
     </row>
     <row r="277">
-      <c r="C277" s="5"/>
-      <c r="D277" s="6"/>
+      <c r="C277" s="7"/>
+      <c r="D277" s="8"/>
     </row>
     <row r="278">
-      <c r="C278" s="5"/>
-      <c r="D278" s="6"/>
+      <c r="C278" s="7"/>
+      <c r="D278" s="8"/>
     </row>
     <row r="279">
-      <c r="C279" s="5"/>
-      <c r="D279" s="6"/>
+      <c r="C279" s="7"/>
+      <c r="D279" s="8"/>
     </row>
     <row r="280">
-      <c r="C280" s="5"/>
-      <c r="D280" s="6"/>
+      <c r="C280" s="7"/>
+      <c r="D280" s="8"/>
     </row>
     <row r="281">
-      <c r="C281" s="5"/>
-      <c r="D281" s="6"/>
+      <c r="C281" s="7"/>
+      <c r="D281" s="8"/>
     </row>
     <row r="282">
-      <c r="C282" s="5"/>
-      <c r="D282" s="6"/>
+      <c r="C282" s="7"/>
+      <c r="D282" s="8"/>
     </row>
     <row r="283">
-      <c r="C283" s="5"/>
-      <c r="D283" s="6"/>
+      <c r="C283" s="7"/>
+      <c r="D283" s="8"/>
     </row>
     <row r="284">
-      <c r="C284" s="5"/>
-      <c r="D284" s="6"/>
+      <c r="C284" s="7"/>
+      <c r="D284" s="8"/>
     </row>
     <row r="285">
-      <c r="C285" s="5"/>
-      <c r="D285" s="6"/>
+      <c r="C285" s="7"/>
+      <c r="D285" s="8"/>
     </row>
     <row r="286">
-      <c r="C286" s="5"/>
-      <c r="D286" s="6"/>
+      <c r="C286" s="7"/>
+      <c r="D286" s="8"/>
     </row>
     <row r="287">
-      <c r="C287" s="5"/>
-      <c r="D287" s="6"/>
+      <c r="C287" s="7"/>
+      <c r="D287" s="8"/>
     </row>
     <row r="288">
-      <c r="C288" s="5"/>
-      <c r="D288" s="6"/>
+      <c r="C288" s="7"/>
+      <c r="D288" s="8"/>
     </row>
     <row r="289">
-      <c r="C289" s="5"/>
-      <c r="D289" s="6"/>
+      <c r="C289" s="7"/>
+      <c r="D289" s="8"/>
     </row>
     <row r="290">
-      <c r="C290" s="5"/>
-      <c r="D290" s="6"/>
+      <c r="C290" s="7"/>
+      <c r="D290" s="8"/>
     </row>
     <row r="291">
-      <c r="C291" s="5"/>
-      <c r="D291" s="6"/>
+      <c r="C291" s="7"/>
+      <c r="D291" s="8"/>
     </row>
     <row r="292">
-      <c r="C292" s="5"/>
-      <c r="D292" s="6"/>
+      <c r="C292" s="7"/>
+      <c r="D292" s="8"/>
     </row>
     <row r="293">
-      <c r="C293" s="5"/>
-      <c r="D293" s="6"/>
+      <c r="C293" s="7"/>
+      <c r="D293" s="8"/>
     </row>
     <row r="294">
-      <c r="C294" s="5"/>
-      <c r="D294" s="6"/>
+      <c r="C294" s="7"/>
+      <c r="D294" s="8"/>
     </row>
     <row r="295">
-      <c r="C295" s="5"/>
-      <c r="D295" s="6"/>
+      <c r="C295" s="7"/>
+      <c r="D295" s="8"/>
     </row>
     <row r="296">
-      <c r="C296" s="5"/>
-      <c r="D296" s="6"/>
+      <c r="C296" s="7"/>
+      <c r="D296" s="8"/>
     </row>
     <row r="297">
-      <c r="C297" s="5"/>
-      <c r="D297" s="6"/>
+      <c r="C297" s="7"/>
+      <c r="D297" s="8"/>
     </row>
     <row r="298">
-      <c r="C298" s="5"/>
-      <c r="D298" s="6"/>
+      <c r="C298" s="7"/>
+      <c r="D298" s="8"/>
     </row>
     <row r="299">
-      <c r="C299" s="5"/>
-      <c r="D299" s="6"/>
+      <c r="C299" s="7"/>
+      <c r="D299" s="8"/>
     </row>
     <row r="300">
-      <c r="C300" s="5"/>
-      <c r="D300" s="6"/>
+      <c r="C300" s="7"/>
+      <c r="D300" s="8"/>
     </row>
     <row r="301">
-      <c r="C301" s="5"/>
-      <c r="D301" s="6"/>
+      <c r="C301" s="7"/>
+      <c r="D301" s="8"/>
     </row>
     <row r="302">
-      <c r="C302" s="5"/>
-      <c r="D302" s="6"/>
+      <c r="C302" s="7"/>
+      <c r="D302" s="8"/>
     </row>
     <row r="303">
-      <c r="C303" s="5"/>
-      <c r="D303" s="6"/>
+      <c r="C303" s="7"/>
+      <c r="D303" s="8"/>
     </row>
     <row r="304">
-      <c r="C304" s="5"/>
-      <c r="D304" s="6"/>
+      <c r="C304" s="7"/>
+      <c r="D304" s="8"/>
     </row>
     <row r="305">
-      <c r="C305" s="5"/>
-      <c r="D305" s="6"/>
+      <c r="C305" s="7"/>
+      <c r="D305" s="8"/>
     </row>
     <row r="306">
-      <c r="C306" s="5"/>
-      <c r="D306" s="6"/>
+      <c r="C306" s="7"/>
+      <c r="D306" s="8"/>
     </row>
     <row r="307">
-      <c r="C307" s="5"/>
-      <c r="D307" s="6"/>
+      <c r="C307" s="7"/>
+      <c r="D307" s="8"/>
     </row>
     <row r="308">
-      <c r="C308" s="5"/>
-      <c r="D308" s="6"/>
+      <c r="C308" s="7"/>
+      <c r="D308" s="8"/>
     </row>
     <row r="309">
-      <c r="C309" s="5"/>
-      <c r="D309" s="6"/>
+      <c r="C309" s="7"/>
+      <c r="D309" s="8"/>
     </row>
     <row r="310">
-      <c r="C310" s="5"/>
-      <c r="D310" s="6"/>
+      <c r="C310" s="7"/>
+      <c r="D310" s="8"/>
     </row>
     <row r="311">
-      <c r="C311" s="5"/>
-      <c r="D311" s="6"/>
+      <c r="C311" s="7"/>
+      <c r="D311" s="8"/>
     </row>
     <row r="312">
-      <c r="C312" s="5"/>
-      <c r="D312" s="6"/>
+      <c r="C312" s="7"/>
+      <c r="D312" s="8"/>
     </row>
     <row r="313">
-      <c r="C313" s="5"/>
-      <c r="D313" s="6"/>
+      <c r="C313" s="7"/>
+      <c r="D313" s="8"/>
     </row>
     <row r="314">
-      <c r="C314" s="5"/>
-      <c r="D314" s="6"/>
+      <c r="C314" s="7"/>
+      <c r="D314" s="8"/>
     </row>
     <row r="315">
-      <c r="C315" s="5"/>
-      <c r="D315" s="6"/>
+      <c r="C315" s="7"/>
+      <c r="D315" s="8"/>
     </row>
     <row r="316">
-      <c r="C316" s="5"/>
-      <c r="D316" s="6"/>
+      <c r="C316" s="7"/>
+      <c r="D316" s="8"/>
     </row>
     <row r="317">
-      <c r="C317" s="5"/>
-      <c r="D317" s="6"/>
+      <c r="C317" s="7"/>
+      <c r="D317" s="8"/>
     </row>
     <row r="318">
-      <c r="C318" s="5"/>
-      <c r="D318" s="6"/>
+      <c r="C318" s="7"/>
+      <c r="D318" s="8"/>
     </row>
     <row r="319">
-      <c r="C319" s="5"/>
-      <c r="D319" s="6"/>
+      <c r="C319" s="7"/>
+      <c r="D319" s="8"/>
     </row>
     <row r="320">
-      <c r="C320" s="5"/>
-      <c r="D320" s="6"/>
+      <c r="C320" s="7"/>
+      <c r="D320" s="8"/>
     </row>
     <row r="321">
-      <c r="C321" s="5"/>
-      <c r="D321" s="6"/>
+      <c r="C321" s="7"/>
+      <c r="D321" s="8"/>
     </row>
     <row r="322">
-      <c r="C322" s="5"/>
-      <c r="D322" s="6"/>
+      <c r="C322" s="7"/>
+      <c r="D322" s="8"/>
     </row>
     <row r="323">
-      <c r="C323" s="5"/>
-      <c r="D323" s="6"/>
+      <c r="C323" s="7"/>
+      <c r="D323" s="8"/>
     </row>
     <row r="324">
-      <c r="C324" s="5"/>
-      <c r="D324" s="6"/>
+      <c r="C324" s="7"/>
+      <c r="D324" s="8"/>
     </row>
     <row r="325">
-      <c r="C325" s="5"/>
-      <c r="D325" s="6"/>
+      <c r="C325" s="7"/>
+      <c r="D325" s="8"/>
     </row>
     <row r="326">
-      <c r="C326" s="5"/>
-      <c r="D326" s="6"/>
+      <c r="C326" s="7"/>
+      <c r="D326" s="8"/>
     </row>
     <row r="327">
-      <c r="C327" s="5"/>
-      <c r="D327" s="6"/>
+      <c r="C327" s="7"/>
+      <c r="D327" s="8"/>
     </row>
     <row r="328">
-      <c r="C328" s="5"/>
-      <c r="D328" s="6"/>
+      <c r="C328" s="7"/>
+      <c r="D328" s="8"/>
     </row>
     <row r="329">
-      <c r="C329" s="5"/>
-      <c r="D329" s="6"/>
+      <c r="C329" s="7"/>
+      <c r="D329" s="8"/>
     </row>
     <row r="330">
-      <c r="C330" s="5"/>
-      <c r="D330" s="6"/>
+      <c r="C330" s="7"/>
+      <c r="D330" s="8"/>
     </row>
     <row r="331">
-      <c r="C331" s="5"/>
-      <c r="D331" s="6"/>
+      <c r="C331" s="7"/>
+      <c r="D331" s="8"/>
     </row>
     <row r="332">
-      <c r="C332" s="5"/>
-      <c r="D332" s="6"/>
+      <c r="C332" s="7"/>
+      <c r="D332" s="8"/>
     </row>
     <row r="333">
-      <c r="C333" s="5"/>
-      <c r="D333" s="6"/>
+      <c r="C333" s="7"/>
+      <c r="D333" s="8"/>
     </row>
     <row r="334">
-      <c r="C334" s="5"/>
-      <c r="D334" s="6"/>
+      <c r="C334" s="7"/>
+      <c r="D334" s="8"/>
     </row>
     <row r="335">
-      <c r="C335" s="5"/>
-      <c r="D335" s="6"/>
+      <c r="C335" s="7"/>
+      <c r="D335" s="8"/>
     </row>
     <row r="336">
-      <c r="C336" s="5"/>
-      <c r="D336" s="6"/>
+      <c r="C336" s="7"/>
+      <c r="D336" s="8"/>
     </row>
     <row r="337">
-      <c r="C337" s="5"/>
-      <c r="D337" s="6"/>
+      <c r="C337" s="7"/>
+      <c r="D337" s="8"/>
     </row>
     <row r="338">
-      <c r="C338" s="5"/>
-      <c r="D338" s="6"/>
+      <c r="C338" s="7"/>
+      <c r="D338" s="8"/>
     </row>
     <row r="339">
-      <c r="C339" s="5"/>
-      <c r="D339" s="6"/>
+      <c r="C339" s="7"/>
+      <c r="D339" s="8"/>
     </row>
     <row r="340">
-      <c r="C340" s="5"/>
-      <c r="D340" s="6"/>
+      <c r="C340" s="7"/>
+      <c r="D340" s="8"/>
     </row>
     <row r="341">
-      <c r="C341" s="5"/>
-      <c r="D341" s="6"/>
+      <c r="C341" s="7"/>
+      <c r="D341" s="8"/>
     </row>
     <row r="342">
-      <c r="C342" s="5"/>
-      <c r="D342" s="6"/>
+      <c r="C342" s="7"/>
+      <c r="D342" s="8"/>
     </row>
     <row r="343">
-      <c r="C343" s="5"/>
-      <c r="D343" s="6"/>
+      <c r="C343" s="7"/>
+      <c r="D343" s="8"/>
     </row>
     <row r="344">
-      <c r="C344" s="5"/>
-      <c r="D344" s="6"/>
+      <c r="C344" s="7"/>
+      <c r="D344" s="8"/>
     </row>
     <row r="345">
-      <c r="C345" s="5"/>
-      <c r="D345" s="6"/>
+      <c r="C345" s="7"/>
+      <c r="D345" s="8"/>
     </row>
     <row r="346">
-      <c r="C346" s="5"/>
-      <c r="D346" s="6"/>
+      <c r="C346" s="7"/>
+      <c r="D346" s="8"/>
     </row>
     <row r="347">
-      <c r="C347" s="5"/>
-      <c r="D347" s="6"/>
+      <c r="C347" s="7"/>
+      <c r="D347" s="8"/>
     </row>
     <row r="348">
-      <c r="C348" s="5"/>
-      <c r="D348" s="6"/>
+      <c r="C348" s="7"/>
+      <c r="D348" s="8"/>
     </row>
     <row r="349">
-      <c r="C349" s="5"/>
-      <c r="D349" s="6"/>
+      <c r="C349" s="7"/>
+      <c r="D349" s="8"/>
     </row>
     <row r="350">
-      <c r="C350" s="5"/>
-      <c r="D350" s="6"/>
+      <c r="C350" s="7"/>
+      <c r="D350" s="8"/>
     </row>
     <row r="351">
-      <c r="C351" s="5"/>
-      <c r="D351" s="6"/>
+      <c r="C351" s="7"/>
+      <c r="D351" s="8"/>
     </row>
     <row r="352">
-      <c r="C352" s="5"/>
-      <c r="D352" s="6"/>
+      <c r="C352" s="7"/>
+      <c r="D352" s="8"/>
     </row>
     <row r="353">
-      <c r="C353" s="5"/>
-      <c r="D353" s="6"/>
+      <c r="C353" s="7"/>
+      <c r="D353" s="8"/>
     </row>
     <row r="354">
-      <c r="C354" s="5"/>
-      <c r="D354" s="6"/>
+      <c r="C354" s="7"/>
+      <c r="D354" s="8"/>
     </row>
     <row r="355">
-      <c r="C355" s="5"/>
-      <c r="D355" s="6"/>
+      <c r="C355" s="7"/>
+      <c r="D355" s="8"/>
     </row>
     <row r="356">
-      <c r="C356" s="5"/>
-      <c r="D356" s="6"/>
+      <c r="C356" s="7"/>
+      <c r="D356" s="8"/>
     </row>
     <row r="357">
-      <c r="C357" s="5"/>
-      <c r="D357" s="6"/>
+      <c r="C357" s="7"/>
+      <c r="D357" s="8"/>
     </row>
     <row r="358">
-      <c r="C358" s="5"/>
-      <c r="D358" s="6"/>
+      <c r="C358" s="7"/>
+      <c r="D358" s="8"/>
     </row>
     <row r="359">
-      <c r="C359" s="5"/>
-      <c r="D359" s="6"/>
+      <c r="C359" s="7"/>
+      <c r="D359" s="8"/>
     </row>
     <row r="360">
-      <c r="C360" s="5"/>
-      <c r="D360" s="6"/>
+      <c r="C360" s="7"/>
+      <c r="D360" s="8"/>
     </row>
     <row r="361">
-      <c r="C361" s="5"/>
-      <c r="D361" s="6"/>
+      <c r="C361" s="7"/>
+      <c r="D361" s="8"/>
     </row>
     <row r="362">
-      <c r="C362" s="5"/>
-      <c r="D362" s="6"/>
+      <c r="C362" s="7"/>
+      <c r="D362" s="8"/>
     </row>
     <row r="363">
-      <c r="C363" s="5"/>
-      <c r="D363" s="6"/>
+      <c r="C363" s="7"/>
+      <c r="D363" s="8"/>
     </row>
     <row r="364">
-      <c r="C364" s="5"/>
-      <c r="D364" s="6"/>
+      <c r="C364" s="7"/>
+      <c r="D364" s="8"/>
     </row>
     <row r="365">
-      <c r="C365" s="5"/>
-      <c r="D365" s="6"/>
+      <c r="C365" s="7"/>
+      <c r="D365" s="8"/>
     </row>
     <row r="366">
-      <c r="C366" s="5"/>
-      <c r="D366" s="6"/>
+      <c r="C366" s="7"/>
+      <c r="D366" s="8"/>
     </row>
     <row r="367">
-      <c r="C367" s="5"/>
-      <c r="D367" s="6"/>
+      <c r="C367" s="7"/>
+      <c r="D367" s="8"/>
     </row>
     <row r="368">
-      <c r="C368" s="5"/>
-      <c r="D368" s="6"/>
+      <c r="C368" s="7"/>
+      <c r="D368" s="8"/>
     </row>
     <row r="369">
-      <c r="C369" s="5"/>
-      <c r="D369" s="6"/>
+      <c r="C369" s="7"/>
+      <c r="D369" s="8"/>
     </row>
     <row r="370">
-      <c r="C370" s="5"/>
-      <c r="D370" s="6"/>
+      <c r="C370" s="7"/>
+      <c r="D370" s="8"/>
     </row>
     <row r="371">
-      <c r="C371" s="5"/>
-      <c r="D371" s="6"/>
+      <c r="C371" s="7"/>
+      <c r="D371" s="8"/>
     </row>
     <row r="372">
-      <c r="C372" s="5"/>
-      <c r="D372" s="6"/>
+      <c r="C372" s="7"/>
+      <c r="D372" s="8"/>
     </row>
     <row r="373">
-      <c r="C373" s="5"/>
-      <c r="D373" s="6"/>
+      <c r="C373" s="7"/>
+      <c r="D373" s="8"/>
     </row>
     <row r="374">
-      <c r="C374" s="5"/>
-      <c r="D374" s="6"/>
+      <c r="C374" s="7"/>
+      <c r="D374" s="8"/>
     </row>
     <row r="375">
-      <c r="C375" s="5"/>
-      <c r="D375" s="6"/>
+      <c r="C375" s="7"/>
+      <c r="D375" s="8"/>
     </row>
     <row r="376">
-      <c r="C376" s="5"/>
-      <c r="D376" s="6"/>
+      <c r="C376" s="7"/>
+      <c r="D376" s="8"/>
     </row>
     <row r="377">
-      <c r="C377" s="5"/>
-      <c r="D377" s="6"/>
+      <c r="C377" s="7"/>
+      <c r="D377" s="8"/>
     </row>
     <row r="378">
-      <c r="C378" s="5"/>
-      <c r="D378" s="6"/>
+      <c r="C378" s="7"/>
+      <c r="D378" s="8"/>
     </row>
     <row r="379">
-      <c r="C379" s="5"/>
-      <c r="D379" s="6"/>
+      <c r="C379" s="7"/>
+      <c r="D379" s="8"/>
     </row>
     <row r="380">
-      <c r="C380" s="5"/>
-      <c r="D380" s="6"/>
+      <c r="C380" s="7"/>
+      <c r="D380" s="8"/>
     </row>
     <row r="381">
-      <c r="C381" s="5"/>
-      <c r="D381" s="6"/>
+      <c r="C381" s="7"/>
+      <c r="D381" s="8"/>
     </row>
     <row r="382">
-      <c r="C382" s="5"/>
-      <c r="D382" s="6"/>
+      <c r="C382" s="7"/>
+      <c r="D382" s="8"/>
     </row>
     <row r="383">
-      <c r="C383" s="5"/>
-      <c r="D383" s="6"/>
+      <c r="C383" s="7"/>
+      <c r="D383" s="8"/>
     </row>
     <row r="384">
-      <c r="C384" s="5"/>
-      <c r="D384" s="6"/>
+      <c r="C384" s="7"/>
+      <c r="D384" s="8"/>
     </row>
     <row r="385">
-      <c r="C385" s="5"/>
-      <c r="D385" s="6"/>
+      <c r="C385" s="7"/>
+      <c r="D385" s="8"/>
     </row>
     <row r="386">
-      <c r="C386" s="5"/>
-      <c r="D386" s="6"/>
+      <c r="C386" s="7"/>
+      <c r="D386" s="8"/>
     </row>
     <row r="387">
-      <c r="C387" s="5"/>
-      <c r="D387" s="6"/>
+      <c r="C387" s="7"/>
+      <c r="D387" s="8"/>
     </row>
     <row r="388">
-      <c r="C388" s="5"/>
-      <c r="D388" s="6"/>
+      <c r="C388" s="7"/>
+      <c r="D388" s="8"/>
     </row>
     <row r="389">
-      <c r="C389" s="5"/>
-      <c r="D389" s="6"/>
+      <c r="C389" s="7"/>
+      <c r="D389" s="8"/>
     </row>
     <row r="390">
-      <c r="C390" s="5"/>
-      <c r="D390" s="6"/>
+      <c r="C390" s="7"/>
+      <c r="D390" s="8"/>
     </row>
     <row r="391">
-      <c r="C391" s="5"/>
-      <c r="D391" s="6"/>
+      <c r="C391" s="7"/>
+      <c r="D391" s="8"/>
     </row>
     <row r="392">
-      <c r="C392" s="5"/>
-      <c r="D392" s="6"/>
+      <c r="C392" s="7"/>
+      <c r="D392" s="8"/>
     </row>
     <row r="393">
-      <c r="C393" s="5"/>
-      <c r="D393" s="6"/>
+      <c r="C393" s="7"/>
+      <c r="D393" s="8"/>
     </row>
     <row r="394">
-      <c r="C394" s="5"/>
-      <c r="D394" s="6"/>
+      <c r="C394" s="7"/>
+      <c r="D394" s="8"/>
     </row>
     <row r="395">
-      <c r="C395" s="5"/>
-      <c r="D395" s="6"/>
+      <c r="C395" s="7"/>
+      <c r="D395" s="8"/>
     </row>
     <row r="396">
-      <c r="C396" s="5"/>
-      <c r="D396" s="6"/>
+      <c r="C396" s="7"/>
+      <c r="D396" s="8"/>
     </row>
     <row r="397">
-      <c r="C397" s="5"/>
-      <c r="D397" s="6"/>
+      <c r="C397" s="7"/>
+      <c r="D397" s="8"/>
     </row>
     <row r="398">
-      <c r="C398" s="5"/>
-      <c r="D398" s="6"/>
+      <c r="C398" s="7"/>
+      <c r="D398" s="8"/>
     </row>
     <row r="399">
-      <c r="C399" s="5"/>
-      <c r="D399" s="6"/>
+      <c r="C399" s="7"/>
+      <c r="D399" s="8"/>
     </row>
     <row r="400">
-      <c r="C400" s="5"/>
-      <c r="D400" s="6"/>
+      <c r="C400" s="7"/>
+      <c r="D400" s="8"/>
     </row>
     <row r="401">
-      <c r="C401" s="5"/>
-      <c r="D401" s="6"/>
+      <c r="C401" s="7"/>
+      <c r="D401" s="8"/>
     </row>
     <row r="402">
-      <c r="C402" s="5"/>
-      <c r="D402" s="6"/>
+      <c r="C402" s="7"/>
+      <c r="D402" s="8"/>
     </row>
     <row r="403">
-      <c r="C403" s="5"/>
-      <c r="D403" s="6"/>
+      <c r="C403" s="7"/>
+      <c r="D403" s="8"/>
     </row>
     <row r="404">
-      <c r="C404" s="5"/>
-      <c r="D404" s="6"/>
+      <c r="C404" s="7"/>
+      <c r="D404" s="8"/>
     </row>
     <row r="405">
-      <c r="C405" s="5"/>
-      <c r="D405" s="6"/>
+      <c r="C405" s="7"/>
+      <c r="D405" s="8"/>
     </row>
     <row r="406">
-      <c r="C406" s="5"/>
-      <c r="D406" s="6"/>
+      <c r="C406" s="7"/>
+      <c r="D406" s="8"/>
     </row>
     <row r="407">
-      <c r="C407" s="5"/>
-      <c r="D407" s="6"/>
+      <c r="C407" s="7"/>
+      <c r="D407" s="8"/>
     </row>
     <row r="408">
-      <c r="C408" s="5"/>
-      <c r="D408" s="6"/>
+      <c r="C408" s="7"/>
+      <c r="D408" s="8"/>
     </row>
     <row r="409">
-      <c r="C409" s="5"/>
-      <c r="D409" s="6"/>
+      <c r="C409" s="7"/>
+      <c r="D409" s="8"/>
     </row>
     <row r="410">
-      <c r="C410" s="5"/>
-      <c r="D410" s="6"/>
+      <c r="C410" s="7"/>
+      <c r="D410" s="8"/>
     </row>
     <row r="411">
-      <c r="C411" s="5"/>
-      <c r="D411" s="6"/>
+      <c r="C411" s="7"/>
+      <c r="D411" s="8"/>
     </row>
     <row r="412">
-      <c r="C412" s="5"/>
-      <c r="D412" s="6"/>
+      <c r="C412" s="7"/>
+      <c r="D412" s="8"/>
     </row>
     <row r="413">
-      <c r="C413" s="5"/>
-      <c r="D413" s="6"/>
+      <c r="C413" s="7"/>
+      <c r="D413" s="8"/>
     </row>
     <row r="414">
-      <c r="C414" s="5"/>
-      <c r="D414" s="6"/>
+      <c r="C414" s="7"/>
+      <c r="D414" s="8"/>
     </row>
     <row r="415">
-      <c r="C415" s="5"/>
-      <c r="D415" s="6"/>
+      <c r="C415" s="7"/>
+      <c r="D415" s="8"/>
     </row>
     <row r="416">
-      <c r="C416" s="5"/>
-      <c r="D416" s="6"/>
+      <c r="C416" s="7"/>
+      <c r="D416" s="8"/>
     </row>
     <row r="417">
-      <c r="C417" s="5"/>
-      <c r="D417" s="6"/>
+      <c r="C417" s="7"/>
+      <c r="D417" s="8"/>
     </row>
     <row r="418">
-      <c r="C418" s="5"/>
-      <c r="D418" s="6"/>
+      <c r="C418" s="7"/>
+      <c r="D418" s="8"/>
     </row>
     <row r="419">
-      <c r="C419" s="5"/>
-      <c r="D419" s="6"/>
+      <c r="C419" s="7"/>
+      <c r="D419" s="8"/>
     </row>
     <row r="420">
-      <c r="C420" s="5"/>
-      <c r="D420" s="6"/>
+      <c r="C420" s="7"/>
+      <c r="D420" s="8"/>
     </row>
     <row r="421">
-      <c r="C421" s="5"/>
-      <c r="D421" s="6"/>
+      <c r="C421" s="7"/>
+      <c r="D421" s="8"/>
     </row>
     <row r="422">
-      <c r="C422" s="5"/>
-      <c r="D422" s="6"/>
+      <c r="C422" s="7"/>
+      <c r="D422" s="8"/>
     </row>
     <row r="423">
-      <c r="C423" s="5"/>
-      <c r="D423" s="6"/>
+      <c r="C423" s="7"/>
+      <c r="D423" s="8"/>
     </row>
     <row r="424">
-      <c r="C424" s="5"/>
-      <c r="D424" s="6"/>
+      <c r="C424" s="7"/>
+      <c r="D424" s="8"/>
     </row>
     <row r="425">
-      <c r="C425" s="5"/>
-      <c r="D425" s="6"/>
+      <c r="C425" s="7"/>
+      <c r="D425" s="8"/>
     </row>
     <row r="426">
-      <c r="C426" s="5"/>
-      <c r="D426" s="6"/>
+      <c r="C426" s="7"/>
+      <c r="D426" s="8"/>
     </row>
     <row r="427">
-      <c r="C427" s="5"/>
-      <c r="D427" s="6"/>
+      <c r="C427" s="7"/>
+      <c r="D427" s="8"/>
     </row>
     <row r="428">
-      <c r="C428" s="5"/>
-      <c r="D428" s="6"/>
+      <c r="C428" s="7"/>
+      <c r="D428" s="8"/>
     </row>
     <row r="429">
-      <c r="C429" s="5"/>
-      <c r="D429" s="6"/>
+      <c r="C429" s="7"/>
+      <c r="D429" s="8"/>
     </row>
     <row r="430">
-      <c r="C430" s="5"/>
-      <c r="D430" s="6"/>
+      <c r="C430" s="7"/>
+      <c r="D430" s="8"/>
     </row>
     <row r="431">
-      <c r="C431" s="5"/>
-      <c r="D431" s="6"/>
+      <c r="C431" s="7"/>
+      <c r="D431" s="8"/>
     </row>
     <row r="432">
-      <c r="C432" s="5"/>
-      <c r="D432" s="6"/>
+      <c r="C432" s="7"/>
+      <c r="D432" s="8"/>
     </row>
     <row r="433">
-      <c r="C433" s="5"/>
-      <c r="D433" s="6"/>
+      <c r="C433" s="7"/>
+      <c r="D433" s="8"/>
     </row>
     <row r="434">
-      <c r="C434" s="5"/>
-      <c r="D434" s="6"/>
+      <c r="C434" s="7"/>
+      <c r="D434" s="8"/>
     </row>
     <row r="435">
-      <c r="C435" s="5"/>
-      <c r="D435" s="6"/>
+      <c r="C435" s="7"/>
+      <c r="D435" s="8"/>
     </row>
     <row r="436">
-      <c r="C436" s="5"/>
-      <c r="D436" s="6"/>
+      <c r="C436" s="7"/>
+      <c r="D436" s="8"/>
     </row>
     <row r="437">
-      <c r="C437" s="5"/>
-      <c r="D437" s="6"/>
+      <c r="C437" s="7"/>
+      <c r="D437" s="8"/>
     </row>
     <row r="438">
-      <c r="C438" s="5"/>
-      <c r="D438" s="6"/>
+      <c r="C438" s="7"/>
+      <c r="D438" s="8"/>
     </row>
     <row r="439">
-      <c r="C439" s="5"/>
-      <c r="D439" s="6"/>
+      <c r="C439" s="7"/>
+      <c r="D439" s="8"/>
     </row>
     <row r="440">
-      <c r="C440" s="5"/>
-      <c r="D440" s="6"/>
+      <c r="C440" s="7"/>
+      <c r="D440" s="8"/>
     </row>
     <row r="441">
-      <c r="C441" s="5"/>
-      <c r="D441" s="6"/>
+      <c r="C441" s="7"/>
+      <c r="D441" s="8"/>
     </row>
     <row r="442">
-      <c r="C442" s="5"/>
-      <c r="D442" s="6"/>
+      <c r="C442" s="7"/>
+      <c r="D442" s="8"/>
     </row>
     <row r="443">
-      <c r="C443" s="5"/>
-      <c r="D443" s="6"/>
+      <c r="C443" s="7"/>
+      <c r="D443" s="8"/>
     </row>
     <row r="444">
-      <c r="C444" s="5"/>
-      <c r="D444" s="6"/>
+      <c r="C444" s="7"/>
+      <c r="D444" s="8"/>
     </row>
     <row r="445">
-      <c r="C445" s="5"/>
-      <c r="D445" s="6"/>
+      <c r="C445" s="7"/>
+      <c r="D445" s="8"/>
     </row>
     <row r="446">
-      <c r="C446" s="5"/>
-      <c r="D446" s="6"/>
+      <c r="C446" s="7"/>
+      <c r="D446" s="8"/>
     </row>
     <row r="447">
-      <c r="C447" s="5"/>
-      <c r="D447" s="6"/>
+      <c r="C447" s="7"/>
+      <c r="D447" s="8"/>
     </row>
     <row r="448">
-      <c r="C448" s="5"/>
-      <c r="D448" s="6"/>
+      <c r="C448" s="7"/>
+      <c r="D448" s="8"/>
     </row>
     <row r="449">
-      <c r="C449" s="5"/>
-      <c r="D449" s="6"/>
+      <c r="C449" s="7"/>
+      <c r="D449" s="8"/>
     </row>
     <row r="450">
-      <c r="C450" s="5"/>
-      <c r="D450" s="6"/>
+      <c r="C450" s="7"/>
+      <c r="D450" s="8"/>
     </row>
     <row r="451">
-      <c r="C451" s="5"/>
-      <c r="D451" s="6"/>
+      <c r="C451" s="7"/>
+      <c r="D451" s="8"/>
     </row>
     <row r="452">
-      <c r="C452" s="5"/>
-      <c r="D452" s="6"/>
+      <c r="C452" s="7"/>
+      <c r="D452" s="8"/>
     </row>
     <row r="453">
-      <c r="C453" s="5"/>
-      <c r="D453" s="6"/>
+      <c r="C453" s="7"/>
+      <c r="D453" s="8"/>
     </row>
     <row r="454">
-      <c r="C454" s="5"/>
-      <c r="D454" s="6"/>
+      <c r="C454" s="7"/>
+      <c r="D454" s="8"/>
     </row>
     <row r="455">
-      <c r="C455" s="5"/>
-      <c r="D455" s="6"/>
+      <c r="C455" s="7"/>
+      <c r="D455" s="8"/>
     </row>
     <row r="456">
-      <c r="C456" s="5"/>
-      <c r="D456" s="6"/>
+      <c r="C456" s="7"/>
+      <c r="D456" s="8"/>
     </row>
     <row r="457">
-      <c r="C457" s="5"/>
-      <c r="D457" s="6"/>
+      <c r="C457" s="7"/>
+      <c r="D457" s="8"/>
     </row>
     <row r="458">
-      <c r="C458" s="5"/>
-      <c r="D458" s="6"/>
+      <c r="C458" s="7"/>
+      <c r="D458" s="8"/>
     </row>
     <row r="459">
-      <c r="C459" s="5"/>
-      <c r="D459" s="6"/>
+      <c r="C459" s="7"/>
+      <c r="D459" s="8"/>
     </row>
     <row r="460">
-      <c r="C460" s="5"/>
-      <c r="D460" s="6"/>
+      <c r="C460" s="7"/>
+      <c r="D460" s="8"/>
     </row>
     <row r="461">
-      <c r="C461" s="5"/>
-      <c r="D461" s="6"/>
+      <c r="C461" s="7"/>
+      <c r="D461" s="8"/>
     </row>
     <row r="462">
-      <c r="C462" s="5"/>
-      <c r="D462" s="6"/>
+      <c r="C462" s="7"/>
+      <c r="D462" s="8"/>
     </row>
     <row r="463">
-      <c r="C463" s="5"/>
-      <c r="D463" s="6"/>
+      <c r="C463" s="7"/>
+      <c r="D463" s="8"/>
     </row>
     <row r="464">
-      <c r="C464" s="5"/>
-      <c r="D464" s="6"/>
+      <c r="C464" s="7"/>
+      <c r="D464" s="8"/>
     </row>
     <row r="465">
-      <c r="C465" s="5"/>
-      <c r="D465" s="6"/>
+      <c r="C465" s="7"/>
+      <c r="D465" s="8"/>
     </row>
     <row r="466">
-      <c r="C466" s="5"/>
-      <c r="D466" s="6"/>
+      <c r="C466" s="7"/>
+      <c r="D466" s="8"/>
     </row>
     <row r="467">
-      <c r="C467" s="5"/>
-      <c r="D467" s="6"/>
+      <c r="C467" s="7"/>
+      <c r="D467" s="8"/>
     </row>
     <row r="468">
-      <c r="C468" s="5"/>
-      <c r="D468" s="6"/>
+      <c r="C468" s="7"/>
+      <c r="D468" s="8"/>
     </row>
     <row r="469">
-      <c r="C469" s="5"/>
-      <c r="D469" s="6"/>
+      <c r="C469" s="7"/>
+      <c r="D469" s="8"/>
     </row>
     <row r="470">
-      <c r="C470" s="5"/>
-      <c r="D470" s="6"/>
+      <c r="C470" s="7"/>
+      <c r="D470" s="8"/>
     </row>
     <row r="471">
-      <c r="C471" s="5"/>
-      <c r="D471" s="6"/>
+      <c r="C471" s="7"/>
+      <c r="D471" s="8"/>
     </row>
     <row r="472">
-      <c r="C472" s="5"/>
-      <c r="D472" s="6"/>
+      <c r="C472" s="7"/>
+      <c r="D472" s="8"/>
     </row>
     <row r="473">
-      <c r="C473" s="5"/>
-      <c r="D473" s="6"/>
+      <c r="C473" s="7"/>
+      <c r="D473" s="8"/>
     </row>
     <row r="474">
-      <c r="C474" s="5"/>
-      <c r="D474" s="6"/>
+      <c r="C474" s="7"/>
+      <c r="D474" s="8"/>
     </row>
     <row r="475">
-      <c r="C475" s="5"/>
-      <c r="D475" s="6"/>
+      <c r="C475" s="7"/>
+      <c r="D475" s="8"/>
     </row>
     <row r="476">
-      <c r="C476" s="5"/>
-      <c r="D476" s="6"/>
+      <c r="C476" s="7"/>
+      <c r="D476" s="8"/>
     </row>
     <row r="477">
-      <c r="C477" s="5"/>
-      <c r="D477" s="6"/>
+      <c r="C477" s="7"/>
+      <c r="D477" s="8"/>
     </row>
     <row r="478">
-      <c r="C478" s="5"/>
-      <c r="D478" s="6"/>
+      <c r="C478" s="7"/>
+      <c r="D478" s="8"/>
     </row>
     <row r="479">
-      <c r="C479" s="5"/>
-      <c r="D479" s="6"/>
+      <c r="C479" s="7"/>
+      <c r="D479" s="8"/>
     </row>
     <row r="480">
-      <c r="C480" s="5"/>
-      <c r="D480" s="6"/>
+      <c r="C480" s="7"/>
+      <c r="D480" s="8"/>
     </row>
     <row r="481">
-      <c r="C481" s="5"/>
-      <c r="D481" s="6"/>
+      <c r="C481" s="7"/>
+      <c r="D481" s="8"/>
     </row>
     <row r="482">
-      <c r="C482" s="5"/>
-      <c r="D482" s="6"/>
+      <c r="C482" s="7"/>
+      <c r="D482" s="8"/>
     </row>
     <row r="483">
-      <c r="C483" s="5"/>
-      <c r="D483" s="6"/>
+      <c r="C483" s="7"/>
+      <c r="D483" s="8"/>
     </row>
     <row r="484">
-      <c r="C484" s="5"/>
-      <c r="D484" s="6"/>
+      <c r="C484" s="7"/>
+      <c r="D484" s="8"/>
     </row>
     <row r="485">
-      <c r="C485" s="5"/>
-      <c r="D485" s="6"/>
+      <c r="C485" s="7"/>
+      <c r="D485" s="8"/>
     </row>
     <row r="486">
-      <c r="C486" s="5"/>
-      <c r="D486" s="6"/>
+      <c r="C486" s="7"/>
+      <c r="D486" s="8"/>
     </row>
     <row r="487">
-      <c r="C487" s="5"/>
-      <c r="D487" s="6"/>
+      <c r="C487" s="7"/>
+      <c r="D487" s="8"/>
     </row>
     <row r="488">
-      <c r="C488" s="5"/>
-      <c r="D488" s="6"/>
+      <c r="C488" s="7"/>
+      <c r="D488" s="8"/>
     </row>
     <row r="489">
-      <c r="C489" s="5"/>
-      <c r="D489" s="6"/>
+      <c r="C489" s="7"/>
+      <c r="D489" s="8"/>
     </row>
     <row r="490">
-      <c r="C490" s="5"/>
-      <c r="D490" s="6"/>
+      <c r="C490" s="7"/>
+      <c r="D490" s="8"/>
     </row>
     <row r="491">
-      <c r="C491" s="5"/>
-      <c r="D491" s="6"/>
+      <c r="C491" s="7"/>
+      <c r="D491" s="8"/>
     </row>
     <row r="492">
-      <c r="C492" s="5"/>
-      <c r="D492" s="6"/>
+      <c r="C492" s="7"/>
+      <c r="D492" s="8"/>
     </row>
     <row r="493">
-      <c r="C493" s="5"/>
-      <c r="D493" s="6"/>
+      <c r="C493" s="7"/>
+      <c r="D493" s="8"/>
     </row>
     <row r="494">
-      <c r="C494" s="5"/>
-      <c r="D494" s="6"/>
+      <c r="C494" s="7"/>
+      <c r="D494" s="8"/>
     </row>
     <row r="495">
-      <c r="C495" s="5"/>
-      <c r="D495" s="6"/>
+      <c r="C495" s="7"/>
+      <c r="D495" s="8"/>
     </row>
     <row r="496">
-      <c r="C496" s="5"/>
-      <c r="D496" s="6"/>
+      <c r="C496" s="7"/>
+      <c r="D496" s="8"/>
     </row>
     <row r="497">
-      <c r="C497" s="5"/>
-      <c r="D497" s="6"/>
+      <c r="C497" s="7"/>
+      <c r="D497" s="8"/>
     </row>
     <row r="498">
-      <c r="C498" s="5"/>
-      <c r="D498" s="6"/>
+      <c r="C498" s="7"/>
+      <c r="D498" s="8"/>
     </row>
     <row r="499">
-      <c r="C499" s="5"/>
-      <c r="D499" s="6"/>
+      <c r="C499" s="7"/>
+      <c r="D499" s="8"/>
     </row>
     <row r="500">
-      <c r="C500" s="5"/>
-      <c r="D500" s="6"/>
+      <c r="C500" s="7"/>
+      <c r="D500" s="8"/>
     </row>
     <row r="501">
-      <c r="C501" s="5"/>
-      <c r="D501" s="6"/>
+      <c r="C501" s="7"/>
+      <c r="D501" s="8"/>
     </row>
     <row r="502">
-      <c r="C502" s="5"/>
-      <c r="D502" s="6"/>
+      <c r="C502" s="7"/>
+      <c r="D502" s="8"/>
     </row>
     <row r="503">
-      <c r="C503" s="5"/>
-      <c r="D503" s="6"/>
+      <c r="C503" s="7"/>
+      <c r="D503" s="8"/>
     </row>
     <row r="504">
-      <c r="C504" s="5"/>
-      <c r="D504" s="6"/>
+      <c r="C504" s="7"/>
+      <c r="D504" s="8"/>
     </row>
     <row r="505">
-      <c r="C505" s="5"/>
-      <c r="D505" s="6"/>
+      <c r="C505" s="7"/>
+      <c r="D505" s="8"/>
     </row>
     <row r="506">
-      <c r="C506" s="5"/>
-      <c r="D506" s="6"/>
+      <c r="C506" s="7"/>
+      <c r="D506" s="8"/>
     </row>
     <row r="507">
-      <c r="C507" s="5"/>
-      <c r="D507" s="6"/>
+      <c r="C507" s="7"/>
+      <c r="D507" s="8"/>
     </row>
     <row r="508">
-      <c r="C508" s="5"/>
-      <c r="D508" s="6"/>
+      <c r="C508" s="7"/>
+      <c r="D508" s="8"/>
     </row>
     <row r="509">
-      <c r="C509" s="5"/>
-      <c r="D509" s="6"/>
+      <c r="C509" s="7"/>
+      <c r="D509" s="8"/>
     </row>
     <row r="510">
-      <c r="C510" s="5"/>
-      <c r="D510" s="6"/>
+      <c r="C510" s="7"/>
+      <c r="D510" s="8"/>
     </row>
     <row r="511">
-      <c r="C511" s="5"/>
-      <c r="D511" s="6"/>
+      <c r="C511" s="7"/>
+      <c r="D511" s="8"/>
     </row>
     <row r="512">
-      <c r="C512" s="5"/>
-      <c r="D512" s="6"/>
+      <c r="C512" s="7"/>
+      <c r="D512" s="8"/>
     </row>
     <row r="513">
-      <c r="C513" s="5"/>
-      <c r="D513" s="6"/>
+      <c r="C513" s="7"/>
+      <c r="D513" s="8"/>
     </row>
     <row r="514">
-      <c r="C514" s="5"/>
-      <c r="D514" s="6"/>
+      <c r="C514" s="7"/>
+      <c r="D514" s="8"/>
     </row>
     <row r="515">
-      <c r="C515" s="5"/>
-      <c r="D515" s="6"/>
+      <c r="C515" s="7"/>
+      <c r="D515" s="8"/>
     </row>
     <row r="516">
-      <c r="C516" s="5"/>
-      <c r="D516" s="6"/>
+      <c r="C516" s="7"/>
+      <c r="D516" s="8"/>
     </row>
     <row r="517">
-      <c r="C517" s="5"/>
-      <c r="D517" s="6"/>
+      <c r="C517" s="7"/>
+      <c r="D517" s="8"/>
     </row>
     <row r="518">
-      <c r="C518" s="5"/>
-      <c r="D518" s="6"/>
+      <c r="C518" s="7"/>
+      <c r="D518" s="8"/>
     </row>
     <row r="519">
-      <c r="C519" s="5"/>
-      <c r="D519" s="6"/>
+      <c r="C519" s="7"/>
+      <c r="D519" s="8"/>
     </row>
     <row r="520">
-      <c r="C520" s="5"/>
-      <c r="D520" s="6"/>
+      <c r="C520" s="7"/>
+      <c r="D520" s="8"/>
     </row>
     <row r="521">
-      <c r="C521" s="5"/>
-      <c r="D521" s="6"/>
+      <c r="C521" s="7"/>
+      <c r="D521" s="8"/>
     </row>
     <row r="522">
-      <c r="C522" s="5"/>
-      <c r="D522" s="6"/>
+      <c r="C522" s="7"/>
+      <c r="D522" s="8"/>
     </row>
     <row r="523">
-      <c r="C523" s="5"/>
-      <c r="D523" s="6"/>
+      <c r="C523" s="7"/>
+      <c r="D523" s="8"/>
     </row>
     <row r="524">
-      <c r="C524" s="5"/>
-      <c r="D524" s="6"/>
+      <c r="C524" s="7"/>
+      <c r="D524" s="8"/>
     </row>
     <row r="525">
-      <c r="C525" s="5"/>
-      <c r="D525" s="6"/>
+      <c r="C525" s="7"/>
+      <c r="D525" s="8"/>
     </row>
     <row r="526">
-      <c r="C526" s="5"/>
-      <c r="D526" s="6"/>
+      <c r="C526" s="7"/>
+      <c r="D526" s="8"/>
     </row>
     <row r="527">
-      <c r="C527" s="5"/>
-      <c r="D527" s="6"/>
+      <c r="C527" s="7"/>
+      <c r="D527" s="8"/>
     </row>
     <row r="528">
-      <c r="C528" s="5"/>
-      <c r="D528" s="6"/>
+      <c r="C528" s="7"/>
+      <c r="D528" s="8"/>
     </row>
     <row r="529">
-      <c r="C529" s="5"/>
-      <c r="D529" s="6"/>
+      <c r="C529" s="7"/>
+      <c r="D529" s="8"/>
     </row>
     <row r="530">
-      <c r="C530" s="5"/>
-      <c r="D530" s="6"/>
+      <c r="C530" s="7"/>
+      <c r="D530" s="8"/>
     </row>
     <row r="531">
-      <c r="C531" s="5"/>
-      <c r="D531" s="6"/>
+      <c r="C531" s="7"/>
+      <c r="D531" s="8"/>
     </row>
     <row r="532">
-      <c r="C532" s="5"/>
-      <c r="D532" s="6"/>
+      <c r="C532" s="7"/>
+      <c r="D532" s="8"/>
     </row>
     <row r="533">
-      <c r="C533" s="5"/>
-      <c r="D533" s="6"/>
+      <c r="C533" s="7"/>
+      <c r="D533" s="8"/>
     </row>
     <row r="534">
-      <c r="C534" s="5"/>
-      <c r="D534" s="6"/>
+      <c r="C534" s="7"/>
+      <c r="D534" s="8"/>
     </row>
     <row r="535">
-      <c r="C535" s="5"/>
-      <c r="D535" s="6"/>
+      <c r="C535" s="7"/>
+      <c r="D535" s="8"/>
     </row>
     <row r="536">
-      <c r="C536" s="5"/>
-      <c r="D536" s="6"/>
+      <c r="C536" s="7"/>
+      <c r="D536" s="8"/>
     </row>
     <row r="537">
-      <c r="C537" s="5"/>
-      <c r="D537" s="6"/>
+      <c r="C537" s="7"/>
+      <c r="D537" s="8"/>
     </row>
     <row r="538">
-      <c r="C538" s="5"/>
-      <c r="D538" s="6"/>
+      <c r="C538" s="7"/>
+      <c r="D538" s="8"/>
     </row>
     <row r="539">
-      <c r="C539" s="5"/>
-      <c r="D539" s="6"/>
+      <c r="C539" s="7"/>
+      <c r="D539" s="8"/>
     </row>
     <row r="540">
-      <c r="C540" s="5"/>
-      <c r="D540" s="6"/>
+      <c r="C540" s="7"/>
+      <c r="D540" s="8"/>
     </row>
     <row r="541">
-      <c r="C541" s="5"/>
-      <c r="D541" s="6"/>
+      <c r="C541" s="7"/>
+      <c r="D541" s="8"/>
     </row>
     <row r="542">
-      <c r="C542" s="5"/>
-      <c r="D542" s="6"/>
+      <c r="C542" s="7"/>
+      <c r="D542" s="8"/>
     </row>
     <row r="543">
-      <c r="C543" s="5"/>
-      <c r="D543" s="6"/>
+      <c r="C543" s="7"/>
+      <c r="D543" s="8"/>
     </row>
     <row r="544">
-      <c r="C544" s="5"/>
-      <c r="D544" s="6"/>
+      <c r="C544" s="7"/>
+      <c r="D544" s="8"/>
     </row>
     <row r="545">
-      <c r="C545" s="5"/>
-      <c r="D545" s="6"/>
+      <c r="C545" s="7"/>
+      <c r="D545" s="8"/>
     </row>
     <row r="546">
-      <c r="C546" s="5"/>
-      <c r="D546" s="6"/>
+      <c r="C546" s="7"/>
+      <c r="D546" s="8"/>
     </row>
     <row r="547">
-      <c r="C547" s="5"/>
-      <c r="D547" s="6"/>
+      <c r="C547" s="7"/>
+      <c r="D547" s="8"/>
     </row>
     <row r="548">
-      <c r="C548" s="5"/>
-      <c r="D548" s="6"/>
+      <c r="C548" s="7"/>
+      <c r="D548" s="8"/>
     </row>
     <row r="549">
-      <c r="C549" s="5"/>
-      <c r="D549" s="6"/>
+      <c r="C549" s="7"/>
+      <c r="D549" s="8"/>
     </row>
     <row r="550">
-      <c r="C550" s="5"/>
-      <c r="D550" s="6"/>
+      <c r="C550" s="7"/>
+      <c r="D550" s="8"/>
     </row>
     <row r="551">
-      <c r="C551" s="5"/>
-      <c r="D551" s="6"/>
+      <c r="C551" s="7"/>
+      <c r="D551" s="8"/>
     </row>
     <row r="552">
-      <c r="C552" s="5"/>
-      <c r="D552" s="6"/>
+      <c r="C552" s="7"/>
+      <c r="D552" s="8"/>
     </row>
     <row r="553">
-      <c r="C553" s="5"/>
-      <c r="D553" s="6"/>
+      <c r="C553" s="7"/>
+      <c r="D553" s="8"/>
     </row>
     <row r="554">
-      <c r="C554" s="5"/>
-      <c r="D554" s="6"/>
+      <c r="C554" s="7"/>
+      <c r="D554" s="8"/>
     </row>
     <row r="555">
-      <c r="C555" s="5"/>
-      <c r="D555" s="6"/>
+      <c r="C555" s="7"/>
+      <c r="D555" s="8"/>
     </row>
     <row r="556">
-      <c r="C556" s="5"/>
-      <c r="D556" s="6"/>
+      <c r="C556" s="7"/>
+      <c r="D556" s="8"/>
     </row>
     <row r="557">
-      <c r="C557" s="5"/>
-      <c r="D557" s="6"/>
+      <c r="C557" s="7"/>
+      <c r="D557" s="8"/>
     </row>
     <row r="558">
-      <c r="C558" s="5"/>
-      <c r="D558" s="6"/>
+      <c r="C558" s="7"/>
+      <c r="D558" s="8"/>
     </row>
     <row r="559">
-      <c r="C559" s="5"/>
-      <c r="D559" s="6"/>
+      <c r="C559" s="7"/>
+      <c r="D559" s="8"/>
     </row>
     <row r="560">
-      <c r="C560" s="5"/>
-      <c r="D560" s="6"/>
+      <c r="C560" s="7"/>
+      <c r="D560" s="8"/>
     </row>
     <row r="561">
-      <c r="C561" s="5"/>
-      <c r="D561" s="6"/>
+      <c r="C561" s="7"/>
+      <c r="D561" s="8"/>
     </row>
     <row r="562">
-      <c r="C562" s="5"/>
-      <c r="D562" s="6"/>
+      <c r="C562" s="7"/>
+      <c r="D562" s="8"/>
     </row>
     <row r="563">
-      <c r="C563" s="5"/>
-      <c r="D563" s="6"/>
+      <c r="C563" s="7"/>
+      <c r="D563" s="8"/>
     </row>
     <row r="564">
-      <c r="C564" s="5"/>
-      <c r="D564" s="6"/>
+      <c r="C564" s="7"/>
+      <c r="D564" s="8"/>
     </row>
     <row r="565">
-      <c r="C565" s="5"/>
-      <c r="D565" s="6"/>
+      <c r="C565" s="7"/>
+      <c r="D565" s="8"/>
     </row>
     <row r="566">
-      <c r="C566" s="5"/>
-      <c r="D566" s="6"/>
+      <c r="C566" s="7"/>
+      <c r="D566" s="8"/>
     </row>
     <row r="567">
-      <c r="C567" s="5"/>
-      <c r="D567" s="6"/>
+      <c r="C567" s="7"/>
+      <c r="D567" s="8"/>
     </row>
     <row r="568">
-      <c r="C568" s="5"/>
-      <c r="D568" s="6"/>
+      <c r="C568" s="7"/>
+      <c r="D568" s="8"/>
     </row>
     <row r="569">
-      <c r="C569" s="5"/>
-      <c r="D569" s="6"/>
+      <c r="C569" s="7"/>
+      <c r="D569" s="8"/>
     </row>
     <row r="570">
-      <c r="C570" s="5"/>
-      <c r="D570" s="6"/>
+      <c r="C570" s="7"/>
+      <c r="D570" s="8"/>
     </row>
     <row r="571">
-      <c r="C571" s="5"/>
-      <c r="D571" s="6"/>
+      <c r="C571" s="7"/>
+      <c r="D571" s="8"/>
     </row>
     <row r="572">
-      <c r="C572" s="5"/>
-      <c r="D572" s="6"/>
+      <c r="C572" s="7"/>
+      <c r="D572" s="8"/>
     </row>
     <row r="573">
-      <c r="C573" s="5"/>
-      <c r="D573" s="6"/>
+      <c r="C573" s="7"/>
+      <c r="D573" s="8"/>
     </row>
     <row r="574">
-      <c r="C574" s="5"/>
-      <c r="D574" s="6"/>
+      <c r="C574" s="7"/>
+      <c r="D574" s="8"/>
     </row>
     <row r="575">
-      <c r="C575" s="5"/>
-      <c r="D575" s="6"/>
+      <c r="C575" s="7"/>
+      <c r="D575" s="8"/>
     </row>
     <row r="576">
-      <c r="C576" s="5"/>
-      <c r="D576" s="6"/>
+      <c r="C576" s="7"/>
+      <c r="D576" s="8"/>
     </row>
     <row r="577">
-      <c r="C577" s="5"/>
-      <c r="D577" s="6"/>
+      <c r="C577" s="7"/>
+      <c r="D577" s="8"/>
     </row>
     <row r="578">
-      <c r="C578" s="5"/>
-      <c r="D578" s="6"/>
+      <c r="C578" s="7"/>
+      <c r="D578" s="8"/>
     </row>
     <row r="579">
-      <c r="C579" s="5"/>
-      <c r="D579" s="6"/>
+      <c r="C579" s="7"/>
+      <c r="D579" s="8"/>
     </row>
     <row r="580">
-      <c r="C580" s="5"/>
-      <c r="D580" s="6"/>
+      <c r="C580" s="7"/>
+      <c r="D580" s="8"/>
     </row>
     <row r="581">
-      <c r="C581" s="5"/>
-      <c r="D581" s="6"/>
+      <c r="C581" s="7"/>
+      <c r="D581" s="8"/>
     </row>
     <row r="582">
-      <c r="C582" s="5"/>
-      <c r="D582" s="6"/>
+      <c r="C582" s="7"/>
+      <c r="D582" s="8"/>
     </row>
     <row r="583">
-      <c r="C583" s="5"/>
-      <c r="D583" s="6"/>
+      <c r="C583" s="7"/>
+      <c r="D583" s="8"/>
     </row>
     <row r="584">
-      <c r="C584" s="5"/>
-      <c r="D584" s="6"/>
+      <c r="C584" s="7"/>
+      <c r="D584" s="8"/>
     </row>
     <row r="585">
-      <c r="C585" s="5"/>
-      <c r="D585" s="6"/>
+      <c r="C585" s="7"/>
+      <c r="D585" s="8"/>
     </row>
     <row r="586">
-      <c r="C586" s="5"/>
-      <c r="D586" s="6"/>
+      <c r="C586" s="7"/>
+      <c r="D586" s="8"/>
     </row>
     <row r="587">
-      <c r="C587" s="5"/>
-      <c r="D587" s="6"/>
+      <c r="C587" s="7"/>
+      <c r="D587" s="8"/>
     </row>
     <row r="588">
-      <c r="C588" s="5"/>
-      <c r="D588" s="6"/>
+      <c r="C588" s="7"/>
+      <c r="D588" s="8"/>
     </row>
     <row r="589">
-      <c r="C589" s="5"/>
-      <c r="D589" s="6"/>
+      <c r="C589" s="7"/>
+      <c r="D589" s="8"/>
     </row>
     <row r="590">
-      <c r="C590" s="5"/>
-      <c r="D590" s="6"/>
+      <c r="C590" s="7"/>
+      <c r="D590" s="8"/>
     </row>
     <row r="591">
-      <c r="C591" s="5"/>
-      <c r="D591" s="6"/>
+      <c r="C591" s="7"/>
+      <c r="D591" s="8"/>
     </row>
     <row r="592">
-      <c r="C592" s="5"/>
-      <c r="D592" s="6"/>
+      <c r="C592" s="7"/>
+      <c r="D592" s="8"/>
     </row>
     <row r="593">
-      <c r="C593" s="5"/>
-      <c r="D593" s="6"/>
+      <c r="C593" s="7"/>
+      <c r="D593" s="8"/>
     </row>
     <row r="594">
-      <c r="C594" s="5"/>
-      <c r="D594" s="6"/>
+      <c r="C594" s="7"/>
+      <c r="D594" s="8"/>
     </row>
     <row r="595">
-      <c r="C595" s="5"/>
-      <c r="D595" s="6"/>
+      <c r="C595" s="7"/>
+      <c r="D595" s="8"/>
     </row>
     <row r="596">
-      <c r="C596" s="5"/>
-      <c r="D596" s="6"/>
+      <c r="C596" s="7"/>
+      <c r="D596" s="8"/>
     </row>
     <row r="597">
-      <c r="C597" s="5"/>
-      <c r="D597" s="6"/>
+      <c r="C597" s="7"/>
+      <c r="D597" s="8"/>
     </row>
     <row r="598">
-      <c r="C598" s="5"/>
-      <c r="D598" s="6"/>
+      <c r="C598" s="7"/>
+      <c r="D598" s="8"/>
     </row>
     <row r="599">
-      <c r="C599" s="5"/>
-      <c r="D599" s="6"/>
+      <c r="C599" s="7"/>
+      <c r="D599" s="8"/>
     </row>
     <row r="600">
-      <c r="C600" s="5"/>
-      <c r="D600" s="6"/>
+      <c r="C600" s="7"/>
+      <c r="D600" s="8"/>
     </row>
     <row r="601">
-      <c r="C601" s="5"/>
-      <c r="D601" s="6"/>
+      <c r="C601" s="7"/>
+      <c r="D601" s="8"/>
     </row>
     <row r="602">
-      <c r="C602" s="5"/>
-      <c r="D602" s="6"/>
+      <c r="C602" s="7"/>
+      <c r="D602" s="8"/>
     </row>
     <row r="603">
-      <c r="C603" s="5"/>
-      <c r="D603" s="6"/>
+      <c r="C603" s="7"/>
+      <c r="D603" s="8"/>
     </row>
     <row r="604">
-      <c r="C604" s="5"/>
-      <c r="D604" s="6"/>
+      <c r="C604" s="7"/>
+      <c r="D604" s="8"/>
     </row>
     <row r="605">
-      <c r="C605" s="5"/>
-      <c r="D605" s="6"/>
+      <c r="C605" s="7"/>
+      <c r="D605" s="8"/>
     </row>
     <row r="606">
-      <c r="C606" s="5"/>
-      <c r="D606" s="6"/>
+      <c r="C606" s="7"/>
+      <c r="D606" s="8"/>
     </row>
     <row r="607">
-      <c r="C607" s="5"/>
-      <c r="D607" s="6"/>
+      <c r="C607" s="7"/>
+      <c r="D607" s="8"/>
     </row>
     <row r="608">
-      <c r="C608" s="5"/>
-      <c r="D608" s="6"/>
+      <c r="C608" s="7"/>
+      <c r="D608" s="8"/>
     </row>
     <row r="609">
-      <c r="C609" s="5"/>
-      <c r="D609" s="6"/>
+      <c r="C609" s="7"/>
+      <c r="D609" s="8"/>
     </row>
     <row r="610">
-      <c r="C610" s="5"/>
-      <c r="D610" s="6"/>
+      <c r="C610" s="7"/>
+      <c r="D610" s="8"/>
     </row>
     <row r="611">
-      <c r="C611" s="5"/>
-      <c r="D611" s="6"/>
+      <c r="C611" s="7"/>
+      <c r="D611" s="8"/>
     </row>
     <row r="612">
-      <c r="C612" s="5"/>
-      <c r="D612" s="6"/>
+      <c r="C612" s="7"/>
+      <c r="D612" s="8"/>
     </row>
     <row r="613">
-      <c r="C613" s="5"/>
-      <c r="D613" s="6"/>
+      <c r="C613" s="7"/>
+      <c r="D613" s="8"/>
     </row>
     <row r="614">
-      <c r="C614" s="5"/>
-      <c r="D614" s="6"/>
+      <c r="C614" s="7"/>
+      <c r="D614" s="8"/>
     </row>
     <row r="615">
-      <c r="C615" s="5"/>
-      <c r="D615" s="6"/>
+      <c r="C615" s="7"/>
+      <c r="D615" s="8"/>
     </row>
     <row r="616">
-      <c r="C616" s="5"/>
-      <c r="D616" s="6"/>
+      <c r="C616" s="7"/>
+      <c r="D616" s="8"/>
     </row>
     <row r="617">
-      <c r="C617" s="5"/>
-      <c r="D617" s="6"/>
+      <c r="C617" s="7"/>
+      <c r="D617" s="8"/>
     </row>
     <row r="618">
-      <c r="C618" s="5"/>
-      <c r="D618" s="6"/>
+      <c r="C618" s="7"/>
+      <c r="D618" s="8"/>
     </row>
     <row r="619">
-      <c r="C619" s="5"/>
-      <c r="D619" s="6"/>
+      <c r="C619" s="7"/>
+      <c r="D619" s="8"/>
     </row>
     <row r="620">
-      <c r="C620" s="5"/>
-      <c r="D620" s="6"/>
+      <c r="C620" s="7"/>
+      <c r="D620" s="8"/>
     </row>
     <row r="621">
-      <c r="C621" s="5"/>
-      <c r="D621" s="6"/>
+      <c r="C621" s="7"/>
+      <c r="D621" s="8"/>
     </row>
     <row r="622">
-      <c r="C622" s="5"/>
-      <c r="D622" s="6"/>
+      <c r="C622" s="7"/>
+      <c r="D622" s="8"/>
     </row>
     <row r="623">
-      <c r="C623" s="5"/>
-      <c r="D623" s="6"/>
+      <c r="C623" s="7"/>
+      <c r="D623" s="8"/>
     </row>
     <row r="624">
-      <c r="C624" s="5"/>
-      <c r="D624" s="6"/>
+      <c r="C624" s="7"/>
+      <c r="D624" s="8"/>
     </row>
     <row r="625">
-      <c r="C625" s="5"/>
-      <c r="D625" s="6"/>
+      <c r="C625" s="7"/>
+      <c r="D625" s="8"/>
     </row>
     <row r="626">
-      <c r="C626" s="5"/>
-      <c r="D626" s="6"/>
+      <c r="C626" s="7"/>
+      <c r="D626" s="8"/>
     </row>
     <row r="627">
-      <c r="C627" s="5"/>
-      <c r="D627" s="6"/>
+      <c r="C627" s="7"/>
+      <c r="D627" s="8"/>
     </row>
     <row r="628">
-      <c r="C628" s="5"/>
-      <c r="D628" s="6"/>
+      <c r="C628" s="7"/>
+      <c r="D628" s="8"/>
     </row>
     <row r="629">
-      <c r="C629" s="5"/>
-      <c r="D629" s="6"/>
+      <c r="C629" s="7"/>
+      <c r="D629" s="8"/>
     </row>
     <row r="630">
-      <c r="C630" s="5"/>
-      <c r="D630" s="6"/>
+      <c r="C630" s="7"/>
+      <c r="D630" s="8"/>
     </row>
     <row r="631">
-      <c r="C631" s="5"/>
-      <c r="D631" s="6"/>
+      <c r="C631" s="7"/>
+      <c r="D631" s="8"/>
     </row>
     <row r="632">
-      <c r="C632" s="5"/>
-      <c r="D632" s="6"/>
+      <c r="C632" s="7"/>
+      <c r="D632" s="8"/>
     </row>
     <row r="633">
-      <c r="C633" s="5"/>
-      <c r="D633" s="6"/>
+      <c r="C633" s="7"/>
+      <c r="D633" s="8"/>
     </row>
     <row r="634">
-      <c r="C634" s="5"/>
-      <c r="D634" s="6"/>
+      <c r="C634" s="7"/>
+      <c r="D634" s="8"/>
     </row>
     <row r="635">
-      <c r="C635" s="5"/>
-      <c r="D635" s="6"/>
+      <c r="C635" s="7"/>
+      <c r="D635" s="8"/>
     </row>
     <row r="636">
-      <c r="C636" s="5"/>
-      <c r="D636" s="6"/>
+      <c r="C636" s="7"/>
+      <c r="D636" s="8"/>
     </row>
     <row r="637">
-      <c r="C637" s="5"/>
-      <c r="D637" s="6"/>
+      <c r="C637" s="7"/>
+      <c r="D637" s="8"/>
     </row>
     <row r="638">
-      <c r="C638" s="5"/>
-      <c r="D638" s="6"/>
+      <c r="C638" s="7"/>
+      <c r="D638" s="8"/>
     </row>
     <row r="639">
-      <c r="C639" s="5"/>
-      <c r="D639" s="6"/>
+      <c r="C639" s="7"/>
+      <c r="D639" s="8"/>
     </row>
     <row r="640">
-      <c r="C640" s="5"/>
-      <c r="D640" s="6"/>
+      <c r="C640" s="7"/>
+      <c r="D640" s="8"/>
     </row>
     <row r="641">
-      <c r="C641" s="5"/>
-      <c r="D641" s="6"/>
+      <c r="C641" s="7"/>
+      <c r="D641" s="8"/>
     </row>
     <row r="642">
-      <c r="C642" s="5"/>
-      <c r="D642" s="6"/>
+      <c r="C642" s="7"/>
+      <c r="D642" s="8"/>
     </row>
     <row r="643">
-      <c r="C643" s="5"/>
-      <c r="D643" s="6"/>
+      <c r="C643" s="7"/>
+      <c r="D643" s="8"/>
     </row>
     <row r="644">
-      <c r="C644" s="5"/>
-      <c r="D644" s="6"/>
+      <c r="C644" s="7"/>
+      <c r="D644" s="8"/>
     </row>
     <row r="645">
-      <c r="C645" s="5"/>
-      <c r="D645" s="6"/>
+      <c r="C645" s="7"/>
+      <c r="D645" s="8"/>
     </row>
     <row r="646">
-      <c r="C646" s="5"/>
-      <c r="D646" s="6"/>
+      <c r="C646" s="7"/>
+      <c r="D646" s="8"/>
     </row>
     <row r="647">
-      <c r="C647" s="5"/>
-      <c r="D647" s="6"/>
+      <c r="C647" s="7"/>
+      <c r="D647" s="8"/>
     </row>
     <row r="648">
-      <c r="C648" s="5"/>
-      <c r="D648" s="6"/>
+      <c r="C648" s="7"/>
+      <c r="D648" s="8"/>
     </row>
     <row r="649">
-      <c r="C649" s="5"/>
-      <c r="D649" s="6"/>
+      <c r="C649" s="7"/>
+      <c r="D649" s="8"/>
     </row>
     <row r="650">
-      <c r="C650" s="5"/>
-      <c r="D650" s="6"/>
+      <c r="C650" s="7"/>
+      <c r="D650" s="8"/>
     </row>
     <row r="651">
-      <c r="C651" s="5"/>
-      <c r="D651" s="6"/>
+      <c r="C651" s="7"/>
+      <c r="D651" s="8"/>
     </row>
     <row r="652">
-      <c r="C652" s="5"/>
-      <c r="D652" s="6"/>
+      <c r="C652" s="7"/>
+      <c r="D652" s="8"/>
     </row>
     <row r="653">
-      <c r="C653" s="5"/>
-      <c r="D653" s="6"/>
+      <c r="C653" s="7"/>
+      <c r="D653" s="8"/>
     </row>
     <row r="654">
-      <c r="C654" s="5"/>
-      <c r="D654" s="6"/>
+      <c r="C654" s="7"/>
+      <c r="D654" s="8"/>
     </row>
     <row r="655">
-      <c r="C655" s="5"/>
-      <c r="D655" s="6"/>
+      <c r="C655" s="7"/>
+      <c r="D655" s="8"/>
     </row>
     <row r="656">
-      <c r="C656" s="5"/>
-      <c r="D656" s="6"/>
+      <c r="C656" s="7"/>
+      <c r="D656" s="8"/>
     </row>
     <row r="657">
-      <c r="C657" s="5"/>
-      <c r="D657" s="6"/>
+      <c r="C657" s="7"/>
+      <c r="D657" s="8"/>
     </row>
     <row r="658">
-      <c r="C658" s="5"/>
-      <c r="D658" s="6"/>
+      <c r="C658" s="7"/>
+      <c r="D658" s="8"/>
     </row>
     <row r="659">
-      <c r="C659" s="5"/>
-      <c r="D659" s="6"/>
+      <c r="C659" s="7"/>
+      <c r="D659" s="8"/>
     </row>
     <row r="660">
-      <c r="C660" s="5"/>
-      <c r="D660" s="6"/>
+      <c r="C660" s="7"/>
+      <c r="D660" s="8"/>
     </row>
     <row r="661">
-      <c r="C661" s="5"/>
-      <c r="D661" s="6"/>
+      <c r="C661" s="7"/>
+      <c r="D661" s="8"/>
     </row>
     <row r="662">
-      <c r="C662" s="5"/>
-      <c r="D662" s="6"/>
+      <c r="C662" s="7"/>
+      <c r="D662" s="8"/>
     </row>
     <row r="663">
-      <c r="C663" s="5"/>
-      <c r="D663" s="6"/>
+      <c r="C663" s="7"/>
+      <c r="D663" s="8"/>
     </row>
     <row r="664">
-      <c r="C664" s="5"/>
-      <c r="D664" s="6"/>
+      <c r="C664" s="7"/>
+      <c r="D664" s="8"/>
     </row>
     <row r="665">
-      <c r="C665" s="5"/>
-      <c r="D665" s="6"/>
+      <c r="C665" s="7"/>
+      <c r="D665" s="8"/>
     </row>
     <row r="666">
-      <c r="C666" s="5"/>
-      <c r="D666" s="6"/>
+      <c r="C666" s="7"/>
+      <c r="D666" s="8"/>
     </row>
     <row r="667">
-      <c r="C667" s="5"/>
-      <c r="D667" s="6"/>
+      <c r="C667" s="7"/>
+      <c r="D667" s="8"/>
     </row>
     <row r="668">
-      <c r="C668" s="5"/>
-      <c r="D668" s="6"/>
+      <c r="C668" s="7"/>
+      <c r="D668" s="8"/>
     </row>
     <row r="669">
-      <c r="C669" s="5"/>
-      <c r="D669" s="6"/>
+      <c r="C669" s="7"/>
+      <c r="D669" s="8"/>
     </row>
     <row r="670">
-      <c r="C670" s="5"/>
-      <c r="D670" s="6"/>
+      <c r="C670" s="7"/>
+      <c r="D670" s="8"/>
     </row>
     <row r="671">
-      <c r="C671" s="5"/>
-      <c r="D671" s="6"/>
+      <c r="C671" s="7"/>
+      <c r="D671" s="8"/>
     </row>
     <row r="672">
-      <c r="C672" s="5"/>
-      <c r="D672" s="6"/>
+      <c r="C672" s="7"/>
+      <c r="D672" s="8"/>
     </row>
     <row r="673">
-      <c r="C673" s="5"/>
-      <c r="D673" s="6"/>
+      <c r="C673" s="7"/>
+      <c r="D673" s="8"/>
     </row>
     <row r="674">
-      <c r="C674" s="5"/>
-      <c r="D674" s="6"/>
+      <c r="C674" s="7"/>
+      <c r="D674" s="8"/>
     </row>
     <row r="675">
-      <c r="C675" s="5"/>
-      <c r="D675" s="6"/>
+      <c r="C675" s="7"/>
+      <c r="D675" s="8"/>
     </row>
     <row r="676">
-      <c r="C676" s="5"/>
-      <c r="D676" s="6"/>
+      <c r="C676" s="7"/>
+      <c r="D676" s="8"/>
     </row>
     <row r="677">
-      <c r="C677" s="5"/>
-      <c r="D677" s="6"/>
+      <c r="C677" s="7"/>
+      <c r="D677" s="8"/>
     </row>
     <row r="678">
-      <c r="C678" s="5"/>
-      <c r="D678" s="6"/>
+      <c r="C678" s="7"/>
+      <c r="D678" s="8"/>
     </row>
     <row r="679">
-      <c r="C679" s="5"/>
-      <c r="D679" s="6"/>
+      <c r="C679" s="7"/>
+      <c r="D679" s="8"/>
     </row>
     <row r="680">
-      <c r="C680" s="5"/>
-      <c r="D680" s="6"/>
+      <c r="C680" s="7"/>
+      <c r="D680" s="8"/>
     </row>
     <row r="681">
-      <c r="C681" s="5"/>
-      <c r="D681" s="6"/>
+      <c r="C681" s="7"/>
+      <c r="D681" s="8"/>
     </row>
     <row r="682">
-      <c r="C682" s="5"/>
-      <c r="D682" s="6"/>
+      <c r="C682" s="7"/>
+      <c r="D682" s="8"/>
     </row>
     <row r="683">
-      <c r="C683" s="5"/>
-      <c r="D683" s="6"/>
+      <c r="C683" s="7"/>
+      <c r="D683" s="8"/>
     </row>
     <row r="684">
-      <c r="C684" s="5"/>
-      <c r="D684" s="6"/>
+      <c r="C684" s="7"/>
+      <c r="D684" s="8"/>
     </row>
     <row r="685">
-      <c r="C685" s="5"/>
-      <c r="D685" s="6"/>
+      <c r="C685" s="7"/>
+      <c r="D685" s="8"/>
     </row>
     <row r="686">
-      <c r="C686" s="5"/>
-      <c r="D686" s="6"/>
+      <c r="C686" s="7"/>
+      <c r="D686" s="8"/>
     </row>
     <row r="687">
-      <c r="C687" s="5"/>
-      <c r="D687" s="6"/>
+      <c r="C687" s="7"/>
+      <c r="D687" s="8"/>
     </row>
     <row r="688">
-      <c r="C688" s="5"/>
-      <c r="D688" s="6"/>
+      <c r="C688" s="7"/>
+      <c r="D688" s="8"/>
     </row>
     <row r="689">
-      <c r="C689" s="5"/>
-      <c r="D689" s="6"/>
+      <c r="C689" s="7"/>
+      <c r="D689" s="8"/>
     </row>
     <row r="690">
-      <c r="C690" s="5"/>
-      <c r="D690" s="6"/>
+      <c r="C690" s="7"/>
+      <c r="D690" s="8"/>
     </row>
     <row r="691">
-      <c r="C691" s="5"/>
-      <c r="D691" s="6"/>
+      <c r="C691" s="7"/>
+      <c r="D691" s="8"/>
     </row>
     <row r="692">
-      <c r="C692" s="5"/>
-      <c r="D692" s="6"/>
+      <c r="C692" s="7"/>
+      <c r="D692" s="8"/>
     </row>
     <row r="693">
-      <c r="C693" s="5"/>
-      <c r="D693" s="6"/>
+      <c r="C693" s="7"/>
+      <c r="D693" s="8"/>
     </row>
     <row r="694">
-      <c r="C694" s="5"/>
-      <c r="D694" s="6"/>
+      <c r="C694" s="7"/>
+      <c r="D694" s="8"/>
     </row>
     <row r="695">
-      <c r="C695" s="5"/>
-      <c r="D695" s="6"/>
+      <c r="C695" s="7"/>
+      <c r="D695" s="8"/>
     </row>
     <row r="696">
-      <c r="C696" s="5"/>
-      <c r="D696" s="6"/>
+      <c r="C696" s="7"/>
+      <c r="D696" s="8"/>
     </row>
     <row r="697">
-      <c r="C697" s="5"/>
-      <c r="D697" s="6"/>
+      <c r="C697" s="7"/>
+      <c r="D697" s="8"/>
     </row>
     <row r="698">
-      <c r="C698" s="5"/>
-      <c r="D698" s="6"/>
+      <c r="C698" s="7"/>
+      <c r="D698" s="8"/>
     </row>
     <row r="699">
-      <c r="C699" s="5"/>
-      <c r="D699" s="6"/>
+      <c r="C699" s="7"/>
+      <c r="D699" s="8"/>
     </row>
     <row r="700">
-      <c r="C700" s="5"/>
-      <c r="D700" s="6"/>
+      <c r="C700" s="7"/>
+      <c r="D700" s="8"/>
     </row>
     <row r="701">
-      <c r="C701" s="5"/>
-      <c r="D701" s="6"/>
+      <c r="C701" s="7"/>
+      <c r="D701" s="8"/>
     </row>
     <row r="702">
-      <c r="C702" s="5"/>
-      <c r="D702" s="6"/>
+      <c r="C702" s="7"/>
+      <c r="D702" s="8"/>
     </row>
     <row r="703">
-      <c r="C703" s="5"/>
-      <c r="D703" s="6"/>
+      <c r="C703" s="7"/>
+      <c r="D703" s="8"/>
     </row>
     <row r="704">
-      <c r="C704" s="5"/>
-      <c r="D704" s="6"/>
+      <c r="C704" s="7"/>
+      <c r="D704" s="8"/>
     </row>
     <row r="705">
-      <c r="C705" s="5"/>
-      <c r="D705" s="6"/>
+      <c r="C705" s="7"/>
+      <c r="D705" s="8"/>
     </row>
     <row r="706">
-      <c r="C706" s="5"/>
-      <c r="D706" s="6"/>
+      <c r="C706" s="7"/>
+      <c r="D706" s="8"/>
     </row>
     <row r="707">
-      <c r="C707" s="5"/>
-      <c r="D707" s="6"/>
+      <c r="C707" s="7"/>
+      <c r="D707" s="8"/>
     </row>
     <row r="708">
-      <c r="C708" s="5"/>
-      <c r="D708" s="6"/>
+      <c r="C708" s="7"/>
+      <c r="D708" s="8"/>
     </row>
     <row r="709">
-      <c r="C709" s="5"/>
-      <c r="D709" s="6"/>
+      <c r="C709" s="7"/>
+      <c r="D709" s="8"/>
     </row>
     <row r="710">
-      <c r="C710" s="5"/>
-      <c r="D710" s="6"/>
+      <c r="C710" s="7"/>
+      <c r="D710" s="8"/>
     </row>
     <row r="711">
-      <c r="C711" s="5"/>
-      <c r="D711" s="6"/>
+      <c r="C711" s="7"/>
+      <c r="D711" s="8"/>
     </row>
     <row r="712">
-      <c r="C712" s="5"/>
-      <c r="D712" s="6"/>
+      <c r="C712" s="7"/>
+      <c r="D712" s="8"/>
     </row>
     <row r="713">
-      <c r="C713" s="5"/>
-      <c r="D713" s="6"/>
+      <c r="C713" s="7"/>
+      <c r="D713" s="8"/>
     </row>
     <row r="714">
-      <c r="C714" s="5"/>
-      <c r="D714" s="6"/>
+      <c r="C714" s="7"/>
+      <c r="D714" s="8"/>
     </row>
     <row r="715">
-      <c r="C715" s="5"/>
-      <c r="D715" s="6"/>
+      <c r="C715" s="7"/>
+      <c r="D715" s="8"/>
     </row>
     <row r="716">
-      <c r="C716" s="5"/>
-      <c r="D716" s="6"/>
+      <c r="C716" s="7"/>
+      <c r="D716" s="8"/>
     </row>
     <row r="717">
-      <c r="C717" s="5"/>
-      <c r="D717" s="6"/>
+      <c r="C717" s="7"/>
+      <c r="D717" s="8"/>
     </row>
     <row r="718">
-      <c r="C718" s="5"/>
-      <c r="D718" s="6"/>
+      <c r="C718" s="7"/>
+      <c r="D718" s="8"/>
     </row>
     <row r="719">
-      <c r="C719" s="5"/>
-      <c r="D719" s="6"/>
+      <c r="C719" s="7"/>
+      <c r="D719" s="8"/>
     </row>
     <row r="720">
-      <c r="C720" s="5"/>
-      <c r="D720" s="6"/>
+      <c r="C720" s="7"/>
+      <c r="D720" s="8"/>
     </row>
     <row r="721">
-      <c r="C721" s="5"/>
-      <c r="D721" s="6"/>
+      <c r="C721" s="7"/>
+      <c r="D721" s="8"/>
     </row>
     <row r="722">
-      <c r="C722" s="5"/>
-      <c r="D722" s="6"/>
+      <c r="C722" s="7"/>
+      <c r="D722" s="8"/>
     </row>
     <row r="723">
-      <c r="C723" s="5"/>
-      <c r="D723" s="6"/>
+      <c r="C723" s="7"/>
+      <c r="D723" s="8"/>
     </row>
     <row r="724">
-      <c r="C724" s="5"/>
-      <c r="D724" s="6"/>
+      <c r="C724" s="7"/>
+      <c r="D724" s="8"/>
     </row>
     <row r="725">
-      <c r="C725" s="5"/>
-      <c r="D725" s="6"/>
+      <c r="C725" s="7"/>
+      <c r="D725" s="8"/>
     </row>
     <row r="726">
-      <c r="C726" s="5"/>
-      <c r="D726" s="6"/>
+      <c r="C726" s="7"/>
+      <c r="D726" s="8"/>
     </row>
     <row r="727">
-      <c r="C727" s="5"/>
-      <c r="D727" s="6"/>
+      <c r="C727" s="7"/>
+      <c r="D727" s="8"/>
     </row>
     <row r="728">
-      <c r="C728" s="5"/>
-      <c r="D728" s="6"/>
+      <c r="C728" s="7"/>
+      <c r="D728" s="8"/>
     </row>
     <row r="729">
-      <c r="C729" s="5"/>
-      <c r="D729" s="6"/>
+      <c r="C729" s="7"/>
+      <c r="D729" s="8"/>
     </row>
     <row r="730">
-      <c r="C730" s="5"/>
-      <c r="D730" s="6"/>
+      <c r="C730" s="7"/>
+      <c r="D730" s="8"/>
     </row>
     <row r="731">
-      <c r="C731" s="5"/>
-      <c r="D731" s="6"/>
+      <c r="C731" s="7"/>
+      <c r="D731" s="8"/>
     </row>
     <row r="732">
-      <c r="C732" s="5"/>
-      <c r="D732" s="6"/>
+      <c r="C732" s="7"/>
+      <c r="D732" s="8"/>
     </row>
     <row r="733">
-      <c r="C733" s="5"/>
-      <c r="D733" s="6"/>
+      <c r="C733" s="7"/>
+      <c r="D733" s="8"/>
     </row>
     <row r="734">
-      <c r="C734" s="5"/>
-      <c r="D734" s="6"/>
+      <c r="C734" s="7"/>
+      <c r="D734" s="8"/>
     </row>
     <row r="735">
-      <c r="C735" s="5"/>
-      <c r="D735" s="6"/>
+      <c r="C735" s="7"/>
+      <c r="D735" s="8"/>
     </row>
     <row r="736">
-      <c r="C736" s="5"/>
-      <c r="D736" s="6"/>
+      <c r="C736" s="7"/>
+      <c r="D736" s="8"/>
     </row>
     <row r="737">
-      <c r="C737" s="5"/>
-      <c r="D737" s="6"/>
+      <c r="C737" s="7"/>
+      <c r="D737" s="8"/>
     </row>
     <row r="738">
-      <c r="C738" s="5"/>
-      <c r="D738" s="6"/>
+      <c r="C738" s="7"/>
+      <c r="D738" s="8"/>
     </row>
     <row r="739">
-      <c r="C739" s="5"/>
-      <c r="D739" s="6"/>
+      <c r="C739" s="7"/>
+      <c r="D739" s="8"/>
     </row>
     <row r="740">
-      <c r="C740" s="5"/>
-      <c r="D740" s="6"/>
+      <c r="C740" s="7"/>
+      <c r="D740" s="8"/>
     </row>
     <row r="741">
-      <c r="C741" s="5"/>
-      <c r="D741" s="6"/>
+      <c r="C741" s="7"/>
+      <c r="D741" s="8"/>
     </row>
     <row r="742">
-      <c r="C742" s="5"/>
-      <c r="D742" s="6"/>
+      <c r="C742" s="7"/>
+      <c r="D742" s="8"/>
     </row>
     <row r="743">
-      <c r="C743" s="5"/>
-      <c r="D743" s="6"/>
+      <c r="C743" s="7"/>
+      <c r="D743" s="8"/>
     </row>
     <row r="744">
-      <c r="C744" s="5"/>
-      <c r="D744" s="6"/>
+      <c r="C744" s="7"/>
+      <c r="D744" s="8"/>
     </row>
     <row r="745">
-      <c r="C745" s="5"/>
-      <c r="D745" s="6"/>
+      <c r="C745" s="7"/>
+      <c r="D745" s="8"/>
     </row>
     <row r="746">
-      <c r="C746" s="5"/>
-      <c r="D746" s="6"/>
+      <c r="C746" s="7"/>
+      <c r="D746" s="8"/>
     </row>
     <row r="747">
-      <c r="C747" s="5"/>
-      <c r="D747" s="6"/>
+      <c r="C747" s="7"/>
+      <c r="D747" s="8"/>
     </row>
     <row r="748">
-      <c r="C748" s="5"/>
-      <c r="D748" s="6"/>
+      <c r="C748" s="7"/>
+      <c r="D748" s="8"/>
     </row>
     <row r="749">
-      <c r="C749" s="5"/>
-      <c r="D749" s="6"/>
+      <c r="C749" s="7"/>
+      <c r="D749" s="8"/>
     </row>
     <row r="750">
-      <c r="C750" s="5"/>
-      <c r="D750" s="6"/>
+      <c r="C750" s="7"/>
+      <c r="D750" s="8"/>
     </row>
     <row r="751">
-      <c r="C751" s="5"/>
-      <c r="D751" s="6"/>
+      <c r="C751" s="7"/>
+      <c r="D751" s="8"/>
     </row>
     <row r="752">
-      <c r="C752" s="5"/>
-      <c r="D752" s="6"/>
+      <c r="C752" s="7"/>
+      <c r="D752" s="8"/>
     </row>
     <row r="753">
-      <c r="C753" s="5"/>
-      <c r="D753" s="6"/>
+      <c r="C753" s="7"/>
+      <c r="D753" s="8"/>
     </row>
     <row r="754">
-      <c r="C754" s="5"/>
-      <c r="D754" s="6"/>
+      <c r="C754" s="7"/>
+      <c r="D754" s="8"/>
     </row>
     <row r="755">
-      <c r="C755" s="5"/>
-      <c r="D755" s="6"/>
+      <c r="C755" s="7"/>
+      <c r="D755" s="8"/>
     </row>
     <row r="756">
-      <c r="C756" s="5"/>
-      <c r="D756" s="6"/>
+      <c r="C756" s="7"/>
+      <c r="D756" s="8"/>
     </row>
     <row r="757">
-      <c r="C757" s="5"/>
-      <c r="D757" s="6"/>
+      <c r="C757" s="7"/>
+      <c r="D757" s="8"/>
     </row>
     <row r="758">
-      <c r="C758" s="5"/>
-      <c r="D758" s="6"/>
+      <c r="C758" s="7"/>
+      <c r="D758" s="8"/>
     </row>
     <row r="759">
-      <c r="C759" s="5"/>
-      <c r="D759" s="6"/>
+      <c r="C759" s="7"/>
+      <c r="D759" s="8"/>
     </row>
     <row r="760">
-      <c r="C760" s="5"/>
-      <c r="D760" s="6"/>
+      <c r="C760" s="7"/>
+      <c r="D760" s="8"/>
     </row>
     <row r="761">
-      <c r="C761" s="5"/>
-      <c r="D761" s="6"/>
+      <c r="C761" s="7"/>
+      <c r="D761" s="8"/>
     </row>
     <row r="762">
-      <c r="C762" s="5"/>
-      <c r="D762" s="6"/>
+      <c r="C762" s="7"/>
+      <c r="D762" s="8"/>
     </row>
     <row r="763">
-      <c r="C763" s="5"/>
-      <c r="D763" s="6"/>
+      <c r="C763" s="7"/>
+      <c r="D763" s="8"/>
     </row>
     <row r="764">
-      <c r="C764" s="5"/>
-      <c r="D764" s="6"/>
+      <c r="C764" s="7"/>
+      <c r="D764" s="8"/>
     </row>
     <row r="765">
-      <c r="C765" s="5"/>
-      <c r="D765" s="6"/>
+      <c r="C765" s="7"/>
+      <c r="D765" s="8"/>
     </row>
     <row r="766">
-      <c r="C766" s="5"/>
-      <c r="D766" s="6"/>
+      <c r="C766" s="7"/>
+      <c r="D766" s="8"/>
     </row>
     <row r="767">
-      <c r="C767" s="5"/>
-      <c r="D767" s="6"/>
+      <c r="C767" s="7"/>
+      <c r="D767" s="8"/>
     </row>
     <row r="768">
-      <c r="C768" s="5"/>
-      <c r="D768" s="6"/>
+      <c r="C768" s="7"/>
+      <c r="D768" s="8"/>
     </row>
     <row r="769">
-      <c r="C769" s="5"/>
-      <c r="D769" s="6"/>
+      <c r="C769" s="7"/>
+      <c r="D769" s="8"/>
     </row>
     <row r="770">
-      <c r="C770" s="5"/>
-      <c r="D770" s="6"/>
+      <c r="C770" s="7"/>
+      <c r="D770" s="8"/>
     </row>
     <row r="771">
-      <c r="C771" s="5"/>
-      <c r="D771" s="6"/>
+      <c r="C771" s="7"/>
+      <c r="D771" s="8"/>
     </row>
     <row r="772">
-      <c r="C772" s="5"/>
-      <c r="D772" s="6"/>
+      <c r="C772" s="7"/>
+      <c r="D772" s="8"/>
     </row>
     <row r="773">
-      <c r="C773" s="5"/>
-      <c r="D773" s="6"/>
+      <c r="C773" s="7"/>
+      <c r="D773" s="8"/>
     </row>
     <row r="774">
-      <c r="C774" s="5"/>
-      <c r="D774" s="6"/>
+      <c r="C774" s="7"/>
+      <c r="D774" s="8"/>
     </row>
     <row r="775">
-      <c r="C775" s="5"/>
-      <c r="D775" s="6"/>
+      <c r="C775" s="7"/>
+      <c r="D775" s="8"/>
     </row>
     <row r="776">
-      <c r="C776" s="5"/>
-      <c r="D776" s="6"/>
+      <c r="C776" s="7"/>
+      <c r="D776" s="8"/>
     </row>
     <row r="777">
-      <c r="C777" s="5"/>
-      <c r="D777" s="6"/>
+      <c r="C777" s="7"/>
+      <c r="D777" s="8"/>
     </row>
     <row r="778">
-      <c r="C778" s="5"/>
-      <c r="D778" s="6"/>
+      <c r="C778" s="7"/>
+      <c r="D778" s="8"/>
     </row>
     <row r="779">
-      <c r="C779" s="5"/>
-      <c r="D779" s="6"/>
+      <c r="C779" s="7"/>
+      <c r="D779" s="8"/>
     </row>
     <row r="780">
-      <c r="C780" s="5"/>
-      <c r="D780" s="6"/>
+      <c r="C780" s="7"/>
+      <c r="D780" s="8"/>
     </row>
     <row r="781">
-      <c r="C781" s="5"/>
-      <c r="D781" s="6"/>
+      <c r="C781" s="7"/>
+      <c r="D781" s="8"/>
     </row>
     <row r="782">
-      <c r="C782" s="5"/>
-      <c r="D782" s="6"/>
+      <c r="C782" s="7"/>
+      <c r="D782" s="8"/>
     </row>
     <row r="783">
-      <c r="C783" s="5"/>
-      <c r="D783" s="6"/>
+      <c r="C783" s="7"/>
+      <c r="D783" s="8"/>
     </row>
     <row r="784">
-      <c r="C784" s="5"/>
-      <c r="D784" s="6"/>
+      <c r="C784" s="7"/>
+      <c r="D784" s="8"/>
     </row>
     <row r="785">
-      <c r="C785" s="5"/>
-      <c r="D785" s="6"/>
+      <c r="C785" s="7"/>
+      <c r="D785" s="8"/>
     </row>
     <row r="786">
-      <c r="C786" s="5"/>
-      <c r="D786" s="6"/>
+      <c r="C786" s="7"/>
+      <c r="D786" s="8"/>
     </row>
     <row r="787">
-      <c r="C787" s="5"/>
-      <c r="D787" s="6"/>
+      <c r="C787" s="7"/>
+      <c r="D787" s="8"/>
     </row>
     <row r="788">
-      <c r="C788" s="5"/>
-      <c r="D788" s="6"/>
+      <c r="C788" s="7"/>
+      <c r="D788" s="8"/>
     </row>
     <row r="789">
-      <c r="C789" s="5"/>
-      <c r="D789" s="6"/>
+      <c r="C789" s="7"/>
+      <c r="D789" s="8"/>
     </row>
     <row r="790">
-      <c r="C790" s="5"/>
-      <c r="D790" s="6"/>
+      <c r="C790" s="7"/>
+      <c r="D790" s="8"/>
     </row>
     <row r="791">
-      <c r="C791" s="5"/>
-      <c r="D791" s="6"/>
+      <c r="C791" s="7"/>
+      <c r="D791" s="8"/>
     </row>
     <row r="792">
-      <c r="C792" s="5"/>
-      <c r="D792" s="6"/>
+      <c r="C792" s="7"/>
+      <c r="D792" s="8"/>
     </row>
     <row r="793">
-      <c r="C793" s="5"/>
-      <c r="D793" s="6"/>
+      <c r="C793" s="7"/>
+      <c r="D793" s="8"/>
     </row>
     <row r="794">
-      <c r="C794" s="5"/>
-      <c r="D794" s="6"/>
+      <c r="C794" s="7"/>
+      <c r="D794" s="8"/>
     </row>
     <row r="795">
-      <c r="C795" s="5"/>
-      <c r="D795" s="6"/>
+      <c r="C795" s="7"/>
+      <c r="D795" s="8"/>
     </row>
     <row r="796">
-      <c r="C796" s="5"/>
-      <c r="D796" s="6"/>
+      <c r="C796" s="7"/>
+      <c r="D796" s="8"/>
     </row>
     <row r="797">
-      <c r="C797" s="5"/>
-      <c r="D797" s="6"/>
+      <c r="C797" s="7"/>
+      <c r="D797" s="8"/>
     </row>
     <row r="798">
-      <c r="C798" s="5"/>
-      <c r="D798" s="6"/>
+      <c r="C798" s="7"/>
+      <c r="D798" s="8"/>
     </row>
     <row r="799">
-      <c r="C799" s="5"/>
-      <c r="D799" s="6"/>
+      <c r="C799" s="7"/>
+      <c r="D799" s="8"/>
     </row>
     <row r="800">
-      <c r="C800" s="5"/>
-      <c r="D800" s="6"/>
+      <c r="C800" s="7"/>
+      <c r="D800" s="8"/>
     </row>
     <row r="801">
-      <c r="C801" s="5"/>
-      <c r="D801" s="6"/>
+      <c r="C801" s="7"/>
+      <c r="D801" s="8"/>
     </row>
     <row r="802">
-      <c r="C802" s="5"/>
-      <c r="D802" s="6"/>
+      <c r="C802" s="7"/>
+      <c r="D802" s="8"/>
     </row>
     <row r="803">
-      <c r="C803" s="5"/>
-      <c r="D803" s="6"/>
+      <c r="C803" s="7"/>
+      <c r="D803" s="8"/>
     </row>
     <row r="804">
-      <c r="C804" s="5"/>
-      <c r="D804" s="6"/>
+      <c r="C804" s="7"/>
+      <c r="D804" s="8"/>
     </row>
     <row r="805">
-      <c r="C805" s="5"/>
-      <c r="D805" s="6"/>
+      <c r="C805" s="7"/>
+      <c r="D805" s="8"/>
     </row>
     <row r="806">
-      <c r="C806" s="5"/>
-      <c r="D806" s="6"/>
+      <c r="C806" s="7"/>
+      <c r="D806" s="8"/>
     </row>
     <row r="807">
-      <c r="C807" s="5"/>
-      <c r="D807" s="6"/>
+      <c r="C807" s="7"/>
+      <c r="D807" s="8"/>
     </row>
     <row r="808">
-      <c r="C808" s="5"/>
-      <c r="D808" s="6"/>
+      <c r="C808" s="7"/>
+      <c r="D808" s="8"/>
     </row>
     <row r="809">
-      <c r="C809" s="5"/>
-      <c r="D809" s="6"/>
+      <c r="C809" s="7"/>
+      <c r="D809" s="8"/>
     </row>
     <row r="810">
-      <c r="C810" s="5"/>
-      <c r="D810" s="6"/>
+      <c r="C810" s="7"/>
+      <c r="D810" s="8"/>
     </row>
     <row r="811">
-      <c r="C811" s="5"/>
-      <c r="D811" s="6"/>
+      <c r="C811" s="7"/>
+      <c r="D811" s="8"/>
     </row>
     <row r="812">
-      <c r="C812" s="5"/>
-      <c r="D812" s="6"/>
+      <c r="C812" s="7"/>
+      <c r="D812" s="8"/>
     </row>
     <row r="813">
-      <c r="C813" s="5"/>
-      <c r="D813" s="6"/>
+      <c r="C813" s="7"/>
+      <c r="D813" s="8"/>
     </row>
     <row r="814">
-      <c r="C814" s="5"/>
-      <c r="D814" s="6"/>
+      <c r="C814" s="7"/>
+      <c r="D814" s="8"/>
     </row>
     <row r="815">
-      <c r="C815" s="5"/>
-      <c r="D815" s="6"/>
+      <c r="C815" s="7"/>
+      <c r="D815" s="8"/>
     </row>
     <row r="816">
-      <c r="C816" s="5"/>
-      <c r="D816" s="6"/>
+      <c r="C816" s="7"/>
+      <c r="D816" s="8"/>
     </row>
     <row r="817">
-      <c r="C817" s="5"/>
-      <c r="D817" s="6"/>
+      <c r="C817" s="7"/>
+      <c r="D817" s="8"/>
     </row>
     <row r="818">
-      <c r="C818" s="5"/>
-      <c r="D818" s="6"/>
+      <c r="C818" s="7"/>
+      <c r="D818" s="8"/>
     </row>
     <row r="819">
-      <c r="C819" s="5"/>
-      <c r="D819" s="6"/>
+      <c r="C819" s="7"/>
+      <c r="D819" s="8"/>
     </row>
     <row r="820">
-      <c r="C820" s="5"/>
-      <c r="D820" s="6"/>
+      <c r="C820" s="7"/>
+      <c r="D820" s="8"/>
     </row>
     <row r="821">
-      <c r="C821" s="5"/>
-      <c r="D821" s="6"/>
+      <c r="C821" s="7"/>
+      <c r="D821" s="8"/>
     </row>
     <row r="822">
-      <c r="C822" s="5"/>
-      <c r="D822" s="6"/>
+      <c r="C822" s="7"/>
+      <c r="D822" s="8"/>
     </row>
     <row r="823">
-      <c r="C823" s="5"/>
-      <c r="D823" s="6"/>
+      <c r="C823" s="7"/>
+      <c r="D823" s="8"/>
     </row>
     <row r="824">
-      <c r="C824" s="5"/>
-      <c r="D824" s="6"/>
+      <c r="C824" s="7"/>
+      <c r="D824" s="8"/>
     </row>
     <row r="825">
-      <c r="C825" s="5"/>
-      <c r="D825" s="6"/>
+      <c r="C825" s="7"/>
+      <c r="D825" s="8"/>
     </row>
     <row r="826">
-      <c r="C826" s="5"/>
-      <c r="D826" s="6"/>
+      <c r="C826" s="7"/>
+      <c r="D826" s="8"/>
     </row>
     <row r="827">
-      <c r="C827" s="5"/>
-      <c r="D827" s="6"/>
+      <c r="C827" s="7"/>
+      <c r="D827" s="8"/>
     </row>
     <row r="828">
-      <c r="C828" s="5"/>
-      <c r="D828" s="6"/>
+      <c r="C828" s="7"/>
+      <c r="D828" s="8"/>
     </row>
     <row r="829">
-      <c r="C829" s="5"/>
-      <c r="D829" s="6"/>
+      <c r="C829" s="7"/>
+      <c r="D829" s="8"/>
     </row>
     <row r="830">
-      <c r="C830" s="5"/>
-      <c r="D830" s="6"/>
+      <c r="C830" s="7"/>
+      <c r="D830" s="8"/>
     </row>
     <row r="831">
-      <c r="C831" s="5"/>
-      <c r="D831" s="6"/>
+      <c r="C831" s="7"/>
+      <c r="D831" s="8"/>
     </row>
     <row r="832">
-      <c r="C832" s="5"/>
-      <c r="D832" s="6"/>
+      <c r="C832" s="7"/>
+      <c r="D832" s="8"/>
     </row>
     <row r="833">
-      <c r="C833" s="5"/>
-      <c r="D833" s="6"/>
+      <c r="C833" s="7"/>
+      <c r="D833" s="8"/>
     </row>
     <row r="834">
-      <c r="C834" s="5"/>
-      <c r="D834" s="6"/>
+      <c r="C834" s="7"/>
+      <c r="D834" s="8"/>
     </row>
     <row r="835">
-      <c r="C835" s="5"/>
-      <c r="D835" s="6"/>
+      <c r="C835" s="7"/>
+      <c r="D835" s="8"/>
     </row>
     <row r="836">
-      <c r="C836" s="5"/>
-      <c r="D836" s="6"/>
+      <c r="C836" s="7"/>
+      <c r="D836" s="8"/>
     </row>
     <row r="837">
-      <c r="C837" s="5"/>
-      <c r="D837" s="6"/>
+      <c r="C837" s="7"/>
+      <c r="D837" s="8"/>
     </row>
     <row r="838">
-      <c r="C838" s="5"/>
-      <c r="D838" s="6"/>
+      <c r="C838" s="7"/>
+      <c r="D838" s="8"/>
     </row>
     <row r="839">
-      <c r="C839" s="5"/>
-      <c r="D839" s="6"/>
+      <c r="C839" s="7"/>
+      <c r="D839" s="8"/>
     </row>
     <row r="840">
-      <c r="C840" s="5"/>
-      <c r="D840" s="6"/>
+      <c r="C840" s="7"/>
+      <c r="D840" s="8"/>
     </row>
     <row r="841">
-      <c r="C841" s="5"/>
-      <c r="D841" s="6"/>
+      <c r="C841" s="7"/>
+      <c r="D841" s="8"/>
     </row>
     <row r="842">
-      <c r="C842" s="5"/>
-      <c r="D842" s="6"/>
+      <c r="C842" s="7"/>
+      <c r="D842" s="8"/>
     </row>
     <row r="843">
-      <c r="C843" s="5"/>
-      <c r="D843" s="6"/>
+      <c r="C843" s="7"/>
+      <c r="D843" s="8"/>
     </row>
     <row r="844">
-      <c r="C844" s="5"/>
-      <c r="D844" s="6"/>
+      <c r="C844" s="7"/>
+      <c r="D844" s="8"/>
     </row>
     <row r="845">
-      <c r="C845" s="5"/>
-      <c r="D845" s="6"/>
+      <c r="C845" s="7"/>
+      <c r="D845" s="8"/>
     </row>
     <row r="846">
-      <c r="C846" s="5"/>
-      <c r="D846" s="6"/>
+      <c r="C846" s="7"/>
+      <c r="D846" s="8"/>
     </row>
     <row r="847">
-      <c r="C847" s="5"/>
-      <c r="D847" s="6"/>
+      <c r="C847" s="7"/>
+      <c r="D847" s="8"/>
     </row>
     <row r="848">
-      <c r="C848" s="5"/>
-      <c r="D848" s="6"/>
+      <c r="C848" s="7"/>
+      <c r="D848" s="8"/>
     </row>
     <row r="849">
-      <c r="C849" s="5"/>
-      <c r="D849" s="6"/>
+      <c r="C849" s="7"/>
+      <c r="D849" s="8"/>
     </row>
     <row r="850">
-      <c r="C850" s="5"/>
-      <c r="D850" s="6"/>
+      <c r="C850" s="7"/>
+      <c r="D850" s="8"/>
     </row>
     <row r="851">
-      <c r="C851" s="5"/>
-      <c r="D851" s="6"/>
+      <c r="C851" s="7"/>
+      <c r="D851" s="8"/>
     </row>
     <row r="852">
-      <c r="C852" s="5"/>
-      <c r="D852" s="6"/>
+      <c r="C852" s="7"/>
+      <c r="D852" s="8"/>
     </row>
     <row r="853">
-      <c r="C853" s="5"/>
-      <c r="D853" s="6"/>
+      <c r="C853" s="7"/>
+      <c r="D853" s="8"/>
     </row>
     <row r="854">
-      <c r="C854" s="5"/>
-      <c r="D854" s="6"/>
+      <c r="C854" s="7"/>
+      <c r="D854" s="8"/>
     </row>
     <row r="855">
-      <c r="C855" s="5"/>
-      <c r="D855" s="6"/>
+      <c r="C855" s="7"/>
+      <c r="D855" s="8"/>
     </row>
     <row r="856">
-      <c r="C856" s="5"/>
-      <c r="D856" s="6"/>
+      <c r="C856" s="7"/>
+      <c r="D856" s="8"/>
     </row>
     <row r="857">
-      <c r="C857" s="5"/>
-      <c r="D857" s="6"/>
+      <c r="C857" s="7"/>
+      <c r="D857" s="8"/>
     </row>
     <row r="858">
-      <c r="C858" s="5"/>
-      <c r="D858" s="6"/>
+      <c r="C858" s="7"/>
+      <c r="D858" s="8"/>
     </row>
     <row r="859">
-      <c r="C859" s="5"/>
-      <c r="D859" s="6"/>
+      <c r="C859" s="7"/>
+      <c r="D859" s="8"/>
     </row>
     <row r="860">
-      <c r="C860" s="5"/>
-      <c r="D860" s="6"/>
+      <c r="C860" s="7"/>
+      <c r="D860" s="8"/>
     </row>
     <row r="861">
-      <c r="C861" s="5"/>
-      <c r="D861" s="6"/>
+      <c r="C861" s="7"/>
+      <c r="D861" s="8"/>
     </row>
     <row r="862">
-      <c r="C862" s="5"/>
-      <c r="D862" s="6"/>
+      <c r="C862" s="7"/>
+      <c r="D862" s="8"/>
     </row>
     <row r="863">
-      <c r="C863" s="5"/>
-      <c r="D863" s="6"/>
+      <c r="C863" s="7"/>
+      <c r="D863" s="8"/>
     </row>
     <row r="864">
-      <c r="C864" s="5"/>
-      <c r="D864" s="6"/>
+      <c r="C864" s="7"/>
+      <c r="D864" s="8"/>
     </row>
     <row r="865">
-      <c r="C865" s="5"/>
-      <c r="D865" s="6"/>
+      <c r="C865" s="7"/>
+      <c r="D865" s="8"/>
     </row>
     <row r="866">
-      <c r="C866" s="5"/>
-      <c r="D866" s="6"/>
+      <c r="C866" s="7"/>
+      <c r="D866" s="8"/>
     </row>
     <row r="867">
-      <c r="C867" s="5"/>
-      <c r="D867" s="6"/>
+      <c r="C867" s="7"/>
+      <c r="D867" s="8"/>
     </row>
     <row r="868">
-      <c r="C868" s="5"/>
-      <c r="D868" s="6"/>
+      <c r="C868" s="7"/>
+      <c r="D868" s="8"/>
     </row>
     <row r="869">
-      <c r="C869" s="5"/>
-      <c r="D869" s="6"/>
+      <c r="C869" s="7"/>
+      <c r="D869" s="8"/>
     </row>
     <row r="870">
-      <c r="C870" s="5"/>
-      <c r="D870" s="6"/>
+      <c r="C870" s="7"/>
+      <c r="D870" s="8"/>
     </row>
     <row r="871">
-      <c r="C871" s="5"/>
-      <c r="D871" s="6"/>
+      <c r="C871" s="7"/>
+      <c r="D871" s="8"/>
     </row>
     <row r="872">
-      <c r="C872" s="5"/>
-      <c r="D872" s="6"/>
+      <c r="C872" s="7"/>
+      <c r="D872" s="8"/>
     </row>
     <row r="873">
-      <c r="C873" s="5"/>
-      <c r="D873" s="6"/>
+      <c r="C873" s="7"/>
+      <c r="D873" s="8"/>
     </row>
     <row r="874">
-      <c r="C874" s="5"/>
-      <c r="D874" s="6"/>
+      <c r="C874" s="7"/>
+      <c r="D874" s="8"/>
     </row>
     <row r="875">
-      <c r="C875" s="5"/>
-      <c r="D875" s="6"/>
+      <c r="C875" s="7"/>
+      <c r="D875" s="8"/>
     </row>
     <row r="876">
-      <c r="C876" s="5"/>
-      <c r="D876" s="6"/>
+      <c r="C876" s="7"/>
+      <c r="D876" s="8"/>
     </row>
     <row r="877">
-      <c r="C877" s="5"/>
-      <c r="D877" s="6"/>
+      <c r="C877" s="7"/>
+      <c r="D877" s="8"/>
     </row>
     <row r="878">
-      <c r="C878" s="5"/>
-      <c r="D878" s="6"/>
+      <c r="C878" s="7"/>
+      <c r="D878" s="8"/>
     </row>
     <row r="879">
-      <c r="C879" s="5"/>
-      <c r="D879" s="6"/>
+      <c r="C879" s="7"/>
+      <c r="D879" s="8"/>
     </row>
     <row r="880">
-      <c r="C880" s="5"/>
-      <c r="D880" s="6"/>
+      <c r="C880" s="7"/>
+      <c r="D880" s="8"/>
     </row>
     <row r="881">
-      <c r="C881" s="5"/>
-      <c r="D881" s="6"/>
+      <c r="C881" s="7"/>
+      <c r="D881" s="8"/>
     </row>
     <row r="882">
-      <c r="C882" s="5"/>
-      <c r="D882" s="6"/>
+      <c r="C882" s="7"/>
+      <c r="D882" s="8"/>
     </row>
     <row r="883">
-      <c r="C883" s="5"/>
-      <c r="D883" s="6"/>
+      <c r="C883" s="7"/>
+      <c r="D883" s="8"/>
     </row>
     <row r="884">
-      <c r="C884" s="5"/>
-      <c r="D884" s="6"/>
+      <c r="C884" s="7"/>
+      <c r="D884" s="8"/>
     </row>
     <row r="885">
-      <c r="C885" s="5"/>
-      <c r="D885" s="6"/>
+      <c r="C885" s="7"/>
+      <c r="D885" s="8"/>
     </row>
     <row r="886">
-      <c r="C886" s="5"/>
-      <c r="D886" s="6"/>
+      <c r="C886" s="7"/>
+      <c r="D886" s="8"/>
     </row>
     <row r="887">
-      <c r="C887" s="5"/>
-      <c r="D887" s="6"/>
+      <c r="C887" s="7"/>
+      <c r="D887" s="8"/>
     </row>
     <row r="888">
-      <c r="C888" s="5"/>
-      <c r="D888" s="6"/>
+      <c r="C888" s="7"/>
+      <c r="D888" s="8"/>
     </row>
     <row r="889">
-      <c r="C889" s="5"/>
-      <c r="D889" s="6"/>
+      <c r="C889" s="7"/>
+      <c r="D889" s="8"/>
     </row>
     <row r="890">
-      <c r="C890" s="5"/>
-      <c r="D890" s="6"/>
+      <c r="C890" s="7"/>
+      <c r="D890" s="8"/>
     </row>
     <row r="891">
-      <c r="C891" s="5"/>
-      <c r="D891" s="6"/>
+      <c r="C891" s="7"/>
+      <c r="D891" s="8"/>
     </row>
     <row r="892">
-      <c r="C892" s="5"/>
-      <c r="D892" s="6"/>
+      <c r="C892" s="7"/>
+      <c r="D892" s="8"/>
     </row>
     <row r="893">
-      <c r="C893" s="5"/>
-      <c r="D893" s="6"/>
+      <c r="C893" s="7"/>
+      <c r="D893" s="8"/>
     </row>
     <row r="894">
-      <c r="C894" s="5"/>
-      <c r="D894" s="6"/>
+      <c r="C894" s="7"/>
+      <c r="D894" s="8"/>
     </row>
     <row r="895">
-      <c r="C895" s="5"/>
-      <c r="D895" s="6"/>
+      <c r="C895" s="7"/>
+      <c r="D895" s="8"/>
     </row>
     <row r="896">
-      <c r="C896" s="5"/>
-      <c r="D896" s="6"/>
+      <c r="C896" s="7"/>
+      <c r="D896" s="8"/>
     </row>
     <row r="897">
-      <c r="C897" s="5"/>
-      <c r="D897" s="6"/>
+      <c r="C897" s="7"/>
+      <c r="D897" s="8"/>
     </row>
     <row r="898">
-      <c r="C898" s="5"/>
-      <c r="D898" s="6"/>
+      <c r="C898" s="7"/>
+      <c r="D898" s="8"/>
     </row>
     <row r="899">
-      <c r="C899" s="5"/>
-      <c r="D899" s="6"/>
+      <c r="C899" s="7"/>
+      <c r="D899" s="8"/>
     </row>
     <row r="900">
-      <c r="C900" s="5"/>
-      <c r="D900" s="6"/>
+      <c r="C900" s="7"/>
+      <c r="D900" s="8"/>
     </row>
     <row r="901">
-      <c r="C901" s="5"/>
-      <c r="D901" s="6"/>
+      <c r="C901" s="7"/>
+      <c r="D901" s="8"/>
     </row>
     <row r="902">
-      <c r="C902" s="5"/>
-      <c r="D902" s="6"/>
+      <c r="C902" s="7"/>
+      <c r="D902" s="8"/>
     </row>
     <row r="903">
-      <c r="C903" s="5"/>
-      <c r="D903" s="6"/>
+      <c r="C903" s="7"/>
+      <c r="D903" s="8"/>
     </row>
     <row r="904">
-      <c r="C904" s="5"/>
-      <c r="D904" s="6"/>
+      <c r="C904" s="7"/>
+      <c r="D904" s="8"/>
     </row>
     <row r="905">
-      <c r="C905" s="5"/>
-      <c r="D905" s="6"/>
+      <c r="C905" s="7"/>
+      <c r="D905" s="8"/>
     </row>
     <row r="906">
-      <c r="C906" s="5"/>
-      <c r="D906" s="6"/>
+      <c r="C906" s="7"/>
+      <c r="D906" s="8"/>
     </row>
     <row r="907">
-      <c r="C907" s="5"/>
-      <c r="D907" s="6"/>
+      <c r="C907" s="7"/>
+      <c r="D907" s="8"/>
     </row>
     <row r="908">
-      <c r="C908" s="5"/>
-      <c r="D908" s="6"/>
+      <c r="C908" s="7"/>
+      <c r="D908" s="8"/>
     </row>
     <row r="909">
-      <c r="C909" s="5"/>
-      <c r="D909" s="6"/>
+      <c r="C909" s="7"/>
+      <c r="D909" s="8"/>
     </row>
     <row r="910">
-      <c r="C910" s="5"/>
-      <c r="D910" s="6"/>
+      <c r="C910" s="7"/>
+      <c r="D910" s="8"/>
     </row>
     <row r="911">
-      <c r="C911" s="5"/>
-      <c r="D911" s="6"/>
+      <c r="C911" s="7"/>
+      <c r="D911" s="8"/>
     </row>
     <row r="912">
-      <c r="C912" s="5"/>
-      <c r="D912" s="6"/>
+      <c r="C912" s="7"/>
+      <c r="D912" s="8"/>
     </row>
     <row r="913">
-      <c r="C913" s="5"/>
-      <c r="D913" s="6"/>
+      <c r="C913" s="7"/>
+      <c r="D913" s="8"/>
     </row>
     <row r="914">
-      <c r="C914" s="5"/>
-      <c r="D914" s="6"/>
+      <c r="C914" s="7"/>
+      <c r="D914" s="8"/>
     </row>
     <row r="915">
-      <c r="C915" s="5"/>
-      <c r="D915" s="6"/>
+      <c r="C915" s="7"/>
+      <c r="D915" s="8"/>
     </row>
     <row r="916">
-      <c r="C916" s="5"/>
-      <c r="D916" s="6"/>
+      <c r="C916" s="7"/>
+      <c r="D916" s="8"/>
     </row>
     <row r="917">
-      <c r="C917" s="5"/>
-      <c r="D917" s="6"/>
+      <c r="C917" s="7"/>
+      <c r="D917" s="8"/>
     </row>
     <row r="918">
-      <c r="C918" s="5"/>
-      <c r="D918" s="6"/>
+      <c r="C918" s="7"/>
+      <c r="D918" s="8"/>
     </row>
     <row r="919">
-      <c r="C919" s="5"/>
-      <c r="D919" s="6"/>
+      <c r="C919" s="7"/>
+      <c r="D919" s="8"/>
     </row>
     <row r="920">
-      <c r="C920" s="5"/>
-      <c r="D920" s="6"/>
+      <c r="C920" s="7"/>
+      <c r="D920" s="8"/>
     </row>
     <row r="921">
-      <c r="C921" s="5"/>
-      <c r="D921" s="6"/>
+      <c r="C921" s="7"/>
+      <c r="D921" s="8"/>
     </row>
     <row r="922">
-      <c r="C922" s="5"/>
-      <c r="D922" s="6"/>
+      <c r="C922" s="7"/>
+      <c r="D922" s="8"/>
     </row>
     <row r="923">
-      <c r="C923" s="5"/>
-      <c r="D923" s="6"/>
+      <c r="C923" s="7"/>
+      <c r="D923" s="8"/>
     </row>
     <row r="924">
-      <c r="C924" s="5"/>
-      <c r="D924" s="6"/>
+      <c r="C924" s="7"/>
+      <c r="D924" s="8"/>
     </row>
     <row r="925">
-      <c r="C925" s="5"/>
-      <c r="D925" s="6"/>
+      <c r="C925" s="7"/>
+      <c r="D925" s="8"/>
     </row>
     <row r="926">
-      <c r="C926" s="5"/>
-      <c r="D926" s="6"/>
+      <c r="C926" s="7"/>
+      <c r="D926" s="8"/>
     </row>
     <row r="927">
-      <c r="C927" s="5"/>
-      <c r="D927" s="6"/>
+      <c r="C927" s="7"/>
+      <c r="D927" s="8"/>
     </row>
     <row r="928">
-      <c r="C928" s="5"/>
-      <c r="D928" s="6"/>
+      <c r="C928" s="7"/>
+      <c r="D928" s="8"/>
     </row>
     <row r="929">
-      <c r="C929" s="5"/>
-      <c r="D929" s="6"/>
+      <c r="C929" s="7"/>
+      <c r="D929" s="8"/>
     </row>
     <row r="930">
-      <c r="C930" s="5"/>
-      <c r="D930" s="6"/>
+      <c r="C930" s="7"/>
+      <c r="D930" s="8"/>
     </row>
     <row r="931">
-      <c r="C931" s="5"/>
-      <c r="D931" s="6"/>
+      <c r="C931" s="7"/>
+      <c r="D931" s="8"/>
     </row>
     <row r="932">
-      <c r="C932" s="5"/>
-      <c r="D932" s="6"/>
+      <c r="C932" s="7"/>
+      <c r="D932" s="8"/>
     </row>
     <row r="933">
-      <c r="C933" s="5"/>
-      <c r="D933" s="6"/>
+      <c r="C933" s="7"/>
+      <c r="D933" s="8"/>
     </row>
     <row r="934">
-      <c r="C934" s="5"/>
-      <c r="D934" s="6"/>
+      <c r="C934" s="7"/>
+      <c r="D934" s="8"/>
     </row>
     <row r="935">
-      <c r="C935" s="5"/>
-      <c r="D935" s="6"/>
+      <c r="C935" s="7"/>
+      <c r="D935" s="8"/>
     </row>
     <row r="936">
-      <c r="C936" s="5"/>
-      <c r="D936" s="6"/>
+      <c r="C936" s="7"/>
+      <c r="D936" s="8"/>
     </row>
     <row r="937">
-      <c r="C937" s="5"/>
-      <c r="D937" s="6"/>
+      <c r="C937" s="7"/>
+      <c r="D937" s="8"/>
     </row>
     <row r="938">
-      <c r="C938" s="5"/>
-      <c r="D938" s="6"/>
+      <c r="C938" s="7"/>
+      <c r="D938" s="8"/>
     </row>
     <row r="939">
-      <c r="C939" s="5"/>
-      <c r="D939" s="6"/>
+      <c r="C939" s="7"/>
+      <c r="D939" s="8"/>
     </row>
     <row r="940">
-      <c r="C940" s="5"/>
-      <c r="D940" s="6"/>
+      <c r="C940" s="7"/>
+      <c r="D940" s="8"/>
     </row>
     <row r="941">
-      <c r="C941" s="5"/>
-      <c r="D941" s="6"/>
+      <c r="C941" s="7"/>
+      <c r="D941" s="8"/>
     </row>
     <row r="942">
-      <c r="C942" s="5"/>
-      <c r="D942" s="6"/>
+      <c r="C942" s="7"/>
+      <c r="D942" s="8"/>
     </row>
     <row r="943">
-      <c r="C943" s="5"/>
-      <c r="D943" s="6"/>
+      <c r="C943" s="7"/>
+      <c r="D943" s="8"/>
     </row>
     <row r="944">
-      <c r="C944" s="5"/>
-      <c r="D944" s="6"/>
+      <c r="C944" s="7"/>
+      <c r="D944" s="8"/>
     </row>
     <row r="945">
-      <c r="C945" s="5"/>
-      <c r="D945" s="6"/>
+      <c r="C945" s="7"/>
+      <c r="D945" s="8"/>
     </row>
     <row r="946">
-      <c r="C946" s="5"/>
-      <c r="D946" s="6"/>
+      <c r="C946" s="7"/>
+      <c r="D946" s="8"/>
     </row>
     <row r="947">
-      <c r="C947" s="5"/>
-      <c r="D947" s="6"/>
+      <c r="C947" s="7"/>
+      <c r="D947" s="8"/>
     </row>
     <row r="948">
-      <c r="C948" s="5"/>
-      <c r="D948" s="6"/>
+      <c r="C948" s="7"/>
+      <c r="D948" s="8"/>
     </row>
     <row r="949">
-      <c r="C949" s="5"/>
-      <c r="D949" s="6"/>
+      <c r="C949" s="7"/>
+      <c r="D949" s="8"/>
     </row>
     <row r="950">
-      <c r="C950" s="5"/>
-      <c r="D950" s="6"/>
+      <c r="C950" s="7"/>
+      <c r="D950" s="8"/>
     </row>
     <row r="951">
-      <c r="C951" s="5"/>
-      <c r="D951" s="6"/>
+      <c r="C951" s="7"/>
+      <c r="D951" s="8"/>
     </row>
     <row r="952">
-      <c r="C952" s="5"/>
-      <c r="D952" s="6"/>
+      <c r="C952" s="7"/>
+      <c r="D952" s="8"/>
     </row>
     <row r="953">
-      <c r="C953" s="5"/>
-      <c r="D953" s="6"/>
+      <c r="C953" s="7"/>
+      <c r="D953" s="8"/>
     </row>
     <row r="954">
-      <c r="C954" s="5"/>
-      <c r="D954" s="6"/>
+      <c r="C954" s="7"/>
+      <c r="D954" s="8"/>
     </row>
     <row r="955">
-      <c r="C955" s="5"/>
-      <c r="D955" s="6"/>
+      <c r="C955" s="7"/>
+      <c r="D955" s="8"/>
     </row>
     <row r="956">
-      <c r="C956" s="5"/>
-      <c r="D956" s="6"/>
+      <c r="C956" s="7"/>
+      <c r="D956" s="8"/>
     </row>
     <row r="957">
-      <c r="C957" s="5"/>
-      <c r="D957" s="6"/>
+      <c r="C957" s="7"/>
+      <c r="D957" s="8"/>
     </row>
     <row r="958">
-      <c r="C958" s="5"/>
-      <c r="D958" s="6"/>
+      <c r="C958" s="7"/>
+      <c r="D958" s="8"/>
     </row>
     <row r="959">
-      <c r="C959" s="5"/>
-      <c r="D959" s="6"/>
+      <c r="C959" s="7"/>
+      <c r="D959" s="8"/>
     </row>
     <row r="960">
-      <c r="C960" s="5"/>
-      <c r="D960" s="6"/>
+      <c r="C960" s="7"/>
+      <c r="D960" s="8"/>
     </row>
     <row r="961">
-      <c r="C961" s="5"/>
-      <c r="D961" s="6"/>
+      <c r="C961" s="7"/>
+      <c r="D961" s="8"/>
     </row>
     <row r="962">
-      <c r="C962" s="5"/>
-      <c r="D962" s="6"/>
+      <c r="C962" s="7"/>
+      <c r="D962" s="8"/>
     </row>
     <row r="963">
-      <c r="C963" s="5"/>
-      <c r="D963" s="6"/>
+      <c r="C963" s="7"/>
+      <c r="D963" s="8"/>
     </row>
     <row r="964">
-      <c r="C964" s="5"/>
-      <c r="D964" s="6"/>
+      <c r="C964" s="7"/>
+      <c r="D964" s="8"/>
     </row>
     <row r="965">
-      <c r="C965" s="5"/>
-      <c r="D965" s="6"/>
+      <c r="C965" s="7"/>
+      <c r="D965" s="8"/>
     </row>
     <row r="966">
-      <c r="C966" s="5"/>
-      <c r="D966" s="6"/>
+      <c r="C966" s="7"/>
+      <c r="D966" s="8"/>
     </row>
     <row r="967">
-      <c r="C967" s="5"/>
-      <c r="D967" s="6"/>
+      <c r="C967" s="7"/>
+      <c r="D967" s="8"/>
     </row>
     <row r="968">
-      <c r="C968" s="5"/>
-      <c r="D968" s="6"/>
+      <c r="C968" s="7"/>
+      <c r="D968" s="8"/>
     </row>
     <row r="969">
-      <c r="C969" s="5"/>
-      <c r="D969" s="6"/>
+      <c r="C969" s="7"/>
+      <c r="D969" s="8"/>
     </row>
     <row r="970">
-      <c r="C970" s="5"/>
-      <c r="D970" s="6"/>
+      <c r="C970" s="7"/>
+      <c r="D970" s="8"/>
     </row>
     <row r="971">
-      <c r="C971" s="5"/>
-      <c r="D971" s="6"/>
+      <c r="C971" s="7"/>
+      <c r="D971" s="8"/>
     </row>
     <row r="972">
-      <c r="C972" s="5"/>
-      <c r="D972" s="6"/>
+      <c r="C972" s="7"/>
+      <c r="D972" s="8"/>
     </row>
     <row r="973">
-      <c r="C973" s="5"/>
-      <c r="D973" s="6"/>
+      <c r="C973" s="7"/>
+      <c r="D973" s="8"/>
     </row>
     <row r="974">
-      <c r="C974" s="5"/>
-      <c r="D974" s="6"/>
+      <c r="C974" s="7"/>
+      <c r="D974" s="8"/>
     </row>
     <row r="975">
-      <c r="C975" s="5"/>
-      <c r="D975" s="6"/>
+      <c r="C975" s="7"/>
+      <c r="D975" s="8"/>
     </row>
     <row r="976">
-      <c r="C976" s="5"/>
-      <c r="D976" s="6"/>
+      <c r="C976" s="7"/>
+      <c r="D976" s="8"/>
     </row>
     <row r="977">
-      <c r="C977" s="5"/>
-      <c r="D977" s="6"/>
+      <c r="C977" s="7"/>
+      <c r="D977" s="8"/>
     </row>
     <row r="978">
-      <c r="C978" s="5"/>
-      <c r="D978" s="6"/>
+      <c r="C978" s="7"/>
+      <c r="D978" s="8"/>
     </row>
     <row r="979">
-      <c r="C979" s="5"/>
-      <c r="D979" s="6"/>
+      <c r="C979" s="7"/>
+      <c r="D979" s="8"/>
     </row>
     <row r="980">
-      <c r="C980" s="5"/>
-      <c r="D980" s="6"/>
+      <c r="C980" s="7"/>
+      <c r="D980" s="8"/>
     </row>
     <row r="981">
-      <c r="C981" s="5"/>
-      <c r="D981" s="6"/>
+      <c r="C981" s="7"/>
+      <c r="D981" s="8"/>
     </row>
     <row r="982">
-      <c r="C982" s="5"/>
-      <c r="D982" s="6"/>
+      <c r="C982" s="7"/>
+      <c r="D982" s="8"/>
     </row>
     <row r="983">
-      <c r="C983" s="5"/>
-      <c r="D983" s="6"/>
+      <c r="C983" s="7"/>
+      <c r="D983" s="8"/>
     </row>
     <row r="984">
-      <c r="C984" s="5"/>
-      <c r="D984" s="6"/>
+      <c r="C984" s="7"/>
+      <c r="D984" s="8"/>
     </row>
     <row r="985">
-      <c r="C985" s="5"/>
-      <c r="D985" s="6"/>
+      <c r="C985" s="7"/>
+      <c r="D985" s="8"/>
     </row>
     <row r="986">
-      <c r="C986" s="5"/>
-      <c r="D986" s="6"/>
+      <c r="C986" s="7"/>
+      <c r="D986" s="8"/>
     </row>
     <row r="987">
-      <c r="C987" s="5"/>
-      <c r="D987" s="6"/>
+      <c r="C987" s="7"/>
+      <c r="D987" s="8"/>
     </row>
     <row r="988">
-      <c r="C988" s="5"/>
-      <c r="D988" s="6"/>
+      <c r="C988" s="7"/>
+      <c r="D988" s="8"/>
     </row>
     <row r="989">
-      <c r="C989" s="5"/>
-      <c r="D989" s="6"/>
+      <c r="C989" s="7"/>
+      <c r="D989" s="8"/>
     </row>
     <row r="990">
-      <c r="C990" s="5"/>
-      <c r="D990" s="6"/>
+      <c r="C990" s="7"/>
+      <c r="D990" s="8"/>
     </row>
     <row r="991">
-      <c r="C991" s="5"/>
-      <c r="D991" s="6"/>
+      <c r="C991" s="7"/>
+      <c r="D991" s="8"/>
     </row>
     <row r="992">
-      <c r="C992" s="5"/>
-      <c r="D992" s="6"/>
+      <c r="C992" s="7"/>
+      <c r="D992" s="8"/>
     </row>
     <row r="993">
-      <c r="C993" s="5"/>
-      <c r="D993" s="6"/>
+      <c r="C993" s="7"/>
+      <c r="D993" s="8"/>
     </row>
     <row r="994">
-      <c r="C994" s="5"/>
-      <c r="D994" s="6"/>
+      <c r="C994" s="7"/>
+      <c r="D994" s="8"/>
     </row>
     <row r="995">
-      <c r="C995" s="5"/>
-      <c r="D995" s="6"/>
+      <c r="C995" s="7"/>
+      <c r="D995" s="8"/>
     </row>
     <row r="996">
-      <c r="C996" s="5"/>
-      <c r="D996" s="6"/>
+      <c r="C996" s="7"/>
+      <c r="D996" s="8"/>
     </row>
     <row r="997">
-      <c r="C997" s="5"/>
-      <c r="D997" s="6"/>
+      <c r="C997" s="7"/>
+      <c r="D997" s="8"/>
     </row>
     <row r="998">
-      <c r="C998" s="5"/>
-      <c r="D998" s="6"/>
+      <c r="C998" s="7"/>
+      <c r="D998" s="8"/>
     </row>
     <row r="999">
-      <c r="C999" s="5"/>
-      <c r="D999" s="6"/>
+      <c r="C999" s="7"/>
+      <c r="D999" s="8"/>
     </row>
     <row r="1000">
-      <c r="C1000" s="5"/>
-      <c r="D1000" s="6"/>
+      <c r="C1000" s="7"/>
+      <c r="D1000" s="8"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D2:D13">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FFE67C73"/>
+        <color rgb="FFFFD666"/>
+        <color rgb="FF57BB8A"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Scrum/BACKLOG.xlsx
+++ b/Scrum/BACKLOG.xlsx
@@ -220,14 +220,11 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
-    <font>
-      <color rgb="FFFFFFFF"/>
-    </font>
     <font>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
     </font>
+    <font/>
     <font>
       <color rgb="FF434343"/>
     </font>
@@ -240,6 +237,10 @@
     </font>
     <font>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color rgb="FFFFFFFF"/>
     </font>
     <font>
       <color rgb="FF073763"/>
@@ -383,56 +384,53 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="4" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="9" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="3" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="4" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="2" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="4" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="9" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="3" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="4" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf borderId="2" fillId="3" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="2" fillId="3" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="3" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="2" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="2" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="7" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="3" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="3" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="3" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="2" fillId="4" fontId="9" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
@@ -447,44 +445,55 @@
     <xf borderId="2" fillId="7" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="3" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="3" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="1" numFmtId="166" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="6" fillId="2" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="6" fillId="2" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="6" fillId="2" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="7" fillId="4" fontId="9" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -496,21 +505,15 @@
     <xf borderId="7" fillId="6" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="7" fillId="0" fontId="3" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="7" fillId="7" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="7" fillId="0" fontId="1" numFmtId="166" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -586,8 +589,8 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="2000603755"/>
-        <c:axId val="380097867"/>
+        <c:axId val="934278328"/>
+        <c:axId val="1848724388"/>
       </c:barChart>
       <c:lineChart>
         <c:ser>
@@ -626,11 +629,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="2000603755"/>
-        <c:axId val="380097867"/>
+        <c:axId val="934278328"/>
+        <c:axId val="1848724388"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2000603755"/>
+        <c:axId val="934278328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -672,10 +675,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="380097867"/>
+        <c:crossAx val="1848724388"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="380097867"/>
+        <c:axId val="1848724388"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -744,7 +747,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2000603755"/>
+        <c:crossAx val="934278328"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -998,786 +1001,860 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="11"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="9"/>
     </row>
     <row r="2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="13"/>
-      <c r="J2" s="12" t="s">
+      <c r="I2" s="11"/>
+      <c r="J2" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="M2" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="N2" s="16" t="s">
+      <c r="N2" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="O2" s="17"/>
+      <c r="O2" s="15"/>
     </row>
     <row r="3">
-      <c r="A3" s="18">
+      <c r="A3" s="16">
         <v>43887.0</v>
       </c>
-      <c r="B3" s="19">
+      <c r="B3" s="17">
         <v>0.0</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="18">
         <f>((1-(B3/MAX(B$4:B$100)))*COUNT(Tasks!$A$2:$A$39))</f>
         <v>28</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="18">
         <f>COUNT(Tasks!$A$2:$A$100)</f>
         <v>28</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="17">
         <v>0.0</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3" s="17">
         <v>0.0</v>
       </c>
-      <c r="G3" s="19">
+      <c r="G3" s="17">
         <v>0.0</v>
       </c>
-      <c r="H3" s="19">
+      <c r="H3" s="17">
         <v>0.0</v>
       </c>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="22"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="24" t="s">
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="20"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="O3" s="25" t="s">
+      <c r="O3" s="23" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="23">
+      <c r="A4" s="24">
         <v>43888.0</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="25">
         <v>1.0</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C4" s="26">
         <f>((1-(B4/MAX(B$4:B$100)))*COUNT(Tasks!$A$2:$A$39))</f>
         <v>26.13333333</v>
       </c>
-      <c r="D4" s="28">
-        <f t="shared" ref="D4:D18" si="1">D3-F4-H4</f>
+      <c r="D4" s="27">
+        <f t="shared" ref="D4:D20" si="1">D3-F4-H4</f>
         <v>25.3</v>
       </c>
-      <c r="E4" s="29">
+      <c r="E4" s="28">
         <v>6.5</v>
       </c>
-      <c r="F4" s="26">
+      <c r="F4" s="25">
         <v>1.35</v>
       </c>
-      <c r="G4" s="30">
+      <c r="G4" s="29">
         <v>6.5</v>
       </c>
-      <c r="H4" s="26">
+      <c r="H4" s="25">
         <v>1.35</v>
       </c>
-      <c r="I4" s="10"/>
-      <c r="J4" s="31">
-        <f t="shared" ref="J4:J18" si="2">H4+F4</f>
+      <c r="I4" s="30"/>
+      <c r="J4" s="8">
+        <f t="shared" ref="J4:J20" si="2">H4+F4</f>
         <v>2.7</v>
       </c>
-      <c r="K4" s="32">
-        <f t="shared" ref="K4:K18" si="3">G4+E4</f>
+      <c r="K4" s="9">
+        <f t="shared" ref="K4:K20" si="3">G4+E4</f>
         <v>13</v>
       </c>
-      <c r="M4" s="23">
+      <c r="M4" s="21">
         <v>43888.0</v>
       </c>
-      <c r="N4" s="33" t="s">
+      <c r="N4" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="O4" s="34" t="s">
+      <c r="O4" s="32" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="23">
+      <c r="A5" s="24">
         <v>43889.0</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="25">
         <v>2.0</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="26">
         <f>((1-(B5/MAX(B$4:B$100)))*COUNT(Tasks!$A$2:$A$39))</f>
         <v>24.26666667</v>
       </c>
-      <c r="D5" s="28">
+      <c r="D5" s="27">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E5" s="28">
         <v>3.5</v>
       </c>
-      <c r="F5" s="26">
+      <c r="F5" s="25">
         <v>3.7</v>
       </c>
-      <c r="G5" s="30">
+      <c r="G5" s="29">
         <v>3.0</v>
       </c>
-      <c r="H5" s="26">
+      <c r="H5" s="25">
         <v>2.6</v>
       </c>
-      <c r="I5" s="10"/>
-      <c r="J5" s="31">
+      <c r="I5" s="30"/>
+      <c r="J5" s="8">
         <f t="shared" si="2"/>
         <v>6.3</v>
       </c>
-      <c r="K5" s="32">
+      <c r="K5" s="9">
         <f t="shared" si="3"/>
         <v>6.5</v>
       </c>
-      <c r="M5" s="23">
+      <c r="M5" s="21">
         <v>43889.0</v>
       </c>
-      <c r="N5" s="33" t="s">
+      <c r="N5" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="O5" s="34" t="s">
+      <c r="O5" s="32" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="23">
+      <c r="A6" s="24">
         <v>43890.0</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="25">
         <v>3.0</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="26">
         <f>((1-(B6/MAX(B$4:B$100)))*COUNT(Tasks!$A$2:$A$39))</f>
         <v>22.4</v>
       </c>
-      <c r="D6" s="28">
+      <c r="D6" s="27">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="28">
         <v>3.5</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="25">
         <v>3.0</v>
       </c>
-      <c r="G6" s="30">
+      <c r="G6" s="29">
         <v>4.0</v>
       </c>
-      <c r="H6" s="26">
+      <c r="H6" s="25">
         <v>4.0</v>
       </c>
-      <c r="I6" s="10"/>
-      <c r="J6" s="31">
+      <c r="I6" s="30"/>
+      <c r="J6" s="8">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="K6" s="32">
+      <c r="K6" s="9">
         <f t="shared" si="3"/>
         <v>7.5</v>
       </c>
-      <c r="M6" s="23">
+      <c r="M6" s="21">
         <v>43890.0</v>
       </c>
-      <c r="N6" s="33" t="s">
+      <c r="N6" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="O6" s="35" t="s">
+      <c r="O6" s="33" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="23">
+      <c r="A7" s="24">
         <v>43891.0</v>
       </c>
-      <c r="B7" s="26">
+      <c r="B7" s="25">
         <v>4.0</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="26">
         <f>((1-(B7/MAX(B$4:B$100)))*COUNT(Tasks!$A$2:$A$39))</f>
         <v>20.53333333</v>
       </c>
-      <c r="D7" s="28">
+      <c r="D7" s="27">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="28">
         <v>0.0</v>
       </c>
-      <c r="F7" s="26">
+      <c r="F7" s="25">
         <v>0.0</v>
       </c>
-      <c r="G7" s="30">
+      <c r="G7" s="29">
         <v>0.0</v>
       </c>
-      <c r="H7" s="26">
+      <c r="H7" s="25">
         <v>0.0</v>
       </c>
-      <c r="I7" s="10"/>
-      <c r="J7" s="31">
+      <c r="I7" s="30"/>
+      <c r="J7" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K7" s="32">
+      <c r="K7" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M7" s="23">
+      <c r="M7" s="21">
         <v>43891.0</v>
       </c>
-      <c r="N7" s="33" t="s">
+      <c r="N7" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="O7" s="34" t="s">
+      <c r="O7" s="32" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="23">
+      <c r="A8" s="24">
         <v>43892.0</v>
       </c>
-      <c r="B8" s="26">
+      <c r="B8" s="25">
         <v>5.0</v>
       </c>
-      <c r="C8" s="27">
+      <c r="C8" s="26">
         <f>((1-(B8/MAX(B$4:B$100)))*COUNT(Tasks!$A$2:$A$39))</f>
         <v>18.66666667</v>
       </c>
-      <c r="D8" s="28">
+      <c r="D8" s="27">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="E8" s="29">
+      <c r="E8" s="28">
         <v>0.0</v>
       </c>
-      <c r="F8" s="26">
+      <c r="F8" s="25">
         <v>0.0</v>
       </c>
-      <c r="G8" s="30">
+      <c r="G8" s="29">
         <v>0.0</v>
       </c>
-      <c r="H8" s="26">
+      <c r="H8" s="25">
         <v>0.0</v>
       </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="31">
+      <c r="I8" s="30"/>
+      <c r="J8" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K8" s="32">
+      <c r="K8" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M8" s="23">
+      <c r="M8" s="21">
         <v>43892.0</v>
       </c>
-      <c r="N8" s="26" t="s">
+      <c r="N8" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="O8" s="36" t="s">
+      <c r="O8" s="35" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="23">
+      <c r="A9" s="24">
         <v>43893.0</v>
       </c>
-      <c r="B9" s="26">
+      <c r="B9" s="25">
         <v>6.0</v>
       </c>
-      <c r="C9" s="27">
+      <c r="C9" s="26">
         <f>((1-(B9/MAX(B$4:B$100)))*COUNT(Tasks!$A$2:$A$39))</f>
         <v>16.8</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D9" s="27">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="E9" s="29">
+      <c r="E9" s="28">
         <v>5.0</v>
       </c>
-      <c r="F9" s="26">
+      <c r="F9" s="25">
         <v>4.0</v>
       </c>
-      <c r="G9" s="30">
+      <c r="G9" s="29">
         <v>5.0</v>
       </c>
-      <c r="H9" s="26">
+      <c r="H9" s="25">
         <v>3.0</v>
       </c>
-      <c r="I9" s="10"/>
-      <c r="J9" s="31">
+      <c r="I9" s="30"/>
+      <c r="J9" s="8">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="K9" s="32">
+      <c r="K9" s="9">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="M9" s="23">
+      <c r="M9" s="21">
         <v>43893.0</v>
       </c>
-      <c r="N9" s="26" t="s">
+      <c r="N9" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="O9" s="36" t="s">
+      <c r="O9" s="35" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="23">
+      <c r="A10" s="24">
         <v>43894.0</v>
       </c>
-      <c r="B10" s="26">
+      <c r="B10" s="25">
         <v>7.0</v>
       </c>
-      <c r="C10" s="27">
+      <c r="C10" s="26">
         <f>((1-(B10/MAX(B$4:B$100)))*COUNT(Tasks!$A$2:$A$39))</f>
         <v>14.93333333</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D10" s="27">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="E10" s="29">
+      <c r="E10" s="28">
         <v>0.0</v>
       </c>
-      <c r="F10" s="37">
+      <c r="F10" s="36">
         <v>0.0</v>
       </c>
-      <c r="G10" s="30">
+      <c r="G10" s="29">
         <v>0.0</v>
       </c>
-      <c r="H10" s="26">
+      <c r="H10" s="25">
         <v>0.0</v>
       </c>
-      <c r="I10" s="38"/>
-      <c r="J10" s="31">
+      <c r="I10" s="37"/>
+      <c r="J10" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K10" s="32">
+      <c r="K10" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M10" s="23">
+      <c r="M10" s="21">
         <v>43894.0</v>
       </c>
-      <c r="N10" s="26" t="s">
+      <c r="N10" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="O10" s="36" t="s">
+      <c r="O10" s="35" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="23">
+      <c r="A11" s="24">
         <v>43895.0</v>
       </c>
-      <c r="B11" s="26">
+      <c r="B11" s="25">
         <v>8.0</v>
       </c>
-      <c r="C11" s="27">
+      <c r="C11" s="26">
         <f>((1-(B11/MAX(B$4:B$100)))*COUNT(Tasks!$A$2:$A$39))</f>
         <v>13.06666667</v>
       </c>
-      <c r="D11" s="28">
+      <c r="D11" s="27">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E11" s="29">
+      <c r="E11" s="28">
         <v>3.0</v>
       </c>
-      <c r="F11" s="26">
+      <c r="F11" s="25">
         <v>1.0</v>
       </c>
-      <c r="G11" s="30">
+      <c r="G11" s="29">
         <v>1.0</v>
       </c>
-      <c r="H11" s="26">
+      <c r="H11" s="25">
         <v>2.0</v>
       </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="31">
+      <c r="I11" s="30"/>
+      <c r="J11" s="8">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="K11" s="32">
+      <c r="K11" s="9">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="M11" s="23">
+      <c r="M11" s="21">
         <v>43895.0</v>
       </c>
-      <c r="N11" s="39" t="s">
+      <c r="N11" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="O11" s="40">
+      <c r="O11" s="39">
         <v>25.0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="23">
+      <c r="A12" s="24">
         <v>43896.0</v>
       </c>
-      <c r="B12" s="26">
+      <c r="B12" s="25">
         <v>9.0</v>
       </c>
-      <c r="C12" s="27">
+      <c r="C12" s="26">
         <f>((1-(B12/MAX(B$4:B$100)))*COUNT(Tasks!$A$2:$A$39))</f>
         <v>11.2</v>
       </c>
-      <c r="D12" s="28">
+      <c r="D12" s="27">
         <f t="shared" si="1"/>
-        <v>1.8333</v>
-      </c>
-      <c r="E12" s="29">
+        <v>1.85715</v>
+      </c>
+      <c r="E12" s="28">
         <v>3.0</v>
       </c>
-      <c r="F12" s="41">
+      <c r="F12" s="40">
+        <v>0.14285</v>
+      </c>
+      <c r="G12" s="29">
+        <v>0.0</v>
+      </c>
+      <c r="H12" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="I12" s="30"/>
+      <c r="J12" s="41">
+        <f t="shared" si="2"/>
+        <v>0.14285</v>
+      </c>
+      <c r="K12" s="9">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="M12" s="21">
+        <v>43896.0</v>
+      </c>
+      <c r="N12" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="O12" s="39">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="24">
+        <v>43897.0</v>
+      </c>
+      <c r="B13" s="25">
+        <v>10.0</v>
+      </c>
+      <c r="C13" s="26">
+        <f>((1-(B13/MAX(B$4:B$100)))*COUNT(Tasks!$A$2:$A$39))</f>
+        <v>9.333333333</v>
+      </c>
+      <c r="D13" s="27">
+        <f t="shared" si="1"/>
+        <v>1.69045</v>
+      </c>
+      <c r="E13" s="28">
+        <v>1.0</v>
+      </c>
+      <c r="F13" s="42">
+        <v>0.0</v>
+      </c>
+      <c r="G13" s="29">
+        <v>3.0</v>
+      </c>
+      <c r="H13" s="40">
         <v>0.1667</v>
       </c>
-      <c r="G12" s="30">
-        <v>0.0</v>
-      </c>
-      <c r="H12" s="26">
-        <v>0.0</v>
-      </c>
-      <c r="I12" s="10"/>
-      <c r="J12" s="42">
+      <c r="I13" s="30"/>
+      <c r="J13" s="41">
         <f t="shared" si="2"/>
         <v>0.1667</v>
       </c>
-      <c r="K12" s="32">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="M12" s="23">
-        <v>43896.0</v>
-      </c>
-      <c r="N12" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="O12" s="40">
-        <v>27.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="23">
-        <v>43897.0</v>
-      </c>
-      <c r="B13" s="26">
-        <v>10.0</v>
-      </c>
-      <c r="C13" s="27">
-        <f>((1-(B13/MAX(B$4:B$100)))*COUNT(Tasks!$A$2:$A$39))</f>
-        <v>9.333333333</v>
-      </c>
-      <c r="D13" s="28">
-        <f t="shared" si="1"/>
-        <v>1.6666</v>
-      </c>
-      <c r="E13" s="29">
-        <v>1.0</v>
-      </c>
-      <c r="F13" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="G13" s="30">
-        <v>3.0</v>
-      </c>
-      <c r="H13" s="41">
-        <v>0.1667</v>
-      </c>
-      <c r="I13" s="10"/>
-      <c r="J13" s="42">
-        <f t="shared" si="2"/>
-        <v>0.1667</v>
-      </c>
-      <c r="K13" s="32">
+      <c r="K13" s="9">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="M13" s="23">
+      <c r="M13" s="21">
         <v>43897.0</v>
       </c>
-      <c r="N13" s="39">
+      <c r="N13" s="38">
         <v>27.0</v>
       </c>
-      <c r="O13" s="36" t="s">
+      <c r="O13" s="35" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="23">
+      <c r="A14" s="24">
         <v>43898.0</v>
       </c>
-      <c r="B14" s="26">
+      <c r="B14" s="25">
         <v>11.0</v>
       </c>
-      <c r="C14" s="27">
+      <c r="C14" s="26">
         <f>((1-(B14/MAX(B$4:B$100)))*COUNT(Tasks!$A$2:$A$39))</f>
         <v>7.466666667</v>
       </c>
-      <c r="D14" s="28">
+      <c r="D14" s="27">
         <f t="shared" si="1"/>
-        <v>1.3332</v>
-      </c>
-      <c r="E14" s="29">
+        <v>1.3809</v>
+      </c>
+      <c r="E14" s="28">
         <v>1.5</v>
       </c>
-      <c r="F14" s="44">
+      <c r="F14" s="40">
+        <v>0.14285</v>
+      </c>
+      <c r="G14" s="29">
+        <v>2.5</v>
+      </c>
+      <c r="H14" s="40">
         <v>0.1667</v>
       </c>
-      <c r="G14" s="30">
-        <v>2.5</v>
-      </c>
-      <c r="H14" s="41">
-        <v>0.1667</v>
-      </c>
-      <c r="I14" s="10"/>
-      <c r="J14" s="42">
+      <c r="I14" s="30"/>
+      <c r="J14" s="41">
         <f t="shared" si="2"/>
-        <v>0.3334</v>
-      </c>
-      <c r="K14" s="32">
+        <v>0.30955</v>
+      </c>
+      <c r="K14" s="9">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="M14" s="23">
+      <c r="M14" s="21">
         <v>43898.0</v>
       </c>
-      <c r="N14" s="39">
+      <c r="N14" s="38">
         <v>27.0</v>
       </c>
-      <c r="O14" s="36" t="s">
+      <c r="O14" s="35" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="23">
+      <c r="A15" s="24">
         <v>43899.0</v>
       </c>
-      <c r="B15" s="26">
+      <c r="B15" s="25">
         <v>12.0</v>
       </c>
-      <c r="C15" s="27">
+      <c r="C15" s="26">
         <f>((1-(B15/MAX(B$4:B$100)))*COUNT(Tasks!$A$2:$A$39))</f>
         <v>5.6</v>
       </c>
-      <c r="D15" s="28">
+      <c r="D15" s="27">
         <f t="shared" si="1"/>
-        <v>0.9998</v>
-      </c>
-      <c r="E15" s="29">
+        <v>1.07135</v>
+      </c>
+      <c r="E15" s="28">
         <v>2.0</v>
       </c>
-      <c r="F15" s="44">
+      <c r="F15" s="40">
+        <v>0.14285</v>
+      </c>
+      <c r="G15" s="29">
+        <v>2.0</v>
+      </c>
+      <c r="H15" s="40">
         <v>0.1667</v>
       </c>
-      <c r="G15" s="30">
-        <v>2.0</v>
-      </c>
-      <c r="H15" s="41">
-        <v>0.1667</v>
-      </c>
-      <c r="I15" s="10"/>
-      <c r="J15" s="42">
+      <c r="I15" s="30"/>
+      <c r="J15" s="41">
         <f t="shared" si="2"/>
-        <v>0.3334</v>
-      </c>
-      <c r="K15" s="32">
+        <v>0.30955</v>
+      </c>
+      <c r="K15" s="9">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="M15" s="23">
+      <c r="M15" s="21">
         <v>43899.0</v>
       </c>
-      <c r="N15" s="39">
+      <c r="N15" s="38">
         <v>27.0</v>
       </c>
-      <c r="O15" s="36" t="s">
+      <c r="O15" s="35" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="23">
+      <c r="A16" s="24">
         <v>43900.0</v>
       </c>
-      <c r="B16" s="26">
+      <c r="B16" s="25">
         <v>13.0</v>
       </c>
-      <c r="C16" s="27">
+      <c r="C16" s="26">
         <f>((1-(B16/MAX(B$4:B$100)))*COUNT(Tasks!$A$2:$A$39))</f>
         <v>3.733333333</v>
       </c>
-      <c r="D16" s="28">
+      <c r="D16" s="27">
         <f t="shared" si="1"/>
-        <v>0.6664</v>
-      </c>
-      <c r="E16" s="29">
+        <v>0.7618</v>
+      </c>
+      <c r="E16" s="28">
         <v>3.0</v>
       </c>
-      <c r="F16" s="44">
+      <c r="F16" s="40">
+        <v>0.14285</v>
+      </c>
+      <c r="G16" s="29">
+        <v>2.0</v>
+      </c>
+      <c r="H16" s="40">
         <v>0.1667</v>
       </c>
-      <c r="G16" s="30">
-        <v>2.0</v>
-      </c>
-      <c r="H16" s="41">
-        <v>0.1667</v>
-      </c>
-      <c r="I16" s="10"/>
-      <c r="J16" s="42">
+      <c r="I16" s="30"/>
+      <c r="J16" s="41">
         <f t="shared" si="2"/>
-        <v>0.3334</v>
-      </c>
-      <c r="K16" s="32">
+        <v>0.30955</v>
+      </c>
+      <c r="K16" s="9">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="M16" s="23">
+      <c r="M16" s="21">
         <v>43900.0</v>
       </c>
-      <c r="N16" s="39">
+      <c r="N16" s="38">
         <v>27.0</v>
       </c>
-      <c r="O16" s="36" t="s">
+      <c r="O16" s="35" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="23">
+      <c r="A17" s="24">
         <v>43901.0</v>
       </c>
-      <c r="B17" s="26">
+      <c r="B17" s="25">
         <v>14.0</v>
       </c>
-      <c r="C17" s="27">
+      <c r="C17" s="26">
         <f>((1-(B17/MAX(B$4:B$100)))*COUNT(Tasks!$A$2:$A$39))</f>
         <v>1.866666667</v>
       </c>
-      <c r="D17" s="28">
+      <c r="D17" s="27">
         <f t="shared" si="1"/>
-        <v>0.333</v>
-      </c>
-      <c r="E17" s="29">
+        <v>0.45225</v>
+      </c>
+      <c r="E17" s="28">
         <v>2.0</v>
       </c>
-      <c r="F17" s="44">
+      <c r="F17" s="40">
+        <v>0.14285</v>
+      </c>
+      <c r="G17" s="29">
+        <v>2.0</v>
+      </c>
+      <c r="H17" s="40">
         <v>0.1667</v>
       </c>
-      <c r="G17" s="30">
-        <v>2.0</v>
-      </c>
-      <c r="H17" s="41">
-        <v>0.1667</v>
-      </c>
-      <c r="I17" s="10"/>
-      <c r="J17" s="42">
+      <c r="I17" s="30"/>
+      <c r="J17" s="41">
         <f t="shared" si="2"/>
-        <v>0.3334</v>
-      </c>
-      <c r="K17" s="32">
+        <v>0.30955</v>
+      </c>
+      <c r="K17" s="9">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="M17" s="23">
+      <c r="M17" s="21">
         <v>43901.0</v>
       </c>
-      <c r="N17" s="26" t="s">
+      <c r="N17" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="O17" s="36" t="s">
+      <c r="O17" s="35" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="45">
+      <c r="A18" s="24">
         <v>43902.0</v>
       </c>
-      <c r="B18" s="46">
+      <c r="B18" s="25">
         <v>15.0</v>
       </c>
-      <c r="C18" s="47">
+      <c r="C18" s="26">
         <f>((1-(B18/MAX(B$4:B$100)))*COUNT(Tasks!$A$2:$A$39))</f>
         <v>0</v>
       </c>
-      <c r="D18" s="48">
+      <c r="D18" s="27">
         <f t="shared" si="1"/>
-        <v>-0.0004</v>
-      </c>
-      <c r="E18" s="49">
+        <v>0.1427</v>
+      </c>
+      <c r="E18" s="28">
         <v>4.0</v>
       </c>
-      <c r="F18" s="50">
+      <c r="F18" s="40">
+        <v>0.14285</v>
+      </c>
+      <c r="G18" s="29">
+        <v>4.0</v>
+      </c>
+      <c r="H18" s="40">
         <v>0.1667</v>
       </c>
-      <c r="G18" s="51">
-        <v>4.0</v>
-      </c>
-      <c r="H18" s="52">
-        <v>0.1667</v>
-      </c>
-      <c r="I18" s="53"/>
-      <c r="J18" s="54">
+      <c r="I18" s="30"/>
+      <c r="J18" s="41">
         <f t="shared" si="2"/>
-        <v>0.3334</v>
-      </c>
-      <c r="K18" s="55">
+        <v>0.30955</v>
+      </c>
+      <c r="K18" s="9">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="M18" s="45">
+      <c r="M18" s="43">
         <v>43902.0</v>
       </c>
-      <c r="N18" s="46" t="s">
+      <c r="N18" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="O18" s="56" t="s">
+      <c r="O18" s="45" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="24">
+        <v>43903.0</v>
+      </c>
+      <c r="B19" s="25">
+        <v>15.0</v>
+      </c>
+      <c r="C19" s="26">
+        <f>((1-(B19/MAX(B$4:B$100)))*COUNT(Tasks!$A$2:$A$39))</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="27">
+        <f t="shared" si="1"/>
+        <v>0.1427</v>
+      </c>
+      <c r="E19" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="F19" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="G19" s="29">
+        <v>0.0</v>
+      </c>
+      <c r="H19" s="40">
+        <v>0.0</v>
+      </c>
+      <c r="I19" s="30"/>
+      <c r="J19" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="47">
+        <v>43904.0</v>
+      </c>
+      <c r="B20" s="48">
+        <v>15.0</v>
+      </c>
+      <c r="C20" s="49">
+        <f>((1-(B20/MAX(B$4:B$100)))*COUNT(Tasks!$A$2:$A$39))</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="50">
+        <f t="shared" si="1"/>
+        <v>-0.00015</v>
+      </c>
+      <c r="E20" s="51">
+        <v>2.0</v>
+      </c>
+      <c r="F20" s="52">
+        <v>0.14285</v>
+      </c>
+      <c r="G20" s="53">
+        <v>0.0</v>
+      </c>
+      <c r="H20" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="I20" s="54"/>
+      <c r="J20" s="55">
+        <f t="shared" si="2"/>
+        <v>0.14285</v>
+      </c>
+      <c r="K20" s="56">
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2117,8 +2194,8 @@
       <c r="C19" s="2">
         <v>10.0</v>
       </c>
-      <c r="D19" s="4">
-        <v>0.2</v>
+      <c r="D19" s="1">
+        <v>100.0</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>6</v>
@@ -2148,7 +2225,7 @@
       <c r="B21" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="2">
         <v>10.0</v>
       </c>
       <c r="D21" s="3">
@@ -2165,7 +2242,7 @@
       <c r="B22" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="2">
         <v>2.0</v>
       </c>
       <c r="D22" s="4">
@@ -2182,7 +2259,7 @@
       <c r="B23" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="2">
         <v>1.5</v>
       </c>
       <c r="D23" s="4">
@@ -2199,7 +2276,7 @@
       <c r="B24" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="2">
         <v>0.5</v>
       </c>
       <c r="D24" s="4">
@@ -2213,16 +2290,16 @@
       <c r="A25" s="1">
         <v>24.0</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="2">
         <v>4.0</v>
       </c>
       <c r="D25" s="4">
         <v>1.0</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2233,7 +2310,7 @@
       <c r="B26" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="2">
         <v>3.0</v>
       </c>
       <c r="D26" s="4">
@@ -2244,13 +2321,13 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="6">
+      <c r="A27" s="1">
         <v>26.0</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="2">
         <v>1.0</v>
       </c>
       <c r="D27" s="3">
@@ -2267,7 +2344,7 @@
       <c r="B28" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="2">
         <v>10.0</v>
       </c>
       <c r="D28" s="3">
@@ -2284,7 +2361,7 @@
       <c r="B29" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="2">
         <v>10.0</v>
       </c>
       <c r="D29" s="3">
@@ -2295,3884 +2372,3884 @@
       </c>
     </row>
     <row r="30">
-      <c r="C30" s="7"/>
-      <c r="D30" s="8"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="6"/>
     </row>
     <row r="31">
-      <c r="C31" s="7"/>
-      <c r="D31" s="8"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="6"/>
     </row>
     <row r="32">
-      <c r="C32" s="7"/>
-      <c r="D32" s="8"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="6"/>
     </row>
     <row r="33">
-      <c r="C33" s="7"/>
-      <c r="D33" s="8"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="6"/>
     </row>
     <row r="34">
-      <c r="C34" s="7"/>
-      <c r="D34" s="8"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="6"/>
     </row>
     <row r="35">
-      <c r="C35" s="7"/>
-      <c r="D35" s="8"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="6"/>
     </row>
     <row r="36">
-      <c r="C36" s="7"/>
-      <c r="D36" s="8"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="6"/>
     </row>
     <row r="37">
-      <c r="C37" s="7"/>
-      <c r="D37" s="8"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="6"/>
     </row>
     <row r="38">
-      <c r="C38" s="7"/>
-      <c r="D38" s="8"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="6"/>
     </row>
     <row r="39">
-      <c r="C39" s="7"/>
-      <c r="D39" s="8"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="6"/>
     </row>
     <row r="40">
-      <c r="C40" s="7"/>
-      <c r="D40" s="8"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="6"/>
     </row>
     <row r="41">
-      <c r="C41" s="7"/>
-      <c r="D41" s="8"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="6"/>
     </row>
     <row r="42">
-      <c r="C42" s="7"/>
-      <c r="D42" s="8"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="6"/>
     </row>
     <row r="43">
-      <c r="C43" s="7"/>
-      <c r="D43" s="8"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="6"/>
     </row>
     <row r="44">
-      <c r="C44" s="7"/>
-      <c r="D44" s="8"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="6"/>
     </row>
     <row r="45">
-      <c r="C45" s="7"/>
-      <c r="D45" s="8"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="6"/>
     </row>
     <row r="46">
-      <c r="C46" s="7"/>
-      <c r="D46" s="8"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="6"/>
     </row>
     <row r="47">
-      <c r="C47" s="7"/>
-      <c r="D47" s="8"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="6"/>
     </row>
     <row r="48">
-      <c r="C48" s="7"/>
-      <c r="D48" s="8"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="6"/>
     </row>
     <row r="49">
-      <c r="C49" s="7"/>
-      <c r="D49" s="8"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="6"/>
     </row>
     <row r="50">
-      <c r="C50" s="7"/>
-      <c r="D50" s="8"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="6"/>
     </row>
     <row r="51">
-      <c r="C51" s="7"/>
-      <c r="D51" s="8"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="6"/>
     </row>
     <row r="52">
-      <c r="C52" s="7"/>
-      <c r="D52" s="8"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="6"/>
     </row>
     <row r="53">
-      <c r="C53" s="7"/>
-      <c r="D53" s="8"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="6"/>
     </row>
     <row r="54">
-      <c r="C54" s="7"/>
-      <c r="D54" s="8"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="6"/>
     </row>
     <row r="55">
-      <c r="C55" s="7"/>
-      <c r="D55" s="8"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="6"/>
     </row>
     <row r="56">
-      <c r="C56" s="7"/>
-      <c r="D56" s="8"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="6"/>
     </row>
     <row r="57">
-      <c r="C57" s="7"/>
-      <c r="D57" s="8"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="6"/>
     </row>
     <row r="58">
-      <c r="C58" s="7"/>
-      <c r="D58" s="8"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="6"/>
     </row>
     <row r="59">
-      <c r="C59" s="7"/>
-      <c r="D59" s="8"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="6"/>
     </row>
     <row r="60">
-      <c r="C60" s="7"/>
-      <c r="D60" s="8"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="6"/>
     </row>
     <row r="61">
-      <c r="C61" s="7"/>
-      <c r="D61" s="8"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="6"/>
     </row>
     <row r="62">
-      <c r="C62" s="7"/>
-      <c r="D62" s="8"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="6"/>
     </row>
     <row r="63">
-      <c r="C63" s="7"/>
-      <c r="D63" s="8"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="6"/>
     </row>
     <row r="64">
-      <c r="C64" s="7"/>
-      <c r="D64" s="8"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="6"/>
     </row>
     <row r="65">
-      <c r="C65" s="7"/>
-      <c r="D65" s="8"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="6"/>
     </row>
     <row r="66">
-      <c r="C66" s="7"/>
-      <c r="D66" s="8"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="6"/>
     </row>
     <row r="67">
-      <c r="C67" s="7"/>
-      <c r="D67" s="8"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="6"/>
     </row>
     <row r="68">
-      <c r="C68" s="7"/>
-      <c r="D68" s="8"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="6"/>
     </row>
     <row r="69">
-      <c r="C69" s="7"/>
-      <c r="D69" s="8"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="6"/>
     </row>
     <row r="70">
-      <c r="C70" s="7"/>
-      <c r="D70" s="8"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="6"/>
     </row>
     <row r="71">
-      <c r="C71" s="7"/>
-      <c r="D71" s="8"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="6"/>
     </row>
     <row r="72">
-      <c r="C72" s="7"/>
-      <c r="D72" s="8"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="6"/>
     </row>
     <row r="73">
-      <c r="C73" s="7"/>
-      <c r="D73" s="8"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="6"/>
     </row>
     <row r="74">
-      <c r="C74" s="7"/>
-      <c r="D74" s="8"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="6"/>
     </row>
     <row r="75">
-      <c r="C75" s="7"/>
-      <c r="D75" s="8"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="6"/>
     </row>
     <row r="76">
-      <c r="C76" s="7"/>
-      <c r="D76" s="8"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="6"/>
     </row>
     <row r="77">
-      <c r="C77" s="7"/>
-      <c r="D77" s="8"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="6"/>
     </row>
     <row r="78">
-      <c r="C78" s="7"/>
-      <c r="D78" s="8"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="6"/>
     </row>
     <row r="79">
-      <c r="C79" s="7"/>
-      <c r="D79" s="8"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="6"/>
     </row>
     <row r="80">
-      <c r="C80" s="7"/>
-      <c r="D80" s="8"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="6"/>
     </row>
     <row r="81">
-      <c r="C81" s="7"/>
-      <c r="D81" s="8"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="6"/>
     </row>
     <row r="82">
-      <c r="C82" s="7"/>
-      <c r="D82" s="8"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="6"/>
     </row>
     <row r="83">
-      <c r="C83" s="7"/>
-      <c r="D83" s="8"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="6"/>
     </row>
     <row r="84">
-      <c r="C84" s="7"/>
-      <c r="D84" s="8"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="6"/>
     </row>
     <row r="85">
-      <c r="C85" s="7"/>
-      <c r="D85" s="8"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="6"/>
     </row>
     <row r="86">
-      <c r="C86" s="7"/>
-      <c r="D86" s="8"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="6"/>
     </row>
     <row r="87">
-      <c r="C87" s="7"/>
-      <c r="D87" s="8"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="6"/>
     </row>
     <row r="88">
-      <c r="C88" s="7"/>
-      <c r="D88" s="8"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="6"/>
     </row>
     <row r="89">
-      <c r="C89" s="7"/>
-      <c r="D89" s="8"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="6"/>
     </row>
     <row r="90">
-      <c r="C90" s="7"/>
-      <c r="D90" s="8"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="6"/>
     </row>
     <row r="91">
-      <c r="C91" s="7"/>
-      <c r="D91" s="8"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="6"/>
     </row>
     <row r="92">
-      <c r="C92" s="7"/>
-      <c r="D92" s="8"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="6"/>
     </row>
     <row r="93">
-      <c r="C93" s="7"/>
-      <c r="D93" s="8"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="6"/>
     </row>
     <row r="94">
-      <c r="C94" s="7"/>
-      <c r="D94" s="8"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="6"/>
     </row>
     <row r="95">
-      <c r="C95" s="7"/>
-      <c r="D95" s="8"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="6"/>
     </row>
     <row r="96">
-      <c r="C96" s="7"/>
-      <c r="D96" s="8"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="6"/>
     </row>
     <row r="97">
-      <c r="C97" s="7"/>
-      <c r="D97" s="8"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="6"/>
     </row>
     <row r="98">
-      <c r="C98" s="7"/>
-      <c r="D98" s="8"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="6"/>
     </row>
     <row r="99">
-      <c r="C99" s="7"/>
-      <c r="D99" s="8"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="6"/>
     </row>
     <row r="100">
-      <c r="C100" s="7"/>
-      <c r="D100" s="8"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="6"/>
     </row>
     <row r="101">
-      <c r="C101" s="7"/>
-      <c r="D101" s="8"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="6"/>
     </row>
     <row r="102">
-      <c r="C102" s="7"/>
-      <c r="D102" s="8"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="6"/>
     </row>
     <row r="103">
-      <c r="C103" s="7"/>
-      <c r="D103" s="8"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="6"/>
     </row>
     <row r="104">
-      <c r="C104" s="7"/>
-      <c r="D104" s="8"/>
+      <c r="C104" s="5"/>
+      <c r="D104" s="6"/>
     </row>
     <row r="105">
-      <c r="C105" s="7"/>
-      <c r="D105" s="8"/>
+      <c r="C105" s="5"/>
+      <c r="D105" s="6"/>
     </row>
     <row r="106">
-      <c r="C106" s="7"/>
-      <c r="D106" s="8"/>
+      <c r="C106" s="5"/>
+      <c r="D106" s="6"/>
     </row>
     <row r="107">
-      <c r="C107" s="7"/>
-      <c r="D107" s="8"/>
+      <c r="C107" s="5"/>
+      <c r="D107" s="6"/>
     </row>
     <row r="108">
-      <c r="C108" s="7"/>
-      <c r="D108" s="8"/>
+      <c r="C108" s="5"/>
+      <c r="D108" s="6"/>
     </row>
     <row r="109">
-      <c r="C109" s="7"/>
-      <c r="D109" s="8"/>
+      <c r="C109" s="5"/>
+      <c r="D109" s="6"/>
     </row>
     <row r="110">
-      <c r="C110" s="7"/>
-      <c r="D110" s="8"/>
+      <c r="C110" s="5"/>
+      <c r="D110" s="6"/>
     </row>
     <row r="111">
-      <c r="C111" s="7"/>
-      <c r="D111" s="8"/>
+      <c r="C111" s="5"/>
+      <c r="D111" s="6"/>
     </row>
     <row r="112">
-      <c r="C112" s="7"/>
-      <c r="D112" s="8"/>
+      <c r="C112" s="5"/>
+      <c r="D112" s="6"/>
     </row>
     <row r="113">
-      <c r="C113" s="7"/>
-      <c r="D113" s="8"/>
+      <c r="C113" s="5"/>
+      <c r="D113" s="6"/>
     </row>
     <row r="114">
-      <c r="C114" s="7"/>
-      <c r="D114" s="8"/>
+      <c r="C114" s="5"/>
+      <c r="D114" s="6"/>
     </row>
     <row r="115">
-      <c r="C115" s="7"/>
-      <c r="D115" s="8"/>
+      <c r="C115" s="5"/>
+      <c r="D115" s="6"/>
     </row>
     <row r="116">
-      <c r="C116" s="7"/>
-      <c r="D116" s="8"/>
+      <c r="C116" s="5"/>
+      <c r="D116" s="6"/>
     </row>
     <row r="117">
-      <c r="C117" s="7"/>
-      <c r="D117" s="8"/>
+      <c r="C117" s="5"/>
+      <c r="D117" s="6"/>
     </row>
     <row r="118">
-      <c r="C118" s="7"/>
-      <c r="D118" s="8"/>
+      <c r="C118" s="5"/>
+      <c r="D118" s="6"/>
     </row>
     <row r="119">
-      <c r="C119" s="7"/>
-      <c r="D119" s="8"/>
+      <c r="C119" s="5"/>
+      <c r="D119" s="6"/>
     </row>
     <row r="120">
-      <c r="C120" s="7"/>
-      <c r="D120" s="8"/>
+      <c r="C120" s="5"/>
+      <c r="D120" s="6"/>
     </row>
     <row r="121">
-      <c r="C121" s="7"/>
-      <c r="D121" s="8"/>
+      <c r="C121" s="5"/>
+      <c r="D121" s="6"/>
     </row>
     <row r="122">
-      <c r="C122" s="7"/>
-      <c r="D122" s="8"/>
+      <c r="C122" s="5"/>
+      <c r="D122" s="6"/>
     </row>
     <row r="123">
-      <c r="C123" s="7"/>
-      <c r="D123" s="8"/>
+      <c r="C123" s="5"/>
+      <c r="D123" s="6"/>
     </row>
     <row r="124">
-      <c r="C124" s="7"/>
-      <c r="D124" s="8"/>
+      <c r="C124" s="5"/>
+      <c r="D124" s="6"/>
     </row>
     <row r="125">
-      <c r="C125" s="7"/>
-      <c r="D125" s="8"/>
+      <c r="C125" s="5"/>
+      <c r="D125" s="6"/>
     </row>
     <row r="126">
-      <c r="C126" s="7"/>
-      <c r="D126" s="8"/>
+      <c r="C126" s="5"/>
+      <c r="D126" s="6"/>
     </row>
     <row r="127">
-      <c r="C127" s="7"/>
-      <c r="D127" s="8"/>
+      <c r="C127" s="5"/>
+      <c r="D127" s="6"/>
     </row>
     <row r="128">
-      <c r="C128" s="7"/>
-      <c r="D128" s="8"/>
+      <c r="C128" s="5"/>
+      <c r="D128" s="6"/>
     </row>
     <row r="129">
-      <c r="C129" s="7"/>
-      <c r="D129" s="8"/>
+      <c r="C129" s="5"/>
+      <c r="D129" s="6"/>
     </row>
     <row r="130">
-      <c r="C130" s="7"/>
-      <c r="D130" s="8"/>
+      <c r="C130" s="5"/>
+      <c r="D130" s="6"/>
     </row>
     <row r="131">
-      <c r="C131" s="7"/>
-      <c r="D131" s="8"/>
+      <c r="C131" s="5"/>
+      <c r="D131" s="6"/>
     </row>
     <row r="132">
-      <c r="C132" s="7"/>
-      <c r="D132" s="8"/>
+      <c r="C132" s="5"/>
+      <c r="D132" s="6"/>
     </row>
     <row r="133">
-      <c r="C133" s="7"/>
-      <c r="D133" s="8"/>
+      <c r="C133" s="5"/>
+      <c r="D133" s="6"/>
     </row>
     <row r="134">
-      <c r="C134" s="7"/>
-      <c r="D134" s="8"/>
+      <c r="C134" s="5"/>
+      <c r="D134" s="6"/>
     </row>
     <row r="135">
-      <c r="C135" s="7"/>
-      <c r="D135" s="8"/>
+      <c r="C135" s="5"/>
+      <c r="D135" s="6"/>
     </row>
     <row r="136">
-      <c r="C136" s="7"/>
-      <c r="D136" s="8"/>
+      <c r="C136" s="5"/>
+      <c r="D136" s="6"/>
     </row>
     <row r="137">
-      <c r="C137" s="7"/>
-      <c r="D137" s="8"/>
+      <c r="C137" s="5"/>
+      <c r="D137" s="6"/>
     </row>
     <row r="138">
-      <c r="C138" s="7"/>
-      <c r="D138" s="8"/>
+      <c r="C138" s="5"/>
+      <c r="D138" s="6"/>
     </row>
     <row r="139">
-      <c r="C139" s="7"/>
-      <c r="D139" s="8"/>
+      <c r="C139" s="5"/>
+      <c r="D139" s="6"/>
     </row>
     <row r="140">
-      <c r="C140" s="7"/>
-      <c r="D140" s="8"/>
+      <c r="C140" s="5"/>
+      <c r="D140" s="6"/>
     </row>
     <row r="141">
-      <c r="C141" s="7"/>
-      <c r="D141" s="8"/>
+      <c r="C141" s="5"/>
+      <c r="D141" s="6"/>
     </row>
     <row r="142">
-      <c r="C142" s="7"/>
-      <c r="D142" s="8"/>
+      <c r="C142" s="5"/>
+      <c r="D142" s="6"/>
     </row>
     <row r="143">
-      <c r="C143" s="7"/>
-      <c r="D143" s="8"/>
+      <c r="C143" s="5"/>
+      <c r="D143" s="6"/>
     </row>
     <row r="144">
-      <c r="C144" s="7"/>
-      <c r="D144" s="8"/>
+      <c r="C144" s="5"/>
+      <c r="D144" s="6"/>
     </row>
     <row r="145">
-      <c r="C145" s="7"/>
-      <c r="D145" s="8"/>
+      <c r="C145" s="5"/>
+      <c r="D145" s="6"/>
     </row>
     <row r="146">
-      <c r="C146" s="7"/>
-      <c r="D146" s="8"/>
+      <c r="C146" s="5"/>
+      <c r="D146" s="6"/>
     </row>
     <row r="147">
-      <c r="C147" s="7"/>
-      <c r="D147" s="8"/>
+      <c r="C147" s="5"/>
+      <c r="D147" s="6"/>
     </row>
     <row r="148">
-      <c r="C148" s="7"/>
-      <c r="D148" s="8"/>
+      <c r="C148" s="5"/>
+      <c r="D148" s="6"/>
     </row>
     <row r="149">
-      <c r="C149" s="7"/>
-      <c r="D149" s="8"/>
+      <c r="C149" s="5"/>
+      <c r="D149" s="6"/>
     </row>
     <row r="150">
-      <c r="C150" s="7"/>
-      <c r="D150" s="8"/>
+      <c r="C150" s="5"/>
+      <c r="D150" s="6"/>
     </row>
     <row r="151">
-      <c r="C151" s="7"/>
-      <c r="D151" s="8"/>
+      <c r="C151" s="5"/>
+      <c r="D151" s="6"/>
     </row>
     <row r="152">
-      <c r="C152" s="7"/>
-      <c r="D152" s="8"/>
+      <c r="C152" s="5"/>
+      <c r="D152" s="6"/>
     </row>
     <row r="153">
-      <c r="C153" s="7"/>
-      <c r="D153" s="8"/>
+      <c r="C153" s="5"/>
+      <c r="D153" s="6"/>
     </row>
     <row r="154">
-      <c r="C154" s="7"/>
-      <c r="D154" s="8"/>
+      <c r="C154" s="5"/>
+      <c r="D154" s="6"/>
     </row>
     <row r="155">
-      <c r="C155" s="7"/>
-      <c r="D155" s="8"/>
+      <c r="C155" s="5"/>
+      <c r="D155" s="6"/>
     </row>
     <row r="156">
-      <c r="C156" s="7"/>
-      <c r="D156" s="8"/>
+      <c r="C156" s="5"/>
+      <c r="D156" s="6"/>
     </row>
     <row r="157">
-      <c r="C157" s="7"/>
-      <c r="D157" s="8"/>
+      <c r="C157" s="5"/>
+      <c r="D157" s="6"/>
     </row>
     <row r="158">
-      <c r="C158" s="7"/>
-      <c r="D158" s="8"/>
+      <c r="C158" s="5"/>
+      <c r="D158" s="6"/>
     </row>
     <row r="159">
-      <c r="C159" s="7"/>
-      <c r="D159" s="8"/>
+      <c r="C159" s="5"/>
+      <c r="D159" s="6"/>
     </row>
     <row r="160">
-      <c r="C160" s="7"/>
-      <c r="D160" s="8"/>
+      <c r="C160" s="5"/>
+      <c r="D160" s="6"/>
     </row>
     <row r="161">
-      <c r="C161" s="7"/>
-      <c r="D161" s="8"/>
+      <c r="C161" s="5"/>
+      <c r="D161" s="6"/>
     </row>
     <row r="162">
-      <c r="C162" s="7"/>
-      <c r="D162" s="8"/>
+      <c r="C162" s="5"/>
+      <c r="D162" s="6"/>
     </row>
     <row r="163">
-      <c r="C163" s="7"/>
-      <c r="D163" s="8"/>
+      <c r="C163" s="5"/>
+      <c r="D163" s="6"/>
     </row>
     <row r="164">
-      <c r="C164" s="7"/>
-      <c r="D164" s="8"/>
+      <c r="C164" s="5"/>
+      <c r="D164" s="6"/>
     </row>
     <row r="165">
-      <c r="C165" s="7"/>
-      <c r="D165" s="8"/>
+      <c r="C165" s="5"/>
+      <c r="D165" s="6"/>
     </row>
     <row r="166">
-      <c r="C166" s="7"/>
-      <c r="D166" s="8"/>
+      <c r="C166" s="5"/>
+      <c r="D166" s="6"/>
     </row>
     <row r="167">
-      <c r="C167" s="7"/>
-      <c r="D167" s="8"/>
+      <c r="C167" s="5"/>
+      <c r="D167" s="6"/>
     </row>
     <row r="168">
-      <c r="C168" s="7"/>
-      <c r="D168" s="8"/>
+      <c r="C168" s="5"/>
+      <c r="D168" s="6"/>
     </row>
     <row r="169">
-      <c r="C169" s="7"/>
-      <c r="D169" s="8"/>
+      <c r="C169" s="5"/>
+      <c r="D169" s="6"/>
     </row>
     <row r="170">
-      <c r="C170" s="7"/>
-      <c r="D170" s="8"/>
+      <c r="C170" s="5"/>
+      <c r="D170" s="6"/>
     </row>
     <row r="171">
-      <c r="C171" s="7"/>
-      <c r="D171" s="8"/>
+      <c r="C171" s="5"/>
+      <c r="D171" s="6"/>
     </row>
     <row r="172">
-      <c r="C172" s="7"/>
-      <c r="D172" s="8"/>
+      <c r="C172" s="5"/>
+      <c r="D172" s="6"/>
     </row>
     <row r="173">
-      <c r="C173" s="7"/>
-      <c r="D173" s="8"/>
+      <c r="C173" s="5"/>
+      <c r="D173" s="6"/>
     </row>
     <row r="174">
-      <c r="C174" s="7"/>
-      <c r="D174" s="8"/>
+      <c r="C174" s="5"/>
+      <c r="D174" s="6"/>
     </row>
     <row r="175">
-      <c r="C175" s="7"/>
-      <c r="D175" s="8"/>
+      <c r="C175" s="5"/>
+      <c r="D175" s="6"/>
     </row>
     <row r="176">
-      <c r="C176" s="7"/>
-      <c r="D176" s="8"/>
+      <c r="C176" s="5"/>
+      <c r="D176" s="6"/>
     </row>
     <row r="177">
-      <c r="C177" s="7"/>
-      <c r="D177" s="8"/>
+      <c r="C177" s="5"/>
+      <c r="D177" s="6"/>
     </row>
     <row r="178">
-      <c r="C178" s="7"/>
-      <c r="D178" s="8"/>
+      <c r="C178" s="5"/>
+      <c r="D178" s="6"/>
     </row>
     <row r="179">
-      <c r="C179" s="7"/>
-      <c r="D179" s="8"/>
+      <c r="C179" s="5"/>
+      <c r="D179" s="6"/>
     </row>
     <row r="180">
-      <c r="C180" s="7"/>
-      <c r="D180" s="8"/>
+      <c r="C180" s="5"/>
+      <c r="D180" s="6"/>
     </row>
     <row r="181">
-      <c r="C181" s="7"/>
-      <c r="D181" s="8"/>
+      <c r="C181" s="5"/>
+      <c r="D181" s="6"/>
     </row>
     <row r="182">
-      <c r="C182" s="7"/>
-      <c r="D182" s="8"/>
+      <c r="C182" s="5"/>
+      <c r="D182" s="6"/>
     </row>
     <row r="183">
-      <c r="C183" s="7"/>
-      <c r="D183" s="8"/>
+      <c r="C183" s="5"/>
+      <c r="D183" s="6"/>
     </row>
     <row r="184">
-      <c r="C184" s="7"/>
-      <c r="D184" s="8"/>
+      <c r="C184" s="5"/>
+      <c r="D184" s="6"/>
     </row>
     <row r="185">
-      <c r="C185" s="7"/>
-      <c r="D185" s="8"/>
+      <c r="C185" s="5"/>
+      <c r="D185" s="6"/>
     </row>
     <row r="186">
-      <c r="C186" s="7"/>
-      <c r="D186" s="8"/>
+      <c r="C186" s="5"/>
+      <c r="D186" s="6"/>
     </row>
     <row r="187">
-      <c r="C187" s="7"/>
-      <c r="D187" s="8"/>
+      <c r="C187" s="5"/>
+      <c r="D187" s="6"/>
     </row>
     <row r="188">
-      <c r="C188" s="7"/>
-      <c r="D188" s="8"/>
+      <c r="C188" s="5"/>
+      <c r="D188" s="6"/>
     </row>
     <row r="189">
-      <c r="C189" s="7"/>
-      <c r="D189" s="8"/>
+      <c r="C189" s="5"/>
+      <c r="D189" s="6"/>
     </row>
     <row r="190">
-      <c r="C190" s="7"/>
-      <c r="D190" s="8"/>
+      <c r="C190" s="5"/>
+      <c r="D190" s="6"/>
     </row>
     <row r="191">
-      <c r="C191" s="7"/>
-      <c r="D191" s="8"/>
+      <c r="C191" s="5"/>
+      <c r="D191" s="6"/>
     </row>
     <row r="192">
-      <c r="C192" s="7"/>
-      <c r="D192" s="8"/>
+      <c r="C192" s="5"/>
+      <c r="D192" s="6"/>
     </row>
     <row r="193">
-      <c r="C193" s="7"/>
-      <c r="D193" s="8"/>
+      <c r="C193" s="5"/>
+      <c r="D193" s="6"/>
     </row>
     <row r="194">
-      <c r="C194" s="7"/>
-      <c r="D194" s="8"/>
+      <c r="C194" s="5"/>
+      <c r="D194" s="6"/>
     </row>
     <row r="195">
-      <c r="C195" s="7"/>
-      <c r="D195" s="8"/>
+      <c r="C195" s="5"/>
+      <c r="D195" s="6"/>
     </row>
     <row r="196">
-      <c r="C196" s="7"/>
-      <c r="D196" s="8"/>
+      <c r="C196" s="5"/>
+      <c r="D196" s="6"/>
     </row>
     <row r="197">
-      <c r="C197" s="7"/>
-      <c r="D197" s="8"/>
+      <c r="C197" s="5"/>
+      <c r="D197" s="6"/>
     </row>
     <row r="198">
-      <c r="C198" s="7"/>
-      <c r="D198" s="8"/>
+      <c r="C198" s="5"/>
+      <c r="D198" s="6"/>
     </row>
     <row r="199">
-      <c r="C199" s="7"/>
-      <c r="D199" s="8"/>
+      <c r="C199" s="5"/>
+      <c r="D199" s="6"/>
     </row>
     <row r="200">
-      <c r="C200" s="7"/>
-      <c r="D200" s="8"/>
+      <c r="C200" s="5"/>
+      <c r="D200" s="6"/>
     </row>
     <row r="201">
-      <c r="C201" s="7"/>
-      <c r="D201" s="8"/>
+      <c r="C201" s="5"/>
+      <c r="D201" s="6"/>
     </row>
     <row r="202">
-      <c r="C202" s="7"/>
-      <c r="D202" s="8"/>
+      <c r="C202" s="5"/>
+      <c r="D202" s="6"/>
     </row>
     <row r="203">
-      <c r="C203" s="7"/>
-      <c r="D203" s="8"/>
+      <c r="C203" s="5"/>
+      <c r="D203" s="6"/>
     </row>
     <row r="204">
-      <c r="C204" s="7"/>
-      <c r="D204" s="8"/>
+      <c r="C204" s="5"/>
+      <c r="D204" s="6"/>
     </row>
     <row r="205">
-      <c r="C205" s="7"/>
-      <c r="D205" s="8"/>
+      <c r="C205" s="5"/>
+      <c r="D205" s="6"/>
     </row>
     <row r="206">
-      <c r="C206" s="7"/>
-      <c r="D206" s="8"/>
+      <c r="C206" s="5"/>
+      <c r="D206" s="6"/>
     </row>
     <row r="207">
-      <c r="C207" s="7"/>
-      <c r="D207" s="8"/>
+      <c r="C207" s="5"/>
+      <c r="D207" s="6"/>
     </row>
     <row r="208">
-      <c r="C208" s="7"/>
-      <c r="D208" s="8"/>
+      <c r="C208" s="5"/>
+      <c r="D208" s="6"/>
     </row>
     <row r="209">
-      <c r="C209" s="7"/>
-      <c r="D209" s="8"/>
+      <c r="C209" s="5"/>
+      <c r="D209" s="6"/>
     </row>
     <row r="210">
-      <c r="C210" s="7"/>
-      <c r="D210" s="8"/>
+      <c r="C210" s="5"/>
+      <c r="D210" s="6"/>
     </row>
     <row r="211">
-      <c r="C211" s="7"/>
-      <c r="D211" s="8"/>
+      <c r="C211" s="5"/>
+      <c r="D211" s="6"/>
     </row>
     <row r="212">
-      <c r="C212" s="7"/>
-      <c r="D212" s="8"/>
+      <c r="C212" s="5"/>
+      <c r="D212" s="6"/>
     </row>
     <row r="213">
-      <c r="C213" s="7"/>
-      <c r="D213" s="8"/>
+      <c r="C213" s="5"/>
+      <c r="D213" s="6"/>
     </row>
     <row r="214">
-      <c r="C214" s="7"/>
-      <c r="D214" s="8"/>
+      <c r="C214" s="5"/>
+      <c r="D214" s="6"/>
     </row>
     <row r="215">
-      <c r="C215" s="7"/>
-      <c r="D215" s="8"/>
+      <c r="C215" s="5"/>
+      <c r="D215" s="6"/>
     </row>
     <row r="216">
-      <c r="C216" s="7"/>
-      <c r="D216" s="8"/>
+      <c r="C216" s="5"/>
+      <c r="D216" s="6"/>
     </row>
     <row r="217">
-      <c r="C217" s="7"/>
-      <c r="D217" s="8"/>
+      <c r="C217" s="5"/>
+      <c r="D217" s="6"/>
     </row>
     <row r="218">
-      <c r="C218" s="7"/>
-      <c r="D218" s="8"/>
+      <c r="C218" s="5"/>
+      <c r="D218" s="6"/>
     </row>
     <row r="219">
-      <c r="C219" s="7"/>
-      <c r="D219" s="8"/>
+      <c r="C219" s="5"/>
+      <c r="D219" s="6"/>
     </row>
     <row r="220">
-      <c r="C220" s="7"/>
-      <c r="D220" s="8"/>
+      <c r="C220" s="5"/>
+      <c r="D220" s="6"/>
     </row>
     <row r="221">
-      <c r="C221" s="7"/>
-      <c r="D221" s="8"/>
+      <c r="C221" s="5"/>
+      <c r="D221" s="6"/>
     </row>
     <row r="222">
-      <c r="C222" s="7"/>
-      <c r="D222" s="8"/>
+      <c r="C222" s="5"/>
+      <c r="D222" s="6"/>
     </row>
     <row r="223">
-      <c r="C223" s="7"/>
-      <c r="D223" s="8"/>
+      <c r="C223" s="5"/>
+      <c r="D223" s="6"/>
     </row>
     <row r="224">
-      <c r="C224" s="7"/>
-      <c r="D224" s="8"/>
+      <c r="C224" s="5"/>
+      <c r="D224" s="6"/>
     </row>
     <row r="225">
-      <c r="C225" s="7"/>
-      <c r="D225" s="8"/>
+      <c r="C225" s="5"/>
+      <c r="D225" s="6"/>
     </row>
     <row r="226">
-      <c r="C226" s="7"/>
-      <c r="D226" s="8"/>
+      <c r="C226" s="5"/>
+      <c r="D226" s="6"/>
     </row>
     <row r="227">
-      <c r="C227" s="7"/>
-      <c r="D227" s="8"/>
+      <c r="C227" s="5"/>
+      <c r="D227" s="6"/>
     </row>
     <row r="228">
-      <c r="C228" s="7"/>
-      <c r="D228" s="8"/>
+      <c r="C228" s="5"/>
+      <c r="D228" s="6"/>
     </row>
     <row r="229">
-      <c r="C229" s="7"/>
-      <c r="D229" s="8"/>
+      <c r="C229" s="5"/>
+      <c r="D229" s="6"/>
     </row>
     <row r="230">
-      <c r="C230" s="7"/>
-      <c r="D230" s="8"/>
+      <c r="C230" s="5"/>
+      <c r="D230" s="6"/>
     </row>
     <row r="231">
-      <c r="C231" s="7"/>
-      <c r="D231" s="8"/>
+      <c r="C231" s="5"/>
+      <c r="D231" s="6"/>
     </row>
     <row r="232">
-      <c r="C232" s="7"/>
-      <c r="D232" s="8"/>
+      <c r="C232" s="5"/>
+      <c r="D232" s="6"/>
     </row>
     <row r="233">
-      <c r="C233" s="7"/>
-      <c r="D233" s="8"/>
+      <c r="C233" s="5"/>
+      <c r="D233" s="6"/>
     </row>
     <row r="234">
-      <c r="C234" s="7"/>
-      <c r="D234" s="8"/>
+      <c r="C234" s="5"/>
+      <c r="D234" s="6"/>
     </row>
     <row r="235">
-      <c r="C235" s="7"/>
-      <c r="D235" s="8"/>
+      <c r="C235" s="5"/>
+      <c r="D235" s="6"/>
     </row>
     <row r="236">
-      <c r="C236" s="7"/>
-      <c r="D236" s="8"/>
+      <c r="C236" s="5"/>
+      <c r="D236" s="6"/>
     </row>
     <row r="237">
-      <c r="C237" s="7"/>
-      <c r="D237" s="8"/>
+      <c r="C237" s="5"/>
+      <c r="D237" s="6"/>
     </row>
     <row r="238">
-      <c r="C238" s="7"/>
-      <c r="D238" s="8"/>
+      <c r="C238" s="5"/>
+      <c r="D238" s="6"/>
     </row>
     <row r="239">
-      <c r="C239" s="7"/>
-      <c r="D239" s="8"/>
+      <c r="C239" s="5"/>
+      <c r="D239" s="6"/>
     </row>
     <row r="240">
-      <c r="C240" s="7"/>
-      <c r="D240" s="8"/>
+      <c r="C240" s="5"/>
+      <c r="D240" s="6"/>
     </row>
     <row r="241">
-      <c r="C241" s="7"/>
-      <c r="D241" s="8"/>
+      <c r="C241" s="5"/>
+      <c r="D241" s="6"/>
     </row>
     <row r="242">
-      <c r="C242" s="7"/>
-      <c r="D242" s="8"/>
+      <c r="C242" s="5"/>
+      <c r="D242" s="6"/>
     </row>
     <row r="243">
-      <c r="C243" s="7"/>
-      <c r="D243" s="8"/>
+      <c r="C243" s="5"/>
+      <c r="D243" s="6"/>
     </row>
     <row r="244">
-      <c r="C244" s="7"/>
-      <c r="D244" s="8"/>
+      <c r="C244" s="5"/>
+      <c r="D244" s="6"/>
     </row>
     <row r="245">
-      <c r="C245" s="7"/>
-      <c r="D245" s="8"/>
+      <c r="C245" s="5"/>
+      <c r="D245" s="6"/>
     </row>
     <row r="246">
-      <c r="C246" s="7"/>
-      <c r="D246" s="8"/>
+      <c r="C246" s="5"/>
+      <c r="D246" s="6"/>
     </row>
     <row r="247">
-      <c r="C247" s="7"/>
-      <c r="D247" s="8"/>
+      <c r="C247" s="5"/>
+      <c r="D247" s="6"/>
     </row>
     <row r="248">
-      <c r="C248" s="7"/>
-      <c r="D248" s="8"/>
+      <c r="C248" s="5"/>
+      <c r="D248" s="6"/>
     </row>
     <row r="249">
-      <c r="C249" s="7"/>
-      <c r="D249" s="8"/>
+      <c r="C249" s="5"/>
+      <c r="D249" s="6"/>
     </row>
     <row r="250">
-      <c r="C250" s="7"/>
-      <c r="D250" s="8"/>
+      <c r="C250" s="5"/>
+      <c r="D250" s="6"/>
     </row>
     <row r="251">
-      <c r="C251" s="7"/>
-      <c r="D251" s="8"/>
+      <c r="C251" s="5"/>
+      <c r="D251" s="6"/>
     </row>
     <row r="252">
-      <c r="C252" s="7"/>
-      <c r="D252" s="8"/>
+      <c r="C252" s="5"/>
+      <c r="D252" s="6"/>
     </row>
     <row r="253">
-      <c r="C253" s="7"/>
-      <c r="D253" s="8"/>
+      <c r="C253" s="5"/>
+      <c r="D253" s="6"/>
     </row>
     <row r="254">
-      <c r="C254" s="7"/>
-      <c r="D254" s="8"/>
+      <c r="C254" s="5"/>
+      <c r="D254" s="6"/>
     </row>
     <row r="255">
-      <c r="C255" s="7"/>
-      <c r="D255" s="8"/>
+      <c r="C255" s="5"/>
+      <c r="D255" s="6"/>
     </row>
     <row r="256">
-      <c r="C256" s="7"/>
-      <c r="D256" s="8"/>
+      <c r="C256" s="5"/>
+      <c r="D256" s="6"/>
     </row>
     <row r="257">
-      <c r="C257" s="7"/>
-      <c r="D257" s="8"/>
+      <c r="C257" s="5"/>
+      <c r="D257" s="6"/>
     </row>
     <row r="258">
-      <c r="C258" s="7"/>
-      <c r="D258" s="8"/>
+      <c r="C258" s="5"/>
+      <c r="D258" s="6"/>
     </row>
     <row r="259">
-      <c r="C259" s="7"/>
-      <c r="D259" s="8"/>
+      <c r="C259" s="5"/>
+      <c r="D259" s="6"/>
     </row>
     <row r="260">
-      <c r="C260" s="7"/>
-      <c r="D260" s="8"/>
+      <c r="C260" s="5"/>
+      <c r="D260" s="6"/>
     </row>
     <row r="261">
-      <c r="C261" s="7"/>
-      <c r="D261" s="8"/>
+      <c r="C261" s="5"/>
+      <c r="D261" s="6"/>
     </row>
     <row r="262">
-      <c r="C262" s="7"/>
-      <c r="D262" s="8"/>
+      <c r="C262" s="5"/>
+      <c r="D262" s="6"/>
     </row>
     <row r="263">
-      <c r="C263" s="7"/>
-      <c r="D263" s="8"/>
+      <c r="C263" s="5"/>
+      <c r="D263" s="6"/>
     </row>
     <row r="264">
-      <c r="C264" s="7"/>
-      <c r="D264" s="8"/>
+      <c r="C264" s="5"/>
+      <c r="D264" s="6"/>
     </row>
     <row r="265">
-      <c r="C265" s="7"/>
-      <c r="D265" s="8"/>
+      <c r="C265" s="5"/>
+      <c r="D265" s="6"/>
     </row>
     <row r="266">
-      <c r="C266" s="7"/>
-      <c r="D266" s="8"/>
+      <c r="C266" s="5"/>
+      <c r="D266" s="6"/>
     </row>
     <row r="267">
-      <c r="C267" s="7"/>
-      <c r="D267" s="8"/>
+      <c r="C267" s="5"/>
+      <c r="D267" s="6"/>
     </row>
     <row r="268">
-      <c r="C268" s="7"/>
-      <c r="D268" s="8"/>
+      <c r="C268" s="5"/>
+      <c r="D268" s="6"/>
     </row>
     <row r="269">
-      <c r="C269" s="7"/>
-      <c r="D269" s="8"/>
+      <c r="C269" s="5"/>
+      <c r="D269" s="6"/>
     </row>
     <row r="270">
-      <c r="C270" s="7"/>
-      <c r="D270" s="8"/>
+      <c r="C270" s="5"/>
+      <c r="D270" s="6"/>
     </row>
     <row r="271">
-      <c r="C271" s="7"/>
-      <c r="D271" s="8"/>
+      <c r="C271" s="5"/>
+      <c r="D271" s="6"/>
     </row>
     <row r="272">
-      <c r="C272" s="7"/>
-      <c r="D272" s="8"/>
+      <c r="C272" s="5"/>
+      <c r="D272" s="6"/>
     </row>
     <row r="273">
-      <c r="C273" s="7"/>
-      <c r="D273" s="8"/>
+      <c r="C273" s="5"/>
+      <c r="D273" s="6"/>
     </row>
     <row r="274">
-      <c r="C274" s="7"/>
-      <c r="D274" s="8"/>
+      <c r="C274" s="5"/>
+      <c r="D274" s="6"/>
     </row>
     <row r="275">
-      <c r="C275" s="7"/>
-      <c r="D275" s="8"/>
+      <c r="C275" s="5"/>
+      <c r="D275" s="6"/>
     </row>
     <row r="276">
-      <c r="C276" s="7"/>
-      <c r="D276" s="8"/>
+      <c r="C276" s="5"/>
+      <c r="D276" s="6"/>
     </row>
     <row r="277">
-      <c r="C277" s="7"/>
-      <c r="D277" s="8"/>
+      <c r="C277" s="5"/>
+      <c r="D277" s="6"/>
     </row>
     <row r="278">
-      <c r="C278" s="7"/>
-      <c r="D278" s="8"/>
+      <c r="C278" s="5"/>
+      <c r="D278" s="6"/>
     </row>
     <row r="279">
-      <c r="C279" s="7"/>
-      <c r="D279" s="8"/>
+      <c r="C279" s="5"/>
+      <c r="D279" s="6"/>
     </row>
     <row r="280">
-      <c r="C280" s="7"/>
-      <c r="D280" s="8"/>
+      <c r="C280" s="5"/>
+      <c r="D280" s="6"/>
     </row>
     <row r="281">
-      <c r="C281" s="7"/>
-      <c r="D281" s="8"/>
+      <c r="C281" s="5"/>
+      <c r="D281" s="6"/>
     </row>
     <row r="282">
-      <c r="C282" s="7"/>
-      <c r="D282" s="8"/>
+      <c r="C282" s="5"/>
+      <c r="D282" s="6"/>
     </row>
     <row r="283">
-      <c r="C283" s="7"/>
-      <c r="D283" s="8"/>
+      <c r="C283" s="5"/>
+      <c r="D283" s="6"/>
     </row>
     <row r="284">
-      <c r="C284" s="7"/>
-      <c r="D284" s="8"/>
+      <c r="C284" s="5"/>
+      <c r="D284" s="6"/>
     </row>
     <row r="285">
-      <c r="C285" s="7"/>
-      <c r="D285" s="8"/>
+      <c r="C285" s="5"/>
+      <c r="D285" s="6"/>
     </row>
     <row r="286">
-      <c r="C286" s="7"/>
-      <c r="D286" s="8"/>
+      <c r="C286" s="5"/>
+      <c r="D286" s="6"/>
     </row>
     <row r="287">
-      <c r="C287" s="7"/>
-      <c r="D287" s="8"/>
+      <c r="C287" s="5"/>
+      <c r="D287" s="6"/>
     </row>
     <row r="288">
-      <c r="C288" s="7"/>
-      <c r="D288" s="8"/>
+      <c r="C288" s="5"/>
+      <c r="D288" s="6"/>
     </row>
     <row r="289">
-      <c r="C289" s="7"/>
-      <c r="D289" s="8"/>
+      <c r="C289" s="5"/>
+      <c r="D289" s="6"/>
     </row>
     <row r="290">
-      <c r="C290" s="7"/>
-      <c r="D290" s="8"/>
+      <c r="C290" s="5"/>
+      <c r="D290" s="6"/>
     </row>
     <row r="291">
-      <c r="C291" s="7"/>
-      <c r="D291" s="8"/>
+      <c r="C291" s="5"/>
+      <c r="D291" s="6"/>
     </row>
     <row r="292">
-      <c r="C292" s="7"/>
-      <c r="D292" s="8"/>
+      <c r="C292" s="5"/>
+      <c r="D292" s="6"/>
     </row>
     <row r="293">
-      <c r="C293" s="7"/>
-      <c r="D293" s="8"/>
+      <c r="C293" s="5"/>
+      <c r="D293" s="6"/>
     </row>
     <row r="294">
-      <c r="C294" s="7"/>
-      <c r="D294" s="8"/>
+      <c r="C294" s="5"/>
+      <c r="D294" s="6"/>
     </row>
     <row r="295">
-      <c r="C295" s="7"/>
-      <c r="D295" s="8"/>
+      <c r="C295" s="5"/>
+      <c r="D295" s="6"/>
     </row>
     <row r="296">
-      <c r="C296" s="7"/>
-      <c r="D296" s="8"/>
+      <c r="C296" s="5"/>
+      <c r="D296" s="6"/>
     </row>
     <row r="297">
-      <c r="C297" s="7"/>
-      <c r="D297" s="8"/>
+      <c r="C297" s="5"/>
+      <c r="D297" s="6"/>
     </row>
     <row r="298">
-      <c r="C298" s="7"/>
-      <c r="D298" s="8"/>
+      <c r="C298" s="5"/>
+      <c r="D298" s="6"/>
     </row>
     <row r="299">
-      <c r="C299" s="7"/>
-      <c r="D299" s="8"/>
+      <c r="C299" s="5"/>
+      <c r="D299" s="6"/>
     </row>
     <row r="300">
-      <c r="C300" s="7"/>
-      <c r="D300" s="8"/>
+      <c r="C300" s="5"/>
+      <c r="D300" s="6"/>
     </row>
     <row r="301">
-      <c r="C301" s="7"/>
-      <c r="D301" s="8"/>
+      <c r="C301" s="5"/>
+      <c r="D301" s="6"/>
     </row>
     <row r="302">
-      <c r="C302" s="7"/>
-      <c r="D302" s="8"/>
+      <c r="C302" s="5"/>
+      <c r="D302" s="6"/>
     </row>
     <row r="303">
-      <c r="C303" s="7"/>
-      <c r="D303" s="8"/>
+      <c r="C303" s="5"/>
+      <c r="D303" s="6"/>
     </row>
     <row r="304">
-      <c r="C304" s="7"/>
-      <c r="D304" s="8"/>
+      <c r="C304" s="5"/>
+      <c r="D304" s="6"/>
     </row>
     <row r="305">
-      <c r="C305" s="7"/>
-      <c r="D305" s="8"/>
+      <c r="C305" s="5"/>
+      <c r="D305" s="6"/>
     </row>
     <row r="306">
-      <c r="C306" s="7"/>
-      <c r="D306" s="8"/>
+      <c r="C306" s="5"/>
+      <c r="D306" s="6"/>
     </row>
     <row r="307">
-      <c r="C307" s="7"/>
-      <c r="D307" s="8"/>
+      <c r="C307" s="5"/>
+      <c r="D307" s="6"/>
     </row>
     <row r="308">
-      <c r="C308" s="7"/>
-      <c r="D308" s="8"/>
+      <c r="C308" s="5"/>
+      <c r="D308" s="6"/>
     </row>
     <row r="309">
-      <c r="C309" s="7"/>
-      <c r="D309" s="8"/>
+      <c r="C309" s="5"/>
+      <c r="D309" s="6"/>
     </row>
     <row r="310">
-      <c r="C310" s="7"/>
-      <c r="D310" s="8"/>
+      <c r="C310" s="5"/>
+      <c r="D310" s="6"/>
     </row>
     <row r="311">
-      <c r="C311" s="7"/>
-      <c r="D311" s="8"/>
+      <c r="C311" s="5"/>
+      <c r="D311" s="6"/>
     </row>
     <row r="312">
-      <c r="C312" s="7"/>
-      <c r="D312" s="8"/>
+      <c r="C312" s="5"/>
+      <c r="D312" s="6"/>
     </row>
     <row r="313">
-      <c r="C313" s="7"/>
-      <c r="D313" s="8"/>
+      <c r="C313" s="5"/>
+      <c r="D313" s="6"/>
     </row>
     <row r="314">
-      <c r="C314" s="7"/>
-      <c r="D314" s="8"/>
+      <c r="C314" s="5"/>
+      <c r="D314" s="6"/>
     </row>
     <row r="315">
-      <c r="C315" s="7"/>
-      <c r="D315" s="8"/>
+      <c r="C315" s="5"/>
+      <c r="D315" s="6"/>
     </row>
     <row r="316">
-      <c r="C316" s="7"/>
-      <c r="D316" s="8"/>
+      <c r="C316" s="5"/>
+      <c r="D316" s="6"/>
     </row>
     <row r="317">
-      <c r="C317" s="7"/>
-      <c r="D317" s="8"/>
+      <c r="C317" s="5"/>
+      <c r="D317" s="6"/>
     </row>
     <row r="318">
-      <c r="C318" s="7"/>
-      <c r="D318" s="8"/>
+      <c r="C318" s="5"/>
+      <c r="D318" s="6"/>
     </row>
     <row r="319">
-      <c r="C319" s="7"/>
-      <c r="D319" s="8"/>
+      <c r="C319" s="5"/>
+      <c r="D319" s="6"/>
     </row>
     <row r="320">
-      <c r="C320" s="7"/>
-      <c r="D320" s="8"/>
+      <c r="C320" s="5"/>
+      <c r="D320" s="6"/>
     </row>
     <row r="321">
-      <c r="C321" s="7"/>
-      <c r="D321" s="8"/>
+      <c r="C321" s="5"/>
+      <c r="D321" s="6"/>
     </row>
     <row r="322">
-      <c r="C322" s="7"/>
-      <c r="D322" s="8"/>
+      <c r="C322" s="5"/>
+      <c r="D322" s="6"/>
     </row>
     <row r="323">
-      <c r="C323" s="7"/>
-      <c r="D323" s="8"/>
+      <c r="C323" s="5"/>
+      <c r="D323" s="6"/>
     </row>
     <row r="324">
-      <c r="C324" s="7"/>
-      <c r="D324" s="8"/>
+      <c r="C324" s="5"/>
+      <c r="D324" s="6"/>
     </row>
     <row r="325">
-      <c r="C325" s="7"/>
-      <c r="D325" s="8"/>
+      <c r="C325" s="5"/>
+      <c r="D325" s="6"/>
     </row>
     <row r="326">
-      <c r="C326" s="7"/>
-      <c r="D326" s="8"/>
+      <c r="C326" s="5"/>
+      <c r="D326" s="6"/>
     </row>
     <row r="327">
-      <c r="C327" s="7"/>
-      <c r="D327" s="8"/>
+      <c r="C327" s="5"/>
+      <c r="D327" s="6"/>
     </row>
     <row r="328">
-      <c r="C328" s="7"/>
-      <c r="D328" s="8"/>
+      <c r="C328" s="5"/>
+      <c r="D328" s="6"/>
     </row>
     <row r="329">
-      <c r="C329" s="7"/>
-      <c r="D329" s="8"/>
+      <c r="C329" s="5"/>
+      <c r="D329" s="6"/>
     </row>
     <row r="330">
-      <c r="C330" s="7"/>
-      <c r="D330" s="8"/>
+      <c r="C330" s="5"/>
+      <c r="D330" s="6"/>
     </row>
     <row r="331">
-      <c r="C331" s="7"/>
-      <c r="D331" s="8"/>
+      <c r="C331" s="5"/>
+      <c r="D331" s="6"/>
     </row>
     <row r="332">
-      <c r="C332" s="7"/>
-      <c r="D332" s="8"/>
+      <c r="C332" s="5"/>
+      <c r="D332" s="6"/>
     </row>
     <row r="333">
-      <c r="C333" s="7"/>
-      <c r="D333" s="8"/>
+      <c r="C333" s="5"/>
+      <c r="D333" s="6"/>
     </row>
     <row r="334">
-      <c r="C334" s="7"/>
-      <c r="D334" s="8"/>
+      <c r="C334" s="5"/>
+      <c r="D334" s="6"/>
     </row>
     <row r="335">
-      <c r="C335" s="7"/>
-      <c r="D335" s="8"/>
+      <c r="C335" s="5"/>
+      <c r="D335" s="6"/>
     </row>
     <row r="336">
-      <c r="C336" s="7"/>
-      <c r="D336" s="8"/>
+      <c r="C336" s="5"/>
+      <c r="D336" s="6"/>
     </row>
     <row r="337">
-      <c r="C337" s="7"/>
-      <c r="D337" s="8"/>
+      <c r="C337" s="5"/>
+      <c r="D337" s="6"/>
     </row>
     <row r="338">
-      <c r="C338" s="7"/>
-      <c r="D338" s="8"/>
+      <c r="C338" s="5"/>
+      <c r="D338" s="6"/>
     </row>
     <row r="339">
-      <c r="C339" s="7"/>
-      <c r="D339" s="8"/>
+      <c r="C339" s="5"/>
+      <c r="D339" s="6"/>
     </row>
     <row r="340">
-      <c r="C340" s="7"/>
-      <c r="D340" s="8"/>
+      <c r="C340" s="5"/>
+      <c r="D340" s="6"/>
     </row>
     <row r="341">
-      <c r="C341" s="7"/>
-      <c r="D341" s="8"/>
+      <c r="C341" s="5"/>
+      <c r="D341" s="6"/>
     </row>
     <row r="342">
-      <c r="C342" s="7"/>
-      <c r="D342" s="8"/>
+      <c r="C342" s="5"/>
+      <c r="D342" s="6"/>
     </row>
     <row r="343">
-      <c r="C343" s="7"/>
-      <c r="D343" s="8"/>
+      <c r="C343" s="5"/>
+      <c r="D343" s="6"/>
     </row>
     <row r="344">
-      <c r="C344" s="7"/>
-      <c r="D344" s="8"/>
+      <c r="C344" s="5"/>
+      <c r="D344" s="6"/>
     </row>
     <row r="345">
-      <c r="C345" s="7"/>
-      <c r="D345" s="8"/>
+      <c r="C345" s="5"/>
+      <c r="D345" s="6"/>
     </row>
     <row r="346">
-      <c r="C346" s="7"/>
-      <c r="D346" s="8"/>
+      <c r="C346" s="5"/>
+      <c r="D346" s="6"/>
     </row>
     <row r="347">
-      <c r="C347" s="7"/>
-      <c r="D347" s="8"/>
+      <c r="C347" s="5"/>
+      <c r="D347" s="6"/>
     </row>
     <row r="348">
-      <c r="C348" s="7"/>
-      <c r="D348" s="8"/>
+      <c r="C348" s="5"/>
+      <c r="D348" s="6"/>
     </row>
     <row r="349">
-      <c r="C349" s="7"/>
-      <c r="D349" s="8"/>
+      <c r="C349" s="5"/>
+      <c r="D349" s="6"/>
     </row>
     <row r="350">
-      <c r="C350" s="7"/>
-      <c r="D350" s="8"/>
+      <c r="C350" s="5"/>
+      <c r="D350" s="6"/>
     </row>
     <row r="351">
-      <c r="C351" s="7"/>
-      <c r="D351" s="8"/>
+      <c r="C351" s="5"/>
+      <c r="D351" s="6"/>
     </row>
     <row r="352">
-      <c r="C352" s="7"/>
-      <c r="D352" s="8"/>
+      <c r="C352" s="5"/>
+      <c r="D352" s="6"/>
     </row>
     <row r="353">
-      <c r="C353" s="7"/>
-      <c r="D353" s="8"/>
+      <c r="C353" s="5"/>
+      <c r="D353" s="6"/>
     </row>
     <row r="354">
-      <c r="C354" s="7"/>
-      <c r="D354" s="8"/>
+      <c r="C354" s="5"/>
+      <c r="D354" s="6"/>
     </row>
     <row r="355">
-      <c r="C355" s="7"/>
-      <c r="D355" s="8"/>
+      <c r="C355" s="5"/>
+      <c r="D355" s="6"/>
     </row>
     <row r="356">
-      <c r="C356" s="7"/>
-      <c r="D356" s="8"/>
+      <c r="C356" s="5"/>
+      <c r="D356" s="6"/>
     </row>
     <row r="357">
-      <c r="C357" s="7"/>
-      <c r="D357" s="8"/>
+      <c r="C357" s="5"/>
+      <c r="D357" s="6"/>
     </row>
     <row r="358">
-      <c r="C358" s="7"/>
-      <c r="D358" s="8"/>
+      <c r="C358" s="5"/>
+      <c r="D358" s="6"/>
     </row>
     <row r="359">
-      <c r="C359" s="7"/>
-      <c r="D359" s="8"/>
+      <c r="C359" s="5"/>
+      <c r="D359" s="6"/>
     </row>
     <row r="360">
-      <c r="C360" s="7"/>
-      <c r="D360" s="8"/>
+      <c r="C360" s="5"/>
+      <c r="D360" s="6"/>
     </row>
     <row r="361">
-      <c r="C361" s="7"/>
-      <c r="D361" s="8"/>
+      <c r="C361" s="5"/>
+      <c r="D361" s="6"/>
     </row>
     <row r="362">
-      <c r="C362" s="7"/>
-      <c r="D362" s="8"/>
+      <c r="C362" s="5"/>
+      <c r="D362" s="6"/>
     </row>
     <row r="363">
-      <c r="C363" s="7"/>
-      <c r="D363" s="8"/>
+      <c r="C363" s="5"/>
+      <c r="D363" s="6"/>
     </row>
     <row r="364">
-      <c r="C364" s="7"/>
-      <c r="D364" s="8"/>
+      <c r="C364" s="5"/>
+      <c r="D364" s="6"/>
     </row>
     <row r="365">
-      <c r="C365" s="7"/>
-      <c r="D365" s="8"/>
+      <c r="C365" s="5"/>
+      <c r="D365" s="6"/>
     </row>
     <row r="366">
-      <c r="C366" s="7"/>
-      <c r="D366" s="8"/>
+      <c r="C366" s="5"/>
+      <c r="D366" s="6"/>
     </row>
     <row r="367">
-      <c r="C367" s="7"/>
-      <c r="D367" s="8"/>
+      <c r="C367" s="5"/>
+      <c r="D367" s="6"/>
     </row>
     <row r="368">
-      <c r="C368" s="7"/>
-      <c r="D368" s="8"/>
+      <c r="C368" s="5"/>
+      <c r="D368" s="6"/>
     </row>
     <row r="369">
-      <c r="C369" s="7"/>
-      <c r="D369" s="8"/>
+      <c r="C369" s="5"/>
+      <c r="D369" s="6"/>
     </row>
     <row r="370">
-      <c r="C370" s="7"/>
-      <c r="D370" s="8"/>
+      <c r="C370" s="5"/>
+      <c r="D370" s="6"/>
     </row>
     <row r="371">
-      <c r="C371" s="7"/>
-      <c r="D371" s="8"/>
+      <c r="C371" s="5"/>
+      <c r="D371" s="6"/>
     </row>
     <row r="372">
-      <c r="C372" s="7"/>
-      <c r="D372" s="8"/>
+      <c r="C372" s="5"/>
+      <c r="D372" s="6"/>
     </row>
     <row r="373">
-      <c r="C373" s="7"/>
-      <c r="D373" s="8"/>
+      <c r="C373" s="5"/>
+      <c r="D373" s="6"/>
     </row>
     <row r="374">
-      <c r="C374" s="7"/>
-      <c r="D374" s="8"/>
+      <c r="C374" s="5"/>
+      <c r="D374" s="6"/>
     </row>
     <row r="375">
-      <c r="C375" s="7"/>
-      <c r="D375" s="8"/>
+      <c r="C375" s="5"/>
+      <c r="D375" s="6"/>
     </row>
     <row r="376">
-      <c r="C376" s="7"/>
-      <c r="D376" s="8"/>
+      <c r="C376" s="5"/>
+      <c r="D376" s="6"/>
     </row>
     <row r="377">
-      <c r="C377" s="7"/>
-      <c r="D377" s="8"/>
+      <c r="C377" s="5"/>
+      <c r="D377" s="6"/>
     </row>
     <row r="378">
-      <c r="C378" s="7"/>
-      <c r="D378" s="8"/>
+      <c r="C378" s="5"/>
+      <c r="D378" s="6"/>
     </row>
     <row r="379">
-      <c r="C379" s="7"/>
-      <c r="D379" s="8"/>
+      <c r="C379" s="5"/>
+      <c r="D379" s="6"/>
     </row>
     <row r="380">
-      <c r="C380" s="7"/>
-      <c r="D380" s="8"/>
+      <c r="C380" s="5"/>
+      <c r="D380" s="6"/>
     </row>
     <row r="381">
-      <c r="C381" s="7"/>
-      <c r="D381" s="8"/>
+      <c r="C381" s="5"/>
+      <c r="D381" s="6"/>
     </row>
     <row r="382">
-      <c r="C382" s="7"/>
-      <c r="D382" s="8"/>
+      <c r="C382" s="5"/>
+      <c r="D382" s="6"/>
     </row>
     <row r="383">
-      <c r="C383" s="7"/>
-      <c r="D383" s="8"/>
+      <c r="C383" s="5"/>
+      <c r="D383" s="6"/>
     </row>
     <row r="384">
-      <c r="C384" s="7"/>
-      <c r="D384" s="8"/>
+      <c r="C384" s="5"/>
+      <c r="D384" s="6"/>
     </row>
     <row r="385">
-      <c r="C385" s="7"/>
-      <c r="D385" s="8"/>
+      <c r="C385" s="5"/>
+      <c r="D385" s="6"/>
     </row>
     <row r="386">
-      <c r="C386" s="7"/>
-      <c r="D386" s="8"/>
+      <c r="C386" s="5"/>
+      <c r="D386" s="6"/>
     </row>
     <row r="387">
-      <c r="C387" s="7"/>
-      <c r="D387" s="8"/>
+      <c r="C387" s="5"/>
+      <c r="D387" s="6"/>
     </row>
     <row r="388">
-      <c r="C388" s="7"/>
-      <c r="D388" s="8"/>
+      <c r="C388" s="5"/>
+      <c r="D388" s="6"/>
     </row>
     <row r="389">
-      <c r="C389" s="7"/>
-      <c r="D389" s="8"/>
+      <c r="C389" s="5"/>
+      <c r="D389" s="6"/>
     </row>
     <row r="390">
-      <c r="C390" s="7"/>
-      <c r="D390" s="8"/>
+      <c r="C390" s="5"/>
+      <c r="D390" s="6"/>
     </row>
     <row r="391">
-      <c r="C391" s="7"/>
-      <c r="D391" s="8"/>
+      <c r="C391" s="5"/>
+      <c r="D391" s="6"/>
     </row>
     <row r="392">
-      <c r="C392" s="7"/>
-      <c r="D392" s="8"/>
+      <c r="C392" s="5"/>
+      <c r="D392" s="6"/>
     </row>
     <row r="393">
-      <c r="C393" s="7"/>
-      <c r="D393" s="8"/>
+      <c r="C393" s="5"/>
+      <c r="D393" s="6"/>
     </row>
     <row r="394">
-      <c r="C394" s="7"/>
-      <c r="D394" s="8"/>
+      <c r="C394" s="5"/>
+      <c r="D394" s="6"/>
     </row>
     <row r="395">
-      <c r="C395" s="7"/>
-      <c r="D395" s="8"/>
+      <c r="C395" s="5"/>
+      <c r="D395" s="6"/>
     </row>
     <row r="396">
-      <c r="C396" s="7"/>
-      <c r="D396" s="8"/>
+      <c r="C396" s="5"/>
+      <c r="D396" s="6"/>
     </row>
     <row r="397">
-      <c r="C397" s="7"/>
-      <c r="D397" s="8"/>
+      <c r="C397" s="5"/>
+      <c r="D397" s="6"/>
     </row>
     <row r="398">
-      <c r="C398" s="7"/>
-      <c r="D398" s="8"/>
+      <c r="C398" s="5"/>
+      <c r="D398" s="6"/>
     </row>
     <row r="399">
-      <c r="C399" s="7"/>
-      <c r="D399" s="8"/>
+      <c r="C399" s="5"/>
+      <c r="D399" s="6"/>
     </row>
     <row r="400">
-      <c r="C400" s="7"/>
-      <c r="D400" s="8"/>
+      <c r="C400" s="5"/>
+      <c r="D400" s="6"/>
     </row>
     <row r="401">
-      <c r="C401" s="7"/>
-      <c r="D401" s="8"/>
+      <c r="C401" s="5"/>
+      <c r="D401" s="6"/>
     </row>
     <row r="402">
-      <c r="C402" s="7"/>
-      <c r="D402" s="8"/>
+      <c r="C402" s="5"/>
+      <c r="D402" s="6"/>
     </row>
     <row r="403">
-      <c r="C403" s="7"/>
-      <c r="D403" s="8"/>
+      <c r="C403" s="5"/>
+      <c r="D403" s="6"/>
     </row>
     <row r="404">
-      <c r="C404" s="7"/>
-      <c r="D404" s="8"/>
+      <c r="C404" s="5"/>
+      <c r="D404" s="6"/>
     </row>
     <row r="405">
-      <c r="C405" s="7"/>
-      <c r="D405" s="8"/>
+      <c r="C405" s="5"/>
+      <c r="D405" s="6"/>
     </row>
     <row r="406">
-      <c r="C406" s="7"/>
-      <c r="D406" s="8"/>
+      <c r="C406" s="5"/>
+      <c r="D406" s="6"/>
     </row>
     <row r="407">
-      <c r="C407" s="7"/>
-      <c r="D407" s="8"/>
+      <c r="C407" s="5"/>
+      <c r="D407" s="6"/>
     </row>
     <row r="408">
-      <c r="C408" s="7"/>
-      <c r="D408" s="8"/>
+      <c r="C408" s="5"/>
+      <c r="D408" s="6"/>
     </row>
     <row r="409">
-      <c r="C409" s="7"/>
-      <c r="D409" s="8"/>
+      <c r="C409" s="5"/>
+      <c r="D409" s="6"/>
     </row>
     <row r="410">
-      <c r="C410" s="7"/>
-      <c r="D410" s="8"/>
+      <c r="C410" s="5"/>
+      <c r="D410" s="6"/>
     </row>
     <row r="411">
-      <c r="C411" s="7"/>
-      <c r="D411" s="8"/>
+      <c r="C411" s="5"/>
+      <c r="D411" s="6"/>
     </row>
     <row r="412">
-      <c r="C412" s="7"/>
-      <c r="D412" s="8"/>
+      <c r="C412" s="5"/>
+      <c r="D412" s="6"/>
     </row>
     <row r="413">
-      <c r="C413" s="7"/>
-      <c r="D413" s="8"/>
+      <c r="C413" s="5"/>
+      <c r="D413" s="6"/>
     </row>
     <row r="414">
-      <c r="C414" s="7"/>
-      <c r="D414" s="8"/>
+      <c r="C414" s="5"/>
+      <c r="D414" s="6"/>
     </row>
     <row r="415">
-      <c r="C415" s="7"/>
-      <c r="D415" s="8"/>
+      <c r="C415" s="5"/>
+      <c r="D415" s="6"/>
     </row>
     <row r="416">
-      <c r="C416" s="7"/>
-      <c r="D416" s="8"/>
+      <c r="C416" s="5"/>
+      <c r="D416" s="6"/>
     </row>
     <row r="417">
-      <c r="C417" s="7"/>
-      <c r="D417" s="8"/>
+      <c r="C417" s="5"/>
+      <c r="D417" s="6"/>
     </row>
     <row r="418">
-      <c r="C418" s="7"/>
-      <c r="D418" s="8"/>
+      <c r="C418" s="5"/>
+      <c r="D418" s="6"/>
     </row>
     <row r="419">
-      <c r="C419" s="7"/>
-      <c r="D419" s="8"/>
+      <c r="C419" s="5"/>
+      <c r="D419" s="6"/>
     </row>
     <row r="420">
-      <c r="C420" s="7"/>
-      <c r="D420" s="8"/>
+      <c r="C420" s="5"/>
+      <c r="D420" s="6"/>
     </row>
     <row r="421">
-      <c r="C421" s="7"/>
-      <c r="D421" s="8"/>
+      <c r="C421" s="5"/>
+      <c r="D421" s="6"/>
     </row>
     <row r="422">
-      <c r="C422" s="7"/>
-      <c r="D422" s="8"/>
+      <c r="C422" s="5"/>
+      <c r="D422" s="6"/>
     </row>
     <row r="423">
-      <c r="C423" s="7"/>
-      <c r="D423" s="8"/>
+      <c r="C423" s="5"/>
+      <c r="D423" s="6"/>
     </row>
     <row r="424">
-      <c r="C424" s="7"/>
-      <c r="D424" s="8"/>
+      <c r="C424" s="5"/>
+      <c r="D424" s="6"/>
     </row>
     <row r="425">
-      <c r="C425" s="7"/>
-      <c r="D425" s="8"/>
+      <c r="C425" s="5"/>
+      <c r="D425" s="6"/>
     </row>
     <row r="426">
-      <c r="C426" s="7"/>
-      <c r="D426" s="8"/>
+      <c r="C426" s="5"/>
+      <c r="D426" s="6"/>
     </row>
     <row r="427">
-      <c r="C427" s="7"/>
-      <c r="D427" s="8"/>
+      <c r="C427" s="5"/>
+      <c r="D427" s="6"/>
     </row>
     <row r="428">
-      <c r="C428" s="7"/>
-      <c r="D428" s="8"/>
+      <c r="C428" s="5"/>
+      <c r="D428" s="6"/>
     </row>
     <row r="429">
-      <c r="C429" s="7"/>
-      <c r="D429" s="8"/>
+      <c r="C429" s="5"/>
+      <c r="D429" s="6"/>
     </row>
     <row r="430">
-      <c r="C430" s="7"/>
-      <c r="D430" s="8"/>
+      <c r="C430" s="5"/>
+      <c r="D430" s="6"/>
     </row>
     <row r="431">
-      <c r="C431" s="7"/>
-      <c r="D431" s="8"/>
+      <c r="C431" s="5"/>
+      <c r="D431" s="6"/>
     </row>
     <row r="432">
-      <c r="C432" s="7"/>
-      <c r="D432" s="8"/>
+      <c r="C432" s="5"/>
+      <c r="D432" s="6"/>
     </row>
     <row r="433">
-      <c r="C433" s="7"/>
-      <c r="D433" s="8"/>
+      <c r="C433" s="5"/>
+      <c r="D433" s="6"/>
     </row>
     <row r="434">
-      <c r="C434" s="7"/>
-      <c r="D434" s="8"/>
+      <c r="C434" s="5"/>
+      <c r="D434" s="6"/>
     </row>
     <row r="435">
-      <c r="C435" s="7"/>
-      <c r="D435" s="8"/>
+      <c r="C435" s="5"/>
+      <c r="D435" s="6"/>
     </row>
     <row r="436">
-      <c r="C436" s="7"/>
-      <c r="D436" s="8"/>
+      <c r="C436" s="5"/>
+      <c r="D436" s="6"/>
     </row>
     <row r="437">
-      <c r="C437" s="7"/>
-      <c r="D437" s="8"/>
+      <c r="C437" s="5"/>
+      <c r="D437" s="6"/>
     </row>
     <row r="438">
-      <c r="C438" s="7"/>
-      <c r="D438" s="8"/>
+      <c r="C438" s="5"/>
+      <c r="D438" s="6"/>
     </row>
     <row r="439">
-      <c r="C439" s="7"/>
-      <c r="D439" s="8"/>
+      <c r="C439" s="5"/>
+      <c r="D439" s="6"/>
     </row>
     <row r="440">
-      <c r="C440" s="7"/>
-      <c r="D440" s="8"/>
+      <c r="C440" s="5"/>
+      <c r="D440" s="6"/>
     </row>
     <row r="441">
-      <c r="C441" s="7"/>
-      <c r="D441" s="8"/>
+      <c r="C441" s="5"/>
+      <c r="D441" s="6"/>
     </row>
     <row r="442">
-      <c r="C442" s="7"/>
-      <c r="D442" s="8"/>
+      <c r="C442" s="5"/>
+      <c r="D442" s="6"/>
     </row>
     <row r="443">
-      <c r="C443" s="7"/>
-      <c r="D443" s="8"/>
+      <c r="C443" s="5"/>
+      <c r="D443" s="6"/>
     </row>
     <row r="444">
-      <c r="C444" s="7"/>
-      <c r="D444" s="8"/>
+      <c r="C444" s="5"/>
+      <c r="D444" s="6"/>
     </row>
     <row r="445">
-      <c r="C445" s="7"/>
-      <c r="D445" s="8"/>
+      <c r="C445" s="5"/>
+      <c r="D445" s="6"/>
     </row>
     <row r="446">
-      <c r="C446" s="7"/>
-      <c r="D446" s="8"/>
+      <c r="C446" s="5"/>
+      <c r="D446" s="6"/>
     </row>
     <row r="447">
-      <c r="C447" s="7"/>
-      <c r="D447" s="8"/>
+      <c r="C447" s="5"/>
+      <c r="D447" s="6"/>
     </row>
     <row r="448">
-      <c r="C448" s="7"/>
-      <c r="D448" s="8"/>
+      <c r="C448" s="5"/>
+      <c r="D448" s="6"/>
     </row>
     <row r="449">
-      <c r="C449" s="7"/>
-      <c r="D449" s="8"/>
+      <c r="C449" s="5"/>
+      <c r="D449" s="6"/>
     </row>
     <row r="450">
-      <c r="C450" s="7"/>
-      <c r="D450" s="8"/>
+      <c r="C450" s="5"/>
+      <c r="D450" s="6"/>
     </row>
     <row r="451">
-      <c r="C451" s="7"/>
-      <c r="D451" s="8"/>
+      <c r="C451" s="5"/>
+      <c r="D451" s="6"/>
     </row>
     <row r="452">
-      <c r="C452" s="7"/>
-      <c r="D452" s="8"/>
+      <c r="C452" s="5"/>
+      <c r="D452" s="6"/>
     </row>
     <row r="453">
-      <c r="C453" s="7"/>
-      <c r="D453" s="8"/>
+      <c r="C453" s="5"/>
+      <c r="D453" s="6"/>
     </row>
     <row r="454">
-      <c r="C454" s="7"/>
-      <c r="D454" s="8"/>
+      <c r="C454" s="5"/>
+      <c r="D454" s="6"/>
     </row>
     <row r="455">
-      <c r="C455" s="7"/>
-      <c r="D455" s="8"/>
+      <c r="C455" s="5"/>
+      <c r="D455" s="6"/>
     </row>
     <row r="456">
-      <c r="C456" s="7"/>
-      <c r="D456" s="8"/>
+      <c r="C456" s="5"/>
+      <c r="D456" s="6"/>
     </row>
     <row r="457">
-      <c r="C457" s="7"/>
-      <c r="D457" s="8"/>
+      <c r="C457" s="5"/>
+      <c r="D457" s="6"/>
     </row>
     <row r="458">
-      <c r="C458" s="7"/>
-      <c r="D458" s="8"/>
+      <c r="C458" s="5"/>
+      <c r="D458" s="6"/>
     </row>
     <row r="459">
-      <c r="C459" s="7"/>
-      <c r="D459" s="8"/>
+      <c r="C459" s="5"/>
+      <c r="D459" s="6"/>
     </row>
     <row r="460">
-      <c r="C460" s="7"/>
-      <c r="D460" s="8"/>
+      <c r="C460" s="5"/>
+      <c r="D460" s="6"/>
     </row>
     <row r="461">
-      <c r="C461" s="7"/>
-      <c r="D461" s="8"/>
+      <c r="C461" s="5"/>
+      <c r="D461" s="6"/>
     </row>
     <row r="462">
-      <c r="C462" s="7"/>
-      <c r="D462" s="8"/>
+      <c r="C462" s="5"/>
+      <c r="D462" s="6"/>
     </row>
     <row r="463">
-      <c r="C463" s="7"/>
-      <c r="D463" s="8"/>
+      <c r="C463" s="5"/>
+      <c r="D463" s="6"/>
     </row>
     <row r="464">
-      <c r="C464" s="7"/>
-      <c r="D464" s="8"/>
+      <c r="C464" s="5"/>
+      <c r="D464" s="6"/>
     </row>
     <row r="465">
-      <c r="C465" s="7"/>
-      <c r="D465" s="8"/>
+      <c r="C465" s="5"/>
+      <c r="D465" s="6"/>
     </row>
     <row r="466">
-      <c r="C466" s="7"/>
-      <c r="D466" s="8"/>
+      <c r="C466" s="5"/>
+      <c r="D466" s="6"/>
     </row>
     <row r="467">
-      <c r="C467" s="7"/>
-      <c r="D467" s="8"/>
+      <c r="C467" s="5"/>
+      <c r="D467" s="6"/>
     </row>
     <row r="468">
-      <c r="C468" s="7"/>
-      <c r="D468" s="8"/>
+      <c r="C468" s="5"/>
+      <c r="D468" s="6"/>
     </row>
     <row r="469">
-      <c r="C469" s="7"/>
-      <c r="D469" s="8"/>
+      <c r="C469" s="5"/>
+      <c r="D469" s="6"/>
     </row>
     <row r="470">
-      <c r="C470" s="7"/>
-      <c r="D470" s="8"/>
+      <c r="C470" s="5"/>
+      <c r="D470" s="6"/>
     </row>
     <row r="471">
-      <c r="C471" s="7"/>
-      <c r="D471" s="8"/>
+      <c r="C471" s="5"/>
+      <c r="D471" s="6"/>
     </row>
     <row r="472">
-      <c r="C472" s="7"/>
-      <c r="D472" s="8"/>
+      <c r="C472" s="5"/>
+      <c r="D472" s="6"/>
     </row>
     <row r="473">
-      <c r="C473" s="7"/>
-      <c r="D473" s="8"/>
+      <c r="C473" s="5"/>
+      <c r="D473" s="6"/>
     </row>
     <row r="474">
-      <c r="C474" s="7"/>
-      <c r="D474" s="8"/>
+      <c r="C474" s="5"/>
+      <c r="D474" s="6"/>
     </row>
     <row r="475">
-      <c r="C475" s="7"/>
-      <c r="D475" s="8"/>
+      <c r="C475" s="5"/>
+      <c r="D475" s="6"/>
     </row>
     <row r="476">
-      <c r="C476" s="7"/>
-      <c r="D476" s="8"/>
+      <c r="C476" s="5"/>
+      <c r="D476" s="6"/>
     </row>
     <row r="477">
-      <c r="C477" s="7"/>
-      <c r="D477" s="8"/>
+      <c r="C477" s="5"/>
+      <c r="D477" s="6"/>
     </row>
     <row r="478">
-      <c r="C478" s="7"/>
-      <c r="D478" s="8"/>
+      <c r="C478" s="5"/>
+      <c r="D478" s="6"/>
     </row>
     <row r="479">
-      <c r="C479" s="7"/>
-      <c r="D479" s="8"/>
+      <c r="C479" s="5"/>
+      <c r="D479" s="6"/>
     </row>
     <row r="480">
-      <c r="C480" s="7"/>
-      <c r="D480" s="8"/>
+      <c r="C480" s="5"/>
+      <c r="D480" s="6"/>
     </row>
     <row r="481">
-      <c r="C481" s="7"/>
-      <c r="D481" s="8"/>
+      <c r="C481" s="5"/>
+      <c r="D481" s="6"/>
     </row>
     <row r="482">
-      <c r="C482" s="7"/>
-      <c r="D482" s="8"/>
+      <c r="C482" s="5"/>
+      <c r="D482" s="6"/>
     </row>
     <row r="483">
-      <c r="C483" s="7"/>
-      <c r="D483" s="8"/>
+      <c r="C483" s="5"/>
+      <c r="D483" s="6"/>
     </row>
     <row r="484">
-      <c r="C484" s="7"/>
-      <c r="D484" s="8"/>
+      <c r="C484" s="5"/>
+      <c r="D484" s="6"/>
     </row>
     <row r="485">
-      <c r="C485" s="7"/>
-      <c r="D485" s="8"/>
+      <c r="C485" s="5"/>
+      <c r="D485" s="6"/>
     </row>
     <row r="486">
-      <c r="C486" s="7"/>
-      <c r="D486" s="8"/>
+      <c r="C486" s="5"/>
+      <c r="D486" s="6"/>
     </row>
     <row r="487">
-      <c r="C487" s="7"/>
-      <c r="D487" s="8"/>
+      <c r="C487" s="5"/>
+      <c r="D487" s="6"/>
     </row>
     <row r="488">
-      <c r="C488" s="7"/>
-      <c r="D488" s="8"/>
+      <c r="C488" s="5"/>
+      <c r="D488" s="6"/>
     </row>
     <row r="489">
-      <c r="C489" s="7"/>
-      <c r="D489" s="8"/>
+      <c r="C489" s="5"/>
+      <c r="D489" s="6"/>
     </row>
     <row r="490">
-      <c r="C490" s="7"/>
-      <c r="D490" s="8"/>
+      <c r="C490" s="5"/>
+      <c r="D490" s="6"/>
     </row>
     <row r="491">
-      <c r="C491" s="7"/>
-      <c r="D491" s="8"/>
+      <c r="C491" s="5"/>
+      <c r="D491" s="6"/>
     </row>
     <row r="492">
-      <c r="C492" s="7"/>
-      <c r="D492" s="8"/>
+      <c r="C492" s="5"/>
+      <c r="D492" s="6"/>
     </row>
     <row r="493">
-      <c r="C493" s="7"/>
-      <c r="D493" s="8"/>
+      <c r="C493" s="5"/>
+      <c r="D493" s="6"/>
     </row>
     <row r="494">
-      <c r="C494" s="7"/>
-      <c r="D494" s="8"/>
+      <c r="C494" s="5"/>
+      <c r="D494" s="6"/>
     </row>
     <row r="495">
-      <c r="C495" s="7"/>
-      <c r="D495" s="8"/>
+      <c r="C495" s="5"/>
+      <c r="D495" s="6"/>
     </row>
     <row r="496">
-      <c r="C496" s="7"/>
-      <c r="D496" s="8"/>
+      <c r="C496" s="5"/>
+      <c r="D496" s="6"/>
     </row>
     <row r="497">
-      <c r="C497" s="7"/>
-      <c r="D497" s="8"/>
+      <c r="C497" s="5"/>
+      <c r="D497" s="6"/>
     </row>
     <row r="498">
-      <c r="C498" s="7"/>
-      <c r="D498" s="8"/>
+      <c r="C498" s="5"/>
+      <c r="D498" s="6"/>
     </row>
     <row r="499">
-      <c r="C499" s="7"/>
-      <c r="D499" s="8"/>
+      <c r="C499" s="5"/>
+      <c r="D499" s="6"/>
     </row>
     <row r="500">
-      <c r="C500" s="7"/>
-      <c r="D500" s="8"/>
+      <c r="C500" s="5"/>
+      <c r="D500" s="6"/>
     </row>
     <row r="501">
-      <c r="C501" s="7"/>
-      <c r="D501" s="8"/>
+      <c r="C501" s="5"/>
+      <c r="D501" s="6"/>
     </row>
     <row r="502">
-      <c r="C502" s="7"/>
-      <c r="D502" s="8"/>
+      <c r="C502" s="5"/>
+      <c r="D502" s="6"/>
     </row>
     <row r="503">
-      <c r="C503" s="7"/>
-      <c r="D503" s="8"/>
+      <c r="C503" s="5"/>
+      <c r="D503" s="6"/>
     </row>
     <row r="504">
-      <c r="C504" s="7"/>
-      <c r="D504" s="8"/>
+      <c r="C504" s="5"/>
+      <c r="D504" s="6"/>
     </row>
     <row r="505">
-      <c r="C505" s="7"/>
-      <c r="D505" s="8"/>
+      <c r="C505" s="5"/>
+      <c r="D505" s="6"/>
     </row>
     <row r="506">
-      <c r="C506" s="7"/>
-      <c r="D506" s="8"/>
+      <c r="C506" s="5"/>
+      <c r="D506" s="6"/>
     </row>
     <row r="507">
-      <c r="C507" s="7"/>
-      <c r="D507" s="8"/>
+      <c r="C507" s="5"/>
+      <c r="D507" s="6"/>
     </row>
     <row r="508">
-      <c r="C508" s="7"/>
-      <c r="D508" s="8"/>
+      <c r="C508" s="5"/>
+      <c r="D508" s="6"/>
     </row>
     <row r="509">
-      <c r="C509" s="7"/>
-      <c r="D509" s="8"/>
+      <c r="C509" s="5"/>
+      <c r="D509" s="6"/>
     </row>
     <row r="510">
-      <c r="C510" s="7"/>
-      <c r="D510" s="8"/>
+      <c r="C510" s="5"/>
+      <c r="D510" s="6"/>
     </row>
     <row r="511">
-      <c r="C511" s="7"/>
-      <c r="D511" s="8"/>
+      <c r="C511" s="5"/>
+      <c r="D511" s="6"/>
     </row>
     <row r="512">
-      <c r="C512" s="7"/>
-      <c r="D512" s="8"/>
+      <c r="C512" s="5"/>
+      <c r="D512" s="6"/>
     </row>
     <row r="513">
-      <c r="C513" s="7"/>
-      <c r="D513" s="8"/>
+      <c r="C513" s="5"/>
+      <c r="D513" s="6"/>
     </row>
     <row r="514">
-      <c r="C514" s="7"/>
-      <c r="D514" s="8"/>
+      <c r="C514" s="5"/>
+      <c r="D514" s="6"/>
     </row>
     <row r="515">
-      <c r="C515" s="7"/>
-      <c r="D515" s="8"/>
+      <c r="C515" s="5"/>
+      <c r="D515" s="6"/>
     </row>
     <row r="516">
-      <c r="C516" s="7"/>
-      <c r="D516" s="8"/>
+      <c r="C516" s="5"/>
+      <c r="D516" s="6"/>
     </row>
     <row r="517">
-      <c r="C517" s="7"/>
-      <c r="D517" s="8"/>
+      <c r="C517" s="5"/>
+      <c r="D517" s="6"/>
     </row>
     <row r="518">
-      <c r="C518" s="7"/>
-      <c r="D518" s="8"/>
+      <c r="C518" s="5"/>
+      <c r="D518" s="6"/>
     </row>
     <row r="519">
-      <c r="C519" s="7"/>
-      <c r="D519" s="8"/>
+      <c r="C519" s="5"/>
+      <c r="D519" s="6"/>
     </row>
     <row r="520">
-      <c r="C520" s="7"/>
-      <c r="D520" s="8"/>
+      <c r="C520" s="5"/>
+      <c r="D520" s="6"/>
     </row>
     <row r="521">
-      <c r="C521" s="7"/>
-      <c r="D521" s="8"/>
+      <c r="C521" s="5"/>
+      <c r="D521" s="6"/>
     </row>
     <row r="522">
-      <c r="C522" s="7"/>
-      <c r="D522" s="8"/>
+      <c r="C522" s="5"/>
+      <c r="D522" s="6"/>
     </row>
     <row r="523">
-      <c r="C523" s="7"/>
-      <c r="D523" s="8"/>
+      <c r="C523" s="5"/>
+      <c r="D523" s="6"/>
     </row>
     <row r="524">
-      <c r="C524" s="7"/>
-      <c r="D524" s="8"/>
+      <c r="C524" s="5"/>
+      <c r="D524" s="6"/>
     </row>
     <row r="525">
-      <c r="C525" s="7"/>
-      <c r="D525" s="8"/>
+      <c r="C525" s="5"/>
+      <c r="D525" s="6"/>
     </row>
     <row r="526">
-      <c r="C526" s="7"/>
-      <c r="D526" s="8"/>
+      <c r="C526" s="5"/>
+      <c r="D526" s="6"/>
     </row>
     <row r="527">
-      <c r="C527" s="7"/>
-      <c r="D527" s="8"/>
+      <c r="C527" s="5"/>
+      <c r="D527" s="6"/>
     </row>
     <row r="528">
-      <c r="C528" s="7"/>
-      <c r="D528" s="8"/>
+      <c r="C528" s="5"/>
+      <c r="D528" s="6"/>
     </row>
     <row r="529">
-      <c r="C529" s="7"/>
-      <c r="D529" s="8"/>
+      <c r="C529" s="5"/>
+      <c r="D529" s="6"/>
     </row>
     <row r="530">
-      <c r="C530" s="7"/>
-      <c r="D530" s="8"/>
+      <c r="C530" s="5"/>
+      <c r="D530" s="6"/>
     </row>
     <row r="531">
-      <c r="C531" s="7"/>
-      <c r="D531" s="8"/>
+      <c r="C531" s="5"/>
+      <c r="D531" s="6"/>
     </row>
     <row r="532">
-      <c r="C532" s="7"/>
-      <c r="D532" s="8"/>
+      <c r="C532" s="5"/>
+      <c r="D532" s="6"/>
     </row>
     <row r="533">
-      <c r="C533" s="7"/>
-      <c r="D533" s="8"/>
+      <c r="C533" s="5"/>
+      <c r="D533" s="6"/>
     </row>
     <row r="534">
-      <c r="C534" s="7"/>
-      <c r="D534" s="8"/>
+      <c r="C534" s="5"/>
+      <c r="D534" s="6"/>
     </row>
     <row r="535">
-      <c r="C535" s="7"/>
-      <c r="D535" s="8"/>
+      <c r="C535" s="5"/>
+      <c r="D535" s="6"/>
     </row>
     <row r="536">
-      <c r="C536" s="7"/>
-      <c r="D536" s="8"/>
+      <c r="C536" s="5"/>
+      <c r="D536" s="6"/>
     </row>
     <row r="537">
-      <c r="C537" s="7"/>
-      <c r="D537" s="8"/>
+      <c r="C537" s="5"/>
+      <c r="D537" s="6"/>
     </row>
     <row r="538">
-      <c r="C538" s="7"/>
-      <c r="D538" s="8"/>
+      <c r="C538" s="5"/>
+      <c r="D538" s="6"/>
     </row>
     <row r="539">
-      <c r="C539" s="7"/>
-      <c r="D539" s="8"/>
+      <c r="C539" s="5"/>
+      <c r="D539" s="6"/>
     </row>
     <row r="540">
-      <c r="C540" s="7"/>
-      <c r="D540" s="8"/>
+      <c r="C540" s="5"/>
+      <c r="D540" s="6"/>
     </row>
     <row r="541">
-      <c r="C541" s="7"/>
-      <c r="D541" s="8"/>
+      <c r="C541" s="5"/>
+      <c r="D541" s="6"/>
     </row>
     <row r="542">
-      <c r="C542" s="7"/>
-      <c r="D542" s="8"/>
+      <c r="C542" s="5"/>
+      <c r="D542" s="6"/>
     </row>
     <row r="543">
-      <c r="C543" s="7"/>
-      <c r="D543" s="8"/>
+      <c r="C543" s="5"/>
+      <c r="D543" s="6"/>
     </row>
     <row r="544">
-      <c r="C544" s="7"/>
-      <c r="D544" s="8"/>
+      <c r="C544" s="5"/>
+      <c r="D544" s="6"/>
     </row>
     <row r="545">
-      <c r="C545" s="7"/>
-      <c r="D545" s="8"/>
+      <c r="C545" s="5"/>
+      <c r="D545" s="6"/>
     </row>
     <row r="546">
-      <c r="C546" s="7"/>
-      <c r="D546" s="8"/>
+      <c r="C546" s="5"/>
+      <c r="D546" s="6"/>
     </row>
     <row r="547">
-      <c r="C547" s="7"/>
-      <c r="D547" s="8"/>
+      <c r="C547" s="5"/>
+      <c r="D547" s="6"/>
     </row>
     <row r="548">
-      <c r="C548" s="7"/>
-      <c r="D548" s="8"/>
+      <c r="C548" s="5"/>
+      <c r="D548" s="6"/>
     </row>
     <row r="549">
-      <c r="C549" s="7"/>
-      <c r="D549" s="8"/>
+      <c r="C549" s="5"/>
+      <c r="D549" s="6"/>
     </row>
     <row r="550">
-      <c r="C550" s="7"/>
-      <c r="D550" s="8"/>
+      <c r="C550" s="5"/>
+      <c r="D550" s="6"/>
     </row>
     <row r="551">
-      <c r="C551" s="7"/>
-      <c r="D551" s="8"/>
+      <c r="C551" s="5"/>
+      <c r="D551" s="6"/>
     </row>
     <row r="552">
-      <c r="C552" s="7"/>
-      <c r="D552" s="8"/>
+      <c r="C552" s="5"/>
+      <c r="D552" s="6"/>
     </row>
     <row r="553">
-      <c r="C553" s="7"/>
-      <c r="D553" s="8"/>
+      <c r="C553" s="5"/>
+      <c r="D553" s="6"/>
     </row>
     <row r="554">
-      <c r="C554" s="7"/>
-      <c r="D554" s="8"/>
+      <c r="C554" s="5"/>
+      <c r="D554" s="6"/>
     </row>
     <row r="555">
-      <c r="C555" s="7"/>
-      <c r="D555" s="8"/>
+      <c r="C555" s="5"/>
+      <c r="D555" s="6"/>
     </row>
     <row r="556">
-      <c r="C556" s="7"/>
-      <c r="D556" s="8"/>
+      <c r="C556" s="5"/>
+      <c r="D556" s="6"/>
     </row>
     <row r="557">
-      <c r="C557" s="7"/>
-      <c r="D557" s="8"/>
+      <c r="C557" s="5"/>
+      <c r="D557" s="6"/>
     </row>
     <row r="558">
-      <c r="C558" s="7"/>
-      <c r="D558" s="8"/>
+      <c r="C558" s="5"/>
+      <c r="D558" s="6"/>
     </row>
     <row r="559">
-      <c r="C559" s="7"/>
-      <c r="D559" s="8"/>
+      <c r="C559" s="5"/>
+      <c r="D559" s="6"/>
     </row>
     <row r="560">
-      <c r="C560" s="7"/>
-      <c r="D560" s="8"/>
+      <c r="C560" s="5"/>
+      <c r="D560" s="6"/>
     </row>
     <row r="561">
-      <c r="C561" s="7"/>
-      <c r="D561" s="8"/>
+      <c r="C561" s="5"/>
+      <c r="D561" s="6"/>
     </row>
     <row r="562">
-      <c r="C562" s="7"/>
-      <c r="D562" s="8"/>
+      <c r="C562" s="5"/>
+      <c r="D562" s="6"/>
     </row>
     <row r="563">
-      <c r="C563" s="7"/>
-      <c r="D563" s="8"/>
+      <c r="C563" s="5"/>
+      <c r="D563" s="6"/>
     </row>
     <row r="564">
-      <c r="C564" s="7"/>
-      <c r="D564" s="8"/>
+      <c r="C564" s="5"/>
+      <c r="D564" s="6"/>
     </row>
     <row r="565">
-      <c r="C565" s="7"/>
-      <c r="D565" s="8"/>
+      <c r="C565" s="5"/>
+      <c r="D565" s="6"/>
     </row>
     <row r="566">
-      <c r="C566" s="7"/>
-      <c r="D566" s="8"/>
+      <c r="C566" s="5"/>
+      <c r="D566" s="6"/>
     </row>
     <row r="567">
-      <c r="C567" s="7"/>
-      <c r="D567" s="8"/>
+      <c r="C567" s="5"/>
+      <c r="D567" s="6"/>
     </row>
     <row r="568">
-      <c r="C568" s="7"/>
-      <c r="D568" s="8"/>
+      <c r="C568" s="5"/>
+      <c r="D568" s="6"/>
     </row>
     <row r="569">
-      <c r="C569" s="7"/>
-      <c r="D569" s="8"/>
+      <c r="C569" s="5"/>
+      <c r="D569" s="6"/>
     </row>
     <row r="570">
-      <c r="C570" s="7"/>
-      <c r="D570" s="8"/>
+      <c r="C570" s="5"/>
+      <c r="D570" s="6"/>
     </row>
     <row r="571">
-      <c r="C571" s="7"/>
-      <c r="D571" s="8"/>
+      <c r="C571" s="5"/>
+      <c r="D571" s="6"/>
     </row>
     <row r="572">
-      <c r="C572" s="7"/>
-      <c r="D572" s="8"/>
+      <c r="C572" s="5"/>
+      <c r="D572" s="6"/>
     </row>
     <row r="573">
-      <c r="C573" s="7"/>
-      <c r="D573" s="8"/>
+      <c r="C573" s="5"/>
+      <c r="D573" s="6"/>
     </row>
     <row r="574">
-      <c r="C574" s="7"/>
-      <c r="D574" s="8"/>
+      <c r="C574" s="5"/>
+      <c r="D574" s="6"/>
     </row>
     <row r="575">
-      <c r="C575" s="7"/>
-      <c r="D575" s="8"/>
+      <c r="C575" s="5"/>
+      <c r="D575" s="6"/>
     </row>
     <row r="576">
-      <c r="C576" s="7"/>
-      <c r="D576" s="8"/>
+      <c r="C576" s="5"/>
+      <c r="D576" s="6"/>
     </row>
     <row r="577">
-      <c r="C577" s="7"/>
-      <c r="D577" s="8"/>
+      <c r="C577" s="5"/>
+      <c r="D577" s="6"/>
     </row>
     <row r="578">
-      <c r="C578" s="7"/>
-      <c r="D578" s="8"/>
+      <c r="C578" s="5"/>
+      <c r="D578" s="6"/>
     </row>
     <row r="579">
-      <c r="C579" s="7"/>
-      <c r="D579" s="8"/>
+      <c r="C579" s="5"/>
+      <c r="D579" s="6"/>
     </row>
     <row r="580">
-      <c r="C580" s="7"/>
-      <c r="D580" s="8"/>
+      <c r="C580" s="5"/>
+      <c r="D580" s="6"/>
     </row>
     <row r="581">
-      <c r="C581" s="7"/>
-      <c r="D581" s="8"/>
+      <c r="C581" s="5"/>
+      <c r="D581" s="6"/>
     </row>
     <row r="582">
-      <c r="C582" s="7"/>
-      <c r="D582" s="8"/>
+      <c r="C582" s="5"/>
+      <c r="D582" s="6"/>
     </row>
     <row r="583">
-      <c r="C583" s="7"/>
-      <c r="D583" s="8"/>
+      <c r="C583" s="5"/>
+      <c r="D583" s="6"/>
     </row>
     <row r="584">
-      <c r="C584" s="7"/>
-      <c r="D584" s="8"/>
+      <c r="C584" s="5"/>
+      <c r="D584" s="6"/>
     </row>
     <row r="585">
-      <c r="C585" s="7"/>
-      <c r="D585" s="8"/>
+      <c r="C585" s="5"/>
+      <c r="D585" s="6"/>
     </row>
     <row r="586">
-      <c r="C586" s="7"/>
-      <c r="D586" s="8"/>
+      <c r="C586" s="5"/>
+      <c r="D586" s="6"/>
     </row>
     <row r="587">
-      <c r="C587" s="7"/>
-      <c r="D587" s="8"/>
+      <c r="C587" s="5"/>
+      <c r="D587" s="6"/>
     </row>
     <row r="588">
-      <c r="C588" s="7"/>
-      <c r="D588" s="8"/>
+      <c r="C588" s="5"/>
+      <c r="D588" s="6"/>
     </row>
     <row r="589">
-      <c r="C589" s="7"/>
-      <c r="D589" s="8"/>
+      <c r="C589" s="5"/>
+      <c r="D589" s="6"/>
     </row>
     <row r="590">
-      <c r="C590" s="7"/>
-      <c r="D590" s="8"/>
+      <c r="C590" s="5"/>
+      <c r="D590" s="6"/>
     </row>
     <row r="591">
-      <c r="C591" s="7"/>
-      <c r="D591" s="8"/>
+      <c r="C591" s="5"/>
+      <c r="D591" s="6"/>
     </row>
     <row r="592">
-      <c r="C592" s="7"/>
-      <c r="D592" s="8"/>
+      <c r="C592" s="5"/>
+      <c r="D592" s="6"/>
     </row>
     <row r="593">
-      <c r="C593" s="7"/>
-      <c r="D593" s="8"/>
+      <c r="C593" s="5"/>
+      <c r="D593" s="6"/>
     </row>
     <row r="594">
-      <c r="C594" s="7"/>
-      <c r="D594" s="8"/>
+      <c r="C594" s="5"/>
+      <c r="D594" s="6"/>
     </row>
     <row r="595">
-      <c r="C595" s="7"/>
-      <c r="D595" s="8"/>
+      <c r="C595" s="5"/>
+      <c r="D595" s="6"/>
     </row>
     <row r="596">
-      <c r="C596" s="7"/>
-      <c r="D596" s="8"/>
+      <c r="C596" s="5"/>
+      <c r="D596" s="6"/>
     </row>
     <row r="597">
-      <c r="C597" s="7"/>
-      <c r="D597" s="8"/>
+      <c r="C597" s="5"/>
+      <c r="D597" s="6"/>
     </row>
     <row r="598">
-      <c r="C598" s="7"/>
-      <c r="D598" s="8"/>
+      <c r="C598" s="5"/>
+      <c r="D598" s="6"/>
     </row>
     <row r="599">
-      <c r="C599" s="7"/>
-      <c r="D599" s="8"/>
+      <c r="C599" s="5"/>
+      <c r="D599" s="6"/>
     </row>
     <row r="600">
-      <c r="C600" s="7"/>
-      <c r="D600" s="8"/>
+      <c r="C600" s="5"/>
+      <c r="D600" s="6"/>
     </row>
     <row r="601">
-      <c r="C601" s="7"/>
-      <c r="D601" s="8"/>
+      <c r="C601" s="5"/>
+      <c r="D601" s="6"/>
     </row>
     <row r="602">
-      <c r="C602" s="7"/>
-      <c r="D602" s="8"/>
+      <c r="C602" s="5"/>
+      <c r="D602" s="6"/>
     </row>
     <row r="603">
-      <c r="C603" s="7"/>
-      <c r="D603" s="8"/>
+      <c r="C603" s="5"/>
+      <c r="D603" s="6"/>
     </row>
     <row r="604">
-      <c r="C604" s="7"/>
-      <c r="D604" s="8"/>
+      <c r="C604" s="5"/>
+      <c r="D604" s="6"/>
     </row>
     <row r="605">
-      <c r="C605" s="7"/>
-      <c r="D605" s="8"/>
+      <c r="C605" s="5"/>
+      <c r="D605" s="6"/>
     </row>
     <row r="606">
-      <c r="C606" s="7"/>
-      <c r="D606" s="8"/>
+      <c r="C606" s="5"/>
+      <c r="D606" s="6"/>
     </row>
     <row r="607">
-      <c r="C607" s="7"/>
-      <c r="D607" s="8"/>
+      <c r="C607" s="5"/>
+      <c r="D607" s="6"/>
     </row>
     <row r="608">
-      <c r="C608" s="7"/>
-      <c r="D608" s="8"/>
+      <c r="C608" s="5"/>
+      <c r="D608" s="6"/>
     </row>
     <row r="609">
-      <c r="C609" s="7"/>
-      <c r="D609" s="8"/>
+      <c r="C609" s="5"/>
+      <c r="D609" s="6"/>
     </row>
     <row r="610">
-      <c r="C610" s="7"/>
-      <c r="D610" s="8"/>
+      <c r="C610" s="5"/>
+      <c r="D610" s="6"/>
     </row>
     <row r="611">
-      <c r="C611" s="7"/>
-      <c r="D611" s="8"/>
+      <c r="C611" s="5"/>
+      <c r="D611" s="6"/>
     </row>
     <row r="612">
-      <c r="C612" s="7"/>
-      <c r="D612" s="8"/>
+      <c r="C612" s="5"/>
+      <c r="D612" s="6"/>
     </row>
     <row r="613">
-      <c r="C613" s="7"/>
-      <c r="D613" s="8"/>
+      <c r="C613" s="5"/>
+      <c r="D613" s="6"/>
     </row>
     <row r="614">
-      <c r="C614" s="7"/>
-      <c r="D614" s="8"/>
+      <c r="C614" s="5"/>
+      <c r="D614" s="6"/>
     </row>
     <row r="615">
-      <c r="C615" s="7"/>
-      <c r="D615" s="8"/>
+      <c r="C615" s="5"/>
+      <c r="D615" s="6"/>
     </row>
     <row r="616">
-      <c r="C616" s="7"/>
-      <c r="D616" s="8"/>
+      <c r="C616" s="5"/>
+      <c r="D616" s="6"/>
     </row>
     <row r="617">
-      <c r="C617" s="7"/>
-      <c r="D617" s="8"/>
+      <c r="C617" s="5"/>
+      <c r="D617" s="6"/>
     </row>
     <row r="618">
-      <c r="C618" s="7"/>
-      <c r="D618" s="8"/>
+      <c r="C618" s="5"/>
+      <c r="D618" s="6"/>
     </row>
     <row r="619">
-      <c r="C619" s="7"/>
-      <c r="D619" s="8"/>
+      <c r="C619" s="5"/>
+      <c r="D619" s="6"/>
     </row>
     <row r="620">
-      <c r="C620" s="7"/>
-      <c r="D620" s="8"/>
+      <c r="C620" s="5"/>
+      <c r="D620" s="6"/>
     </row>
     <row r="621">
-      <c r="C621" s="7"/>
-      <c r="D621" s="8"/>
+      <c r="C621" s="5"/>
+      <c r="D621" s="6"/>
     </row>
     <row r="622">
-      <c r="C622" s="7"/>
-      <c r="D622" s="8"/>
+      <c r="C622" s="5"/>
+      <c r="D622" s="6"/>
     </row>
     <row r="623">
-      <c r="C623" s="7"/>
-      <c r="D623" s="8"/>
+      <c r="C623" s="5"/>
+      <c r="D623" s="6"/>
     </row>
     <row r="624">
-      <c r="C624" s="7"/>
-      <c r="D624" s="8"/>
+      <c r="C624" s="5"/>
+      <c r="D624" s="6"/>
     </row>
     <row r="625">
-      <c r="C625" s="7"/>
-      <c r="D625" s="8"/>
+      <c r="C625" s="5"/>
+      <c r="D625" s="6"/>
     </row>
     <row r="626">
-      <c r="C626" s="7"/>
-      <c r="D626" s="8"/>
+      <c r="C626" s="5"/>
+      <c r="D626" s="6"/>
     </row>
     <row r="627">
-      <c r="C627" s="7"/>
-      <c r="D627" s="8"/>
+      <c r="C627" s="5"/>
+      <c r="D627" s="6"/>
     </row>
     <row r="628">
-      <c r="C628" s="7"/>
-      <c r="D628" s="8"/>
+      <c r="C628" s="5"/>
+      <c r="D628" s="6"/>
     </row>
     <row r="629">
-      <c r="C629" s="7"/>
-      <c r="D629" s="8"/>
+      <c r="C629" s="5"/>
+      <c r="D629" s="6"/>
     </row>
     <row r="630">
-      <c r="C630" s="7"/>
-      <c r="D630" s="8"/>
+      <c r="C630" s="5"/>
+      <c r="D630" s="6"/>
     </row>
     <row r="631">
-      <c r="C631" s="7"/>
-      <c r="D631" s="8"/>
+      <c r="C631" s="5"/>
+      <c r="D631" s="6"/>
     </row>
     <row r="632">
-      <c r="C632" s="7"/>
-      <c r="D632" s="8"/>
+      <c r="C632" s="5"/>
+      <c r="D632" s="6"/>
     </row>
     <row r="633">
-      <c r="C633" s="7"/>
-      <c r="D633" s="8"/>
+      <c r="C633" s="5"/>
+      <c r="D633" s="6"/>
     </row>
     <row r="634">
-      <c r="C634" s="7"/>
-      <c r="D634" s="8"/>
+      <c r="C634" s="5"/>
+      <c r="D634" s="6"/>
     </row>
     <row r="635">
-      <c r="C635" s="7"/>
-      <c r="D635" s="8"/>
+      <c r="C635" s="5"/>
+      <c r="D635" s="6"/>
     </row>
     <row r="636">
-      <c r="C636" s="7"/>
-      <c r="D636" s="8"/>
+      <c r="C636" s="5"/>
+      <c r="D636" s="6"/>
     </row>
     <row r="637">
-      <c r="C637" s="7"/>
-      <c r="D637" s="8"/>
+      <c r="C637" s="5"/>
+      <c r="D637" s="6"/>
     </row>
     <row r="638">
-      <c r="C638" s="7"/>
-      <c r="D638" s="8"/>
+      <c r="C638" s="5"/>
+      <c r="D638" s="6"/>
     </row>
     <row r="639">
-      <c r="C639" s="7"/>
-      <c r="D639" s="8"/>
+      <c r="C639" s="5"/>
+      <c r="D639" s="6"/>
     </row>
     <row r="640">
-      <c r="C640" s="7"/>
-      <c r="D640" s="8"/>
+      <c r="C640" s="5"/>
+      <c r="D640" s="6"/>
     </row>
     <row r="641">
-      <c r="C641" s="7"/>
-      <c r="D641" s="8"/>
+      <c r="C641" s="5"/>
+      <c r="D641" s="6"/>
     </row>
     <row r="642">
-      <c r="C642" s="7"/>
-      <c r="D642" s="8"/>
+      <c r="C642" s="5"/>
+      <c r="D642" s="6"/>
     </row>
     <row r="643">
-      <c r="C643" s="7"/>
-      <c r="D643" s="8"/>
+      <c r="C643" s="5"/>
+      <c r="D643" s="6"/>
     </row>
     <row r="644">
-      <c r="C644" s="7"/>
-      <c r="D644" s="8"/>
+      <c r="C644" s="5"/>
+      <c r="D644" s="6"/>
     </row>
     <row r="645">
-      <c r="C645" s="7"/>
-      <c r="D645" s="8"/>
+      <c r="C645" s="5"/>
+      <c r="D645" s="6"/>
     </row>
     <row r="646">
-      <c r="C646" s="7"/>
-      <c r="D646" s="8"/>
+      <c r="C646" s="5"/>
+      <c r="D646" s="6"/>
     </row>
     <row r="647">
-      <c r="C647" s="7"/>
-      <c r="D647" s="8"/>
+      <c r="C647" s="5"/>
+      <c r="D647" s="6"/>
     </row>
     <row r="648">
-      <c r="C648" s="7"/>
-      <c r="D648" s="8"/>
+      <c r="C648" s="5"/>
+      <c r="D648" s="6"/>
     </row>
     <row r="649">
-      <c r="C649" s="7"/>
-      <c r="D649" s="8"/>
+      <c r="C649" s="5"/>
+      <c r="D649" s="6"/>
     </row>
     <row r="650">
-      <c r="C650" s="7"/>
-      <c r="D650" s="8"/>
+      <c r="C650" s="5"/>
+      <c r="D650" s="6"/>
     </row>
     <row r="651">
-      <c r="C651" s="7"/>
-      <c r="D651" s="8"/>
+      <c r="C651" s="5"/>
+      <c r="D651" s="6"/>
     </row>
     <row r="652">
-      <c r="C652" s="7"/>
-      <c r="D652" s="8"/>
+      <c r="C652" s="5"/>
+      <c r="D652" s="6"/>
     </row>
     <row r="653">
-      <c r="C653" s="7"/>
-      <c r="D653" s="8"/>
+      <c r="C653" s="5"/>
+      <c r="D653" s="6"/>
     </row>
     <row r="654">
-      <c r="C654" s="7"/>
-      <c r="D654" s="8"/>
+      <c r="C654" s="5"/>
+      <c r="D654" s="6"/>
     </row>
     <row r="655">
-      <c r="C655" s="7"/>
-      <c r="D655" s="8"/>
+      <c r="C655" s="5"/>
+      <c r="D655" s="6"/>
     </row>
     <row r="656">
-      <c r="C656" s="7"/>
-      <c r="D656" s="8"/>
+      <c r="C656" s="5"/>
+      <c r="D656" s="6"/>
     </row>
     <row r="657">
-      <c r="C657" s="7"/>
-      <c r="D657" s="8"/>
+      <c r="C657" s="5"/>
+      <c r="D657" s="6"/>
     </row>
     <row r="658">
-      <c r="C658" s="7"/>
-      <c r="D658" s="8"/>
+      <c r="C658" s="5"/>
+      <c r="D658" s="6"/>
     </row>
     <row r="659">
-      <c r="C659" s="7"/>
-      <c r="D659" s="8"/>
+      <c r="C659" s="5"/>
+      <c r="D659" s="6"/>
     </row>
     <row r="660">
-      <c r="C660" s="7"/>
-      <c r="D660" s="8"/>
+      <c r="C660" s="5"/>
+      <c r="D660" s="6"/>
     </row>
     <row r="661">
-      <c r="C661" s="7"/>
-      <c r="D661" s="8"/>
+      <c r="C661" s="5"/>
+      <c r="D661" s="6"/>
     </row>
     <row r="662">
-      <c r="C662" s="7"/>
-      <c r="D662" s="8"/>
+      <c r="C662" s="5"/>
+      <c r="D662" s="6"/>
     </row>
     <row r="663">
-      <c r="C663" s="7"/>
-      <c r="D663" s="8"/>
+      <c r="C663" s="5"/>
+      <c r="D663" s="6"/>
     </row>
     <row r="664">
-      <c r="C664" s="7"/>
-      <c r="D664" s="8"/>
+      <c r="C664" s="5"/>
+      <c r="D664" s="6"/>
     </row>
     <row r="665">
-      <c r="C665" s="7"/>
-      <c r="D665" s="8"/>
+      <c r="C665" s="5"/>
+      <c r="D665" s="6"/>
     </row>
     <row r="666">
-      <c r="C666" s="7"/>
-      <c r="D666" s="8"/>
+      <c r="C666" s="5"/>
+      <c r="D666" s="6"/>
     </row>
     <row r="667">
-      <c r="C667" s="7"/>
-      <c r="D667" s="8"/>
+      <c r="C667" s="5"/>
+      <c r="D667" s="6"/>
     </row>
     <row r="668">
-      <c r="C668" s="7"/>
-      <c r="D668" s="8"/>
+      <c r="C668" s="5"/>
+      <c r="D668" s="6"/>
     </row>
     <row r="669">
-      <c r="C669" s="7"/>
-      <c r="D669" s="8"/>
+      <c r="C669" s="5"/>
+      <c r="D669" s="6"/>
     </row>
     <row r="670">
-      <c r="C670" s="7"/>
-      <c r="D670" s="8"/>
+      <c r="C670" s="5"/>
+      <c r="D670" s="6"/>
     </row>
     <row r="671">
-      <c r="C671" s="7"/>
-      <c r="D671" s="8"/>
+      <c r="C671" s="5"/>
+      <c r="D671" s="6"/>
     </row>
     <row r="672">
-      <c r="C672" s="7"/>
-      <c r="D672" s="8"/>
+      <c r="C672" s="5"/>
+      <c r="D672" s="6"/>
     </row>
     <row r="673">
-      <c r="C673" s="7"/>
-      <c r="D673" s="8"/>
+      <c r="C673" s="5"/>
+      <c r="D673" s="6"/>
     </row>
     <row r="674">
-      <c r="C674" s="7"/>
-      <c r="D674" s="8"/>
+      <c r="C674" s="5"/>
+      <c r="D674" s="6"/>
     </row>
     <row r="675">
-      <c r="C675" s="7"/>
-      <c r="D675" s="8"/>
+      <c r="C675" s="5"/>
+      <c r="D675" s="6"/>
     </row>
     <row r="676">
-      <c r="C676" s="7"/>
-      <c r="D676" s="8"/>
+      <c r="C676" s="5"/>
+      <c r="D676" s="6"/>
     </row>
     <row r="677">
-      <c r="C677" s="7"/>
-      <c r="D677" s="8"/>
+      <c r="C677" s="5"/>
+      <c r="D677" s="6"/>
     </row>
     <row r="678">
-      <c r="C678" s="7"/>
-      <c r="D678" s="8"/>
+      <c r="C678" s="5"/>
+      <c r="D678" s="6"/>
     </row>
     <row r="679">
-      <c r="C679" s="7"/>
-      <c r="D679" s="8"/>
+      <c r="C679" s="5"/>
+      <c r="D679" s="6"/>
     </row>
     <row r="680">
-      <c r="C680" s="7"/>
-      <c r="D680" s="8"/>
+      <c r="C680" s="5"/>
+      <c r="D680" s="6"/>
     </row>
     <row r="681">
-      <c r="C681" s="7"/>
-      <c r="D681" s="8"/>
+      <c r="C681" s="5"/>
+      <c r="D681" s="6"/>
     </row>
     <row r="682">
-      <c r="C682" s="7"/>
-      <c r="D682" s="8"/>
+      <c r="C682" s="5"/>
+      <c r="D682" s="6"/>
     </row>
     <row r="683">
-      <c r="C683" s="7"/>
-      <c r="D683" s="8"/>
+      <c r="C683" s="5"/>
+      <c r="D683" s="6"/>
     </row>
     <row r="684">
-      <c r="C684" s="7"/>
-      <c r="D684" s="8"/>
+      <c r="C684" s="5"/>
+      <c r="D684" s="6"/>
     </row>
     <row r="685">
-      <c r="C685" s="7"/>
-      <c r="D685" s="8"/>
+      <c r="C685" s="5"/>
+      <c r="D685" s="6"/>
     </row>
     <row r="686">
-      <c r="C686" s="7"/>
-      <c r="D686" s="8"/>
+      <c r="C686" s="5"/>
+      <c r="D686" s="6"/>
     </row>
     <row r="687">
-      <c r="C687" s="7"/>
-      <c r="D687" s="8"/>
+      <c r="C687" s="5"/>
+      <c r="D687" s="6"/>
     </row>
     <row r="688">
-      <c r="C688" s="7"/>
-      <c r="D688" s="8"/>
+      <c r="C688" s="5"/>
+      <c r="D688" s="6"/>
     </row>
     <row r="689">
-      <c r="C689" s="7"/>
-      <c r="D689" s="8"/>
+      <c r="C689" s="5"/>
+      <c r="D689" s="6"/>
     </row>
     <row r="690">
-      <c r="C690" s="7"/>
-      <c r="D690" s="8"/>
+      <c r="C690" s="5"/>
+      <c r="D690" s="6"/>
     </row>
     <row r="691">
-      <c r="C691" s="7"/>
-      <c r="D691" s="8"/>
+      <c r="C691" s="5"/>
+      <c r="D691" s="6"/>
     </row>
     <row r="692">
-      <c r="C692" s="7"/>
-      <c r="D692" s="8"/>
+      <c r="C692" s="5"/>
+      <c r="D692" s="6"/>
     </row>
     <row r="693">
-      <c r="C693" s="7"/>
-      <c r="D693" s="8"/>
+      <c r="C693" s="5"/>
+      <c r="D693" s="6"/>
     </row>
     <row r="694">
-      <c r="C694" s="7"/>
-      <c r="D694" s="8"/>
+      <c r="C694" s="5"/>
+      <c r="D694" s="6"/>
     </row>
     <row r="695">
-      <c r="C695" s="7"/>
-      <c r="D695" s="8"/>
+      <c r="C695" s="5"/>
+      <c r="D695" s="6"/>
     </row>
     <row r="696">
-      <c r="C696" s="7"/>
-      <c r="D696" s="8"/>
+      <c r="C696" s="5"/>
+      <c r="D696" s="6"/>
     </row>
     <row r="697">
-      <c r="C697" s="7"/>
-      <c r="D697" s="8"/>
+      <c r="C697" s="5"/>
+      <c r="D697" s="6"/>
     </row>
     <row r="698">
-      <c r="C698" s="7"/>
-      <c r="D698" s="8"/>
+      <c r="C698" s="5"/>
+      <c r="D698" s="6"/>
     </row>
     <row r="699">
-      <c r="C699" s="7"/>
-      <c r="D699" s="8"/>
+      <c r="C699" s="5"/>
+      <c r="D699" s="6"/>
     </row>
     <row r="700">
-      <c r="C700" s="7"/>
-      <c r="D700" s="8"/>
+      <c r="C700" s="5"/>
+      <c r="D700" s="6"/>
     </row>
     <row r="701">
-      <c r="C701" s="7"/>
-      <c r="D701" s="8"/>
+      <c r="C701" s="5"/>
+      <c r="D701" s="6"/>
     </row>
     <row r="702">
-      <c r="C702" s="7"/>
-      <c r="D702" s="8"/>
+      <c r="C702" s="5"/>
+      <c r="D702" s="6"/>
     </row>
     <row r="703">
-      <c r="C703" s="7"/>
-      <c r="D703" s="8"/>
+      <c r="C703" s="5"/>
+      <c r="D703" s="6"/>
     </row>
     <row r="704">
-      <c r="C704" s="7"/>
-      <c r="D704" s="8"/>
+      <c r="C704" s="5"/>
+      <c r="D704" s="6"/>
     </row>
     <row r="705">
-      <c r="C705" s="7"/>
-      <c r="D705" s="8"/>
+      <c r="C705" s="5"/>
+      <c r="D705" s="6"/>
     </row>
     <row r="706">
-      <c r="C706" s="7"/>
-      <c r="D706" s="8"/>
+      <c r="C706" s="5"/>
+      <c r="D706" s="6"/>
     </row>
     <row r="707">
-      <c r="C707" s="7"/>
-      <c r="D707" s="8"/>
+      <c r="C707" s="5"/>
+      <c r="D707" s="6"/>
     </row>
     <row r="708">
-      <c r="C708" s="7"/>
-      <c r="D708" s="8"/>
+      <c r="C708" s="5"/>
+      <c r="D708" s="6"/>
     </row>
     <row r="709">
-      <c r="C709" s="7"/>
-      <c r="D709" s="8"/>
+      <c r="C709" s="5"/>
+      <c r="D709" s="6"/>
     </row>
     <row r="710">
-      <c r="C710" s="7"/>
-      <c r="D710" s="8"/>
+      <c r="C710" s="5"/>
+      <c r="D710" s="6"/>
     </row>
     <row r="711">
-      <c r="C711" s="7"/>
-      <c r="D711" s="8"/>
+      <c r="C711" s="5"/>
+      <c r="D711" s="6"/>
     </row>
     <row r="712">
-      <c r="C712" s="7"/>
-      <c r="D712" s="8"/>
+      <c r="C712" s="5"/>
+      <c r="D712" s="6"/>
     </row>
     <row r="713">
-      <c r="C713" s="7"/>
-      <c r="D713" s="8"/>
+      <c r="C713" s="5"/>
+      <c r="D713" s="6"/>
     </row>
     <row r="714">
-      <c r="C714" s="7"/>
-      <c r="D714" s="8"/>
+      <c r="C714" s="5"/>
+      <c r="D714" s="6"/>
     </row>
     <row r="715">
-      <c r="C715" s="7"/>
-      <c r="D715" s="8"/>
+      <c r="C715" s="5"/>
+      <c r="D715" s="6"/>
     </row>
     <row r="716">
-      <c r="C716" s="7"/>
-      <c r="D716" s="8"/>
+      <c r="C716" s="5"/>
+      <c r="D716" s="6"/>
     </row>
     <row r="717">
-      <c r="C717" s="7"/>
-      <c r="D717" s="8"/>
+      <c r="C717" s="5"/>
+      <c r="D717" s="6"/>
     </row>
     <row r="718">
-      <c r="C718" s="7"/>
-      <c r="D718" s="8"/>
+      <c r="C718" s="5"/>
+      <c r="D718" s="6"/>
     </row>
     <row r="719">
-      <c r="C719" s="7"/>
-      <c r="D719" s="8"/>
+      <c r="C719" s="5"/>
+      <c r="D719" s="6"/>
     </row>
     <row r="720">
-      <c r="C720" s="7"/>
-      <c r="D720" s="8"/>
+      <c r="C720" s="5"/>
+      <c r="D720" s="6"/>
     </row>
     <row r="721">
-      <c r="C721" s="7"/>
-      <c r="D721" s="8"/>
+      <c r="C721" s="5"/>
+      <c r="D721" s="6"/>
     </row>
     <row r="722">
-      <c r="C722" s="7"/>
-      <c r="D722" s="8"/>
+      <c r="C722" s="5"/>
+      <c r="D722" s="6"/>
     </row>
     <row r="723">
-      <c r="C723" s="7"/>
-      <c r="D723" s="8"/>
+      <c r="C723" s="5"/>
+      <c r="D723" s="6"/>
     </row>
     <row r="724">
-      <c r="C724" s="7"/>
-      <c r="D724" s="8"/>
+      <c r="C724" s="5"/>
+      <c r="D724" s="6"/>
     </row>
     <row r="725">
-      <c r="C725" s="7"/>
-      <c r="D725" s="8"/>
+      <c r="C725" s="5"/>
+      <c r="D725" s="6"/>
     </row>
     <row r="726">
-      <c r="C726" s="7"/>
-      <c r="D726" s="8"/>
+      <c r="C726" s="5"/>
+      <c r="D726" s="6"/>
     </row>
     <row r="727">
-      <c r="C727" s="7"/>
-      <c r="D727" s="8"/>
+      <c r="C727" s="5"/>
+      <c r="D727" s="6"/>
     </row>
     <row r="728">
-      <c r="C728" s="7"/>
-      <c r="D728" s="8"/>
+      <c r="C728" s="5"/>
+      <c r="D728" s="6"/>
     </row>
     <row r="729">
-      <c r="C729" s="7"/>
-      <c r="D729" s="8"/>
+      <c r="C729" s="5"/>
+      <c r="D729" s="6"/>
     </row>
     <row r="730">
-      <c r="C730" s="7"/>
-      <c r="D730" s="8"/>
+      <c r="C730" s="5"/>
+      <c r="D730" s="6"/>
     </row>
     <row r="731">
-      <c r="C731" s="7"/>
-      <c r="D731" s="8"/>
+      <c r="C731" s="5"/>
+      <c r="D731" s="6"/>
     </row>
     <row r="732">
-      <c r="C732" s="7"/>
-      <c r="D732" s="8"/>
+      <c r="C732" s="5"/>
+      <c r="D732" s="6"/>
     </row>
     <row r="733">
-      <c r="C733" s="7"/>
-      <c r="D733" s="8"/>
+      <c r="C733" s="5"/>
+      <c r="D733" s="6"/>
     </row>
     <row r="734">
-      <c r="C734" s="7"/>
-      <c r="D734" s="8"/>
+      <c r="C734" s="5"/>
+      <c r="D734" s="6"/>
     </row>
     <row r="735">
-      <c r="C735" s="7"/>
-      <c r="D735" s="8"/>
+      <c r="C735" s="5"/>
+      <c r="D735" s="6"/>
     </row>
     <row r="736">
-      <c r="C736" s="7"/>
-      <c r="D736" s="8"/>
+      <c r="C736" s="5"/>
+      <c r="D736" s="6"/>
     </row>
     <row r="737">
-      <c r="C737" s="7"/>
-      <c r="D737" s="8"/>
+      <c r="C737" s="5"/>
+      <c r="D737" s="6"/>
     </row>
     <row r="738">
-      <c r="C738" s="7"/>
-      <c r="D738" s="8"/>
+      <c r="C738" s="5"/>
+      <c r="D738" s="6"/>
     </row>
     <row r="739">
-      <c r="C739" s="7"/>
-      <c r="D739" s="8"/>
+      <c r="C739" s="5"/>
+      <c r="D739" s="6"/>
     </row>
     <row r="740">
-      <c r="C740" s="7"/>
-      <c r="D740" s="8"/>
+      <c r="C740" s="5"/>
+      <c r="D740" s="6"/>
     </row>
     <row r="741">
-      <c r="C741" s="7"/>
-      <c r="D741" s="8"/>
+      <c r="C741" s="5"/>
+      <c r="D741" s="6"/>
     </row>
     <row r="742">
-      <c r="C742" s="7"/>
-      <c r="D742" s="8"/>
+      <c r="C742" s="5"/>
+      <c r="D742" s="6"/>
     </row>
     <row r="743">
-      <c r="C743" s="7"/>
-      <c r="D743" s="8"/>
+      <c r="C743" s="5"/>
+      <c r="D743" s="6"/>
     </row>
     <row r="744">
-      <c r="C744" s="7"/>
-      <c r="D744" s="8"/>
+      <c r="C744" s="5"/>
+      <c r="D744" s="6"/>
     </row>
     <row r="745">
-      <c r="C745" s="7"/>
-      <c r="D745" s="8"/>
+      <c r="C745" s="5"/>
+      <c r="D745" s="6"/>
     </row>
     <row r="746">
-      <c r="C746" s="7"/>
-      <c r="D746" s="8"/>
+      <c r="C746" s="5"/>
+      <c r="D746" s="6"/>
     </row>
     <row r="747">
-      <c r="C747" s="7"/>
-      <c r="D747" s="8"/>
+      <c r="C747" s="5"/>
+      <c r="D747" s="6"/>
     </row>
     <row r="748">
-      <c r="C748" s="7"/>
-      <c r="D748" s="8"/>
+      <c r="C748" s="5"/>
+      <c r="D748" s="6"/>
     </row>
     <row r="749">
-      <c r="C749" s="7"/>
-      <c r="D749" s="8"/>
+      <c r="C749" s="5"/>
+      <c r="D749" s="6"/>
     </row>
     <row r="750">
-      <c r="C750" s="7"/>
-      <c r="D750" s="8"/>
+      <c r="C750" s="5"/>
+      <c r="D750" s="6"/>
     </row>
     <row r="751">
-      <c r="C751" s="7"/>
-      <c r="D751" s="8"/>
+      <c r="C751" s="5"/>
+      <c r="D751" s="6"/>
     </row>
     <row r="752">
-      <c r="C752" s="7"/>
-      <c r="D752" s="8"/>
+      <c r="C752" s="5"/>
+      <c r="D752" s="6"/>
     </row>
     <row r="753">
-      <c r="C753" s="7"/>
-      <c r="D753" s="8"/>
+      <c r="C753" s="5"/>
+      <c r="D753" s="6"/>
     </row>
     <row r="754">
-      <c r="C754" s="7"/>
-      <c r="D754" s="8"/>
+      <c r="C754" s="5"/>
+      <c r="D754" s="6"/>
     </row>
     <row r="755">
-      <c r="C755" s="7"/>
-      <c r="D755" s="8"/>
+      <c r="C755" s="5"/>
+      <c r="D755" s="6"/>
     </row>
     <row r="756">
-      <c r="C756" s="7"/>
-      <c r="D756" s="8"/>
+      <c r="C756" s="5"/>
+      <c r="D756" s="6"/>
     </row>
     <row r="757">
-      <c r="C757" s="7"/>
-      <c r="D757" s="8"/>
+      <c r="C757" s="5"/>
+      <c r="D757" s="6"/>
     </row>
     <row r="758">
-      <c r="C758" s="7"/>
-      <c r="D758" s="8"/>
+      <c r="C758" s="5"/>
+      <c r="D758" s="6"/>
     </row>
     <row r="759">
-      <c r="C759" s="7"/>
-      <c r="D759" s="8"/>
+      <c r="C759" s="5"/>
+      <c r="D759" s="6"/>
     </row>
     <row r="760">
-      <c r="C760" s="7"/>
-      <c r="D760" s="8"/>
+      <c r="C760" s="5"/>
+      <c r="D760" s="6"/>
     </row>
     <row r="761">
-      <c r="C761" s="7"/>
-      <c r="D761" s="8"/>
+      <c r="C761" s="5"/>
+      <c r="D761" s="6"/>
     </row>
     <row r="762">
-      <c r="C762" s="7"/>
-      <c r="D762" s="8"/>
+      <c r="C762" s="5"/>
+      <c r="D762" s="6"/>
     </row>
     <row r="763">
-      <c r="C763" s="7"/>
-      <c r="D763" s="8"/>
+      <c r="C763" s="5"/>
+      <c r="D763" s="6"/>
     </row>
     <row r="764">
-      <c r="C764" s="7"/>
-      <c r="D764" s="8"/>
+      <c r="C764" s="5"/>
+      <c r="D764" s="6"/>
     </row>
     <row r="765">
-      <c r="C765" s="7"/>
-      <c r="D765" s="8"/>
+      <c r="C765" s="5"/>
+      <c r="D765" s="6"/>
     </row>
     <row r="766">
-      <c r="C766" s="7"/>
-      <c r="D766" s="8"/>
+      <c r="C766" s="5"/>
+      <c r="D766" s="6"/>
     </row>
     <row r="767">
-      <c r="C767" s="7"/>
-      <c r="D767" s="8"/>
+      <c r="C767" s="5"/>
+      <c r="D767" s="6"/>
     </row>
     <row r="768">
-      <c r="C768" s="7"/>
-      <c r="D768" s="8"/>
+      <c r="C768" s="5"/>
+      <c r="D768" s="6"/>
     </row>
     <row r="769">
-      <c r="C769" s="7"/>
-      <c r="D769" s="8"/>
+      <c r="C769" s="5"/>
+      <c r="D769" s="6"/>
     </row>
     <row r="770">
-      <c r="C770" s="7"/>
-      <c r="D770" s="8"/>
+      <c r="C770" s="5"/>
+      <c r="D770" s="6"/>
     </row>
     <row r="771">
-      <c r="C771" s="7"/>
-      <c r="D771" s="8"/>
+      <c r="C771" s="5"/>
+      <c r="D771" s="6"/>
     </row>
     <row r="772">
-      <c r="C772" s="7"/>
-      <c r="D772" s="8"/>
+      <c r="C772" s="5"/>
+      <c r="D772" s="6"/>
     </row>
     <row r="773">
-      <c r="C773" s="7"/>
-      <c r="D773" s="8"/>
+      <c r="C773" s="5"/>
+      <c r="D773" s="6"/>
     </row>
     <row r="774">
-      <c r="C774" s="7"/>
-      <c r="D774" s="8"/>
+      <c r="C774" s="5"/>
+      <c r="D774" s="6"/>
     </row>
     <row r="775">
-      <c r="C775" s="7"/>
-      <c r="D775" s="8"/>
+      <c r="C775" s="5"/>
+      <c r="D775" s="6"/>
     </row>
     <row r="776">
-      <c r="C776" s="7"/>
-      <c r="D776" s="8"/>
+      <c r="C776" s="5"/>
+      <c r="D776" s="6"/>
     </row>
     <row r="777">
-      <c r="C777" s="7"/>
-      <c r="D777" s="8"/>
+      <c r="C777" s="5"/>
+      <c r="D777" s="6"/>
     </row>
     <row r="778">
-      <c r="C778" s="7"/>
-      <c r="D778" s="8"/>
+      <c r="C778" s="5"/>
+      <c r="D778" s="6"/>
     </row>
     <row r="779">
-      <c r="C779" s="7"/>
-      <c r="D779" s="8"/>
+      <c r="C779" s="5"/>
+      <c r="D779" s="6"/>
     </row>
     <row r="780">
-      <c r="C780" s="7"/>
-      <c r="D780" s="8"/>
+      <c r="C780" s="5"/>
+      <c r="D780" s="6"/>
     </row>
     <row r="781">
-      <c r="C781" s="7"/>
-      <c r="D781" s="8"/>
+      <c r="C781" s="5"/>
+      <c r="D781" s="6"/>
     </row>
     <row r="782">
-      <c r="C782" s="7"/>
-      <c r="D782" s="8"/>
+      <c r="C782" s="5"/>
+      <c r="D782" s="6"/>
     </row>
     <row r="783">
-      <c r="C783" s="7"/>
-      <c r="D783" s="8"/>
+      <c r="C783" s="5"/>
+      <c r="D783" s="6"/>
     </row>
     <row r="784">
-      <c r="C784" s="7"/>
-      <c r="D784" s="8"/>
+      <c r="C784" s="5"/>
+      <c r="D784" s="6"/>
     </row>
     <row r="785">
-      <c r="C785" s="7"/>
-      <c r="D785" s="8"/>
+      <c r="C785" s="5"/>
+      <c r="D785" s="6"/>
     </row>
     <row r="786">
-      <c r="C786" s="7"/>
-      <c r="D786" s="8"/>
+      <c r="C786" s="5"/>
+      <c r="D786" s="6"/>
     </row>
     <row r="787">
-      <c r="C787" s="7"/>
-      <c r="D787" s="8"/>
+      <c r="C787" s="5"/>
+      <c r="D787" s="6"/>
     </row>
     <row r="788">
-      <c r="C788" s="7"/>
-      <c r="D788" s="8"/>
+      <c r="C788" s="5"/>
+      <c r="D788" s="6"/>
     </row>
     <row r="789">
-      <c r="C789" s="7"/>
-      <c r="D789" s="8"/>
+      <c r="C789" s="5"/>
+      <c r="D789" s="6"/>
     </row>
     <row r="790">
-      <c r="C790" s="7"/>
-      <c r="D790" s="8"/>
+      <c r="C790" s="5"/>
+      <c r="D790" s="6"/>
     </row>
     <row r="791">
-      <c r="C791" s="7"/>
-      <c r="D791" s="8"/>
+      <c r="C791" s="5"/>
+      <c r="D791" s="6"/>
     </row>
     <row r="792">
-      <c r="C792" s="7"/>
-      <c r="D792" s="8"/>
+      <c r="C792" s="5"/>
+      <c r="D792" s="6"/>
     </row>
     <row r="793">
-      <c r="C793" s="7"/>
-      <c r="D793" s="8"/>
+      <c r="C793" s="5"/>
+      <c r="D793" s="6"/>
     </row>
     <row r="794">
-      <c r="C794" s="7"/>
-      <c r="D794" s="8"/>
+      <c r="C794" s="5"/>
+      <c r="D794" s="6"/>
     </row>
     <row r="795">
-      <c r="C795" s="7"/>
-      <c r="D795" s="8"/>
+      <c r="C795" s="5"/>
+      <c r="D795" s="6"/>
     </row>
     <row r="796">
-      <c r="C796" s="7"/>
-      <c r="D796" s="8"/>
+      <c r="C796" s="5"/>
+      <c r="D796" s="6"/>
     </row>
     <row r="797">
-      <c r="C797" s="7"/>
-      <c r="D797" s="8"/>
+      <c r="C797" s="5"/>
+      <c r="D797" s="6"/>
     </row>
     <row r="798">
-      <c r="C798" s="7"/>
-      <c r="D798" s="8"/>
+      <c r="C798" s="5"/>
+      <c r="D798" s="6"/>
     </row>
     <row r="799">
-      <c r="C799" s="7"/>
-      <c r="D799" s="8"/>
+      <c r="C799" s="5"/>
+      <c r="D799" s="6"/>
     </row>
     <row r="800">
-      <c r="C800" s="7"/>
-      <c r="D800" s="8"/>
+      <c r="C800" s="5"/>
+      <c r="D800" s="6"/>
     </row>
     <row r="801">
-      <c r="C801" s="7"/>
-      <c r="D801" s="8"/>
+      <c r="C801" s="5"/>
+      <c r="D801" s="6"/>
     </row>
     <row r="802">
-      <c r="C802" s="7"/>
-      <c r="D802" s="8"/>
+      <c r="C802" s="5"/>
+      <c r="D802" s="6"/>
     </row>
     <row r="803">
-      <c r="C803" s="7"/>
-      <c r="D803" s="8"/>
+      <c r="C803" s="5"/>
+      <c r="D803" s="6"/>
     </row>
     <row r="804">
-      <c r="C804" s="7"/>
-      <c r="D804" s="8"/>
+      <c r="C804" s="5"/>
+      <c r="D804" s="6"/>
     </row>
     <row r="805">
-      <c r="C805" s="7"/>
-      <c r="D805" s="8"/>
+      <c r="C805" s="5"/>
+      <c r="D805" s="6"/>
     </row>
     <row r="806">
-      <c r="C806" s="7"/>
-      <c r="D806" s="8"/>
+      <c r="C806" s="5"/>
+      <c r="D806" s="6"/>
     </row>
     <row r="807">
-      <c r="C807" s="7"/>
-      <c r="D807" s="8"/>
+      <c r="C807" s="5"/>
+      <c r="D807" s="6"/>
     </row>
     <row r="808">
-      <c r="C808" s="7"/>
-      <c r="D808" s="8"/>
+      <c r="C808" s="5"/>
+      <c r="D808" s="6"/>
     </row>
     <row r="809">
-      <c r="C809" s="7"/>
-      <c r="D809" s="8"/>
+      <c r="C809" s="5"/>
+      <c r="D809" s="6"/>
     </row>
     <row r="810">
-      <c r="C810" s="7"/>
-      <c r="D810" s="8"/>
+      <c r="C810" s="5"/>
+      <c r="D810" s="6"/>
     </row>
     <row r="811">
-      <c r="C811" s="7"/>
-      <c r="D811" s="8"/>
+      <c r="C811" s="5"/>
+      <c r="D811" s="6"/>
     </row>
     <row r="812">
-      <c r="C812" s="7"/>
-      <c r="D812" s="8"/>
+      <c r="C812" s="5"/>
+      <c r="D812" s="6"/>
     </row>
     <row r="813">
-      <c r="C813" s="7"/>
-      <c r="D813" s="8"/>
+      <c r="C813" s="5"/>
+      <c r="D813" s="6"/>
     </row>
     <row r="814">
-      <c r="C814" s="7"/>
-      <c r="D814" s="8"/>
+      <c r="C814" s="5"/>
+      <c r="D814" s="6"/>
     </row>
     <row r="815">
-      <c r="C815" s="7"/>
-      <c r="D815" s="8"/>
+      <c r="C815" s="5"/>
+      <c r="D815" s="6"/>
     </row>
     <row r="816">
-      <c r="C816" s="7"/>
-      <c r="D816" s="8"/>
+      <c r="C816" s="5"/>
+      <c r="D816" s="6"/>
     </row>
     <row r="817">
-      <c r="C817" s="7"/>
-      <c r="D817" s="8"/>
+      <c r="C817" s="5"/>
+      <c r="D817" s="6"/>
     </row>
     <row r="818">
-      <c r="C818" s="7"/>
-      <c r="D818" s="8"/>
+      <c r="C818" s="5"/>
+      <c r="D818" s="6"/>
     </row>
     <row r="819">
-      <c r="C819" s="7"/>
-      <c r="D819" s="8"/>
+      <c r="C819" s="5"/>
+      <c r="D819" s="6"/>
     </row>
     <row r="820">
-      <c r="C820" s="7"/>
-      <c r="D820" s="8"/>
+      <c r="C820" s="5"/>
+      <c r="D820" s="6"/>
     </row>
     <row r="821">
-      <c r="C821" s="7"/>
-      <c r="D821" s="8"/>
+      <c r="C821" s="5"/>
+      <c r="D821" s="6"/>
     </row>
     <row r="822">
-      <c r="C822" s="7"/>
-      <c r="D822" s="8"/>
+      <c r="C822" s="5"/>
+      <c r="D822" s="6"/>
     </row>
     <row r="823">
-      <c r="C823" s="7"/>
-      <c r="D823" s="8"/>
+      <c r="C823" s="5"/>
+      <c r="D823" s="6"/>
     </row>
     <row r="824">
-      <c r="C824" s="7"/>
-      <c r="D824" s="8"/>
+      <c r="C824" s="5"/>
+      <c r="D824" s="6"/>
     </row>
     <row r="825">
-      <c r="C825" s="7"/>
-      <c r="D825" s="8"/>
+      <c r="C825" s="5"/>
+      <c r="D825" s="6"/>
     </row>
     <row r="826">
-      <c r="C826" s="7"/>
-      <c r="D826" s="8"/>
+      <c r="C826" s="5"/>
+      <c r="D826" s="6"/>
     </row>
     <row r="827">
-      <c r="C827" s="7"/>
-      <c r="D827" s="8"/>
+      <c r="C827" s="5"/>
+      <c r="D827" s="6"/>
     </row>
     <row r="828">
-      <c r="C828" s="7"/>
-      <c r="D828" s="8"/>
+      <c r="C828" s="5"/>
+      <c r="D828" s="6"/>
     </row>
     <row r="829">
-      <c r="C829" s="7"/>
-      <c r="D829" s="8"/>
+      <c r="C829" s="5"/>
+      <c r="D829" s="6"/>
     </row>
     <row r="830">
-      <c r="C830" s="7"/>
-      <c r="D830" s="8"/>
+      <c r="C830" s="5"/>
+      <c r="D830" s="6"/>
     </row>
     <row r="831">
-      <c r="C831" s="7"/>
-      <c r="D831" s="8"/>
+      <c r="C831" s="5"/>
+      <c r="D831" s="6"/>
     </row>
     <row r="832">
-      <c r="C832" s="7"/>
-      <c r="D832" s="8"/>
+      <c r="C832" s="5"/>
+      <c r="D832" s="6"/>
     </row>
     <row r="833">
-      <c r="C833" s="7"/>
-      <c r="D833" s="8"/>
+      <c r="C833" s="5"/>
+      <c r="D833" s="6"/>
     </row>
     <row r="834">
-      <c r="C834" s="7"/>
-      <c r="D834" s="8"/>
+      <c r="C834" s="5"/>
+      <c r="D834" s="6"/>
     </row>
     <row r="835">
-      <c r="C835" s="7"/>
-      <c r="D835" s="8"/>
+      <c r="C835" s="5"/>
+      <c r="D835" s="6"/>
     </row>
     <row r="836">
-      <c r="C836" s="7"/>
-      <c r="D836" s="8"/>
+      <c r="C836" s="5"/>
+      <c r="D836" s="6"/>
     </row>
     <row r="837">
-      <c r="C837" s="7"/>
-      <c r="D837" s="8"/>
+      <c r="C837" s="5"/>
+      <c r="D837" s="6"/>
     </row>
     <row r="838">
-      <c r="C838" s="7"/>
-      <c r="D838" s="8"/>
+      <c r="C838" s="5"/>
+      <c r="D838" s="6"/>
     </row>
     <row r="839">
-      <c r="C839" s="7"/>
-      <c r="D839" s="8"/>
+      <c r="C839" s="5"/>
+      <c r="D839" s="6"/>
     </row>
     <row r="840">
-      <c r="C840" s="7"/>
-      <c r="D840" s="8"/>
+      <c r="C840" s="5"/>
+      <c r="D840" s="6"/>
     </row>
     <row r="841">
-      <c r="C841" s="7"/>
-      <c r="D841" s="8"/>
+      <c r="C841" s="5"/>
+      <c r="D841" s="6"/>
     </row>
     <row r="842">
-      <c r="C842" s="7"/>
-      <c r="D842" s="8"/>
+      <c r="C842" s="5"/>
+      <c r="D842" s="6"/>
     </row>
     <row r="843">
-      <c r="C843" s="7"/>
-      <c r="D843" s="8"/>
+      <c r="C843" s="5"/>
+      <c r="D843" s="6"/>
     </row>
     <row r="844">
-      <c r="C844" s="7"/>
-      <c r="D844" s="8"/>
+      <c r="C844" s="5"/>
+      <c r="D844" s="6"/>
     </row>
     <row r="845">
-      <c r="C845" s="7"/>
-      <c r="D845" s="8"/>
+      <c r="C845" s="5"/>
+      <c r="D845" s="6"/>
     </row>
     <row r="846">
-      <c r="C846" s="7"/>
-      <c r="D846" s="8"/>
+      <c r="C846" s="5"/>
+      <c r="D846" s="6"/>
     </row>
     <row r="847">
-      <c r="C847" s="7"/>
-      <c r="D847" s="8"/>
+      <c r="C847" s="5"/>
+      <c r="D847" s="6"/>
     </row>
     <row r="848">
-      <c r="C848" s="7"/>
-      <c r="D848" s="8"/>
+      <c r="C848" s="5"/>
+      <c r="D848" s="6"/>
     </row>
     <row r="849">
-      <c r="C849" s="7"/>
-      <c r="D849" s="8"/>
+      <c r="C849" s="5"/>
+      <c r="D849" s="6"/>
     </row>
     <row r="850">
-      <c r="C850" s="7"/>
-      <c r="D850" s="8"/>
+      <c r="C850" s="5"/>
+      <c r="D850" s="6"/>
     </row>
     <row r="851">
-      <c r="C851" s="7"/>
-      <c r="D851" s="8"/>
+      <c r="C851" s="5"/>
+      <c r="D851" s="6"/>
     </row>
     <row r="852">
-      <c r="C852" s="7"/>
-      <c r="D852" s="8"/>
+      <c r="C852" s="5"/>
+      <c r="D852" s="6"/>
     </row>
     <row r="853">
-      <c r="C853" s="7"/>
-      <c r="D853" s="8"/>
+      <c r="C853" s="5"/>
+      <c r="D853" s="6"/>
     </row>
     <row r="854">
-      <c r="C854" s="7"/>
-      <c r="D854" s="8"/>
+      <c r="C854" s="5"/>
+      <c r="D854" s="6"/>
     </row>
     <row r="855">
-      <c r="C855" s="7"/>
-      <c r="D855" s="8"/>
+      <c r="C855" s="5"/>
+      <c r="D855" s="6"/>
     </row>
     <row r="856">
-      <c r="C856" s="7"/>
-      <c r="D856" s="8"/>
+      <c r="C856" s="5"/>
+      <c r="D856" s="6"/>
     </row>
     <row r="857">
-      <c r="C857" s="7"/>
-      <c r="D857" s="8"/>
+      <c r="C857" s="5"/>
+      <c r="D857" s="6"/>
     </row>
     <row r="858">
-      <c r="C858" s="7"/>
-      <c r="D858" s="8"/>
+      <c r="C858" s="5"/>
+      <c r="D858" s="6"/>
     </row>
     <row r="859">
-      <c r="C859" s="7"/>
-      <c r="D859" s="8"/>
+      <c r="C859" s="5"/>
+      <c r="D859" s="6"/>
     </row>
     <row r="860">
-      <c r="C860" s="7"/>
-      <c r="D860" s="8"/>
+      <c r="C860" s="5"/>
+      <c r="D860" s="6"/>
     </row>
     <row r="861">
-      <c r="C861" s="7"/>
-      <c r="D861" s="8"/>
+      <c r="C861" s="5"/>
+      <c r="D861" s="6"/>
     </row>
     <row r="862">
-      <c r="C862" s="7"/>
-      <c r="D862" s="8"/>
+      <c r="C862" s="5"/>
+      <c r="D862" s="6"/>
     </row>
     <row r="863">
-      <c r="C863" s="7"/>
-      <c r="D863" s="8"/>
+      <c r="C863" s="5"/>
+      <c r="D863" s="6"/>
     </row>
     <row r="864">
-      <c r="C864" s="7"/>
-      <c r="D864" s="8"/>
+      <c r="C864" s="5"/>
+      <c r="D864" s="6"/>
     </row>
     <row r="865">
-      <c r="C865" s="7"/>
-      <c r="D865" s="8"/>
+      <c r="C865" s="5"/>
+      <c r="D865" s="6"/>
     </row>
     <row r="866">
-      <c r="C866" s="7"/>
-      <c r="D866" s="8"/>
+      <c r="C866" s="5"/>
+      <c r="D866" s="6"/>
     </row>
     <row r="867">
-      <c r="C867" s="7"/>
-      <c r="D867" s="8"/>
+      <c r="C867" s="5"/>
+      <c r="D867" s="6"/>
     </row>
     <row r="868">
-      <c r="C868" s="7"/>
-      <c r="D868" s="8"/>
+      <c r="C868" s="5"/>
+      <c r="D868" s="6"/>
     </row>
     <row r="869">
-      <c r="C869" s="7"/>
-      <c r="D869" s="8"/>
+      <c r="C869" s="5"/>
+      <c r="D869" s="6"/>
     </row>
     <row r="870">
-      <c r="C870" s="7"/>
-      <c r="D870" s="8"/>
+      <c r="C870" s="5"/>
+      <c r="D870" s="6"/>
     </row>
     <row r="871">
-      <c r="C871" s="7"/>
-      <c r="D871" s="8"/>
+      <c r="C871" s="5"/>
+      <c r="D871" s="6"/>
     </row>
     <row r="872">
-      <c r="C872" s="7"/>
-      <c r="D872" s="8"/>
+      <c r="C872" s="5"/>
+      <c r="D872" s="6"/>
     </row>
     <row r="873">
-      <c r="C873" s="7"/>
-      <c r="D873" s="8"/>
+      <c r="C873" s="5"/>
+      <c r="D873" s="6"/>
     </row>
     <row r="874">
-      <c r="C874" s="7"/>
-      <c r="D874" s="8"/>
+      <c r="C874" s="5"/>
+      <c r="D874" s="6"/>
     </row>
     <row r="875">
-      <c r="C875" s="7"/>
-      <c r="D875" s="8"/>
+      <c r="C875" s="5"/>
+      <c r="D875" s="6"/>
     </row>
     <row r="876">
-      <c r="C876" s="7"/>
-      <c r="D876" s="8"/>
+      <c r="C876" s="5"/>
+      <c r="D876" s="6"/>
     </row>
     <row r="877">
-      <c r="C877" s="7"/>
-      <c r="D877" s="8"/>
+      <c r="C877" s="5"/>
+      <c r="D877" s="6"/>
     </row>
     <row r="878">
-      <c r="C878" s="7"/>
-      <c r="D878" s="8"/>
+      <c r="C878" s="5"/>
+      <c r="D878" s="6"/>
     </row>
     <row r="879">
-      <c r="C879" s="7"/>
-      <c r="D879" s="8"/>
+      <c r="C879" s="5"/>
+      <c r="D879" s="6"/>
     </row>
     <row r="880">
-      <c r="C880" s="7"/>
-      <c r="D880" s="8"/>
+      <c r="C880" s="5"/>
+      <c r="D880" s="6"/>
     </row>
     <row r="881">
-      <c r="C881" s="7"/>
-      <c r="D881" s="8"/>
+      <c r="C881" s="5"/>
+      <c r="D881" s="6"/>
     </row>
     <row r="882">
-      <c r="C882" s="7"/>
-      <c r="D882" s="8"/>
+      <c r="C882" s="5"/>
+      <c r="D882" s="6"/>
     </row>
     <row r="883">
-      <c r="C883" s="7"/>
-      <c r="D883" s="8"/>
+      <c r="C883" s="5"/>
+      <c r="D883" s="6"/>
     </row>
     <row r="884">
-      <c r="C884" s="7"/>
-      <c r="D884" s="8"/>
+      <c r="C884" s="5"/>
+      <c r="D884" s="6"/>
     </row>
     <row r="885">
-      <c r="C885" s="7"/>
-      <c r="D885" s="8"/>
+      <c r="C885" s="5"/>
+      <c r="D885" s="6"/>
     </row>
     <row r="886">
-      <c r="C886" s="7"/>
-      <c r="D886" s="8"/>
+      <c r="C886" s="5"/>
+      <c r="D886" s="6"/>
     </row>
     <row r="887">
-      <c r="C887" s="7"/>
-      <c r="D887" s="8"/>
+      <c r="C887" s="5"/>
+      <c r="D887" s="6"/>
     </row>
     <row r="888">
-      <c r="C888" s="7"/>
-      <c r="D888" s="8"/>
+      <c r="C888" s="5"/>
+      <c r="D888" s="6"/>
     </row>
     <row r="889">
-      <c r="C889" s="7"/>
-      <c r="D889" s="8"/>
+      <c r="C889" s="5"/>
+      <c r="D889" s="6"/>
     </row>
     <row r="890">
-      <c r="C890" s="7"/>
-      <c r="D890" s="8"/>
+      <c r="C890" s="5"/>
+      <c r="D890" s="6"/>
     </row>
     <row r="891">
-      <c r="C891" s="7"/>
-      <c r="D891" s="8"/>
+      <c r="C891" s="5"/>
+      <c r="D891" s="6"/>
     </row>
     <row r="892">
-      <c r="C892" s="7"/>
-      <c r="D892" s="8"/>
+      <c r="C892" s="5"/>
+      <c r="D892" s="6"/>
     </row>
     <row r="893">
-      <c r="C893" s="7"/>
-      <c r="D893" s="8"/>
+      <c r="C893" s="5"/>
+      <c r="D893" s="6"/>
     </row>
     <row r="894">
-      <c r="C894" s="7"/>
-      <c r="D894" s="8"/>
+      <c r="C894" s="5"/>
+      <c r="D894" s="6"/>
     </row>
     <row r="895">
-      <c r="C895" s="7"/>
-      <c r="D895" s="8"/>
+      <c r="C895" s="5"/>
+      <c r="D895" s="6"/>
     </row>
     <row r="896">
-      <c r="C896" s="7"/>
-      <c r="D896" s="8"/>
+      <c r="C896" s="5"/>
+      <c r="D896" s="6"/>
     </row>
     <row r="897">
-      <c r="C897" s="7"/>
-      <c r="D897" s="8"/>
+      <c r="C897" s="5"/>
+      <c r="D897" s="6"/>
     </row>
     <row r="898">
-      <c r="C898" s="7"/>
-      <c r="D898" s="8"/>
+      <c r="C898" s="5"/>
+      <c r="D898" s="6"/>
     </row>
     <row r="899">
-      <c r="C899" s="7"/>
-      <c r="D899" s="8"/>
+      <c r="C899" s="5"/>
+      <c r="D899" s="6"/>
     </row>
     <row r="900">
-      <c r="C900" s="7"/>
-      <c r="D900" s="8"/>
+      <c r="C900" s="5"/>
+      <c r="D900" s="6"/>
     </row>
     <row r="901">
-      <c r="C901" s="7"/>
-      <c r="D901" s="8"/>
+      <c r="C901" s="5"/>
+      <c r="D901" s="6"/>
     </row>
     <row r="902">
-      <c r="C902" s="7"/>
-      <c r="D902" s="8"/>
+      <c r="C902" s="5"/>
+      <c r="D902" s="6"/>
     </row>
     <row r="903">
-      <c r="C903" s="7"/>
-      <c r="D903" s="8"/>
+      <c r="C903" s="5"/>
+      <c r="D903" s="6"/>
     </row>
     <row r="904">
-      <c r="C904" s="7"/>
-      <c r="D904" s="8"/>
+      <c r="C904" s="5"/>
+      <c r="D904" s="6"/>
     </row>
     <row r="905">
-      <c r="C905" s="7"/>
-      <c r="D905" s="8"/>
+      <c r="C905" s="5"/>
+      <c r="D905" s="6"/>
     </row>
     <row r="906">
-      <c r="C906" s="7"/>
-      <c r="D906" s="8"/>
+      <c r="C906" s="5"/>
+      <c r="D906" s="6"/>
     </row>
     <row r="907">
-      <c r="C907" s="7"/>
-      <c r="D907" s="8"/>
+      <c r="C907" s="5"/>
+      <c r="D907" s="6"/>
     </row>
     <row r="908">
-      <c r="C908" s="7"/>
-      <c r="D908" s="8"/>
+      <c r="C908" s="5"/>
+      <c r="D908" s="6"/>
     </row>
     <row r="909">
-      <c r="C909" s="7"/>
-      <c r="D909" s="8"/>
+      <c r="C909" s="5"/>
+      <c r="D909" s="6"/>
     </row>
     <row r="910">
-      <c r="C910" s="7"/>
-      <c r="D910" s="8"/>
+      <c r="C910" s="5"/>
+      <c r="D910" s="6"/>
     </row>
     <row r="911">
-      <c r="C911" s="7"/>
-      <c r="D911" s="8"/>
+      <c r="C911" s="5"/>
+      <c r="D911" s="6"/>
     </row>
     <row r="912">
-      <c r="C912" s="7"/>
-      <c r="D912" s="8"/>
+      <c r="C912" s="5"/>
+      <c r="D912" s="6"/>
     </row>
     <row r="913">
-      <c r="C913" s="7"/>
-      <c r="D913" s="8"/>
+      <c r="C913" s="5"/>
+      <c r="D913" s="6"/>
     </row>
     <row r="914">
-      <c r="C914" s="7"/>
-      <c r="D914" s="8"/>
+      <c r="C914" s="5"/>
+      <c r="D914" s="6"/>
     </row>
     <row r="915">
-      <c r="C915" s="7"/>
-      <c r="D915" s="8"/>
+      <c r="C915" s="5"/>
+      <c r="D915" s="6"/>
     </row>
     <row r="916">
-      <c r="C916" s="7"/>
-      <c r="D916" s="8"/>
+      <c r="C916" s="5"/>
+      <c r="D916" s="6"/>
     </row>
     <row r="917">
-      <c r="C917" s="7"/>
-      <c r="D917" s="8"/>
+      <c r="C917" s="5"/>
+      <c r="D917" s="6"/>
     </row>
     <row r="918">
-      <c r="C918" s="7"/>
-      <c r="D918" s="8"/>
+      <c r="C918" s="5"/>
+      <c r="D918" s="6"/>
     </row>
     <row r="919">
-      <c r="C919" s="7"/>
-      <c r="D919" s="8"/>
+      <c r="C919" s="5"/>
+      <c r="D919" s="6"/>
     </row>
     <row r="920">
-      <c r="C920" s="7"/>
-      <c r="D920" s="8"/>
+      <c r="C920" s="5"/>
+      <c r="D920" s="6"/>
     </row>
     <row r="921">
-      <c r="C921" s="7"/>
-      <c r="D921" s="8"/>
+      <c r="C921" s="5"/>
+      <c r="D921" s="6"/>
     </row>
     <row r="922">
-      <c r="C922" s="7"/>
-      <c r="D922" s="8"/>
+      <c r="C922" s="5"/>
+      <c r="D922" s="6"/>
     </row>
     <row r="923">
-      <c r="C923" s="7"/>
-      <c r="D923" s="8"/>
+      <c r="C923" s="5"/>
+      <c r="D923" s="6"/>
     </row>
     <row r="924">
-      <c r="C924" s="7"/>
-      <c r="D924" s="8"/>
+      <c r="C924" s="5"/>
+      <c r="D924" s="6"/>
     </row>
     <row r="925">
-      <c r="C925" s="7"/>
-      <c r="D925" s="8"/>
+      <c r="C925" s="5"/>
+      <c r="D925" s="6"/>
     </row>
     <row r="926">
-      <c r="C926" s="7"/>
-      <c r="D926" s="8"/>
+      <c r="C926" s="5"/>
+      <c r="D926" s="6"/>
     </row>
     <row r="927">
-      <c r="C927" s="7"/>
-      <c r="D927" s="8"/>
+      <c r="C927" s="5"/>
+      <c r="D927" s="6"/>
     </row>
     <row r="928">
-      <c r="C928" s="7"/>
-      <c r="D928" s="8"/>
+      <c r="C928" s="5"/>
+      <c r="D928" s="6"/>
     </row>
     <row r="929">
-      <c r="C929" s="7"/>
-      <c r="D929" s="8"/>
+      <c r="C929" s="5"/>
+      <c r="D929" s="6"/>
     </row>
     <row r="930">
-      <c r="C930" s="7"/>
-      <c r="D930" s="8"/>
+      <c r="C930" s="5"/>
+      <c r="D930" s="6"/>
     </row>
     <row r="931">
-      <c r="C931" s="7"/>
-      <c r="D931" s="8"/>
+      <c r="C931" s="5"/>
+      <c r="D931" s="6"/>
     </row>
     <row r="932">
-      <c r="C932" s="7"/>
-      <c r="D932" s="8"/>
+      <c r="C932" s="5"/>
+      <c r="D932" s="6"/>
     </row>
     <row r="933">
-      <c r="C933" s="7"/>
-      <c r="D933" s="8"/>
+      <c r="C933" s="5"/>
+      <c r="D933" s="6"/>
     </row>
     <row r="934">
-      <c r="C934" s="7"/>
-      <c r="D934" s="8"/>
+      <c r="C934" s="5"/>
+      <c r="D934" s="6"/>
     </row>
     <row r="935">
-      <c r="C935" s="7"/>
-      <c r="D935" s="8"/>
+      <c r="C935" s="5"/>
+      <c r="D935" s="6"/>
     </row>
     <row r="936">
-      <c r="C936" s="7"/>
-      <c r="D936" s="8"/>
+      <c r="C936" s="5"/>
+      <c r="D936" s="6"/>
     </row>
     <row r="937">
-      <c r="C937" s="7"/>
-      <c r="D937" s="8"/>
+      <c r="C937" s="5"/>
+      <c r="D937" s="6"/>
     </row>
     <row r="938">
-      <c r="C938" s="7"/>
-      <c r="D938" s="8"/>
+      <c r="C938" s="5"/>
+      <c r="D938" s="6"/>
     </row>
     <row r="939">
-      <c r="C939" s="7"/>
-      <c r="D939" s="8"/>
+      <c r="C939" s="5"/>
+      <c r="D939" s="6"/>
     </row>
     <row r="940">
-      <c r="C940" s="7"/>
-      <c r="D940" s="8"/>
+      <c r="C940" s="5"/>
+      <c r="D940" s="6"/>
     </row>
     <row r="941">
-      <c r="C941" s="7"/>
-      <c r="D941" s="8"/>
+      <c r="C941" s="5"/>
+      <c r="D941" s="6"/>
     </row>
     <row r="942">
-      <c r="C942" s="7"/>
-      <c r="D942" s="8"/>
+      <c r="C942" s="5"/>
+      <c r="D942" s="6"/>
     </row>
     <row r="943">
-      <c r="C943" s="7"/>
-      <c r="D943" s="8"/>
+      <c r="C943" s="5"/>
+      <c r="D943" s="6"/>
     </row>
     <row r="944">
-      <c r="C944" s="7"/>
-      <c r="D944" s="8"/>
+      <c r="C944" s="5"/>
+      <c r="D944" s="6"/>
     </row>
     <row r="945">
-      <c r="C945" s="7"/>
-      <c r="D945" s="8"/>
+      <c r="C945" s="5"/>
+      <c r="D945" s="6"/>
     </row>
     <row r="946">
-      <c r="C946" s="7"/>
-      <c r="D946" s="8"/>
+      <c r="C946" s="5"/>
+      <c r="D946" s="6"/>
     </row>
     <row r="947">
-      <c r="C947" s="7"/>
-      <c r="D947" s="8"/>
+      <c r="C947" s="5"/>
+      <c r="D947" s="6"/>
     </row>
     <row r="948">
-      <c r="C948" s="7"/>
-      <c r="D948" s="8"/>
+      <c r="C948" s="5"/>
+      <c r="D948" s="6"/>
     </row>
     <row r="949">
-      <c r="C949" s="7"/>
-      <c r="D949" s="8"/>
+      <c r="C949" s="5"/>
+      <c r="D949" s="6"/>
     </row>
     <row r="950">
-      <c r="C950" s="7"/>
-      <c r="D950" s="8"/>
+      <c r="C950" s="5"/>
+      <c r="D950" s="6"/>
     </row>
     <row r="951">
-      <c r="C951" s="7"/>
-      <c r="D951" s="8"/>
+      <c r="C951" s="5"/>
+      <c r="D951" s="6"/>
     </row>
     <row r="952">
-      <c r="C952" s="7"/>
-      <c r="D952" s="8"/>
+      <c r="C952" s="5"/>
+      <c r="D952" s="6"/>
     </row>
     <row r="953">
-      <c r="C953" s="7"/>
-      <c r="D953" s="8"/>
+      <c r="C953" s="5"/>
+      <c r="D953" s="6"/>
     </row>
     <row r="954">
-      <c r="C954" s="7"/>
-      <c r="D954" s="8"/>
+      <c r="C954" s="5"/>
+      <c r="D954" s="6"/>
     </row>
     <row r="955">
-      <c r="C955" s="7"/>
-      <c r="D955" s="8"/>
+      <c r="C955" s="5"/>
+      <c r="D955" s="6"/>
     </row>
     <row r="956">
-      <c r="C956" s="7"/>
-      <c r="D956" s="8"/>
+      <c r="C956" s="5"/>
+      <c r="D956" s="6"/>
     </row>
     <row r="957">
-      <c r="C957" s="7"/>
-      <c r="D957" s="8"/>
+      <c r="C957" s="5"/>
+      <c r="D957" s="6"/>
     </row>
     <row r="958">
-      <c r="C958" s="7"/>
-      <c r="D958" s="8"/>
+      <c r="C958" s="5"/>
+      <c r="D958" s="6"/>
     </row>
     <row r="959">
-      <c r="C959" s="7"/>
-      <c r="D959" s="8"/>
+      <c r="C959" s="5"/>
+      <c r="D959" s="6"/>
     </row>
     <row r="960">
-      <c r="C960" s="7"/>
-      <c r="D960" s="8"/>
+      <c r="C960" s="5"/>
+      <c r="D960" s="6"/>
     </row>
     <row r="961">
-      <c r="C961" s="7"/>
-      <c r="D961" s="8"/>
+      <c r="C961" s="5"/>
+      <c r="D961" s="6"/>
     </row>
     <row r="962">
-      <c r="C962" s="7"/>
-      <c r="D962" s="8"/>
+      <c r="C962" s="5"/>
+      <c r="D962" s="6"/>
     </row>
     <row r="963">
-      <c r="C963" s="7"/>
-      <c r="D963" s="8"/>
+      <c r="C963" s="5"/>
+      <c r="D963" s="6"/>
     </row>
     <row r="964">
-      <c r="C964" s="7"/>
-      <c r="D964" s="8"/>
+      <c r="C964" s="5"/>
+      <c r="D964" s="6"/>
     </row>
     <row r="965">
-      <c r="C965" s="7"/>
-      <c r="D965" s="8"/>
+      <c r="C965" s="5"/>
+      <c r="D965" s="6"/>
     </row>
     <row r="966">
-      <c r="C966" s="7"/>
-      <c r="D966" s="8"/>
+      <c r="C966" s="5"/>
+      <c r="D966" s="6"/>
     </row>
     <row r="967">
-      <c r="C967" s="7"/>
-      <c r="D967" s="8"/>
+      <c r="C967" s="5"/>
+      <c r="D967" s="6"/>
     </row>
     <row r="968">
-      <c r="C968" s="7"/>
-      <c r="D968" s="8"/>
+      <c r="C968" s="5"/>
+      <c r="D968" s="6"/>
     </row>
     <row r="969">
-      <c r="C969" s="7"/>
-      <c r="D969" s="8"/>
+      <c r="C969" s="5"/>
+      <c r="D969" s="6"/>
     </row>
     <row r="970">
-      <c r="C970" s="7"/>
-      <c r="D970" s="8"/>
+      <c r="C970" s="5"/>
+      <c r="D970" s="6"/>
     </row>
     <row r="971">
-      <c r="C971" s="7"/>
-      <c r="D971" s="8"/>
+      <c r="C971" s="5"/>
+      <c r="D971" s="6"/>
     </row>
     <row r="972">
-      <c r="C972" s="7"/>
-      <c r="D972" s="8"/>
+      <c r="C972" s="5"/>
+      <c r="D972" s="6"/>
     </row>
     <row r="973">
-      <c r="C973" s="7"/>
-      <c r="D973" s="8"/>
+      <c r="C973" s="5"/>
+      <c r="D973" s="6"/>
     </row>
     <row r="974">
-      <c r="C974" s="7"/>
-      <c r="D974" s="8"/>
+      <c r="C974" s="5"/>
+      <c r="D974" s="6"/>
     </row>
     <row r="975">
-      <c r="C975" s="7"/>
-      <c r="D975" s="8"/>
+      <c r="C975" s="5"/>
+      <c r="D975" s="6"/>
     </row>
     <row r="976">
-      <c r="C976" s="7"/>
-      <c r="D976" s="8"/>
+      <c r="C976" s="5"/>
+      <c r="D976" s="6"/>
     </row>
     <row r="977">
-      <c r="C977" s="7"/>
-      <c r="D977" s="8"/>
+      <c r="C977" s="5"/>
+      <c r="D977" s="6"/>
     </row>
     <row r="978">
-      <c r="C978" s="7"/>
-      <c r="D978" s="8"/>
+      <c r="C978" s="5"/>
+      <c r="D978" s="6"/>
     </row>
     <row r="979">
-      <c r="C979" s="7"/>
-      <c r="D979" s="8"/>
+      <c r="C979" s="5"/>
+      <c r="D979" s="6"/>
     </row>
     <row r="980">
-      <c r="C980" s="7"/>
-      <c r="D980" s="8"/>
+      <c r="C980" s="5"/>
+      <c r="D980" s="6"/>
     </row>
     <row r="981">
-      <c r="C981" s="7"/>
-      <c r="D981" s="8"/>
+      <c r="C981" s="5"/>
+      <c r="D981" s="6"/>
     </row>
     <row r="982">
-      <c r="C982" s="7"/>
-      <c r="D982" s="8"/>
+      <c r="C982" s="5"/>
+      <c r="D982" s="6"/>
     </row>
     <row r="983">
-      <c r="C983" s="7"/>
-      <c r="D983" s="8"/>
+      <c r="C983" s="5"/>
+      <c r="D983" s="6"/>
     </row>
     <row r="984">
-      <c r="C984" s="7"/>
-      <c r="D984" s="8"/>
+      <c r="C984" s="5"/>
+      <c r="D984" s="6"/>
     </row>
     <row r="985">
-      <c r="C985" s="7"/>
-      <c r="D985" s="8"/>
+      <c r="C985" s="5"/>
+      <c r="D985" s="6"/>
     </row>
     <row r="986">
-      <c r="C986" s="7"/>
-      <c r="D986" s="8"/>
+      <c r="C986" s="5"/>
+      <c r="D986" s="6"/>
     </row>
     <row r="987">
-      <c r="C987" s="7"/>
-      <c r="D987" s="8"/>
+      <c r="C987" s="5"/>
+      <c r="D987" s="6"/>
     </row>
     <row r="988">
-      <c r="C988" s="7"/>
-      <c r="D988" s="8"/>
+      <c r="C988" s="5"/>
+      <c r="D988" s="6"/>
     </row>
     <row r="989">
-      <c r="C989" s="7"/>
-      <c r="D989" s="8"/>
+      <c r="C989" s="5"/>
+      <c r="D989" s="6"/>
     </row>
     <row r="990">
-      <c r="C990" s="7"/>
-      <c r="D990" s="8"/>
+      <c r="C990" s="5"/>
+      <c r="D990" s="6"/>
     </row>
     <row r="991">
-      <c r="C991" s="7"/>
-      <c r="D991" s="8"/>
+      <c r="C991" s="5"/>
+      <c r="D991" s="6"/>
     </row>
     <row r="992">
-      <c r="C992" s="7"/>
-      <c r="D992" s="8"/>
+      <c r="C992" s="5"/>
+      <c r="D992" s="6"/>
     </row>
     <row r="993">
-      <c r="C993" s="7"/>
-      <c r="D993" s="8"/>
+      <c r="C993" s="5"/>
+      <c r="D993" s="6"/>
     </row>
     <row r="994">
-      <c r="C994" s="7"/>
-      <c r="D994" s="8"/>
+      <c r="C994" s="5"/>
+      <c r="D994" s="6"/>
     </row>
     <row r="995">
-      <c r="C995" s="7"/>
-      <c r="D995" s="8"/>
+      <c r="C995" s="5"/>
+      <c r="D995" s="6"/>
     </row>
     <row r="996">
-      <c r="C996" s="7"/>
-      <c r="D996" s="8"/>
+      <c r="C996" s="5"/>
+      <c r="D996" s="6"/>
     </row>
     <row r="997">
-      <c r="C997" s="7"/>
-      <c r="D997" s="8"/>
+      <c r="C997" s="5"/>
+      <c r="D997" s="6"/>
     </row>
     <row r="998">
-      <c r="C998" s="7"/>
-      <c r="D998" s="8"/>
+      <c r="C998" s="5"/>
+      <c r="D998" s="6"/>
     </row>
     <row r="999">
-      <c r="C999" s="7"/>
-      <c r="D999" s="8"/>
+      <c r="C999" s="5"/>
+      <c r="D999" s="6"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D100">

--- a/Scrum/BACKLOG.xlsx
+++ b/Scrum/BACKLOG.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="62">
   <si>
     <t>Task Nummer</t>
   </si>
@@ -92,6 +92,9 @@
     <t>Logic for classes practica 2</t>
   </si>
   <si>
+    <t>Practicum 1</t>
+  </si>
+  <si>
     <t>Checkmate functionality</t>
   </si>
   <si>
@@ -107,34 +110,25 @@
     <t>Clear() function</t>
   </si>
   <si>
-    <t>Implement inheritance</t>
-  </si>
-  <si>
-    <t>Squashed repetitve functions</t>
-  </si>
-  <si>
-    <t>make const functions</t>
-  </si>
-  <si>
-    <t>Refactorization boogaloo</t>
-  </si>
-  <si>
-    <t>AI bugs</t>
-  </si>
-  <si>
-    <t>Practicum 1</t>
-  </si>
-  <si>
     <t>Work date</t>
   </si>
   <si>
     <t>Work day</t>
   </si>
   <si>
+    <t>Implement inheritance</t>
+  </si>
+  <si>
     <t>Ideal tasks remaining</t>
   </si>
   <si>
+    <t>Squashed repetitve functions</t>
+  </si>
+  <si>
     <t>Actual tasks remaining</t>
+  </si>
+  <si>
+    <t>make const functions</t>
   </si>
   <si>
     <t>Time spent Jochem</t>
@@ -146,10 +140,16 @@
     <t>Time spent Kiran</t>
   </si>
   <si>
+    <t>Refactorization boogaloo</t>
+  </si>
+  <si>
     <t>Completed tasks Kiran</t>
   </si>
   <si>
     <t>Total tasks completed</t>
+  </si>
+  <si>
+    <t>AI bugs</t>
   </si>
   <si>
     <t>Total time spent</t>
@@ -210,12 +210,16 @@
     <numFmt numFmtId="166" formatCode="#,##0.000"/>
     <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <color rgb="FFFFFFFF"/>
+    </font>
+    <font/>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
@@ -224,12 +228,9 @@
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
       <color rgb="FF434343"/>
-    </font>
-    <font>
-      <color rgb="FFD9D9D9"/>
+      <name val="Arial"/>
     </font>
     <font>
       <color rgb="FFD9D9D9"/>
@@ -240,14 +241,19 @@
       <name val="Arial"/>
     </font>
     <font>
-      <color rgb="FFFFFFFF"/>
-    </font>
-    <font>
       <color rgb="FF073763"/>
       <name val="Arial"/>
     </font>
     <font>
       <color rgb="FF980000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color rgb="FF783F04"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color rgb="FF274E13"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -325,16 +331,6 @@
       </right>
     </border>
     <border>
-      <left style="dotted">
-        <color rgb="FF000000"/>
-      </left>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-    </border>
-    <border>
       <right style="dotted">
         <color rgb="FF000000"/>
       </right>
@@ -357,6 +353,11 @@
       <left style="dotted">
         <color rgb="FF000000"/>
       </left>
+    </border>
+    <border>
+      <left style="dotted">
+        <color rgb="FF000000"/>
+      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -364,61 +365,99 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="71">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="4" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="9" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="4" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="5" fillId="0" fontId="2" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="6" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="4" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="1" fillId="2" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="9" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="2" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="2" fillId="3" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="3" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="2" fillId="3" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="3" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="2" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="2" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -427,93 +466,102 @@
     <xf borderId="3" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="2" fillId="4" fontId="8" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="5" fontId="9" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="6" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="7" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="4" fontId="9" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="5" fontId="10" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="6" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="7" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="3" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="166" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="166" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="2" fillId="0" fontId="3" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="6" fillId="2" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="3" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="6" fillId="2" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="6" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="7" fillId="4" fontId="9" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="2" fillId="7" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="2" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="5" fillId="4" fontId="8" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="7" fillId="5" fontId="10" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="5" fillId="5" fontId="9" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="7" fillId="6" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="6" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="5" fillId="0" fontId="2" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="7" fillId="7" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="7" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="5" fillId="0" fontId="2" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="166" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="166" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -589,8 +637,8 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="934278328"/>
-        <c:axId val="1848724388"/>
+        <c:axId val="1623852300"/>
+        <c:axId val="786250879"/>
       </c:barChart>
       <c:lineChart>
         <c:ser>
@@ -629,11 +677,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="934278328"/>
-        <c:axId val="1848724388"/>
+        <c:axId val="1623852300"/>
+        <c:axId val="786250879"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="934278328"/>
+        <c:axId val="1623852300"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -675,10 +723,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1848724388"/>
+        <c:crossAx val="786250879"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1848724388"/>
+        <c:axId val="786250879"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -747,7 +795,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="934278328"/>
+        <c:crossAx val="1623852300"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -1001,860 +1049,970 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="9"/>
+      <c r="A1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="13"/>
     </row>
     <row r="2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="10" t="s">
+      <c r="E2" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="F2" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="G2" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" s="10" t="s">
+      <c r="H2" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="I2" s="15"/>
+      <c r="J2" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="M2" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2" s="14" t="s">
+      <c r="M2" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="O2" s="15"/>
+      <c r="O2" s="24"/>
     </row>
     <row r="3">
-      <c r="A3" s="16">
+      <c r="A3" s="26">
         <v>43887.0</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="28">
         <v>0.0</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="29">
         <f>((1-(B3/MAX(B$4:B$100)))*COUNT(Tasks!$A$2:$A$39))</f>
         <v>28</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="29">
         <f>COUNT(Tasks!$A$2:$A$100)</f>
         <v>28</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="28">
         <v>0.0</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="28">
         <v>0.0</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="28">
         <v>0.0</v>
       </c>
-      <c r="H3" s="17">
+      <c r="H3" s="28">
         <v>0.0</v>
       </c>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="20"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="22" t="s">
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="31"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="O3" s="23" t="s">
+      <c r="O3" s="34" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="24">
+      <c r="A4" s="32">
         <v>43888.0</v>
       </c>
-      <c r="B4" s="25">
+      <c r="B4" s="9">
         <v>1.0</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="35">
         <f>((1-(B4/MAX(B$4:B$100)))*COUNT(Tasks!$A$2:$A$39))</f>
-        <v>26.13333333</v>
-      </c>
-      <c r="D4" s="27">
-        <f t="shared" ref="D4:D20" si="1">D3-F4-H4</f>
+        <v>26.52631579</v>
+      </c>
+      <c r="D4" s="36">
+        <f t="shared" ref="D4:D22" si="1">D3-F4-H4</f>
         <v>25.3</v>
       </c>
-      <c r="E4" s="28">
+      <c r="E4" s="37">
         <v>6.5</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4" s="9">
         <v>1.35</v>
       </c>
-      <c r="G4" s="29">
+      <c r="G4" s="38">
         <v>6.5</v>
       </c>
-      <c r="H4" s="25">
+      <c r="H4" s="9">
         <v>1.35</v>
       </c>
-      <c r="I4" s="30"/>
-      <c r="J4" s="8">
-        <f t="shared" ref="J4:J20" si="2">H4+F4</f>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11">
+        <f t="shared" ref="J4:J22" si="2">H4+F4</f>
         <v>2.7</v>
       </c>
-      <c r="K4" s="9">
-        <f t="shared" ref="K4:K20" si="3">G4+E4</f>
+      <c r="K4" s="13">
+        <f t="shared" ref="K4:K22" si="3">G4+E4</f>
         <v>13</v>
       </c>
-      <c r="M4" s="21">
+      <c r="M4" s="32">
         <v>43888.0</v>
       </c>
-      <c r="N4" s="31" t="s">
+      <c r="N4" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="O4" s="32" t="s">
+      <c r="O4" s="40" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="24">
+      <c r="A5" s="32">
         <v>43889.0</v>
       </c>
-      <c r="B5" s="25">
+      <c r="B5" s="9">
         <v>2.0</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="35">
         <f>((1-(B5/MAX(B$4:B$100)))*COUNT(Tasks!$A$2:$A$39))</f>
-        <v>24.26666667</v>
-      </c>
-      <c r="D5" s="27">
+        <v>25.05263158</v>
+      </c>
+      <c r="D5" s="36">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="E5" s="28">
+      <c r="E5" s="37">
         <v>3.5</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="9">
         <v>3.7</v>
       </c>
-      <c r="G5" s="29">
+      <c r="G5" s="38">
         <v>3.0</v>
       </c>
-      <c r="H5" s="25">
+      <c r="H5" s="9">
         <v>2.6</v>
       </c>
-      <c r="I5" s="30"/>
-      <c r="J5" s="8">
+      <c r="I5" s="11"/>
+      <c r="J5" s="11">
         <f t="shared" si="2"/>
         <v>6.3</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="13">
         <f t="shared" si="3"/>
         <v>6.5</v>
       </c>
-      <c r="M5" s="21">
+      <c r="M5" s="32">
         <v>43889.0</v>
       </c>
-      <c r="N5" s="31" t="s">
+      <c r="N5" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="O5" s="32" t="s">
+      <c r="O5" s="40" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="24">
+      <c r="A6" s="32">
         <v>43890.0</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6" s="9">
         <v>3.0</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="35">
         <f>((1-(B6/MAX(B$4:B$100)))*COUNT(Tasks!$A$2:$A$39))</f>
-        <v>22.4</v>
-      </c>
-      <c r="D6" s="27">
+        <v>23.57894737</v>
+      </c>
+      <c r="D6" s="36">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="E6" s="28">
+      <c r="E6" s="37">
         <v>3.5</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="9">
         <v>3.0</v>
       </c>
-      <c r="G6" s="29">
+      <c r="G6" s="38">
         <v>4.0</v>
       </c>
-      <c r="H6" s="25">
+      <c r="H6" s="9">
         <v>4.0</v>
       </c>
-      <c r="I6" s="30"/>
-      <c r="J6" s="8">
+      <c r="I6" s="11"/>
+      <c r="J6" s="11">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="13">
         <f t="shared" si="3"/>
         <v>7.5</v>
       </c>
-      <c r="M6" s="21">
+      <c r="M6" s="32">
         <v>43890.0</v>
       </c>
-      <c r="N6" s="31" t="s">
+      <c r="N6" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="O6" s="33" t="s">
+      <c r="O6" s="41" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="24">
+      <c r="A7" s="32">
         <v>43891.0</v>
       </c>
-      <c r="B7" s="25">
+      <c r="B7" s="9">
         <v>4.0</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="35">
         <f>((1-(B7/MAX(B$4:B$100)))*COUNT(Tasks!$A$2:$A$39))</f>
-        <v>20.53333333</v>
-      </c>
-      <c r="D7" s="27">
+        <v>22.10526316</v>
+      </c>
+      <c r="D7" s="36">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="E7" s="28">
+      <c r="E7" s="37">
         <v>0.0</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="9">
         <v>0.0</v>
       </c>
-      <c r="G7" s="29">
+      <c r="G7" s="38">
         <v>0.0</v>
       </c>
-      <c r="H7" s="25">
+      <c r="H7" s="9">
         <v>0.0</v>
       </c>
-      <c r="I7" s="30"/>
-      <c r="J7" s="8">
+      <c r="I7" s="11"/>
+      <c r="J7" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M7" s="21">
+      <c r="M7" s="32">
         <v>43891.0</v>
       </c>
-      <c r="N7" s="31" t="s">
+      <c r="N7" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="O7" s="32" t="s">
+      <c r="O7" s="40" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="24">
+      <c r="A8" s="32">
         <v>43892.0</v>
       </c>
-      <c r="B8" s="25">
+      <c r="B8" s="9">
         <v>5.0</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8" s="35">
         <f>((1-(B8/MAX(B$4:B$100)))*COUNT(Tasks!$A$2:$A$39))</f>
-        <v>18.66666667</v>
-      </c>
-      <c r="D8" s="27">
+        <v>20.63157895</v>
+      </c>
+      <c r="D8" s="36">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="E8" s="28">
+      <c r="E8" s="37">
         <v>0.0</v>
       </c>
-      <c r="F8" s="25">
+      <c r="F8" s="9">
         <v>0.0</v>
       </c>
-      <c r="G8" s="29">
+      <c r="G8" s="38">
         <v>0.0</v>
       </c>
-      <c r="H8" s="25">
+      <c r="H8" s="9">
         <v>0.0</v>
       </c>
-      <c r="I8" s="30"/>
-      <c r="J8" s="8">
+      <c r="I8" s="11"/>
+      <c r="J8" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M8" s="21">
+      <c r="M8" s="32">
         <v>43892.0</v>
       </c>
-      <c r="N8" s="34" t="s">
+      <c r="N8" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="O8" s="35" t="s">
+      <c r="O8" s="42" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="24">
+      <c r="A9" s="32">
         <v>43893.0</v>
       </c>
-      <c r="B9" s="25">
+      <c r="B9" s="9">
         <v>6.0</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C9" s="35">
         <f>((1-(B9/MAX(B$4:B$100)))*COUNT(Tasks!$A$2:$A$39))</f>
-        <v>16.8</v>
-      </c>
-      <c r="D9" s="27">
+        <v>19.15789474</v>
+      </c>
+      <c r="D9" s="36">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="E9" s="28">
+      <c r="E9" s="37">
         <v>5.0</v>
       </c>
-      <c r="F9" s="25">
+      <c r="F9" s="9">
         <v>4.0</v>
       </c>
-      <c r="G9" s="29">
+      <c r="G9" s="38">
         <v>5.0</v>
       </c>
-      <c r="H9" s="25">
+      <c r="H9" s="9">
         <v>3.0</v>
       </c>
-      <c r="I9" s="30"/>
-      <c r="J9" s="8">
+      <c r="I9" s="11"/>
+      <c r="J9" s="11">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="13">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="M9" s="21">
+      <c r="M9" s="32">
         <v>43893.0</v>
       </c>
-      <c r="N9" s="34" t="s">
+      <c r="N9" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="O9" s="35" t="s">
+      <c r="O9" s="42" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="24">
+      <c r="A10" s="32">
         <v>43894.0</v>
       </c>
-      <c r="B10" s="25">
+      <c r="B10" s="9">
         <v>7.0</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="35">
         <f>((1-(B10/MAX(B$4:B$100)))*COUNT(Tasks!$A$2:$A$39))</f>
-        <v>14.93333333</v>
-      </c>
-      <c r="D10" s="27">
+        <v>17.68421053</v>
+      </c>
+      <c r="D10" s="36">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="E10" s="28">
+      <c r="E10" s="37">
         <v>0.0</v>
       </c>
-      <c r="F10" s="36">
+      <c r="F10" s="43">
         <v>0.0</v>
       </c>
-      <c r="G10" s="29">
+      <c r="G10" s="38">
         <v>0.0</v>
       </c>
-      <c r="H10" s="25">
+      <c r="H10" s="9">
         <v>0.0</v>
       </c>
-      <c r="I10" s="37"/>
-      <c r="J10" s="8">
+      <c r="I10" s="44"/>
+      <c r="J10" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K10" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M10" s="21">
+      <c r="M10" s="32">
         <v>43894.0</v>
       </c>
-      <c r="N10" s="34" t="s">
+      <c r="N10" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="O10" s="35" t="s">
+      <c r="O10" s="42" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="24">
+      <c r="A11" s="32">
         <v>43895.0</v>
       </c>
-      <c r="B11" s="25">
+      <c r="B11" s="9">
         <v>8.0</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C11" s="35">
         <f>((1-(B11/MAX(B$4:B$100)))*COUNT(Tasks!$A$2:$A$39))</f>
-        <v>13.06666667</v>
-      </c>
-      <c r="D11" s="27">
+        <v>16.21052632</v>
+      </c>
+      <c r="D11" s="36">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E11" s="28">
+      <c r="E11" s="37">
         <v>3.0</v>
       </c>
-      <c r="F11" s="25">
+      <c r="F11" s="9">
         <v>1.0</v>
       </c>
-      <c r="G11" s="29">
+      <c r="G11" s="38">
         <v>1.0</v>
       </c>
-      <c r="H11" s="25">
+      <c r="H11" s="9">
         <v>2.0</v>
       </c>
-      <c r="I11" s="30"/>
-      <c r="J11" s="8">
+      <c r="I11" s="11"/>
+      <c r="J11" s="11">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="K11" s="9">
+      <c r="K11" s="13">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="M11" s="21">
+      <c r="M11" s="32">
         <v>43895.0</v>
       </c>
-      <c r="N11" s="38" t="s">
+      <c r="N11" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="O11" s="39">
+      <c r="O11" s="46">
         <v>25.0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="24">
+      <c r="A12" s="32">
         <v>43896.0</v>
       </c>
-      <c r="B12" s="25">
+      <c r="B12" s="9">
         <v>9.0</v>
       </c>
-      <c r="C12" s="26">
+      <c r="C12" s="35">
         <f>((1-(B12/MAX(B$4:B$100)))*COUNT(Tasks!$A$2:$A$39))</f>
-        <v>11.2</v>
-      </c>
-      <c r="D12" s="27">
+        <v>14.73684211</v>
+      </c>
+      <c r="D12" s="36">
         <f t="shared" si="1"/>
         <v>1.85715</v>
       </c>
-      <c r="E12" s="28">
+      <c r="E12" s="37">
         <v>3.0</v>
       </c>
-      <c r="F12" s="40">
+      <c r="F12" s="47">
         <v>0.14285</v>
       </c>
-      <c r="G12" s="29">
+      <c r="G12" s="38">
         <v>0.0</v>
       </c>
-      <c r="H12" s="25">
+      <c r="H12" s="9">
         <v>0.0</v>
       </c>
-      <c r="I12" s="30"/>
-      <c r="J12" s="41">
+      <c r="I12" s="11"/>
+      <c r="J12" s="48">
         <f t="shared" si="2"/>
         <v>0.14285</v>
       </c>
-      <c r="K12" s="9">
+      <c r="K12" s="13">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="M12" s="21">
+      <c r="M12" s="32">
         <v>43896.0</v>
       </c>
-      <c r="N12" s="34" t="s">
+      <c r="N12" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="O12" s="39">
+      <c r="O12" s="46">
         <v>27.0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="24">
+      <c r="A13" s="32">
         <v>43897.0</v>
       </c>
-      <c r="B13" s="25">
+      <c r="B13" s="9">
         <v>10.0</v>
       </c>
-      <c r="C13" s="26">
+      <c r="C13" s="35">
         <f>((1-(B13/MAX(B$4:B$100)))*COUNT(Tasks!$A$2:$A$39))</f>
-        <v>9.333333333</v>
-      </c>
-      <c r="D13" s="27">
+        <v>13.26315789</v>
+      </c>
+      <c r="D13" s="36">
         <f t="shared" si="1"/>
         <v>1.69045</v>
       </c>
-      <c r="E13" s="28">
+      <c r="E13" s="37">
         <v>1.0</v>
       </c>
-      <c r="F13" s="42">
+      <c r="F13" s="49">
         <v>0.0</v>
       </c>
-      <c r="G13" s="29">
+      <c r="G13" s="38">
         <v>3.0</v>
       </c>
-      <c r="H13" s="40">
+      <c r="H13" s="47">
         <v>0.1667</v>
       </c>
-      <c r="I13" s="30"/>
-      <c r="J13" s="41">
+      <c r="I13" s="11"/>
+      <c r="J13" s="48">
         <f t="shared" si="2"/>
         <v>0.1667</v>
       </c>
-      <c r="K13" s="9">
+      <c r="K13" s="13">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="M13" s="21">
+      <c r="M13" s="32">
         <v>43897.0</v>
       </c>
-      <c r="N13" s="38">
+      <c r="N13" s="45">
         <v>27.0</v>
       </c>
-      <c r="O13" s="35" t="s">
+      <c r="O13" s="42" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="24">
+      <c r="A14" s="32">
         <v>43898.0</v>
       </c>
-      <c r="B14" s="25">
+      <c r="B14" s="9">
         <v>11.0</v>
       </c>
-      <c r="C14" s="26">
+      <c r="C14" s="35">
         <f>((1-(B14/MAX(B$4:B$100)))*COUNT(Tasks!$A$2:$A$39))</f>
-        <v>7.466666667</v>
-      </c>
-      <c r="D14" s="27">
+        <v>11.78947368</v>
+      </c>
+      <c r="D14" s="36">
         <f t="shared" si="1"/>
         <v>1.3809</v>
       </c>
-      <c r="E14" s="28">
+      <c r="E14" s="37">
         <v>1.5</v>
       </c>
-      <c r="F14" s="40">
+      <c r="F14" s="47">
         <v>0.14285</v>
       </c>
-      <c r="G14" s="29">
+      <c r="G14" s="38">
         <v>2.5</v>
       </c>
-      <c r="H14" s="40">
+      <c r="H14" s="47">
         <v>0.1667</v>
       </c>
-      <c r="I14" s="30"/>
-      <c r="J14" s="41">
+      <c r="I14" s="11"/>
+      <c r="J14" s="48">
         <f t="shared" si="2"/>
         <v>0.30955</v>
       </c>
-      <c r="K14" s="9">
+      <c r="K14" s="13">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="M14" s="21">
+      <c r="M14" s="32">
         <v>43898.0</v>
       </c>
-      <c r="N14" s="38">
+      <c r="N14" s="45">
         <v>27.0</v>
       </c>
-      <c r="O14" s="35" t="s">
+      <c r="O14" s="42" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="24">
+      <c r="A15" s="32">
         <v>43899.0</v>
       </c>
-      <c r="B15" s="25">
+      <c r="B15" s="9">
         <v>12.0</v>
       </c>
-      <c r="C15" s="26">
+      <c r="C15" s="35">
         <f>((1-(B15/MAX(B$4:B$100)))*COUNT(Tasks!$A$2:$A$39))</f>
-        <v>5.6</v>
-      </c>
-      <c r="D15" s="27">
+        <v>10.31578947</v>
+      </c>
+      <c r="D15" s="36">
         <f t="shared" si="1"/>
         <v>1.07135</v>
       </c>
-      <c r="E15" s="28">
+      <c r="E15" s="37">
         <v>2.0</v>
       </c>
-      <c r="F15" s="40">
+      <c r="F15" s="47">
         <v>0.14285</v>
       </c>
-      <c r="G15" s="29">
+      <c r="G15" s="38">
         <v>2.0</v>
       </c>
-      <c r="H15" s="40">
+      <c r="H15" s="47">
         <v>0.1667</v>
       </c>
-      <c r="I15" s="30"/>
-      <c r="J15" s="41">
+      <c r="I15" s="11"/>
+      <c r="J15" s="48">
         <f t="shared" si="2"/>
         <v>0.30955</v>
       </c>
-      <c r="K15" s="9">
+      <c r="K15" s="13">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="M15" s="21">
+      <c r="M15" s="32">
         <v>43899.0</v>
       </c>
-      <c r="N15" s="38">
+      <c r="N15" s="45">
         <v>27.0</v>
       </c>
-      <c r="O15" s="35" t="s">
+      <c r="O15" s="42" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="24">
+      <c r="A16" s="32">
         <v>43900.0</v>
       </c>
-      <c r="B16" s="25">
+      <c r="B16" s="9">
         <v>13.0</v>
       </c>
-      <c r="C16" s="26">
+      <c r="C16" s="35">
         <f>((1-(B16/MAX(B$4:B$100)))*COUNT(Tasks!$A$2:$A$39))</f>
-        <v>3.733333333</v>
-      </c>
-      <c r="D16" s="27">
+        <v>8.842105263</v>
+      </c>
+      <c r="D16" s="36">
         <f t="shared" si="1"/>
         <v>0.7618</v>
       </c>
-      <c r="E16" s="28">
+      <c r="E16" s="37">
         <v>3.0</v>
       </c>
-      <c r="F16" s="40">
+      <c r="F16" s="47">
         <v>0.14285</v>
       </c>
-      <c r="G16" s="29">
+      <c r="G16" s="38">
         <v>2.0</v>
       </c>
-      <c r="H16" s="40">
+      <c r="H16" s="47">
         <v>0.1667</v>
       </c>
-      <c r="I16" s="30"/>
-      <c r="J16" s="41">
+      <c r="I16" s="11"/>
+      <c r="J16" s="48">
         <f t="shared" si="2"/>
         <v>0.30955</v>
       </c>
-      <c r="K16" s="9">
+      <c r="K16" s="13">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="M16" s="21">
+      <c r="M16" s="32">
         <v>43900.0</v>
       </c>
-      <c r="N16" s="38">
+      <c r="N16" s="45">
         <v>27.0</v>
       </c>
-      <c r="O16" s="35" t="s">
+      <c r="O16" s="42" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="24">
+      <c r="A17" s="32">
         <v>43901.0</v>
       </c>
-      <c r="B17" s="25">
+      <c r="B17" s="9">
         <v>14.0</v>
       </c>
-      <c r="C17" s="26">
+      <c r="C17" s="35">
         <f>((1-(B17/MAX(B$4:B$100)))*COUNT(Tasks!$A$2:$A$39))</f>
-        <v>1.866666667</v>
-      </c>
-      <c r="D17" s="27">
+        <v>7.368421053</v>
+      </c>
+      <c r="D17" s="36">
         <f t="shared" si="1"/>
         <v>0.45225</v>
       </c>
-      <c r="E17" s="28">
+      <c r="E17" s="37">
         <v>2.0</v>
       </c>
-      <c r="F17" s="40">
+      <c r="F17" s="47">
         <v>0.14285</v>
       </c>
-      <c r="G17" s="29">
+      <c r="G17" s="38">
         <v>2.0</v>
       </c>
-      <c r="H17" s="40">
+      <c r="H17" s="47">
         <v>0.1667</v>
       </c>
-      <c r="I17" s="30"/>
-      <c r="J17" s="41">
+      <c r="I17" s="11"/>
+      <c r="J17" s="48">
         <f t="shared" si="2"/>
         <v>0.30955</v>
       </c>
-      <c r="K17" s="9">
+      <c r="K17" s="13">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="M17" s="21">
+      <c r="M17" s="50">
         <v>43901.0</v>
       </c>
-      <c r="N17" s="34" t="s">
+      <c r="N17" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="O17" s="35" t="s">
+      <c r="O17" s="8" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="24">
+      <c r="A18" s="32">
         <v>43902.0</v>
       </c>
-      <c r="B18" s="25">
+      <c r="B18" s="9">
         <v>15.0</v>
       </c>
-      <c r="C18" s="26">
+      <c r="C18" s="35">
         <f>((1-(B18/MAX(B$4:B$100)))*COUNT(Tasks!$A$2:$A$39))</f>
-        <v>0</v>
-      </c>
-      <c r="D18" s="27">
+        <v>5.894736842</v>
+      </c>
+      <c r="D18" s="36">
         <f t="shared" si="1"/>
         <v>0.1427</v>
       </c>
-      <c r="E18" s="28">
+      <c r="E18" s="37">
         <v>4.0</v>
       </c>
-      <c r="F18" s="40">
+      <c r="F18" s="47">
         <v>0.14285</v>
       </c>
-      <c r="G18" s="29">
+      <c r="G18" s="38">
         <v>4.0</v>
       </c>
-      <c r="H18" s="40">
+      <c r="H18" s="47">
         <v>0.1667</v>
       </c>
-      <c r="I18" s="30"/>
-      <c r="J18" s="41">
+      <c r="I18" s="11"/>
+      <c r="J18" s="48">
         <f t="shared" si="2"/>
         <v>0.30955</v>
       </c>
-      <c r="K18" s="9">
+      <c r="K18" s="13">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="M18" s="43">
+      <c r="M18" s="50">
         <v>43902.0</v>
       </c>
-      <c r="N18" s="44" t="s">
+      <c r="N18" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="O18" s="45" t="s">
+      <c r="O18" s="8" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="24">
+      <c r="A19" s="32">
         <v>43903.0</v>
       </c>
-      <c r="B19" s="25">
-        <v>15.0</v>
-      </c>
-      <c r="C19" s="26">
+      <c r="B19" s="5">
+        <v>16.0</v>
+      </c>
+      <c r="C19" s="35">
         <f>((1-(B19/MAX(B$4:B$100)))*COUNT(Tasks!$A$2:$A$39))</f>
-        <v>0</v>
-      </c>
-      <c r="D19" s="27">
+        <v>4.421052632</v>
+      </c>
+      <c r="D19" s="36">
         <f t="shared" si="1"/>
         <v>0.1427</v>
       </c>
-      <c r="E19" s="28">
+      <c r="E19" s="37">
         <v>0.0</v>
       </c>
-      <c r="F19" s="46">
+      <c r="F19" s="51">
         <v>0.0</v>
       </c>
-      <c r="G19" s="29">
+      <c r="G19" s="38">
         <v>0.0</v>
       </c>
-      <c r="H19" s="40">
+      <c r="H19" s="47">
         <v>0.0</v>
       </c>
-      <c r="I19" s="30"/>
-      <c r="J19" s="41">
+      <c r="I19" s="11"/>
+      <c r="J19" s="48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K19" s="9">
+      <c r="K19" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="M19" s="50">
+        <v>43903.0</v>
+      </c>
+      <c r="N19" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="O19" s="53" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="47">
+      <c r="A20" s="50">
         <v>43904.0</v>
       </c>
-      <c r="B20" s="48">
-        <v>15.0</v>
-      </c>
-      <c r="C20" s="49">
+      <c r="B20" s="5">
+        <v>17.0</v>
+      </c>
+      <c r="C20" s="35">
         <f>((1-(B20/MAX(B$4:B$100)))*COUNT(Tasks!$A$2:$A$39))</f>
-        <v>0</v>
-      </c>
-      <c r="D20" s="50">
+        <v>2.947368421</v>
+      </c>
+      <c r="D20" s="36">
         <f t="shared" si="1"/>
         <v>-0.00015</v>
       </c>
-      <c r="E20" s="51">
+      <c r="E20" s="54">
         <v>2.0</v>
       </c>
-      <c r="F20" s="52">
+      <c r="F20" s="55">
         <v>0.14285</v>
       </c>
-      <c r="G20" s="53">
+      <c r="G20" s="56">
         <v>0.0</v>
       </c>
-      <c r="H20" s="52">
+      <c r="H20" s="55">
         <v>0.0</v>
       </c>
-      <c r="I20" s="54"/>
-      <c r="J20" s="55">
+      <c r="I20" s="57"/>
+      <c r="J20" s="48">
         <f t="shared" si="2"/>
         <v>0.14285</v>
       </c>
-      <c r="K20" s="56">
+      <c r="K20" s="13">
         <f t="shared" si="3"/>
         <v>2</v>
+      </c>
+      <c r="M20" s="50">
+        <v>43904.0</v>
+      </c>
+      <c r="N20" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="O20" s="53">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="50">
+        <v>43905.0</v>
+      </c>
+      <c r="B21" s="5">
+        <v>18.0</v>
+      </c>
+      <c r="C21" s="35">
+        <f>((1-(B21/MAX(B$4:B$100)))*COUNT(Tasks!$A$2:$A$39))</f>
+        <v>1.473684211</v>
+      </c>
+      <c r="D21" s="36">
+        <f t="shared" si="1"/>
+        <v>-0.00015</v>
+      </c>
+      <c r="E21" s="54">
+        <v>0.0</v>
+      </c>
+      <c r="F21" s="58">
+        <v>0.0</v>
+      </c>
+      <c r="G21" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="H21" s="55">
+        <v>0.0</v>
+      </c>
+      <c r="I21" s="57"/>
+      <c r="J21" s="48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="50">
+        <v>43905.0</v>
+      </c>
+      <c r="N21" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="O21" s="53" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="59">
+        <v>43906.0</v>
+      </c>
+      <c r="B22" s="17">
+        <v>19.0</v>
+      </c>
+      <c r="C22" s="60">
+        <f>((1-(B22/MAX(B$4:B$100)))*COUNT(Tasks!$A$2:$A$39))</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="61">
+        <f t="shared" si="1"/>
+        <v>-0.00015</v>
+      </c>
+      <c r="E22" s="62">
+        <v>0.0</v>
+      </c>
+      <c r="F22" s="63">
+        <v>0.0</v>
+      </c>
+      <c r="G22" s="64">
+        <v>0.0</v>
+      </c>
+      <c r="H22" s="65">
+        <v>0.0</v>
+      </c>
+      <c r="I22" s="66"/>
+      <c r="J22" s="67">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="59">
+        <v>43906.0</v>
+      </c>
+      <c r="N22" s="69" t="s">
+        <v>55</v>
+      </c>
+      <c r="O22" s="70" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1882,4374 +2040,4374 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>1.0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="6">
         <v>2.0</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="7">
         <v>1.0</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>2.0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="6">
         <v>4.0</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="7">
         <v>1.0</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>3.0</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="6">
         <v>10.0</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="7">
         <v>1.0</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>4.0</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="6">
         <v>5.0</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="7">
         <v>1.0</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>5.0</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="6">
         <v>2.0</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="7">
         <v>1.0</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>6.0</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="6">
         <v>2.0</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="7">
         <v>1.0</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>7.0</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="6">
         <v>2.0</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="7">
         <v>1.0</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <v>8.0</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="6">
         <v>0.5</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="7">
         <v>1.0</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1">
+      <c r="A10" s="2">
         <v>9.0</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="6">
         <v>0.5</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="7">
         <v>1.0</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <v>10.0</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="6">
         <v>1.0</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="7">
         <v>1.0</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1">
+      <c r="A12" s="2">
         <v>11.0</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="6">
         <v>1.0</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="7">
         <v>1.0</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1">
+      <c r="A13" s="2">
         <v>12.0</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="6">
         <v>0.75</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="7">
         <v>1.0</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1">
+      <c r="A14" s="2">
         <v>13.0</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="6">
         <v>0.1</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="7">
         <v>1.0</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1">
+      <c r="A15" s="2">
         <v>14.0</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="6">
         <v>0.3</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="7">
         <v>1.0</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1">
+      <c r="A16" s="2">
         <v>15.0</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="6">
         <v>0.5</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="7">
         <v>1.0</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1">
+      <c r="A17" s="2">
         <v>16.0</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="6">
         <v>0.5</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="7">
         <v>1.0</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1">
+      <c r="A18" s="2">
         <v>17.0</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="6">
         <v>2.0</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="7">
         <v>1.0</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1">
+      <c r="A19" s="2">
         <v>18.0</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="6">
         <v>10.0</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="9">
         <v>100.0</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1">
+      <c r="A20" s="2">
         <v>19.0</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="2">
+      <c r="B20" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="6">
         <v>5.0</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="7">
         <v>1.0</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1">
+      <c r="A21" s="2">
         <v>20.0</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="2">
+      <c r="B21" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="6">
         <v>10.0</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="12">
         <v>1.0</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1">
+      <c r="A22" s="2">
         <v>21.0</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="2">
+      <c r="B22" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="6">
         <v>2.0</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="7">
         <v>1.0</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1">
+      <c r="A23" s="2">
         <v>22.0</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="2">
+      <c r="B23" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="6">
         <v>1.5</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="7">
         <v>1.0</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1">
+      <c r="A24" s="2">
         <v>23.0</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="2">
+      <c r="B24" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="6">
         <v>0.5</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="7">
         <v>1.0</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1">
+      <c r="A25" s="2">
         <v>24.0</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="2">
+      <c r="B25" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="6">
         <v>4.0</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="7">
         <v>1.0</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1">
+      <c r="A26" s="2">
         <v>25.0</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="2">
+      <c r="B26" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="6">
         <v>3.0</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="7">
         <v>1.0</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1">
+      <c r="A27" s="2">
         <v>26.0</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="2">
+      <c r="B27" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="6">
         <v>1.0</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="12">
         <v>1.0</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1">
+      <c r="A28" s="2">
         <v>27.0</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="2">
+      <c r="B28" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="6">
         <v>10.0</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="12">
         <v>1.0</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1">
+      <c r="A29" s="16">
         <v>28.0</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" s="2">
+      <c r="B29" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="19">
         <v>10.0</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="21">
         <v>1.0</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="23" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="30">
-      <c r="C30" s="5"/>
-      <c r="D30" s="6"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="27"/>
     </row>
     <row r="31">
-      <c r="C31" s="5"/>
-      <c r="D31" s="6"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="27"/>
     </row>
     <row r="32">
-      <c r="C32" s="5"/>
-      <c r="D32" s="6"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="27"/>
     </row>
     <row r="33">
-      <c r="C33" s="5"/>
-      <c r="D33" s="6"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="27"/>
     </row>
     <row r="34">
-      <c r="C34" s="5"/>
-      <c r="D34" s="6"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="27"/>
     </row>
     <row r="35">
-      <c r="C35" s="5"/>
-      <c r="D35" s="6"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="27"/>
     </row>
     <row r="36">
-      <c r="C36" s="5"/>
-      <c r="D36" s="6"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="27"/>
     </row>
     <row r="37">
-      <c r="C37" s="5"/>
-      <c r="D37" s="6"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="27"/>
     </row>
     <row r="38">
-      <c r="C38" s="5"/>
-      <c r="D38" s="6"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="27"/>
     </row>
     <row r="39">
-      <c r="C39" s="5"/>
-      <c r="D39" s="6"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="27"/>
     </row>
     <row r="40">
-      <c r="C40" s="5"/>
-      <c r="D40" s="6"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="27"/>
     </row>
     <row r="41">
-      <c r="C41" s="5"/>
-      <c r="D41" s="6"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="27"/>
     </row>
     <row r="42">
-      <c r="C42" s="5"/>
-      <c r="D42" s="6"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="27"/>
     </row>
     <row r="43">
-      <c r="C43" s="5"/>
-      <c r="D43" s="6"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="27"/>
     </row>
     <row r="44">
-      <c r="C44" s="5"/>
-      <c r="D44" s="6"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="27"/>
     </row>
     <row r="45">
-      <c r="C45" s="5"/>
-      <c r="D45" s="6"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="27"/>
     </row>
     <row r="46">
-      <c r="C46" s="5"/>
-      <c r="D46" s="6"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="27"/>
     </row>
     <row r="47">
-      <c r="C47" s="5"/>
-      <c r="D47" s="6"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="27"/>
     </row>
     <row r="48">
-      <c r="C48" s="5"/>
-      <c r="D48" s="6"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="27"/>
     </row>
     <row r="49">
-      <c r="C49" s="5"/>
-      <c r="D49" s="6"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="27"/>
     </row>
     <row r="50">
-      <c r="C50" s="5"/>
-      <c r="D50" s="6"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="27"/>
     </row>
     <row r="51">
-      <c r="C51" s="5"/>
-      <c r="D51" s="6"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="27"/>
     </row>
     <row r="52">
-      <c r="C52" s="5"/>
-      <c r="D52" s="6"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="27"/>
     </row>
     <row r="53">
-      <c r="C53" s="5"/>
-      <c r="D53" s="6"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="27"/>
     </row>
     <row r="54">
-      <c r="C54" s="5"/>
-      <c r="D54" s="6"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="27"/>
     </row>
     <row r="55">
-      <c r="C55" s="5"/>
-      <c r="D55" s="6"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="27"/>
     </row>
     <row r="56">
-      <c r="C56" s="5"/>
-      <c r="D56" s="6"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="27"/>
     </row>
     <row r="57">
-      <c r="C57" s="5"/>
-      <c r="D57" s="6"/>
+      <c r="C57" s="25"/>
+      <c r="D57" s="27"/>
     </row>
     <row r="58">
-      <c r="C58" s="5"/>
-      <c r="D58" s="6"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="27"/>
     </row>
     <row r="59">
-      <c r="C59" s="5"/>
-      <c r="D59" s="6"/>
+      <c r="C59" s="25"/>
+      <c r="D59" s="27"/>
     </row>
     <row r="60">
-      <c r="C60" s="5"/>
-      <c r="D60" s="6"/>
+      <c r="C60" s="25"/>
+      <c r="D60" s="27"/>
     </row>
     <row r="61">
-      <c r="C61" s="5"/>
-      <c r="D61" s="6"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="27"/>
     </row>
     <row r="62">
-      <c r="C62" s="5"/>
-      <c r="D62" s="6"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="27"/>
     </row>
     <row r="63">
-      <c r="C63" s="5"/>
-      <c r="D63" s="6"/>
+      <c r="C63" s="25"/>
+      <c r="D63" s="27"/>
     </row>
     <row r="64">
-      <c r="C64" s="5"/>
-      <c r="D64" s="6"/>
+      <c r="C64" s="25"/>
+      <c r="D64" s="27"/>
     </row>
     <row r="65">
-      <c r="C65" s="5"/>
-      <c r="D65" s="6"/>
+      <c r="C65" s="25"/>
+      <c r="D65" s="27"/>
     </row>
     <row r="66">
-      <c r="C66" s="5"/>
-      <c r="D66" s="6"/>
+      <c r="C66" s="25"/>
+      <c r="D66" s="27"/>
     </row>
     <row r="67">
-      <c r="C67" s="5"/>
-      <c r="D67" s="6"/>
+      <c r="C67" s="25"/>
+      <c r="D67" s="27"/>
     </row>
     <row r="68">
-      <c r="C68" s="5"/>
-      <c r="D68" s="6"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="27"/>
     </row>
     <row r="69">
-      <c r="C69" s="5"/>
-      <c r="D69" s="6"/>
+      <c r="C69" s="25"/>
+      <c r="D69" s="27"/>
     </row>
     <row r="70">
-      <c r="C70" s="5"/>
-      <c r="D70" s="6"/>
+      <c r="C70" s="25"/>
+      <c r="D70" s="27"/>
     </row>
     <row r="71">
-      <c r="C71" s="5"/>
-      <c r="D71" s="6"/>
+      <c r="C71" s="25"/>
+      <c r="D71" s="27"/>
     </row>
     <row r="72">
-      <c r="C72" s="5"/>
-      <c r="D72" s="6"/>
+      <c r="C72" s="25"/>
+      <c r="D72" s="27"/>
     </row>
     <row r="73">
-      <c r="C73" s="5"/>
-      <c r="D73" s="6"/>
+      <c r="C73" s="25"/>
+      <c r="D73" s="27"/>
     </row>
     <row r="74">
-      <c r="C74" s="5"/>
-      <c r="D74" s="6"/>
+      <c r="C74" s="25"/>
+      <c r="D74" s="27"/>
     </row>
     <row r="75">
-      <c r="C75" s="5"/>
-      <c r="D75" s="6"/>
+      <c r="C75" s="25"/>
+      <c r="D75" s="27"/>
     </row>
     <row r="76">
-      <c r="C76" s="5"/>
-      <c r="D76" s="6"/>
+      <c r="C76" s="25"/>
+      <c r="D76" s="27"/>
     </row>
     <row r="77">
-      <c r="C77" s="5"/>
-      <c r="D77" s="6"/>
+      <c r="C77" s="25"/>
+      <c r="D77" s="27"/>
     </row>
     <row r="78">
-      <c r="C78" s="5"/>
-      <c r="D78" s="6"/>
+      <c r="C78" s="25"/>
+      <c r="D78" s="27"/>
     </row>
     <row r="79">
-      <c r="C79" s="5"/>
-      <c r="D79" s="6"/>
+      <c r="C79" s="25"/>
+      <c r="D79" s="27"/>
     </row>
     <row r="80">
-      <c r="C80" s="5"/>
-      <c r="D80" s="6"/>
+      <c r="C80" s="25"/>
+      <c r="D80" s="27"/>
     </row>
     <row r="81">
-      <c r="C81" s="5"/>
-      <c r="D81" s="6"/>
+      <c r="C81" s="25"/>
+      <c r="D81" s="27"/>
     </row>
     <row r="82">
-      <c r="C82" s="5"/>
-      <c r="D82" s="6"/>
+      <c r="C82" s="25"/>
+      <c r="D82" s="27"/>
     </row>
     <row r="83">
-      <c r="C83" s="5"/>
-      <c r="D83" s="6"/>
+      <c r="C83" s="25"/>
+      <c r="D83" s="27"/>
     </row>
     <row r="84">
-      <c r="C84" s="5"/>
-      <c r="D84" s="6"/>
+      <c r="C84" s="25"/>
+      <c r="D84" s="27"/>
     </row>
     <row r="85">
-      <c r="C85" s="5"/>
-      <c r="D85" s="6"/>
+      <c r="C85" s="25"/>
+      <c r="D85" s="27"/>
     </row>
     <row r="86">
-      <c r="C86" s="5"/>
-      <c r="D86" s="6"/>
+      <c r="C86" s="25"/>
+      <c r="D86" s="27"/>
     </row>
     <row r="87">
-      <c r="C87" s="5"/>
-      <c r="D87" s="6"/>
+      <c r="C87" s="25"/>
+      <c r="D87" s="27"/>
     </row>
     <row r="88">
-      <c r="C88" s="5"/>
-      <c r="D88" s="6"/>
+      <c r="C88" s="25"/>
+      <c r="D88" s="27"/>
     </row>
     <row r="89">
-      <c r="C89" s="5"/>
-      <c r="D89" s="6"/>
+      <c r="C89" s="25"/>
+      <c r="D89" s="27"/>
     </row>
     <row r="90">
-      <c r="C90" s="5"/>
-      <c r="D90" s="6"/>
+      <c r="C90" s="25"/>
+      <c r="D90" s="27"/>
     </row>
     <row r="91">
-      <c r="C91" s="5"/>
-      <c r="D91" s="6"/>
+      <c r="C91" s="25"/>
+      <c r="D91" s="27"/>
     </row>
     <row r="92">
-      <c r="C92" s="5"/>
-      <c r="D92" s="6"/>
+      <c r="C92" s="25"/>
+      <c r="D92" s="27"/>
     </row>
     <row r="93">
-      <c r="C93" s="5"/>
-      <c r="D93" s="6"/>
+      <c r="C93" s="25"/>
+      <c r="D93" s="27"/>
     </row>
     <row r="94">
-      <c r="C94" s="5"/>
-      <c r="D94" s="6"/>
+      <c r="C94" s="25"/>
+      <c r="D94" s="27"/>
     </row>
     <row r="95">
-      <c r="C95" s="5"/>
-      <c r="D95" s="6"/>
+      <c r="C95" s="25"/>
+      <c r="D95" s="27"/>
     </row>
     <row r="96">
-      <c r="C96" s="5"/>
-      <c r="D96" s="6"/>
+      <c r="C96" s="25"/>
+      <c r="D96" s="27"/>
     </row>
     <row r="97">
-      <c r="C97" s="5"/>
-      <c r="D97" s="6"/>
+      <c r="C97" s="25"/>
+      <c r="D97" s="27"/>
     </row>
     <row r="98">
-      <c r="C98" s="5"/>
-      <c r="D98" s="6"/>
+      <c r="C98" s="25"/>
+      <c r="D98" s="27"/>
     </row>
     <row r="99">
-      <c r="C99" s="5"/>
-      <c r="D99" s="6"/>
+      <c r="C99" s="25"/>
+      <c r="D99" s="27"/>
     </row>
     <row r="100">
-      <c r="C100" s="5"/>
-      <c r="D100" s="6"/>
+      <c r="C100" s="25"/>
+      <c r="D100" s="27"/>
     </row>
     <row r="101">
-      <c r="C101" s="5"/>
-      <c r="D101" s="6"/>
+      <c r="C101" s="25"/>
+      <c r="D101" s="27"/>
     </row>
     <row r="102">
-      <c r="C102" s="5"/>
-      <c r="D102" s="6"/>
+      <c r="C102" s="25"/>
+      <c r="D102" s="27"/>
     </row>
     <row r="103">
-      <c r="C103" s="5"/>
-      <c r="D103" s="6"/>
+      <c r="C103" s="25"/>
+      <c r="D103" s="27"/>
     </row>
     <row r="104">
-      <c r="C104" s="5"/>
-      <c r="D104" s="6"/>
+      <c r="C104" s="25"/>
+      <c r="D104" s="27"/>
     </row>
     <row r="105">
-      <c r="C105" s="5"/>
-      <c r="D105" s="6"/>
+      <c r="C105" s="25"/>
+      <c r="D105" s="27"/>
     </row>
     <row r="106">
-      <c r="C106" s="5"/>
-      <c r="D106" s="6"/>
+      <c r="C106" s="25"/>
+      <c r="D106" s="27"/>
     </row>
     <row r="107">
-      <c r="C107" s="5"/>
-      <c r="D107" s="6"/>
+      <c r="C107" s="25"/>
+      <c r="D107" s="27"/>
     </row>
     <row r="108">
-      <c r="C108" s="5"/>
-      <c r="D108" s="6"/>
+      <c r="C108" s="25"/>
+      <c r="D108" s="27"/>
     </row>
     <row r="109">
-      <c r="C109" s="5"/>
-      <c r="D109" s="6"/>
+      <c r="C109" s="25"/>
+      <c r="D109" s="27"/>
     </row>
     <row r="110">
-      <c r="C110" s="5"/>
-      <c r="D110" s="6"/>
+      <c r="C110" s="25"/>
+      <c r="D110" s="27"/>
     </row>
     <row r="111">
-      <c r="C111" s="5"/>
-      <c r="D111" s="6"/>
+      <c r="C111" s="25"/>
+      <c r="D111" s="27"/>
     </row>
     <row r="112">
-      <c r="C112" s="5"/>
-      <c r="D112" s="6"/>
+      <c r="C112" s="25"/>
+      <c r="D112" s="27"/>
     </row>
     <row r="113">
-      <c r="C113" s="5"/>
-      <c r="D113" s="6"/>
+      <c r="C113" s="25"/>
+      <c r="D113" s="27"/>
     </row>
     <row r="114">
-      <c r="C114" s="5"/>
-      <c r="D114" s="6"/>
+      <c r="C114" s="25"/>
+      <c r="D114" s="27"/>
     </row>
     <row r="115">
-      <c r="C115" s="5"/>
-      <c r="D115" s="6"/>
+      <c r="C115" s="25"/>
+      <c r="D115" s="27"/>
     </row>
     <row r="116">
-      <c r="C116" s="5"/>
-      <c r="D116" s="6"/>
+      <c r="C116" s="25"/>
+      <c r="D116" s="27"/>
     </row>
     <row r="117">
-      <c r="C117" s="5"/>
-      <c r="D117" s="6"/>
+      <c r="C117" s="25"/>
+      <c r="D117" s="27"/>
     </row>
     <row r="118">
-      <c r="C118" s="5"/>
-      <c r="D118" s="6"/>
+      <c r="C118" s="25"/>
+      <c r="D118" s="27"/>
     </row>
     <row r="119">
-      <c r="C119" s="5"/>
-      <c r="D119" s="6"/>
+      <c r="C119" s="25"/>
+      <c r="D119" s="27"/>
     </row>
     <row r="120">
-      <c r="C120" s="5"/>
-      <c r="D120" s="6"/>
+      <c r="C120" s="25"/>
+      <c r="D120" s="27"/>
     </row>
     <row r="121">
-      <c r="C121" s="5"/>
-      <c r="D121" s="6"/>
+      <c r="C121" s="25"/>
+      <c r="D121" s="27"/>
     </row>
     <row r="122">
-      <c r="C122" s="5"/>
-      <c r="D122" s="6"/>
+      <c r="C122" s="25"/>
+      <c r="D122" s="27"/>
     </row>
     <row r="123">
-      <c r="C123" s="5"/>
-      <c r="D123" s="6"/>
+      <c r="C123" s="25"/>
+      <c r="D123" s="27"/>
     </row>
     <row r="124">
-      <c r="C124" s="5"/>
-      <c r="D124" s="6"/>
+      <c r="C124" s="25"/>
+      <c r="D124" s="27"/>
     </row>
     <row r="125">
-      <c r="C125" s="5"/>
-      <c r="D125" s="6"/>
+      <c r="C125" s="25"/>
+      <c r="D125" s="27"/>
     </row>
     <row r="126">
-      <c r="C126" s="5"/>
-      <c r="D126" s="6"/>
+      <c r="C126" s="25"/>
+      <c r="D126" s="27"/>
     </row>
     <row r="127">
-      <c r="C127" s="5"/>
-      <c r="D127" s="6"/>
+      <c r="C127" s="25"/>
+      <c r="D127" s="27"/>
     </row>
     <row r="128">
-      <c r="C128" s="5"/>
-      <c r="D128" s="6"/>
+      <c r="C128" s="25"/>
+      <c r="D128" s="27"/>
     </row>
     <row r="129">
-      <c r="C129" s="5"/>
-      <c r="D129" s="6"/>
+      <c r="C129" s="25"/>
+      <c r="D129" s="27"/>
     </row>
     <row r="130">
-      <c r="C130" s="5"/>
-      <c r="D130" s="6"/>
+      <c r="C130" s="25"/>
+      <c r="D130" s="27"/>
     </row>
     <row r="131">
-      <c r="C131" s="5"/>
-      <c r="D131" s="6"/>
+      <c r="C131" s="25"/>
+      <c r="D131" s="27"/>
     </row>
     <row r="132">
-      <c r="C132" s="5"/>
-      <c r="D132" s="6"/>
+      <c r="C132" s="25"/>
+      <c r="D132" s="27"/>
     </row>
     <row r="133">
-      <c r="C133" s="5"/>
-      <c r="D133" s="6"/>
+      <c r="C133" s="25"/>
+      <c r="D133" s="27"/>
     </row>
     <row r="134">
-      <c r="C134" s="5"/>
-      <c r="D134" s="6"/>
+      <c r="C134" s="25"/>
+      <c r="D134" s="27"/>
     </row>
     <row r="135">
-      <c r="C135" s="5"/>
-      <c r="D135" s="6"/>
+      <c r="C135" s="25"/>
+      <c r="D135" s="27"/>
     </row>
     <row r="136">
-      <c r="C136" s="5"/>
-      <c r="D136" s="6"/>
+      <c r="C136" s="25"/>
+      <c r="D136" s="27"/>
     </row>
     <row r="137">
-      <c r="C137" s="5"/>
-      <c r="D137" s="6"/>
+      <c r="C137" s="25"/>
+      <c r="D137" s="27"/>
     </row>
     <row r="138">
-      <c r="C138" s="5"/>
-      <c r="D138" s="6"/>
+      <c r="C138" s="25"/>
+      <c r="D138" s="27"/>
     </row>
     <row r="139">
-      <c r="C139" s="5"/>
-      <c r="D139" s="6"/>
+      <c r="C139" s="25"/>
+      <c r="D139" s="27"/>
     </row>
     <row r="140">
-      <c r="C140" s="5"/>
-      <c r="D140" s="6"/>
+      <c r="C140" s="25"/>
+      <c r="D140" s="27"/>
     </row>
     <row r="141">
-      <c r="C141" s="5"/>
-      <c r="D141" s="6"/>
+      <c r="C141" s="25"/>
+      <c r="D141" s="27"/>
     </row>
     <row r="142">
-      <c r="C142" s="5"/>
-      <c r="D142" s="6"/>
+      <c r="C142" s="25"/>
+      <c r="D142" s="27"/>
     </row>
     <row r="143">
-      <c r="C143" s="5"/>
-      <c r="D143" s="6"/>
+      <c r="C143" s="25"/>
+      <c r="D143" s="27"/>
     </row>
     <row r="144">
-      <c r="C144" s="5"/>
-      <c r="D144" s="6"/>
+      <c r="C144" s="25"/>
+      <c r="D144" s="27"/>
     </row>
     <row r="145">
-      <c r="C145" s="5"/>
-      <c r="D145" s="6"/>
+      <c r="C145" s="25"/>
+      <c r="D145" s="27"/>
     </row>
     <row r="146">
-      <c r="C146" s="5"/>
-      <c r="D146" s="6"/>
+      <c r="C146" s="25"/>
+      <c r="D146" s="27"/>
     </row>
     <row r="147">
-      <c r="C147" s="5"/>
-      <c r="D147" s="6"/>
+      <c r="C147" s="25"/>
+      <c r="D147" s="27"/>
     </row>
     <row r="148">
-      <c r="C148" s="5"/>
-      <c r="D148" s="6"/>
+      <c r="C148" s="25"/>
+      <c r="D148" s="27"/>
     </row>
     <row r="149">
-      <c r="C149" s="5"/>
-      <c r="D149" s="6"/>
+      <c r="C149" s="25"/>
+      <c r="D149" s="27"/>
     </row>
     <row r="150">
-      <c r="C150" s="5"/>
-      <c r="D150" s="6"/>
+      <c r="C150" s="25"/>
+      <c r="D150" s="27"/>
     </row>
     <row r="151">
-      <c r="C151" s="5"/>
-      <c r="D151" s="6"/>
+      <c r="C151" s="25"/>
+      <c r="D151" s="27"/>
     </row>
     <row r="152">
-      <c r="C152" s="5"/>
-      <c r="D152" s="6"/>
+      <c r="C152" s="25"/>
+      <c r="D152" s="27"/>
     </row>
     <row r="153">
-      <c r="C153" s="5"/>
-      <c r="D153" s="6"/>
+      <c r="C153" s="25"/>
+      <c r="D153" s="27"/>
     </row>
     <row r="154">
-      <c r="C154" s="5"/>
-      <c r="D154" s="6"/>
+      <c r="C154" s="25"/>
+      <c r="D154" s="27"/>
     </row>
     <row r="155">
-      <c r="C155" s="5"/>
-      <c r="D155" s="6"/>
+      <c r="C155" s="25"/>
+      <c r="D155" s="27"/>
     </row>
     <row r="156">
-      <c r="C156" s="5"/>
-      <c r="D156" s="6"/>
+      <c r="C156" s="25"/>
+      <c r="D156" s="27"/>
     </row>
     <row r="157">
-      <c r="C157" s="5"/>
-      <c r="D157" s="6"/>
+      <c r="C157" s="25"/>
+      <c r="D157" s="27"/>
     </row>
     <row r="158">
-      <c r="C158" s="5"/>
-      <c r="D158" s="6"/>
+      <c r="C158" s="25"/>
+      <c r="D158" s="27"/>
     </row>
     <row r="159">
-      <c r="C159" s="5"/>
-      <c r="D159" s="6"/>
+      <c r="C159" s="25"/>
+      <c r="D159" s="27"/>
     </row>
     <row r="160">
-      <c r="C160" s="5"/>
-      <c r="D160" s="6"/>
+      <c r="C160" s="25"/>
+      <c r="D160" s="27"/>
     </row>
     <row r="161">
-      <c r="C161" s="5"/>
-      <c r="D161" s="6"/>
+      <c r="C161" s="25"/>
+      <c r="D161" s="27"/>
     </row>
     <row r="162">
-      <c r="C162" s="5"/>
-      <c r="D162" s="6"/>
+      <c r="C162" s="25"/>
+      <c r="D162" s="27"/>
     </row>
     <row r="163">
-      <c r="C163" s="5"/>
-      <c r="D163" s="6"/>
+      <c r="C163" s="25"/>
+      <c r="D163" s="27"/>
     </row>
     <row r="164">
-      <c r="C164" s="5"/>
-      <c r="D164" s="6"/>
+      <c r="C164" s="25"/>
+      <c r="D164" s="27"/>
     </row>
     <row r="165">
-      <c r="C165" s="5"/>
-      <c r="D165" s="6"/>
+      <c r="C165" s="25"/>
+      <c r="D165" s="27"/>
     </row>
     <row r="166">
-      <c r="C166" s="5"/>
-      <c r="D166" s="6"/>
+      <c r="C166" s="25"/>
+      <c r="D166" s="27"/>
     </row>
     <row r="167">
-      <c r="C167" s="5"/>
-      <c r="D167" s="6"/>
+      <c r="C167" s="25"/>
+      <c r="D167" s="27"/>
     </row>
     <row r="168">
-      <c r="C168" s="5"/>
-      <c r="D168" s="6"/>
+      <c r="C168" s="25"/>
+      <c r="D168" s="27"/>
     </row>
     <row r="169">
-      <c r="C169" s="5"/>
-      <c r="D169" s="6"/>
+      <c r="C169" s="25"/>
+      <c r="D169" s="27"/>
     </row>
     <row r="170">
-      <c r="C170" s="5"/>
-      <c r="D170" s="6"/>
+      <c r="C170" s="25"/>
+      <c r="D170" s="27"/>
     </row>
     <row r="171">
-      <c r="C171" s="5"/>
-      <c r="D171" s="6"/>
+      <c r="C171" s="25"/>
+      <c r="D171" s="27"/>
     </row>
     <row r="172">
-      <c r="C172" s="5"/>
-      <c r="D172" s="6"/>
+      <c r="C172" s="25"/>
+      <c r="D172" s="27"/>
     </row>
     <row r="173">
-      <c r="C173" s="5"/>
-      <c r="D173" s="6"/>
+      <c r="C173" s="25"/>
+      <c r="D173" s="27"/>
     </row>
     <row r="174">
-      <c r="C174" s="5"/>
-      <c r="D174" s="6"/>
+      <c r="C174" s="25"/>
+      <c r="D174" s="27"/>
     </row>
     <row r="175">
-      <c r="C175" s="5"/>
-      <c r="D175" s="6"/>
+      <c r="C175" s="25"/>
+      <c r="D175" s="27"/>
     </row>
     <row r="176">
-      <c r="C176" s="5"/>
-      <c r="D176" s="6"/>
+      <c r="C176" s="25"/>
+      <c r="D176" s="27"/>
     </row>
     <row r="177">
-      <c r="C177" s="5"/>
-      <c r="D177" s="6"/>
+      <c r="C177" s="25"/>
+      <c r="D177" s="27"/>
     </row>
     <row r="178">
-      <c r="C178" s="5"/>
-      <c r="D178" s="6"/>
+      <c r="C178" s="25"/>
+      <c r="D178" s="27"/>
     </row>
     <row r="179">
-      <c r="C179" s="5"/>
-      <c r="D179" s="6"/>
+      <c r="C179" s="25"/>
+      <c r="D179" s="27"/>
     </row>
     <row r="180">
-      <c r="C180" s="5"/>
-      <c r="D180" s="6"/>
+      <c r="C180" s="25"/>
+      <c r="D180" s="27"/>
     </row>
     <row r="181">
-      <c r="C181" s="5"/>
-      <c r="D181" s="6"/>
+      <c r="C181" s="25"/>
+      <c r="D181" s="27"/>
     </row>
     <row r="182">
-      <c r="C182" s="5"/>
-      <c r="D182" s="6"/>
+      <c r="C182" s="25"/>
+      <c r="D182" s="27"/>
     </row>
     <row r="183">
-      <c r="C183" s="5"/>
-      <c r="D183" s="6"/>
+      <c r="C183" s="25"/>
+      <c r="D183" s="27"/>
     </row>
     <row r="184">
-      <c r="C184" s="5"/>
-      <c r="D184" s="6"/>
+      <c r="C184" s="25"/>
+      <c r="D184" s="27"/>
     </row>
     <row r="185">
-      <c r="C185" s="5"/>
-      <c r="D185" s="6"/>
+      <c r="C185" s="25"/>
+      <c r="D185" s="27"/>
     </row>
     <row r="186">
-      <c r="C186" s="5"/>
-      <c r="D186" s="6"/>
+      <c r="C186" s="25"/>
+      <c r="D186" s="27"/>
     </row>
     <row r="187">
-      <c r="C187" s="5"/>
-      <c r="D187" s="6"/>
+      <c r="C187" s="25"/>
+      <c r="D187" s="27"/>
     </row>
     <row r="188">
-      <c r="C188" s="5"/>
-      <c r="D188" s="6"/>
+      <c r="C188" s="25"/>
+      <c r="D188" s="27"/>
     </row>
     <row r="189">
-      <c r="C189" s="5"/>
-      <c r="D189" s="6"/>
+      <c r="C189" s="25"/>
+      <c r="D189" s="27"/>
     </row>
     <row r="190">
-      <c r="C190" s="5"/>
-      <c r="D190" s="6"/>
+      <c r="C190" s="25"/>
+      <c r="D190" s="27"/>
     </row>
     <row r="191">
-      <c r="C191" s="5"/>
-      <c r="D191" s="6"/>
+      <c r="C191" s="25"/>
+      <c r="D191" s="27"/>
     </row>
     <row r="192">
-      <c r="C192" s="5"/>
-      <c r="D192" s="6"/>
+      <c r="C192" s="25"/>
+      <c r="D192" s="27"/>
     </row>
     <row r="193">
-      <c r="C193" s="5"/>
-      <c r="D193" s="6"/>
+      <c r="C193" s="25"/>
+      <c r="D193" s="27"/>
     </row>
     <row r="194">
-      <c r="C194" s="5"/>
-      <c r="D194" s="6"/>
+      <c r="C194" s="25"/>
+      <c r="D194" s="27"/>
     </row>
     <row r="195">
-      <c r="C195" s="5"/>
-      <c r="D195" s="6"/>
+      <c r="C195" s="25"/>
+      <c r="D195" s="27"/>
     </row>
     <row r="196">
-      <c r="C196" s="5"/>
-      <c r="D196" s="6"/>
+      <c r="C196" s="25"/>
+      <c r="D196" s="27"/>
     </row>
     <row r="197">
-      <c r="C197" s="5"/>
-      <c r="D197" s="6"/>
+      <c r="C197" s="25"/>
+      <c r="D197" s="27"/>
     </row>
     <row r="198">
-      <c r="C198" s="5"/>
-      <c r="D198" s="6"/>
+      <c r="C198" s="25"/>
+      <c r="D198" s="27"/>
     </row>
     <row r="199">
-      <c r="C199" s="5"/>
-      <c r="D199" s="6"/>
+      <c r="C199" s="25"/>
+      <c r="D199" s="27"/>
     </row>
     <row r="200">
-      <c r="C200" s="5"/>
-      <c r="D200" s="6"/>
+      <c r="C200" s="25"/>
+      <c r="D200" s="27"/>
     </row>
     <row r="201">
-      <c r="C201" s="5"/>
-      <c r="D201" s="6"/>
+      <c r="C201" s="25"/>
+      <c r="D201" s="27"/>
     </row>
     <row r="202">
-      <c r="C202" s="5"/>
-      <c r="D202" s="6"/>
+      <c r="C202" s="25"/>
+      <c r="D202" s="27"/>
     </row>
     <row r="203">
-      <c r="C203" s="5"/>
-      <c r="D203" s="6"/>
+      <c r="C203" s="25"/>
+      <c r="D203" s="27"/>
     </row>
     <row r="204">
-      <c r="C204" s="5"/>
-      <c r="D204" s="6"/>
+      <c r="C204" s="25"/>
+      <c r="D204" s="27"/>
     </row>
     <row r="205">
-      <c r="C205" s="5"/>
-      <c r="D205" s="6"/>
+      <c r="C205" s="25"/>
+      <c r="D205" s="27"/>
     </row>
     <row r="206">
-      <c r="C206" s="5"/>
-      <c r="D206" s="6"/>
+      <c r="C206" s="25"/>
+      <c r="D206" s="27"/>
     </row>
     <row r="207">
-      <c r="C207" s="5"/>
-      <c r="D207" s="6"/>
+      <c r="C207" s="25"/>
+      <c r="D207" s="27"/>
     </row>
     <row r="208">
-      <c r="C208" s="5"/>
-      <c r="D208" s="6"/>
+      <c r="C208" s="25"/>
+      <c r="D208" s="27"/>
     </row>
     <row r="209">
-      <c r="C209" s="5"/>
-      <c r="D209" s="6"/>
+      <c r="C209" s="25"/>
+      <c r="D209" s="27"/>
     </row>
     <row r="210">
-      <c r="C210" s="5"/>
-      <c r="D210" s="6"/>
+      <c r="C210" s="25"/>
+      <c r="D210" s="27"/>
     </row>
     <row r="211">
-      <c r="C211" s="5"/>
-      <c r="D211" s="6"/>
+      <c r="C211" s="25"/>
+      <c r="D211" s="27"/>
     </row>
     <row r="212">
-      <c r="C212" s="5"/>
-      <c r="D212" s="6"/>
+      <c r="C212" s="25"/>
+      <c r="D212" s="27"/>
     </row>
     <row r="213">
-      <c r="C213" s="5"/>
-      <c r="D213" s="6"/>
+      <c r="C213" s="25"/>
+      <c r="D213" s="27"/>
     </row>
     <row r="214">
-      <c r="C214" s="5"/>
-      <c r="D214" s="6"/>
+      <c r="C214" s="25"/>
+      <c r="D214" s="27"/>
     </row>
     <row r="215">
-      <c r="C215" s="5"/>
-      <c r="D215" s="6"/>
+      <c r="C215" s="25"/>
+      <c r="D215" s="27"/>
     </row>
     <row r="216">
-      <c r="C216" s="5"/>
-      <c r="D216" s="6"/>
+      <c r="C216" s="25"/>
+      <c r="D216" s="27"/>
     </row>
     <row r="217">
-      <c r="C217" s="5"/>
-      <c r="D217" s="6"/>
+      <c r="C217" s="25"/>
+      <c r="D217" s="27"/>
     </row>
     <row r="218">
-      <c r="C218" s="5"/>
-      <c r="D218" s="6"/>
+      <c r="C218" s="25"/>
+      <c r="D218" s="27"/>
     </row>
     <row r="219">
-      <c r="C219" s="5"/>
-      <c r="D219" s="6"/>
+      <c r="C219" s="25"/>
+      <c r="D219" s="27"/>
     </row>
     <row r="220">
-      <c r="C220" s="5"/>
-      <c r="D220" s="6"/>
+      <c r="C220" s="25"/>
+      <c r="D220" s="27"/>
     </row>
     <row r="221">
-      <c r="C221" s="5"/>
-      <c r="D221" s="6"/>
+      <c r="C221" s="25"/>
+      <c r="D221" s="27"/>
     </row>
     <row r="222">
-      <c r="C222" s="5"/>
-      <c r="D222" s="6"/>
+      <c r="C222" s="25"/>
+      <c r="D222" s="27"/>
     </row>
     <row r="223">
-      <c r="C223" s="5"/>
-      <c r="D223" s="6"/>
+      <c r="C223" s="25"/>
+      <c r="D223" s="27"/>
     </row>
     <row r="224">
-      <c r="C224" s="5"/>
-      <c r="D224" s="6"/>
+      <c r="C224" s="25"/>
+      <c r="D224" s="27"/>
     </row>
     <row r="225">
-      <c r="C225" s="5"/>
-      <c r="D225" s="6"/>
+      <c r="C225" s="25"/>
+      <c r="D225" s="27"/>
     </row>
     <row r="226">
-      <c r="C226" s="5"/>
-      <c r="D226" s="6"/>
+      <c r="C226" s="25"/>
+      <c r="D226" s="27"/>
     </row>
     <row r="227">
-      <c r="C227" s="5"/>
-      <c r="D227" s="6"/>
+      <c r="C227" s="25"/>
+      <c r="D227" s="27"/>
     </row>
     <row r="228">
-      <c r="C228" s="5"/>
-      <c r="D228" s="6"/>
+      <c r="C228" s="25"/>
+      <c r="D228" s="27"/>
     </row>
     <row r="229">
-      <c r="C229" s="5"/>
-      <c r="D229" s="6"/>
+      <c r="C229" s="25"/>
+      <c r="D229" s="27"/>
     </row>
     <row r="230">
-      <c r="C230" s="5"/>
-      <c r="D230" s="6"/>
+      <c r="C230" s="25"/>
+      <c r="D230" s="27"/>
     </row>
     <row r="231">
-      <c r="C231" s="5"/>
-      <c r="D231" s="6"/>
+      <c r="C231" s="25"/>
+      <c r="D231" s="27"/>
     </row>
     <row r="232">
-      <c r="C232" s="5"/>
-      <c r="D232" s="6"/>
+      <c r="C232" s="25"/>
+      <c r="D232" s="27"/>
     </row>
     <row r="233">
-      <c r="C233" s="5"/>
-      <c r="D233" s="6"/>
+      <c r="C233" s="25"/>
+      <c r="D233" s="27"/>
     </row>
     <row r="234">
-      <c r="C234" s="5"/>
-      <c r="D234" s="6"/>
+      <c r="C234" s="25"/>
+      <c r="D234" s="27"/>
     </row>
     <row r="235">
-      <c r="C235" s="5"/>
-      <c r="D235" s="6"/>
+      <c r="C235" s="25"/>
+      <c r="D235" s="27"/>
     </row>
     <row r="236">
-      <c r="C236" s="5"/>
-      <c r="D236" s="6"/>
+      <c r="C236" s="25"/>
+      <c r="D236" s="27"/>
     </row>
     <row r="237">
-      <c r="C237" s="5"/>
-      <c r="D237" s="6"/>
+      <c r="C237" s="25"/>
+      <c r="D237" s="27"/>
     </row>
     <row r="238">
-      <c r="C238" s="5"/>
-      <c r="D238" s="6"/>
+      <c r="C238" s="25"/>
+      <c r="D238" s="27"/>
     </row>
     <row r="239">
-      <c r="C239" s="5"/>
-      <c r="D239" s="6"/>
+      <c r="C239" s="25"/>
+      <c r="D239" s="27"/>
     </row>
     <row r="240">
-      <c r="C240" s="5"/>
-      <c r="D240" s="6"/>
+      <c r="C240" s="25"/>
+      <c r="D240" s="27"/>
     </row>
     <row r="241">
-      <c r="C241" s="5"/>
-      <c r="D241" s="6"/>
+      <c r="C241" s="25"/>
+      <c r="D241" s="27"/>
     </row>
     <row r="242">
-      <c r="C242" s="5"/>
-      <c r="D242" s="6"/>
+      <c r="C242" s="25"/>
+      <c r="D242" s="27"/>
     </row>
     <row r="243">
-      <c r="C243" s="5"/>
-      <c r="D243" s="6"/>
+      <c r="C243" s="25"/>
+      <c r="D243" s="27"/>
     </row>
     <row r="244">
-      <c r="C244" s="5"/>
-      <c r="D244" s="6"/>
+      <c r="C244" s="25"/>
+      <c r="D244" s="27"/>
     </row>
     <row r="245">
-      <c r="C245" s="5"/>
-      <c r="D245" s="6"/>
+      <c r="C245" s="25"/>
+      <c r="D245" s="27"/>
     </row>
     <row r="246">
-      <c r="C246" s="5"/>
-      <c r="D246" s="6"/>
+      <c r="C246" s="25"/>
+      <c r="D246" s="27"/>
     </row>
     <row r="247">
-      <c r="C247" s="5"/>
-      <c r="D247" s="6"/>
+      <c r="C247" s="25"/>
+      <c r="D247" s="27"/>
     </row>
     <row r="248">
-      <c r="C248" s="5"/>
-      <c r="D248" s="6"/>
+      <c r="C248" s="25"/>
+      <c r="D248" s="27"/>
     </row>
     <row r="249">
-      <c r="C249" s="5"/>
-      <c r="D249" s="6"/>
+      <c r="C249" s="25"/>
+      <c r="D249" s="27"/>
     </row>
     <row r="250">
-      <c r="C250" s="5"/>
-      <c r="D250" s="6"/>
+      <c r="C250" s="25"/>
+      <c r="D250" s="27"/>
     </row>
     <row r="251">
-      <c r="C251" s="5"/>
-      <c r="D251" s="6"/>
+      <c r="C251" s="25"/>
+      <c r="D251" s="27"/>
     </row>
     <row r="252">
-      <c r="C252" s="5"/>
-      <c r="D252" s="6"/>
+      <c r="C252" s="25"/>
+      <c r="D252" s="27"/>
     </row>
     <row r="253">
-      <c r="C253" s="5"/>
-      <c r="D253" s="6"/>
+      <c r="C253" s="25"/>
+      <c r="D253" s="27"/>
     </row>
     <row r="254">
-      <c r="C254" s="5"/>
-      <c r="D254" s="6"/>
+      <c r="C254" s="25"/>
+      <c r="D254" s="27"/>
     </row>
     <row r="255">
-      <c r="C255" s="5"/>
-      <c r="D255" s="6"/>
+      <c r="C255" s="25"/>
+      <c r="D255" s="27"/>
     </row>
     <row r="256">
-      <c r="C256" s="5"/>
-      <c r="D256" s="6"/>
+      <c r="C256" s="25"/>
+      <c r="D256" s="27"/>
     </row>
     <row r="257">
-      <c r="C257" s="5"/>
-      <c r="D257" s="6"/>
+      <c r="C257" s="25"/>
+      <c r="D257" s="27"/>
     </row>
     <row r="258">
-      <c r="C258" s="5"/>
-      <c r="D258" s="6"/>
+      <c r="C258" s="25"/>
+      <c r="D258" s="27"/>
     </row>
     <row r="259">
-      <c r="C259" s="5"/>
-      <c r="D259" s="6"/>
+      <c r="C259" s="25"/>
+      <c r="D259" s="27"/>
     </row>
     <row r="260">
-      <c r="C260" s="5"/>
-      <c r="D260" s="6"/>
+      <c r="C260" s="25"/>
+      <c r="D260" s="27"/>
     </row>
     <row r="261">
-      <c r="C261" s="5"/>
-      <c r="D261" s="6"/>
+      <c r="C261" s="25"/>
+      <c r="D261" s="27"/>
     </row>
     <row r="262">
-      <c r="C262" s="5"/>
-      <c r="D262" s="6"/>
+      <c r="C262" s="25"/>
+      <c r="D262" s="27"/>
     </row>
     <row r="263">
-      <c r="C263" s="5"/>
-      <c r="D263" s="6"/>
+      <c r="C263" s="25"/>
+      <c r="D263" s="27"/>
     </row>
     <row r="264">
-      <c r="C264" s="5"/>
-      <c r="D264" s="6"/>
+      <c r="C264" s="25"/>
+      <c r="D264" s="27"/>
     </row>
     <row r="265">
-      <c r="C265" s="5"/>
-      <c r="D265" s="6"/>
+      <c r="C265" s="25"/>
+      <c r="D265" s="27"/>
     </row>
     <row r="266">
-      <c r="C266" s="5"/>
-      <c r="D266" s="6"/>
+      <c r="C266" s="25"/>
+      <c r="D266" s="27"/>
     </row>
     <row r="267">
-      <c r="C267" s="5"/>
-      <c r="D267" s="6"/>
+      <c r="C267" s="25"/>
+      <c r="D267" s="27"/>
     </row>
     <row r="268">
-      <c r="C268" s="5"/>
-      <c r="D268" s="6"/>
+      <c r="C268" s="25"/>
+      <c r="D268" s="27"/>
     </row>
     <row r="269">
-      <c r="C269" s="5"/>
-      <c r="D269" s="6"/>
+      <c r="C269" s="25"/>
+      <c r="D269" s="27"/>
     </row>
     <row r="270">
-      <c r="C270" s="5"/>
-      <c r="D270" s="6"/>
+      <c r="C270" s="25"/>
+      <c r="D270" s="27"/>
     </row>
     <row r="271">
-      <c r="C271" s="5"/>
-      <c r="D271" s="6"/>
+      <c r="C271" s="25"/>
+      <c r="D271" s="27"/>
     </row>
     <row r="272">
-      <c r="C272" s="5"/>
-      <c r="D272" s="6"/>
+      <c r="C272" s="25"/>
+      <c r="D272" s="27"/>
     </row>
     <row r="273">
-      <c r="C273" s="5"/>
-      <c r="D273" s="6"/>
+      <c r="C273" s="25"/>
+      <c r="D273" s="27"/>
     </row>
     <row r="274">
-      <c r="C274" s="5"/>
-      <c r="D274" s="6"/>
+      <c r="C274" s="25"/>
+      <c r="D274" s="27"/>
     </row>
     <row r="275">
-      <c r="C275" s="5"/>
-      <c r="D275" s="6"/>
+      <c r="C275" s="25"/>
+      <c r="D275" s="27"/>
     </row>
     <row r="276">
-      <c r="C276" s="5"/>
-      <c r="D276" s="6"/>
+      <c r="C276" s="25"/>
+      <c r="D276" s="27"/>
     </row>
     <row r="277">
-      <c r="C277" s="5"/>
-      <c r="D277" s="6"/>
+      <c r="C277" s="25"/>
+      <c r="D277" s="27"/>
     </row>
     <row r="278">
-      <c r="C278" s="5"/>
-      <c r="D278" s="6"/>
+      <c r="C278" s="25"/>
+      <c r="D278" s="27"/>
     </row>
     <row r="279">
-      <c r="C279" s="5"/>
-      <c r="D279" s="6"/>
+      <c r="C279" s="25"/>
+      <c r="D279" s="27"/>
     </row>
     <row r="280">
-      <c r="C280" s="5"/>
-      <c r="D280" s="6"/>
+      <c r="C280" s="25"/>
+      <c r="D280" s="27"/>
     </row>
     <row r="281">
-      <c r="C281" s="5"/>
-      <c r="D281" s="6"/>
+      <c r="C281" s="25"/>
+      <c r="D281" s="27"/>
     </row>
     <row r="282">
-      <c r="C282" s="5"/>
-      <c r="D282" s="6"/>
+      <c r="C282" s="25"/>
+      <c r="D282" s="27"/>
     </row>
     <row r="283">
-      <c r="C283" s="5"/>
-      <c r="D283" s="6"/>
+      <c r="C283" s="25"/>
+      <c r="D283" s="27"/>
     </row>
     <row r="284">
-      <c r="C284" s="5"/>
-      <c r="D284" s="6"/>
+      <c r="C284" s="25"/>
+      <c r="D284" s="27"/>
     </row>
     <row r="285">
-      <c r="C285" s="5"/>
-      <c r="D285" s="6"/>
+      <c r="C285" s="25"/>
+      <c r="D285" s="27"/>
     </row>
     <row r="286">
-      <c r="C286" s="5"/>
-      <c r="D286" s="6"/>
+      <c r="C286" s="25"/>
+      <c r="D286" s="27"/>
     </row>
     <row r="287">
-      <c r="C287" s="5"/>
-      <c r="D287" s="6"/>
+      <c r="C287" s="25"/>
+      <c r="D287" s="27"/>
     </row>
     <row r="288">
-      <c r="C288" s="5"/>
-      <c r="D288" s="6"/>
+      <c r="C288" s="25"/>
+      <c r="D288" s="27"/>
     </row>
     <row r="289">
-      <c r="C289" s="5"/>
-      <c r="D289" s="6"/>
+      <c r="C289" s="25"/>
+      <c r="D289" s="27"/>
     </row>
     <row r="290">
-      <c r="C290" s="5"/>
-      <c r="D290" s="6"/>
+      <c r="C290" s="25"/>
+      <c r="D290" s="27"/>
     </row>
     <row r="291">
-      <c r="C291" s="5"/>
-      <c r="D291" s="6"/>
+      <c r="C291" s="25"/>
+      <c r="D291" s="27"/>
     </row>
     <row r="292">
-      <c r="C292" s="5"/>
-      <c r="D292" s="6"/>
+      <c r="C292" s="25"/>
+      <c r="D292" s="27"/>
     </row>
     <row r="293">
-      <c r="C293" s="5"/>
-      <c r="D293" s="6"/>
+      <c r="C293" s="25"/>
+      <c r="D293" s="27"/>
     </row>
     <row r="294">
-      <c r="C294" s="5"/>
-      <c r="D294" s="6"/>
+      <c r="C294" s="25"/>
+      <c r="D294" s="27"/>
     </row>
     <row r="295">
-      <c r="C295" s="5"/>
-      <c r="D295" s="6"/>
+      <c r="C295" s="25"/>
+      <c r="D295" s="27"/>
     </row>
     <row r="296">
-      <c r="C296" s="5"/>
-      <c r="D296" s="6"/>
+      <c r="C296" s="25"/>
+      <c r="D296" s="27"/>
     </row>
     <row r="297">
-      <c r="C297" s="5"/>
-      <c r="D297" s="6"/>
+      <c r="C297" s="25"/>
+      <c r="D297" s="27"/>
     </row>
     <row r="298">
-      <c r="C298" s="5"/>
-      <c r="D298" s="6"/>
+      <c r="C298" s="25"/>
+      <c r="D298" s="27"/>
     </row>
     <row r="299">
-      <c r="C299" s="5"/>
-      <c r="D299" s="6"/>
+      <c r="C299" s="25"/>
+      <c r="D299" s="27"/>
     </row>
     <row r="300">
-      <c r="C300" s="5"/>
-      <c r="D300" s="6"/>
+      <c r="C300" s="25"/>
+      <c r="D300" s="27"/>
     </row>
     <row r="301">
-      <c r="C301" s="5"/>
-      <c r="D301" s="6"/>
+      <c r="C301" s="25"/>
+      <c r="D301" s="27"/>
     </row>
     <row r="302">
-      <c r="C302" s="5"/>
-      <c r="D302" s="6"/>
+      <c r="C302" s="25"/>
+      <c r="D302" s="27"/>
     </row>
     <row r="303">
-      <c r="C303" s="5"/>
-      <c r="D303" s="6"/>
+      <c r="C303" s="25"/>
+      <c r="D303" s="27"/>
     </row>
     <row r="304">
-      <c r="C304" s="5"/>
-      <c r="D304" s="6"/>
+      <c r="C304" s="25"/>
+      <c r="D304" s="27"/>
     </row>
     <row r="305">
-      <c r="C305" s="5"/>
-      <c r="D305" s="6"/>
+      <c r="C305" s="25"/>
+      <c r="D305" s="27"/>
     </row>
     <row r="306">
-      <c r="C306" s="5"/>
-      <c r="D306" s="6"/>
+      <c r="C306" s="25"/>
+      <c r="D306" s="27"/>
     </row>
     <row r="307">
-      <c r="C307" s="5"/>
-      <c r="D307" s="6"/>
+      <c r="C307" s="25"/>
+      <c r="D307" s="27"/>
     </row>
     <row r="308">
-      <c r="C308" s="5"/>
-      <c r="D308" s="6"/>
+      <c r="C308" s="25"/>
+      <c r="D308" s="27"/>
     </row>
     <row r="309">
-      <c r="C309" s="5"/>
-      <c r="D309" s="6"/>
+      <c r="C309" s="25"/>
+      <c r="D309" s="27"/>
     </row>
     <row r="310">
-      <c r="C310" s="5"/>
-      <c r="D310" s="6"/>
+      <c r="C310" s="25"/>
+      <c r="D310" s="27"/>
     </row>
     <row r="311">
-      <c r="C311" s="5"/>
-      <c r="D311" s="6"/>
+      <c r="C311" s="25"/>
+      <c r="D311" s="27"/>
     </row>
     <row r="312">
-      <c r="C312" s="5"/>
-      <c r="D312" s="6"/>
+      <c r="C312" s="25"/>
+      <c r="D312" s="27"/>
     </row>
     <row r="313">
-      <c r="C313" s="5"/>
-      <c r="D313" s="6"/>
+      <c r="C313" s="25"/>
+      <c r="D313" s="27"/>
     </row>
     <row r="314">
-      <c r="C314" s="5"/>
-      <c r="D314" s="6"/>
+      <c r="C314" s="25"/>
+      <c r="D314" s="27"/>
     </row>
     <row r="315">
-      <c r="C315" s="5"/>
-      <c r="D315" s="6"/>
+      <c r="C315" s="25"/>
+      <c r="D315" s="27"/>
     </row>
     <row r="316">
-      <c r="C316" s="5"/>
-      <c r="D316" s="6"/>
+      <c r="C316" s="25"/>
+      <c r="D316" s="27"/>
     </row>
     <row r="317">
-      <c r="C317" s="5"/>
-      <c r="D317" s="6"/>
+      <c r="C317" s="25"/>
+      <c r="D317" s="27"/>
     </row>
     <row r="318">
-      <c r="C318" s="5"/>
-      <c r="D318" s="6"/>
+      <c r="C318" s="25"/>
+      <c r="D318" s="27"/>
     </row>
     <row r="319">
-      <c r="C319" s="5"/>
-      <c r="D319" s="6"/>
+      <c r="C319" s="25"/>
+      <c r="D319" s="27"/>
     </row>
     <row r="320">
-      <c r="C320" s="5"/>
-      <c r="D320" s="6"/>
+      <c r="C320" s="25"/>
+      <c r="D320" s="27"/>
     </row>
     <row r="321">
-      <c r="C321" s="5"/>
-      <c r="D321" s="6"/>
+      <c r="C321" s="25"/>
+      <c r="D321" s="27"/>
     </row>
     <row r="322">
-      <c r="C322" s="5"/>
-      <c r="D322" s="6"/>
+      <c r="C322" s="25"/>
+      <c r="D322" s="27"/>
     </row>
     <row r="323">
-      <c r="C323" s="5"/>
-      <c r="D323" s="6"/>
+      <c r="C323" s="25"/>
+      <c r="D323" s="27"/>
     </row>
     <row r="324">
-      <c r="C324" s="5"/>
-      <c r="D324" s="6"/>
+      <c r="C324" s="25"/>
+      <c r="D324" s="27"/>
     </row>
     <row r="325">
-      <c r="C325" s="5"/>
-      <c r="D325" s="6"/>
+      <c r="C325" s="25"/>
+      <c r="D325" s="27"/>
     </row>
     <row r="326">
-      <c r="C326" s="5"/>
-      <c r="D326" s="6"/>
+      <c r="C326" s="25"/>
+      <c r="D326" s="27"/>
     </row>
     <row r="327">
-      <c r="C327" s="5"/>
-      <c r="D327" s="6"/>
+      <c r="C327" s="25"/>
+      <c r="D327" s="27"/>
     </row>
     <row r="328">
-      <c r="C328" s="5"/>
-      <c r="D328" s="6"/>
+      <c r="C328" s="25"/>
+      <c r="D328" s="27"/>
     </row>
     <row r="329">
-      <c r="C329" s="5"/>
-      <c r="D329" s="6"/>
+      <c r="C329" s="25"/>
+      <c r="D329" s="27"/>
     </row>
     <row r="330">
-      <c r="C330" s="5"/>
-      <c r="D330" s="6"/>
+      <c r="C330" s="25"/>
+      <c r="D330" s="27"/>
     </row>
     <row r="331">
-      <c r="C331" s="5"/>
-      <c r="D331" s="6"/>
+      <c r="C331" s="25"/>
+      <c r="D331" s="27"/>
     </row>
     <row r="332">
-      <c r="C332" s="5"/>
-      <c r="D332" s="6"/>
+      <c r="C332" s="25"/>
+      <c r="D332" s="27"/>
     </row>
     <row r="333">
-      <c r="C333" s="5"/>
-      <c r="D333" s="6"/>
+      <c r="C333" s="25"/>
+      <c r="D333" s="27"/>
     </row>
     <row r="334">
-      <c r="C334" s="5"/>
-      <c r="D334" s="6"/>
+      <c r="C334" s="25"/>
+      <c r="D334" s="27"/>
     </row>
     <row r="335">
-      <c r="C335" s="5"/>
-      <c r="D335" s="6"/>
+      <c r="C335" s="25"/>
+      <c r="D335" s="27"/>
     </row>
     <row r="336">
-      <c r="C336" s="5"/>
-      <c r="D336" s="6"/>
+      <c r="C336" s="25"/>
+      <c r="D336" s="27"/>
     </row>
     <row r="337">
-      <c r="C337" s="5"/>
-      <c r="D337" s="6"/>
+      <c r="C337" s="25"/>
+      <c r="D337" s="27"/>
     </row>
     <row r="338">
-      <c r="C338" s="5"/>
-      <c r="D338" s="6"/>
+      <c r="C338" s="25"/>
+      <c r="D338" s="27"/>
     </row>
     <row r="339">
-      <c r="C339" s="5"/>
-      <c r="D339" s="6"/>
+      <c r="C339" s="25"/>
+      <c r="D339" s="27"/>
     </row>
     <row r="340">
-      <c r="C340" s="5"/>
-      <c r="D340" s="6"/>
+      <c r="C340" s="25"/>
+      <c r="D340" s="27"/>
     </row>
     <row r="341">
-      <c r="C341" s="5"/>
-      <c r="D341" s="6"/>
+      <c r="C341" s="25"/>
+      <c r="D341" s="27"/>
     </row>
     <row r="342">
-      <c r="C342" s="5"/>
-      <c r="D342" s="6"/>
+      <c r="C342" s="25"/>
+      <c r="D342" s="27"/>
     </row>
     <row r="343">
-      <c r="C343" s="5"/>
-      <c r="D343" s="6"/>
+      <c r="C343" s="25"/>
+      <c r="D343" s="27"/>
     </row>
     <row r="344">
-      <c r="C344" s="5"/>
-      <c r="D344" s="6"/>
+      <c r="C344" s="25"/>
+      <c r="D344" s="27"/>
     </row>
     <row r="345">
-      <c r="C345" s="5"/>
-      <c r="D345" s="6"/>
+      <c r="C345" s="25"/>
+      <c r="D345" s="27"/>
     </row>
     <row r="346">
-      <c r="C346" s="5"/>
-      <c r="D346" s="6"/>
+      <c r="C346" s="25"/>
+      <c r="D346" s="27"/>
     </row>
     <row r="347">
-      <c r="C347" s="5"/>
-      <c r="D347" s="6"/>
+      <c r="C347" s="25"/>
+      <c r="D347" s="27"/>
     </row>
     <row r="348">
-      <c r="C348" s="5"/>
-      <c r="D348" s="6"/>
+      <c r="C348" s="25"/>
+      <c r="D348" s="27"/>
     </row>
     <row r="349">
-      <c r="C349" s="5"/>
-      <c r="D349" s="6"/>
+      <c r="C349" s="25"/>
+      <c r="D349" s="27"/>
     </row>
     <row r="350">
-      <c r="C350" s="5"/>
-      <c r="D350" s="6"/>
+      <c r="C350" s="25"/>
+      <c r="D350" s="27"/>
     </row>
     <row r="351">
-      <c r="C351" s="5"/>
-      <c r="D351" s="6"/>
+      <c r="C351" s="25"/>
+      <c r="D351" s="27"/>
     </row>
     <row r="352">
-      <c r="C352" s="5"/>
-      <c r="D352" s="6"/>
+      <c r="C352" s="25"/>
+      <c r="D352" s="27"/>
     </row>
     <row r="353">
-      <c r="C353" s="5"/>
-      <c r="D353" s="6"/>
+      <c r="C353" s="25"/>
+      <c r="D353" s="27"/>
     </row>
     <row r="354">
-      <c r="C354" s="5"/>
-      <c r="D354" s="6"/>
+      <c r="C354" s="25"/>
+      <c r="D354" s="27"/>
     </row>
     <row r="355">
-      <c r="C355" s="5"/>
-      <c r="D355" s="6"/>
+      <c r="C355" s="25"/>
+      <c r="D355" s="27"/>
     </row>
     <row r="356">
-      <c r="C356" s="5"/>
-      <c r="D356" s="6"/>
+      <c r="C356" s="25"/>
+      <c r="D356" s="27"/>
     </row>
     <row r="357">
-      <c r="C357" s="5"/>
-      <c r="D357" s="6"/>
+      <c r="C357" s="25"/>
+      <c r="D357" s="27"/>
     </row>
     <row r="358">
-      <c r="C358" s="5"/>
-      <c r="D358" s="6"/>
+      <c r="C358" s="25"/>
+      <c r="D358" s="27"/>
     </row>
     <row r="359">
-      <c r="C359" s="5"/>
-      <c r="D359" s="6"/>
+      <c r="C359" s="25"/>
+      <c r="D359" s="27"/>
     </row>
     <row r="360">
-      <c r="C360" s="5"/>
-      <c r="D360" s="6"/>
+      <c r="C360" s="25"/>
+      <c r="D360" s="27"/>
     </row>
     <row r="361">
-      <c r="C361" s="5"/>
-      <c r="D361" s="6"/>
+      <c r="C361" s="25"/>
+      <c r="D361" s="27"/>
     </row>
     <row r="362">
-      <c r="C362" s="5"/>
-      <c r="D362" s="6"/>
+      <c r="C362" s="25"/>
+      <c r="D362" s="27"/>
     </row>
     <row r="363">
-      <c r="C363" s="5"/>
-      <c r="D363" s="6"/>
+      <c r="C363" s="25"/>
+      <c r="D363" s="27"/>
     </row>
     <row r="364">
-      <c r="C364" s="5"/>
-      <c r="D364" s="6"/>
+      <c r="C364" s="25"/>
+      <c r="D364" s="27"/>
     </row>
     <row r="365">
-      <c r="C365" s="5"/>
-      <c r="D365" s="6"/>
+      <c r="C365" s="25"/>
+      <c r="D365" s="27"/>
     </row>
     <row r="366">
-      <c r="C366" s="5"/>
-      <c r="D366" s="6"/>
+      <c r="C366" s="25"/>
+      <c r="D366" s="27"/>
     </row>
     <row r="367">
-      <c r="C367" s="5"/>
-      <c r="D367" s="6"/>
+      <c r="C367" s="25"/>
+      <c r="D367" s="27"/>
     </row>
     <row r="368">
-      <c r="C368" s="5"/>
-      <c r="D368" s="6"/>
+      <c r="C368" s="25"/>
+      <c r="D368" s="27"/>
     </row>
     <row r="369">
-      <c r="C369" s="5"/>
-      <c r="D369" s="6"/>
+      <c r="C369" s="25"/>
+      <c r="D369" s="27"/>
     </row>
     <row r="370">
-      <c r="C370" s="5"/>
-      <c r="D370" s="6"/>
+      <c r="C370" s="25"/>
+      <c r="D370" s="27"/>
     </row>
     <row r="371">
-      <c r="C371" s="5"/>
-      <c r="D371" s="6"/>
+      <c r="C371" s="25"/>
+      <c r="D371" s="27"/>
     </row>
     <row r="372">
-      <c r="C372" s="5"/>
-      <c r="D372" s="6"/>
+      <c r="C372" s="25"/>
+      <c r="D372" s="27"/>
     </row>
     <row r="373">
-      <c r="C373" s="5"/>
-      <c r="D373" s="6"/>
+      <c r="C373" s="25"/>
+      <c r="D373" s="27"/>
     </row>
     <row r="374">
-      <c r="C374" s="5"/>
-      <c r="D374" s="6"/>
+      <c r="C374" s="25"/>
+      <c r="D374" s="27"/>
     </row>
     <row r="375">
-      <c r="C375" s="5"/>
-      <c r="D375" s="6"/>
+      <c r="C375" s="25"/>
+      <c r="D375" s="27"/>
     </row>
     <row r="376">
-      <c r="C376" s="5"/>
-      <c r="D376" s="6"/>
+      <c r="C376" s="25"/>
+      <c r="D376" s="27"/>
     </row>
     <row r="377">
-      <c r="C377" s="5"/>
-      <c r="D377" s="6"/>
+      <c r="C377" s="25"/>
+      <c r="D377" s="27"/>
     </row>
     <row r="378">
-      <c r="C378" s="5"/>
-      <c r="D378" s="6"/>
+      <c r="C378" s="25"/>
+      <c r="D378" s="27"/>
     </row>
     <row r="379">
-      <c r="C379" s="5"/>
-      <c r="D379" s="6"/>
+      <c r="C379" s="25"/>
+      <c r="D379" s="27"/>
     </row>
     <row r="380">
-      <c r="C380" s="5"/>
-      <c r="D380" s="6"/>
+      <c r="C380" s="25"/>
+      <c r="D380" s="27"/>
     </row>
     <row r="381">
-      <c r="C381" s="5"/>
-      <c r="D381" s="6"/>
+      <c r="C381" s="25"/>
+      <c r="D381" s="27"/>
     </row>
     <row r="382">
-      <c r="C382" s="5"/>
-      <c r="D382" s="6"/>
+      <c r="C382" s="25"/>
+      <c r="D382" s="27"/>
     </row>
     <row r="383">
-      <c r="C383" s="5"/>
-      <c r="D383" s="6"/>
+      <c r="C383" s="25"/>
+      <c r="D383" s="27"/>
     </row>
     <row r="384">
-      <c r="C384" s="5"/>
-      <c r="D384" s="6"/>
+      <c r="C384" s="25"/>
+      <c r="D384" s="27"/>
     </row>
     <row r="385">
-      <c r="C385" s="5"/>
-      <c r="D385" s="6"/>
+      <c r="C385" s="25"/>
+      <c r="D385" s="27"/>
     </row>
     <row r="386">
-      <c r="C386" s="5"/>
-      <c r="D386" s="6"/>
+      <c r="C386" s="25"/>
+      <c r="D386" s="27"/>
     </row>
     <row r="387">
-      <c r="C387" s="5"/>
-      <c r="D387" s="6"/>
+      <c r="C387" s="25"/>
+      <c r="D387" s="27"/>
     </row>
     <row r="388">
-      <c r="C388" s="5"/>
-      <c r="D388" s="6"/>
+      <c r="C388" s="25"/>
+      <c r="D388" s="27"/>
     </row>
     <row r="389">
-      <c r="C389" s="5"/>
-      <c r="D389" s="6"/>
+      <c r="C389" s="25"/>
+      <c r="D389" s="27"/>
     </row>
     <row r="390">
-      <c r="C390" s="5"/>
-      <c r="D390" s="6"/>
+      <c r="C390" s="25"/>
+      <c r="D390" s="27"/>
     </row>
     <row r="391">
-      <c r="C391" s="5"/>
-      <c r="D391" s="6"/>
+      <c r="C391" s="25"/>
+      <c r="D391" s="27"/>
     </row>
     <row r="392">
-      <c r="C392" s="5"/>
-      <c r="D392" s="6"/>
+      <c r="C392" s="25"/>
+      <c r="D392" s="27"/>
     </row>
     <row r="393">
-      <c r="C393" s="5"/>
-      <c r="D393" s="6"/>
+      <c r="C393" s="25"/>
+      <c r="D393" s="27"/>
     </row>
     <row r="394">
-      <c r="C394" s="5"/>
-      <c r="D394" s="6"/>
+      <c r="C394" s="25"/>
+      <c r="D394" s="27"/>
     </row>
     <row r="395">
-      <c r="C395" s="5"/>
-      <c r="D395" s="6"/>
+      <c r="C395" s="25"/>
+      <c r="D395" s="27"/>
     </row>
     <row r="396">
-      <c r="C396" s="5"/>
-      <c r="D396" s="6"/>
+      <c r="C396" s="25"/>
+      <c r="D396" s="27"/>
     </row>
     <row r="397">
-      <c r="C397" s="5"/>
-      <c r="D397" s="6"/>
+      <c r="C397" s="25"/>
+      <c r="D397" s="27"/>
     </row>
     <row r="398">
-      <c r="C398" s="5"/>
-      <c r="D398" s="6"/>
+      <c r="C398" s="25"/>
+      <c r="D398" s="27"/>
     </row>
     <row r="399">
-      <c r="C399" s="5"/>
-      <c r="D399" s="6"/>
+      <c r="C399" s="25"/>
+      <c r="D399" s="27"/>
     </row>
     <row r="400">
-      <c r="C400" s="5"/>
-      <c r="D400" s="6"/>
+      <c r="C400" s="25"/>
+      <c r="D400" s="27"/>
     </row>
     <row r="401">
-      <c r="C401" s="5"/>
-      <c r="D401" s="6"/>
+      <c r="C401" s="25"/>
+      <c r="D401" s="27"/>
     </row>
     <row r="402">
-      <c r="C402" s="5"/>
-      <c r="D402" s="6"/>
+      <c r="C402" s="25"/>
+      <c r="D402" s="27"/>
     </row>
     <row r="403">
-      <c r="C403" s="5"/>
-      <c r="D403" s="6"/>
+      <c r="C403" s="25"/>
+      <c r="D403" s="27"/>
     </row>
     <row r="404">
-      <c r="C404" s="5"/>
-      <c r="D404" s="6"/>
+      <c r="C404" s="25"/>
+      <c r="D404" s="27"/>
     </row>
     <row r="405">
-      <c r="C405" s="5"/>
-      <c r="D405" s="6"/>
+      <c r="C405" s="25"/>
+      <c r="D405" s="27"/>
     </row>
     <row r="406">
-      <c r="C406" s="5"/>
-      <c r="D406" s="6"/>
+      <c r="C406" s="25"/>
+      <c r="D406" s="27"/>
     </row>
     <row r="407">
-      <c r="C407" s="5"/>
-      <c r="D407" s="6"/>
+      <c r="C407" s="25"/>
+      <c r="D407" s="27"/>
     </row>
     <row r="408">
-      <c r="C408" s="5"/>
-      <c r="D408" s="6"/>
+      <c r="C408" s="25"/>
+      <c r="D408" s="27"/>
     </row>
     <row r="409">
-      <c r="C409" s="5"/>
-      <c r="D409" s="6"/>
+      <c r="C409" s="25"/>
+      <c r="D409" s="27"/>
     </row>
     <row r="410">
-      <c r="C410" s="5"/>
-      <c r="D410" s="6"/>
+      <c r="C410" s="25"/>
+      <c r="D410" s="27"/>
     </row>
     <row r="411">
-      <c r="C411" s="5"/>
-      <c r="D411" s="6"/>
+      <c r="C411" s="25"/>
+      <c r="D411" s="27"/>
     </row>
     <row r="412">
-      <c r="C412" s="5"/>
-      <c r="D412" s="6"/>
+      <c r="C412" s="25"/>
+      <c r="D412" s="27"/>
     </row>
     <row r="413">
-      <c r="C413" s="5"/>
-      <c r="D413" s="6"/>
+      <c r="C413" s="25"/>
+      <c r="D413" s="27"/>
     </row>
     <row r="414">
-      <c r="C414" s="5"/>
-      <c r="D414" s="6"/>
+      <c r="C414" s="25"/>
+      <c r="D414" s="27"/>
     </row>
     <row r="415">
-      <c r="C415" s="5"/>
-      <c r="D415" s="6"/>
+      <c r="C415" s="25"/>
+      <c r="D415" s="27"/>
     </row>
     <row r="416">
-      <c r="C416" s="5"/>
-      <c r="D416" s="6"/>
+      <c r="C416" s="25"/>
+      <c r="D416" s="27"/>
     </row>
     <row r="417">
-      <c r="C417" s="5"/>
-      <c r="D417" s="6"/>
+      <c r="C417" s="25"/>
+      <c r="D417" s="27"/>
     </row>
     <row r="418">
-      <c r="C418" s="5"/>
-      <c r="D418" s="6"/>
+      <c r="C418" s="25"/>
+      <c r="D418" s="27"/>
     </row>
     <row r="419">
-      <c r="C419" s="5"/>
-      <c r="D419" s="6"/>
+      <c r="C419" s="25"/>
+      <c r="D419" s="27"/>
     </row>
     <row r="420">
-      <c r="C420" s="5"/>
-      <c r="D420" s="6"/>
+      <c r="C420" s="25"/>
+      <c r="D420" s="27"/>
     </row>
     <row r="421">
-      <c r="C421" s="5"/>
-      <c r="D421" s="6"/>
+      <c r="C421" s="25"/>
+      <c r="D421" s="27"/>
     </row>
     <row r="422">
-      <c r="C422" s="5"/>
-      <c r="D422" s="6"/>
+      <c r="C422" s="25"/>
+      <c r="D422" s="27"/>
     </row>
     <row r="423">
-      <c r="C423" s="5"/>
-      <c r="D423" s="6"/>
+      <c r="C423" s="25"/>
+      <c r="D423" s="27"/>
     </row>
     <row r="424">
-      <c r="C424" s="5"/>
-      <c r="D424" s="6"/>
+      <c r="C424" s="25"/>
+      <c r="D424" s="27"/>
     </row>
     <row r="425">
-      <c r="C425" s="5"/>
-      <c r="D425" s="6"/>
+      <c r="C425" s="25"/>
+      <c r="D425" s="27"/>
     </row>
     <row r="426">
-      <c r="C426" s="5"/>
-      <c r="D426" s="6"/>
+      <c r="C426" s="25"/>
+      <c r="D426" s="27"/>
     </row>
     <row r="427">
-      <c r="C427" s="5"/>
-      <c r="D427" s="6"/>
+      <c r="C427" s="25"/>
+      <c r="D427" s="27"/>
     </row>
     <row r="428">
-      <c r="C428" s="5"/>
-      <c r="D428" s="6"/>
+      <c r="C428" s="25"/>
+      <c r="D428" s="27"/>
     </row>
     <row r="429">
-      <c r="C429" s="5"/>
-      <c r="D429" s="6"/>
+      <c r="C429" s="25"/>
+      <c r="D429" s="27"/>
     </row>
     <row r="430">
-      <c r="C430" s="5"/>
-      <c r="D430" s="6"/>
+      <c r="C430" s="25"/>
+      <c r="D430" s="27"/>
     </row>
     <row r="431">
-      <c r="C431" s="5"/>
-      <c r="D431" s="6"/>
+      <c r="C431" s="25"/>
+      <c r="D431" s="27"/>
     </row>
     <row r="432">
-      <c r="C432" s="5"/>
-      <c r="D432" s="6"/>
+      <c r="C432" s="25"/>
+      <c r="D432" s="27"/>
     </row>
     <row r="433">
-      <c r="C433" s="5"/>
-      <c r="D433" s="6"/>
+      <c r="C433" s="25"/>
+      <c r="D433" s="27"/>
     </row>
     <row r="434">
-      <c r="C434" s="5"/>
-      <c r="D434" s="6"/>
+      <c r="C434" s="25"/>
+      <c r="D434" s="27"/>
     </row>
     <row r="435">
-      <c r="C435" s="5"/>
-      <c r="D435" s="6"/>
+      <c r="C435" s="25"/>
+      <c r="D435" s="27"/>
     </row>
     <row r="436">
-      <c r="C436" s="5"/>
-      <c r="D436" s="6"/>
+      <c r="C436" s="25"/>
+      <c r="D436" s="27"/>
     </row>
     <row r="437">
-      <c r="C437" s="5"/>
-      <c r="D437" s="6"/>
+      <c r="C437" s="25"/>
+      <c r="D437" s="27"/>
     </row>
     <row r="438">
-      <c r="C438" s="5"/>
-      <c r="D438" s="6"/>
+      <c r="C438" s="25"/>
+      <c r="D438" s="27"/>
     </row>
     <row r="439">
-      <c r="C439" s="5"/>
-      <c r="D439" s="6"/>
+      <c r="C439" s="25"/>
+      <c r="D439" s="27"/>
     </row>
     <row r="440">
-      <c r="C440" s="5"/>
-      <c r="D440" s="6"/>
+      <c r="C440" s="25"/>
+      <c r="D440" s="27"/>
     </row>
     <row r="441">
-      <c r="C441" s="5"/>
-      <c r="D441" s="6"/>
+      <c r="C441" s="25"/>
+      <c r="D441" s="27"/>
     </row>
     <row r="442">
-      <c r="C442" s="5"/>
-      <c r="D442" s="6"/>
+      <c r="C442" s="25"/>
+      <c r="D442" s="27"/>
     </row>
     <row r="443">
-      <c r="C443" s="5"/>
-      <c r="D443" s="6"/>
+      <c r="C443" s="25"/>
+      <c r="D443" s="27"/>
     </row>
     <row r="444">
-      <c r="C444" s="5"/>
-      <c r="D444" s="6"/>
+      <c r="C444" s="25"/>
+      <c r="D444" s="27"/>
     </row>
     <row r="445">
-      <c r="C445" s="5"/>
-      <c r="D445" s="6"/>
+      <c r="C445" s="25"/>
+      <c r="D445" s="27"/>
     </row>
     <row r="446">
-      <c r="C446" s="5"/>
-      <c r="D446" s="6"/>
+      <c r="C446" s="25"/>
+      <c r="D446" s="27"/>
     </row>
     <row r="447">
-      <c r="C447" s="5"/>
-      <c r="D447" s="6"/>
+      <c r="C447" s="25"/>
+      <c r="D447" s="27"/>
     </row>
     <row r="448">
-      <c r="C448" s="5"/>
-      <c r="D448" s="6"/>
+      <c r="C448" s="25"/>
+      <c r="D448" s="27"/>
     </row>
     <row r="449">
-      <c r="C449" s="5"/>
-      <c r="D449" s="6"/>
+      <c r="C449" s="25"/>
+      <c r="D449" s="27"/>
     </row>
     <row r="450">
-      <c r="C450" s="5"/>
-      <c r="D450" s="6"/>
+      <c r="C450" s="25"/>
+      <c r="D450" s="27"/>
     </row>
     <row r="451">
-      <c r="C451" s="5"/>
-      <c r="D451" s="6"/>
+      <c r="C451" s="25"/>
+      <c r="D451" s="27"/>
     </row>
     <row r="452">
-      <c r="C452" s="5"/>
-      <c r="D452" s="6"/>
+      <c r="C452" s="25"/>
+      <c r="D452" s="27"/>
     </row>
     <row r="453">
-      <c r="C453" s="5"/>
-      <c r="D453" s="6"/>
+      <c r="C453" s="25"/>
+      <c r="D453" s="27"/>
     </row>
     <row r="454">
-      <c r="C454" s="5"/>
-      <c r="D454" s="6"/>
+      <c r="C454" s="25"/>
+      <c r="D454" s="27"/>
     </row>
     <row r="455">
-      <c r="C455" s="5"/>
-      <c r="D455" s="6"/>
+      <c r="C455" s="25"/>
+      <c r="D455" s="27"/>
     </row>
     <row r="456">
-      <c r="C456" s="5"/>
-      <c r="D456" s="6"/>
+      <c r="C456" s="25"/>
+      <c r="D456" s="27"/>
     </row>
     <row r="457">
-      <c r="C457" s="5"/>
-      <c r="D457" s="6"/>
+      <c r="C457" s="25"/>
+      <c r="D457" s="27"/>
     </row>
     <row r="458">
-      <c r="C458" s="5"/>
-      <c r="D458" s="6"/>
+      <c r="C458" s="25"/>
+      <c r="D458" s="27"/>
     </row>
     <row r="459">
-      <c r="C459" s="5"/>
-      <c r="D459" s="6"/>
+      <c r="C459" s="25"/>
+      <c r="D459" s="27"/>
     </row>
     <row r="460">
-      <c r="C460" s="5"/>
-      <c r="D460" s="6"/>
+      <c r="C460" s="25"/>
+      <c r="D460" s="27"/>
     </row>
     <row r="461">
-      <c r="C461" s="5"/>
-      <c r="D461" s="6"/>
+      <c r="C461" s="25"/>
+      <c r="D461" s="27"/>
     </row>
     <row r="462">
-      <c r="C462" s="5"/>
-      <c r="D462" s="6"/>
+      <c r="C462" s="25"/>
+      <c r="D462" s="27"/>
     </row>
     <row r="463">
-      <c r="C463" s="5"/>
-      <c r="D463" s="6"/>
+      <c r="C463" s="25"/>
+      <c r="D463" s="27"/>
     </row>
     <row r="464">
-      <c r="C464" s="5"/>
-      <c r="D464" s="6"/>
+      <c r="C464" s="25"/>
+      <c r="D464" s="27"/>
     </row>
     <row r="465">
-      <c r="C465" s="5"/>
-      <c r="D465" s="6"/>
+      <c r="C465" s="25"/>
+      <c r="D465" s="27"/>
     </row>
     <row r="466">
-      <c r="C466" s="5"/>
-      <c r="D466" s="6"/>
+      <c r="C466" s="25"/>
+      <c r="D466" s="27"/>
     </row>
     <row r="467">
-      <c r="C467" s="5"/>
-      <c r="D467" s="6"/>
+      <c r="C467" s="25"/>
+      <c r="D467" s="27"/>
     </row>
     <row r="468">
-      <c r="C468" s="5"/>
-      <c r="D468" s="6"/>
+      <c r="C468" s="25"/>
+      <c r="D468" s="27"/>
     </row>
     <row r="469">
-      <c r="C469" s="5"/>
-      <c r="D469" s="6"/>
+      <c r="C469" s="25"/>
+      <c r="D469" s="27"/>
     </row>
     <row r="470">
-      <c r="C470" s="5"/>
-      <c r="D470" s="6"/>
+      <c r="C470" s="25"/>
+      <c r="D470" s="27"/>
     </row>
     <row r="471">
-      <c r="C471" s="5"/>
-      <c r="D471" s="6"/>
+      <c r="C471" s="25"/>
+      <c r="D471" s="27"/>
     </row>
     <row r="472">
-      <c r="C472" s="5"/>
-      <c r="D472" s="6"/>
+      <c r="C472" s="25"/>
+      <c r="D472" s="27"/>
     </row>
     <row r="473">
-      <c r="C473" s="5"/>
-      <c r="D473" s="6"/>
+      <c r="C473" s="25"/>
+      <c r="D473" s="27"/>
     </row>
     <row r="474">
-      <c r="C474" s="5"/>
-      <c r="D474" s="6"/>
+      <c r="C474" s="25"/>
+      <c r="D474" s="27"/>
     </row>
     <row r="475">
-      <c r="C475" s="5"/>
-      <c r="D475" s="6"/>
+      <c r="C475" s="25"/>
+      <c r="D475" s="27"/>
     </row>
     <row r="476">
-      <c r="C476" s="5"/>
-      <c r="D476" s="6"/>
+      <c r="C476" s="25"/>
+      <c r="D476" s="27"/>
     </row>
     <row r="477">
-      <c r="C477" s="5"/>
-      <c r="D477" s="6"/>
+      <c r="C477" s="25"/>
+      <c r="D477" s="27"/>
     </row>
     <row r="478">
-      <c r="C478" s="5"/>
-      <c r="D478" s="6"/>
+      <c r="C478" s="25"/>
+      <c r="D478" s="27"/>
     </row>
     <row r="479">
-      <c r="C479" s="5"/>
-      <c r="D479" s="6"/>
+      <c r="C479" s="25"/>
+      <c r="D479" s="27"/>
     </row>
     <row r="480">
-      <c r="C480" s="5"/>
-      <c r="D480" s="6"/>
+      <c r="C480" s="25"/>
+      <c r="D480" s="27"/>
     </row>
     <row r="481">
-      <c r="C481" s="5"/>
-      <c r="D481" s="6"/>
+      <c r="C481" s="25"/>
+      <c r="D481" s="27"/>
     </row>
     <row r="482">
-      <c r="C482" s="5"/>
-      <c r="D482" s="6"/>
+      <c r="C482" s="25"/>
+      <c r="D482" s="27"/>
     </row>
     <row r="483">
-      <c r="C483" s="5"/>
-      <c r="D483" s="6"/>
+      <c r="C483" s="25"/>
+      <c r="D483" s="27"/>
     </row>
     <row r="484">
-      <c r="C484" s="5"/>
-      <c r="D484" s="6"/>
+      <c r="C484" s="25"/>
+      <c r="D484" s="27"/>
     </row>
     <row r="485">
-      <c r="C485" s="5"/>
-      <c r="D485" s="6"/>
+      <c r="C485" s="25"/>
+      <c r="D485" s="27"/>
     </row>
     <row r="486">
-      <c r="C486" s="5"/>
-      <c r="D486" s="6"/>
+      <c r="C486" s="25"/>
+      <c r="D486" s="27"/>
     </row>
     <row r="487">
-      <c r="C487" s="5"/>
-      <c r="D487" s="6"/>
+      <c r="C487" s="25"/>
+      <c r="D487" s="27"/>
     </row>
     <row r="488">
-      <c r="C488" s="5"/>
-      <c r="D488" s="6"/>
+      <c r="C488" s="25"/>
+      <c r="D488" s="27"/>
     </row>
     <row r="489">
-      <c r="C489" s="5"/>
-      <c r="D489" s="6"/>
+      <c r="C489" s="25"/>
+      <c r="D489" s="27"/>
     </row>
     <row r="490">
-      <c r="C490" s="5"/>
-      <c r="D490" s="6"/>
+      <c r="C490" s="25"/>
+      <c r="D490" s="27"/>
     </row>
     <row r="491">
-      <c r="C491" s="5"/>
-      <c r="D491" s="6"/>
+      <c r="C491" s="25"/>
+      <c r="D491" s="27"/>
     </row>
     <row r="492">
-      <c r="C492" s="5"/>
-      <c r="D492" s="6"/>
+      <c r="C492" s="25"/>
+      <c r="D492" s="27"/>
     </row>
     <row r="493">
-      <c r="C493" s="5"/>
-      <c r="D493" s="6"/>
+      <c r="C493" s="25"/>
+      <c r="D493" s="27"/>
     </row>
     <row r="494">
-      <c r="C494" s="5"/>
-      <c r="D494" s="6"/>
+      <c r="C494" s="25"/>
+      <c r="D494" s="27"/>
     </row>
     <row r="495">
-      <c r="C495" s="5"/>
-      <c r="D495" s="6"/>
+      <c r="C495" s="25"/>
+      <c r="D495" s="27"/>
     </row>
     <row r="496">
-      <c r="C496" s="5"/>
-      <c r="D496" s="6"/>
+      <c r="C496" s="25"/>
+      <c r="D496" s="27"/>
     </row>
     <row r="497">
-      <c r="C497" s="5"/>
-      <c r="D497" s="6"/>
+      <c r="C497" s="25"/>
+      <c r="D497" s="27"/>
     </row>
     <row r="498">
-      <c r="C498" s="5"/>
-      <c r="D498" s="6"/>
+      <c r="C498" s="25"/>
+      <c r="D498" s="27"/>
     </row>
     <row r="499">
-      <c r="C499" s="5"/>
-      <c r="D499" s="6"/>
+      <c r="C499" s="25"/>
+      <c r="D499" s="27"/>
     </row>
     <row r="500">
-      <c r="C500" s="5"/>
-      <c r="D500" s="6"/>
+      <c r="C500" s="25"/>
+      <c r="D500" s="27"/>
     </row>
     <row r="501">
-      <c r="C501" s="5"/>
-      <c r="D501" s="6"/>
+      <c r="C501" s="25"/>
+      <c r="D501" s="27"/>
     </row>
     <row r="502">
-      <c r="C502" s="5"/>
-      <c r="D502" s="6"/>
+      <c r="C502" s="25"/>
+      <c r="D502" s="27"/>
     </row>
     <row r="503">
-      <c r="C503" s="5"/>
-      <c r="D503" s="6"/>
+      <c r="C503" s="25"/>
+      <c r="D503" s="27"/>
     </row>
     <row r="504">
-      <c r="C504" s="5"/>
-      <c r="D504" s="6"/>
+      <c r="C504" s="25"/>
+      <c r="D504" s="27"/>
     </row>
     <row r="505">
-      <c r="C505" s="5"/>
-      <c r="D505" s="6"/>
+      <c r="C505" s="25"/>
+      <c r="D505" s="27"/>
     </row>
     <row r="506">
-      <c r="C506" s="5"/>
-      <c r="D506" s="6"/>
+      <c r="C506" s="25"/>
+      <c r="D506" s="27"/>
     </row>
     <row r="507">
-      <c r="C507" s="5"/>
-      <c r="D507" s="6"/>
+      <c r="C507" s="25"/>
+      <c r="D507" s="27"/>
     </row>
     <row r="508">
-      <c r="C508" s="5"/>
-      <c r="D508" s="6"/>
+      <c r="C508" s="25"/>
+      <c r="D508" s="27"/>
     </row>
     <row r="509">
-      <c r="C509" s="5"/>
-      <c r="D509" s="6"/>
+      <c r="C509" s="25"/>
+      <c r="D509" s="27"/>
     </row>
     <row r="510">
-      <c r="C510" s="5"/>
-      <c r="D510" s="6"/>
+      <c r="C510" s="25"/>
+      <c r="D510" s="27"/>
     </row>
     <row r="511">
-      <c r="C511" s="5"/>
-      <c r="D511" s="6"/>
+      <c r="C511" s="25"/>
+      <c r="D511" s="27"/>
     </row>
     <row r="512">
-      <c r="C512" s="5"/>
-      <c r="D512" s="6"/>
+      <c r="C512" s="25"/>
+      <c r="D512" s="27"/>
     </row>
     <row r="513">
-      <c r="C513" s="5"/>
-      <c r="D513" s="6"/>
+      <c r="C513" s="25"/>
+      <c r="D513" s="27"/>
     </row>
     <row r="514">
-      <c r="C514" s="5"/>
-      <c r="D514" s="6"/>
+      <c r="C514" s="25"/>
+      <c r="D514" s="27"/>
     </row>
     <row r="515">
-      <c r="C515" s="5"/>
-      <c r="D515" s="6"/>
+      <c r="C515" s="25"/>
+      <c r="D515" s="27"/>
     </row>
     <row r="516">
-      <c r="C516" s="5"/>
-      <c r="D516" s="6"/>
+      <c r="C516" s="25"/>
+      <c r="D516" s="27"/>
     </row>
     <row r="517">
-      <c r="C517" s="5"/>
-      <c r="D517" s="6"/>
+      <c r="C517" s="25"/>
+      <c r="D517" s="27"/>
     </row>
     <row r="518">
-      <c r="C518" s="5"/>
-      <c r="D518" s="6"/>
+      <c r="C518" s="25"/>
+      <c r="D518" s="27"/>
     </row>
     <row r="519">
-      <c r="C519" s="5"/>
-      <c r="D519" s="6"/>
+      <c r="C519" s="25"/>
+      <c r="D519" s="27"/>
     </row>
     <row r="520">
-      <c r="C520" s="5"/>
-      <c r="D520" s="6"/>
+      <c r="C520" s="25"/>
+      <c r="D520" s="27"/>
     </row>
     <row r="521">
-      <c r="C521" s="5"/>
-      <c r="D521" s="6"/>
+      <c r="C521" s="25"/>
+      <c r="D521" s="27"/>
     </row>
     <row r="522">
-      <c r="C522" s="5"/>
-      <c r="D522" s="6"/>
+      <c r="C522" s="25"/>
+      <c r="D522" s="27"/>
     </row>
     <row r="523">
-      <c r="C523" s="5"/>
-      <c r="D523" s="6"/>
+      <c r="C523" s="25"/>
+      <c r="D523" s="27"/>
     </row>
     <row r="524">
-      <c r="C524" s="5"/>
-      <c r="D524" s="6"/>
+      <c r="C524" s="25"/>
+      <c r="D524" s="27"/>
     </row>
     <row r="525">
-      <c r="C525" s="5"/>
-      <c r="D525" s="6"/>
+      <c r="C525" s="25"/>
+      <c r="D525" s="27"/>
     </row>
     <row r="526">
-      <c r="C526" s="5"/>
-      <c r="D526" s="6"/>
+      <c r="C526" s="25"/>
+      <c r="D526" s="27"/>
     </row>
     <row r="527">
-      <c r="C527" s="5"/>
-      <c r="D527" s="6"/>
+      <c r="C527" s="25"/>
+      <c r="D527" s="27"/>
     </row>
     <row r="528">
-      <c r="C528" s="5"/>
-      <c r="D528" s="6"/>
+      <c r="C528" s="25"/>
+      <c r="D528" s="27"/>
     </row>
     <row r="529">
-      <c r="C529" s="5"/>
-      <c r="D529" s="6"/>
+      <c r="C529" s="25"/>
+      <c r="D529" s="27"/>
     </row>
     <row r="530">
-      <c r="C530" s="5"/>
-      <c r="D530" s="6"/>
+      <c r="C530" s="25"/>
+      <c r="D530" s="27"/>
     </row>
     <row r="531">
-      <c r="C531" s="5"/>
-      <c r="D531" s="6"/>
+      <c r="C531" s="25"/>
+      <c r="D531" s="27"/>
     </row>
     <row r="532">
-      <c r="C532" s="5"/>
-      <c r="D532" s="6"/>
+      <c r="C532" s="25"/>
+      <c r="D532" s="27"/>
     </row>
     <row r="533">
-      <c r="C533" s="5"/>
-      <c r="D533" s="6"/>
+      <c r="C533" s="25"/>
+      <c r="D533" s="27"/>
     </row>
     <row r="534">
-      <c r="C534" s="5"/>
-      <c r="D534" s="6"/>
+      <c r="C534" s="25"/>
+      <c r="D534" s="27"/>
     </row>
     <row r="535">
-      <c r="C535" s="5"/>
-      <c r="D535" s="6"/>
+      <c r="C535" s="25"/>
+      <c r="D535" s="27"/>
     </row>
     <row r="536">
-      <c r="C536" s="5"/>
-      <c r="D536" s="6"/>
+      <c r="C536" s="25"/>
+      <c r="D536" s="27"/>
     </row>
     <row r="537">
-      <c r="C537" s="5"/>
-      <c r="D537" s="6"/>
+      <c r="C537" s="25"/>
+      <c r="D537" s="27"/>
     </row>
     <row r="538">
-      <c r="C538" s="5"/>
-      <c r="D538" s="6"/>
+      <c r="C538" s="25"/>
+      <c r="D538" s="27"/>
     </row>
     <row r="539">
-      <c r="C539" s="5"/>
-      <c r="D539" s="6"/>
+      <c r="C539" s="25"/>
+      <c r="D539" s="27"/>
     </row>
     <row r="540">
-      <c r="C540" s="5"/>
-      <c r="D540" s="6"/>
+      <c r="C540" s="25"/>
+      <c r="D540" s="27"/>
     </row>
     <row r="541">
-      <c r="C541" s="5"/>
-      <c r="D541" s="6"/>
+      <c r="C541" s="25"/>
+      <c r="D541" s="27"/>
     </row>
     <row r="542">
-      <c r="C542" s="5"/>
-      <c r="D542" s="6"/>
+      <c r="C542" s="25"/>
+      <c r="D542" s="27"/>
     </row>
     <row r="543">
-      <c r="C543" s="5"/>
-      <c r="D543" s="6"/>
+      <c r="C543" s="25"/>
+      <c r="D543" s="27"/>
     </row>
     <row r="544">
-      <c r="C544" s="5"/>
-      <c r="D544" s="6"/>
+      <c r="C544" s="25"/>
+      <c r="D544" s="27"/>
     </row>
     <row r="545">
-      <c r="C545" s="5"/>
-      <c r="D545" s="6"/>
+      <c r="C545" s="25"/>
+      <c r="D545" s="27"/>
     </row>
     <row r="546">
-      <c r="C546" s="5"/>
-      <c r="D546" s="6"/>
+      <c r="C546" s="25"/>
+      <c r="D546" s="27"/>
     </row>
     <row r="547">
-      <c r="C547" s="5"/>
-      <c r="D547" s="6"/>
+      <c r="C547" s="25"/>
+      <c r="D547" s="27"/>
     </row>
     <row r="548">
-      <c r="C548" s="5"/>
-      <c r="D548" s="6"/>
+      <c r="C548" s="25"/>
+      <c r="D548" s="27"/>
     </row>
     <row r="549">
-      <c r="C549" s="5"/>
-      <c r="D549" s="6"/>
+      <c r="C549" s="25"/>
+      <c r="D549" s="27"/>
     </row>
     <row r="550">
-      <c r="C550" s="5"/>
-      <c r="D550" s="6"/>
+      <c r="C550" s="25"/>
+      <c r="D550" s="27"/>
     </row>
     <row r="551">
-      <c r="C551" s="5"/>
-      <c r="D551" s="6"/>
+      <c r="C551" s="25"/>
+      <c r="D551" s="27"/>
     </row>
     <row r="552">
-      <c r="C552" s="5"/>
-      <c r="D552" s="6"/>
+      <c r="C552" s="25"/>
+      <c r="D552" s="27"/>
     </row>
     <row r="553">
-      <c r="C553" s="5"/>
-      <c r="D553" s="6"/>
+      <c r="C553" s="25"/>
+      <c r="D553" s="27"/>
     </row>
     <row r="554">
-      <c r="C554" s="5"/>
-      <c r="D554" s="6"/>
+      <c r="C554" s="25"/>
+      <c r="D554" s="27"/>
     </row>
     <row r="555">
-      <c r="C555" s="5"/>
-      <c r="D555" s="6"/>
+      <c r="C555" s="25"/>
+      <c r="D555" s="27"/>
     </row>
     <row r="556">
-      <c r="C556" s="5"/>
-      <c r="D556" s="6"/>
+      <c r="C556" s="25"/>
+      <c r="D556" s="27"/>
     </row>
     <row r="557">
-      <c r="C557" s="5"/>
-      <c r="D557" s="6"/>
+      <c r="C557" s="25"/>
+      <c r="D557" s="27"/>
     </row>
     <row r="558">
-      <c r="C558" s="5"/>
-      <c r="D558" s="6"/>
+      <c r="C558" s="25"/>
+      <c r="D558" s="27"/>
     </row>
     <row r="559">
-      <c r="C559" s="5"/>
-      <c r="D559" s="6"/>
+      <c r="C559" s="25"/>
+      <c r="D559" s="27"/>
     </row>
     <row r="560">
-      <c r="C560" s="5"/>
-      <c r="D560" s="6"/>
+      <c r="C560" s="25"/>
+      <c r="D560" s="27"/>
     </row>
     <row r="561">
-      <c r="C561" s="5"/>
-      <c r="D561" s="6"/>
+      <c r="C561" s="25"/>
+      <c r="D561" s="27"/>
     </row>
     <row r="562">
-      <c r="C562" s="5"/>
-      <c r="D562" s="6"/>
+      <c r="C562" s="25"/>
+      <c r="D562" s="27"/>
     </row>
     <row r="563">
-      <c r="C563" s="5"/>
-      <c r="D563" s="6"/>
+      <c r="C563" s="25"/>
+      <c r="D563" s="27"/>
     </row>
     <row r="564">
-      <c r="C564" s="5"/>
-      <c r="D564" s="6"/>
+      <c r="C564" s="25"/>
+      <c r="D564" s="27"/>
     </row>
     <row r="565">
-      <c r="C565" s="5"/>
-      <c r="D565" s="6"/>
+      <c r="C565" s="25"/>
+      <c r="D565" s="27"/>
     </row>
     <row r="566">
-      <c r="C566" s="5"/>
-      <c r="D566" s="6"/>
+      <c r="C566" s="25"/>
+      <c r="D566" s="27"/>
     </row>
     <row r="567">
-      <c r="C567" s="5"/>
-      <c r="D567" s="6"/>
+      <c r="C567" s="25"/>
+      <c r="D567" s="27"/>
     </row>
     <row r="568">
-      <c r="C568" s="5"/>
-      <c r="D568" s="6"/>
+      <c r="C568" s="25"/>
+      <c r="D568" s="27"/>
     </row>
     <row r="569">
-      <c r="C569" s="5"/>
-      <c r="D569" s="6"/>
+      <c r="C569" s="25"/>
+      <c r="D569" s="27"/>
     </row>
     <row r="570">
-      <c r="C570" s="5"/>
-      <c r="D570" s="6"/>
+      <c r="C570" s="25"/>
+      <c r="D570" s="27"/>
     </row>
     <row r="571">
-      <c r="C571" s="5"/>
-      <c r="D571" s="6"/>
+      <c r="C571" s="25"/>
+      <c r="D571" s="27"/>
     </row>
     <row r="572">
-      <c r="C572" s="5"/>
-      <c r="D572" s="6"/>
+      <c r="C572" s="25"/>
+      <c r="D572" s="27"/>
     </row>
     <row r="573">
-      <c r="C573" s="5"/>
-      <c r="D573" s="6"/>
+      <c r="C573" s="25"/>
+      <c r="D573" s="27"/>
     </row>
     <row r="574">
-      <c r="C574" s="5"/>
-      <c r="D574" s="6"/>
+      <c r="C574" s="25"/>
+      <c r="D574" s="27"/>
     </row>
     <row r="575">
-      <c r="C575" s="5"/>
-      <c r="D575" s="6"/>
+      <c r="C575" s="25"/>
+      <c r="D575" s="27"/>
     </row>
     <row r="576">
-      <c r="C576" s="5"/>
-      <c r="D576" s="6"/>
+      <c r="C576" s="25"/>
+      <c r="D576" s="27"/>
     </row>
     <row r="577">
-      <c r="C577" s="5"/>
-      <c r="D577" s="6"/>
+      <c r="C577" s="25"/>
+      <c r="D577" s="27"/>
     </row>
     <row r="578">
-      <c r="C578" s="5"/>
-      <c r="D578" s="6"/>
+      <c r="C578" s="25"/>
+      <c r="D578" s="27"/>
     </row>
     <row r="579">
-      <c r="C579" s="5"/>
-      <c r="D579" s="6"/>
+      <c r="C579" s="25"/>
+      <c r="D579" s="27"/>
     </row>
     <row r="580">
-      <c r="C580" s="5"/>
-      <c r="D580" s="6"/>
+      <c r="C580" s="25"/>
+      <c r="D580" s="27"/>
     </row>
     <row r="581">
-      <c r="C581" s="5"/>
-      <c r="D581" s="6"/>
+      <c r="C581" s="25"/>
+      <c r="D581" s="27"/>
     </row>
     <row r="582">
-      <c r="C582" s="5"/>
-      <c r="D582" s="6"/>
+      <c r="C582" s="25"/>
+      <c r="D582" s="27"/>
     </row>
     <row r="583">
-      <c r="C583" s="5"/>
-      <c r="D583" s="6"/>
+      <c r="C583" s="25"/>
+      <c r="D583" s="27"/>
     </row>
     <row r="584">
-      <c r="C584" s="5"/>
-      <c r="D584" s="6"/>
+      <c r="C584" s="25"/>
+      <c r="D584" s="27"/>
     </row>
     <row r="585">
-      <c r="C585" s="5"/>
-      <c r="D585" s="6"/>
+      <c r="C585" s="25"/>
+      <c r="D585" s="27"/>
     </row>
     <row r="586">
-      <c r="C586" s="5"/>
-      <c r="D586" s="6"/>
+      <c r="C586" s="25"/>
+      <c r="D586" s="27"/>
     </row>
     <row r="587">
-      <c r="C587" s="5"/>
-      <c r="D587" s="6"/>
+      <c r="C587" s="25"/>
+      <c r="D587" s="27"/>
     </row>
     <row r="588">
-      <c r="C588" s="5"/>
-      <c r="D588" s="6"/>
+      <c r="C588" s="25"/>
+      <c r="D588" s="27"/>
     </row>
     <row r="589">
-      <c r="C589" s="5"/>
-      <c r="D589" s="6"/>
+      <c r="C589" s="25"/>
+      <c r="D589" s="27"/>
     </row>
     <row r="590">
-      <c r="C590" s="5"/>
-      <c r="D590" s="6"/>
+      <c r="C590" s="25"/>
+      <c r="D590" s="27"/>
     </row>
     <row r="591">
-      <c r="C591" s="5"/>
-      <c r="D591" s="6"/>
+      <c r="C591" s="25"/>
+      <c r="D591" s="27"/>
     </row>
     <row r="592">
-      <c r="C592" s="5"/>
-      <c r="D592" s="6"/>
+      <c r="C592" s="25"/>
+      <c r="D592" s="27"/>
     </row>
     <row r="593">
-      <c r="C593" s="5"/>
-      <c r="D593" s="6"/>
+      <c r="C593" s="25"/>
+      <c r="D593" s="27"/>
     </row>
     <row r="594">
-      <c r="C594" s="5"/>
-      <c r="D594" s="6"/>
+      <c r="C594" s="25"/>
+      <c r="D594" s="27"/>
     </row>
     <row r="595">
-      <c r="C595" s="5"/>
-      <c r="D595" s="6"/>
+      <c r="C595" s="25"/>
+      <c r="D595" s="27"/>
     </row>
     <row r="596">
-      <c r="C596" s="5"/>
-      <c r="D596" s="6"/>
+      <c r="C596" s="25"/>
+      <c r="D596" s="27"/>
     </row>
     <row r="597">
-      <c r="C597" s="5"/>
-      <c r="D597" s="6"/>
+      <c r="C597" s="25"/>
+      <c r="D597" s="27"/>
     </row>
     <row r="598">
-      <c r="C598" s="5"/>
-      <c r="D598" s="6"/>
+      <c r="C598" s="25"/>
+      <c r="D598" s="27"/>
     </row>
     <row r="599">
-      <c r="C599" s="5"/>
-      <c r="D599" s="6"/>
+      <c r="C599" s="25"/>
+      <c r="D599" s="27"/>
     </row>
     <row r="600">
-      <c r="C600" s="5"/>
-      <c r="D600" s="6"/>
+      <c r="C600" s="25"/>
+      <c r="D600" s="27"/>
     </row>
     <row r="601">
-      <c r="C601" s="5"/>
-      <c r="D601" s="6"/>
+      <c r="C601" s="25"/>
+      <c r="D601" s="27"/>
     </row>
     <row r="602">
-      <c r="C602" s="5"/>
-      <c r="D602" s="6"/>
+      <c r="C602" s="25"/>
+      <c r="D602" s="27"/>
     </row>
     <row r="603">
-      <c r="C603" s="5"/>
-      <c r="D603" s="6"/>
+      <c r="C603" s="25"/>
+      <c r="D603" s="27"/>
     </row>
     <row r="604">
-      <c r="C604" s="5"/>
-      <c r="D604" s="6"/>
+      <c r="C604" s="25"/>
+      <c r="D604" s="27"/>
     </row>
     <row r="605">
-      <c r="C605" s="5"/>
-      <c r="D605" s="6"/>
+      <c r="C605" s="25"/>
+      <c r="D605" s="27"/>
     </row>
     <row r="606">
-      <c r="C606" s="5"/>
-      <c r="D606" s="6"/>
+      <c r="C606" s="25"/>
+      <c r="D606" s="27"/>
     </row>
     <row r="607">
-      <c r="C607" s="5"/>
-      <c r="D607" s="6"/>
+      <c r="C607" s="25"/>
+      <c r="D607" s="27"/>
     </row>
     <row r="608">
-      <c r="C608" s="5"/>
-      <c r="D608" s="6"/>
+      <c r="C608" s="25"/>
+      <c r="D608" s="27"/>
     </row>
     <row r="609">
-      <c r="C609" s="5"/>
-      <c r="D609" s="6"/>
+      <c r="C609" s="25"/>
+      <c r="D609" s="27"/>
     </row>
     <row r="610">
-      <c r="C610" s="5"/>
-      <c r="D610" s="6"/>
+      <c r="C610" s="25"/>
+      <c r="D610" s="27"/>
     </row>
     <row r="611">
-      <c r="C611" s="5"/>
-      <c r="D611" s="6"/>
+      <c r="C611" s="25"/>
+      <c r="D611" s="27"/>
     </row>
     <row r="612">
-      <c r="C612" s="5"/>
-      <c r="D612" s="6"/>
+      <c r="C612" s="25"/>
+      <c r="D612" s="27"/>
     </row>
     <row r="613">
-      <c r="C613" s="5"/>
-      <c r="D613" s="6"/>
+      <c r="C613" s="25"/>
+      <c r="D613" s="27"/>
     </row>
     <row r="614">
-      <c r="C614" s="5"/>
-      <c r="D614" s="6"/>
+      <c r="C614" s="25"/>
+      <c r="D614" s="27"/>
     </row>
     <row r="615">
-      <c r="C615" s="5"/>
-      <c r="D615" s="6"/>
+      <c r="C615" s="25"/>
+      <c r="D615" s="27"/>
     </row>
     <row r="616">
-      <c r="C616" s="5"/>
-      <c r="D616" s="6"/>
+      <c r="C616" s="25"/>
+      <c r="D616" s="27"/>
     </row>
     <row r="617">
-      <c r="C617" s="5"/>
-      <c r="D617" s="6"/>
+      <c r="C617" s="25"/>
+      <c r="D617" s="27"/>
     </row>
     <row r="618">
-      <c r="C618" s="5"/>
-      <c r="D618" s="6"/>
+      <c r="C618" s="25"/>
+      <c r="D618" s="27"/>
     </row>
     <row r="619">
-      <c r="C619" s="5"/>
-      <c r="D619" s="6"/>
+      <c r="C619" s="25"/>
+      <c r="D619" s="27"/>
     </row>
     <row r="620">
-      <c r="C620" s="5"/>
-      <c r="D620" s="6"/>
+      <c r="C620" s="25"/>
+      <c r="D620" s="27"/>
     </row>
     <row r="621">
-      <c r="C621" s="5"/>
-      <c r="D621" s="6"/>
+      <c r="C621" s="25"/>
+      <c r="D621" s="27"/>
     </row>
     <row r="622">
-      <c r="C622" s="5"/>
-      <c r="D622" s="6"/>
+      <c r="C622" s="25"/>
+      <c r="D622" s="27"/>
     </row>
     <row r="623">
-      <c r="C623" s="5"/>
-      <c r="D623" s="6"/>
+      <c r="C623" s="25"/>
+      <c r="D623" s="27"/>
     </row>
     <row r="624">
-      <c r="C624" s="5"/>
-      <c r="D624" s="6"/>
+      <c r="C624" s="25"/>
+      <c r="D624" s="27"/>
     </row>
     <row r="625">
-      <c r="C625" s="5"/>
-      <c r="D625" s="6"/>
+      <c r="C625" s="25"/>
+      <c r="D625" s="27"/>
     </row>
     <row r="626">
-      <c r="C626" s="5"/>
-      <c r="D626" s="6"/>
+      <c r="C626" s="25"/>
+      <c r="D626" s="27"/>
     </row>
     <row r="627">
-      <c r="C627" s="5"/>
-      <c r="D627" s="6"/>
+      <c r="C627" s="25"/>
+      <c r="D627" s="27"/>
     </row>
     <row r="628">
-      <c r="C628" s="5"/>
-      <c r="D628" s="6"/>
+      <c r="C628" s="25"/>
+      <c r="D628" s="27"/>
     </row>
     <row r="629">
-      <c r="C629" s="5"/>
-      <c r="D629" s="6"/>
+      <c r="C629" s="25"/>
+      <c r="D629" s="27"/>
     </row>
     <row r="630">
-      <c r="C630" s="5"/>
-      <c r="D630" s="6"/>
+      <c r="C630" s="25"/>
+      <c r="D630" s="27"/>
     </row>
     <row r="631">
-      <c r="C631" s="5"/>
-      <c r="D631" s="6"/>
+      <c r="C631" s="25"/>
+      <c r="D631" s="27"/>
     </row>
     <row r="632">
-      <c r="C632" s="5"/>
-      <c r="D632" s="6"/>
+      <c r="C632" s="25"/>
+      <c r="D632" s="27"/>
     </row>
     <row r="633">
-      <c r="C633" s="5"/>
-      <c r="D633" s="6"/>
+      <c r="C633" s="25"/>
+      <c r="D633" s="27"/>
     </row>
     <row r="634">
-      <c r="C634" s="5"/>
-      <c r="D634" s="6"/>
+      <c r="C634" s="25"/>
+      <c r="D634" s="27"/>
     </row>
     <row r="635">
-      <c r="C635" s="5"/>
-      <c r="D635" s="6"/>
+      <c r="C635" s="25"/>
+      <c r="D635" s="27"/>
     </row>
     <row r="636">
-      <c r="C636" s="5"/>
-      <c r="D636" s="6"/>
+      <c r="C636" s="25"/>
+      <c r="D636" s="27"/>
     </row>
     <row r="637">
-      <c r="C637" s="5"/>
-      <c r="D637" s="6"/>
+      <c r="C637" s="25"/>
+      <c r="D637" s="27"/>
     </row>
     <row r="638">
-      <c r="C638" s="5"/>
-      <c r="D638" s="6"/>
+      <c r="C638" s="25"/>
+      <c r="D638" s="27"/>
     </row>
     <row r="639">
-      <c r="C639" s="5"/>
-      <c r="D639" s="6"/>
+      <c r="C639" s="25"/>
+      <c r="D639" s="27"/>
     </row>
     <row r="640">
-      <c r="C640" s="5"/>
-      <c r="D640" s="6"/>
+      <c r="C640" s="25"/>
+      <c r="D640" s="27"/>
     </row>
     <row r="641">
-      <c r="C641" s="5"/>
-      <c r="D641" s="6"/>
+      <c r="C641" s="25"/>
+      <c r="D641" s="27"/>
     </row>
     <row r="642">
-      <c r="C642" s="5"/>
-      <c r="D642" s="6"/>
+      <c r="C642" s="25"/>
+      <c r="D642" s="27"/>
     </row>
     <row r="643">
-      <c r="C643" s="5"/>
-      <c r="D643" s="6"/>
+      <c r="C643" s="25"/>
+      <c r="D643" s="27"/>
     </row>
     <row r="644">
-      <c r="C644" s="5"/>
-      <c r="D644" s="6"/>
+      <c r="C644" s="25"/>
+      <c r="D644" s="27"/>
     </row>
     <row r="645">
-      <c r="C645" s="5"/>
-      <c r="D645" s="6"/>
+      <c r="C645" s="25"/>
+      <c r="D645" s="27"/>
     </row>
     <row r="646">
-      <c r="C646" s="5"/>
-      <c r="D646" s="6"/>
+      <c r="C646" s="25"/>
+      <c r="D646" s="27"/>
     </row>
     <row r="647">
-      <c r="C647" s="5"/>
-      <c r="D647" s="6"/>
+      <c r="C647" s="25"/>
+      <c r="D647" s="27"/>
     </row>
     <row r="648">
-      <c r="C648" s="5"/>
-      <c r="D648" s="6"/>
+      <c r="C648" s="25"/>
+      <c r="D648" s="27"/>
     </row>
     <row r="649">
-      <c r="C649" s="5"/>
-      <c r="D649" s="6"/>
+      <c r="C649" s="25"/>
+      <c r="D649" s="27"/>
     </row>
     <row r="650">
-      <c r="C650" s="5"/>
-      <c r="D650" s="6"/>
+      <c r="C650" s="25"/>
+      <c r="D650" s="27"/>
     </row>
     <row r="651">
-      <c r="C651" s="5"/>
-      <c r="D651" s="6"/>
+      <c r="C651" s="25"/>
+      <c r="D651" s="27"/>
     </row>
     <row r="652">
-      <c r="C652" s="5"/>
-      <c r="D652" s="6"/>
+      <c r="C652" s="25"/>
+      <c r="D652" s="27"/>
     </row>
     <row r="653">
-      <c r="C653" s="5"/>
-      <c r="D653" s="6"/>
+      <c r="C653" s="25"/>
+      <c r="D653" s="27"/>
     </row>
     <row r="654">
-      <c r="C654" s="5"/>
-      <c r="D654" s="6"/>
+      <c r="C654" s="25"/>
+      <c r="D654" s="27"/>
     </row>
     <row r="655">
-      <c r="C655" s="5"/>
-      <c r="D655" s="6"/>
+      <c r="C655" s="25"/>
+      <c r="D655" s="27"/>
     </row>
     <row r="656">
-      <c r="C656" s="5"/>
-      <c r="D656" s="6"/>
+      <c r="C656" s="25"/>
+      <c r="D656" s="27"/>
     </row>
     <row r="657">
-      <c r="C657" s="5"/>
-      <c r="D657" s="6"/>
+      <c r="C657" s="25"/>
+      <c r="D657" s="27"/>
     </row>
     <row r="658">
-      <c r="C658" s="5"/>
-      <c r="D658" s="6"/>
+      <c r="C658" s="25"/>
+      <c r="D658" s="27"/>
     </row>
     <row r="659">
-      <c r="C659" s="5"/>
-      <c r="D659" s="6"/>
+      <c r="C659" s="25"/>
+      <c r="D659" s="27"/>
     </row>
     <row r="660">
-      <c r="C660" s="5"/>
-      <c r="D660" s="6"/>
+      <c r="C660" s="25"/>
+      <c r="D660" s="27"/>
     </row>
     <row r="661">
-      <c r="C661" s="5"/>
-      <c r="D661" s="6"/>
+      <c r="C661" s="25"/>
+      <c r="D661" s="27"/>
     </row>
     <row r="662">
-      <c r="C662" s="5"/>
-      <c r="D662" s="6"/>
+      <c r="C662" s="25"/>
+      <c r="D662" s="27"/>
     </row>
     <row r="663">
-      <c r="C663" s="5"/>
-      <c r="D663" s="6"/>
+      <c r="C663" s="25"/>
+      <c r="D663" s="27"/>
     </row>
     <row r="664">
-      <c r="C664" s="5"/>
-      <c r="D664" s="6"/>
+      <c r="C664" s="25"/>
+      <c r="D664" s="27"/>
     </row>
     <row r="665">
-      <c r="C665" s="5"/>
-      <c r="D665" s="6"/>
+      <c r="C665" s="25"/>
+      <c r="D665" s="27"/>
     </row>
     <row r="666">
-      <c r="C666" s="5"/>
-      <c r="D666" s="6"/>
+      <c r="C666" s="25"/>
+      <c r="D666" s="27"/>
     </row>
     <row r="667">
-      <c r="C667" s="5"/>
-      <c r="D667" s="6"/>
+      <c r="C667" s="25"/>
+      <c r="D667" s="27"/>
     </row>
     <row r="668">
-      <c r="C668" s="5"/>
-      <c r="D668" s="6"/>
+      <c r="C668" s="25"/>
+      <c r="D668" s="27"/>
     </row>
     <row r="669">
-      <c r="C669" s="5"/>
-      <c r="D669" s="6"/>
+      <c r="C669" s="25"/>
+      <c r="D669" s="27"/>
     </row>
     <row r="670">
-      <c r="C670" s="5"/>
-      <c r="D670" s="6"/>
+      <c r="C670" s="25"/>
+      <c r="D670" s="27"/>
     </row>
     <row r="671">
-      <c r="C671" s="5"/>
-      <c r="D671" s="6"/>
+      <c r="C671" s="25"/>
+      <c r="D671" s="27"/>
     </row>
     <row r="672">
-      <c r="C672" s="5"/>
-      <c r="D672" s="6"/>
+      <c r="C672" s="25"/>
+      <c r="D672" s="27"/>
     </row>
     <row r="673">
-      <c r="C673" s="5"/>
-      <c r="D673" s="6"/>
+      <c r="C673" s="25"/>
+      <c r="D673" s="27"/>
     </row>
     <row r="674">
-      <c r="C674" s="5"/>
-      <c r="D674" s="6"/>
+      <c r="C674" s="25"/>
+      <c r="D674" s="27"/>
     </row>
     <row r="675">
-      <c r="C675" s="5"/>
-      <c r="D675" s="6"/>
+      <c r="C675" s="25"/>
+      <c r="D675" s="27"/>
     </row>
     <row r="676">
-      <c r="C676" s="5"/>
-      <c r="D676" s="6"/>
+      <c r="C676" s="25"/>
+      <c r="D676" s="27"/>
     </row>
     <row r="677">
-      <c r="C677" s="5"/>
-      <c r="D677" s="6"/>
+      <c r="C677" s="25"/>
+      <c r="D677" s="27"/>
     </row>
     <row r="678">
-      <c r="C678" s="5"/>
-      <c r="D678" s="6"/>
+      <c r="C678" s="25"/>
+      <c r="D678" s="27"/>
     </row>
     <row r="679">
-      <c r="C679" s="5"/>
-      <c r="D679" s="6"/>
+      <c r="C679" s="25"/>
+      <c r="D679" s="27"/>
     </row>
     <row r="680">
-      <c r="C680" s="5"/>
-      <c r="D680" s="6"/>
+      <c r="C680" s="25"/>
+      <c r="D680" s="27"/>
     </row>
     <row r="681">
-      <c r="C681" s="5"/>
-      <c r="D681" s="6"/>
+      <c r="C681" s="25"/>
+      <c r="D681" s="27"/>
     </row>
     <row r="682">
-      <c r="C682" s="5"/>
-      <c r="D682" s="6"/>
+      <c r="C682" s="25"/>
+      <c r="D682" s="27"/>
     </row>
     <row r="683">
-      <c r="C683" s="5"/>
-      <c r="D683" s="6"/>
+      <c r="C683" s="25"/>
+      <c r="D683" s="27"/>
     </row>
     <row r="684">
-      <c r="C684" s="5"/>
-      <c r="D684" s="6"/>
+      <c r="C684" s="25"/>
+      <c r="D684" s="27"/>
     </row>
     <row r="685">
-      <c r="C685" s="5"/>
-      <c r="D685" s="6"/>
+      <c r="C685" s="25"/>
+      <c r="D685" s="27"/>
     </row>
     <row r="686">
-      <c r="C686" s="5"/>
-      <c r="D686" s="6"/>
+      <c r="C686" s="25"/>
+      <c r="D686" s="27"/>
     </row>
     <row r="687">
-      <c r="C687" s="5"/>
-      <c r="D687" s="6"/>
+      <c r="C687" s="25"/>
+      <c r="D687" s="27"/>
     </row>
     <row r="688">
-      <c r="C688" s="5"/>
-      <c r="D688" s="6"/>
+      <c r="C688" s="25"/>
+      <c r="D688" s="27"/>
     </row>
     <row r="689">
-      <c r="C689" s="5"/>
-      <c r="D689" s="6"/>
+      <c r="C689" s="25"/>
+      <c r="D689" s="27"/>
     </row>
     <row r="690">
-      <c r="C690" s="5"/>
-      <c r="D690" s="6"/>
+      <c r="C690" s="25"/>
+      <c r="D690" s="27"/>
     </row>
     <row r="691">
-      <c r="C691" s="5"/>
-      <c r="D691" s="6"/>
+      <c r="C691" s="25"/>
+      <c r="D691" s="27"/>
     </row>
     <row r="692">
-      <c r="C692" s="5"/>
-      <c r="D692" s="6"/>
+      <c r="C692" s="25"/>
+      <c r="D692" s="27"/>
     </row>
     <row r="693">
-      <c r="C693" s="5"/>
-      <c r="D693" s="6"/>
+      <c r="C693" s="25"/>
+      <c r="D693" s="27"/>
     </row>
     <row r="694">
-      <c r="C694" s="5"/>
-      <c r="D694" s="6"/>
+      <c r="C694" s="25"/>
+      <c r="D694" s="27"/>
     </row>
     <row r="695">
-      <c r="C695" s="5"/>
-      <c r="D695" s="6"/>
+      <c r="C695" s="25"/>
+      <c r="D695" s="27"/>
     </row>
     <row r="696">
-      <c r="C696" s="5"/>
-      <c r="D696" s="6"/>
+      <c r="C696" s="25"/>
+      <c r="D696" s="27"/>
     </row>
     <row r="697">
-      <c r="C697" s="5"/>
-      <c r="D697" s="6"/>
+      <c r="C697" s="25"/>
+      <c r="D697" s="27"/>
     </row>
     <row r="698">
-      <c r="C698" s="5"/>
-      <c r="D698" s="6"/>
+      <c r="C698" s="25"/>
+      <c r="D698" s="27"/>
     </row>
     <row r="699">
-      <c r="C699" s="5"/>
-      <c r="D699" s="6"/>
+      <c r="C699" s="25"/>
+      <c r="D699" s="27"/>
     </row>
     <row r="700">
-      <c r="C700" s="5"/>
-      <c r="D700" s="6"/>
+      <c r="C700" s="25"/>
+      <c r="D700" s="27"/>
     </row>
     <row r="701">
-      <c r="C701" s="5"/>
-      <c r="D701" s="6"/>
+      <c r="C701" s="25"/>
+      <c r="D701" s="27"/>
     </row>
     <row r="702">
-      <c r="C702" s="5"/>
-      <c r="D702" s="6"/>
+      <c r="C702" s="25"/>
+      <c r="D702" s="27"/>
     </row>
     <row r="703">
-      <c r="C703" s="5"/>
-      <c r="D703" s="6"/>
+      <c r="C703" s="25"/>
+      <c r="D703" s="27"/>
     </row>
     <row r="704">
-      <c r="C704" s="5"/>
-      <c r="D704" s="6"/>
+      <c r="C704" s="25"/>
+      <c r="D704" s="27"/>
     </row>
     <row r="705">
-      <c r="C705" s="5"/>
-      <c r="D705" s="6"/>
+      <c r="C705" s="25"/>
+      <c r="D705" s="27"/>
     </row>
     <row r="706">
-      <c r="C706" s="5"/>
-      <c r="D706" s="6"/>
+      <c r="C706" s="25"/>
+      <c r="D706" s="27"/>
     </row>
     <row r="707">
-      <c r="C707" s="5"/>
-      <c r="D707" s="6"/>
+      <c r="C707" s="25"/>
+      <c r="D707" s="27"/>
     </row>
     <row r="708">
-      <c r="C708" s="5"/>
-      <c r="D708" s="6"/>
+      <c r="C708" s="25"/>
+      <c r="D708" s="27"/>
     </row>
     <row r="709">
-      <c r="C709" s="5"/>
-      <c r="D709" s="6"/>
+      <c r="C709" s="25"/>
+      <c r="D709" s="27"/>
     </row>
     <row r="710">
-      <c r="C710" s="5"/>
-      <c r="D710" s="6"/>
+      <c r="C710" s="25"/>
+      <c r="D710" s="27"/>
     </row>
     <row r="711">
-      <c r="C711" s="5"/>
-      <c r="D711" s="6"/>
+      <c r="C711" s="25"/>
+      <c r="D711" s="27"/>
     </row>
     <row r="712">
-      <c r="C712" s="5"/>
-      <c r="D712" s="6"/>
+      <c r="C712" s="25"/>
+      <c r="D712" s="27"/>
     </row>
     <row r="713">
-      <c r="C713" s="5"/>
-      <c r="D713" s="6"/>
+      <c r="C713" s="25"/>
+      <c r="D713" s="27"/>
     </row>
     <row r="714">
-      <c r="C714" s="5"/>
-      <c r="D714" s="6"/>
+      <c r="C714" s="25"/>
+      <c r="D714" s="27"/>
     </row>
     <row r="715">
-      <c r="C715" s="5"/>
-      <c r="D715" s="6"/>
+      <c r="C715" s="25"/>
+      <c r="D715" s="27"/>
     </row>
     <row r="716">
-      <c r="C716" s="5"/>
-      <c r="D716" s="6"/>
+      <c r="C716" s="25"/>
+      <c r="D716" s="27"/>
     </row>
     <row r="717">
-      <c r="C717" s="5"/>
-      <c r="D717" s="6"/>
+      <c r="C717" s="25"/>
+      <c r="D717" s="27"/>
     </row>
     <row r="718">
-      <c r="C718" s="5"/>
-      <c r="D718" s="6"/>
+      <c r="C718" s="25"/>
+      <c r="D718" s="27"/>
     </row>
     <row r="719">
-      <c r="C719" s="5"/>
-      <c r="D719" s="6"/>
+      <c r="C719" s="25"/>
+      <c r="D719" s="27"/>
     </row>
     <row r="720">
-      <c r="C720" s="5"/>
-      <c r="D720" s="6"/>
+      <c r="C720" s="25"/>
+      <c r="D720" s="27"/>
     </row>
     <row r="721">
-      <c r="C721" s="5"/>
-      <c r="D721" s="6"/>
+      <c r="C721" s="25"/>
+      <c r="D721" s="27"/>
     </row>
     <row r="722">
-      <c r="C722" s="5"/>
-      <c r="D722" s="6"/>
+      <c r="C722" s="25"/>
+      <c r="D722" s="27"/>
     </row>
     <row r="723">
-      <c r="C723" s="5"/>
-      <c r="D723" s="6"/>
+      <c r="C723" s="25"/>
+      <c r="D723" s="27"/>
     </row>
     <row r="724">
-      <c r="C724" s="5"/>
-      <c r="D724" s="6"/>
+      <c r="C724" s="25"/>
+      <c r="D724" s="27"/>
     </row>
     <row r="725">
-      <c r="C725" s="5"/>
-      <c r="D725" s="6"/>
+      <c r="C725" s="25"/>
+      <c r="D725" s="27"/>
     </row>
     <row r="726">
-      <c r="C726" s="5"/>
-      <c r="D726" s="6"/>
+      <c r="C726" s="25"/>
+      <c r="D726" s="27"/>
     </row>
     <row r="727">
-      <c r="C727" s="5"/>
-      <c r="D727" s="6"/>
+      <c r="C727" s="25"/>
+      <c r="D727" s="27"/>
     </row>
     <row r="728">
-      <c r="C728" s="5"/>
-      <c r="D728" s="6"/>
+      <c r="C728" s="25"/>
+      <c r="D728" s="27"/>
     </row>
     <row r="729">
-      <c r="C729" s="5"/>
-      <c r="D729" s="6"/>
+      <c r="C729" s="25"/>
+      <c r="D729" s="27"/>
     </row>
     <row r="730">
-      <c r="C730" s="5"/>
-      <c r="D730" s="6"/>
+      <c r="C730" s="25"/>
+      <c r="D730" s="27"/>
     </row>
     <row r="731">
-      <c r="C731" s="5"/>
-      <c r="D731" s="6"/>
+      <c r="C731" s="25"/>
+      <c r="D731" s="27"/>
     </row>
     <row r="732">
-      <c r="C732" s="5"/>
-      <c r="D732" s="6"/>
+      <c r="C732" s="25"/>
+      <c r="D732" s="27"/>
     </row>
     <row r="733">
-      <c r="C733" s="5"/>
-      <c r="D733" s="6"/>
+      <c r="C733" s="25"/>
+      <c r="D733" s="27"/>
     </row>
     <row r="734">
-      <c r="C734" s="5"/>
-      <c r="D734" s="6"/>
+      <c r="C734" s="25"/>
+      <c r="D734" s="27"/>
     </row>
     <row r="735">
-      <c r="C735" s="5"/>
-      <c r="D735" s="6"/>
+      <c r="C735" s="25"/>
+      <c r="D735" s="27"/>
     </row>
     <row r="736">
-      <c r="C736" s="5"/>
-      <c r="D736" s="6"/>
+      <c r="C736" s="25"/>
+      <c r="D736" s="27"/>
     </row>
     <row r="737">
-      <c r="C737" s="5"/>
-      <c r="D737" s="6"/>
+      <c r="C737" s="25"/>
+      <c r="D737" s="27"/>
     </row>
     <row r="738">
-      <c r="C738" s="5"/>
-      <c r="D738" s="6"/>
+      <c r="C738" s="25"/>
+      <c r="D738" s="27"/>
     </row>
     <row r="739">
-      <c r="C739" s="5"/>
-      <c r="D739" s="6"/>
+      <c r="C739" s="25"/>
+      <c r="D739" s="27"/>
     </row>
     <row r="740">
-      <c r="C740" s="5"/>
-      <c r="D740" s="6"/>
+      <c r="C740" s="25"/>
+      <c r="D740" s="27"/>
     </row>
     <row r="741">
-      <c r="C741" s="5"/>
-      <c r="D741" s="6"/>
+      <c r="C741" s="25"/>
+      <c r="D741" s="27"/>
     </row>
     <row r="742">
-      <c r="C742" s="5"/>
-      <c r="D742" s="6"/>
+      <c r="C742" s="25"/>
+      <c r="D742" s="27"/>
     </row>
     <row r="743">
-      <c r="C743" s="5"/>
-      <c r="D743" s="6"/>
+      <c r="C743" s="25"/>
+      <c r="D743" s="27"/>
     </row>
     <row r="744">
-      <c r="C744" s="5"/>
-      <c r="D744" s="6"/>
+      <c r="C744" s="25"/>
+      <c r="D744" s="27"/>
     </row>
     <row r="745">
-      <c r="C745" s="5"/>
-      <c r="D745" s="6"/>
+      <c r="C745" s="25"/>
+      <c r="D745" s="27"/>
     </row>
     <row r="746">
-      <c r="C746" s="5"/>
-      <c r="D746" s="6"/>
+      <c r="C746" s="25"/>
+      <c r="D746" s="27"/>
     </row>
     <row r="747">
-      <c r="C747" s="5"/>
-      <c r="D747" s="6"/>
+      <c r="C747" s="25"/>
+      <c r="D747" s="27"/>
     </row>
     <row r="748">
-      <c r="C748" s="5"/>
-      <c r="D748" s="6"/>
+      <c r="C748" s="25"/>
+      <c r="D748" s="27"/>
     </row>
     <row r="749">
-      <c r="C749" s="5"/>
-      <c r="D749" s="6"/>
+      <c r="C749" s="25"/>
+      <c r="D749" s="27"/>
     </row>
     <row r="750">
-      <c r="C750" s="5"/>
-      <c r="D750" s="6"/>
+      <c r="C750" s="25"/>
+      <c r="D750" s="27"/>
     </row>
     <row r="751">
-      <c r="C751" s="5"/>
-      <c r="D751" s="6"/>
+      <c r="C751" s="25"/>
+      <c r="D751" s="27"/>
     </row>
     <row r="752">
-      <c r="C752" s="5"/>
-      <c r="D752" s="6"/>
+      <c r="C752" s="25"/>
+      <c r="D752" s="27"/>
     </row>
     <row r="753">
-      <c r="C753" s="5"/>
-      <c r="D753" s="6"/>
+      <c r="C753" s="25"/>
+      <c r="D753" s="27"/>
     </row>
     <row r="754">
-      <c r="C754" s="5"/>
-      <c r="D754" s="6"/>
+      <c r="C754" s="25"/>
+      <c r="D754" s="27"/>
     </row>
     <row r="755">
-      <c r="C755" s="5"/>
-      <c r="D755" s="6"/>
+      <c r="C755" s="25"/>
+      <c r="D755" s="27"/>
     </row>
     <row r="756">
-      <c r="C756" s="5"/>
-      <c r="D756" s="6"/>
+      <c r="C756" s="25"/>
+      <c r="D756" s="27"/>
     </row>
     <row r="757">
-      <c r="C757" s="5"/>
-      <c r="D757" s="6"/>
+      <c r="C757" s="25"/>
+      <c r="D757" s="27"/>
     </row>
     <row r="758">
-      <c r="C758" s="5"/>
-      <c r="D758" s="6"/>
+      <c r="C758" s="25"/>
+      <c r="D758" s="27"/>
     </row>
     <row r="759">
-      <c r="C759" s="5"/>
-      <c r="D759" s="6"/>
+      <c r="C759" s="25"/>
+      <c r="D759" s="27"/>
     </row>
     <row r="760">
-      <c r="C760" s="5"/>
-      <c r="D760" s="6"/>
+      <c r="C760" s="25"/>
+      <c r="D760" s="27"/>
     </row>
     <row r="761">
-      <c r="C761" s="5"/>
-      <c r="D761" s="6"/>
+      <c r="C761" s="25"/>
+      <c r="D761" s="27"/>
     </row>
     <row r="762">
-      <c r="C762" s="5"/>
-      <c r="D762" s="6"/>
+      <c r="C762" s="25"/>
+      <c r="D762" s="27"/>
     </row>
     <row r="763">
-      <c r="C763" s="5"/>
-      <c r="D763" s="6"/>
+      <c r="C763" s="25"/>
+      <c r="D763" s="27"/>
     </row>
     <row r="764">
-      <c r="C764" s="5"/>
-      <c r="D764" s="6"/>
+      <c r="C764" s="25"/>
+      <c r="D764" s="27"/>
     </row>
     <row r="765">
-      <c r="C765" s="5"/>
-      <c r="D765" s="6"/>
+      <c r="C765" s="25"/>
+      <c r="D765" s="27"/>
     </row>
     <row r="766">
-      <c r="C766" s="5"/>
-      <c r="D766" s="6"/>
+      <c r="C766" s="25"/>
+      <c r="D766" s="27"/>
     </row>
     <row r="767">
-      <c r="C767" s="5"/>
-      <c r="D767" s="6"/>
+      <c r="C767" s="25"/>
+      <c r="D767" s="27"/>
     </row>
     <row r="768">
-      <c r="C768" s="5"/>
-      <c r="D768" s="6"/>
+      <c r="C768" s="25"/>
+      <c r="D768" s="27"/>
     </row>
     <row r="769">
-      <c r="C769" s="5"/>
-      <c r="D769" s="6"/>
+      <c r="C769" s="25"/>
+      <c r="D769" s="27"/>
     </row>
     <row r="770">
-      <c r="C770" s="5"/>
-      <c r="D770" s="6"/>
+      <c r="C770" s="25"/>
+      <c r="D770" s="27"/>
     </row>
     <row r="771">
-      <c r="C771" s="5"/>
-      <c r="D771" s="6"/>
+      <c r="C771" s="25"/>
+      <c r="D771" s="27"/>
     </row>
     <row r="772">
-      <c r="C772" s="5"/>
-      <c r="D772" s="6"/>
+      <c r="C772" s="25"/>
+      <c r="D772" s="27"/>
     </row>
     <row r="773">
-      <c r="C773" s="5"/>
-      <c r="D773" s="6"/>
+      <c r="C773" s="25"/>
+      <c r="D773" s="27"/>
     </row>
     <row r="774">
-      <c r="C774" s="5"/>
-      <c r="D774" s="6"/>
+      <c r="C774" s="25"/>
+      <c r="D774" s="27"/>
     </row>
     <row r="775">
-      <c r="C775" s="5"/>
-      <c r="D775" s="6"/>
+      <c r="C775" s="25"/>
+      <c r="D775" s="27"/>
     </row>
     <row r="776">
-      <c r="C776" s="5"/>
-      <c r="D776" s="6"/>
+      <c r="C776" s="25"/>
+      <c r="D776" s="27"/>
     </row>
     <row r="777">
-      <c r="C777" s="5"/>
-      <c r="D777" s="6"/>
+      <c r="C777" s="25"/>
+      <c r="D777" s="27"/>
     </row>
     <row r="778">
-      <c r="C778" s="5"/>
-      <c r="D778" s="6"/>
+      <c r="C778" s="25"/>
+      <c r="D778" s="27"/>
     </row>
     <row r="779">
-      <c r="C779" s="5"/>
-      <c r="D779" s="6"/>
+      <c r="C779" s="25"/>
+      <c r="D779" s="27"/>
     </row>
     <row r="780">
-      <c r="C780" s="5"/>
-      <c r="D780" s="6"/>
+      <c r="C780" s="25"/>
+      <c r="D780" s="27"/>
     </row>
     <row r="781">
-      <c r="C781" s="5"/>
-      <c r="D781" s="6"/>
+      <c r="C781" s="25"/>
+      <c r="D781" s="27"/>
     </row>
     <row r="782">
-      <c r="C782" s="5"/>
-      <c r="D782" s="6"/>
+      <c r="C782" s="25"/>
+      <c r="D782" s="27"/>
     </row>
     <row r="783">
-      <c r="C783" s="5"/>
-      <c r="D783" s="6"/>
+      <c r="C783" s="25"/>
+      <c r="D783" s="27"/>
     </row>
     <row r="784">
-      <c r="C784" s="5"/>
-      <c r="D784" s="6"/>
+      <c r="C784" s="25"/>
+      <c r="D784" s="27"/>
     </row>
     <row r="785">
-      <c r="C785" s="5"/>
-      <c r="D785" s="6"/>
+      <c r="C785" s="25"/>
+      <c r="D785" s="27"/>
     </row>
     <row r="786">
-      <c r="C786" s="5"/>
-      <c r="D786" s="6"/>
+      <c r="C786" s="25"/>
+      <c r="D786" s="27"/>
     </row>
     <row r="787">
-      <c r="C787" s="5"/>
-      <c r="D787" s="6"/>
+      <c r="C787" s="25"/>
+      <c r="D787" s="27"/>
     </row>
     <row r="788">
-      <c r="C788" s="5"/>
-      <c r="D788" s="6"/>
+      <c r="C788" s="25"/>
+      <c r="D788" s="27"/>
     </row>
     <row r="789">
-      <c r="C789" s="5"/>
-      <c r="D789" s="6"/>
+      <c r="C789" s="25"/>
+      <c r="D789" s="27"/>
     </row>
     <row r="790">
-      <c r="C790" s="5"/>
-      <c r="D790" s="6"/>
+      <c r="C790" s="25"/>
+      <c r="D790" s="27"/>
     </row>
     <row r="791">
-      <c r="C791" s="5"/>
-      <c r="D791" s="6"/>
+      <c r="C791" s="25"/>
+      <c r="D791" s="27"/>
     </row>
     <row r="792">
-      <c r="C792" s="5"/>
-      <c r="D792" s="6"/>
+      <c r="C792" s="25"/>
+      <c r="D792" s="27"/>
     </row>
     <row r="793">
-      <c r="C793" s="5"/>
-      <c r="D793" s="6"/>
+      <c r="C793" s="25"/>
+      <c r="D793" s="27"/>
     </row>
     <row r="794">
-      <c r="C794" s="5"/>
-      <c r="D794" s="6"/>
+      <c r="C794" s="25"/>
+      <c r="D794" s="27"/>
     </row>
     <row r="795">
-      <c r="C795" s="5"/>
-      <c r="D795" s="6"/>
+      <c r="C795" s="25"/>
+      <c r="D795" s="27"/>
     </row>
     <row r="796">
-      <c r="C796" s="5"/>
-      <c r="D796" s="6"/>
+      <c r="C796" s="25"/>
+      <c r="D796" s="27"/>
     </row>
     <row r="797">
-      <c r="C797" s="5"/>
-      <c r="D797" s="6"/>
+      <c r="C797" s="25"/>
+      <c r="D797" s="27"/>
     </row>
     <row r="798">
-      <c r="C798" s="5"/>
-      <c r="D798" s="6"/>
+      <c r="C798" s="25"/>
+      <c r="D798" s="27"/>
     </row>
     <row r="799">
-      <c r="C799" s="5"/>
-      <c r="D799" s="6"/>
+      <c r="C799" s="25"/>
+      <c r="D799" s="27"/>
     </row>
     <row r="800">
-      <c r="C800" s="5"/>
-      <c r="D800" s="6"/>
+      <c r="C800" s="25"/>
+      <c r="D800" s="27"/>
     </row>
     <row r="801">
-      <c r="C801" s="5"/>
-      <c r="D801" s="6"/>
+      <c r="C801" s="25"/>
+      <c r="D801" s="27"/>
     </row>
     <row r="802">
-      <c r="C802" s="5"/>
-      <c r="D802" s="6"/>
+      <c r="C802" s="25"/>
+      <c r="D802" s="27"/>
     </row>
     <row r="803">
-      <c r="C803" s="5"/>
-      <c r="D803" s="6"/>
+      <c r="C803" s="25"/>
+      <c r="D803" s="27"/>
     </row>
     <row r="804">
-      <c r="C804" s="5"/>
-      <c r="D804" s="6"/>
+      <c r="C804" s="25"/>
+      <c r="D804" s="27"/>
     </row>
     <row r="805">
-      <c r="C805" s="5"/>
-      <c r="D805" s="6"/>
+      <c r="C805" s="25"/>
+      <c r="D805" s="27"/>
     </row>
     <row r="806">
-      <c r="C806" s="5"/>
-      <c r="D806" s="6"/>
+      <c r="C806" s="25"/>
+      <c r="D806" s="27"/>
     </row>
     <row r="807">
-      <c r="C807" s="5"/>
-      <c r="D807" s="6"/>
+      <c r="C807" s="25"/>
+      <c r="D807" s="27"/>
     </row>
     <row r="808">
-      <c r="C808" s="5"/>
-      <c r="D808" s="6"/>
+      <c r="C808" s="25"/>
+      <c r="D808" s="27"/>
     </row>
     <row r="809">
-      <c r="C809" s="5"/>
-      <c r="D809" s="6"/>
+      <c r="C809" s="25"/>
+      <c r="D809" s="27"/>
     </row>
     <row r="810">
-      <c r="C810" s="5"/>
-      <c r="D810" s="6"/>
+      <c r="C810" s="25"/>
+      <c r="D810" s="27"/>
     </row>
     <row r="811">
-      <c r="C811" s="5"/>
-      <c r="D811" s="6"/>
+      <c r="C811" s="25"/>
+      <c r="D811" s="27"/>
     </row>
     <row r="812">
-      <c r="C812" s="5"/>
-      <c r="D812" s="6"/>
+      <c r="C812" s="25"/>
+      <c r="D812" s="27"/>
     </row>
     <row r="813">
-      <c r="C813" s="5"/>
-      <c r="D813" s="6"/>
+      <c r="C813" s="25"/>
+      <c r="D813" s="27"/>
     </row>
     <row r="814">
-      <c r="C814" s="5"/>
-      <c r="D814" s="6"/>
+      <c r="C814" s="25"/>
+      <c r="D814" s="27"/>
     </row>
     <row r="815">
-      <c r="C815" s="5"/>
-      <c r="D815" s="6"/>
+      <c r="C815" s="25"/>
+      <c r="D815" s="27"/>
     </row>
     <row r="816">
-      <c r="C816" s="5"/>
-      <c r="D816" s="6"/>
+      <c r="C816" s="25"/>
+      <c r="D816" s="27"/>
     </row>
     <row r="817">
-      <c r="C817" s="5"/>
-      <c r="D817" s="6"/>
+      <c r="C817" s="25"/>
+      <c r="D817" s="27"/>
     </row>
     <row r="818">
-      <c r="C818" s="5"/>
-      <c r="D818" s="6"/>
+      <c r="C818" s="25"/>
+      <c r="D818" s="27"/>
     </row>
     <row r="819">
-      <c r="C819" s="5"/>
-      <c r="D819" s="6"/>
+      <c r="C819" s="25"/>
+      <c r="D819" s="27"/>
     </row>
     <row r="820">
-      <c r="C820" s="5"/>
-      <c r="D820" s="6"/>
+      <c r="C820" s="25"/>
+      <c r="D820" s="27"/>
     </row>
     <row r="821">
-      <c r="C821" s="5"/>
-      <c r="D821" s="6"/>
+      <c r="C821" s="25"/>
+      <c r="D821" s="27"/>
     </row>
     <row r="822">
-      <c r="C822" s="5"/>
-      <c r="D822" s="6"/>
+      <c r="C822" s="25"/>
+      <c r="D822" s="27"/>
     </row>
     <row r="823">
-      <c r="C823" s="5"/>
-      <c r="D823" s="6"/>
+      <c r="C823" s="25"/>
+      <c r="D823" s="27"/>
     </row>
     <row r="824">
-      <c r="C824" s="5"/>
-      <c r="D824" s="6"/>
+      <c r="C824" s="25"/>
+      <c r="D824" s="27"/>
     </row>
     <row r="825">
-      <c r="C825" s="5"/>
-      <c r="D825" s="6"/>
+      <c r="C825" s="25"/>
+      <c r="D825" s="27"/>
     </row>
     <row r="826">
-      <c r="C826" s="5"/>
-      <c r="D826" s="6"/>
+      <c r="C826" s="25"/>
+      <c r="D826" s="27"/>
     </row>
     <row r="827">
-      <c r="C827" s="5"/>
-      <c r="D827" s="6"/>
+      <c r="C827" s="25"/>
+      <c r="D827" s="27"/>
     </row>
     <row r="828">
-      <c r="C828" s="5"/>
-      <c r="D828" s="6"/>
+      <c r="C828" s="25"/>
+      <c r="D828" s="27"/>
     </row>
     <row r="829">
-      <c r="C829" s="5"/>
-      <c r="D829" s="6"/>
+      <c r="C829" s="25"/>
+      <c r="D829" s="27"/>
     </row>
     <row r="830">
-      <c r="C830" s="5"/>
-      <c r="D830" s="6"/>
+      <c r="C830" s="25"/>
+      <c r="D830" s="27"/>
     </row>
     <row r="831">
-      <c r="C831" s="5"/>
-      <c r="D831" s="6"/>
+      <c r="C831" s="25"/>
+      <c r="D831" s="27"/>
     </row>
     <row r="832">
-      <c r="C832" s="5"/>
-      <c r="D832" s="6"/>
+      <c r="C832" s="25"/>
+      <c r="D832" s="27"/>
     </row>
     <row r="833">
-      <c r="C833" s="5"/>
-      <c r="D833" s="6"/>
+      <c r="C833" s="25"/>
+      <c r="D833" s="27"/>
     </row>
     <row r="834">
-      <c r="C834" s="5"/>
-      <c r="D834" s="6"/>
+      <c r="C834" s="25"/>
+      <c r="D834" s="27"/>
     </row>
     <row r="835">
-      <c r="C835" s="5"/>
-      <c r="D835" s="6"/>
+      <c r="C835" s="25"/>
+      <c r="D835" s="27"/>
     </row>
     <row r="836">
-      <c r="C836" s="5"/>
-      <c r="D836" s="6"/>
+      <c r="C836" s="25"/>
+      <c r="D836" s="27"/>
     </row>
     <row r="837">
-      <c r="C837" s="5"/>
-      <c r="D837" s="6"/>
+      <c r="C837" s="25"/>
+      <c r="D837" s="27"/>
     </row>
     <row r="838">
-      <c r="C838" s="5"/>
-      <c r="D838" s="6"/>
+      <c r="C838" s="25"/>
+      <c r="D838" s="27"/>
     </row>
     <row r="839">
-      <c r="C839" s="5"/>
-      <c r="D839" s="6"/>
+      <c r="C839" s="25"/>
+      <c r="D839" s="27"/>
     </row>
     <row r="840">
-      <c r="C840" s="5"/>
-      <c r="D840" s="6"/>
+      <c r="C840" s="25"/>
+      <c r="D840" s="27"/>
     </row>
     <row r="841">
-      <c r="C841" s="5"/>
-      <c r="D841" s="6"/>
+      <c r="C841" s="25"/>
+      <c r="D841" s="27"/>
     </row>
     <row r="842">
-      <c r="C842" s="5"/>
-      <c r="D842" s="6"/>
+      <c r="C842" s="25"/>
+      <c r="D842" s="27"/>
     </row>
     <row r="843">
-      <c r="C843" s="5"/>
-      <c r="D843" s="6"/>
+      <c r="C843" s="25"/>
+      <c r="D843" s="27"/>
     </row>
     <row r="844">
-      <c r="C844" s="5"/>
-      <c r="D844" s="6"/>
+      <c r="C844" s="25"/>
+      <c r="D844" s="27"/>
     </row>
     <row r="845">
-      <c r="C845" s="5"/>
-      <c r="D845" s="6"/>
+      <c r="C845" s="25"/>
+      <c r="D845" s="27"/>
     </row>
     <row r="846">
-      <c r="C846" s="5"/>
-      <c r="D846" s="6"/>
+      <c r="C846" s="25"/>
+      <c r="D846" s="27"/>
     </row>
     <row r="847">
-      <c r="C847" s="5"/>
-      <c r="D847" s="6"/>
+      <c r="C847" s="25"/>
+      <c r="D847" s="27"/>
     </row>
     <row r="848">
-      <c r="C848" s="5"/>
-      <c r="D848" s="6"/>
+      <c r="C848" s="25"/>
+      <c r="D848" s="27"/>
     </row>
     <row r="849">
-      <c r="C849" s="5"/>
-      <c r="D849" s="6"/>
+      <c r="C849" s="25"/>
+      <c r="D849" s="27"/>
     </row>
     <row r="850">
-      <c r="C850" s="5"/>
-      <c r="D850" s="6"/>
+      <c r="C850" s="25"/>
+      <c r="D850" s="27"/>
     </row>
     <row r="851">
-      <c r="C851" s="5"/>
-      <c r="D851" s="6"/>
+      <c r="C851" s="25"/>
+      <c r="D851" s="27"/>
     </row>
     <row r="852">
-      <c r="C852" s="5"/>
-      <c r="D852" s="6"/>
+      <c r="C852" s="25"/>
+      <c r="D852" s="27"/>
     </row>
     <row r="853">
-      <c r="C853" s="5"/>
-      <c r="D853" s="6"/>
+      <c r="C853" s="25"/>
+      <c r="D853" s="27"/>
     </row>
     <row r="854">
-      <c r="C854" s="5"/>
-      <c r="D854" s="6"/>
+      <c r="C854" s="25"/>
+      <c r="D854" s="27"/>
     </row>
     <row r="855">
-      <c r="C855" s="5"/>
-      <c r="D855" s="6"/>
+      <c r="C855" s="25"/>
+      <c r="D855" s="27"/>
     </row>
     <row r="856">
-      <c r="C856" s="5"/>
-      <c r="D856" s="6"/>
+      <c r="C856" s="25"/>
+      <c r="D856" s="27"/>
     </row>
     <row r="857">
-      <c r="C857" s="5"/>
-      <c r="D857" s="6"/>
+      <c r="C857" s="25"/>
+      <c r="D857" s="27"/>
     </row>
     <row r="858">
-      <c r="C858" s="5"/>
-      <c r="D858" s="6"/>
+      <c r="C858" s="25"/>
+      <c r="D858" s="27"/>
     </row>
     <row r="859">
-      <c r="C859" s="5"/>
-      <c r="D859" s="6"/>
+      <c r="C859" s="25"/>
+      <c r="D859" s="27"/>
     </row>
     <row r="860">
-      <c r="C860" s="5"/>
-      <c r="D860" s="6"/>
+      <c r="C860" s="25"/>
+      <c r="D860" s="27"/>
     </row>
     <row r="861">
-      <c r="C861" s="5"/>
-      <c r="D861" s="6"/>
+      <c r="C861" s="25"/>
+      <c r="D861" s="27"/>
     </row>
     <row r="862">
-      <c r="C862" s="5"/>
-      <c r="D862" s="6"/>
+      <c r="C862" s="25"/>
+      <c r="D862" s="27"/>
     </row>
     <row r="863">
-      <c r="C863" s="5"/>
-      <c r="D863" s="6"/>
+      <c r="C863" s="25"/>
+      <c r="D863" s="27"/>
     </row>
     <row r="864">
-      <c r="C864" s="5"/>
-      <c r="D864" s="6"/>
+      <c r="C864" s="25"/>
+      <c r="D864" s="27"/>
     </row>
     <row r="865">
-      <c r="C865" s="5"/>
-      <c r="D865" s="6"/>
+      <c r="C865" s="25"/>
+      <c r="D865" s="27"/>
     </row>
     <row r="866">
-      <c r="C866" s="5"/>
-      <c r="D866" s="6"/>
+      <c r="C866" s="25"/>
+      <c r="D866" s="27"/>
     </row>
     <row r="867">
-      <c r="C867" s="5"/>
-      <c r="D867" s="6"/>
+      <c r="C867" s="25"/>
+      <c r="D867" s="27"/>
     </row>
     <row r="868">
-      <c r="C868" s="5"/>
-      <c r="D868" s="6"/>
+      <c r="C868" s="25"/>
+      <c r="D868" s="27"/>
     </row>
     <row r="869">
-      <c r="C869" s="5"/>
-      <c r="D869" s="6"/>
+      <c r="C869" s="25"/>
+      <c r="D869" s="27"/>
     </row>
     <row r="870">
-      <c r="C870" s="5"/>
-      <c r="D870" s="6"/>
+      <c r="C870" s="25"/>
+      <c r="D870" s="27"/>
     </row>
     <row r="871">
-      <c r="C871" s="5"/>
-      <c r="D871" s="6"/>
+      <c r="C871" s="25"/>
+      <c r="D871" s="27"/>
     </row>
     <row r="872">
-      <c r="C872" s="5"/>
-      <c r="D872" s="6"/>
+      <c r="C872" s="25"/>
+      <c r="D872" s="27"/>
     </row>
     <row r="873">
-      <c r="C873" s="5"/>
-      <c r="D873" s="6"/>
+      <c r="C873" s="25"/>
+      <c r="D873" s="27"/>
     </row>
     <row r="874">
-      <c r="C874" s="5"/>
-      <c r="D874" s="6"/>
+      <c r="C874" s="25"/>
+      <c r="D874" s="27"/>
     </row>
     <row r="875">
-      <c r="C875" s="5"/>
-      <c r="D875" s="6"/>
+      <c r="C875" s="25"/>
+      <c r="D875" s="27"/>
     </row>
     <row r="876">
-      <c r="C876" s="5"/>
-      <c r="D876" s="6"/>
+      <c r="C876" s="25"/>
+      <c r="D876" s="27"/>
     </row>
     <row r="877">
-      <c r="C877" s="5"/>
-      <c r="D877" s="6"/>
+      <c r="C877" s="25"/>
+      <c r="D877" s="27"/>
     </row>
     <row r="878">
-      <c r="C878" s="5"/>
-      <c r="D878" s="6"/>
+      <c r="C878" s="25"/>
+      <c r="D878" s="27"/>
     </row>
     <row r="879">
-      <c r="C879" s="5"/>
-      <c r="D879" s="6"/>
+      <c r="C879" s="25"/>
+      <c r="D879" s="27"/>
     </row>
     <row r="880">
-      <c r="C880" s="5"/>
-      <c r="D880" s="6"/>
+      <c r="C880" s="25"/>
+      <c r="D880" s="27"/>
     </row>
     <row r="881">
-      <c r="C881" s="5"/>
-      <c r="D881" s="6"/>
+      <c r="C881" s="25"/>
+      <c r="D881" s="27"/>
     </row>
     <row r="882">
-      <c r="C882" s="5"/>
-      <c r="D882" s="6"/>
+      <c r="C882" s="25"/>
+      <c r="D882" s="27"/>
     </row>
     <row r="883">
-      <c r="C883" s="5"/>
-      <c r="D883" s="6"/>
+      <c r="C883" s="25"/>
+      <c r="D883" s="27"/>
     </row>
     <row r="884">
-      <c r="C884" s="5"/>
-      <c r="D884" s="6"/>
+      <c r="C884" s="25"/>
+      <c r="D884" s="27"/>
     </row>
     <row r="885">
-      <c r="C885" s="5"/>
-      <c r="D885" s="6"/>
+      <c r="C885" s="25"/>
+      <c r="D885" s="27"/>
     </row>
     <row r="886">
-      <c r="C886" s="5"/>
-      <c r="D886" s="6"/>
+      <c r="C886" s="25"/>
+      <c r="D886" s="27"/>
     </row>
     <row r="887">
-      <c r="C887" s="5"/>
-      <c r="D887" s="6"/>
+      <c r="C887" s="25"/>
+      <c r="D887" s="27"/>
     </row>
     <row r="888">
-      <c r="C888" s="5"/>
-      <c r="D888" s="6"/>
+      <c r="C888" s="25"/>
+      <c r="D888" s="27"/>
     </row>
     <row r="889">
-      <c r="C889" s="5"/>
-      <c r="D889" s="6"/>
+      <c r="C889" s="25"/>
+      <c r="D889" s="27"/>
     </row>
     <row r="890">
-      <c r="C890" s="5"/>
-      <c r="D890" s="6"/>
+      <c r="C890" s="25"/>
+      <c r="D890" s="27"/>
     </row>
     <row r="891">
-      <c r="C891" s="5"/>
-      <c r="D891" s="6"/>
+      <c r="C891" s="25"/>
+      <c r="D891" s="27"/>
     </row>
     <row r="892">
-      <c r="C892" s="5"/>
-      <c r="D892" s="6"/>
+      <c r="C892" s="25"/>
+      <c r="D892" s="27"/>
     </row>
     <row r="893">
-      <c r="C893" s="5"/>
-      <c r="D893" s="6"/>
+      <c r="C893" s="25"/>
+      <c r="D893" s="27"/>
     </row>
     <row r="894">
-      <c r="C894" s="5"/>
-      <c r="D894" s="6"/>
+      <c r="C894" s="25"/>
+      <c r="D894" s="27"/>
     </row>
     <row r="895">
-      <c r="C895" s="5"/>
-      <c r="D895" s="6"/>
+      <c r="C895" s="25"/>
+      <c r="D895" s="27"/>
     </row>
     <row r="896">
-      <c r="C896" s="5"/>
-      <c r="D896" s="6"/>
+      <c r="C896" s="25"/>
+      <c r="D896" s="27"/>
     </row>
     <row r="897">
-      <c r="C897" s="5"/>
-      <c r="D897" s="6"/>
+      <c r="C897" s="25"/>
+      <c r="D897" s="27"/>
     </row>
     <row r="898">
-      <c r="C898" s="5"/>
-      <c r="D898" s="6"/>
+      <c r="C898" s="25"/>
+      <c r="D898" s="27"/>
     </row>
     <row r="899">
-      <c r="C899" s="5"/>
-      <c r="D899" s="6"/>
+      <c r="C899" s="25"/>
+      <c r="D899" s="27"/>
     </row>
     <row r="900">
-      <c r="C900" s="5"/>
-      <c r="D900" s="6"/>
+      <c r="C900" s="25"/>
+      <c r="D900" s="27"/>
     </row>
     <row r="901">
-      <c r="C901" s="5"/>
-      <c r="D901" s="6"/>
+      <c r="C901" s="25"/>
+      <c r="D901" s="27"/>
     </row>
     <row r="902">
-      <c r="C902" s="5"/>
-      <c r="D902" s="6"/>
+      <c r="C902" s="25"/>
+      <c r="D902" s="27"/>
     </row>
     <row r="903">
-      <c r="C903" s="5"/>
-      <c r="D903" s="6"/>
+      <c r="C903" s="25"/>
+      <c r="D903" s="27"/>
     </row>
     <row r="904">
-      <c r="C904" s="5"/>
-      <c r="D904" s="6"/>
+      <c r="C904" s="25"/>
+      <c r="D904" s="27"/>
     </row>
     <row r="905">
-      <c r="C905" s="5"/>
-      <c r="D905" s="6"/>
+      <c r="C905" s="25"/>
+      <c r="D905" s="27"/>
     </row>
     <row r="906">
-      <c r="C906" s="5"/>
-      <c r="D906" s="6"/>
+      <c r="C906" s="25"/>
+      <c r="D906" s="27"/>
     </row>
     <row r="907">
-      <c r="C907" s="5"/>
-      <c r="D907" s="6"/>
+      <c r="C907" s="25"/>
+      <c r="D907" s="27"/>
     </row>
     <row r="908">
-      <c r="C908" s="5"/>
-      <c r="D908" s="6"/>
+      <c r="C908" s="25"/>
+      <c r="D908" s="27"/>
     </row>
     <row r="909">
-      <c r="C909" s="5"/>
-      <c r="D909" s="6"/>
+      <c r="C909" s="25"/>
+      <c r="D909" s="27"/>
     </row>
     <row r="910">
-      <c r="C910" s="5"/>
-      <c r="D910" s="6"/>
+      <c r="C910" s="25"/>
+      <c r="D910" s="27"/>
     </row>
     <row r="911">
-      <c r="C911" s="5"/>
-      <c r="D911" s="6"/>
+      <c r="C911" s="25"/>
+      <c r="D911" s="27"/>
     </row>
     <row r="912">
-      <c r="C912" s="5"/>
-      <c r="D912" s="6"/>
+      <c r="C912" s="25"/>
+      <c r="D912" s="27"/>
     </row>
     <row r="913">
-      <c r="C913" s="5"/>
-      <c r="D913" s="6"/>
+      <c r="C913" s="25"/>
+      <c r="D913" s="27"/>
     </row>
     <row r="914">
-      <c r="C914" s="5"/>
-      <c r="D914" s="6"/>
+      <c r="C914" s="25"/>
+      <c r="D914" s="27"/>
     </row>
     <row r="915">
-      <c r="C915" s="5"/>
-      <c r="D915" s="6"/>
+      <c r="C915" s="25"/>
+      <c r="D915" s="27"/>
     </row>
     <row r="916">
-      <c r="C916" s="5"/>
-      <c r="D916" s="6"/>
+      <c r="C916" s="25"/>
+      <c r="D916" s="27"/>
     </row>
     <row r="917">
-      <c r="C917" s="5"/>
-      <c r="D917" s="6"/>
+      <c r="C917" s="25"/>
+      <c r="D917" s="27"/>
     </row>
     <row r="918">
-      <c r="C918" s="5"/>
-      <c r="D918" s="6"/>
+      <c r="C918" s="25"/>
+      <c r="D918" s="27"/>
     </row>
     <row r="919">
-      <c r="C919" s="5"/>
-      <c r="D919" s="6"/>
+      <c r="C919" s="25"/>
+      <c r="D919" s="27"/>
     </row>
     <row r="920">
-      <c r="C920" s="5"/>
-      <c r="D920" s="6"/>
+      <c r="C920" s="25"/>
+      <c r="D920" s="27"/>
     </row>
     <row r="921">
-      <c r="C921" s="5"/>
-      <c r="D921" s="6"/>
+      <c r="C921" s="25"/>
+      <c r="D921" s="27"/>
     </row>
     <row r="922">
-      <c r="C922" s="5"/>
-      <c r="D922" s="6"/>
+      <c r="C922" s="25"/>
+      <c r="D922" s="27"/>
     </row>
     <row r="923">
-      <c r="C923" s="5"/>
-      <c r="D923" s="6"/>
+      <c r="C923" s="25"/>
+      <c r="D923" s="27"/>
     </row>
     <row r="924">
-      <c r="C924" s="5"/>
-      <c r="D924" s="6"/>
+      <c r="C924" s="25"/>
+      <c r="D924" s="27"/>
     </row>
     <row r="925">
-      <c r="C925" s="5"/>
-      <c r="D925" s="6"/>
+      <c r="C925" s="25"/>
+      <c r="D925" s="27"/>
     </row>
     <row r="926">
-      <c r="C926" s="5"/>
-      <c r="D926" s="6"/>
+      <c r="C926" s="25"/>
+      <c r="D926" s="27"/>
     </row>
     <row r="927">
-      <c r="C927" s="5"/>
-      <c r="D927" s="6"/>
+      <c r="C927" s="25"/>
+      <c r="D927" s="27"/>
     </row>
     <row r="928">
-      <c r="C928" s="5"/>
-      <c r="D928" s="6"/>
+      <c r="C928" s="25"/>
+      <c r="D928" s="27"/>
     </row>
     <row r="929">
-      <c r="C929" s="5"/>
-      <c r="D929" s="6"/>
+      <c r="C929" s="25"/>
+      <c r="D929" s="27"/>
     </row>
     <row r="930">
-      <c r="C930" s="5"/>
-      <c r="D930" s="6"/>
+      <c r="C930" s="25"/>
+      <c r="D930" s="27"/>
     </row>
     <row r="931">
-      <c r="C931" s="5"/>
-      <c r="D931" s="6"/>
+      <c r="C931" s="25"/>
+      <c r="D931" s="27"/>
     </row>
     <row r="932">
-      <c r="C932" s="5"/>
-      <c r="D932" s="6"/>
+      <c r="C932" s="25"/>
+      <c r="D932" s="27"/>
     </row>
     <row r="933">
-      <c r="C933" s="5"/>
-      <c r="D933" s="6"/>
+      <c r="C933" s="25"/>
+      <c r="D933" s="27"/>
     </row>
     <row r="934">
-      <c r="C934" s="5"/>
-      <c r="D934" s="6"/>
+      <c r="C934" s="25"/>
+      <c r="D934" s="27"/>
     </row>
     <row r="935">
-      <c r="C935" s="5"/>
-      <c r="D935" s="6"/>
+      <c r="C935" s="25"/>
+      <c r="D935" s="27"/>
     </row>
     <row r="936">
-      <c r="C936" s="5"/>
-      <c r="D936" s="6"/>
+      <c r="C936" s="25"/>
+      <c r="D936" s="27"/>
     </row>
     <row r="937">
-      <c r="C937" s="5"/>
-      <c r="D937" s="6"/>
+      <c r="C937" s="25"/>
+      <c r="D937" s="27"/>
     </row>
     <row r="938">
-      <c r="C938" s="5"/>
-      <c r="D938" s="6"/>
+      <c r="C938" s="25"/>
+      <c r="D938" s="27"/>
     </row>
     <row r="939">
-      <c r="C939" s="5"/>
-      <c r="D939" s="6"/>
+      <c r="C939" s="25"/>
+      <c r="D939" s="27"/>
     </row>
     <row r="940">
-      <c r="C940" s="5"/>
-      <c r="D940" s="6"/>
+      <c r="C940" s="25"/>
+      <c r="D940" s="27"/>
     </row>
     <row r="941">
-      <c r="C941" s="5"/>
-      <c r="D941" s="6"/>
+      <c r="C941" s="25"/>
+      <c r="D941" s="27"/>
     </row>
     <row r="942">
-      <c r="C942" s="5"/>
-      <c r="D942" s="6"/>
+      <c r="C942" s="25"/>
+      <c r="D942" s="27"/>
     </row>
     <row r="943">
-      <c r="C943" s="5"/>
-      <c r="D943" s="6"/>
+      <c r="C943" s="25"/>
+      <c r="D943" s="27"/>
     </row>
     <row r="944">
-      <c r="C944" s="5"/>
-      <c r="D944" s="6"/>
+      <c r="C944" s="25"/>
+      <c r="D944" s="27"/>
     </row>
     <row r="945">
-      <c r="C945" s="5"/>
-      <c r="D945" s="6"/>
+      <c r="C945" s="25"/>
+      <c r="D945" s="27"/>
     </row>
     <row r="946">
-      <c r="C946" s="5"/>
-      <c r="D946" s="6"/>
+      <c r="C946" s="25"/>
+      <c r="D946" s="27"/>
     </row>
     <row r="947">
-      <c r="C947" s="5"/>
-      <c r="D947" s="6"/>
+      <c r="C947" s="25"/>
+      <c r="D947" s="27"/>
     </row>
     <row r="948">
-      <c r="C948" s="5"/>
-      <c r="D948" s="6"/>
+      <c r="C948" s="25"/>
+      <c r="D948" s="27"/>
     </row>
     <row r="949">
-      <c r="C949" s="5"/>
-      <c r="D949" s="6"/>
+      <c r="C949" s="25"/>
+      <c r="D949" s="27"/>
     </row>
     <row r="950">
-      <c r="C950" s="5"/>
-      <c r="D950" s="6"/>
+      <c r="C950" s="25"/>
+      <c r="D950" s="27"/>
     </row>
     <row r="951">
-      <c r="C951" s="5"/>
-      <c r="D951" s="6"/>
+      <c r="C951" s="25"/>
+      <c r="D951" s="27"/>
     </row>
     <row r="952">
-      <c r="C952" s="5"/>
-      <c r="D952" s="6"/>
+      <c r="C952" s="25"/>
+      <c r="D952" s="27"/>
     </row>
     <row r="953">
-      <c r="C953" s="5"/>
-      <c r="D953" s="6"/>
+      <c r="C953" s="25"/>
+      <c r="D953" s="27"/>
     </row>
     <row r="954">
-      <c r="C954" s="5"/>
-      <c r="D954" s="6"/>
+      <c r="C954" s="25"/>
+      <c r="D954" s="27"/>
     </row>
     <row r="955">
-      <c r="C955" s="5"/>
-      <c r="D955" s="6"/>
+      <c r="C955" s="25"/>
+      <c r="D955" s="27"/>
     </row>
     <row r="956">
-      <c r="C956" s="5"/>
-      <c r="D956" s="6"/>
+      <c r="C956" s="25"/>
+      <c r="D956" s="27"/>
     </row>
     <row r="957">
-      <c r="C957" s="5"/>
-      <c r="D957" s="6"/>
+      <c r="C957" s="25"/>
+      <c r="D957" s="27"/>
     </row>
     <row r="958">
-      <c r="C958" s="5"/>
-      <c r="D958" s="6"/>
+      <c r="C958" s="25"/>
+      <c r="D958" s="27"/>
     </row>
     <row r="959">
-      <c r="C959" s="5"/>
-      <c r="D959" s="6"/>
+      <c r="C959" s="25"/>
+      <c r="D959" s="27"/>
     </row>
     <row r="960">
-      <c r="C960" s="5"/>
-      <c r="D960" s="6"/>
+      <c r="C960" s="25"/>
+      <c r="D960" s="27"/>
     </row>
     <row r="961">
-      <c r="C961" s="5"/>
-      <c r="D961" s="6"/>
+      <c r="C961" s="25"/>
+      <c r="D961" s="27"/>
     </row>
     <row r="962">
-      <c r="C962" s="5"/>
-      <c r="D962" s="6"/>
+      <c r="C962" s="25"/>
+      <c r="D962" s="27"/>
     </row>
     <row r="963">
-      <c r="C963" s="5"/>
-      <c r="D963" s="6"/>
+      <c r="C963" s="25"/>
+      <c r="D963" s="27"/>
     </row>
     <row r="964">
-      <c r="C964" s="5"/>
-      <c r="D964" s="6"/>
+      <c r="C964" s="25"/>
+      <c r="D964" s="27"/>
     </row>
     <row r="965">
-      <c r="C965" s="5"/>
-      <c r="D965" s="6"/>
+      <c r="C965" s="25"/>
+      <c r="D965" s="27"/>
     </row>
     <row r="966">
-      <c r="C966" s="5"/>
-      <c r="D966" s="6"/>
+      <c r="C966" s="25"/>
+      <c r="D966" s="27"/>
     </row>
     <row r="967">
-      <c r="C967" s="5"/>
-      <c r="D967" s="6"/>
+      <c r="C967" s="25"/>
+      <c r="D967" s="27"/>
     </row>
     <row r="968">
-      <c r="C968" s="5"/>
-      <c r="D968" s="6"/>
+      <c r="C968" s="25"/>
+      <c r="D968" s="27"/>
     </row>
     <row r="969">
-      <c r="C969" s="5"/>
-      <c r="D969" s="6"/>
+      <c r="C969" s="25"/>
+      <c r="D969" s="27"/>
     </row>
     <row r="970">
-      <c r="C970" s="5"/>
-      <c r="D970" s="6"/>
+      <c r="C970" s="25"/>
+      <c r="D970" s="27"/>
     </row>
     <row r="971">
-      <c r="C971" s="5"/>
-      <c r="D971" s="6"/>
+      <c r="C971" s="25"/>
+      <c r="D971" s="27"/>
     </row>
     <row r="972">
-      <c r="C972" s="5"/>
-      <c r="D972" s="6"/>
+      <c r="C972" s="25"/>
+      <c r="D972" s="27"/>
     </row>
     <row r="973">
-      <c r="C973" s="5"/>
-      <c r="D973" s="6"/>
+      <c r="C973" s="25"/>
+      <c r="D973" s="27"/>
     </row>
     <row r="974">
-      <c r="C974" s="5"/>
-      <c r="D974" s="6"/>
+      <c r="C974" s="25"/>
+      <c r="D974" s="27"/>
     </row>
     <row r="975">
-      <c r="C975" s="5"/>
-      <c r="D975" s="6"/>
+      <c r="C975" s="25"/>
+      <c r="D975" s="27"/>
     </row>
     <row r="976">
-      <c r="C976" s="5"/>
-      <c r="D976" s="6"/>
+      <c r="C976" s="25"/>
+      <c r="D976" s="27"/>
     </row>
     <row r="977">
-      <c r="C977" s="5"/>
-      <c r="D977" s="6"/>
+      <c r="C977" s="25"/>
+      <c r="D977" s="27"/>
     </row>
     <row r="978">
-      <c r="C978" s="5"/>
-      <c r="D978" s="6"/>
+      <c r="C978" s="25"/>
+      <c r="D978" s="27"/>
     </row>
     <row r="979">
-      <c r="C979" s="5"/>
-      <c r="D979" s="6"/>
+      <c r="C979" s="25"/>
+      <c r="D979" s="27"/>
     </row>
     <row r="980">
-      <c r="C980" s="5"/>
-      <c r="D980" s="6"/>
+      <c r="C980" s="25"/>
+      <c r="D980" s="27"/>
     </row>
     <row r="981">
-      <c r="C981" s="5"/>
-      <c r="D981" s="6"/>
+      <c r="C981" s="25"/>
+      <c r="D981" s="27"/>
     </row>
     <row r="982">
-      <c r="C982" s="5"/>
-      <c r="D982" s="6"/>
+      <c r="C982" s="25"/>
+      <c r="D982" s="27"/>
     </row>
     <row r="983">
-      <c r="C983" s="5"/>
-      <c r="D983" s="6"/>
+      <c r="C983" s="25"/>
+      <c r="D983" s="27"/>
     </row>
     <row r="984">
-      <c r="C984" s="5"/>
-      <c r="D984" s="6"/>
+      <c r="C984" s="25"/>
+      <c r="D984" s="27"/>
     </row>
     <row r="985">
-      <c r="C985" s="5"/>
-      <c r="D985" s="6"/>
+      <c r="C985" s="25"/>
+      <c r="D985" s="27"/>
     </row>
     <row r="986">
-      <c r="C986" s="5"/>
-      <c r="D986" s="6"/>
+      <c r="C986" s="25"/>
+      <c r="D986" s="27"/>
     </row>
     <row r="987">
-      <c r="C987" s="5"/>
-      <c r="D987" s="6"/>
+      <c r="C987" s="25"/>
+      <c r="D987" s="27"/>
     </row>
     <row r="988">
-      <c r="C988" s="5"/>
-      <c r="D988" s="6"/>
+      <c r="C988" s="25"/>
+      <c r="D988" s="27"/>
     </row>
     <row r="989">
-      <c r="C989" s="5"/>
-      <c r="D989" s="6"/>
+      <c r="C989" s="25"/>
+      <c r="D989" s="27"/>
     </row>
     <row r="990">
-      <c r="C990" s="5"/>
-      <c r="D990" s="6"/>
+      <c r="C990" s="25"/>
+      <c r="D990" s="27"/>
     </row>
     <row r="991">
-      <c r="C991" s="5"/>
-      <c r="D991" s="6"/>
+      <c r="C991" s="25"/>
+      <c r="D991" s="27"/>
     </row>
     <row r="992">
-      <c r="C992" s="5"/>
-      <c r="D992" s="6"/>
+      <c r="C992" s="25"/>
+      <c r="D992" s="27"/>
     </row>
     <row r="993">
-      <c r="C993" s="5"/>
-      <c r="D993" s="6"/>
+      <c r="C993" s="25"/>
+      <c r="D993" s="27"/>
     </row>
     <row r="994">
-      <c r="C994" s="5"/>
-      <c r="D994" s="6"/>
+      <c r="C994" s="25"/>
+      <c r="D994" s="27"/>
     </row>
     <row r="995">
-      <c r="C995" s="5"/>
-      <c r="D995" s="6"/>
+      <c r="C995" s="25"/>
+      <c r="D995" s="27"/>
     </row>
     <row r="996">
-      <c r="C996" s="5"/>
-      <c r="D996" s="6"/>
+      <c r="C996" s="25"/>
+      <c r="D996" s="27"/>
     </row>
     <row r="997">
-      <c r="C997" s="5"/>
-      <c r="D997" s="6"/>
+      <c r="C997" s="25"/>
+      <c r="D997" s="27"/>
     </row>
     <row r="998">
-      <c r="C998" s="5"/>
-      <c r="D998" s="6"/>
+      <c r="C998" s="25"/>
+      <c r="D998" s="27"/>
     </row>
     <row r="999">
-      <c r="C999" s="5"/>
-      <c r="D999" s="6"/>
+      <c r="C999" s="25"/>
+      <c r="D999" s="27"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D100">

--- a/Scrum/BACKLOG.xlsx
+++ b/Scrum/BACKLOG.xlsx
@@ -12,7 +12,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="73">
+  <si>
+    <t>Practicum 1</t>
+  </si>
+  <si>
+    <t>Practicum 2</t>
+  </si>
+  <si>
+    <t>Practicum 3</t>
+  </si>
   <si>
     <t>Task Nummer</t>
   </si>
@@ -35,43 +44,97 @@
     <t>JL,KS</t>
   </si>
   <si>
+    <t>created classes for the other Pieces on Board</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>Schaakstuk icoontjes</t>
+  </si>
+  <si>
+    <t>JL</t>
+  </si>
+  <si>
     <t>Make Structure</t>
+  </si>
+  <si>
+    <t>Logic for classes practica 2</t>
+  </si>
+  <si>
+    <t>BoardScene</t>
+  </si>
+  <si>
+    <t>JL, KS</t>
   </si>
   <si>
     <t>Logic for classes practica 1</t>
   </si>
   <si>
+    <t>Checkmate functionality</t>
+  </si>
+  <si>
+    <t>GameWindow + Mainmenu</t>
+  </si>
+  <si>
     <t>AI</t>
   </si>
   <si>
-    <t>JL</t>
+    <t>Refactorization</t>
+  </si>
+  <si>
+    <t>Vervolledigen van promote-functionaliteit</t>
   </si>
   <si>
     <t>schuin move</t>
   </si>
   <si>
+    <t>Seperate IO into it's own file</t>
+  </si>
+  <si>
+    <t>Herwerking van move-validation en wincheck</t>
+  </si>
+  <si>
     <t>pawn kil</t>
+  </si>
+  <si>
+    <t>noBlockers() function</t>
   </si>
   <si>
     <t>print color pawns</t>
   </si>
   <si>
-    <t>KS</t>
+    <t>Clear() function</t>
   </si>
   <si>
     <t>print input error</t>
   </si>
   <si>
+    <t>Implement inheritance</t>
+  </si>
+  <si>
     <t>pawn wins when on other side</t>
+  </si>
+  <si>
+    <t>Squashed repetitve functions</t>
   </si>
   <si>
     <t>fix bug ~Board destructor</t>
   </si>
   <si>
+    <t>make const functions</t>
+  </si>
+  <si>
     <t>update UML</t>
   </si>
   <si>
+    <t>Refactorization boogaloo</t>
+  </si>
+  <si>
     <t>update Board class+ add moveStr</t>
+  </si>
+  <si>
+    <t>AI bugs</t>
   </si>
   <si>
     <t>refined console output</t>
@@ -86,49 +149,16 @@
     <t>fix bug pawn jump</t>
   </si>
   <si>
-    <t>created classes for the other Pieces on Board</t>
-  </si>
-  <si>
-    <t>Logic for classes practica 2</t>
-  </si>
-  <si>
-    <t>Practicum 1</t>
-  </si>
-  <si>
-    <t>Checkmate functionality</t>
-  </si>
-  <si>
-    <t>Refactorization</t>
-  </si>
-  <si>
-    <t>Seperate IO into it's own file</t>
-  </si>
-  <si>
-    <t>noBlockers() function</t>
-  </si>
-  <si>
-    <t>Clear() function</t>
-  </si>
-  <si>
     <t>Work date</t>
   </si>
   <si>
     <t>Work day</t>
   </si>
   <si>
-    <t>Implement inheritance</t>
-  </si>
-  <si>
     <t>Ideal tasks remaining</t>
   </si>
   <si>
-    <t>Squashed repetitve functions</t>
-  </si>
-  <si>
     <t>Actual tasks remaining</t>
-  </si>
-  <si>
-    <t>make const functions</t>
   </si>
   <si>
     <t>Time spent Jochem</t>
@@ -140,16 +170,10 @@
     <t>Time spent Kiran</t>
   </si>
   <si>
-    <t>Refactorization boogaloo</t>
-  </si>
-  <si>
     <t>Completed tasks Kiran</t>
   </si>
   <si>
     <t>Total tasks completed</t>
-  </si>
-  <si>
-    <t>AI bugs</t>
   </si>
   <si>
     <t>Total time spent</t>
@@ -191,6 +215,9 @@
     <t>24, 26</t>
   </si>
   <si>
+    <t>Practicum 2*</t>
+  </si>
+  <si>
     <t>27, 28</t>
   </si>
   <si>
@@ -198,6 +225,12 @@
   </si>
   <si>
     <t>27, 19</t>
+  </si>
+  <si>
+    <t>*: Zoals te zien valt in de tabel hiernaast hadden we de meeste taken van Practicum 2 gedaan voor deze aangekondigd was. Al deze uren zijn opgeteld en ingevuld op de eerste dag van het practicum.</t>
+  </si>
+  <si>
+    <t>33, 29</t>
   </si>
 </sst>
 </file>
@@ -210,7 +243,7 @@
     <numFmt numFmtId="166" formatCode="#,##0.000"/>
     <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="11">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -218,16 +251,13 @@
     </font>
     <font>
       <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
     </font>
-    <font/>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-    </font>
+    <font/>
     <font>
       <color rgb="FF434343"/>
       <name val="Arial"/>
@@ -255,12 +285,6 @@
     <font>
       <color rgb="FF274E13"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <color rgb="FF783F04"/>
-    </font>
-    <font>
-      <color rgb="FF274E13"/>
     </font>
   </fonts>
   <fills count="8">
@@ -307,7 +331,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border/>
     <border>
       <right style="dotted">
@@ -353,11 +377,6 @@
       <left style="dotted">
         <color rgb="FF000000"/>
       </left>
-    </border>
-    <border>
-      <left style="dotted">
-        <color rgb="FF000000"/>
-      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -366,15 +385,25 @@
       </bottom>
     </border>
     <border>
+      <left style="dotted">
+        <color rgb="FF000000"/>
+      </left>
+    </border>
+    <border>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="62">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -396,28 +425,14 @@
     <xf borderId="2" fillId="0" fontId="2" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
@@ -425,142 +440,133 @@
     <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="3" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
     <xf borderId="5" fillId="0" fontId="2" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="2" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="6" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="4" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="1" fillId="2" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="9" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="2" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="4" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="9" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="3" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="7" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="2" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="3" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="4" fontId="8" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="2" fillId="3" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="2" fillId="5" fontId="9" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="6" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="7" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="166" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf borderId="2" fillId="3" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="3" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="2" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="3" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="4" fontId="7" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="5" fontId="8" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="7" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="2" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="5" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="5" fillId="7" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="6" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="7" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="166" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="2" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="4" fontId="8" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="5" fontId="9" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="6" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="2" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="5" fillId="7" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="5" fillId="0" fontId="2" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="166" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="2" numFmtId="166" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="5" fillId="4" fontId="7" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="5" fontId="8" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -588,7 +594,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>BURNDOWN</a:t>
+              <a:t>Practicum 1 Burndown</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -609,12 +615,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Backlog!$A$3:$A$18</c:f>
+              <c:f>Backlog!$A$3:$A$10</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Backlog!$E$3:$E$100</c:f>
+              <c:f>Backlog!$E$3:$E$10</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -628,17 +634,17 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Backlog!$A$3:$A$18</c:f>
+              <c:f>Backlog!$A$3:$A$10</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Backlog!$G$3:$G$100</c:f>
+              <c:f>Backlog!$G$3:$G$10</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1623852300"/>
-        <c:axId val="786250879"/>
+        <c:axId val="1035977675"/>
+        <c:axId val="1935929119"/>
       </c:barChart>
       <c:lineChart>
         <c:ser>
@@ -649,12 +655,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Backlog!$A$3:$A$18</c:f>
+              <c:f>Backlog!$A$3:$A$10</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Backlog!$C$3:$C$100</c:f>
+              <c:f>Backlog!$C$3:$C$10</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -667,21 +673,21 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Backlog!$A$3:$A$18</c:f>
+              <c:f>Backlog!$A$3:$A$10</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Backlog!$D$3:$D$100</c:f>
+              <c:f>Backlog!$D$3:$D$10</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1623852300"/>
-        <c:axId val="786250879"/>
+        <c:axId val="1035977675"/>
+        <c:axId val="1935929119"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1623852300"/>
+        <c:axId val="1035977675"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -723,10 +729,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="786250879"/>
+        <c:crossAx val="1935929119"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="786250879"/>
+        <c:axId val="1935929119"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -795,7 +801,473 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1623852300"/>
+        <c:crossAx val="1035977675"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t>Practicum 2 Burndown</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Backlog!$A$14:$A$21</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Backlog!$E$14:$E$21</c:f>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Backlog!$A$14:$A$21</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Backlog!$G$14:$G$21</c:f>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="2134978020"/>
+        <c:axId val="1277257781"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Backlog!$A$14:$A$21</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Backlog!$C$14:$C$21</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Backlog!$A$14:$A$21</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Backlog!$D$14:$D$21</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="2134978020"/>
+        <c:axId val="1277257781"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2134978020"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:t>Work date</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1277257781"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1277257781"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:t>Tasks remaining/Hours spent</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="47625">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2134978020"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t>Practicum 1 Burndown</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Backlog!$A$26:$A$33</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Backlog!$E$26:$E$33</c:f>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Backlog!$A$26:$A$33</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Backlog!$G$26:$G$33</c:f>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="440577841"/>
+        <c:axId val="133980373"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Backlog!$A$26:$A$33</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Backlog!$C$26:$C$33</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Backlog!$A$26:$A$33</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Backlog!$D$26:$D$33</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="440577841"/>
+        <c:axId val="133980373"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="440577841"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:t>Work date</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="133980373"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="133980373"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:t>Tasks remaining/Hours spent</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="47625">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="440577841"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -807,12 +1279,12 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="7915275" cy="4895850"/>
+    <xdr:ext cx="5219700" cy="3228975"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="1" name="Chart 1" title="Diagram"/>
@@ -825,6 +1297,56 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5219700" cy="3228975"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 2" title="Diagram"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5219700" cy="3228975"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 3" title="Diagram"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1049,74 +1571,74 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="13"/>
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="22"/>
     </row>
     <row r="2">
-      <c r="A2" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="K2" s="18" t="s">
+      <c r="A2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="M2" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="N2" s="22" t="s">
+      <c r="C2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="O2" s="24"/>
+      <c r="D2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="23"/>
+      <c r="J2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="M2" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="O2" s="26"/>
     </row>
     <row r="3">
-      <c r="A3" s="26">
+      <c r="A3" s="27">
         <v>43887.0</v>
       </c>
       <c r="B3" s="28">
         <v>0.0</v>
       </c>
       <c r="C3" s="29">
-        <f>((1-(B3/MAX(B$4:B$100)))*COUNT(Tasks!$A$2:$A$39))</f>
-        <v>28</v>
+        <f>((1-(B3/MAX(B$4:B$100)))*COUNT(Tasks!$A$3:$A$39))</f>
+        <v>16</v>
       </c>
       <c r="D3" s="29">
-        <f>COUNT(Tasks!$A$2:$A$100)</f>
-        <v>28</v>
+        <f>COUNT(Tasks!$A$3:$A$100)</f>
+        <v>16</v>
       </c>
       <c r="E3" s="28">
         <v>0.0</v>
@@ -1135,91 +1657,91 @@
       <c r="K3" s="31"/>
       <c r="M3" s="32"/>
       <c r="N3" s="33" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="O3" s="34" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="32">
         <v>43888.0</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="5">
         <v>1.0</v>
       </c>
       <c r="C4" s="35">
-        <f>((1-(B4/MAX(B$4:B$100)))*COUNT(Tasks!$A$2:$A$39))</f>
-        <v>26.52631579</v>
+        <f>((1-(B4/MAX(B$4:B$10)))*COUNT(Tasks!$A$3:$A$50))</f>
+        <v>13.71428571</v>
       </c>
       <c r="D4" s="36">
-        <f t="shared" ref="D4:D22" si="1">D3-F4-H4</f>
-        <v>25.3</v>
+        <f t="shared" ref="D4:D10" si="1">D3-J4</f>
+        <v>13.3</v>
       </c>
       <c r="E4" s="37">
         <v>6.5</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="5">
         <v>1.35</v>
       </c>
       <c r="G4" s="38">
         <v>6.5</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="5">
         <v>1.35</v>
       </c>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11">
-        <f t="shared" ref="J4:J22" si="2">H4+F4</f>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21">
+        <f t="shared" ref="J4:J10" si="2">H4+F4</f>
         <v>2.7</v>
       </c>
-      <c r="K4" s="13">
-        <f t="shared" ref="K4:K22" si="3">G4+E4</f>
+      <c r="K4" s="22">
+        <f t="shared" ref="K4:K10" si="3">G4+E4</f>
         <v>13</v>
       </c>
       <c r="M4" s="32">
         <v>43888.0</v>
       </c>
       <c r="N4" s="39" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="O4" s="40" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="32">
         <v>43889.0</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="5">
         <v>2.0</v>
       </c>
       <c r="C5" s="35">
-        <f>((1-(B5/MAX(B$4:B$100)))*COUNT(Tasks!$A$2:$A$39))</f>
-        <v>25.05263158</v>
+        <f>((1-(B5/MAX(B$4:B$10)))*COUNT(Tasks!$A$3:$A$50))</f>
+        <v>11.42857143</v>
       </c>
       <c r="D5" s="36">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E5" s="37">
         <v>3.5</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="5">
         <v>3.7</v>
       </c>
       <c r="G5" s="38">
         <v>3.0</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="5">
         <v>2.6</v>
       </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11">
+      <c r="I5" s="21"/>
+      <c r="J5" s="21">
         <f t="shared" si="2"/>
         <v>6.3</v>
       </c>
-      <c r="K5" s="13">
+      <c r="K5" s="22">
         <f t="shared" si="3"/>
         <v>6.5</v>
       </c>
@@ -1227,45 +1749,45 @@
         <v>43889.0</v>
       </c>
       <c r="N5" s="39" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="O5" s="40" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="32">
         <v>43890.0</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="5">
         <v>3.0</v>
       </c>
       <c r="C6" s="35">
-        <f>((1-(B6/MAX(B$4:B$100)))*COUNT(Tasks!$A$2:$A$39))</f>
-        <v>23.57894737</v>
+        <f>((1-(B6/MAX(B$4:B$10)))*COUNT(Tasks!$A$3:$A$50))</f>
+        <v>9.142857143</v>
       </c>
       <c r="D6" s="36">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E6" s="37">
         <v>3.5</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="5">
         <v>3.0</v>
       </c>
       <c r="G6" s="38">
         <v>4.0</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="5">
         <v>4.0</v>
       </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11">
+      <c r="I6" s="21"/>
+      <c r="J6" s="21">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="K6" s="13">
+      <c r="K6" s="22">
         <f t="shared" si="3"/>
         <v>7.5</v>
       </c>
@@ -1273,45 +1795,41 @@
         <v>43890.0</v>
       </c>
       <c r="N6" s="39" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="O6" s="41" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="32">
         <v>43891.0</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="5">
         <v>4.0</v>
       </c>
       <c r="C7" s="35">
-        <f>((1-(B7/MAX(B$4:B$100)))*COUNT(Tasks!$A$2:$A$39))</f>
-        <v>22.10526316</v>
+        <f>((1-(B7/MAX(B$4:B$10)))*COUNT(Tasks!$A$3:$A$50))</f>
+        <v>6.857142857</v>
       </c>
       <c r="D7" s="36">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E7" s="37">
         <v>0.0</v>
       </c>
-      <c r="F7" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="F7" s="5"/>
       <c r="G7" s="38">
         <v>0.0</v>
       </c>
-      <c r="H7" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11">
+      <c r="H7" s="5"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K7" s="13">
+      <c r="K7" s="22">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -1319,705 +1837,1106 @@
         <v>43891.0</v>
       </c>
       <c r="N7" s="39" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="O7" s="40" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="32">
         <v>43892.0</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="5">
         <v>5.0</v>
       </c>
       <c r="C8" s="35">
-        <f>((1-(B8/MAX(B$4:B$100)))*COUNT(Tasks!$A$2:$A$39))</f>
-        <v>20.63157895</v>
+        <f>((1-(B8/MAX(B$4:B$10)))*COUNT(Tasks!$A$3:$A$50))</f>
+        <v>4.571428571</v>
       </c>
       <c r="D8" s="36">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E8" s="37">
         <v>0.0</v>
       </c>
-      <c r="F8" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="F8" s="5"/>
       <c r="G8" s="38">
         <v>0.0</v>
       </c>
-      <c r="H8" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11">
+      <c r="H8" s="5"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K8" s="13">
+      <c r="K8" s="22">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M8" s="32">
         <v>43892.0</v>
       </c>
-      <c r="N8" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="O8" s="42" t="s">
-        <v>55</v>
+      <c r="N8" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="32">
         <v>43893.0</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="5">
         <v>6.0</v>
       </c>
       <c r="C9" s="35">
-        <f>((1-(B9/MAX(B$4:B$100)))*COUNT(Tasks!$A$2:$A$39))</f>
-        <v>19.15789474</v>
+        <f>((1-(B9/MAX(B$4:B$10)))*COUNT(Tasks!$A$3:$A$50))</f>
+        <v>2.285714286</v>
       </c>
       <c r="D9" s="36">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E9" s="37">
-        <v>5.0</v>
-      </c>
-      <c r="F9" s="9">
-        <v>4.0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="F9" s="5"/>
       <c r="G9" s="38">
-        <v>5.0</v>
-      </c>
-      <c r="H9" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="K9" s="13">
+        <v>0</v>
+      </c>
+      <c r="K9" s="22">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M9" s="32">
         <v>43893.0</v>
       </c>
-      <c r="N9" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="O9" s="42" t="s">
-        <v>57</v>
+      <c r="N9" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="32">
+      <c r="A10" s="42">
         <v>43894.0</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="43">
         <v>7.0</v>
       </c>
       <c r="C10" s="35">
-        <f>((1-(B10/MAX(B$4:B$100)))*COUNT(Tasks!$A$2:$A$39))</f>
-        <v>17.68421053</v>
+        <f>((1-(B10/MAX(B$4:B$10)))*COUNT(Tasks!$A$3:$A$50))</f>
+        <v>0</v>
       </c>
       <c r="D10" s="36">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="E10" s="37">
+        <v>0</v>
+      </c>
+      <c r="E10" s="44">
         <v>0.0</v>
       </c>
-      <c r="F10" s="43">
+      <c r="F10" s="11"/>
+      <c r="G10" s="45">
         <v>0.0</v>
       </c>
-      <c r="G10" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="H10" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="I10" s="44"/>
-      <c r="J10" s="11">
+      <c r="H10" s="11"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K10" s="13">
+      <c r="K10" s="47">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M10" s="32">
         <v>43894.0</v>
       </c>
-      <c r="N10" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="O10" s="42" t="s">
-        <v>55</v>
+      <c r="N10" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="32">
-        <v>43895.0</v>
-      </c>
-      <c r="B11" s="9">
-        <v>8.0</v>
-      </c>
-      <c r="C11" s="35">
-        <f>((1-(B11/MAX(B$4:B$100)))*COUNT(Tasks!$A$2:$A$39))</f>
-        <v>16.21052632</v>
-      </c>
-      <c r="D11" s="36">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E11" s="37">
-        <v>3.0</v>
-      </c>
-      <c r="F11" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="G11" s="38">
-        <v>1.0</v>
-      </c>
-      <c r="H11" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="K11" s="13">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
       <c r="M11" s="32">
         <v>43895.0</v>
       </c>
-      <c r="N11" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="O11" s="46">
+      <c r="N11" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="O11" s="49">
         <v>25.0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="32">
-        <v>43896.0</v>
-      </c>
-      <c r="B12" s="9">
-        <v>9.0</v>
-      </c>
-      <c r="C12" s="35">
-        <f>((1-(B12/MAX(B$4:B$100)))*COUNT(Tasks!$A$2:$A$39))</f>
-        <v>14.73684211</v>
-      </c>
-      <c r="D12" s="36">
-        <f t="shared" si="1"/>
-        <v>1.85715</v>
-      </c>
-      <c r="E12" s="37">
-        <v>3.0</v>
-      </c>
-      <c r="F12" s="47">
-        <v>0.14285</v>
-      </c>
-      <c r="G12" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="H12" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="I12" s="11"/>
-      <c r="J12" s="48">
-        <f t="shared" si="2"/>
-        <v>0.14285</v>
-      </c>
-      <c r="K12" s="13">
-        <f t="shared" si="3"/>
-        <v>3</v>
+      <c r="A12" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="M12" s="32">
         <v>43896.0</v>
       </c>
-      <c r="N12" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="O12" s="46">
+      <c r="N12" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="O12" s="49">
         <v>27.0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="32">
-        <v>43897.0</v>
-      </c>
-      <c r="B13" s="9">
-        <v>10.0</v>
-      </c>
-      <c r="C13" s="35">
-        <f>((1-(B13/MAX(B$4:B$100)))*COUNT(Tasks!$A$2:$A$39))</f>
-        <v>13.26315789</v>
-      </c>
-      <c r="D13" s="36">
-        <f t="shared" si="1"/>
-        <v>1.69045</v>
-      </c>
-      <c r="E13" s="37">
-        <v>1.0</v>
-      </c>
-      <c r="F13" s="49">
-        <v>0.0</v>
-      </c>
-      <c r="G13" s="38">
-        <v>3.0</v>
-      </c>
-      <c r="H13" s="47">
-        <v>0.1667</v>
-      </c>
-      <c r="I13" s="11"/>
-      <c r="J13" s="48">
-        <f t="shared" si="2"/>
-        <v>0.1667</v>
-      </c>
-      <c r="K13" s="13">
-        <f t="shared" si="3"/>
-        <v>4</v>
+      <c r="A13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I13" s="23"/>
+      <c r="J13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="M13" s="32">
         <v>43897.0</v>
       </c>
-      <c r="N13" s="45">
+      <c r="N13" s="48">
         <v>27.0</v>
       </c>
-      <c r="O13" s="42" t="s">
-        <v>55</v>
+      <c r="O13" s="8" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="32">
-        <v>43898.0</v>
-      </c>
-      <c r="B14" s="9">
-        <v>11.0</v>
-      </c>
-      <c r="C14" s="35">
-        <f>((1-(B14/MAX(B$4:B$100)))*COUNT(Tasks!$A$2:$A$39))</f>
-        <v>11.78947368</v>
-      </c>
-      <c r="D14" s="36">
-        <f t="shared" si="1"/>
-        <v>1.3809</v>
-      </c>
-      <c r="E14" s="37">
-        <v>1.5</v>
-      </c>
-      <c r="F14" s="47">
-        <v>0.14285</v>
-      </c>
-      <c r="G14" s="38">
-        <v>2.5</v>
-      </c>
-      <c r="H14" s="47">
-        <v>0.1667</v>
-      </c>
-      <c r="I14" s="11"/>
-      <c r="J14" s="48">
-        <f t="shared" si="2"/>
-        <v>0.30955</v>
-      </c>
-      <c r="K14" s="13">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
+      <c r="A14" s="27">
+        <v>43887.0</v>
+      </c>
+      <c r="B14" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="C14" s="29">
+        <f>((1-(B14/MAX(B$15:B$21)))*COUNT(Tasks!$G$3:$G$50))</f>
+        <v>12</v>
+      </c>
+      <c r="D14" s="29">
+        <f>COUNT(Tasks!$G$3:$G$100)</f>
+        <v>12</v>
+      </c>
+      <c r="E14" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="F14" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="G14" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="H14" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="31"/>
       <c r="M14" s="32">
         <v>43898.0</v>
       </c>
-      <c r="N14" s="45">
+      <c r="N14" s="48">
         <v>27.0</v>
       </c>
-      <c r="O14" s="42" t="s">
-        <v>59</v>
+      <c r="O14" s="8" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="32">
-        <v>43899.0</v>
-      </c>
-      <c r="B15" s="9">
-        <v>12.0</v>
+        <v>43902.0</v>
+      </c>
+      <c r="B15" s="5">
+        <v>1.0</v>
       </c>
       <c r="C15" s="35">
-        <f>((1-(B15/MAX(B$4:B$100)))*COUNT(Tasks!$A$2:$A$39))</f>
-        <v>10.31578947</v>
+        <f>((1-(B15/MAX(B$15:B$21)))*COUNT(Tasks!$G$3:$G$50))</f>
+        <v>10.28571429</v>
       </c>
       <c r="D15" s="36">
-        <f t="shared" si="1"/>
-        <v>1.07135</v>
+        <f t="shared" ref="D15:D21" si="4">D14-F15-H15</f>
+        <v>0.1429</v>
       </c>
       <c r="E15" s="37">
-        <v>2.0</v>
-      </c>
-      <c r="F15" s="47">
-        <v>0.14285</v>
+        <v>19.5</v>
+      </c>
+      <c r="F15" s="50">
+        <v>5.8571</v>
       </c>
       <c r="G15" s="38">
-        <v>2.0</v>
-      </c>
-      <c r="H15" s="47">
-        <v>0.1667</v>
-      </c>
-      <c r="I15" s="11"/>
-      <c r="J15" s="48">
-        <f t="shared" si="2"/>
-        <v>0.30955</v>
-      </c>
-      <c r="K15" s="13">
-        <f t="shared" si="3"/>
-        <v>4</v>
+        <v>16.5</v>
+      </c>
+      <c r="H15" s="50">
+        <v>6.0</v>
+      </c>
+      <c r="I15" s="21"/>
+      <c r="J15" s="51">
+        <f t="shared" ref="J15:J21" si="5">H15+F15</f>
+        <v>11.8571</v>
+      </c>
+      <c r="K15" s="22">
+        <f t="shared" ref="K15:K21" si="6">G15+E15</f>
+        <v>36</v>
       </c>
       <c r="M15" s="32">
         <v>43899.0</v>
       </c>
-      <c r="N15" s="45">
+      <c r="N15" s="48">
         <v>27.0</v>
       </c>
-      <c r="O15" s="42" t="s">
-        <v>59</v>
+      <c r="O15" s="8" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="32">
-        <v>43900.0</v>
-      </c>
-      <c r="B16" s="9">
-        <v>13.0</v>
+        <v>43903.0</v>
+      </c>
+      <c r="B16" s="5">
+        <v>2.0</v>
       </c>
       <c r="C16" s="35">
-        <f>((1-(B16/MAX(B$4:B$100)))*COUNT(Tasks!$A$2:$A$39))</f>
-        <v>8.842105263</v>
+        <f>((1-(B16/MAX(B$15:B$21)))*COUNT(Tasks!$G$3:$G$50))</f>
+        <v>8.571428571</v>
       </c>
       <c r="D16" s="36">
-        <f t="shared" si="1"/>
-        <v>0.7618</v>
+        <f t="shared" si="4"/>
+        <v>0.1429</v>
       </c>
       <c r="E16" s="37">
-        <v>3.0</v>
-      </c>
-      <c r="F16" s="47">
-        <v>0.14285</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="F16" s="52"/>
       <c r="G16" s="38">
-        <v>2.0</v>
-      </c>
-      <c r="H16" s="47">
-        <v>0.1667</v>
-      </c>
-      <c r="I16" s="11"/>
-      <c r="J16" s="48">
-        <f t="shared" si="2"/>
-        <v>0.30955</v>
-      </c>
-      <c r="K16" s="13">
-        <f t="shared" si="3"/>
-        <v>5</v>
+        <v>0.0</v>
+      </c>
+      <c r="H16" s="50"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="51">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="22">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="M16" s="32">
         <v>43900.0</v>
       </c>
-      <c r="N16" s="45">
+      <c r="N16" s="48">
         <v>27.0</v>
       </c>
-      <c r="O16" s="42" t="s">
-        <v>60</v>
+      <c r="O16" s="8" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="32">
-        <v>43901.0</v>
-      </c>
-      <c r="B17" s="9">
-        <v>14.0</v>
+        <v>43904.0</v>
+      </c>
+      <c r="B17" s="5">
+        <v>3.0</v>
       </c>
       <c r="C17" s="35">
-        <f>((1-(B17/MAX(B$4:B$100)))*COUNT(Tasks!$A$2:$A$39))</f>
-        <v>7.368421053</v>
+        <f>((1-(B17/MAX(B$15:B$21)))*COUNT(Tasks!$G$3:$G$50))</f>
+        <v>6.857142857</v>
       </c>
       <c r="D17" s="36">
-        <f t="shared" si="1"/>
-        <v>0.45225</v>
+        <f t="shared" si="4"/>
+        <v>0.00005</v>
       </c>
       <c r="E17" s="37">
         <v>2.0</v>
       </c>
-      <c r="F17" s="47">
+      <c r="F17" s="50">
         <v>0.14285</v>
       </c>
       <c r="G17" s="38">
-        <v>2.0</v>
-      </c>
-      <c r="H17" s="47">
-        <v>0.1667</v>
-      </c>
-      <c r="I17" s="11"/>
-      <c r="J17" s="48">
-        <f t="shared" si="2"/>
-        <v>0.30955</v>
-      </c>
-      <c r="K17" s="13">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="M17" s="50">
+        <v>0.0</v>
+      </c>
+      <c r="H17" s="50"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="51">
+        <f t="shared" si="5"/>
+        <v>0.14285</v>
+      </c>
+      <c r="K17" s="22">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="M17" s="32">
         <v>43901.0</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="O17" s="8" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="32">
+        <v>43905.0</v>
+      </c>
+      <c r="B18" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="C18" s="35">
+        <f>((1-(B18/MAX(B$15:B$21)))*COUNT(Tasks!$G$3:$G$50))</f>
+        <v>5.142857143</v>
+      </c>
+      <c r="D18" s="36">
+        <f t="shared" si="4"/>
+        <v>0.00005</v>
+      </c>
+      <c r="E18" s="37">
+        <v>0.0</v>
+      </c>
+      <c r="F18" s="52"/>
+      <c r="G18" s="38">
+        <v>0.0</v>
+      </c>
+      <c r="H18" s="50"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="51">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="32">
         <v>43902.0</v>
       </c>
-      <c r="B18" s="9">
-        <v>15.0</v>
-      </c>
-      <c r="C18" s="35">
-        <f>((1-(B18/MAX(B$4:B$100)))*COUNT(Tasks!$A$2:$A$39))</f>
-        <v>5.894736842</v>
-      </c>
-      <c r="D18" s="36">
-        <f t="shared" si="1"/>
-        <v>0.1427</v>
-      </c>
-      <c r="E18" s="37">
-        <v>4.0</v>
-      </c>
-      <c r="F18" s="47">
-        <v>0.14285</v>
-      </c>
-      <c r="G18" s="38">
-        <v>4.0</v>
-      </c>
-      <c r="H18" s="47">
-        <v>0.1667</v>
-      </c>
-      <c r="I18" s="11"/>
-      <c r="J18" s="48">
-        <f t="shared" si="2"/>
-        <v>0.30955</v>
-      </c>
-      <c r="K18" s="13">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="M18" s="50">
-        <v>43902.0</v>
-      </c>
       <c r="N18" s="5" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="O18" s="8" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="32">
-        <v>43903.0</v>
+        <v>43906.0</v>
       </c>
       <c r="B19" s="5">
-        <v>16.0</v>
+        <v>5.0</v>
       </c>
       <c r="C19" s="35">
-        <f>((1-(B19/MAX(B$4:B$100)))*COUNT(Tasks!$A$2:$A$39))</f>
-        <v>4.421052632</v>
+        <f>((1-(B19/MAX(B$15:B$21)))*COUNT(Tasks!$G$3:$G$50))</f>
+        <v>3.428571429</v>
       </c>
       <c r="D19" s="36">
-        <f t="shared" si="1"/>
-        <v>0.1427</v>
+        <f t="shared" si="4"/>
+        <v>0.00005</v>
       </c>
       <c r="E19" s="37">
         <v>0.0</v>
       </c>
-      <c r="F19" s="51">
-        <v>0.0</v>
-      </c>
+      <c r="F19" s="52"/>
       <c r="G19" s="38">
         <v>0.0</v>
       </c>
-      <c r="H19" s="47">
+      <c r="H19" s="50"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="51">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="32">
+        <v>43903.0</v>
+      </c>
+      <c r="N19" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="O19" s="49" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="32">
+        <v>43907.0</v>
+      </c>
+      <c r="B20" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="C20" s="35">
+        <f>((1-(B20/MAX(B$15:B$21)))*COUNT(Tasks!$G$3:$G$50))</f>
+        <v>1.714285714</v>
+      </c>
+      <c r="D20" s="36">
+        <f t="shared" si="4"/>
+        <v>0.00005</v>
+      </c>
+      <c r="E20" s="37">
         <v>0.0</v>
       </c>
-      <c r="I19" s="11"/>
-      <c r="J19" s="48">
-        <f t="shared" si="2"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="38">
+        <v>0.0</v>
+      </c>
+      <c r="H20" s="50"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="51">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K19" s="13">
-        <f t="shared" si="3"/>
+      <c r="K20" s="22">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M19" s="50">
-        <v>43903.0</v>
-      </c>
-      <c r="N19" s="52" t="s">
-        <v>55</v>
-      </c>
-      <c r="O19" s="53" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="50">
+      <c r="M20" s="32">
         <v>43904.0</v>
       </c>
-      <c r="B20" s="5">
-        <v>17.0</v>
-      </c>
-      <c r="C20" s="35">
-        <f>((1-(B20/MAX(B$4:B$100)))*COUNT(Tasks!$A$2:$A$39))</f>
-        <v>2.947368421</v>
-      </c>
-      <c r="D20" s="36">
-        <f t="shared" si="1"/>
-        <v>-0.00015</v>
-      </c>
-      <c r="E20" s="54">
+      <c r="N20" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="O20" s="49">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="42">
+        <v>43908.0</v>
+      </c>
+      <c r="B21" s="11">
+        <v>7.0</v>
+      </c>
+      <c r="C21" s="35">
+        <f>((1-(B21/MAX(B$15:B$21)))*COUNT(Tasks!$G$3:$G$50))</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="36">
+        <f t="shared" si="4"/>
+        <v>0.00005</v>
+      </c>
+      <c r="E21" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="F21" s="53"/>
+      <c r="G21" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="H21" s="54"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="55">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="47">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="32">
+        <v>43905.0</v>
+      </c>
+      <c r="N21" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="O21" s="49" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="M22" s="32">
+        <v>43906.0</v>
+      </c>
+      <c r="N22" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="O22" s="49" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="M23" s="32">
+        <v>43907.0</v>
+      </c>
+      <c r="N23" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="O23" s="49" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M24" s="32">
+        <v>43908.0</v>
+      </c>
+      <c r="N24" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="O24" s="49" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I25" s="23"/>
+      <c r="J25" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="M25" s="32">
+        <v>43909.0</v>
+      </c>
+      <c r="N25" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="O25" s="49" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="27">
+        <v>43887.0</v>
+      </c>
+      <c r="B26" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="C26" s="29">
+        <f>((1-(B26/MAX(B$26:B$33)))*COUNT(Tasks!$M$3:$M$39))</f>
+        <v>5</v>
+      </c>
+      <c r="D26" s="29">
+        <f>COUNT(Tasks!$M$3:$M$100)</f>
+        <v>5</v>
+      </c>
+      <c r="E26" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="F26" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="G26" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="H26" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="31"/>
+      <c r="M26" s="32">
+        <v>43910.0</v>
+      </c>
+      <c r="N26" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="O26" s="49" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="32">
+        <v>43923.0</v>
+      </c>
+      <c r="B27" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="C27" s="35">
+        <f>((1-(B27/MAX(B$26:B$33)))*COUNT(Tasks!$M$3:$M$39))</f>
+        <v>4.285714286</v>
+      </c>
+      <c r="D27" s="36">
+        <f t="shared" ref="D27:D33" si="7">D26-F27-H27</f>
+        <v>3</v>
+      </c>
+      <c r="E27" s="37">
+        <v>5.0</v>
+      </c>
+      <c r="F27" s="50">
+        <v>1.5</v>
+      </c>
+      <c r="G27" s="38">
+        <v>3.0</v>
+      </c>
+      <c r="H27" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="I27" s="21"/>
+      <c r="J27" s="51">
+        <f t="shared" ref="J27:J33" si="8">H27+F27</f>
+        <v>2</v>
+      </c>
+      <c r="K27" s="22">
+        <f t="shared" ref="K27:K33" si="9">G27+E27</f>
+        <v>8</v>
+      </c>
+      <c r="M27" s="32">
+        <v>43911.0</v>
+      </c>
+      <c r="N27" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="O27" s="49" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="32">
+        <v>43924.0</v>
+      </c>
+      <c r="B28" s="5">
         <v>2.0</v>
       </c>
-      <c r="F20" s="55">
-        <v>0.14285</v>
-      </c>
-      <c r="G20" s="56">
+      <c r="C28" s="35">
+        <f>((1-(B28/MAX(B$26:B$33)))*COUNT(Tasks!$M$3:$M$39))</f>
+        <v>3.571428571</v>
+      </c>
+      <c r="D28" s="36">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="E28" s="37">
+        <v>1.0</v>
+      </c>
+      <c r="F28" s="52">
+        <v>0.5</v>
+      </c>
+      <c r="G28" s="38">
+        <v>2.5</v>
+      </c>
+      <c r="H28" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="I28" s="21"/>
+      <c r="J28" s="51">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K28" s="22">
+        <f t="shared" si="9"/>
+        <v>3.5</v>
+      </c>
+      <c r="M28" s="32">
+        <v>43912.0</v>
+      </c>
+      <c r="N28" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="O28" s="49" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="32">
+        <v>43925.0</v>
+      </c>
+      <c r="B29" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="C29" s="35">
+        <f>((1-(B29/MAX(B$26:B$33)))*COUNT(Tasks!$M$3:$M$39))</f>
+        <v>2.857142857</v>
+      </c>
+      <c r="D29" s="36">
+        <f t="shared" si="7"/>
+        <v>1.5</v>
+      </c>
+      <c r="E29" s="37">
+        <v>3.0</v>
+      </c>
+      <c r="F29" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="G29" s="38">
         <v>0.0</v>
       </c>
-      <c r="H20" s="55">
+      <c r="H29" s="50"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="51">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+      <c r="K29" s="22">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="M29" s="32">
+        <v>43913.0</v>
+      </c>
+      <c r="N29" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="O29" s="49" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="32">
+        <v>43926.0</v>
+      </c>
+      <c r="B30" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="C30" s="35">
+        <f>((1-(B30/MAX(B$26:B$33)))*COUNT(Tasks!$M$3:$M$39))</f>
+        <v>2.142857143</v>
+      </c>
+      <c r="D30" s="36">
+        <f t="shared" si="7"/>
+        <v>1.25</v>
+      </c>
+      <c r="E30" s="37">
+        <v>4.0</v>
+      </c>
+      <c r="F30" s="52">
+        <v>0.25</v>
+      </c>
+      <c r="G30" s="38">
         <v>0.0</v>
       </c>
-      <c r="I20" s="57"/>
-      <c r="J20" s="48">
-        <f t="shared" si="2"/>
-        <v>0.14285</v>
-      </c>
-      <c r="K20" s="13">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="M20" s="50">
-        <v>43904.0</v>
-      </c>
-      <c r="N20" s="52" t="s">
-        <v>55</v>
-      </c>
-      <c r="O20" s="53">
-        <v>27.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="50">
-        <v>43905.0</v>
-      </c>
-      <c r="B21" s="5">
-        <v>18.0</v>
-      </c>
-      <c r="C21" s="35">
-        <f>((1-(B21/MAX(B$4:B$100)))*COUNT(Tasks!$A$2:$A$39))</f>
-        <v>1.473684211</v>
-      </c>
-      <c r="D21" s="36">
-        <f t="shared" si="1"/>
-        <v>-0.00015</v>
-      </c>
-      <c r="E21" s="54">
+      <c r="H30" s="50"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="51">
+        <f t="shared" si="8"/>
+        <v>0.25</v>
+      </c>
+      <c r="K30" s="22">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="M30" s="32">
+        <v>43914.0</v>
+      </c>
+      <c r="N30" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="O30" s="49" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="32">
+        <v>43927.0</v>
+      </c>
+      <c r="B31" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="C31" s="35">
+        <f>((1-(B31/MAX(B$26:B$33)))*COUNT(Tasks!$M$3:$M$39))</f>
+        <v>1.428571429</v>
+      </c>
+      <c r="D31" s="36">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E31" s="37">
+        <v>3.0</v>
+      </c>
+      <c r="F31" s="52">
+        <v>1.25</v>
+      </c>
+      <c r="G31" s="38">
         <v>0.0</v>
       </c>
-      <c r="F21" s="58">
+      <c r="H31" s="50"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="51">
+        <f t="shared" si="8"/>
+        <v>1.25</v>
+      </c>
+      <c r="K31" s="22">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="M31" s="32">
+        <v>43915.0</v>
+      </c>
+      <c r="N31" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="O31" s="49" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="32">
+        <v>43928.0</v>
+      </c>
+      <c r="B32" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="C32" s="35">
+        <f>((1-(B32/MAX(B$26:B$33)))*COUNT(Tasks!$M$3:$M$39))</f>
+        <v>0.7142857143</v>
+      </c>
+      <c r="D32" s="36">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E32" s="37">
         <v>0.0</v>
       </c>
-      <c r="G21" s="56">
+      <c r="F32" s="52"/>
+      <c r="G32" s="38">
         <v>0.0</v>
       </c>
-      <c r="H21" s="55">
+      <c r="H32" s="50"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="51">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="22">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M32" s="32">
+        <v>43916.0</v>
+      </c>
+      <c r="N32" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="O32" s="49" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="32">
+        <v>43929.0</v>
+      </c>
+      <c r="B33" s="56">
+        <v>7.0</v>
+      </c>
+      <c r="C33" s="57">
+        <f>((1-(B33/MAX(B$26:B$33)))*COUNT(Tasks!$M$3:$M$39))</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E33" s="44">
         <v>0.0</v>
       </c>
-      <c r="I21" s="57"/>
-      <c r="J21" s="48">
-        <f t="shared" si="2"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="H33" s="54"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="55">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K21" s="13">
-        <f t="shared" si="3"/>
+      <c r="K33" s="47">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M21" s="50">
-        <v>43905.0</v>
-      </c>
-      <c r="N21" s="52" t="s">
-        <v>55</v>
-      </c>
-      <c r="O21" s="53" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="59">
-        <v>43906.0</v>
-      </c>
-      <c r="B22" s="17">
-        <v>19.0</v>
-      </c>
-      <c r="C22" s="60">
-        <f>((1-(B22/MAX(B$4:B$100)))*COUNT(Tasks!$A$2:$A$39))</f>
-        <v>0</v>
-      </c>
-      <c r="D22" s="61">
-        <f t="shared" si="1"/>
-        <v>-0.00015</v>
-      </c>
-      <c r="E22" s="62">
-        <v>0.0</v>
-      </c>
-      <c r="F22" s="63">
-        <v>0.0</v>
-      </c>
-      <c r="G22" s="64">
-        <v>0.0</v>
-      </c>
-      <c r="H22" s="65">
-        <v>0.0</v>
-      </c>
-      <c r="I22" s="66"/>
-      <c r="J22" s="67">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K22" s="68">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M22" s="59">
-        <v>43906.0</v>
-      </c>
-      <c r="N22" s="69" t="s">
-        <v>55</v>
-      </c>
-      <c r="O22" s="70" t="s">
-        <v>55</v>
-      </c>
+      <c r="M33" s="32">
+        <v>43917.0</v>
+      </c>
+      <c r="N33" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="O33" s="49" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="M34" s="32">
+        <v>43918.0</v>
+      </c>
+      <c r="N34" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="O34" s="49" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="M35" s="32">
+        <v>43919.0</v>
+      </c>
+      <c r="N35" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="O35" s="49" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="M36" s="32">
+        <v>43920.0</v>
+      </c>
+      <c r="N36" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="O36" s="49" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="M37" s="32">
+        <v>43921.0</v>
+      </c>
+      <c r="N37" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="O37" s="49" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="M38" s="32">
+        <v>43922.0</v>
+      </c>
+      <c r="N38" s="59" t="s">
+        <v>63</v>
+      </c>
+      <c r="O38" s="49" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="M39" s="32">
+        <v>43923.0</v>
+      </c>
+      <c r="N39" s="59">
+        <v>30.31</v>
+      </c>
+      <c r="O39" s="49">
+        <v>29.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="M40" s="32">
+        <v>43924.0</v>
+      </c>
+      <c r="N40" s="59">
+        <v>30.31</v>
+      </c>
+      <c r="O40" s="49">
+        <v>30.31</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="M41" s="32">
+        <v>43925.0</v>
+      </c>
+      <c r="N41" s="59" t="s">
+        <v>63</v>
+      </c>
+      <c r="O41" s="49">
+        <v>30.31</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="M42" s="32">
+        <v>43926.0</v>
+      </c>
+      <c r="N42" s="59" t="s">
+        <v>63</v>
+      </c>
+      <c r="O42" s="49">
+        <v>31.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="M43" s="32">
+        <v>43927.0</v>
+      </c>
+      <c r="N43" s="59" t="s">
+        <v>63</v>
+      </c>
+      <c r="O43" s="49">
+        <v>31.32</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="M44" s="32">
+        <v>43928.0</v>
+      </c>
+      <c r="N44" s="59" t="s">
+        <v>63</v>
+      </c>
+      <c r="O44" s="49" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="M45" s="42">
+        <v>43929.0</v>
+      </c>
+      <c r="N45" s="60"/>
+      <c r="O45" s="61"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A22:K22"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2034,116 +2953,262 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="2" max="2" width="38.71"/>
+    <col customWidth="1" min="8" max="8" width="38.71"/>
+    <col customWidth="1" min="14" max="14" width="38.71"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="M1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D2" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="E2" s="8" t="s">
+      <c r="D2" s="3" t="s">
         <v>6</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="6">
         <v>2.0</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="6">
-        <v>4.0</v>
       </c>
       <c r="D3" s="7">
         <v>1.0</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="G3" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="J3" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="2">
+        <v>29.0</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="P3" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C4" s="6">
-        <v>10.0</v>
+        <v>4.0</v>
       </c>
       <c r="D4" s="7">
         <v>1.0</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="G4" s="2">
+        <v>18.0</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="J4" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O4" s="6">
+        <v>6.0</v>
+      </c>
+      <c r="P4" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C5" s="6">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="D5" s="7">
         <v>1.0</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="G5" s="2">
+        <v>19.0</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="6">
+        <v>5.0</v>
+      </c>
+      <c r="J5" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="2">
+        <v>31.0</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" s="6">
+        <v>5.0</v>
+      </c>
+      <c r="P5" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="6">
         <v>5.0</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="6">
-        <v>2.0</v>
       </c>
       <c r="D6" s="7">
         <v>1.0</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="G6" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="J6" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="2">
+        <v>32.0</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O6" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="P6" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="Q6" s="8" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C7" s="6">
         <v>2.0</v>
@@ -2152,15 +3217,45 @@
         <v>1.0</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="G7" s="2">
+        <v>21.0</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="J7" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7" s="10">
+        <v>33.0</v>
+      </c>
+      <c r="N7" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="O7" s="12">
+        <v>4.0</v>
+      </c>
+      <c r="P7" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="Q7" s="14" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C8" s="6">
         <v>2.0</v>
@@ -2169,32 +3264,72 @@
         <v>1.0</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>14</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G8" s="2">
+        <v>22.0</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="J8" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="15"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="9"/>
     </row>
     <row r="9">
       <c r="A9" s="2">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C9" s="6">
-        <v>0.5</v>
+        <v>2.0</v>
       </c>
       <c r="D9" s="7">
         <v>1.0</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>14</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G9" s="2">
+        <v>23.0</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="J9" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M9" s="15"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="9"/>
     </row>
     <row r="10">
       <c r="A10" s="2">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C10" s="6">
         <v>0.5</v>
@@ -2203,32 +3338,72 @@
         <v>1.0</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>14</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G10" s="2">
+        <v>24.0</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="J10" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M10" s="15"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="9"/>
     </row>
     <row r="11">
       <c r="A11" s="2">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C11" s="6">
-        <v>1.0</v>
+        <v>0.5</v>
       </c>
       <c r="D11" s="7">
         <v>1.0</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G11" s="2">
+        <v>25.0</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="J11" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="M11" s="15"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="9"/>
     </row>
     <row r="12">
       <c r="A12" s="2">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C12" s="6">
         <v>1.0</v>
@@ -2237,83 +3412,143 @@
         <v>1.0</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>14</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G12" s="2">
+        <v>26.0</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J12" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M12" s="15"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="9"/>
     </row>
     <row r="13">
       <c r="A13" s="2">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="C13" s="6">
-        <v>0.75</v>
+        <v>1.0</v>
       </c>
       <c r="D13" s="7">
         <v>1.0</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>14</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G13" s="2">
+        <v>27.0</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="J13" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M13" s="15"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="9"/>
     </row>
     <row r="14">
       <c r="A14" s="2">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="C14" s="6">
-        <v>0.1</v>
+        <v>0.75</v>
       </c>
       <c r="D14" s="7">
         <v>1.0</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>14</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G14" s="10">
+        <v>28.0</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" s="12">
+        <v>10.0</v>
+      </c>
+      <c r="J14" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="K14" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="M14" s="15"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="9"/>
     </row>
     <row r="15">
       <c r="A15" s="2">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="C15" s="6">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="D15" s="7">
         <v>1.0</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="C16" s="6">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D16" s="7">
         <v>1.0</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="C17" s="6">
         <v>0.5</v>
@@ -2322,4095 +3557,3904 @@
         <v>1.0</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2">
-        <v>17.0</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D18" s="7">
+      <c r="A18" s="10">
+        <v>16.0</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="D18" s="13">
         <v>1.0</v>
       </c>
-      <c r="E18" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2">
-        <v>18.0</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="6">
-        <v>10.0</v>
-      </c>
-      <c r="D19" s="9">
-        <v>100.0</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2">
-        <v>19.0</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2">
-        <v>20.0</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="6">
-        <v>10.0</v>
-      </c>
-      <c r="D21" s="12">
-        <v>1.0</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2">
-        <v>21.0</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D22" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2">
-        <v>22.0</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="D23" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2">
-        <v>23.0</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="D24" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2">
-        <v>24.0</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="D25" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2">
-        <v>25.0</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="D26" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2">
-        <v>26.0</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="D27" s="12">
-        <v>1.0</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2">
-        <v>27.0</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" s="6">
-        <v>10.0</v>
-      </c>
-      <c r="D28" s="12">
-        <v>1.0</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="16">
-        <v>28.0</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" s="19">
-        <v>10.0</v>
-      </c>
-      <c r="D29" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="E29" s="23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="C30" s="25"/>
-      <c r="D30" s="27"/>
+      <c r="E18" s="14" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="31">
-      <c r="C31" s="25"/>
-      <c r="D31" s="27"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="20"/>
     </row>
     <row r="32">
-      <c r="C32" s="25"/>
-      <c r="D32" s="27"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="20"/>
     </row>
     <row r="33">
-      <c r="C33" s="25"/>
-      <c r="D33" s="27"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="20"/>
     </row>
     <row r="34">
-      <c r="C34" s="25"/>
-      <c r="D34" s="27"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="20"/>
     </row>
     <row r="35">
-      <c r="C35" s="25"/>
-      <c r="D35" s="27"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="20"/>
     </row>
     <row r="36">
-      <c r="C36" s="25"/>
-      <c r="D36" s="27"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="20"/>
     </row>
     <row r="37">
-      <c r="C37" s="25"/>
-      <c r="D37" s="27"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="20"/>
     </row>
     <row r="38">
-      <c r="C38" s="25"/>
-      <c r="D38" s="27"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="20"/>
     </row>
     <row r="39">
-      <c r="C39" s="25"/>
-      <c r="D39" s="27"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="20"/>
     </row>
     <row r="40">
-      <c r="C40" s="25"/>
-      <c r="D40" s="27"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="20"/>
     </row>
     <row r="41">
-      <c r="C41" s="25"/>
-      <c r="D41" s="27"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="20"/>
     </row>
     <row r="42">
-      <c r="C42" s="25"/>
-      <c r="D42" s="27"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="20"/>
     </row>
     <row r="43">
-      <c r="C43" s="25"/>
-      <c r="D43" s="27"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="20"/>
     </row>
     <row r="44">
-      <c r="C44" s="25"/>
-      <c r="D44" s="27"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="20"/>
     </row>
     <row r="45">
-      <c r="C45" s="25"/>
-      <c r="D45" s="27"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="20"/>
     </row>
     <row r="46">
-      <c r="C46" s="25"/>
-      <c r="D46" s="27"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="20"/>
     </row>
     <row r="47">
-      <c r="C47" s="25"/>
-      <c r="D47" s="27"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="20"/>
     </row>
     <row r="48">
-      <c r="C48" s="25"/>
-      <c r="D48" s="27"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="20"/>
     </row>
     <row r="49">
-      <c r="C49" s="25"/>
-      <c r="D49" s="27"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="20"/>
     </row>
     <row r="50">
-      <c r="C50" s="25"/>
-      <c r="D50" s="27"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="20"/>
     </row>
     <row r="51">
-      <c r="C51" s="25"/>
-      <c r="D51" s="27"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="20"/>
     </row>
     <row r="52">
-      <c r="C52" s="25"/>
-      <c r="D52" s="27"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="20"/>
     </row>
     <row r="53">
-      <c r="C53" s="25"/>
-      <c r="D53" s="27"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="20"/>
     </row>
     <row r="54">
-      <c r="C54" s="25"/>
-      <c r="D54" s="27"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="20"/>
     </row>
     <row r="55">
-      <c r="C55" s="25"/>
-      <c r="D55" s="27"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="20"/>
     </row>
     <row r="56">
-      <c r="C56" s="25"/>
-      <c r="D56" s="27"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="20"/>
     </row>
     <row r="57">
-      <c r="C57" s="25"/>
-      <c r="D57" s="27"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="20"/>
     </row>
     <row r="58">
-      <c r="C58" s="25"/>
-      <c r="D58" s="27"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="20"/>
     </row>
     <row r="59">
-      <c r="C59" s="25"/>
-      <c r="D59" s="27"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="20"/>
     </row>
     <row r="60">
-      <c r="C60" s="25"/>
-      <c r="D60" s="27"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="20"/>
     </row>
     <row r="61">
-      <c r="C61" s="25"/>
-      <c r="D61" s="27"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="20"/>
     </row>
     <row r="62">
-      <c r="C62" s="25"/>
-      <c r="D62" s="27"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="20"/>
     </row>
     <row r="63">
-      <c r="C63" s="25"/>
-      <c r="D63" s="27"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="20"/>
     </row>
     <row r="64">
-      <c r="C64" s="25"/>
-      <c r="D64" s="27"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="20"/>
     </row>
     <row r="65">
-      <c r="C65" s="25"/>
-      <c r="D65" s="27"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="20"/>
     </row>
     <row r="66">
-      <c r="C66" s="25"/>
-      <c r="D66" s="27"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="20"/>
     </row>
     <row r="67">
-      <c r="C67" s="25"/>
-      <c r="D67" s="27"/>
+      <c r="C67" s="19"/>
+      <c r="D67" s="20"/>
     </row>
     <row r="68">
-      <c r="C68" s="25"/>
-      <c r="D68" s="27"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="20"/>
     </row>
     <row r="69">
-      <c r="C69" s="25"/>
-      <c r="D69" s="27"/>
+      <c r="C69" s="19"/>
+      <c r="D69" s="20"/>
     </row>
     <row r="70">
-      <c r="C70" s="25"/>
-      <c r="D70" s="27"/>
+      <c r="C70" s="19"/>
+      <c r="D70" s="20"/>
     </row>
     <row r="71">
-      <c r="C71" s="25"/>
-      <c r="D71" s="27"/>
+      <c r="C71" s="19"/>
+      <c r="D71" s="20"/>
     </row>
     <row r="72">
-      <c r="C72" s="25"/>
-      <c r="D72" s="27"/>
+      <c r="C72" s="19"/>
+      <c r="D72" s="20"/>
     </row>
     <row r="73">
-      <c r="C73" s="25"/>
-      <c r="D73" s="27"/>
+      <c r="C73" s="19"/>
+      <c r="D73" s="20"/>
     </row>
     <row r="74">
-      <c r="C74" s="25"/>
-      <c r="D74" s="27"/>
+      <c r="C74" s="19"/>
+      <c r="D74" s="20"/>
     </row>
     <row r="75">
-      <c r="C75" s="25"/>
-      <c r="D75" s="27"/>
+      <c r="C75" s="19"/>
+      <c r="D75" s="20"/>
     </row>
     <row r="76">
-      <c r="C76" s="25"/>
-      <c r="D76" s="27"/>
+      <c r="C76" s="19"/>
+      <c r="D76" s="20"/>
     </row>
     <row r="77">
-      <c r="C77" s="25"/>
-      <c r="D77" s="27"/>
+      <c r="C77" s="19"/>
+      <c r="D77" s="20"/>
     </row>
     <row r="78">
-      <c r="C78" s="25"/>
-      <c r="D78" s="27"/>
+      <c r="C78" s="19"/>
+      <c r="D78" s="20"/>
     </row>
     <row r="79">
-      <c r="C79" s="25"/>
-      <c r="D79" s="27"/>
+      <c r="C79" s="19"/>
+      <c r="D79" s="20"/>
     </row>
     <row r="80">
-      <c r="C80" s="25"/>
-      <c r="D80" s="27"/>
+      <c r="C80" s="19"/>
+      <c r="D80" s="20"/>
     </row>
     <row r="81">
-      <c r="C81" s="25"/>
-      <c r="D81" s="27"/>
+      <c r="C81" s="19"/>
+      <c r="D81" s="20"/>
     </row>
     <row r="82">
-      <c r="C82" s="25"/>
-      <c r="D82" s="27"/>
+      <c r="C82" s="19"/>
+      <c r="D82" s="20"/>
     </row>
     <row r="83">
-      <c r="C83" s="25"/>
-      <c r="D83" s="27"/>
+      <c r="C83" s="19"/>
+      <c r="D83" s="20"/>
     </row>
     <row r="84">
-      <c r="C84" s="25"/>
-      <c r="D84" s="27"/>
+      <c r="C84" s="19"/>
+      <c r="D84" s="20"/>
     </row>
     <row r="85">
-      <c r="C85" s="25"/>
-      <c r="D85" s="27"/>
+      <c r="C85" s="19"/>
+      <c r="D85" s="20"/>
     </row>
     <row r="86">
-      <c r="C86" s="25"/>
-      <c r="D86" s="27"/>
+      <c r="C86" s="19"/>
+      <c r="D86" s="20"/>
     </row>
     <row r="87">
-      <c r="C87" s="25"/>
-      <c r="D87" s="27"/>
+      <c r="C87" s="19"/>
+      <c r="D87" s="20"/>
     </row>
     <row r="88">
-      <c r="C88" s="25"/>
-      <c r="D88" s="27"/>
+      <c r="C88" s="19"/>
+      <c r="D88" s="20"/>
     </row>
     <row r="89">
-      <c r="C89" s="25"/>
-      <c r="D89" s="27"/>
+      <c r="C89" s="19"/>
+      <c r="D89" s="20"/>
     </row>
     <row r="90">
-      <c r="C90" s="25"/>
-      <c r="D90" s="27"/>
+      <c r="C90" s="19"/>
+      <c r="D90" s="20"/>
     </row>
     <row r="91">
-      <c r="C91" s="25"/>
-      <c r="D91" s="27"/>
+      <c r="C91" s="19"/>
+      <c r="D91" s="20"/>
     </row>
     <row r="92">
-      <c r="C92" s="25"/>
-      <c r="D92" s="27"/>
+      <c r="C92" s="19"/>
+      <c r="D92" s="20"/>
     </row>
     <row r="93">
-      <c r="C93" s="25"/>
-      <c r="D93" s="27"/>
+      <c r="C93" s="19"/>
+      <c r="D93" s="20"/>
     </row>
     <row r="94">
-      <c r="C94" s="25"/>
-      <c r="D94" s="27"/>
+      <c r="C94" s="19"/>
+      <c r="D94" s="20"/>
     </row>
     <row r="95">
-      <c r="C95" s="25"/>
-      <c r="D95" s="27"/>
+      <c r="C95" s="19"/>
+      <c r="D95" s="20"/>
     </row>
     <row r="96">
-      <c r="C96" s="25"/>
-      <c r="D96" s="27"/>
+      <c r="C96" s="19"/>
+      <c r="D96" s="20"/>
     </row>
     <row r="97">
-      <c r="C97" s="25"/>
-      <c r="D97" s="27"/>
+      <c r="C97" s="19"/>
+      <c r="D97" s="20"/>
     </row>
     <row r="98">
-      <c r="C98" s="25"/>
-      <c r="D98" s="27"/>
+      <c r="C98" s="19"/>
+      <c r="D98" s="20"/>
     </row>
     <row r="99">
-      <c r="C99" s="25"/>
-      <c r="D99" s="27"/>
+      <c r="C99" s="19"/>
+      <c r="D99" s="20"/>
     </row>
     <row r="100">
-      <c r="C100" s="25"/>
-      <c r="D100" s="27"/>
+      <c r="C100" s="19"/>
+      <c r="D100" s="20"/>
     </row>
     <row r="101">
-      <c r="C101" s="25"/>
-      <c r="D101" s="27"/>
+      <c r="C101" s="19"/>
+      <c r="D101" s="20"/>
     </row>
     <row r="102">
-      <c r="C102" s="25"/>
-      <c r="D102" s="27"/>
+      <c r="C102" s="19"/>
+      <c r="D102" s="20"/>
     </row>
     <row r="103">
-      <c r="C103" s="25"/>
-      <c r="D103" s="27"/>
+      <c r="C103" s="19"/>
+      <c r="D103" s="20"/>
     </row>
     <row r="104">
-      <c r="C104" s="25"/>
-      <c r="D104" s="27"/>
+      <c r="C104" s="19"/>
+      <c r="D104" s="20"/>
     </row>
     <row r="105">
-      <c r="C105" s="25"/>
-      <c r="D105" s="27"/>
+      <c r="C105" s="19"/>
+      <c r="D105" s="20"/>
     </row>
     <row r="106">
-      <c r="C106" s="25"/>
-      <c r="D106" s="27"/>
+      <c r="C106" s="19"/>
+      <c r="D106" s="20"/>
     </row>
     <row r="107">
-      <c r="C107" s="25"/>
-      <c r="D107" s="27"/>
+      <c r="C107" s="19"/>
+      <c r="D107" s="20"/>
     </row>
     <row r="108">
-      <c r="C108" s="25"/>
-      <c r="D108" s="27"/>
+      <c r="C108" s="19"/>
+      <c r="D108" s="20"/>
     </row>
     <row r="109">
-      <c r="C109" s="25"/>
-      <c r="D109" s="27"/>
+      <c r="C109" s="19"/>
+      <c r="D109" s="20"/>
     </row>
     <row r="110">
-      <c r="C110" s="25"/>
-      <c r="D110" s="27"/>
+      <c r="C110" s="19"/>
+      <c r="D110" s="20"/>
     </row>
     <row r="111">
-      <c r="C111" s="25"/>
-      <c r="D111" s="27"/>
+      <c r="C111" s="19"/>
+      <c r="D111" s="20"/>
     </row>
     <row r="112">
-      <c r="C112" s="25"/>
-      <c r="D112" s="27"/>
+      <c r="C112" s="19"/>
+      <c r="D112" s="20"/>
     </row>
     <row r="113">
-      <c r="C113" s="25"/>
-      <c r="D113" s="27"/>
+      <c r="C113" s="19"/>
+      <c r="D113" s="20"/>
     </row>
     <row r="114">
-      <c r="C114" s="25"/>
-      <c r="D114" s="27"/>
+      <c r="C114" s="19"/>
+      <c r="D114" s="20"/>
     </row>
     <row r="115">
-      <c r="C115" s="25"/>
-      <c r="D115" s="27"/>
+      <c r="C115" s="19"/>
+      <c r="D115" s="20"/>
     </row>
     <row r="116">
-      <c r="C116" s="25"/>
-      <c r="D116" s="27"/>
+      <c r="C116" s="19"/>
+      <c r="D116" s="20"/>
     </row>
     <row r="117">
-      <c r="C117" s="25"/>
-      <c r="D117" s="27"/>
+      <c r="C117" s="19"/>
+      <c r="D117" s="20"/>
     </row>
     <row r="118">
-      <c r="C118" s="25"/>
-      <c r="D118" s="27"/>
+      <c r="C118" s="19"/>
+      <c r="D118" s="20"/>
     </row>
     <row r="119">
-      <c r="C119" s="25"/>
-      <c r="D119" s="27"/>
+      <c r="C119" s="19"/>
+      <c r="D119" s="20"/>
     </row>
     <row r="120">
-      <c r="C120" s="25"/>
-      <c r="D120" s="27"/>
+      <c r="C120" s="19"/>
+      <c r="D120" s="20"/>
     </row>
     <row r="121">
-      <c r="C121" s="25"/>
-      <c r="D121" s="27"/>
+      <c r="C121" s="19"/>
+      <c r="D121" s="20"/>
     </row>
     <row r="122">
-      <c r="C122" s="25"/>
-      <c r="D122" s="27"/>
+      <c r="C122" s="19"/>
+      <c r="D122" s="20"/>
     </row>
     <row r="123">
-      <c r="C123" s="25"/>
-      <c r="D123" s="27"/>
+      <c r="C123" s="19"/>
+      <c r="D123" s="20"/>
     </row>
     <row r="124">
-      <c r="C124" s="25"/>
-      <c r="D124" s="27"/>
+      <c r="C124" s="19"/>
+      <c r="D124" s="20"/>
     </row>
     <row r="125">
-      <c r="C125" s="25"/>
-      <c r="D125" s="27"/>
+      <c r="C125" s="19"/>
+      <c r="D125" s="20"/>
     </row>
     <row r="126">
-      <c r="C126" s="25"/>
-      <c r="D126" s="27"/>
+      <c r="C126" s="19"/>
+      <c r="D126" s="20"/>
     </row>
     <row r="127">
-      <c r="C127" s="25"/>
-      <c r="D127" s="27"/>
+      <c r="C127" s="19"/>
+      <c r="D127" s="20"/>
     </row>
     <row r="128">
-      <c r="C128" s="25"/>
-      <c r="D128" s="27"/>
+      <c r="C128" s="19"/>
+      <c r="D128" s="20"/>
     </row>
     <row r="129">
-      <c r="C129" s="25"/>
-      <c r="D129" s="27"/>
+      <c r="C129" s="19"/>
+      <c r="D129" s="20"/>
     </row>
     <row r="130">
-      <c r="C130" s="25"/>
-      <c r="D130" s="27"/>
+      <c r="C130" s="19"/>
+      <c r="D130" s="20"/>
     </row>
     <row r="131">
-      <c r="C131" s="25"/>
-      <c r="D131" s="27"/>
+      <c r="C131" s="19"/>
+      <c r="D131" s="20"/>
     </row>
     <row r="132">
-      <c r="C132" s="25"/>
-      <c r="D132" s="27"/>
+      <c r="C132" s="19"/>
+      <c r="D132" s="20"/>
     </row>
     <row r="133">
-      <c r="C133" s="25"/>
-      <c r="D133" s="27"/>
+      <c r="C133" s="19"/>
+      <c r="D133" s="20"/>
     </row>
     <row r="134">
-      <c r="C134" s="25"/>
-      <c r="D134" s="27"/>
+      <c r="C134" s="19"/>
+      <c r="D134" s="20"/>
     </row>
     <row r="135">
-      <c r="C135" s="25"/>
-      <c r="D135" s="27"/>
+      <c r="C135" s="19"/>
+      <c r="D135" s="20"/>
     </row>
     <row r="136">
-      <c r="C136" s="25"/>
-      <c r="D136" s="27"/>
+      <c r="C136" s="19"/>
+      <c r="D136" s="20"/>
     </row>
     <row r="137">
-      <c r="C137" s="25"/>
-      <c r="D137" s="27"/>
+      <c r="C137" s="19"/>
+      <c r="D137" s="20"/>
     </row>
     <row r="138">
-      <c r="C138" s="25"/>
-      <c r="D138" s="27"/>
+      <c r="C138" s="19"/>
+      <c r="D138" s="20"/>
     </row>
     <row r="139">
-      <c r="C139" s="25"/>
-      <c r="D139" s="27"/>
+      <c r="C139" s="19"/>
+      <c r="D139" s="20"/>
     </row>
     <row r="140">
-      <c r="C140" s="25"/>
-      <c r="D140" s="27"/>
+      <c r="C140" s="19"/>
+      <c r="D140" s="20"/>
     </row>
     <row r="141">
-      <c r="C141" s="25"/>
-      <c r="D141" s="27"/>
+      <c r="C141" s="19"/>
+      <c r="D141" s="20"/>
     </row>
     <row r="142">
-      <c r="C142" s="25"/>
-      <c r="D142" s="27"/>
+      <c r="C142" s="19"/>
+      <c r="D142" s="20"/>
     </row>
     <row r="143">
-      <c r="C143" s="25"/>
-      <c r="D143" s="27"/>
+      <c r="C143" s="19"/>
+      <c r="D143" s="20"/>
     </row>
     <row r="144">
-      <c r="C144" s="25"/>
-      <c r="D144" s="27"/>
+      <c r="C144" s="19"/>
+      <c r="D144" s="20"/>
     </row>
     <row r="145">
-      <c r="C145" s="25"/>
-      <c r="D145" s="27"/>
+      <c r="C145" s="19"/>
+      <c r="D145" s="20"/>
     </row>
     <row r="146">
-      <c r="C146" s="25"/>
-      <c r="D146" s="27"/>
+      <c r="C146" s="19"/>
+      <c r="D146" s="20"/>
     </row>
     <row r="147">
-      <c r="C147" s="25"/>
-      <c r="D147" s="27"/>
+      <c r="C147" s="19"/>
+      <c r="D147" s="20"/>
     </row>
     <row r="148">
-      <c r="C148" s="25"/>
-      <c r="D148" s="27"/>
+      <c r="C148" s="19"/>
+      <c r="D148" s="20"/>
     </row>
     <row r="149">
-      <c r="C149" s="25"/>
-      <c r="D149" s="27"/>
+      <c r="C149" s="19"/>
+      <c r="D149" s="20"/>
     </row>
     <row r="150">
-      <c r="C150" s="25"/>
-      <c r="D150" s="27"/>
+      <c r="C150" s="19"/>
+      <c r="D150" s="20"/>
     </row>
     <row r="151">
-      <c r="C151" s="25"/>
-      <c r="D151" s="27"/>
+      <c r="C151" s="19"/>
+      <c r="D151" s="20"/>
     </row>
     <row r="152">
-      <c r="C152" s="25"/>
-      <c r="D152" s="27"/>
+      <c r="C152" s="19"/>
+      <c r="D152" s="20"/>
     </row>
     <row r="153">
-      <c r="C153" s="25"/>
-      <c r="D153" s="27"/>
+      <c r="C153" s="19"/>
+      <c r="D153" s="20"/>
     </row>
     <row r="154">
-      <c r="C154" s="25"/>
-      <c r="D154" s="27"/>
+      <c r="C154" s="19"/>
+      <c r="D154" s="20"/>
     </row>
     <row r="155">
-      <c r="C155" s="25"/>
-      <c r="D155" s="27"/>
+      <c r="C155" s="19"/>
+      <c r="D155" s="20"/>
     </row>
     <row r="156">
-      <c r="C156" s="25"/>
-      <c r="D156" s="27"/>
+      <c r="C156" s="19"/>
+      <c r="D156" s="20"/>
     </row>
     <row r="157">
-      <c r="C157" s="25"/>
-      <c r="D157" s="27"/>
+      <c r="C157" s="19"/>
+      <c r="D157" s="20"/>
     </row>
     <row r="158">
-      <c r="C158" s="25"/>
-      <c r="D158" s="27"/>
+      <c r="C158" s="19"/>
+      <c r="D158" s="20"/>
     </row>
     <row r="159">
-      <c r="C159" s="25"/>
-      <c r="D159" s="27"/>
+      <c r="C159" s="19"/>
+      <c r="D159" s="20"/>
     </row>
     <row r="160">
-      <c r="C160" s="25"/>
-      <c r="D160" s="27"/>
+      <c r="C160" s="19"/>
+      <c r="D160" s="20"/>
     </row>
     <row r="161">
-      <c r="C161" s="25"/>
-      <c r="D161" s="27"/>
+      <c r="C161" s="19"/>
+      <c r="D161" s="20"/>
     </row>
     <row r="162">
-      <c r="C162" s="25"/>
-      <c r="D162" s="27"/>
+      <c r="C162" s="19"/>
+      <c r="D162" s="20"/>
     </row>
     <row r="163">
-      <c r="C163" s="25"/>
-      <c r="D163" s="27"/>
+      <c r="C163" s="19"/>
+      <c r="D163" s="20"/>
     </row>
     <row r="164">
-      <c r="C164" s="25"/>
-      <c r="D164" s="27"/>
+      <c r="C164" s="19"/>
+      <c r="D164" s="20"/>
     </row>
     <row r="165">
-      <c r="C165" s="25"/>
-      <c r="D165" s="27"/>
+      <c r="C165" s="19"/>
+      <c r="D165" s="20"/>
     </row>
     <row r="166">
-      <c r="C166" s="25"/>
-      <c r="D166" s="27"/>
+      <c r="C166" s="19"/>
+      <c r="D166" s="20"/>
     </row>
     <row r="167">
-      <c r="C167" s="25"/>
-      <c r="D167" s="27"/>
+      <c r="C167" s="19"/>
+      <c r="D167" s="20"/>
     </row>
     <row r="168">
-      <c r="C168" s="25"/>
-      <c r="D168" s="27"/>
+      <c r="C168" s="19"/>
+      <c r="D168" s="20"/>
     </row>
     <row r="169">
-      <c r="C169" s="25"/>
-      <c r="D169" s="27"/>
+      <c r="C169" s="19"/>
+      <c r="D169" s="20"/>
     </row>
     <row r="170">
-      <c r="C170" s="25"/>
-      <c r="D170" s="27"/>
+      <c r="C170" s="19"/>
+      <c r="D170" s="20"/>
     </row>
     <row r="171">
-      <c r="C171" s="25"/>
-      <c r="D171" s="27"/>
+      <c r="C171" s="19"/>
+      <c r="D171" s="20"/>
     </row>
     <row r="172">
-      <c r="C172" s="25"/>
-      <c r="D172" s="27"/>
+      <c r="C172" s="19"/>
+      <c r="D172" s="20"/>
     </row>
     <row r="173">
-      <c r="C173" s="25"/>
-      <c r="D173" s="27"/>
+      <c r="C173" s="19"/>
+      <c r="D173" s="20"/>
     </row>
     <row r="174">
-      <c r="C174" s="25"/>
-      <c r="D174" s="27"/>
+      <c r="C174" s="19"/>
+      <c r="D174" s="20"/>
     </row>
     <row r="175">
-      <c r="C175" s="25"/>
-      <c r="D175" s="27"/>
+      <c r="C175" s="19"/>
+      <c r="D175" s="20"/>
     </row>
     <row r="176">
-      <c r="C176" s="25"/>
-      <c r="D176" s="27"/>
+      <c r="C176" s="19"/>
+      <c r="D176" s="20"/>
     </row>
     <row r="177">
-      <c r="C177" s="25"/>
-      <c r="D177" s="27"/>
+      <c r="C177" s="19"/>
+      <c r="D177" s="20"/>
     </row>
     <row r="178">
-      <c r="C178" s="25"/>
-      <c r="D178" s="27"/>
+      <c r="C178" s="19"/>
+      <c r="D178" s="20"/>
     </row>
     <row r="179">
-      <c r="C179" s="25"/>
-      <c r="D179" s="27"/>
+      <c r="C179" s="19"/>
+      <c r="D179" s="20"/>
     </row>
     <row r="180">
-      <c r="C180" s="25"/>
-      <c r="D180" s="27"/>
+      <c r="C180" s="19"/>
+      <c r="D180" s="20"/>
     </row>
     <row r="181">
-      <c r="C181" s="25"/>
-      <c r="D181" s="27"/>
+      <c r="C181" s="19"/>
+      <c r="D181" s="20"/>
     </row>
     <row r="182">
-      <c r="C182" s="25"/>
-      <c r="D182" s="27"/>
+      <c r="C182" s="19"/>
+      <c r="D182" s="20"/>
     </row>
     <row r="183">
-      <c r="C183" s="25"/>
-      <c r="D183" s="27"/>
+      <c r="C183" s="19"/>
+      <c r="D183" s="20"/>
     </row>
     <row r="184">
-      <c r="C184" s="25"/>
-      <c r="D184" s="27"/>
+      <c r="C184" s="19"/>
+      <c r="D184" s="20"/>
     </row>
     <row r="185">
-      <c r="C185" s="25"/>
-      <c r="D185" s="27"/>
+      <c r="C185" s="19"/>
+      <c r="D185" s="20"/>
     </row>
     <row r="186">
-      <c r="C186" s="25"/>
-      <c r="D186" s="27"/>
+      <c r="C186" s="19"/>
+      <c r="D186" s="20"/>
     </row>
     <row r="187">
-      <c r="C187" s="25"/>
-      <c r="D187" s="27"/>
+      <c r="C187" s="19"/>
+      <c r="D187" s="20"/>
     </row>
     <row r="188">
-      <c r="C188" s="25"/>
-      <c r="D188" s="27"/>
+      <c r="C188" s="19"/>
+      <c r="D188" s="20"/>
     </row>
     <row r="189">
-      <c r="C189" s="25"/>
-      <c r="D189" s="27"/>
+      <c r="C189" s="19"/>
+      <c r="D189" s="20"/>
     </row>
     <row r="190">
-      <c r="C190" s="25"/>
-      <c r="D190" s="27"/>
+      <c r="C190" s="19"/>
+      <c r="D190" s="20"/>
     </row>
     <row r="191">
-      <c r="C191" s="25"/>
-      <c r="D191" s="27"/>
+      <c r="C191" s="19"/>
+      <c r="D191" s="20"/>
     </row>
     <row r="192">
-      <c r="C192" s="25"/>
-      <c r="D192" s="27"/>
+      <c r="C192" s="19"/>
+      <c r="D192" s="20"/>
     </row>
     <row r="193">
-      <c r="C193" s="25"/>
-      <c r="D193" s="27"/>
+      <c r="C193" s="19"/>
+      <c r="D193" s="20"/>
     </row>
     <row r="194">
-      <c r="C194" s="25"/>
-      <c r="D194" s="27"/>
+      <c r="C194" s="19"/>
+      <c r="D194" s="20"/>
     </row>
     <row r="195">
-      <c r="C195" s="25"/>
-      <c r="D195" s="27"/>
+      <c r="C195" s="19"/>
+      <c r="D195" s="20"/>
     </row>
     <row r="196">
-      <c r="C196" s="25"/>
-      <c r="D196" s="27"/>
+      <c r="C196" s="19"/>
+      <c r="D196" s="20"/>
     </row>
     <row r="197">
-      <c r="C197" s="25"/>
-      <c r="D197" s="27"/>
+      <c r="C197" s="19"/>
+      <c r="D197" s="20"/>
     </row>
     <row r="198">
-      <c r="C198" s="25"/>
-      <c r="D198" s="27"/>
+      <c r="C198" s="19"/>
+      <c r="D198" s="20"/>
     </row>
     <row r="199">
-      <c r="C199" s="25"/>
-      <c r="D199" s="27"/>
+      <c r="C199" s="19"/>
+      <c r="D199" s="20"/>
     </row>
     <row r="200">
-      <c r="C200" s="25"/>
-      <c r="D200" s="27"/>
+      <c r="C200" s="19"/>
+      <c r="D200" s="20"/>
     </row>
     <row r="201">
-      <c r="C201" s="25"/>
-      <c r="D201" s="27"/>
+      <c r="C201" s="19"/>
+      <c r="D201" s="20"/>
     </row>
     <row r="202">
-      <c r="C202" s="25"/>
-      <c r="D202" s="27"/>
+      <c r="C202" s="19"/>
+      <c r="D202" s="20"/>
     </row>
     <row r="203">
-      <c r="C203" s="25"/>
-      <c r="D203" s="27"/>
+      <c r="C203" s="19"/>
+      <c r="D203" s="20"/>
     </row>
     <row r="204">
-      <c r="C204" s="25"/>
-      <c r="D204" s="27"/>
+      <c r="C204" s="19"/>
+      <c r="D204" s="20"/>
     </row>
     <row r="205">
-      <c r="C205" s="25"/>
-      <c r="D205" s="27"/>
+      <c r="C205" s="19"/>
+      <c r="D205" s="20"/>
     </row>
     <row r="206">
-      <c r="C206" s="25"/>
-      <c r="D206" s="27"/>
+      <c r="C206" s="19"/>
+      <c r="D206" s="20"/>
     </row>
     <row r="207">
-      <c r="C207" s="25"/>
-      <c r="D207" s="27"/>
+      <c r="C207" s="19"/>
+      <c r="D207" s="20"/>
     </row>
     <row r="208">
-      <c r="C208" s="25"/>
-      <c r="D208" s="27"/>
+      <c r="C208" s="19"/>
+      <c r="D208" s="20"/>
     </row>
     <row r="209">
-      <c r="C209" s="25"/>
-      <c r="D209" s="27"/>
+      <c r="C209" s="19"/>
+      <c r="D209" s="20"/>
     </row>
     <row r="210">
-      <c r="C210" s="25"/>
-      <c r="D210" s="27"/>
+      <c r="C210" s="19"/>
+      <c r="D210" s="20"/>
     </row>
     <row r="211">
-      <c r="C211" s="25"/>
-      <c r="D211" s="27"/>
+      <c r="C211" s="19"/>
+      <c r="D211" s="20"/>
     </row>
     <row r="212">
-      <c r="C212" s="25"/>
-      <c r="D212" s="27"/>
+      <c r="C212" s="19"/>
+      <c r="D212" s="20"/>
     </row>
     <row r="213">
-      <c r="C213" s="25"/>
-      <c r="D213" s="27"/>
+      <c r="C213" s="19"/>
+      <c r="D213" s="20"/>
     </row>
     <row r="214">
-      <c r="C214" s="25"/>
-      <c r="D214" s="27"/>
+      <c r="C214" s="19"/>
+      <c r="D214" s="20"/>
     </row>
     <row r="215">
-      <c r="C215" s="25"/>
-      <c r="D215" s="27"/>
+      <c r="C215" s="19"/>
+      <c r="D215" s="20"/>
     </row>
     <row r="216">
-      <c r="C216" s="25"/>
-      <c r="D216" s="27"/>
+      <c r="C216" s="19"/>
+      <c r="D216" s="20"/>
     </row>
     <row r="217">
-      <c r="C217" s="25"/>
-      <c r="D217" s="27"/>
+      <c r="C217" s="19"/>
+      <c r="D217" s="20"/>
     </row>
     <row r="218">
-      <c r="C218" s="25"/>
-      <c r="D218" s="27"/>
+      <c r="C218" s="19"/>
+      <c r="D218" s="20"/>
     </row>
     <row r="219">
-      <c r="C219" s="25"/>
-      <c r="D219" s="27"/>
+      <c r="C219" s="19"/>
+      <c r="D219" s="20"/>
     </row>
     <row r="220">
-      <c r="C220" s="25"/>
-      <c r="D220" s="27"/>
+      <c r="C220" s="19"/>
+      <c r="D220" s="20"/>
     </row>
     <row r="221">
-      <c r="C221" s="25"/>
-      <c r="D221" s="27"/>
+      <c r="C221" s="19"/>
+      <c r="D221" s="20"/>
     </row>
     <row r="222">
-      <c r="C222" s="25"/>
-      <c r="D222" s="27"/>
+      <c r="C222" s="19"/>
+      <c r="D222" s="20"/>
     </row>
     <row r="223">
-      <c r="C223" s="25"/>
-      <c r="D223" s="27"/>
+      <c r="C223" s="19"/>
+      <c r="D223" s="20"/>
     </row>
     <row r="224">
-      <c r="C224" s="25"/>
-      <c r="D224" s="27"/>
+      <c r="C224" s="19"/>
+      <c r="D224" s="20"/>
     </row>
     <row r="225">
-      <c r="C225" s="25"/>
-      <c r="D225" s="27"/>
+      <c r="C225" s="19"/>
+      <c r="D225" s="20"/>
     </row>
     <row r="226">
-      <c r="C226" s="25"/>
-      <c r="D226" s="27"/>
+      <c r="C226" s="19"/>
+      <c r="D226" s="20"/>
     </row>
     <row r="227">
-      <c r="C227" s="25"/>
-      <c r="D227" s="27"/>
+      <c r="C227" s="19"/>
+      <c r="D227" s="20"/>
     </row>
     <row r="228">
-      <c r="C228" s="25"/>
-      <c r="D228" s="27"/>
+      <c r="C228" s="19"/>
+      <c r="D228" s="20"/>
     </row>
     <row r="229">
-      <c r="C229" s="25"/>
-      <c r="D229" s="27"/>
+      <c r="C229" s="19"/>
+      <c r="D229" s="20"/>
     </row>
     <row r="230">
-      <c r="C230" s="25"/>
-      <c r="D230" s="27"/>
+      <c r="C230" s="19"/>
+      <c r="D230" s="20"/>
     </row>
     <row r="231">
-      <c r="C231" s="25"/>
-      <c r="D231" s="27"/>
+      <c r="C231" s="19"/>
+      <c r="D231" s="20"/>
     </row>
     <row r="232">
-      <c r="C232" s="25"/>
-      <c r="D232" s="27"/>
+      <c r="C232" s="19"/>
+      <c r="D232" s="20"/>
     </row>
     <row r="233">
-      <c r="C233" s="25"/>
-      <c r="D233" s="27"/>
+      <c r="C233" s="19"/>
+      <c r="D233" s="20"/>
     </row>
     <row r="234">
-      <c r="C234" s="25"/>
-      <c r="D234" s="27"/>
+      <c r="C234" s="19"/>
+      <c r="D234" s="20"/>
     </row>
     <row r="235">
-      <c r="C235" s="25"/>
-      <c r="D235" s="27"/>
+      <c r="C235" s="19"/>
+      <c r="D235" s="20"/>
     </row>
     <row r="236">
-      <c r="C236" s="25"/>
-      <c r="D236" s="27"/>
+      <c r="C236" s="19"/>
+      <c r="D236" s="20"/>
     </row>
     <row r="237">
-      <c r="C237" s="25"/>
-      <c r="D237" s="27"/>
+      <c r="C237" s="19"/>
+      <c r="D237" s="20"/>
     </row>
     <row r="238">
-      <c r="C238" s="25"/>
-      <c r="D238" s="27"/>
+      <c r="C238" s="19"/>
+      <c r="D238" s="20"/>
     </row>
     <row r="239">
-      <c r="C239" s="25"/>
-      <c r="D239" s="27"/>
+      <c r="C239" s="19"/>
+      <c r="D239" s="20"/>
     </row>
     <row r="240">
-      <c r="C240" s="25"/>
-      <c r="D240" s="27"/>
+      <c r="C240" s="19"/>
+      <c r="D240" s="20"/>
     </row>
     <row r="241">
-      <c r="C241" s="25"/>
-      <c r="D241" s="27"/>
+      <c r="C241" s="19"/>
+      <c r="D241" s="20"/>
     </row>
     <row r="242">
-      <c r="C242" s="25"/>
-      <c r="D242" s="27"/>
+      <c r="C242" s="19"/>
+      <c r="D242" s="20"/>
     </row>
     <row r="243">
-      <c r="C243" s="25"/>
-      <c r="D243" s="27"/>
+      <c r="C243" s="19"/>
+      <c r="D243" s="20"/>
     </row>
     <row r="244">
-      <c r="C244" s="25"/>
-      <c r="D244" s="27"/>
+      <c r="C244" s="19"/>
+      <c r="D244" s="20"/>
     </row>
     <row r="245">
-      <c r="C245" s="25"/>
-      <c r="D245" s="27"/>
+      <c r="C245" s="19"/>
+      <c r="D245" s="20"/>
     </row>
     <row r="246">
-      <c r="C246" s="25"/>
-      <c r="D246" s="27"/>
+      <c r="C246" s="19"/>
+      <c r="D246" s="20"/>
     </row>
     <row r="247">
-      <c r="C247" s="25"/>
-      <c r="D247" s="27"/>
+      <c r="C247" s="19"/>
+      <c r="D247" s="20"/>
     </row>
     <row r="248">
-      <c r="C248" s="25"/>
-      <c r="D248" s="27"/>
+      <c r="C248" s="19"/>
+      <c r="D248" s="20"/>
     </row>
     <row r="249">
-      <c r="C249" s="25"/>
-      <c r="D249" s="27"/>
+      <c r="C249" s="19"/>
+      <c r="D249" s="20"/>
     </row>
     <row r="250">
-      <c r="C250" s="25"/>
-      <c r="D250" s="27"/>
+      <c r="C250" s="19"/>
+      <c r="D250" s="20"/>
     </row>
     <row r="251">
-      <c r="C251" s="25"/>
-      <c r="D251" s="27"/>
+      <c r="C251" s="19"/>
+      <c r="D251" s="20"/>
     </row>
     <row r="252">
-      <c r="C252" s="25"/>
-      <c r="D252" s="27"/>
+      <c r="C252" s="19"/>
+      <c r="D252" s="20"/>
     </row>
     <row r="253">
-      <c r="C253" s="25"/>
-      <c r="D253" s="27"/>
+      <c r="C253" s="19"/>
+      <c r="D253" s="20"/>
     </row>
     <row r="254">
-      <c r="C254" s="25"/>
-      <c r="D254" s="27"/>
+      <c r="C254" s="19"/>
+      <c r="D254" s="20"/>
     </row>
     <row r="255">
-      <c r="C255" s="25"/>
-      <c r="D255" s="27"/>
+      <c r="C255" s="19"/>
+      <c r="D255" s="20"/>
     </row>
     <row r="256">
-      <c r="C256" s="25"/>
-      <c r="D256" s="27"/>
+      <c r="C256" s="19"/>
+      <c r="D256" s="20"/>
     </row>
     <row r="257">
-      <c r="C257" s="25"/>
-      <c r="D257" s="27"/>
+      <c r="C257" s="19"/>
+      <c r="D257" s="20"/>
     </row>
     <row r="258">
-      <c r="C258" s="25"/>
-      <c r="D258" s="27"/>
+      <c r="C258" s="19"/>
+      <c r="D258" s="20"/>
     </row>
     <row r="259">
-      <c r="C259" s="25"/>
-      <c r="D259" s="27"/>
+      <c r="C259" s="19"/>
+      <c r="D259" s="20"/>
     </row>
     <row r="260">
-      <c r="C260" s="25"/>
-      <c r="D260" s="27"/>
+      <c r="C260" s="19"/>
+      <c r="D260" s="20"/>
     </row>
     <row r="261">
-      <c r="C261" s="25"/>
-      <c r="D261" s="27"/>
+      <c r="C261" s="19"/>
+      <c r="D261" s="20"/>
     </row>
     <row r="262">
-      <c r="C262" s="25"/>
-      <c r="D262" s="27"/>
+      <c r="C262" s="19"/>
+      <c r="D262" s="20"/>
     </row>
     <row r="263">
-      <c r="C263" s="25"/>
-      <c r="D263" s="27"/>
+      <c r="C263" s="19"/>
+      <c r="D263" s="20"/>
     </row>
     <row r="264">
-      <c r="C264" s="25"/>
-      <c r="D264" s="27"/>
+      <c r="C264" s="19"/>
+      <c r="D264" s="20"/>
     </row>
     <row r="265">
-      <c r="C265" s="25"/>
-      <c r="D265" s="27"/>
+      <c r="C265" s="19"/>
+      <c r="D265" s="20"/>
     </row>
     <row r="266">
-      <c r="C266" s="25"/>
-      <c r="D266" s="27"/>
+      <c r="C266" s="19"/>
+      <c r="D266" s="20"/>
     </row>
     <row r="267">
-      <c r="C267" s="25"/>
-      <c r="D267" s="27"/>
+      <c r="C267" s="19"/>
+      <c r="D267" s="20"/>
     </row>
     <row r="268">
-      <c r="C268" s="25"/>
-      <c r="D268" s="27"/>
+      <c r="C268" s="19"/>
+      <c r="D268" s="20"/>
     </row>
     <row r="269">
-      <c r="C269" s="25"/>
-      <c r="D269" s="27"/>
+      <c r="C269" s="19"/>
+      <c r="D269" s="20"/>
     </row>
     <row r="270">
-      <c r="C270" s="25"/>
-      <c r="D270" s="27"/>
+      <c r="C270" s="19"/>
+      <c r="D270" s="20"/>
     </row>
     <row r="271">
-      <c r="C271" s="25"/>
-      <c r="D271" s="27"/>
+      <c r="C271" s="19"/>
+      <c r="D271" s="20"/>
     </row>
     <row r="272">
-      <c r="C272" s="25"/>
-      <c r="D272" s="27"/>
+      <c r="C272" s="19"/>
+      <c r="D272" s="20"/>
     </row>
     <row r="273">
-      <c r="C273" s="25"/>
-      <c r="D273" s="27"/>
+      <c r="C273" s="19"/>
+      <c r="D273" s="20"/>
     </row>
     <row r="274">
-      <c r="C274" s="25"/>
-      <c r="D274" s="27"/>
+      <c r="C274" s="19"/>
+      <c r="D274" s="20"/>
     </row>
     <row r="275">
-      <c r="C275" s="25"/>
-      <c r="D275" s="27"/>
+      <c r="C275" s="19"/>
+      <c r="D275" s="20"/>
     </row>
     <row r="276">
-      <c r="C276" s="25"/>
-      <c r="D276" s="27"/>
+      <c r="C276" s="19"/>
+      <c r="D276" s="20"/>
     </row>
     <row r="277">
-      <c r="C277" s="25"/>
-      <c r="D277" s="27"/>
+      <c r="C277" s="19"/>
+      <c r="D277" s="20"/>
     </row>
     <row r="278">
-      <c r="C278" s="25"/>
-      <c r="D278" s="27"/>
+      <c r="C278" s="19"/>
+      <c r="D278" s="20"/>
     </row>
     <row r="279">
-      <c r="C279" s="25"/>
-      <c r="D279" s="27"/>
+      <c r="C279" s="19"/>
+      <c r="D279" s="20"/>
     </row>
     <row r="280">
-      <c r="C280" s="25"/>
-      <c r="D280" s="27"/>
+      <c r="C280" s="19"/>
+      <c r="D280" s="20"/>
     </row>
     <row r="281">
-      <c r="C281" s="25"/>
-      <c r="D281" s="27"/>
+      <c r="C281" s="19"/>
+      <c r="D281" s="20"/>
     </row>
     <row r="282">
-      <c r="C282" s="25"/>
-      <c r="D282" s="27"/>
+      <c r="C282" s="19"/>
+      <c r="D282" s="20"/>
     </row>
     <row r="283">
-      <c r="C283" s="25"/>
-      <c r="D283" s="27"/>
+      <c r="C283" s="19"/>
+      <c r="D283" s="20"/>
     </row>
     <row r="284">
-      <c r="C284" s="25"/>
-      <c r="D284" s="27"/>
+      <c r="C284" s="19"/>
+      <c r="D284" s="20"/>
     </row>
     <row r="285">
-      <c r="C285" s="25"/>
-      <c r="D285" s="27"/>
+      <c r="C285" s="19"/>
+      <c r="D285" s="20"/>
     </row>
     <row r="286">
-      <c r="C286" s="25"/>
-      <c r="D286" s="27"/>
+      <c r="C286" s="19"/>
+      <c r="D286" s="20"/>
     </row>
     <row r="287">
-      <c r="C287" s="25"/>
-      <c r="D287" s="27"/>
+      <c r="C287" s="19"/>
+      <c r="D287" s="20"/>
     </row>
     <row r="288">
-      <c r="C288" s="25"/>
-      <c r="D288" s="27"/>
+      <c r="C288" s="19"/>
+      <c r="D288" s="20"/>
     </row>
     <row r="289">
-      <c r="C289" s="25"/>
-      <c r="D289" s="27"/>
+      <c r="C289" s="19"/>
+      <c r="D289" s="20"/>
     </row>
     <row r="290">
-      <c r="C290" s="25"/>
-      <c r="D290" s="27"/>
+      <c r="C290" s="19"/>
+      <c r="D290" s="20"/>
     </row>
     <row r="291">
-      <c r="C291" s="25"/>
-      <c r="D291" s="27"/>
+      <c r="C291" s="19"/>
+      <c r="D291" s="20"/>
     </row>
     <row r="292">
-      <c r="C292" s="25"/>
-      <c r="D292" s="27"/>
+      <c r="C292" s="19"/>
+      <c r="D292" s="20"/>
     </row>
     <row r="293">
-      <c r="C293" s="25"/>
-      <c r="D293" s="27"/>
+      <c r="C293" s="19"/>
+      <c r="D293" s="20"/>
     </row>
     <row r="294">
-      <c r="C294" s="25"/>
-      <c r="D294" s="27"/>
+      <c r="C294" s="19"/>
+      <c r="D294" s="20"/>
     </row>
     <row r="295">
-      <c r="C295" s="25"/>
-      <c r="D295" s="27"/>
+      <c r="C295" s="19"/>
+      <c r="D295" s="20"/>
     </row>
     <row r="296">
-      <c r="C296" s="25"/>
-      <c r="D296" s="27"/>
+      <c r="C296" s="19"/>
+      <c r="D296" s="20"/>
     </row>
     <row r="297">
-      <c r="C297" s="25"/>
-      <c r="D297" s="27"/>
+      <c r="C297" s="19"/>
+      <c r="D297" s="20"/>
     </row>
     <row r="298">
-      <c r="C298" s="25"/>
-      <c r="D298" s="27"/>
+      <c r="C298" s="19"/>
+      <c r="D298" s="20"/>
     </row>
     <row r="299">
-      <c r="C299" s="25"/>
-      <c r="D299" s="27"/>
+      <c r="C299" s="19"/>
+      <c r="D299" s="20"/>
     </row>
     <row r="300">
-      <c r="C300" s="25"/>
-      <c r="D300" s="27"/>
+      <c r="C300" s="19"/>
+      <c r="D300" s="20"/>
     </row>
     <row r="301">
-      <c r="C301" s="25"/>
-      <c r="D301" s="27"/>
+      <c r="C301" s="19"/>
+      <c r="D301" s="20"/>
     </row>
     <row r="302">
-      <c r="C302" s="25"/>
-      <c r="D302" s="27"/>
+      <c r="C302" s="19"/>
+      <c r="D302" s="20"/>
     </row>
     <row r="303">
-      <c r="C303" s="25"/>
-      <c r="D303" s="27"/>
+      <c r="C303" s="19"/>
+      <c r="D303" s="20"/>
     </row>
     <row r="304">
-      <c r="C304" s="25"/>
-      <c r="D304" s="27"/>
+      <c r="C304" s="19"/>
+      <c r="D304" s="20"/>
     </row>
     <row r="305">
-      <c r="C305" s="25"/>
-      <c r="D305" s="27"/>
+      <c r="C305" s="19"/>
+      <c r="D305" s="20"/>
     </row>
     <row r="306">
-      <c r="C306" s="25"/>
-      <c r="D306" s="27"/>
+      <c r="C306" s="19"/>
+      <c r="D306" s="20"/>
     </row>
     <row r="307">
-      <c r="C307" s="25"/>
-      <c r="D307" s="27"/>
+      <c r="C307" s="19"/>
+      <c r="D307" s="20"/>
     </row>
     <row r="308">
-      <c r="C308" s="25"/>
-      <c r="D308" s="27"/>
+      <c r="C308" s="19"/>
+      <c r="D308" s="20"/>
     </row>
     <row r="309">
-      <c r="C309" s="25"/>
-      <c r="D309" s="27"/>
+      <c r="C309" s="19"/>
+      <c r="D309" s="20"/>
     </row>
     <row r="310">
-      <c r="C310" s="25"/>
-      <c r="D310" s="27"/>
+      <c r="C310" s="19"/>
+      <c r="D310" s="20"/>
     </row>
     <row r="311">
-      <c r="C311" s="25"/>
-      <c r="D311" s="27"/>
+      <c r="C311" s="19"/>
+      <c r="D311" s="20"/>
     </row>
     <row r="312">
-      <c r="C312" s="25"/>
-      <c r="D312" s="27"/>
+      <c r="C312" s="19"/>
+      <c r="D312" s="20"/>
     </row>
     <row r="313">
-      <c r="C313" s="25"/>
-      <c r="D313" s="27"/>
+      <c r="C313" s="19"/>
+      <c r="D313" s="20"/>
     </row>
     <row r="314">
-      <c r="C314" s="25"/>
-      <c r="D314" s="27"/>
+      <c r="C314" s="19"/>
+      <c r="D314" s="20"/>
     </row>
     <row r="315">
-      <c r="C315" s="25"/>
-      <c r="D315" s="27"/>
+      <c r="C315" s="19"/>
+      <c r="D315" s="20"/>
     </row>
     <row r="316">
-      <c r="C316" s="25"/>
-      <c r="D316" s="27"/>
+      <c r="C316" s="19"/>
+      <c r="D316" s="20"/>
     </row>
     <row r="317">
-      <c r="C317" s="25"/>
-      <c r="D317" s="27"/>
+      <c r="C317" s="19"/>
+      <c r="D317" s="20"/>
     </row>
     <row r="318">
-      <c r="C318" s="25"/>
-      <c r="D318" s="27"/>
+      <c r="C318" s="19"/>
+      <c r="D318" s="20"/>
     </row>
     <row r="319">
-      <c r="C319" s="25"/>
-      <c r="D319" s="27"/>
+      <c r="C319" s="19"/>
+      <c r="D319" s="20"/>
     </row>
     <row r="320">
-      <c r="C320" s="25"/>
-      <c r="D320" s="27"/>
+      <c r="C320" s="19"/>
+      <c r="D320" s="20"/>
     </row>
     <row r="321">
-      <c r="C321" s="25"/>
-      <c r="D321" s="27"/>
+      <c r="C321" s="19"/>
+      <c r="D321" s="20"/>
     </row>
     <row r="322">
-      <c r="C322" s="25"/>
-      <c r="D322" s="27"/>
+      <c r="C322" s="19"/>
+      <c r="D322" s="20"/>
     </row>
     <row r="323">
-      <c r="C323" s="25"/>
-      <c r="D323" s="27"/>
+      <c r="C323" s="19"/>
+      <c r="D323" s="20"/>
     </row>
     <row r="324">
-      <c r="C324" s="25"/>
-      <c r="D324" s="27"/>
+      <c r="C324" s="19"/>
+      <c r="D324" s="20"/>
     </row>
     <row r="325">
-      <c r="C325" s="25"/>
-      <c r="D325" s="27"/>
+      <c r="C325" s="19"/>
+      <c r="D325" s="20"/>
     </row>
     <row r="326">
-      <c r="C326" s="25"/>
-      <c r="D326" s="27"/>
+      <c r="C326" s="19"/>
+      <c r="D326" s="20"/>
     </row>
     <row r="327">
-      <c r="C327" s="25"/>
-      <c r="D327" s="27"/>
+      <c r="C327" s="19"/>
+      <c r="D327" s="20"/>
     </row>
     <row r="328">
-      <c r="C328" s="25"/>
-      <c r="D328" s="27"/>
+      <c r="C328" s="19"/>
+      <c r="D328" s="20"/>
     </row>
     <row r="329">
-      <c r="C329" s="25"/>
-      <c r="D329" s="27"/>
+      <c r="C329" s="19"/>
+      <c r="D329" s="20"/>
     </row>
     <row r="330">
-      <c r="C330" s="25"/>
-      <c r="D330" s="27"/>
+      <c r="C330" s="19"/>
+      <c r="D330" s="20"/>
     </row>
     <row r="331">
-      <c r="C331" s="25"/>
-      <c r="D331" s="27"/>
+      <c r="C331" s="19"/>
+      <c r="D331" s="20"/>
     </row>
     <row r="332">
-      <c r="C332" s="25"/>
-      <c r="D332" s="27"/>
+      <c r="C332" s="19"/>
+      <c r="D332" s="20"/>
     </row>
     <row r="333">
-      <c r="C333" s="25"/>
-      <c r="D333" s="27"/>
+      <c r="C333" s="19"/>
+      <c r="D333" s="20"/>
     </row>
     <row r="334">
-      <c r="C334" s="25"/>
-      <c r="D334" s="27"/>
+      <c r="C334" s="19"/>
+      <c r="D334" s="20"/>
     </row>
     <row r="335">
-      <c r="C335" s="25"/>
-      <c r="D335" s="27"/>
+      <c r="C335" s="19"/>
+      <c r="D335" s="20"/>
     </row>
     <row r="336">
-      <c r="C336" s="25"/>
-      <c r="D336" s="27"/>
+      <c r="C336" s="19"/>
+      <c r="D336" s="20"/>
     </row>
     <row r="337">
-      <c r="C337" s="25"/>
-      <c r="D337" s="27"/>
+      <c r="C337" s="19"/>
+      <c r="D337" s="20"/>
     </row>
     <row r="338">
-      <c r="C338" s="25"/>
-      <c r="D338" s="27"/>
+      <c r="C338" s="19"/>
+      <c r="D338" s="20"/>
     </row>
     <row r="339">
-      <c r="C339" s="25"/>
-      <c r="D339" s="27"/>
+      <c r="C339" s="19"/>
+      <c r="D339" s="20"/>
     </row>
     <row r="340">
-      <c r="C340" s="25"/>
-      <c r="D340" s="27"/>
+      <c r="C340" s="19"/>
+      <c r="D340" s="20"/>
     </row>
     <row r="341">
-      <c r="C341" s="25"/>
-      <c r="D341" s="27"/>
+      <c r="C341" s="19"/>
+      <c r="D341" s="20"/>
     </row>
     <row r="342">
-      <c r="C342" s="25"/>
-      <c r="D342" s="27"/>
+      <c r="C342" s="19"/>
+      <c r="D342" s="20"/>
     </row>
     <row r="343">
-      <c r="C343" s="25"/>
-      <c r="D343" s="27"/>
+      <c r="C343" s="19"/>
+      <c r="D343" s="20"/>
     </row>
     <row r="344">
-      <c r="C344" s="25"/>
-      <c r="D344" s="27"/>
+      <c r="C344" s="19"/>
+      <c r="D344" s="20"/>
     </row>
     <row r="345">
-      <c r="C345" s="25"/>
-      <c r="D345" s="27"/>
+      <c r="C345" s="19"/>
+      <c r="D345" s="20"/>
     </row>
     <row r="346">
-      <c r="C346" s="25"/>
-      <c r="D346" s="27"/>
+      <c r="C346" s="19"/>
+      <c r="D346" s="20"/>
     </row>
     <row r="347">
-      <c r="C347" s="25"/>
-      <c r="D347" s="27"/>
+      <c r="C347" s="19"/>
+      <c r="D347" s="20"/>
     </row>
     <row r="348">
-      <c r="C348" s="25"/>
-      <c r="D348" s="27"/>
+      <c r="C348" s="19"/>
+      <c r="D348" s="20"/>
     </row>
     <row r="349">
-      <c r="C349" s="25"/>
-      <c r="D349" s="27"/>
+      <c r="C349" s="19"/>
+      <c r="D349" s="20"/>
     </row>
     <row r="350">
-      <c r="C350" s="25"/>
-      <c r="D350" s="27"/>
+      <c r="C350" s="19"/>
+      <c r="D350" s="20"/>
     </row>
     <row r="351">
-      <c r="C351" s="25"/>
-      <c r="D351" s="27"/>
+      <c r="C351" s="19"/>
+      <c r="D351" s="20"/>
     </row>
     <row r="352">
-      <c r="C352" s="25"/>
-      <c r="D352" s="27"/>
+      <c r="C352" s="19"/>
+      <c r="D352" s="20"/>
     </row>
     <row r="353">
-      <c r="C353" s="25"/>
-      <c r="D353" s="27"/>
+      <c r="C353" s="19"/>
+      <c r="D353" s="20"/>
     </row>
     <row r="354">
-      <c r="C354" s="25"/>
-      <c r="D354" s="27"/>
+      <c r="C354" s="19"/>
+      <c r="D354" s="20"/>
     </row>
     <row r="355">
-      <c r="C355" s="25"/>
-      <c r="D355" s="27"/>
+      <c r="C355" s="19"/>
+      <c r="D355" s="20"/>
     </row>
     <row r="356">
-      <c r="C356" s="25"/>
-      <c r="D356" s="27"/>
+      <c r="C356" s="19"/>
+      <c r="D356" s="20"/>
     </row>
     <row r="357">
-      <c r="C357" s="25"/>
-      <c r="D357" s="27"/>
+      <c r="C357" s="19"/>
+      <c r="D357" s="20"/>
     </row>
     <row r="358">
-      <c r="C358" s="25"/>
-      <c r="D358" s="27"/>
+      <c r="C358" s="19"/>
+      <c r="D358" s="20"/>
     </row>
     <row r="359">
-      <c r="C359" s="25"/>
-      <c r="D359" s="27"/>
+      <c r="C359" s="19"/>
+      <c r="D359" s="20"/>
     </row>
     <row r="360">
-      <c r="C360" s="25"/>
-      <c r="D360" s="27"/>
+      <c r="C360" s="19"/>
+      <c r="D360" s="20"/>
     </row>
     <row r="361">
-      <c r="C361" s="25"/>
-      <c r="D361" s="27"/>
+      <c r="C361" s="19"/>
+      <c r="D361" s="20"/>
     </row>
     <row r="362">
-      <c r="C362" s="25"/>
-      <c r="D362" s="27"/>
+      <c r="C362" s="19"/>
+      <c r="D362" s="20"/>
     </row>
     <row r="363">
-      <c r="C363" s="25"/>
-      <c r="D363" s="27"/>
+      <c r="C363" s="19"/>
+      <c r="D363" s="20"/>
     </row>
     <row r="364">
-      <c r="C364" s="25"/>
-      <c r="D364" s="27"/>
+      <c r="C364" s="19"/>
+      <c r="D364" s="20"/>
     </row>
     <row r="365">
-      <c r="C365" s="25"/>
-      <c r="D365" s="27"/>
+      <c r="C365" s="19"/>
+      <c r="D365" s="20"/>
     </row>
     <row r="366">
-      <c r="C366" s="25"/>
-      <c r="D366" s="27"/>
+      <c r="C366" s="19"/>
+      <c r="D366" s="20"/>
     </row>
     <row r="367">
-      <c r="C367" s="25"/>
-      <c r="D367" s="27"/>
+      <c r="C367" s="19"/>
+      <c r="D367" s="20"/>
     </row>
     <row r="368">
-      <c r="C368" s="25"/>
-      <c r="D368" s="27"/>
+      <c r="C368" s="19"/>
+      <c r="D368" s="20"/>
     </row>
     <row r="369">
-      <c r="C369" s="25"/>
-      <c r="D369" s="27"/>
+      <c r="C369" s="19"/>
+      <c r="D369" s="20"/>
     </row>
     <row r="370">
-      <c r="C370" s="25"/>
-      <c r="D370" s="27"/>
+      <c r="C370" s="19"/>
+      <c r="D370" s="20"/>
     </row>
     <row r="371">
-      <c r="C371" s="25"/>
-      <c r="D371" s="27"/>
+      <c r="C371" s="19"/>
+      <c r="D371" s="20"/>
     </row>
     <row r="372">
-      <c r="C372" s="25"/>
-      <c r="D372" s="27"/>
+      <c r="C372" s="19"/>
+      <c r="D372" s="20"/>
     </row>
     <row r="373">
-      <c r="C373" s="25"/>
-      <c r="D373" s="27"/>
+      <c r="C373" s="19"/>
+      <c r="D373" s="20"/>
     </row>
     <row r="374">
-      <c r="C374" s="25"/>
-      <c r="D374" s="27"/>
+      <c r="C374" s="19"/>
+      <c r="D374" s="20"/>
     </row>
     <row r="375">
-      <c r="C375" s="25"/>
-      <c r="D375" s="27"/>
+      <c r="C375" s="19"/>
+      <c r="D375" s="20"/>
     </row>
     <row r="376">
-      <c r="C376" s="25"/>
-      <c r="D376" s="27"/>
+      <c r="C376" s="19"/>
+      <c r="D376" s="20"/>
     </row>
     <row r="377">
-      <c r="C377" s="25"/>
-      <c r="D377" s="27"/>
+      <c r="C377" s="19"/>
+      <c r="D377" s="20"/>
     </row>
     <row r="378">
-      <c r="C378" s="25"/>
-      <c r="D378" s="27"/>
+      <c r="C378" s="19"/>
+      <c r="D378" s="20"/>
     </row>
     <row r="379">
-      <c r="C379" s="25"/>
-      <c r="D379" s="27"/>
+      <c r="C379" s="19"/>
+      <c r="D379" s="20"/>
     </row>
     <row r="380">
-      <c r="C380" s="25"/>
-      <c r="D380" s="27"/>
+      <c r="C380" s="19"/>
+      <c r="D380" s="20"/>
     </row>
     <row r="381">
-      <c r="C381" s="25"/>
-      <c r="D381" s="27"/>
+      <c r="C381" s="19"/>
+      <c r="D381" s="20"/>
     </row>
     <row r="382">
-      <c r="C382" s="25"/>
-      <c r="D382" s="27"/>
+      <c r="C382" s="19"/>
+      <c r="D382" s="20"/>
     </row>
     <row r="383">
-      <c r="C383" s="25"/>
-      <c r="D383" s="27"/>
+      <c r="C383" s="19"/>
+      <c r="D383" s="20"/>
     </row>
     <row r="384">
-      <c r="C384" s="25"/>
-      <c r="D384" s="27"/>
+      <c r="C384" s="19"/>
+      <c r="D384" s="20"/>
     </row>
     <row r="385">
-      <c r="C385" s="25"/>
-      <c r="D385" s="27"/>
+      <c r="C385" s="19"/>
+      <c r="D385" s="20"/>
     </row>
     <row r="386">
-      <c r="C386" s="25"/>
-      <c r="D386" s="27"/>
+      <c r="C386" s="19"/>
+      <c r="D386" s="20"/>
     </row>
     <row r="387">
-      <c r="C387" s="25"/>
-      <c r="D387" s="27"/>
+      <c r="C387" s="19"/>
+      <c r="D387" s="20"/>
     </row>
     <row r="388">
-      <c r="C388" s="25"/>
-      <c r="D388" s="27"/>
+      <c r="C388" s="19"/>
+      <c r="D388" s="20"/>
     </row>
     <row r="389">
-      <c r="C389" s="25"/>
-      <c r="D389" s="27"/>
+      <c r="C389" s="19"/>
+      <c r="D389" s="20"/>
     </row>
     <row r="390">
-      <c r="C390" s="25"/>
-      <c r="D390" s="27"/>
+      <c r="C390" s="19"/>
+      <c r="D390" s="20"/>
     </row>
     <row r="391">
-      <c r="C391" s="25"/>
-      <c r="D391" s="27"/>
+      <c r="C391" s="19"/>
+      <c r="D391" s="20"/>
     </row>
     <row r="392">
-      <c r="C392" s="25"/>
-      <c r="D392" s="27"/>
+      <c r="C392" s="19"/>
+      <c r="D392" s="20"/>
     </row>
     <row r="393">
-      <c r="C393" s="25"/>
-      <c r="D393" s="27"/>
+      <c r="C393" s="19"/>
+      <c r="D393" s="20"/>
     </row>
     <row r="394">
-      <c r="C394" s="25"/>
-      <c r="D394" s="27"/>
+      <c r="C394" s="19"/>
+      <c r="D394" s="20"/>
     </row>
     <row r="395">
-      <c r="C395" s="25"/>
-      <c r="D395" s="27"/>
+      <c r="C395" s="19"/>
+      <c r="D395" s="20"/>
     </row>
     <row r="396">
-      <c r="C396" s="25"/>
-      <c r="D396" s="27"/>
+      <c r="C396" s="19"/>
+      <c r="D396" s="20"/>
     </row>
     <row r="397">
-      <c r="C397" s="25"/>
-      <c r="D397" s="27"/>
+      <c r="C397" s="19"/>
+      <c r="D397" s="20"/>
     </row>
     <row r="398">
-      <c r="C398" s="25"/>
-      <c r="D398" s="27"/>
+      <c r="C398" s="19"/>
+      <c r="D398" s="20"/>
     </row>
     <row r="399">
-      <c r="C399" s="25"/>
-      <c r="D399" s="27"/>
+      <c r="C399" s="19"/>
+      <c r="D399" s="20"/>
     </row>
     <row r="400">
-      <c r="C400" s="25"/>
-      <c r="D400" s="27"/>
+      <c r="C400" s="19"/>
+      <c r="D400" s="20"/>
     </row>
     <row r="401">
-      <c r="C401" s="25"/>
-      <c r="D401" s="27"/>
+      <c r="C401" s="19"/>
+      <c r="D401" s="20"/>
     </row>
     <row r="402">
-      <c r="C402" s="25"/>
-      <c r="D402" s="27"/>
+      <c r="C402" s="19"/>
+      <c r="D402" s="20"/>
     </row>
     <row r="403">
-      <c r="C403" s="25"/>
-      <c r="D403" s="27"/>
+      <c r="C403" s="19"/>
+      <c r="D403" s="20"/>
     </row>
     <row r="404">
-      <c r="C404" s="25"/>
-      <c r="D404" s="27"/>
+      <c r="C404" s="19"/>
+      <c r="D404" s="20"/>
     </row>
     <row r="405">
-      <c r="C405" s="25"/>
-      <c r="D405" s="27"/>
+      <c r="C405" s="19"/>
+      <c r="D405" s="20"/>
     </row>
     <row r="406">
-      <c r="C406" s="25"/>
-      <c r="D406" s="27"/>
+      <c r="C406" s="19"/>
+      <c r="D406" s="20"/>
     </row>
     <row r="407">
-      <c r="C407" s="25"/>
-      <c r="D407" s="27"/>
+      <c r="C407" s="19"/>
+      <c r="D407" s="20"/>
     </row>
     <row r="408">
-      <c r="C408" s="25"/>
-      <c r="D408" s="27"/>
+      <c r="C408" s="19"/>
+      <c r="D408" s="20"/>
     </row>
     <row r="409">
-      <c r="C409" s="25"/>
-      <c r="D409" s="27"/>
+      <c r="C409" s="19"/>
+      <c r="D409" s="20"/>
     </row>
     <row r="410">
-      <c r="C410" s="25"/>
-      <c r="D410" s="27"/>
+      <c r="C410" s="19"/>
+      <c r="D410" s="20"/>
     </row>
     <row r="411">
-      <c r="C411" s="25"/>
-      <c r="D411" s="27"/>
+      <c r="C411" s="19"/>
+      <c r="D411" s="20"/>
     </row>
     <row r="412">
-      <c r="C412" s="25"/>
-      <c r="D412" s="27"/>
+      <c r="C412" s="19"/>
+      <c r="D412" s="20"/>
     </row>
     <row r="413">
-      <c r="C413" s="25"/>
-      <c r="D413" s="27"/>
+      <c r="C413" s="19"/>
+      <c r="D413" s="20"/>
     </row>
     <row r="414">
-      <c r="C414" s="25"/>
-      <c r="D414" s="27"/>
+      <c r="C414" s="19"/>
+      <c r="D414" s="20"/>
     </row>
     <row r="415">
-      <c r="C415" s="25"/>
-      <c r="D415" s="27"/>
+      <c r="C415" s="19"/>
+      <c r="D415" s="20"/>
     </row>
     <row r="416">
-      <c r="C416" s="25"/>
-      <c r="D416" s="27"/>
+      <c r="C416" s="19"/>
+      <c r="D416" s="20"/>
     </row>
     <row r="417">
-      <c r="C417" s="25"/>
-      <c r="D417" s="27"/>
+      <c r="C417" s="19"/>
+      <c r="D417" s="20"/>
     </row>
     <row r="418">
-      <c r="C418" s="25"/>
-      <c r="D418" s="27"/>
+      <c r="C418" s="19"/>
+      <c r="D418" s="20"/>
     </row>
     <row r="419">
-      <c r="C419" s="25"/>
-      <c r="D419" s="27"/>
+      <c r="C419" s="19"/>
+      <c r="D419" s="20"/>
     </row>
     <row r="420">
-      <c r="C420" s="25"/>
-      <c r="D420" s="27"/>
+      <c r="C420" s="19"/>
+      <c r="D420" s="20"/>
     </row>
     <row r="421">
-      <c r="C421" s="25"/>
-      <c r="D421" s="27"/>
+      <c r="C421" s="19"/>
+      <c r="D421" s="20"/>
     </row>
     <row r="422">
-      <c r="C422" s="25"/>
-      <c r="D422" s="27"/>
+      <c r="C422" s="19"/>
+      <c r="D422" s="20"/>
     </row>
     <row r="423">
-      <c r="C423" s="25"/>
-      <c r="D423" s="27"/>
+      <c r="C423" s="19"/>
+      <c r="D423" s="20"/>
     </row>
     <row r="424">
-      <c r="C424" s="25"/>
-      <c r="D424" s="27"/>
+      <c r="C424" s="19"/>
+      <c r="D424" s="20"/>
     </row>
     <row r="425">
-      <c r="C425" s="25"/>
-      <c r="D425" s="27"/>
+      <c r="C425" s="19"/>
+      <c r="D425" s="20"/>
     </row>
     <row r="426">
-      <c r="C426" s="25"/>
-      <c r="D426" s="27"/>
+      <c r="C426" s="19"/>
+      <c r="D426" s="20"/>
     </row>
     <row r="427">
-      <c r="C427" s="25"/>
-      <c r="D427" s="27"/>
+      <c r="C427" s="19"/>
+      <c r="D427" s="20"/>
     </row>
     <row r="428">
-      <c r="C428" s="25"/>
-      <c r="D428" s="27"/>
+      <c r="C428" s="19"/>
+      <c r="D428" s="20"/>
     </row>
     <row r="429">
-      <c r="C429" s="25"/>
-      <c r="D429" s="27"/>
+      <c r="C429" s="19"/>
+      <c r="D429" s="20"/>
     </row>
     <row r="430">
-      <c r="C430" s="25"/>
-      <c r="D430" s="27"/>
+      <c r="C430" s="19"/>
+      <c r="D430" s="20"/>
     </row>
     <row r="431">
-      <c r="C431" s="25"/>
-      <c r="D431" s="27"/>
+      <c r="C431" s="19"/>
+      <c r="D431" s="20"/>
     </row>
     <row r="432">
-      <c r="C432" s="25"/>
-      <c r="D432" s="27"/>
+      <c r="C432" s="19"/>
+      <c r="D432" s="20"/>
     </row>
     <row r="433">
-      <c r="C433" s="25"/>
-      <c r="D433" s="27"/>
+      <c r="C433" s="19"/>
+      <c r="D433" s="20"/>
     </row>
     <row r="434">
-      <c r="C434" s="25"/>
-      <c r="D434" s="27"/>
+      <c r="C434" s="19"/>
+      <c r="D434" s="20"/>
     </row>
     <row r="435">
-      <c r="C435" s="25"/>
-      <c r="D435" s="27"/>
+      <c r="C435" s="19"/>
+      <c r="D435" s="20"/>
     </row>
     <row r="436">
-      <c r="C436" s="25"/>
-      <c r="D436" s="27"/>
+      <c r="C436" s="19"/>
+      <c r="D436" s="20"/>
     </row>
     <row r="437">
-      <c r="C437" s="25"/>
-      <c r="D437" s="27"/>
+      <c r="C437" s="19"/>
+      <c r="D437" s="20"/>
     </row>
     <row r="438">
-      <c r="C438" s="25"/>
-      <c r="D438" s="27"/>
+      <c r="C438" s="19"/>
+      <c r="D438" s="20"/>
     </row>
     <row r="439">
-      <c r="C439" s="25"/>
-      <c r="D439" s="27"/>
+      <c r="C439" s="19"/>
+      <c r="D439" s="20"/>
     </row>
     <row r="440">
-      <c r="C440" s="25"/>
-      <c r="D440" s="27"/>
+      <c r="C440" s="19"/>
+      <c r="D440" s="20"/>
     </row>
     <row r="441">
-      <c r="C441" s="25"/>
-      <c r="D441" s="27"/>
+      <c r="C441" s="19"/>
+      <c r="D441" s="20"/>
     </row>
     <row r="442">
-      <c r="C442" s="25"/>
-      <c r="D442" s="27"/>
+      <c r="C442" s="19"/>
+      <c r="D442" s="20"/>
     </row>
     <row r="443">
-      <c r="C443" s="25"/>
-      <c r="D443" s="27"/>
+      <c r="C443" s="19"/>
+      <c r="D443" s="20"/>
     </row>
     <row r="444">
-      <c r="C444" s="25"/>
-      <c r="D444" s="27"/>
+      <c r="C444" s="19"/>
+      <c r="D444" s="20"/>
     </row>
     <row r="445">
-      <c r="C445" s="25"/>
-      <c r="D445" s="27"/>
+      <c r="C445" s="19"/>
+      <c r="D445" s="20"/>
     </row>
     <row r="446">
-      <c r="C446" s="25"/>
-      <c r="D446" s="27"/>
+      <c r="C446" s="19"/>
+      <c r="D446" s="20"/>
     </row>
     <row r="447">
-      <c r="C447" s="25"/>
-      <c r="D447" s="27"/>
+      <c r="C447" s="19"/>
+      <c r="D447" s="20"/>
     </row>
     <row r="448">
-      <c r="C448" s="25"/>
-      <c r="D448" s="27"/>
+      <c r="C448" s="19"/>
+      <c r="D448" s="20"/>
     </row>
     <row r="449">
-      <c r="C449" s="25"/>
-      <c r="D449" s="27"/>
+      <c r="C449" s="19"/>
+      <c r="D449" s="20"/>
     </row>
     <row r="450">
-      <c r="C450" s="25"/>
-      <c r="D450" s="27"/>
+      <c r="C450" s="19"/>
+      <c r="D450" s="20"/>
     </row>
     <row r="451">
-      <c r="C451" s="25"/>
-      <c r="D451" s="27"/>
+      <c r="C451" s="19"/>
+      <c r="D451" s="20"/>
     </row>
     <row r="452">
-      <c r="C452" s="25"/>
-      <c r="D452" s="27"/>
+      <c r="C452" s="19"/>
+      <c r="D452" s="20"/>
     </row>
     <row r="453">
-      <c r="C453" s="25"/>
-      <c r="D453" s="27"/>
+      <c r="C453" s="19"/>
+      <c r="D453" s="20"/>
     </row>
     <row r="454">
-      <c r="C454" s="25"/>
-      <c r="D454" s="27"/>
+      <c r="C454" s="19"/>
+      <c r="D454" s="20"/>
     </row>
     <row r="455">
-      <c r="C455" s="25"/>
-      <c r="D455" s="27"/>
+      <c r="C455" s="19"/>
+      <c r="D455" s="20"/>
     </row>
     <row r="456">
-      <c r="C456" s="25"/>
-      <c r="D456" s="27"/>
+      <c r="C456" s="19"/>
+      <c r="D456" s="20"/>
     </row>
     <row r="457">
-      <c r="C457" s="25"/>
-      <c r="D457" s="27"/>
+      <c r="C457" s="19"/>
+      <c r="D457" s="20"/>
     </row>
     <row r="458">
-      <c r="C458" s="25"/>
-      <c r="D458" s="27"/>
+      <c r="C458" s="19"/>
+      <c r="D458" s="20"/>
     </row>
     <row r="459">
-      <c r="C459" s="25"/>
-      <c r="D459" s="27"/>
+      <c r="C459" s="19"/>
+      <c r="D459" s="20"/>
     </row>
     <row r="460">
-      <c r="C460" s="25"/>
-      <c r="D460" s="27"/>
+      <c r="C460" s="19"/>
+      <c r="D460" s="20"/>
     </row>
     <row r="461">
-      <c r="C461" s="25"/>
-      <c r="D461" s="27"/>
+      <c r="C461" s="19"/>
+      <c r="D461" s="20"/>
     </row>
     <row r="462">
-      <c r="C462" s="25"/>
-      <c r="D462" s="27"/>
+      <c r="C462" s="19"/>
+      <c r="D462" s="20"/>
     </row>
     <row r="463">
-      <c r="C463" s="25"/>
-      <c r="D463" s="27"/>
+      <c r="C463" s="19"/>
+      <c r="D463" s="20"/>
     </row>
     <row r="464">
-      <c r="C464" s="25"/>
-      <c r="D464" s="27"/>
+      <c r="C464" s="19"/>
+      <c r="D464" s="20"/>
     </row>
     <row r="465">
-      <c r="C465" s="25"/>
-      <c r="D465" s="27"/>
+      <c r="C465" s="19"/>
+      <c r="D465" s="20"/>
     </row>
     <row r="466">
-      <c r="C466" s="25"/>
-      <c r="D466" s="27"/>
+      <c r="C466" s="19"/>
+      <c r="D466" s="20"/>
     </row>
     <row r="467">
-      <c r="C467" s="25"/>
-      <c r="D467" s="27"/>
+      <c r="C467" s="19"/>
+      <c r="D467" s="20"/>
     </row>
     <row r="468">
-      <c r="C468" s="25"/>
-      <c r="D468" s="27"/>
+      <c r="C468" s="19"/>
+      <c r="D468" s="20"/>
     </row>
     <row r="469">
-      <c r="C469" s="25"/>
-      <c r="D469" s="27"/>
+      <c r="C469" s="19"/>
+      <c r="D469" s="20"/>
     </row>
     <row r="470">
-      <c r="C470" s="25"/>
-      <c r="D470" s="27"/>
+      <c r="C470" s="19"/>
+      <c r="D470" s="20"/>
     </row>
     <row r="471">
-      <c r="C471" s="25"/>
-      <c r="D471" s="27"/>
+      <c r="C471" s="19"/>
+      <c r="D471" s="20"/>
     </row>
     <row r="472">
-      <c r="C472" s="25"/>
-      <c r="D472" s="27"/>
+      <c r="C472" s="19"/>
+      <c r="D472" s="20"/>
     </row>
     <row r="473">
-      <c r="C473" s="25"/>
-      <c r="D473" s="27"/>
+      <c r="C473" s="19"/>
+      <c r="D473" s="20"/>
     </row>
     <row r="474">
-      <c r="C474" s="25"/>
-      <c r="D474" s="27"/>
+      <c r="C474" s="19"/>
+      <c r="D474" s="20"/>
     </row>
     <row r="475">
-      <c r="C475" s="25"/>
-      <c r="D475" s="27"/>
+      <c r="C475" s="19"/>
+      <c r="D475" s="20"/>
     </row>
     <row r="476">
-      <c r="C476" s="25"/>
-      <c r="D476" s="27"/>
+      <c r="C476" s="19"/>
+      <c r="D476" s="20"/>
     </row>
     <row r="477">
-      <c r="C477" s="25"/>
-      <c r="D477" s="27"/>
+      <c r="C477" s="19"/>
+      <c r="D477" s="20"/>
     </row>
     <row r="478">
-      <c r="C478" s="25"/>
-      <c r="D478" s="27"/>
+      <c r="C478" s="19"/>
+      <c r="D478" s="20"/>
     </row>
     <row r="479">
-      <c r="C479" s="25"/>
-      <c r="D479" s="27"/>
+      <c r="C479" s="19"/>
+      <c r="D479" s="20"/>
     </row>
     <row r="480">
-      <c r="C480" s="25"/>
-      <c r="D480" s="27"/>
+      <c r="C480" s="19"/>
+      <c r="D480" s="20"/>
     </row>
     <row r="481">
-      <c r="C481" s="25"/>
-      <c r="D481" s="27"/>
+      <c r="C481" s="19"/>
+      <c r="D481" s="20"/>
     </row>
     <row r="482">
-      <c r="C482" s="25"/>
-      <c r="D482" s="27"/>
+      <c r="C482" s="19"/>
+      <c r="D482" s="20"/>
     </row>
     <row r="483">
-      <c r="C483" s="25"/>
-      <c r="D483" s="27"/>
+      <c r="C483" s="19"/>
+      <c r="D483" s="20"/>
     </row>
     <row r="484">
-      <c r="C484" s="25"/>
-      <c r="D484" s="27"/>
+      <c r="C484" s="19"/>
+      <c r="D484" s="20"/>
     </row>
     <row r="485">
-      <c r="C485" s="25"/>
-      <c r="D485" s="27"/>
+      <c r="C485" s="19"/>
+      <c r="D485" s="20"/>
     </row>
     <row r="486">
-      <c r="C486" s="25"/>
-      <c r="D486" s="27"/>
+      <c r="C486" s="19"/>
+      <c r="D486" s="20"/>
     </row>
     <row r="487">
-      <c r="C487" s="25"/>
-      <c r="D487" s="27"/>
+      <c r="C487" s="19"/>
+      <c r="D487" s="20"/>
     </row>
     <row r="488">
-      <c r="C488" s="25"/>
-      <c r="D488" s="27"/>
+      <c r="C488" s="19"/>
+      <c r="D488" s="20"/>
     </row>
     <row r="489">
-      <c r="C489" s="25"/>
-      <c r="D489" s="27"/>
+      <c r="C489" s="19"/>
+      <c r="D489" s="20"/>
     </row>
     <row r="490">
-      <c r="C490" s="25"/>
-      <c r="D490" s="27"/>
+      <c r="C490" s="19"/>
+      <c r="D490" s="20"/>
     </row>
     <row r="491">
-      <c r="C491" s="25"/>
-      <c r="D491" s="27"/>
+      <c r="C491" s="19"/>
+      <c r="D491" s="20"/>
     </row>
     <row r="492">
-      <c r="C492" s="25"/>
-      <c r="D492" s="27"/>
+      <c r="C492" s="19"/>
+      <c r="D492" s="20"/>
     </row>
     <row r="493">
-      <c r="C493" s="25"/>
-      <c r="D493" s="27"/>
+      <c r="C493" s="19"/>
+      <c r="D493" s="20"/>
     </row>
     <row r="494">
-      <c r="C494" s="25"/>
-      <c r="D494" s="27"/>
+      <c r="C494" s="19"/>
+      <c r="D494" s="20"/>
     </row>
     <row r="495">
-      <c r="C495" s="25"/>
-      <c r="D495" s="27"/>
+      <c r="C495" s="19"/>
+      <c r="D495" s="20"/>
     </row>
     <row r="496">
-      <c r="C496" s="25"/>
-      <c r="D496" s="27"/>
+      <c r="C496" s="19"/>
+      <c r="D496" s="20"/>
     </row>
     <row r="497">
-      <c r="C497" s="25"/>
-      <c r="D497" s="27"/>
+      <c r="C497" s="19"/>
+      <c r="D497" s="20"/>
     </row>
     <row r="498">
-      <c r="C498" s="25"/>
-      <c r="D498" s="27"/>
+      <c r="C498" s="19"/>
+      <c r="D498" s="20"/>
     </row>
     <row r="499">
-      <c r="C499" s="25"/>
-      <c r="D499" s="27"/>
+      <c r="C499" s="19"/>
+      <c r="D499" s="20"/>
     </row>
     <row r="500">
-      <c r="C500" s="25"/>
-      <c r="D500" s="27"/>
+      <c r="C500" s="19"/>
+      <c r="D500" s="20"/>
     </row>
     <row r="501">
-      <c r="C501" s="25"/>
-      <c r="D501" s="27"/>
+      <c r="C501" s="19"/>
+      <c r="D501" s="20"/>
     </row>
     <row r="502">
-      <c r="C502" s="25"/>
-      <c r="D502" s="27"/>
+      <c r="C502" s="19"/>
+      <c r="D502" s="20"/>
     </row>
     <row r="503">
-      <c r="C503" s="25"/>
-      <c r="D503" s="27"/>
+      <c r="C503" s="19"/>
+      <c r="D503" s="20"/>
     </row>
     <row r="504">
-      <c r="C504" s="25"/>
-      <c r="D504" s="27"/>
+      <c r="C504" s="19"/>
+      <c r="D504" s="20"/>
     </row>
     <row r="505">
-      <c r="C505" s="25"/>
-      <c r="D505" s="27"/>
+      <c r="C505" s="19"/>
+      <c r="D505" s="20"/>
     </row>
     <row r="506">
-      <c r="C506" s="25"/>
-      <c r="D506" s="27"/>
+      <c r="C506" s="19"/>
+      <c r="D506" s="20"/>
     </row>
     <row r="507">
-      <c r="C507" s="25"/>
-      <c r="D507" s="27"/>
+      <c r="C507" s="19"/>
+      <c r="D507" s="20"/>
     </row>
     <row r="508">
-      <c r="C508" s="25"/>
-      <c r="D508" s="27"/>
+      <c r="C508" s="19"/>
+      <c r="D508" s="20"/>
     </row>
     <row r="509">
-      <c r="C509" s="25"/>
-      <c r="D509" s="27"/>
+      <c r="C509" s="19"/>
+      <c r="D509" s="20"/>
     </row>
     <row r="510">
-      <c r="C510" s="25"/>
-      <c r="D510" s="27"/>
+      <c r="C510" s="19"/>
+      <c r="D510" s="20"/>
     </row>
     <row r="511">
-      <c r="C511" s="25"/>
-      <c r="D511" s="27"/>
+      <c r="C511" s="19"/>
+      <c r="D511" s="20"/>
     </row>
     <row r="512">
-      <c r="C512" s="25"/>
-      <c r="D512" s="27"/>
+      <c r="C512" s="19"/>
+      <c r="D512" s="20"/>
     </row>
     <row r="513">
-      <c r="C513" s="25"/>
-      <c r="D513" s="27"/>
+      <c r="C513" s="19"/>
+      <c r="D513" s="20"/>
     </row>
     <row r="514">
-      <c r="C514" s="25"/>
-      <c r="D514" s="27"/>
+      <c r="C514" s="19"/>
+      <c r="D514" s="20"/>
     </row>
     <row r="515">
-      <c r="C515" s="25"/>
-      <c r="D515" s="27"/>
+      <c r="C515" s="19"/>
+      <c r="D515" s="20"/>
     </row>
     <row r="516">
-      <c r="C516" s="25"/>
-      <c r="D516" s="27"/>
+      <c r="C516" s="19"/>
+      <c r="D516" s="20"/>
     </row>
     <row r="517">
-      <c r="C517" s="25"/>
-      <c r="D517" s="27"/>
+      <c r="C517" s="19"/>
+      <c r="D517" s="20"/>
     </row>
     <row r="518">
-      <c r="C518" s="25"/>
-      <c r="D518" s="27"/>
+      <c r="C518" s="19"/>
+      <c r="D518" s="20"/>
     </row>
     <row r="519">
-      <c r="C519" s="25"/>
-      <c r="D519" s="27"/>
+      <c r="C519" s="19"/>
+      <c r="D519" s="20"/>
     </row>
     <row r="520">
-      <c r="C520" s="25"/>
-      <c r="D520" s="27"/>
+      <c r="C520" s="19"/>
+      <c r="D520" s="20"/>
     </row>
     <row r="521">
-      <c r="C521" s="25"/>
-      <c r="D521" s="27"/>
+      <c r="C521" s="19"/>
+      <c r="D521" s="20"/>
     </row>
     <row r="522">
-      <c r="C522" s="25"/>
-      <c r="D522" s="27"/>
+      <c r="C522" s="19"/>
+      <c r="D522" s="20"/>
     </row>
     <row r="523">
-      <c r="C523" s="25"/>
-      <c r="D523" s="27"/>
+      <c r="C523" s="19"/>
+      <c r="D523" s="20"/>
     </row>
     <row r="524">
-      <c r="C524" s="25"/>
-      <c r="D524" s="27"/>
+      <c r="C524" s="19"/>
+      <c r="D524" s="20"/>
     </row>
     <row r="525">
-      <c r="C525" s="25"/>
-      <c r="D525" s="27"/>
+      <c r="C525" s="19"/>
+      <c r="D525" s="20"/>
     </row>
     <row r="526">
-      <c r="C526" s="25"/>
-      <c r="D526" s="27"/>
+      <c r="C526" s="19"/>
+      <c r="D526" s="20"/>
     </row>
     <row r="527">
-      <c r="C527" s="25"/>
-      <c r="D527" s="27"/>
+      <c r="C527" s="19"/>
+      <c r="D527" s="20"/>
     </row>
     <row r="528">
-      <c r="C528" s="25"/>
-      <c r="D528" s="27"/>
+      <c r="C528" s="19"/>
+      <c r="D528" s="20"/>
     </row>
     <row r="529">
-      <c r="C529" s="25"/>
-      <c r="D529" s="27"/>
+      <c r="C529" s="19"/>
+      <c r="D529" s="20"/>
     </row>
     <row r="530">
-      <c r="C530" s="25"/>
-      <c r="D530" s="27"/>
+      <c r="C530" s="19"/>
+      <c r="D530" s="20"/>
     </row>
     <row r="531">
-      <c r="C531" s="25"/>
-      <c r="D531" s="27"/>
+      <c r="C531" s="19"/>
+      <c r="D531" s="20"/>
     </row>
     <row r="532">
-      <c r="C532" s="25"/>
-      <c r="D532" s="27"/>
+      <c r="C532" s="19"/>
+      <c r="D532" s="20"/>
     </row>
     <row r="533">
-      <c r="C533" s="25"/>
-      <c r="D533" s="27"/>
+      <c r="C533" s="19"/>
+      <c r="D533" s="20"/>
     </row>
     <row r="534">
-      <c r="C534" s="25"/>
-      <c r="D534" s="27"/>
+      <c r="C534" s="19"/>
+      <c r="D534" s="20"/>
     </row>
     <row r="535">
-      <c r="C535" s="25"/>
-      <c r="D535" s="27"/>
+      <c r="C535" s="19"/>
+      <c r="D535" s="20"/>
     </row>
     <row r="536">
-      <c r="C536" s="25"/>
-      <c r="D536" s="27"/>
+      <c r="C536" s="19"/>
+      <c r="D536" s="20"/>
     </row>
     <row r="537">
-      <c r="C537" s="25"/>
-      <c r="D537" s="27"/>
+      <c r="C537" s="19"/>
+      <c r="D537" s="20"/>
     </row>
     <row r="538">
-      <c r="C538" s="25"/>
-      <c r="D538" s="27"/>
+      <c r="C538" s="19"/>
+      <c r="D538" s="20"/>
     </row>
     <row r="539">
-      <c r="C539" s="25"/>
-      <c r="D539" s="27"/>
+      <c r="C539" s="19"/>
+      <c r="D539" s="20"/>
     </row>
     <row r="540">
-      <c r="C540" s="25"/>
-      <c r="D540" s="27"/>
+      <c r="C540" s="19"/>
+      <c r="D540" s="20"/>
     </row>
     <row r="541">
-      <c r="C541" s="25"/>
-      <c r="D541" s="27"/>
+      <c r="C541" s="19"/>
+      <c r="D541" s="20"/>
     </row>
     <row r="542">
-      <c r="C542" s="25"/>
-      <c r="D542" s="27"/>
+      <c r="C542" s="19"/>
+      <c r="D542" s="20"/>
     </row>
     <row r="543">
-      <c r="C543" s="25"/>
-      <c r="D543" s="27"/>
+      <c r="C543" s="19"/>
+      <c r="D543" s="20"/>
     </row>
     <row r="544">
-      <c r="C544" s="25"/>
-      <c r="D544" s="27"/>
+      <c r="C544" s="19"/>
+      <c r="D544" s="20"/>
     </row>
     <row r="545">
-      <c r="C545" s="25"/>
-      <c r="D545" s="27"/>
+      <c r="C545" s="19"/>
+      <c r="D545" s="20"/>
     </row>
     <row r="546">
-      <c r="C546" s="25"/>
-      <c r="D546" s="27"/>
+      <c r="C546" s="19"/>
+      <c r="D546" s="20"/>
     </row>
     <row r="547">
-      <c r="C547" s="25"/>
-      <c r="D547" s="27"/>
+      <c r="C547" s="19"/>
+      <c r="D547" s="20"/>
     </row>
     <row r="548">
-      <c r="C548" s="25"/>
-      <c r="D548" s="27"/>
+      <c r="C548" s="19"/>
+      <c r="D548" s="20"/>
     </row>
     <row r="549">
-      <c r="C549" s="25"/>
-      <c r="D549" s="27"/>
+      <c r="C549" s="19"/>
+      <c r="D549" s="20"/>
     </row>
     <row r="550">
-      <c r="C550" s="25"/>
-      <c r="D550" s="27"/>
+      <c r="C550" s="19"/>
+      <c r="D550" s="20"/>
     </row>
     <row r="551">
-      <c r="C551" s="25"/>
-      <c r="D551" s="27"/>
+      <c r="C551" s="19"/>
+      <c r="D551" s="20"/>
     </row>
     <row r="552">
-      <c r="C552" s="25"/>
-      <c r="D552" s="27"/>
+      <c r="C552" s="19"/>
+      <c r="D552" s="20"/>
     </row>
     <row r="553">
-      <c r="C553" s="25"/>
-      <c r="D553" s="27"/>
+      <c r="C553" s="19"/>
+      <c r="D553" s="20"/>
     </row>
     <row r="554">
-      <c r="C554" s="25"/>
-      <c r="D554" s="27"/>
+      <c r="C554" s="19"/>
+      <c r="D554" s="20"/>
     </row>
     <row r="555">
-      <c r="C555" s="25"/>
-      <c r="D555" s="27"/>
+      <c r="C555" s="19"/>
+      <c r="D555" s="20"/>
     </row>
     <row r="556">
-      <c r="C556" s="25"/>
-      <c r="D556" s="27"/>
+      <c r="C556" s="19"/>
+      <c r="D556" s="20"/>
     </row>
     <row r="557">
-      <c r="C557" s="25"/>
-      <c r="D557" s="27"/>
+      <c r="C557" s="19"/>
+      <c r="D557" s="20"/>
     </row>
     <row r="558">
-      <c r="C558" s="25"/>
-      <c r="D558" s="27"/>
+      <c r="C558" s="19"/>
+      <c r="D558" s="20"/>
     </row>
     <row r="559">
-      <c r="C559" s="25"/>
-      <c r="D559" s="27"/>
+      <c r="C559" s="19"/>
+      <c r="D559" s="20"/>
     </row>
     <row r="560">
-      <c r="C560" s="25"/>
-      <c r="D560" s="27"/>
+      <c r="C560" s="19"/>
+      <c r="D560" s="20"/>
     </row>
     <row r="561">
-      <c r="C561" s="25"/>
-      <c r="D561" s="27"/>
+      <c r="C561" s="19"/>
+      <c r="D561" s="20"/>
     </row>
     <row r="562">
-      <c r="C562" s="25"/>
-      <c r="D562" s="27"/>
+      <c r="C562" s="19"/>
+      <c r="D562" s="20"/>
     </row>
     <row r="563">
-      <c r="C563" s="25"/>
-      <c r="D563" s="27"/>
+      <c r="C563" s="19"/>
+      <c r="D563" s="20"/>
     </row>
     <row r="564">
-      <c r="C564" s="25"/>
-      <c r="D564" s="27"/>
+      <c r="C564" s="19"/>
+      <c r="D564" s="20"/>
     </row>
     <row r="565">
-      <c r="C565" s="25"/>
-      <c r="D565" s="27"/>
+      <c r="C565" s="19"/>
+      <c r="D565" s="20"/>
     </row>
     <row r="566">
-      <c r="C566" s="25"/>
-      <c r="D566" s="27"/>
+      <c r="C566" s="19"/>
+      <c r="D566" s="20"/>
     </row>
     <row r="567">
-      <c r="C567" s="25"/>
-      <c r="D567" s="27"/>
+      <c r="C567" s="19"/>
+      <c r="D567" s="20"/>
     </row>
     <row r="568">
-      <c r="C568" s="25"/>
-      <c r="D568" s="27"/>
+      <c r="C568" s="19"/>
+      <c r="D568" s="20"/>
     </row>
     <row r="569">
-      <c r="C569" s="25"/>
-      <c r="D569" s="27"/>
+      <c r="C569" s="19"/>
+      <c r="D569" s="20"/>
     </row>
     <row r="570">
-      <c r="C570" s="25"/>
-      <c r="D570" s="27"/>
+      <c r="C570" s="19"/>
+      <c r="D570" s="20"/>
     </row>
     <row r="571">
-      <c r="C571" s="25"/>
-      <c r="D571" s="27"/>
+      <c r="C571" s="19"/>
+      <c r="D571" s="20"/>
     </row>
     <row r="572">
-      <c r="C572" s="25"/>
-      <c r="D572" s="27"/>
+      <c r="C572" s="19"/>
+      <c r="D572" s="20"/>
     </row>
     <row r="573">
-      <c r="C573" s="25"/>
-      <c r="D573" s="27"/>
+      <c r="C573" s="19"/>
+      <c r="D573" s="20"/>
     </row>
     <row r="574">
-      <c r="C574" s="25"/>
-      <c r="D574" s="27"/>
+      <c r="C574" s="19"/>
+      <c r="D574" s="20"/>
     </row>
     <row r="575">
-      <c r="C575" s="25"/>
-      <c r="D575" s="27"/>
+      <c r="C575" s="19"/>
+      <c r="D575" s="20"/>
     </row>
     <row r="576">
-      <c r="C576" s="25"/>
-      <c r="D576" s="27"/>
+      <c r="C576" s="19"/>
+      <c r="D576" s="20"/>
     </row>
     <row r="577">
-      <c r="C577" s="25"/>
-      <c r="D577" s="27"/>
+      <c r="C577" s="19"/>
+      <c r="D577" s="20"/>
     </row>
     <row r="578">
-      <c r="C578" s="25"/>
-      <c r="D578" s="27"/>
+      <c r="C578" s="19"/>
+      <c r="D578" s="20"/>
     </row>
     <row r="579">
-      <c r="C579" s="25"/>
-      <c r="D579" s="27"/>
+      <c r="C579" s="19"/>
+      <c r="D579" s="20"/>
     </row>
     <row r="580">
-      <c r="C580" s="25"/>
-      <c r="D580" s="27"/>
+      <c r="C580" s="19"/>
+      <c r="D580" s="20"/>
     </row>
     <row r="581">
-      <c r="C581" s="25"/>
-      <c r="D581" s="27"/>
+      <c r="C581" s="19"/>
+      <c r="D581" s="20"/>
     </row>
     <row r="582">
-      <c r="C582" s="25"/>
-      <c r="D582" s="27"/>
+      <c r="C582" s="19"/>
+      <c r="D582" s="20"/>
     </row>
     <row r="583">
-      <c r="C583" s="25"/>
-      <c r="D583" s="27"/>
+      <c r="C583" s="19"/>
+      <c r="D583" s="20"/>
     </row>
     <row r="584">
-      <c r="C584" s="25"/>
-      <c r="D584" s="27"/>
+      <c r="C584" s="19"/>
+      <c r="D584" s="20"/>
     </row>
     <row r="585">
-      <c r="C585" s="25"/>
-      <c r="D585" s="27"/>
+      <c r="C585" s="19"/>
+      <c r="D585" s="20"/>
     </row>
     <row r="586">
-      <c r="C586" s="25"/>
-      <c r="D586" s="27"/>
+      <c r="C586" s="19"/>
+      <c r="D586" s="20"/>
     </row>
     <row r="587">
-      <c r="C587" s="25"/>
-      <c r="D587" s="27"/>
+      <c r="C587" s="19"/>
+      <c r="D587" s="20"/>
     </row>
     <row r="588">
-      <c r="C588" s="25"/>
-      <c r="D588" s="27"/>
+      <c r="C588" s="19"/>
+      <c r="D588" s="20"/>
     </row>
     <row r="589">
-      <c r="C589" s="25"/>
-      <c r="D589" s="27"/>
+      <c r="C589" s="19"/>
+      <c r="D589" s="20"/>
     </row>
     <row r="590">
-      <c r="C590" s="25"/>
-      <c r="D590" s="27"/>
+      <c r="C590" s="19"/>
+      <c r="D590" s="20"/>
     </row>
     <row r="591">
-      <c r="C591" s="25"/>
-      <c r="D591" s="27"/>
+      <c r="C591" s="19"/>
+      <c r="D591" s="20"/>
     </row>
     <row r="592">
-      <c r="C592" s="25"/>
-      <c r="D592" s="27"/>
+      <c r="C592" s="19"/>
+      <c r="D592" s="20"/>
     </row>
     <row r="593">
-      <c r="C593" s="25"/>
-      <c r="D593" s="27"/>
+      <c r="C593" s="19"/>
+      <c r="D593" s="20"/>
     </row>
     <row r="594">
-      <c r="C594" s="25"/>
-      <c r="D594" s="27"/>
+      <c r="C594" s="19"/>
+      <c r="D594" s="20"/>
     </row>
     <row r="595">
-      <c r="C595" s="25"/>
-      <c r="D595" s="27"/>
+      <c r="C595" s="19"/>
+      <c r="D595" s="20"/>
     </row>
     <row r="596">
-      <c r="C596" s="25"/>
-      <c r="D596" s="27"/>
+      <c r="C596" s="19"/>
+      <c r="D596" s="20"/>
     </row>
     <row r="597">
-      <c r="C597" s="25"/>
-      <c r="D597" s="27"/>
+      <c r="C597" s="19"/>
+      <c r="D597" s="20"/>
     </row>
     <row r="598">
-      <c r="C598" s="25"/>
-      <c r="D598" s="27"/>
+      <c r="C598" s="19"/>
+      <c r="D598" s="20"/>
     </row>
     <row r="599">
-      <c r="C599" s="25"/>
-      <c r="D599" s="27"/>
+      <c r="C599" s="19"/>
+      <c r="D599" s="20"/>
     </row>
     <row r="600">
-      <c r="C600" s="25"/>
-      <c r="D600" s="27"/>
+      <c r="C600" s="19"/>
+      <c r="D600" s="20"/>
     </row>
     <row r="601">
-      <c r="C601" s="25"/>
-      <c r="D601" s="27"/>
+      <c r="C601" s="19"/>
+      <c r="D601" s="20"/>
     </row>
     <row r="602">
-      <c r="C602" s="25"/>
-      <c r="D602" s="27"/>
+      <c r="C602" s="19"/>
+      <c r="D602" s="20"/>
     </row>
     <row r="603">
-      <c r="C603" s="25"/>
-      <c r="D603" s="27"/>
+      <c r="C603" s="19"/>
+      <c r="D603" s="20"/>
     </row>
     <row r="604">
-      <c r="C604" s="25"/>
-      <c r="D604" s="27"/>
+      <c r="C604" s="19"/>
+      <c r="D604" s="20"/>
     </row>
     <row r="605">
-      <c r="C605" s="25"/>
-      <c r="D605" s="27"/>
+      <c r="C605" s="19"/>
+      <c r="D605" s="20"/>
     </row>
     <row r="606">
-      <c r="C606" s="25"/>
-      <c r="D606" s="27"/>
+      <c r="C606" s="19"/>
+      <c r="D606" s="20"/>
     </row>
     <row r="607">
-      <c r="C607" s="25"/>
-      <c r="D607" s="27"/>
+      <c r="C607" s="19"/>
+      <c r="D607" s="20"/>
     </row>
     <row r="608">
-      <c r="C608" s="25"/>
-      <c r="D608" s="27"/>
+      <c r="C608" s="19"/>
+      <c r="D608" s="20"/>
     </row>
     <row r="609">
-      <c r="C609" s="25"/>
-      <c r="D609" s="27"/>
+      <c r="C609" s="19"/>
+      <c r="D609" s="20"/>
     </row>
     <row r="610">
-      <c r="C610" s="25"/>
-      <c r="D610" s="27"/>
+      <c r="C610" s="19"/>
+      <c r="D610" s="20"/>
     </row>
     <row r="611">
-      <c r="C611" s="25"/>
-      <c r="D611" s="27"/>
+      <c r="C611" s="19"/>
+      <c r="D611" s="20"/>
     </row>
     <row r="612">
-      <c r="C612" s="25"/>
-      <c r="D612" s="27"/>
+      <c r="C612" s="19"/>
+      <c r="D612" s="20"/>
     </row>
     <row r="613">
-      <c r="C613" s="25"/>
-      <c r="D613" s="27"/>
+      <c r="C613" s="19"/>
+      <c r="D613" s="20"/>
     </row>
     <row r="614">
-      <c r="C614" s="25"/>
-      <c r="D614" s="27"/>
+      <c r="C614" s="19"/>
+      <c r="D614" s="20"/>
     </row>
     <row r="615">
-      <c r="C615" s="25"/>
-      <c r="D615" s="27"/>
+      <c r="C615" s="19"/>
+      <c r="D615" s="20"/>
     </row>
     <row r="616">
-      <c r="C616" s="25"/>
-      <c r="D616" s="27"/>
+      <c r="C616" s="19"/>
+      <c r="D616" s="20"/>
     </row>
     <row r="617">
-      <c r="C617" s="25"/>
-      <c r="D617" s="27"/>
+      <c r="C617" s="19"/>
+      <c r="D617" s="20"/>
     </row>
     <row r="618">
-      <c r="C618" s="25"/>
-      <c r="D618" s="27"/>
+      <c r="C618" s="19"/>
+      <c r="D618" s="20"/>
     </row>
     <row r="619">
-      <c r="C619" s="25"/>
-      <c r="D619" s="27"/>
+      <c r="C619" s="19"/>
+      <c r="D619" s="20"/>
     </row>
     <row r="620">
-      <c r="C620" s="25"/>
-      <c r="D620" s="27"/>
+      <c r="C620" s="19"/>
+      <c r="D620" s="20"/>
     </row>
     <row r="621">
-      <c r="C621" s="25"/>
-      <c r="D621" s="27"/>
+      <c r="C621" s="19"/>
+      <c r="D621" s="20"/>
     </row>
     <row r="622">
-      <c r="C622" s="25"/>
-      <c r="D622" s="27"/>
+      <c r="C622" s="19"/>
+      <c r="D622" s="20"/>
     </row>
     <row r="623">
-      <c r="C623" s="25"/>
-      <c r="D623" s="27"/>
+      <c r="C623" s="19"/>
+      <c r="D623" s="20"/>
     </row>
     <row r="624">
-      <c r="C624" s="25"/>
-      <c r="D624" s="27"/>
+      <c r="C624" s="19"/>
+      <c r="D624" s="20"/>
     </row>
     <row r="625">
-      <c r="C625" s="25"/>
-      <c r="D625" s="27"/>
+      <c r="C625" s="19"/>
+      <c r="D625" s="20"/>
     </row>
     <row r="626">
-      <c r="C626" s="25"/>
-      <c r="D626" s="27"/>
+      <c r="C626" s="19"/>
+      <c r="D626" s="20"/>
     </row>
     <row r="627">
-      <c r="C627" s="25"/>
-      <c r="D627" s="27"/>
+      <c r="C627" s="19"/>
+      <c r="D627" s="20"/>
     </row>
     <row r="628">
-      <c r="C628" s="25"/>
-      <c r="D628" s="27"/>
+      <c r="C628" s="19"/>
+      <c r="D628" s="20"/>
     </row>
     <row r="629">
-      <c r="C629" s="25"/>
-      <c r="D629" s="27"/>
+      <c r="C629" s="19"/>
+      <c r="D629" s="20"/>
     </row>
     <row r="630">
-      <c r="C630" s="25"/>
-      <c r="D630" s="27"/>
+      <c r="C630" s="19"/>
+      <c r="D630" s="20"/>
     </row>
     <row r="631">
-      <c r="C631" s="25"/>
-      <c r="D631" s="27"/>
+      <c r="C631" s="19"/>
+      <c r="D631" s="20"/>
     </row>
     <row r="632">
-      <c r="C632" s="25"/>
-      <c r="D632" s="27"/>
+      <c r="C632" s="19"/>
+      <c r="D632" s="20"/>
     </row>
     <row r="633">
-      <c r="C633" s="25"/>
-      <c r="D633" s="27"/>
+      <c r="C633" s="19"/>
+      <c r="D633" s="20"/>
     </row>
     <row r="634">
-      <c r="C634" s="25"/>
-      <c r="D634" s="27"/>
+      <c r="C634" s="19"/>
+      <c r="D634" s="20"/>
     </row>
     <row r="635">
-      <c r="C635" s="25"/>
-      <c r="D635" s="27"/>
+      <c r="C635" s="19"/>
+      <c r="D635" s="20"/>
     </row>
     <row r="636">
-      <c r="C636" s="25"/>
-      <c r="D636" s="27"/>
+      <c r="C636" s="19"/>
+      <c r="D636" s="20"/>
     </row>
     <row r="637">
-      <c r="C637" s="25"/>
-      <c r="D637" s="27"/>
+      <c r="C637" s="19"/>
+      <c r="D637" s="20"/>
     </row>
     <row r="638">
-      <c r="C638" s="25"/>
-      <c r="D638" s="27"/>
+      <c r="C638" s="19"/>
+      <c r="D638" s="20"/>
     </row>
     <row r="639">
-      <c r="C639" s="25"/>
-      <c r="D639" s="27"/>
+      <c r="C639" s="19"/>
+      <c r="D639" s="20"/>
     </row>
     <row r="640">
-      <c r="C640" s="25"/>
-      <c r="D640" s="27"/>
+      <c r="C640" s="19"/>
+      <c r="D640" s="20"/>
     </row>
     <row r="641">
-      <c r="C641" s="25"/>
-      <c r="D641" s="27"/>
+      <c r="C641" s="19"/>
+      <c r="D641" s="20"/>
     </row>
     <row r="642">
-      <c r="C642" s="25"/>
-      <c r="D642" s="27"/>
+      <c r="C642" s="19"/>
+      <c r="D642" s="20"/>
     </row>
     <row r="643">
-      <c r="C643" s="25"/>
-      <c r="D643" s="27"/>
+      <c r="C643" s="19"/>
+      <c r="D643" s="20"/>
     </row>
     <row r="644">
-      <c r="C644" s="25"/>
-      <c r="D644" s="27"/>
+      <c r="C644" s="19"/>
+      <c r="D644" s="20"/>
     </row>
     <row r="645">
-      <c r="C645" s="25"/>
-      <c r="D645" s="27"/>
+      <c r="C645" s="19"/>
+      <c r="D645" s="20"/>
     </row>
     <row r="646">
-      <c r="C646" s="25"/>
-      <c r="D646" s="27"/>
+      <c r="C646" s="19"/>
+      <c r="D646" s="20"/>
     </row>
     <row r="647">
-      <c r="C647" s="25"/>
-      <c r="D647" s="27"/>
+      <c r="C647" s="19"/>
+      <c r="D647" s="20"/>
     </row>
     <row r="648">
-      <c r="C648" s="25"/>
-      <c r="D648" s="27"/>
+      <c r="C648" s="19"/>
+      <c r="D648" s="20"/>
     </row>
     <row r="649">
-      <c r="C649" s="25"/>
-      <c r="D649" s="27"/>
+      <c r="C649" s="19"/>
+      <c r="D649" s="20"/>
     </row>
     <row r="650">
-      <c r="C650" s="25"/>
-      <c r="D650" s="27"/>
+      <c r="C650" s="19"/>
+      <c r="D650" s="20"/>
     </row>
     <row r="651">
-      <c r="C651" s="25"/>
-      <c r="D651" s="27"/>
+      <c r="C651" s="19"/>
+      <c r="D651" s="20"/>
     </row>
     <row r="652">
-      <c r="C652" s="25"/>
-      <c r="D652" s="27"/>
+      <c r="C652" s="19"/>
+      <c r="D652" s="20"/>
     </row>
     <row r="653">
-      <c r="C653" s="25"/>
-      <c r="D653" s="27"/>
+      <c r="C653" s="19"/>
+      <c r="D653" s="20"/>
     </row>
     <row r="654">
-      <c r="C654" s="25"/>
-      <c r="D654" s="27"/>
+      <c r="C654" s="19"/>
+      <c r="D654" s="20"/>
     </row>
     <row r="655">
-      <c r="C655" s="25"/>
-      <c r="D655" s="27"/>
+      <c r="C655" s="19"/>
+      <c r="D655" s="20"/>
     </row>
     <row r="656">
-      <c r="C656" s="25"/>
-      <c r="D656" s="27"/>
+      <c r="C656" s="19"/>
+      <c r="D656" s="20"/>
     </row>
     <row r="657">
-      <c r="C657" s="25"/>
-      <c r="D657" s="27"/>
+      <c r="C657" s="19"/>
+      <c r="D657" s="20"/>
     </row>
     <row r="658">
-      <c r="C658" s="25"/>
-      <c r="D658" s="27"/>
+      <c r="C658" s="19"/>
+      <c r="D658" s="20"/>
     </row>
     <row r="659">
-      <c r="C659" s="25"/>
-      <c r="D659" s="27"/>
+      <c r="C659" s="19"/>
+      <c r="D659" s="20"/>
     </row>
     <row r="660">
-      <c r="C660" s="25"/>
-      <c r="D660" s="27"/>
+      <c r="C660" s="19"/>
+      <c r="D660" s="20"/>
     </row>
     <row r="661">
-      <c r="C661" s="25"/>
-      <c r="D661" s="27"/>
+      <c r="C661" s="19"/>
+      <c r="D661" s="20"/>
     </row>
     <row r="662">
-      <c r="C662" s="25"/>
-      <c r="D662" s="27"/>
+      <c r="C662" s="19"/>
+      <c r="D662" s="20"/>
     </row>
     <row r="663">
-      <c r="C663" s="25"/>
-      <c r="D663" s="27"/>
+      <c r="C663" s="19"/>
+      <c r="D663" s="20"/>
     </row>
     <row r="664">
-      <c r="C664" s="25"/>
-      <c r="D664" s="27"/>
+      <c r="C664" s="19"/>
+      <c r="D664" s="20"/>
     </row>
     <row r="665">
-      <c r="C665" s="25"/>
-      <c r="D665" s="27"/>
+      <c r="C665" s="19"/>
+      <c r="D665" s="20"/>
     </row>
     <row r="666">
-      <c r="C666" s="25"/>
-      <c r="D666" s="27"/>
+      <c r="C666" s="19"/>
+      <c r="D666" s="20"/>
     </row>
     <row r="667">
-      <c r="C667" s="25"/>
-      <c r="D667" s="27"/>
+      <c r="C667" s="19"/>
+      <c r="D667" s="20"/>
     </row>
     <row r="668">
-      <c r="C668" s="25"/>
-      <c r="D668" s="27"/>
+      <c r="C668" s="19"/>
+      <c r="D668" s="20"/>
     </row>
     <row r="669">
-      <c r="C669" s="25"/>
-      <c r="D669" s="27"/>
+      <c r="C669" s="19"/>
+      <c r="D669" s="20"/>
     </row>
     <row r="670">
-      <c r="C670" s="25"/>
-      <c r="D670" s="27"/>
+      <c r="C670" s="19"/>
+      <c r="D670" s="20"/>
     </row>
     <row r="671">
-      <c r="C671" s="25"/>
-      <c r="D671" s="27"/>
+      <c r="C671" s="19"/>
+      <c r="D671" s="20"/>
     </row>
     <row r="672">
-      <c r="C672" s="25"/>
-      <c r="D672" s="27"/>
+      <c r="C672" s="19"/>
+      <c r="D672" s="20"/>
     </row>
     <row r="673">
-      <c r="C673" s="25"/>
-      <c r="D673" s="27"/>
+      <c r="C673" s="19"/>
+      <c r="D673" s="20"/>
     </row>
     <row r="674">
-      <c r="C674" s="25"/>
-      <c r="D674" s="27"/>
+      <c r="C674" s="19"/>
+      <c r="D674" s="20"/>
     </row>
     <row r="675">
-      <c r="C675" s="25"/>
-      <c r="D675" s="27"/>
+      <c r="C675" s="19"/>
+      <c r="D675" s="20"/>
     </row>
     <row r="676">
-      <c r="C676" s="25"/>
-      <c r="D676" s="27"/>
+      <c r="C676" s="19"/>
+      <c r="D676" s="20"/>
     </row>
     <row r="677">
-      <c r="C677" s="25"/>
-      <c r="D677" s="27"/>
+      <c r="C677" s="19"/>
+      <c r="D677" s="20"/>
     </row>
     <row r="678">
-      <c r="C678" s="25"/>
-      <c r="D678" s="27"/>
+      <c r="C678" s="19"/>
+      <c r="D678" s="20"/>
     </row>
     <row r="679">
-      <c r="C679" s="25"/>
-      <c r="D679" s="27"/>
+      <c r="C679" s="19"/>
+      <c r="D679" s="20"/>
     </row>
     <row r="680">
-      <c r="C680" s="25"/>
-      <c r="D680" s="27"/>
+      <c r="C680" s="19"/>
+      <c r="D680" s="20"/>
     </row>
     <row r="681">
-      <c r="C681" s="25"/>
-      <c r="D681" s="27"/>
+      <c r="C681" s="19"/>
+      <c r="D681" s="20"/>
     </row>
     <row r="682">
-      <c r="C682" s="25"/>
-      <c r="D682" s="27"/>
+      <c r="C682" s="19"/>
+      <c r="D682" s="20"/>
     </row>
     <row r="683">
-      <c r="C683" s="25"/>
-      <c r="D683" s="27"/>
+      <c r="C683" s="19"/>
+      <c r="D683" s="20"/>
     </row>
     <row r="684">
-      <c r="C684" s="25"/>
-      <c r="D684" s="27"/>
+      <c r="C684" s="19"/>
+      <c r="D684" s="20"/>
     </row>
     <row r="685">
-      <c r="C685" s="25"/>
-      <c r="D685" s="27"/>
+      <c r="C685" s="19"/>
+      <c r="D685" s="20"/>
     </row>
     <row r="686">
-      <c r="C686" s="25"/>
-      <c r="D686" s="27"/>
+      <c r="C686" s="19"/>
+      <c r="D686" s="20"/>
     </row>
     <row r="687">
-      <c r="C687" s="25"/>
-      <c r="D687" s="27"/>
+      <c r="C687" s="19"/>
+      <c r="D687" s="20"/>
     </row>
     <row r="688">
-      <c r="C688" s="25"/>
-      <c r="D688" s="27"/>
+      <c r="C688" s="19"/>
+      <c r="D688" s="20"/>
     </row>
     <row r="689">
-      <c r="C689" s="25"/>
-      <c r="D689" s="27"/>
+      <c r="C689" s="19"/>
+      <c r="D689" s="20"/>
     </row>
     <row r="690">
-      <c r="C690" s="25"/>
-      <c r="D690" s="27"/>
+      <c r="C690" s="19"/>
+      <c r="D690" s="20"/>
     </row>
     <row r="691">
-      <c r="C691" s="25"/>
-      <c r="D691" s="27"/>
+      <c r="C691" s="19"/>
+      <c r="D691" s="20"/>
     </row>
     <row r="692">
-      <c r="C692" s="25"/>
-      <c r="D692" s="27"/>
+      <c r="C692" s="19"/>
+      <c r="D692" s="20"/>
     </row>
     <row r="693">
-      <c r="C693" s="25"/>
-      <c r="D693" s="27"/>
+      <c r="C693" s="19"/>
+      <c r="D693" s="20"/>
     </row>
     <row r="694">
-      <c r="C694" s="25"/>
-      <c r="D694" s="27"/>
+      <c r="C694" s="19"/>
+      <c r="D694" s="20"/>
     </row>
     <row r="695">
-      <c r="C695" s="25"/>
-      <c r="D695" s="27"/>
+      <c r="C695" s="19"/>
+      <c r="D695" s="20"/>
     </row>
     <row r="696">
-      <c r="C696" s="25"/>
-      <c r="D696" s="27"/>
+      <c r="C696" s="19"/>
+      <c r="D696" s="20"/>
     </row>
     <row r="697">
-      <c r="C697" s="25"/>
-      <c r="D697" s="27"/>
+      <c r="C697" s="19"/>
+      <c r="D697" s="20"/>
     </row>
     <row r="698">
-      <c r="C698" s="25"/>
-      <c r="D698" s="27"/>
+      <c r="C698" s="19"/>
+      <c r="D698" s="20"/>
     </row>
     <row r="699">
-      <c r="C699" s="25"/>
-      <c r="D699" s="27"/>
+      <c r="C699" s="19"/>
+      <c r="D699" s="20"/>
     </row>
     <row r="700">
-      <c r="C700" s="25"/>
-      <c r="D700" s="27"/>
+      <c r="C700" s="19"/>
+      <c r="D700" s="20"/>
     </row>
     <row r="701">
-      <c r="C701" s="25"/>
-      <c r="D701" s="27"/>
+      <c r="C701" s="19"/>
+      <c r="D701" s="20"/>
     </row>
     <row r="702">
-      <c r="C702" s="25"/>
-      <c r="D702" s="27"/>
+      <c r="C702" s="19"/>
+      <c r="D702" s="20"/>
     </row>
     <row r="703">
-      <c r="C703" s="25"/>
-      <c r="D703" s="27"/>
+      <c r="C703" s="19"/>
+      <c r="D703" s="20"/>
     </row>
     <row r="704">
-      <c r="C704" s="25"/>
-      <c r="D704" s="27"/>
+      <c r="C704" s="19"/>
+      <c r="D704" s="20"/>
     </row>
     <row r="705">
-      <c r="C705" s="25"/>
-      <c r="D705" s="27"/>
+      <c r="C705" s="19"/>
+      <c r="D705" s="20"/>
     </row>
     <row r="706">
-      <c r="C706" s="25"/>
-      <c r="D706" s="27"/>
+      <c r="C706" s="19"/>
+      <c r="D706" s="20"/>
     </row>
     <row r="707">
-      <c r="C707" s="25"/>
-      <c r="D707" s="27"/>
+      <c r="C707" s="19"/>
+      <c r="D707" s="20"/>
     </row>
     <row r="708">
-      <c r="C708" s="25"/>
-      <c r="D708" s="27"/>
+      <c r="C708" s="19"/>
+      <c r="D708" s="20"/>
     </row>
     <row r="709">
-      <c r="C709" s="25"/>
-      <c r="D709" s="27"/>
+      <c r="C709" s="19"/>
+      <c r="D709" s="20"/>
     </row>
     <row r="710">
-      <c r="C710" s="25"/>
-      <c r="D710" s="27"/>
+      <c r="C710" s="19"/>
+      <c r="D710" s="20"/>
     </row>
     <row r="711">
-      <c r="C711" s="25"/>
-      <c r="D711" s="27"/>
+      <c r="C711" s="19"/>
+      <c r="D711" s="20"/>
     </row>
     <row r="712">
-      <c r="C712" s="25"/>
-      <c r="D712" s="27"/>
+      <c r="C712" s="19"/>
+      <c r="D712" s="20"/>
     </row>
     <row r="713">
-      <c r="C713" s="25"/>
-      <c r="D713" s="27"/>
+      <c r="C713" s="19"/>
+      <c r="D713" s="20"/>
     </row>
     <row r="714">
-      <c r="C714" s="25"/>
-      <c r="D714" s="27"/>
+      <c r="C714" s="19"/>
+      <c r="D714" s="20"/>
     </row>
     <row r="715">
-      <c r="C715" s="25"/>
-      <c r="D715" s="27"/>
+      <c r="C715" s="19"/>
+      <c r="D715" s="20"/>
     </row>
     <row r="716">
-      <c r="C716" s="25"/>
-      <c r="D716" s="27"/>
+      <c r="C716" s="19"/>
+      <c r="D716" s="20"/>
     </row>
     <row r="717">
-      <c r="C717" s="25"/>
-      <c r="D717" s="27"/>
+      <c r="C717" s="19"/>
+      <c r="D717" s="20"/>
     </row>
     <row r="718">
-      <c r="C718" s="25"/>
-      <c r="D718" s="27"/>
+      <c r="C718" s="19"/>
+      <c r="D718" s="20"/>
     </row>
     <row r="719">
-      <c r="C719" s="25"/>
-      <c r="D719" s="27"/>
+      <c r="C719" s="19"/>
+      <c r="D719" s="20"/>
     </row>
     <row r="720">
-      <c r="C720" s="25"/>
-      <c r="D720" s="27"/>
+      <c r="C720" s="19"/>
+      <c r="D720" s="20"/>
     </row>
     <row r="721">
-      <c r="C721" s="25"/>
-      <c r="D721" s="27"/>
+      <c r="C721" s="19"/>
+      <c r="D721" s="20"/>
     </row>
     <row r="722">
-      <c r="C722" s="25"/>
-      <c r="D722" s="27"/>
+      <c r="C722" s="19"/>
+      <c r="D722" s="20"/>
     </row>
     <row r="723">
-      <c r="C723" s="25"/>
-      <c r="D723" s="27"/>
+      <c r="C723" s="19"/>
+      <c r="D723" s="20"/>
     </row>
     <row r="724">
-      <c r="C724" s="25"/>
-      <c r="D724" s="27"/>
+      <c r="C724" s="19"/>
+      <c r="D724" s="20"/>
     </row>
     <row r="725">
-      <c r="C725" s="25"/>
-      <c r="D725" s="27"/>
+      <c r="C725" s="19"/>
+      <c r="D725" s="20"/>
     </row>
     <row r="726">
-      <c r="C726" s="25"/>
-      <c r="D726" s="27"/>
+      <c r="C726" s="19"/>
+      <c r="D726" s="20"/>
     </row>
     <row r="727">
-      <c r="C727" s="25"/>
-      <c r="D727" s="27"/>
+      <c r="C727" s="19"/>
+      <c r="D727" s="20"/>
     </row>
     <row r="728">
-      <c r="C728" s="25"/>
-      <c r="D728" s="27"/>
+      <c r="C728" s="19"/>
+      <c r="D728" s="20"/>
     </row>
     <row r="729">
-      <c r="C729" s="25"/>
-      <c r="D729" s="27"/>
+      <c r="C729" s="19"/>
+      <c r="D729" s="20"/>
     </row>
     <row r="730">
-      <c r="C730" s="25"/>
-      <c r="D730" s="27"/>
+      <c r="C730" s="19"/>
+      <c r="D730" s="20"/>
     </row>
     <row r="731">
-      <c r="C731" s="25"/>
-      <c r="D731" s="27"/>
+      <c r="C731" s="19"/>
+      <c r="D731" s="20"/>
     </row>
     <row r="732">
-      <c r="C732" s="25"/>
-      <c r="D732" s="27"/>
+      <c r="C732" s="19"/>
+      <c r="D732" s="20"/>
     </row>
     <row r="733">
-      <c r="C733" s="25"/>
-      <c r="D733" s="27"/>
+      <c r="C733" s="19"/>
+      <c r="D733" s="20"/>
     </row>
     <row r="734">
-      <c r="C734" s="25"/>
-      <c r="D734" s="27"/>
+      <c r="C734" s="19"/>
+      <c r="D734" s="20"/>
     </row>
     <row r="735">
-      <c r="C735" s="25"/>
-      <c r="D735" s="27"/>
+      <c r="C735" s="19"/>
+      <c r="D735" s="20"/>
     </row>
     <row r="736">
-      <c r="C736" s="25"/>
-      <c r="D736" s="27"/>
+      <c r="C736" s="19"/>
+      <c r="D736" s="20"/>
     </row>
     <row r="737">
-      <c r="C737" s="25"/>
-      <c r="D737" s="27"/>
+      <c r="C737" s="19"/>
+      <c r="D737" s="20"/>
     </row>
     <row r="738">
-      <c r="C738" s="25"/>
-      <c r="D738" s="27"/>
+      <c r="C738" s="19"/>
+      <c r="D738" s="20"/>
     </row>
     <row r="739">
-      <c r="C739" s="25"/>
-      <c r="D739" s="27"/>
+      <c r="C739" s="19"/>
+      <c r="D739" s="20"/>
     </row>
     <row r="740">
-      <c r="C740" s="25"/>
-      <c r="D740" s="27"/>
+      <c r="C740" s="19"/>
+      <c r="D740" s="20"/>
     </row>
     <row r="741">
-      <c r="C741" s="25"/>
-      <c r="D741" s="27"/>
+      <c r="C741" s="19"/>
+      <c r="D741" s="20"/>
     </row>
     <row r="742">
-      <c r="C742" s="25"/>
-      <c r="D742" s="27"/>
+      <c r="C742" s="19"/>
+      <c r="D742" s="20"/>
     </row>
     <row r="743">
-      <c r="C743" s="25"/>
-      <c r="D743" s="27"/>
+      <c r="C743" s="19"/>
+      <c r="D743" s="20"/>
     </row>
     <row r="744">
-      <c r="C744" s="25"/>
-      <c r="D744" s="27"/>
+      <c r="C744" s="19"/>
+      <c r="D744" s="20"/>
     </row>
     <row r="745">
-      <c r="C745" s="25"/>
-      <c r="D745" s="27"/>
+      <c r="C745" s="19"/>
+      <c r="D745" s="20"/>
     </row>
     <row r="746">
-      <c r="C746" s="25"/>
-      <c r="D746" s="27"/>
+      <c r="C746" s="19"/>
+      <c r="D746" s="20"/>
     </row>
     <row r="747">
-      <c r="C747" s="25"/>
-      <c r="D747" s="27"/>
+      <c r="C747" s="19"/>
+      <c r="D747" s="20"/>
     </row>
     <row r="748">
-      <c r="C748" s="25"/>
-      <c r="D748" s="27"/>
+      <c r="C748" s="19"/>
+      <c r="D748" s="20"/>
     </row>
     <row r="749">
-      <c r="C749" s="25"/>
-      <c r="D749" s="27"/>
+      <c r="C749" s="19"/>
+      <c r="D749" s="20"/>
     </row>
     <row r="750">
-      <c r="C750" s="25"/>
-      <c r="D750" s="27"/>
+      <c r="C750" s="19"/>
+      <c r="D750" s="20"/>
     </row>
     <row r="751">
-      <c r="C751" s="25"/>
-      <c r="D751" s="27"/>
+      <c r="C751" s="19"/>
+      <c r="D751" s="20"/>
     </row>
     <row r="752">
-      <c r="C752" s="25"/>
-      <c r="D752" s="27"/>
+      <c r="C752" s="19"/>
+      <c r="D752" s="20"/>
     </row>
     <row r="753">
-      <c r="C753" s="25"/>
-      <c r="D753" s="27"/>
+      <c r="C753" s="19"/>
+      <c r="D753" s="20"/>
     </row>
     <row r="754">
-      <c r="C754" s="25"/>
-      <c r="D754" s="27"/>
+      <c r="C754" s="19"/>
+      <c r="D754" s="20"/>
     </row>
     <row r="755">
-      <c r="C755" s="25"/>
-      <c r="D755" s="27"/>
+      <c r="C755" s="19"/>
+      <c r="D755" s="20"/>
     </row>
     <row r="756">
-      <c r="C756" s="25"/>
-      <c r="D756" s="27"/>
+      <c r="C756" s="19"/>
+      <c r="D756" s="20"/>
     </row>
     <row r="757">
-      <c r="C757" s="25"/>
-      <c r="D757" s="27"/>
+      <c r="C757" s="19"/>
+      <c r="D757" s="20"/>
     </row>
     <row r="758">
-      <c r="C758" s="25"/>
-      <c r="D758" s="27"/>
+      <c r="C758" s="19"/>
+      <c r="D758" s="20"/>
     </row>
     <row r="759">
-      <c r="C759" s="25"/>
-      <c r="D759" s="27"/>
+      <c r="C759" s="19"/>
+      <c r="D759" s="20"/>
     </row>
     <row r="760">
-      <c r="C760" s="25"/>
-      <c r="D760" s="27"/>
+      <c r="C760" s="19"/>
+      <c r="D760" s="20"/>
     </row>
     <row r="761">
-      <c r="C761" s="25"/>
-      <c r="D761" s="27"/>
+      <c r="C761" s="19"/>
+      <c r="D761" s="20"/>
     </row>
     <row r="762">
-      <c r="C762" s="25"/>
-      <c r="D762" s="27"/>
+      <c r="C762" s="19"/>
+      <c r="D762" s="20"/>
     </row>
     <row r="763">
-      <c r="C763" s="25"/>
-      <c r="D763" s="27"/>
+      <c r="C763" s="19"/>
+      <c r="D763" s="20"/>
     </row>
     <row r="764">
-      <c r="C764" s="25"/>
-      <c r="D764" s="27"/>
+      <c r="C764" s="19"/>
+      <c r="D764" s="20"/>
     </row>
     <row r="765">
-      <c r="C765" s="25"/>
-      <c r="D765" s="27"/>
+      <c r="C765" s="19"/>
+      <c r="D765" s="20"/>
     </row>
     <row r="766">
-      <c r="C766" s="25"/>
-      <c r="D766" s="27"/>
+      <c r="C766" s="19"/>
+      <c r="D766" s="20"/>
     </row>
     <row r="767">
-      <c r="C767" s="25"/>
-      <c r="D767" s="27"/>
+      <c r="C767" s="19"/>
+      <c r="D767" s="20"/>
     </row>
     <row r="768">
-      <c r="C768" s="25"/>
-      <c r="D768" s="27"/>
+      <c r="C768" s="19"/>
+      <c r="D768" s="20"/>
     </row>
     <row r="769">
-      <c r="C769" s="25"/>
-      <c r="D769" s="27"/>
+      <c r="C769" s="19"/>
+      <c r="D769" s="20"/>
     </row>
     <row r="770">
-      <c r="C770" s="25"/>
-      <c r="D770" s="27"/>
+      <c r="C770" s="19"/>
+      <c r="D770" s="20"/>
     </row>
     <row r="771">
-      <c r="C771" s="25"/>
-      <c r="D771" s="27"/>
+      <c r="C771" s="19"/>
+      <c r="D771" s="20"/>
     </row>
     <row r="772">
-      <c r="C772" s="25"/>
-      <c r="D772" s="27"/>
+      <c r="C772" s="19"/>
+      <c r="D772" s="20"/>
     </row>
     <row r="773">
-      <c r="C773" s="25"/>
-      <c r="D773" s="27"/>
+      <c r="C773" s="19"/>
+      <c r="D773" s="20"/>
     </row>
     <row r="774">
-      <c r="C774" s="25"/>
-      <c r="D774" s="27"/>
+      <c r="C774" s="19"/>
+      <c r="D774" s="20"/>
     </row>
     <row r="775">
-      <c r="C775" s="25"/>
-      <c r="D775" s="27"/>
+      <c r="C775" s="19"/>
+      <c r="D775" s="20"/>
     </row>
     <row r="776">
-      <c r="C776" s="25"/>
-      <c r="D776" s="27"/>
+      <c r="C776" s="19"/>
+      <c r="D776" s="20"/>
     </row>
     <row r="777">
-      <c r="C777" s="25"/>
-      <c r="D777" s="27"/>
+      <c r="C777" s="19"/>
+      <c r="D777" s="20"/>
     </row>
     <row r="778">
-      <c r="C778" s="25"/>
-      <c r="D778" s="27"/>
+      <c r="C778" s="19"/>
+      <c r="D778" s="20"/>
     </row>
     <row r="779">
-      <c r="C779" s="25"/>
-      <c r="D779" s="27"/>
+      <c r="C779" s="19"/>
+      <c r="D779" s="20"/>
     </row>
     <row r="780">
-      <c r="C780" s="25"/>
-      <c r="D780" s="27"/>
+      <c r="C780" s="19"/>
+      <c r="D780" s="20"/>
     </row>
     <row r="781">
-      <c r="C781" s="25"/>
-      <c r="D781" s="27"/>
+      <c r="C781" s="19"/>
+      <c r="D781" s="20"/>
     </row>
     <row r="782">
-      <c r="C782" s="25"/>
-      <c r="D782" s="27"/>
+      <c r="C782" s="19"/>
+      <c r="D782" s="20"/>
     </row>
     <row r="783">
-      <c r="C783" s="25"/>
-      <c r="D783" s="27"/>
+      <c r="C783" s="19"/>
+      <c r="D783" s="20"/>
     </row>
     <row r="784">
-      <c r="C784" s="25"/>
-      <c r="D784" s="27"/>
+      <c r="C784" s="19"/>
+      <c r="D784" s="20"/>
     </row>
     <row r="785">
-      <c r="C785" s="25"/>
-      <c r="D785" s="27"/>
+      <c r="C785" s="19"/>
+      <c r="D785" s="20"/>
     </row>
     <row r="786">
-      <c r="C786" s="25"/>
-      <c r="D786" s="27"/>
+      <c r="C786" s="19"/>
+      <c r="D786" s="20"/>
     </row>
     <row r="787">
-      <c r="C787" s="25"/>
-      <c r="D787" s="27"/>
+      <c r="C787" s="19"/>
+      <c r="D787" s="20"/>
     </row>
     <row r="788">
-      <c r="C788" s="25"/>
-      <c r="D788" s="27"/>
+      <c r="C788" s="19"/>
+      <c r="D788" s="20"/>
     </row>
     <row r="789">
-      <c r="C789" s="25"/>
-      <c r="D789" s="27"/>
+      <c r="C789" s="19"/>
+      <c r="D789" s="20"/>
     </row>
     <row r="790">
-      <c r="C790" s="25"/>
-      <c r="D790" s="27"/>
+      <c r="C790" s="19"/>
+      <c r="D790" s="20"/>
     </row>
     <row r="791">
-      <c r="C791" s="25"/>
-      <c r="D791" s="27"/>
+      <c r="C791" s="19"/>
+      <c r="D791" s="20"/>
     </row>
     <row r="792">
-      <c r="C792" s="25"/>
-      <c r="D792" s="27"/>
+      <c r="C792" s="19"/>
+      <c r="D792" s="20"/>
     </row>
     <row r="793">
-      <c r="C793" s="25"/>
-      <c r="D793" s="27"/>
+      <c r="C793" s="19"/>
+      <c r="D793" s="20"/>
     </row>
     <row r="794">
-      <c r="C794" s="25"/>
-      <c r="D794" s="27"/>
+      <c r="C794" s="19"/>
+      <c r="D794" s="20"/>
     </row>
     <row r="795">
-      <c r="C795" s="25"/>
-      <c r="D795" s="27"/>
+      <c r="C795" s="19"/>
+      <c r="D795" s="20"/>
     </row>
     <row r="796">
-      <c r="C796" s="25"/>
-      <c r="D796" s="27"/>
+      <c r="C796" s="19"/>
+      <c r="D796" s="20"/>
     </row>
     <row r="797">
-      <c r="C797" s="25"/>
-      <c r="D797" s="27"/>
+      <c r="C797" s="19"/>
+      <c r="D797" s="20"/>
     </row>
     <row r="798">
-      <c r="C798" s="25"/>
-      <c r="D798" s="27"/>
+      <c r="C798" s="19"/>
+      <c r="D798" s="20"/>
     </row>
     <row r="799">
-      <c r="C799" s="25"/>
-      <c r="D799" s="27"/>
+      <c r="C799" s="19"/>
+      <c r="D799" s="20"/>
     </row>
     <row r="800">
-      <c r="C800" s="25"/>
-      <c r="D800" s="27"/>
+      <c r="C800" s="19"/>
+      <c r="D800" s="20"/>
     </row>
     <row r="801">
-      <c r="C801" s="25"/>
-      <c r="D801" s="27"/>
+      <c r="C801" s="19"/>
+      <c r="D801" s="20"/>
     </row>
     <row r="802">
-      <c r="C802" s="25"/>
-      <c r="D802" s="27"/>
+      <c r="C802" s="19"/>
+      <c r="D802" s="20"/>
     </row>
     <row r="803">
-      <c r="C803" s="25"/>
-      <c r="D803" s="27"/>
+      <c r="C803" s="19"/>
+      <c r="D803" s="20"/>
     </row>
     <row r="804">
-      <c r="C804" s="25"/>
-      <c r="D804" s="27"/>
+      <c r="C804" s="19"/>
+      <c r="D804" s="20"/>
     </row>
     <row r="805">
-      <c r="C805" s="25"/>
-      <c r="D805" s="27"/>
+      <c r="C805" s="19"/>
+      <c r="D805" s="20"/>
     </row>
     <row r="806">
-      <c r="C806" s="25"/>
-      <c r="D806" s="27"/>
+      <c r="C806" s="19"/>
+      <c r="D806" s="20"/>
     </row>
     <row r="807">
-      <c r="C807" s="25"/>
-      <c r="D807" s="27"/>
+      <c r="C807" s="19"/>
+      <c r="D807" s="20"/>
     </row>
     <row r="808">
-      <c r="C808" s="25"/>
-      <c r="D808" s="27"/>
+      <c r="C808" s="19"/>
+      <c r="D808" s="20"/>
     </row>
     <row r="809">
-      <c r="C809" s="25"/>
-      <c r="D809" s="27"/>
+      <c r="C809" s="19"/>
+      <c r="D809" s="20"/>
     </row>
     <row r="810">
-      <c r="C810" s="25"/>
-      <c r="D810" s="27"/>
+      <c r="C810" s="19"/>
+      <c r="D810" s="20"/>
     </row>
     <row r="811">
-      <c r="C811" s="25"/>
-      <c r="D811" s="27"/>
+      <c r="C811" s="19"/>
+      <c r="D811" s="20"/>
     </row>
     <row r="812">
-      <c r="C812" s="25"/>
-      <c r="D812" s="27"/>
+      <c r="C812" s="19"/>
+      <c r="D812" s="20"/>
     </row>
     <row r="813">
-      <c r="C813" s="25"/>
-      <c r="D813" s="27"/>
+      <c r="C813" s="19"/>
+      <c r="D813" s="20"/>
     </row>
     <row r="814">
-      <c r="C814" s="25"/>
-      <c r="D814" s="27"/>
+      <c r="C814" s="19"/>
+      <c r="D814" s="20"/>
     </row>
     <row r="815">
-      <c r="C815" s="25"/>
-      <c r="D815" s="27"/>
+      <c r="C815" s="19"/>
+      <c r="D815" s="20"/>
     </row>
     <row r="816">
-      <c r="C816" s="25"/>
-      <c r="D816" s="27"/>
+      <c r="C816" s="19"/>
+      <c r="D816" s="20"/>
     </row>
     <row r="817">
-      <c r="C817" s="25"/>
-      <c r="D817" s="27"/>
+      <c r="C817" s="19"/>
+      <c r="D817" s="20"/>
     </row>
     <row r="818">
-      <c r="C818" s="25"/>
-      <c r="D818" s="27"/>
+      <c r="C818" s="19"/>
+      <c r="D818" s="20"/>
     </row>
     <row r="819">
-      <c r="C819" s="25"/>
-      <c r="D819" s="27"/>
+      <c r="C819" s="19"/>
+      <c r="D819" s="20"/>
     </row>
     <row r="820">
-      <c r="C820" s="25"/>
-      <c r="D820" s="27"/>
+      <c r="C820" s="19"/>
+      <c r="D820" s="20"/>
     </row>
     <row r="821">
-      <c r="C821" s="25"/>
-      <c r="D821" s="27"/>
+      <c r="C821" s="19"/>
+      <c r="D821" s="20"/>
     </row>
     <row r="822">
-      <c r="C822" s="25"/>
-      <c r="D822" s="27"/>
+      <c r="C822" s="19"/>
+      <c r="D822" s="20"/>
     </row>
     <row r="823">
-      <c r="C823" s="25"/>
-      <c r="D823" s="27"/>
+      <c r="C823" s="19"/>
+      <c r="D823" s="20"/>
     </row>
     <row r="824">
-      <c r="C824" s="25"/>
-      <c r="D824" s="27"/>
+      <c r="C824" s="19"/>
+      <c r="D824" s="20"/>
     </row>
     <row r="825">
-      <c r="C825" s="25"/>
-      <c r="D825" s="27"/>
+      <c r="C825" s="19"/>
+      <c r="D825" s="20"/>
     </row>
     <row r="826">
-      <c r="C826" s="25"/>
-      <c r="D826" s="27"/>
+      <c r="C826" s="19"/>
+      <c r="D826" s="20"/>
     </row>
     <row r="827">
-      <c r="C827" s="25"/>
-      <c r="D827" s="27"/>
+      <c r="C827" s="19"/>
+      <c r="D827" s="20"/>
     </row>
     <row r="828">
-      <c r="C828" s="25"/>
-      <c r="D828" s="27"/>
+      <c r="C828" s="19"/>
+      <c r="D828" s="20"/>
     </row>
     <row r="829">
-      <c r="C829" s="25"/>
-      <c r="D829" s="27"/>
+      <c r="C829" s="19"/>
+      <c r="D829" s="20"/>
     </row>
     <row r="830">
-      <c r="C830" s="25"/>
-      <c r="D830" s="27"/>
+      <c r="C830" s="19"/>
+      <c r="D830" s="20"/>
     </row>
     <row r="831">
-      <c r="C831" s="25"/>
-      <c r="D831" s="27"/>
+      <c r="C831" s="19"/>
+      <c r="D831" s="20"/>
     </row>
     <row r="832">
-      <c r="C832" s="25"/>
-      <c r="D832" s="27"/>
+      <c r="C832" s="19"/>
+      <c r="D832" s="20"/>
     </row>
     <row r="833">
-      <c r="C833" s="25"/>
-      <c r="D833" s="27"/>
+      <c r="C833" s="19"/>
+      <c r="D833" s="20"/>
     </row>
     <row r="834">
-      <c r="C834" s="25"/>
-      <c r="D834" s="27"/>
+      <c r="C834" s="19"/>
+      <c r="D834" s="20"/>
     </row>
     <row r="835">
-      <c r="C835" s="25"/>
-      <c r="D835" s="27"/>
+      <c r="C835" s="19"/>
+      <c r="D835" s="20"/>
     </row>
     <row r="836">
-      <c r="C836" s="25"/>
-      <c r="D836" s="27"/>
+      <c r="C836" s="19"/>
+      <c r="D836" s="20"/>
     </row>
     <row r="837">
-      <c r="C837" s="25"/>
-      <c r="D837" s="27"/>
+      <c r="C837" s="19"/>
+      <c r="D837" s="20"/>
     </row>
     <row r="838">
-      <c r="C838" s="25"/>
-      <c r="D838" s="27"/>
+      <c r="C838" s="19"/>
+      <c r="D838" s="20"/>
     </row>
     <row r="839">
-      <c r="C839" s="25"/>
-      <c r="D839" s="27"/>
+      <c r="C839" s="19"/>
+      <c r="D839" s="20"/>
     </row>
     <row r="840">
-      <c r="C840" s="25"/>
-      <c r="D840" s="27"/>
+      <c r="C840" s="19"/>
+      <c r="D840" s="20"/>
     </row>
     <row r="841">
-      <c r="C841" s="25"/>
-      <c r="D841" s="27"/>
+      <c r="C841" s="19"/>
+      <c r="D841" s="20"/>
     </row>
     <row r="842">
-      <c r="C842" s="25"/>
-      <c r="D842" s="27"/>
+      <c r="C842" s="19"/>
+      <c r="D842" s="20"/>
     </row>
     <row r="843">
-      <c r="C843" s="25"/>
-      <c r="D843" s="27"/>
+      <c r="C843" s="19"/>
+      <c r="D843" s="20"/>
     </row>
     <row r="844">
-      <c r="C844" s="25"/>
-      <c r="D844" s="27"/>
+      <c r="C844" s="19"/>
+      <c r="D844" s="20"/>
     </row>
     <row r="845">
-      <c r="C845" s="25"/>
-      <c r="D845" s="27"/>
+      <c r="C845" s="19"/>
+      <c r="D845" s="20"/>
     </row>
     <row r="846">
-      <c r="C846" s="25"/>
-      <c r="D846" s="27"/>
+      <c r="C846" s="19"/>
+      <c r="D846" s="20"/>
     </row>
     <row r="847">
-      <c r="C847" s="25"/>
-      <c r="D847" s="27"/>
+      <c r="C847" s="19"/>
+      <c r="D847" s="20"/>
     </row>
     <row r="848">
-      <c r="C848" s="25"/>
-      <c r="D848" s="27"/>
+      <c r="C848" s="19"/>
+      <c r="D848" s="20"/>
     </row>
     <row r="849">
-      <c r="C849" s="25"/>
-      <c r="D849" s="27"/>
+      <c r="C849" s="19"/>
+      <c r="D849" s="20"/>
     </row>
     <row r="850">
-      <c r="C850" s="25"/>
-      <c r="D850" s="27"/>
+      <c r="C850" s="19"/>
+      <c r="D850" s="20"/>
     </row>
     <row r="851">
-      <c r="C851" s="25"/>
-      <c r="D851" s="27"/>
+      <c r="C851" s="19"/>
+      <c r="D851" s="20"/>
     </row>
     <row r="852">
-      <c r="C852" s="25"/>
-      <c r="D852" s="27"/>
+      <c r="C852" s="19"/>
+      <c r="D852" s="20"/>
     </row>
     <row r="853">
-      <c r="C853" s="25"/>
-      <c r="D853" s="27"/>
+      <c r="C853" s="19"/>
+      <c r="D853" s="20"/>
     </row>
     <row r="854">
-      <c r="C854" s="25"/>
-      <c r="D854" s="27"/>
+      <c r="C854" s="19"/>
+      <c r="D854" s="20"/>
     </row>
     <row r="855">
-      <c r="C855" s="25"/>
-      <c r="D855" s="27"/>
+      <c r="C855" s="19"/>
+      <c r="D855" s="20"/>
     </row>
     <row r="856">
-      <c r="C856" s="25"/>
-      <c r="D856" s="27"/>
+      <c r="C856" s="19"/>
+      <c r="D856" s="20"/>
     </row>
     <row r="857">
-      <c r="C857" s="25"/>
-      <c r="D857" s="27"/>
+      <c r="C857" s="19"/>
+      <c r="D857" s="20"/>
     </row>
     <row r="858">
-      <c r="C858" s="25"/>
-      <c r="D858" s="27"/>
+      <c r="C858" s="19"/>
+      <c r="D858" s="20"/>
     </row>
     <row r="859">
-      <c r="C859" s="25"/>
-      <c r="D859" s="27"/>
+      <c r="C859" s="19"/>
+      <c r="D859" s="20"/>
     </row>
     <row r="860">
-      <c r="C860" s="25"/>
-      <c r="D860" s="27"/>
+      <c r="C860" s="19"/>
+      <c r="D860" s="20"/>
     </row>
     <row r="861">
-      <c r="C861" s="25"/>
-      <c r="D861" s="27"/>
+      <c r="C861" s="19"/>
+      <c r="D861" s="20"/>
     </row>
     <row r="862">
-      <c r="C862" s="25"/>
-      <c r="D862" s="27"/>
+      <c r="C862" s="19"/>
+      <c r="D862" s="20"/>
     </row>
     <row r="863">
-      <c r="C863" s="25"/>
-      <c r="D863" s="27"/>
+      <c r="C863" s="19"/>
+      <c r="D863" s="20"/>
     </row>
     <row r="864">
-      <c r="C864" s="25"/>
-      <c r="D864" s="27"/>
+      <c r="C864" s="19"/>
+      <c r="D864" s="20"/>
     </row>
     <row r="865">
-      <c r="C865" s="25"/>
-      <c r="D865" s="27"/>
+      <c r="C865" s="19"/>
+      <c r="D865" s="20"/>
     </row>
     <row r="866">
-      <c r="C866" s="25"/>
-      <c r="D866" s="27"/>
+      <c r="C866" s="19"/>
+      <c r="D866" s="20"/>
     </row>
     <row r="867">
-      <c r="C867" s="25"/>
-      <c r="D867" s="27"/>
+      <c r="C867" s="19"/>
+      <c r="D867" s="20"/>
     </row>
     <row r="868">
-      <c r="C868" s="25"/>
-      <c r="D868" s="27"/>
+      <c r="C868" s="19"/>
+      <c r="D868" s="20"/>
     </row>
     <row r="869">
-      <c r="C869" s="25"/>
-      <c r="D869" s="27"/>
+      <c r="C869" s="19"/>
+      <c r="D869" s="20"/>
     </row>
     <row r="870">
-      <c r="C870" s="25"/>
-      <c r="D870" s="27"/>
+      <c r="C870" s="19"/>
+      <c r="D870" s="20"/>
     </row>
     <row r="871">
-      <c r="C871" s="25"/>
-      <c r="D871" s="27"/>
+      <c r="C871" s="19"/>
+      <c r="D871" s="20"/>
     </row>
     <row r="872">
-      <c r="C872" s="25"/>
-      <c r="D872" s="27"/>
+      <c r="C872" s="19"/>
+      <c r="D872" s="20"/>
     </row>
     <row r="873">
-      <c r="C873" s="25"/>
-      <c r="D873" s="27"/>
+      <c r="C873" s="19"/>
+      <c r="D873" s="20"/>
     </row>
     <row r="874">
-      <c r="C874" s="25"/>
-      <c r="D874" s="27"/>
+      <c r="C874" s="19"/>
+      <c r="D874" s="20"/>
     </row>
     <row r="875">
-      <c r="C875" s="25"/>
-      <c r="D875" s="27"/>
+      <c r="C875" s="19"/>
+      <c r="D875" s="20"/>
     </row>
     <row r="876">
-      <c r="C876" s="25"/>
-      <c r="D876" s="27"/>
+      <c r="C876" s="19"/>
+      <c r="D876" s="20"/>
     </row>
     <row r="877">
-      <c r="C877" s="25"/>
-      <c r="D877" s="27"/>
+      <c r="C877" s="19"/>
+      <c r="D877" s="20"/>
     </row>
     <row r="878">
-      <c r="C878" s="25"/>
-      <c r="D878" s="27"/>
+      <c r="C878" s="19"/>
+      <c r="D878" s="20"/>
     </row>
     <row r="879">
-      <c r="C879" s="25"/>
-      <c r="D879" s="27"/>
+      <c r="C879" s="19"/>
+      <c r="D879" s="20"/>
     </row>
     <row r="880">
-      <c r="C880" s="25"/>
-      <c r="D880" s="27"/>
+      <c r="C880" s="19"/>
+      <c r="D880" s="20"/>
     </row>
     <row r="881">
-      <c r="C881" s="25"/>
-      <c r="D881" s="27"/>
+      <c r="C881" s="19"/>
+      <c r="D881" s="20"/>
     </row>
     <row r="882">
-      <c r="C882" s="25"/>
-      <c r="D882" s="27"/>
+      <c r="C882" s="19"/>
+      <c r="D882" s="20"/>
     </row>
     <row r="883">
-      <c r="C883" s="25"/>
-      <c r="D883" s="27"/>
+      <c r="C883" s="19"/>
+      <c r="D883" s="20"/>
     </row>
     <row r="884">
-      <c r="C884" s="25"/>
-      <c r="D884" s="27"/>
+      <c r="C884" s="19"/>
+      <c r="D884" s="20"/>
     </row>
     <row r="885">
-      <c r="C885" s="25"/>
-      <c r="D885" s="27"/>
+      <c r="C885" s="19"/>
+      <c r="D885" s="20"/>
     </row>
     <row r="886">
-      <c r="C886" s="25"/>
-      <c r="D886" s="27"/>
+      <c r="C886" s="19"/>
+      <c r="D886" s="20"/>
     </row>
     <row r="887">
-      <c r="C887" s="25"/>
-      <c r="D887" s="27"/>
+      <c r="C887" s="19"/>
+      <c r="D887" s="20"/>
     </row>
     <row r="888">
-      <c r="C888" s="25"/>
-      <c r="D888" s="27"/>
+      <c r="C888" s="19"/>
+      <c r="D888" s="20"/>
     </row>
     <row r="889">
-      <c r="C889" s="25"/>
-      <c r="D889" s="27"/>
+      <c r="C889" s="19"/>
+      <c r="D889" s="20"/>
     </row>
     <row r="890">
-      <c r="C890" s="25"/>
-      <c r="D890" s="27"/>
+      <c r="C890" s="19"/>
+      <c r="D890" s="20"/>
     </row>
     <row r="891">
-      <c r="C891" s="25"/>
-      <c r="D891" s="27"/>
+      <c r="C891" s="19"/>
+      <c r="D891" s="20"/>
     </row>
     <row r="892">
-      <c r="C892" s="25"/>
-      <c r="D892" s="27"/>
+      <c r="C892" s="19"/>
+      <c r="D892" s="20"/>
     </row>
     <row r="893">
-      <c r="C893" s="25"/>
-      <c r="D893" s="27"/>
+      <c r="C893" s="19"/>
+      <c r="D893" s="20"/>
     </row>
     <row r="894">
-      <c r="C894" s="25"/>
-      <c r="D894" s="27"/>
+      <c r="C894" s="19"/>
+      <c r="D894" s="20"/>
     </row>
     <row r="895">
-      <c r="C895" s="25"/>
-      <c r="D895" s="27"/>
+      <c r="C895" s="19"/>
+      <c r="D895" s="20"/>
     </row>
     <row r="896">
-      <c r="C896" s="25"/>
-      <c r="D896" s="27"/>
+      <c r="C896" s="19"/>
+      <c r="D896" s="20"/>
     </row>
     <row r="897">
-      <c r="C897" s="25"/>
-      <c r="D897" s="27"/>
+      <c r="C897" s="19"/>
+      <c r="D897" s="20"/>
     </row>
     <row r="898">
-      <c r="C898" s="25"/>
-      <c r="D898" s="27"/>
+      <c r="C898" s="19"/>
+      <c r="D898" s="20"/>
     </row>
     <row r="899">
-      <c r="C899" s="25"/>
-      <c r="D899" s="27"/>
+      <c r="C899" s="19"/>
+      <c r="D899" s="20"/>
     </row>
     <row r="900">
-      <c r="C900" s="25"/>
-      <c r="D900" s="27"/>
+      <c r="C900" s="19"/>
+      <c r="D900" s="20"/>
     </row>
     <row r="901">
-      <c r="C901" s="25"/>
-      <c r="D901" s="27"/>
+      <c r="C901" s="19"/>
+      <c r="D901" s="20"/>
     </row>
     <row r="902">
-      <c r="C902" s="25"/>
-      <c r="D902" s="27"/>
+      <c r="C902" s="19"/>
+      <c r="D902" s="20"/>
     </row>
     <row r="903">
-      <c r="C903" s="25"/>
-      <c r="D903" s="27"/>
+      <c r="C903" s="19"/>
+      <c r="D903" s="20"/>
     </row>
     <row r="904">
-      <c r="C904" s="25"/>
-      <c r="D904" s="27"/>
+      <c r="C904" s="19"/>
+      <c r="D904" s="20"/>
     </row>
     <row r="905">
-      <c r="C905" s="25"/>
-      <c r="D905" s="27"/>
+      <c r="C905" s="19"/>
+      <c r="D905" s="20"/>
     </row>
     <row r="906">
-      <c r="C906" s="25"/>
-      <c r="D906" s="27"/>
+      <c r="C906" s="19"/>
+      <c r="D906" s="20"/>
     </row>
     <row r="907">
-      <c r="C907" s="25"/>
-      <c r="D907" s="27"/>
+      <c r="C907" s="19"/>
+      <c r="D907" s="20"/>
     </row>
     <row r="908">
-      <c r="C908" s="25"/>
-      <c r="D908" s="27"/>
+      <c r="C908" s="19"/>
+      <c r="D908" s="20"/>
     </row>
     <row r="909">
-      <c r="C909" s="25"/>
-      <c r="D909" s="27"/>
+      <c r="C909" s="19"/>
+      <c r="D909" s="20"/>
     </row>
     <row r="910">
-      <c r="C910" s="25"/>
-      <c r="D910" s="27"/>
+      <c r="C910" s="19"/>
+      <c r="D910" s="20"/>
     </row>
     <row r="911">
-      <c r="C911" s="25"/>
-      <c r="D911" s="27"/>
+      <c r="C911" s="19"/>
+      <c r="D911" s="20"/>
     </row>
     <row r="912">
-      <c r="C912" s="25"/>
-      <c r="D912" s="27"/>
+      <c r="C912" s="19"/>
+      <c r="D912" s="20"/>
     </row>
     <row r="913">
-      <c r="C913" s="25"/>
-      <c r="D913" s="27"/>
+      <c r="C913" s="19"/>
+      <c r="D913" s="20"/>
     </row>
     <row r="914">
-      <c r="C914" s="25"/>
-      <c r="D914" s="27"/>
+      <c r="C914" s="19"/>
+      <c r="D914" s="20"/>
     </row>
     <row r="915">
-      <c r="C915" s="25"/>
-      <c r="D915" s="27"/>
+      <c r="C915" s="19"/>
+      <c r="D915" s="20"/>
     </row>
     <row r="916">
-      <c r="C916" s="25"/>
-      <c r="D916" s="27"/>
+      <c r="C916" s="19"/>
+      <c r="D916" s="20"/>
     </row>
     <row r="917">
-      <c r="C917" s="25"/>
-      <c r="D917" s="27"/>
+      <c r="C917" s="19"/>
+      <c r="D917" s="20"/>
     </row>
     <row r="918">
-      <c r="C918" s="25"/>
-      <c r="D918" s="27"/>
+      <c r="C918" s="19"/>
+      <c r="D918" s="20"/>
     </row>
     <row r="919">
-      <c r="C919" s="25"/>
-      <c r="D919" s="27"/>
+      <c r="C919" s="19"/>
+      <c r="D919" s="20"/>
     </row>
     <row r="920">
-      <c r="C920" s="25"/>
-      <c r="D920" s="27"/>
+      <c r="C920" s="19"/>
+      <c r="D920" s="20"/>
     </row>
     <row r="921">
-      <c r="C921" s="25"/>
-      <c r="D921" s="27"/>
+      <c r="C921" s="19"/>
+      <c r="D921" s="20"/>
     </row>
     <row r="922">
-      <c r="C922" s="25"/>
-      <c r="D922" s="27"/>
+      <c r="C922" s="19"/>
+      <c r="D922" s="20"/>
     </row>
     <row r="923">
-      <c r="C923" s="25"/>
-      <c r="D923" s="27"/>
+      <c r="C923" s="19"/>
+      <c r="D923" s="20"/>
     </row>
     <row r="924">
-      <c r="C924" s="25"/>
-      <c r="D924" s="27"/>
+      <c r="C924" s="19"/>
+      <c r="D924" s="20"/>
     </row>
     <row r="925">
-      <c r="C925" s="25"/>
-      <c r="D925" s="27"/>
+      <c r="C925" s="19"/>
+      <c r="D925" s="20"/>
     </row>
     <row r="926">
-      <c r="C926" s="25"/>
-      <c r="D926" s="27"/>
+      <c r="C926" s="19"/>
+      <c r="D926" s="20"/>
     </row>
     <row r="927">
-      <c r="C927" s="25"/>
-      <c r="D927" s="27"/>
+      <c r="C927" s="19"/>
+      <c r="D927" s="20"/>
     </row>
     <row r="928">
-      <c r="C928" s="25"/>
-      <c r="D928" s="27"/>
+      <c r="C928" s="19"/>
+      <c r="D928" s="20"/>
     </row>
     <row r="929">
-      <c r="C929" s="25"/>
-      <c r="D929" s="27"/>
+      <c r="C929" s="19"/>
+      <c r="D929" s="20"/>
     </row>
     <row r="930">
-      <c r="C930" s="25"/>
-      <c r="D930" s="27"/>
+      <c r="C930" s="19"/>
+      <c r="D930" s="20"/>
     </row>
     <row r="931">
-      <c r="C931" s="25"/>
-      <c r="D931" s="27"/>
+      <c r="C931" s="19"/>
+      <c r="D931" s="20"/>
     </row>
     <row r="932">
-      <c r="C932" s="25"/>
-      <c r="D932" s="27"/>
+      <c r="C932" s="19"/>
+      <c r="D932" s="20"/>
     </row>
     <row r="933">
-      <c r="C933" s="25"/>
-      <c r="D933" s="27"/>
+      <c r="C933" s="19"/>
+      <c r="D933" s="20"/>
     </row>
     <row r="934">
-      <c r="C934" s="25"/>
-      <c r="D934" s="27"/>
+      <c r="C934" s="19"/>
+      <c r="D934" s="20"/>
     </row>
     <row r="935">
-      <c r="C935" s="25"/>
-      <c r="D935" s="27"/>
+      <c r="C935" s="19"/>
+      <c r="D935" s="20"/>
     </row>
     <row r="936">
-      <c r="C936" s="25"/>
-      <c r="D936" s="27"/>
+      <c r="C936" s="19"/>
+      <c r="D936" s="20"/>
     </row>
     <row r="937">
-      <c r="C937" s="25"/>
-      <c r="D937" s="27"/>
+      <c r="C937" s="19"/>
+      <c r="D937" s="20"/>
     </row>
     <row r="938">
-      <c r="C938" s="25"/>
-      <c r="D938" s="27"/>
+      <c r="C938" s="19"/>
+      <c r="D938" s="20"/>
     </row>
     <row r="939">
-      <c r="C939" s="25"/>
-      <c r="D939" s="27"/>
+      <c r="C939" s="19"/>
+      <c r="D939" s="20"/>
     </row>
     <row r="940">
-      <c r="C940" s="25"/>
-      <c r="D940" s="27"/>
+      <c r="C940" s="19"/>
+      <c r="D940" s="20"/>
     </row>
     <row r="941">
-      <c r="C941" s="25"/>
-      <c r="D941" s="27"/>
+      <c r="C941" s="19"/>
+      <c r="D941" s="20"/>
     </row>
     <row r="942">
-      <c r="C942" s="25"/>
-      <c r="D942" s="27"/>
+      <c r="C942" s="19"/>
+      <c r="D942" s="20"/>
     </row>
     <row r="943">
-      <c r="C943" s="25"/>
-      <c r="D943" s="27"/>
+      <c r="C943" s="19"/>
+      <c r="D943" s="20"/>
     </row>
     <row r="944">
-      <c r="C944" s="25"/>
-      <c r="D944" s="27"/>
+      <c r="C944" s="19"/>
+      <c r="D944" s="20"/>
     </row>
     <row r="945">
-      <c r="C945" s="25"/>
-      <c r="D945" s="27"/>
+      <c r="C945" s="19"/>
+      <c r="D945" s="20"/>
     </row>
     <row r="946">
-      <c r="C946" s="25"/>
-      <c r="D946" s="27"/>
+      <c r="C946" s="19"/>
+      <c r="D946" s="20"/>
     </row>
     <row r="947">
-      <c r="C947" s="25"/>
-      <c r="D947" s="27"/>
+      <c r="C947" s="19"/>
+      <c r="D947" s="20"/>
     </row>
     <row r="948">
-      <c r="C948" s="25"/>
-      <c r="D948" s="27"/>
+      <c r="C948" s="19"/>
+      <c r="D948" s="20"/>
     </row>
     <row r="949">
-      <c r="C949" s="25"/>
-      <c r="D949" s="27"/>
+      <c r="C949" s="19"/>
+      <c r="D949" s="20"/>
     </row>
     <row r="950">
-      <c r="C950" s="25"/>
-      <c r="D950" s="27"/>
+      <c r="C950" s="19"/>
+      <c r="D950" s="20"/>
     </row>
     <row r="951">
-      <c r="C951" s="25"/>
-      <c r="D951" s="27"/>
+      <c r="C951" s="19"/>
+      <c r="D951" s="20"/>
     </row>
     <row r="952">
-      <c r="C952" s="25"/>
-      <c r="D952" s="27"/>
+      <c r="C952" s="19"/>
+      <c r="D952" s="20"/>
     </row>
     <row r="953">
-      <c r="C953" s="25"/>
-      <c r="D953" s="27"/>
+      <c r="C953" s="19"/>
+      <c r="D953" s="20"/>
     </row>
     <row r="954">
-      <c r="C954" s="25"/>
-      <c r="D954" s="27"/>
+      <c r="C954" s="19"/>
+      <c r="D954" s="20"/>
     </row>
     <row r="955">
-      <c r="C955" s="25"/>
-      <c r="D955" s="27"/>
+      <c r="C955" s="19"/>
+      <c r="D955" s="20"/>
     </row>
     <row r="956">
-      <c r="C956" s="25"/>
-      <c r="D956" s="27"/>
+      <c r="C956" s="19"/>
+      <c r="D956" s="20"/>
     </row>
     <row r="957">
-      <c r="C957" s="25"/>
-      <c r="D957" s="27"/>
+      <c r="C957" s="19"/>
+      <c r="D957" s="20"/>
     </row>
     <row r="958">
-      <c r="C958" s="25"/>
-      <c r="D958" s="27"/>
+      <c r="C958" s="19"/>
+      <c r="D958" s="20"/>
     </row>
     <row r="959">
-      <c r="C959" s="25"/>
-      <c r="D959" s="27"/>
+      <c r="C959" s="19"/>
+      <c r="D959" s="20"/>
     </row>
     <row r="960">
-      <c r="C960" s="25"/>
-      <c r="D960" s="27"/>
+      <c r="C960" s="19"/>
+      <c r="D960" s="20"/>
     </row>
     <row r="961">
-      <c r="C961" s="25"/>
-      <c r="D961" s="27"/>
+      <c r="C961" s="19"/>
+      <c r="D961" s="20"/>
     </row>
     <row r="962">
-      <c r="C962" s="25"/>
-      <c r="D962" s="27"/>
+      <c r="C962" s="19"/>
+      <c r="D962" s="20"/>
     </row>
     <row r="963">
-      <c r="C963" s="25"/>
-      <c r="D963" s="27"/>
+      <c r="C963" s="19"/>
+      <c r="D963" s="20"/>
     </row>
     <row r="964">
-      <c r="C964" s="25"/>
-      <c r="D964" s="27"/>
+      <c r="C964" s="19"/>
+      <c r="D964" s="20"/>
     </row>
     <row r="965">
-      <c r="C965" s="25"/>
-      <c r="D965" s="27"/>
+      <c r="C965" s="19"/>
+      <c r="D965" s="20"/>
     </row>
     <row r="966">
-      <c r="C966" s="25"/>
-      <c r="D966" s="27"/>
+      <c r="C966" s="19"/>
+      <c r="D966" s="20"/>
     </row>
     <row r="967">
-      <c r="C967" s="25"/>
-      <c r="D967" s="27"/>
+      <c r="C967" s="19"/>
+      <c r="D967" s="20"/>
     </row>
     <row r="968">
-      <c r="C968" s="25"/>
-      <c r="D968" s="27"/>
+      <c r="C968" s="19"/>
+      <c r="D968" s="20"/>
     </row>
     <row r="969">
-      <c r="C969" s="25"/>
-      <c r="D969" s="27"/>
+      <c r="C969" s="19"/>
+      <c r="D969" s="20"/>
     </row>
     <row r="970">
-      <c r="C970" s="25"/>
-      <c r="D970" s="27"/>
+      <c r="C970" s="19"/>
+      <c r="D970" s="20"/>
     </row>
     <row r="971">
-      <c r="C971" s="25"/>
-      <c r="D971" s="27"/>
+      <c r="C971" s="19"/>
+      <c r="D971" s="20"/>
     </row>
     <row r="972">
-      <c r="C972" s="25"/>
-      <c r="D972" s="27"/>
+      <c r="C972" s="19"/>
+      <c r="D972" s="20"/>
     </row>
     <row r="973">
-      <c r="C973" s="25"/>
-      <c r="D973" s="27"/>
+      <c r="C973" s="19"/>
+      <c r="D973" s="20"/>
     </row>
     <row r="974">
-      <c r="C974" s="25"/>
-      <c r="D974" s="27"/>
+      <c r="C974" s="19"/>
+      <c r="D974" s="20"/>
     </row>
     <row r="975">
-      <c r="C975" s="25"/>
-      <c r="D975" s="27"/>
+      <c r="C975" s="19"/>
+      <c r="D975" s="20"/>
     </row>
     <row r="976">
-      <c r="C976" s="25"/>
-      <c r="D976" s="27"/>
+      <c r="C976" s="19"/>
+      <c r="D976" s="20"/>
     </row>
     <row r="977">
-      <c r="C977" s="25"/>
-      <c r="D977" s="27"/>
+      <c r="C977" s="19"/>
+      <c r="D977" s="20"/>
     </row>
     <row r="978">
-      <c r="C978" s="25"/>
-      <c r="D978" s="27"/>
+      <c r="C978" s="19"/>
+      <c r="D978" s="20"/>
     </row>
     <row r="979">
-      <c r="C979" s="25"/>
-      <c r="D979" s="27"/>
+      <c r="C979" s="19"/>
+      <c r="D979" s="20"/>
     </row>
     <row r="980">
-      <c r="C980" s="25"/>
-      <c r="D980" s="27"/>
+      <c r="C980" s="19"/>
+      <c r="D980" s="20"/>
     </row>
     <row r="981">
-      <c r="C981" s="25"/>
-      <c r="D981" s="27"/>
+      <c r="C981" s="19"/>
+      <c r="D981" s="20"/>
     </row>
     <row r="982">
-      <c r="C982" s="25"/>
-      <c r="D982" s="27"/>
+      <c r="C982" s="19"/>
+      <c r="D982" s="20"/>
     </row>
     <row r="983">
-      <c r="C983" s="25"/>
-      <c r="D983" s="27"/>
+      <c r="C983" s="19"/>
+      <c r="D983" s="20"/>
     </row>
     <row r="984">
-      <c r="C984" s="25"/>
-      <c r="D984" s="27"/>
+      <c r="C984" s="19"/>
+      <c r="D984" s="20"/>
     </row>
     <row r="985">
-      <c r="C985" s="25"/>
-      <c r="D985" s="27"/>
+      <c r="C985" s="19"/>
+      <c r="D985" s="20"/>
     </row>
     <row r="986">
-      <c r="C986" s="25"/>
-      <c r="D986" s="27"/>
+      <c r="C986" s="19"/>
+      <c r="D986" s="20"/>
     </row>
     <row r="987">
-      <c r="C987" s="25"/>
-      <c r="D987" s="27"/>
+      <c r="C987" s="19"/>
+      <c r="D987" s="20"/>
     </row>
     <row r="988">
-      <c r="C988" s="25"/>
-      <c r="D988" s="27"/>
+      <c r="C988" s="19"/>
+      <c r="D988" s="20"/>
     </row>
     <row r="989">
-      <c r="C989" s="25"/>
-      <c r="D989" s="27"/>
+      <c r="C989" s="19"/>
+      <c r="D989" s="20"/>
     </row>
     <row r="990">
-      <c r="C990" s="25"/>
-      <c r="D990" s="27"/>
+      <c r="C990" s="19"/>
+      <c r="D990" s="20"/>
     </row>
     <row r="991">
-      <c r="C991" s="25"/>
-      <c r="D991" s="27"/>
+      <c r="C991" s="19"/>
+      <c r="D991" s="20"/>
     </row>
     <row r="992">
-      <c r="C992" s="25"/>
-      <c r="D992" s="27"/>
+      <c r="C992" s="19"/>
+      <c r="D992" s="20"/>
     </row>
     <row r="993">
-      <c r="C993" s="25"/>
-      <c r="D993" s="27"/>
+      <c r="C993" s="19"/>
+      <c r="D993" s="20"/>
     </row>
     <row r="994">
-      <c r="C994" s="25"/>
-      <c r="D994" s="27"/>
+      <c r="C994" s="19"/>
+      <c r="D994" s="20"/>
     </row>
     <row r="995">
-      <c r="C995" s="25"/>
-      <c r="D995" s="27"/>
+      <c r="C995" s="19"/>
+      <c r="D995" s="20"/>
     </row>
     <row r="996">
-      <c r="C996" s="25"/>
-      <c r="D996" s="27"/>
+      <c r="C996" s="19"/>
+      <c r="D996" s="20"/>
     </row>
     <row r="997">
-      <c r="C997" s="25"/>
-      <c r="D997" s="27"/>
+      <c r="C997" s="19"/>
+      <c r="D997" s="20"/>
     </row>
     <row r="998">
-      <c r="C998" s="25"/>
-      <c r="D998" s="27"/>
+      <c r="C998" s="19"/>
+      <c r="D998" s="20"/>
     </row>
     <row r="999">
-      <c r="C999" s="25"/>
-      <c r="D999" s="27"/>
+      <c r="C999" s="19"/>
+      <c r="D999" s="20"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D100">
+  <conditionalFormatting sqref="D3:D18 J3:J14 P3:P14 D31:D100">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="formula" val="0"/>
